--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1946CEB3-D445-4F7D-9447-8C44A1EE3982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19F284C5-2CED-4B93-A839-1609003D318F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="191">
   <si>
     <t>Resource Name</t>
   </si>
@@ -735,6 +735,9 @@
   <si>
     <t>Worked on layout(dashboard), HLD modules  - 3hours
 Discussion with team about HLD and HTML layouts - 2 hours</t>
+  </si>
+  <si>
+    <t>HLD and Angular components</t>
   </si>
   <si>
     <t xml:space="preserve">Discussion with team about HLD and HTML layouts - 2 hours,
@@ -1501,7 +1504,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2601,10 +2604,10 @@
         <v>67</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E9" s="74" t="s">
         <v>69</v>
@@ -2624,7 +2627,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>53</v>
@@ -2670,16 +2673,16 @@
         <v>79</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E12" s="71" t="s">
         <v>69</v>
       </c>
       <c r="F12" s="79" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G12" s="81">
         <v>3</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19F284C5-2CED-4B93-A839-1609003D318F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50823839-F5F7-44D5-815F-651DFDC459F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="1" r:id="rId1"/>
@@ -670,7 +670,7 @@
     <t>HLD and Angular concepts</t>
   </si>
   <si>
-    <t>Completed Entity relationship model(Physical) - 1 hours
+    <t>Completed Entity relationship model- 1 hours
 Discussed with team about HLD and HTML layouts - 4 hours</t>
   </si>
   <si>
@@ -680,7 +680,7 @@
   </si>
   <si>
     <t>Discussed with team about HLD and HTML layouts - 4 hrs
-Worked on Entity Relationship model(physical) - 1 hr</t>
+Worked on Entity Relationship model- 1 hr</t>
   </si>
   <si>
     <t>HLD,Layout</t>
@@ -2140,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198C926E-3232-4832-A216-75288391AF0F}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2423,7 +2423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732E02A6-2D46-412E-A32D-32F49B30C6C1}">
   <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -4721,7 +4721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2ECE6D-158D-40BB-843C-B67963251DCE}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50823839-F5F7-44D5-815F-651DFDC459F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C509F24-4E94-4BBC-BF26-E5A232147DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="18-04-2022" sheetId="9" r:id="rId9"/>
     <sheet name="19-04-2022" sheetId="10" r:id="rId10"/>
     <sheet name="20-04-2022" sheetId="11" r:id="rId11"/>
+    <sheet name="21-04-2022" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="209">
   <si>
     <t>Resource Name</t>
   </si>
@@ -756,6 +757,95 @@
   </si>
   <si>
     <t>4hrs</t>
+  </si>
+  <si>
+    <t>HLD , Web Api</t>
+  </si>
+  <si>
+    <t>Discussion with Team members and spilting the works - 1 hour
+worked on services- 2 hours
+Dicussion with Rafi(services,system architecture,DB diagram)-40 mins
+Meeting with Rafi(Customer meeting)-40 mins
+Soft skill session- 1 hour</t>
+  </si>
+  <si>
+    <t>Html layout for navigation.</t>
+  </si>
+  <si>
+    <t>Explored on Bootstrap( About navigation) - 1.5 hours
+Discussion with team about HLD and splitting of works - 1 hour
+Meeting with Rafi(Customer meeting) -40 mins
+Discussion with Rafi (discussed about services,HLD,DB diagram,audit fields) - 40 mins
+Soft skills session with TN team - 1 hour</t>
+  </si>
+  <si>
+    <t>4hr 50mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB Diagram for ProjectDetails,Achievements,organisation and all history tables  - 2 hrs
+Meeting with rafi(Customer Meeting) - 40 mins
+Discussion with team and Splitting of works - 1 hr
+Soft skills with TN team - 1 hr
+Discussion with Rafi(General Meet about Services,HTML layouts,DB Diagram) - 40 mins
+ </t>
+  </si>
+  <si>
+    <t>Web api sample version for User register</t>
+  </si>
+  <si>
+    <t>Worked on System architecture for profile management  - 1 hour
+Discussion with team about HLD and splitting of works - 1 hour
+Discussion with Rafi (discussed about services,HLD,DB diagram,audit fields) - 40 mins
+Meeting with Rafi(Customer meeting) -40 mins
+Soft skills session with TN team - 1 hour</t>
+  </si>
+  <si>
+    <t>4 hours 20 minutes</t>
+  </si>
+  <si>
+    <t>HTML layout for home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explored on Bootstrap(Cards) - 1.5 hours              Soft skills session with TN team - 1 hr
+Project review Meeting with Rafi - 40 mins
+Session with rafi - 40 mins
+Discussion with team HLD, Layout, Work split- 1 hour
+</t>
+  </si>
+  <si>
+    <t>4 .5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database diagram for -2 hours
+Meeting with Rafi(Customer)- 40 mins
+Session with Rafi about DB DIagram,services - 
+40 mins
+Soft Skill Session with TN Team - 1 hour
+</t>
+  </si>
+  <si>
+    <t>Services,Web API,TypeScript</t>
+  </si>
+  <si>
+    <t>Explored on TypeScript(TypeScript introduction,Datatypes,Implicit and Explicit)-2hrs
+Session with Rafi(Discussed about services,Interacions,Database diagram using sql server and HLD)-40mins
+Softskill session-1hr
+Meeting With Rafi-40mins
+Discussion with team about HLD and splitting of works - 1 hour
+Worked on Non-Functional Requirements and Services-2hrs</t>
+  </si>
+  <si>
+    <t>HTML layouts designing for login page</t>
+  </si>
+  <si>
+    <t>HLD, System architecture</t>
+  </si>
+  <si>
+    <t>Discussion about HLD, system architechture, HTML layout and splitting of works - 1 hour
+Session with Rafi (week plan) - 40 mins
+Review with Rafi(discussed User story, datamodel)-40 mins
+Soft skills session with TN team - 1 hour
+Designed system architechture - 3 hours</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1447,11 +1537,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1480,9 +1576,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1505,12 +1598,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1519,6 +1606,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2141,7 +2246,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2149,10 +2254,10 @@
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23" style="77" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="77" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="77" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="77" customWidth="1"/>
+    <col min="4" max="4" width="23" style="79" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="79" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="79" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="79" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30">
@@ -2165,16 +2270,16 @@
       <c r="C1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="83" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2188,16 +2293,16 @@
       <c r="C2" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="76">
+      <c r="D2" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="78">
         <v>5</v>
       </c>
-      <c r="F2" s="76">
+      <c r="F2" s="78">
         <v>2</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="91" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2211,16 +2316,16 @@
       <c r="C3" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="76">
+      <c r="D3" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="78">
         <v>5</v>
       </c>
-      <c r="F3" s="76">
+      <c r="F3" s="78">
         <v>2</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="84" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2237,13 +2342,13 @@
       <c r="D4" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="84" t="s">
+      <c r="E4" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="85" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2257,16 +2362,16 @@
       <c r="C5" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="76">
+      <c r="D5" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="78">
         <v>5</v>
       </c>
-      <c r="F5" s="76">
+      <c r="F5" s="78">
         <v>1.5</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="84" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2280,16 +2385,16 @@
       <c r="C6" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="76">
+      <c r="D6" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="78">
         <v>5</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="78">
         <v>2</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="84" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2300,19 +2405,19 @@
       <c r="B7" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="75" t="s">
         <v>172</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="78">
+      <c r="E7" s="80">
         <v>4</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="78">
         <v>2</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="86" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2326,16 +2431,16 @@
       <c r="C8" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="76">
+      <c r="D8" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="78">
         <v>4</v>
       </c>
-      <c r="F8" s="80">
+      <c r="F8" s="82">
         <v>3</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="G8" s="87" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2349,16 +2454,16 @@
       <c r="C9" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="87" t="s">
+      <c r="D9" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="88" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2372,16 +2477,16 @@
       <c r="C10" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="83" t="s">
+      <c r="D10" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="84" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2398,13 +2503,13 @@
       <c r="D11" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="79" t="s">
+      <c r="E11" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="70">
         <v>2</v>
       </c>
-      <c r="G11" s="88" t="s">
+      <c r="G11" s="89" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2423,7 +2528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732E02A6-2D46-412E-A32D-32F49B30C6C1}">
   <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2432,10 +2537,10 @@
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="43.42578125" customWidth="1"/>
     <col min="4" max="4" width="39.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="77" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="77" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="77" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" style="77" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="79" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="79" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="79" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" style="79" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="30">
@@ -2448,16 +2553,16 @@
       <c r="D2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="83" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2468,19 +2573,19 @@
       <c r="C3" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="76">
+      <c r="E3" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="78">
         <v>4</v>
       </c>
-      <c r="G3" s="76">
+      <c r="G3" s="78">
         <v>2</v>
       </c>
-      <c r="H3" s="91" t="s">
+      <c r="H3" s="94" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2494,16 +2599,16 @@
       <c r="D4" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="76">
+      <c r="E4" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="78">
         <v>5</v>
       </c>
-      <c r="G4" s="76">
+      <c r="G4" s="78">
         <v>2</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="84" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2514,19 +2619,19 @@
       <c r="C5" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="84" t="s">
+      <c r="D5" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="85" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2540,16 +2645,16 @@
       <c r="D6" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="76">
+      <c r="E6" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="78">
         <v>3.5</v>
       </c>
-      <c r="G6" s="76">
+      <c r="G6" s="78">
         <v>2</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="84" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2563,16 +2668,16 @@
       <c r="D7" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="76">
+      <c r="E7" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="78">
         <v>4</v>
       </c>
-      <c r="G7" s="76">
+      <c r="G7" s="78">
         <v>2</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="84" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2581,7 +2686,7 @@
         <v>62</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>184</v>
@@ -2589,13 +2694,13 @@
       <c r="E8" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="80">
         <v>5</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="78">
         <v>3</v>
       </c>
-      <c r="H8" s="85" t="s">
+      <c r="H8" s="86" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2606,19 +2711,19 @@
       <c r="C9" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="76">
+      <c r="E9" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="78">
         <v>3</v>
       </c>
-      <c r="G9" s="80">
+      <c r="G9" s="82">
         <v>3</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="87" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2632,16 +2737,16 @@
       <c r="D10" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="87" t="s">
+      <c r="E10" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="88" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2655,16 +2760,16 @@
       <c r="D11" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="83" t="s">
+      <c r="E11" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="84" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2672,27 +2777,280 @@
       <c r="B12" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="79" t="s">
+      <c r="E12" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="G12" s="81">
+      <c r="G12" s="70">
         <v>3</v>
       </c>
-      <c r="H12" s="88" t="s">
+      <c r="H12" s="89" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="D13" s="69"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E8F13B-541C-40A2-8AF4-9EDB58903CCB}">
+  <dimension ref="B2:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="96" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" style="96" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="30.75">
+      <c r="B2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="100.5" customHeight="1">
+      <c r="B3" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="99">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="G3" s="78">
+        <v>2</v>
+      </c>
+      <c r="H3" s="94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="136.5" customHeight="1">
+      <c r="B4" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="78">
+        <v>2</v>
+      </c>
+      <c r="H4" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="129.75" customHeight="1">
+      <c r="B5" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="78">
+        <v>4.5</v>
+      </c>
+      <c r="G5" s="78">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="116.25" customHeight="1">
+      <c r="B6" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="78">
+        <v>2</v>
+      </c>
+      <c r="H6" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="98.25" customHeight="1">
+      <c r="B7" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" s="78">
+        <v>2</v>
+      </c>
+      <c r="H7" s="86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="89.25">
+      <c r="B8" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="78"/>
+      <c r="D8" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="78">
+        <v>4</v>
+      </c>
+      <c r="G8" s="82">
+        <v>1</v>
+      </c>
+      <c r="H8" s="87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="148.5">
+      <c r="B9" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="78">
+        <v>4</v>
+      </c>
+      <c r="G9" s="78">
+        <v>3</v>
+      </c>
+      <c r="H9" s="88">
+        <f>-G9</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="75.75" customHeight="1">
+      <c r="B10" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="78">
+        <v>2</v>
+      </c>
+      <c r="G10" s="78">
+        <v>1</v>
+      </c>
+      <c r="H10" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="115.5" customHeight="1">
+      <c r="B11" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="98">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="G11" s="70">
+        <v>3</v>
+      </c>
+      <c r="H11" s="89" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4444,9 +4802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C3792D-572A-407C-B2EB-6DBACD918220}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4639,7 +4995,7 @@
       <c r="F8" s="48">
         <v>3</v>
       </c>
-      <c r="G8" s="90" t="s">
+      <c r="G8" s="73" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4721,8 +5077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2ECE6D-158D-40BB-843C-B67963251DCE}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4736,7 +5092,7 @@
     <col min="7" max="7" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75">
+    <row r="1" spans="1:7" ht="30">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -4755,7 +5111,7 @@
       <c r="F1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="92" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4778,7 +5134,7 @@
       <c r="F2" s="48">
         <v>2</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="93" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4878,7 +5234,7 @@
       <c r="A7" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="90" t="s">
         <v>158</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -4914,7 +5270,7 @@
       <c r="F8" s="48">
         <v>3</v>
       </c>
-      <c r="G8" s="90" t="s">
+      <c r="G8" s="73" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C509F24-4E94-4BBC-BF26-E5A232147DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A3B7D6-97C8-46BC-BE9B-2EBAAA5B56F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="211">
   <si>
     <t>Resource Name</t>
   </si>
@@ -782,7 +782,10 @@
     <t>4hr 50mins</t>
   </si>
   <si>
-    <t xml:space="preserve">DB Diagram for ProjectDetails,Achievements,organisation and all history tables  - 2 hrs
+    <t>DB diagram, HLD ,Typescript overview,Exploration on Web api,Angular concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on DB Diagram for ProjectDetails,Achievements,organisation and all history tables  - 2 hrs
 Meeting with rafi(Customer Meeting) - 40 mins
 Discussion with team and Splitting of works - 1 hr
 Soft skills with TN team - 1 hr
@@ -816,11 +819,15 @@
     <t>4 .5</t>
   </si>
   <si>
+    <t>Db Diagram,Exploration on Web API</t>
+  </si>
+  <si>
     <t xml:space="preserve">Database diagram for -2 hours
 Meeting with Rafi(Customer)- 40 mins
 Session with Rafi about DB DIagram,services - 
 40 mins
 Soft Skill Session with TN Team - 1 hour
+Discussion with team about HLD and splitting of works - 1 hour
 </t>
   </si>
   <si>
@@ -835,7 +842,8 @@
 Worked on Non-Functional Requirements and Services-2hrs</t>
   </si>
   <si>
-    <t>HTML layouts designing for login page</t>
+    <t>HTML layouts designing for login page
+Exploring on Bootstrap</t>
   </si>
   <si>
     <t>HLD, System architecture</t>
@@ -1616,14 +1624,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2808,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E8F13B-541C-40A2-8AF4-9EDB58903CCB}">
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2859,7 +2867,7 @@
       <c r="E3" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="99">
+      <c r="F3" s="98">
         <v>0.18055555555555555</v>
       </c>
       <c r="G3" s="78">
@@ -2897,10 +2905,10 @@
         <v>54</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E5" s="78" t="s">
         <v>69</v>
@@ -2920,16 +2928,16 @@
         <v>11</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E6" s="78" t="s">
         <v>69</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G6" s="78">
         <v>2</v>
@@ -2943,16 +2951,16 @@
         <v>62</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E7" s="51" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G7" s="78">
         <v>2</v>
@@ -2961,13 +2969,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="89.25">
+    <row r="8" spans="2:8" ht="132.75" customHeight="1">
       <c r="B8" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="78"/>
+      <c r="C8" s="78" t="s">
+        <v>204</v>
+      </c>
       <c r="D8" s="32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E8" s="76" t="s">
         <v>69</v>
@@ -2987,10 +2997,10 @@
         <v>28</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E9" s="78" t="s">
         <v>69</v>
@@ -3010,8 +3020,8 @@
       <c r="B10" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="97" t="s">
-        <v>206</v>
+      <c r="C10" s="99" t="s">
+        <v>208</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>69</v>
@@ -3034,15 +3044,15 @@
         <v>79</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D11" s="95" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E11" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="97">
         <v>0.22916666666666666</v>
       </c>
       <c r="G11" s="70">

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A3B7D6-97C8-46BC-BE9B-2EBAAA5B56F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39A7A0BE-8BEE-4E9E-A3E9-DE8517416BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="19-04-2022" sheetId="10" r:id="rId10"/>
     <sheet name="20-04-2022" sheetId="11" r:id="rId11"/>
     <sheet name="21-04-2022" sheetId="12" r:id="rId12"/>
+    <sheet name="22-04-2022" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="227">
   <si>
     <t>Resource Name</t>
   </si>
@@ -854,6 +855,89 @@
 Review with Rafi(discussed User story, datamodel)-40 mins
 Soft skills session with TN team - 1 hour
 Designed system architechture - 3 hours</t>
+  </si>
+  <si>
+    <t>Modified on Services-2 hours
+Interactions(Services and Actions)-1 hour
+Discussion with team members - 1 hour
+Meeting with rafi- 1 hour
+Timesheet and SVN session with TN team - 30 mins</t>
+  </si>
+  <si>
+    <t>Web API</t>
+  </si>
+  <si>
+    <t>Worked on Sidebar Navigation bar - 2hours
+Timesheet and SVN session with TN team - 30 minutes
+Project review Meeting with Rafi - 1 hr
+Discussed system architechture, HTML layout, DB diagrams, Services and Interactions with team  - 1 hr</t>
+  </si>
+  <si>
+    <t>4hours 30minutess</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on DB Diagram for ProjectDetails,Achievements,organisation and all history tables &amp; its relation  - 2 hrs
+Meeting with rafi(Customer Meeting) - 1 hr
+Timesheet and SVN session with TN team - 30 mins
+Discussed system architechture, HTML layout, DB diagrams, Services and Interactions with team  - 1 hour
+Understanding of System Architecture &amp; HTML layout - 30 mins
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on System architecture for profile management  - 2 hours
+Discussed system architechture, HTML layout, DB diagrams, Services and Interactions with team  - 1 hour
+Meeting with Rafi(Customer meeting) - 1hour
+Timesheet and SVN session with TN team - 30 mins
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Worked on Cards in Layout - 1.5 hours              
+Timesheet and SVN session with TN team - 30 mins
+Project review Meeting with Rafi - 1 hr
+Discussed system architechture, HTML layout, DB diagrams, Services and Interactions with team  - 1 hour</t>
+  </si>
+  <si>
+    <t>Database diagram for -2 hours
+Meeting with Rafi(Customer)- 1 hour
+Timesheet and SVN session with TN team - 30 mins
+Discussion WIth Team members- 1 hour</t>
+  </si>
+  <si>
+    <t>Services,Web API</t>
+  </si>
+  <si>
+    <t>Explored on TypeScript(Implicit and Explicit,enums,functions tried sample programs using functions)-2hrs
+Meeting With Rafi-1hr
+Timesheet and SVN session-30mins
+Discussion with team Members - 1hour
+Worked on Services-2hrs</t>
+  </si>
+  <si>
+    <t>Exploring on Bootstrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timesheet and SVN session with TN team - 30 mins
+Project review Meeting with Rafi - 1 hr
+Discussed system architechture, HTML layout, DB diagrams, Services and Interactions with team  - 1 hr
+HTML layout for login page - 1 hr 30 mins
+Entity model with opearation - 1hr
+ </t>
+  </si>
+  <si>
+    <t>Web API, System Architechture</t>
+  </si>
+  <si>
+    <t>Discussed system architechture, HTML layout, DB diagrams, Services and Interactions with team  - 1 hour
+Review with Rafi(discussed HTML layout, system architechture, Services, datamodel)  - 1 hour
+Timesheet and SVN session with TN team - 30 mins
+Designed system architechture - 3:30 mins</t>
+  </si>
+  <si>
+    <t>6 hrs</t>
   </si>
 </sst>
 </file>
@@ -2816,8 +2900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E8F13B-541C-40A2-8AF4-9EDB58903CCB}">
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3059,6 +3143,260 @@
         <v>3</v>
       </c>
       <c r="H11" s="89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0775F4-EFCC-40B5-B7EE-CF29D99B6F34}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="120" customHeight="1">
+      <c r="A2" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="98">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F2" s="78">
+        <v>2</v>
+      </c>
+      <c r="G2" s="94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="133.5" customHeight="1">
+      <c r="A3" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="132.75" customHeight="1">
+      <c r="A4" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="78">
+        <v>5</v>
+      </c>
+      <c r="F4" s="78">
+        <v>2</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="100.5" customHeight="1">
+      <c r="A5" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="78">
+        <v>4.5</v>
+      </c>
+      <c r="F5" s="78">
+        <v>2</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="126" customHeight="1">
+      <c r="A6" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" s="78">
+        <v>2</v>
+      </c>
+      <c r="G6" s="86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="129.75" customHeight="1">
+      <c r="A7" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="78">
+        <v>4.5</v>
+      </c>
+      <c r="F7" s="82">
+        <v>2</v>
+      </c>
+      <c r="G7" s="87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="168.75" customHeight="1">
+      <c r="A8" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="78">
+        <v>4</v>
+      </c>
+      <c r="F8" s="78">
+        <v>3</v>
+      </c>
+      <c r="G8" s="88" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="96.75" customHeight="1">
+      <c r="A9" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="78">
+        <v>5</v>
+      </c>
+      <c r="F9" s="78">
+        <v>2</v>
+      </c>
+      <c r="G9" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="88.5" customHeight="1">
+      <c r="A10" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" s="70">
+        <v>2</v>
+      </c>
+      <c r="G10" s="89" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39A7A0BE-8BEE-4E9E-A3E9-DE8517416BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3586673-C180-4C22-BB0A-184C189EC469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="20-04-2022" sheetId="11" r:id="rId11"/>
     <sheet name="21-04-2022" sheetId="12" r:id="rId12"/>
     <sheet name="22-04-2022" sheetId="13" r:id="rId13"/>
+    <sheet name="23-04-2022" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="236">
   <si>
     <t>Resource Name</t>
   </si>
@@ -938,6 +939,57 @@
   </si>
   <si>
     <t>6 hrs</t>
+  </si>
+  <si>
+    <t>Discussion with team members (Services and DB diagrams)  - 1 hour
+Meeting with rafi(Reviewed Services,System architecture,HTML layout)- 1 hour
+Softskill with TN Team- 1:30 hours
+Modified Services - 2 hours</t>
+  </si>
+  <si>
+    <t>Discussed DB diagrams, Services with team  - 1 hour
+Softskill with TN Team - 1:30 hours
+Review with Rafi(discussed HTML layout, system architechture, Services)  - 1 hour
+Modified Common page layout - 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussion with team members (Services and DB diagrams)  - 1 hour
+Meeting with rafi(Customer Meeting) - 1 hr
+Softskill with TN Team- 1:30 hours
+Worked on Services(including methods and naming) - 1 hr
+Worked on DB diagrams - 30 mins
+ </t>
+  </si>
+  <si>
+    <t>Modified the System architecture for profile management  - 30 minutes
+Discussed  DB diagrams, Services and Interactions with team  - 1 hour
+Meeting with Rafi(Reviewed Services,HTML layout,system architecture) - 1hour
+Softskill with TN Team- 1 hour 30minutes</t>
+  </si>
+  <si>
+    <t>Created the prototype for Forgot password and modified the layout for cards - 1 hrs
+Discussed DB diagrams, Services with team  - 1 hrs
+Review with Rafi(discussed HTML layout, system architechture, Services)  - 1 hour
+Softskill with TN Team - 1:30 hrs</t>
+  </si>
+  <si>
+    <t>search Operation under Profile services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Meeting with Rafi(Customer)- 1 hour
+softskill session with TN team- 1.5 hours
+Discussion WIth Team members about services - 1 hour
+Modification on services- 1 hour</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>Discussed DB diagrams, Services with team  - 1 hrs
+Review with Rafi(discussed HTML layout, system architechture, Services)  - 1 hour
+Softskill with TN Team - 1:30 hrs
+Modified system architechture,working on web API - 2 hrs</t>
   </si>
 </sst>
 </file>
@@ -3155,8 +3207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0775F4-EFCC-40B5-B7EE-CF29D99B6F34}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3392,6 +3444,260 @@
       </c>
       <c r="E10" s="97" t="s">
         <v>226</v>
+      </c>
+      <c r="F10" s="70">
+        <v>2</v>
+      </c>
+      <c r="G10" s="89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B2992B-C7F6-456E-AFA2-7AED855ED1C5}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="90.75" customHeight="1">
+      <c r="A2" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="98">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F2" s="78">
+        <v>2</v>
+      </c>
+      <c r="G2" s="94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="90" customHeight="1">
+      <c r="A3" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="147.75" customHeight="1">
+      <c r="A4" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="78">
+        <v>4</v>
+      </c>
+      <c r="F4" s="78">
+        <v>1</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="111" customHeight="1">
+      <c r="A5" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="78">
+        <v>4</v>
+      </c>
+      <c r="F5" s="78">
+        <v>2</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="105" customHeight="1">
+      <c r="A6" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" s="78">
+        <v>1</v>
+      </c>
+      <c r="G6" s="86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="123.75" customHeight="1">
+      <c r="A7" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="78">
+        <v>4</v>
+      </c>
+      <c r="F7" s="82">
+        <v>1</v>
+      </c>
+      <c r="G7" s="87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="114.75" customHeight="1">
+      <c r="A8" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="88" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="132" customHeight="1">
+      <c r="A9" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="126" customHeight="1">
+      <c r="A10" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>76</v>
       </c>
       <c r="F10" s="70">
         <v>2</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3586673-C180-4C22-BB0A-184C189EC469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10EDF816-ECB1-4E91-9166-95DBDF4BD0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="237">
   <si>
     <t>Resource Name</t>
   </si>
@@ -945,6 +945,9 @@
 Meeting with rafi(Reviewed Services,System architecture,HTML layout)- 1 hour
 Softskill with TN Team- 1:30 hours
 Modified Services - 2 hours</t>
+  </si>
+  <si>
+    <t>Web API,working on profile template</t>
   </si>
   <si>
     <t>Discussed DB diagrams, Services with team  - 1 hour
@@ -3207,7 +3210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0775F4-EFCC-40B5-B7EE-CF29D99B6F34}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -3461,8 +3464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B2992B-C7F6-456E-AFA2-7AED855ED1C5}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3527,10 +3530,10 @@
         <v>48</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D3" s="78" t="s">
         <v>69</v>
@@ -3553,7 +3556,7 @@
         <v>196</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D4" s="78" t="s">
         <v>69</v>
@@ -3576,7 +3579,7 @@
         <v>198</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D5" s="78" t="s">
         <v>69</v>
@@ -3599,7 +3602,7 @@
         <v>201</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>69</v>
@@ -3619,10 +3622,10 @@
         <v>67</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D7" s="76" t="s">
         <v>69</v>
@@ -3645,7 +3648,7 @@
         <v>220</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D8" s="78" t="s">
         <v>69</v>
@@ -3668,7 +3671,7 @@
         <v>222</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D9" s="78" t="s">
         <v>69</v>
@@ -3691,7 +3694,7 @@
         <v>212</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D10" s="72" t="s">
         <v>69</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10EDF816-ECB1-4E91-9166-95DBDF4BD0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08405894-06EE-4591-A891-3380E2748E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="21-04-2022" sheetId="12" r:id="rId12"/>
     <sheet name="22-04-2022" sheetId="13" r:id="rId13"/>
     <sheet name="23-04-2022" sheetId="14" r:id="rId14"/>
+    <sheet name="25-04-2022" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="253">
   <si>
     <t>Resource Name</t>
   </si>
@@ -986,6 +987,13 @@
 Modification on services- 1 hour</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Activity with TN team- 1.5 hours
+Discussion WIth Team members about services - 1 hour
+Meeting with Rafi- 1 hour
+Moified services,created WebAPI - 2hour</t>
+  </si>
+  <si>
     <t>ab</t>
   </si>
   <si>
@@ -993,6 +1001,70 @@
 Review with Rafi(discussed HTML layout, system architechture, Services)  - 1 hour
 Softskill with TN Team - 1:30 hrs
 Modified system architechture,working on web API - 2 hrs</t>
+  </si>
+  <si>
+    <t>Web Api</t>
+  </si>
+  <si>
+    <t>Discussion with Team members(Services and operations)-1 hour
+Meeting with Rafi(Services,Interactions)-1 hour
+Modified Services and Datamodel - 2 hours</t>
+  </si>
+  <si>
+    <t>4 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on Wizard menu for getting Profile Details,Web API </t>
+  </si>
+  <si>
+    <t>Home Page Layout completed - 3hours
+Discussion with team about Services and Operations  - 1 hour
+Meeting with Rafi(Reviewed Services,Operations,Interactions) - 1hour</t>
+  </si>
+  <si>
+    <t>5hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration on Angular Concepts
+Exploration on Web API
+Exploration on EF-Code First
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussion with team about Services and Operations  - 1 hr
+Working on Web Api - 2 hrs
+ </t>
+  </si>
+  <si>
+    <t>Discussion with team about Services and Operations  - 1 hour
+Meeting with Rafi(Reviewed Services,Operations,Interactions) - 1hour
+Working on Web api - 2hours</t>
+  </si>
+  <si>
+    <t>Working on Layout for change password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cards Layout completed - 3hours
+Discussion with team about Services and Operations  - 1 hour
+Meeting with Rafi(Reviewed Services,Operations,Interactions) - 1hour
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MyProfile HTML Layout </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Meeting with Rafi(customer) reviewed operations on Profile service - 1 hour,
+Discussion WIth Team members about services and Operations - 1 hour,
+Created MyProfile page with Accordian - 2 hours</t>
+  </si>
+  <si>
+    <t>Discussed Operations with team  - 1 hr
+Review with Rafi(discussed Services and Interactions)  - 1 hr
+Modified services and Interactions, working on web API - 2 hrs</t>
+  </si>
+  <si>
+    <t>4 hrs</t>
   </si>
 </sst>
 </file>
@@ -3464,8 +3536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B2992B-C7F6-456E-AFA2-7AED855ED1C5}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3653,11 +3725,11 @@
       <c r="D8" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="78" t="s">
-        <v>69</v>
+      <c r="E8" s="98">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F8" s="78">
+        <v>2</v>
       </c>
       <c r="G8" s="88" t="s">
         <v>69</v>
@@ -3671,7 +3743,7 @@
         <v>222</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D9" s="78" t="s">
         <v>69</v>
@@ -3694,7 +3766,7 @@
         <v>212</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D10" s="72" t="s">
         <v>69</v>
@@ -3706,6 +3778,260 @@
         <v>2</v>
       </c>
       <c r="G10" s="89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F865C6-9385-4EAB-B6F7-8778F31EB47C}">
+  <dimension ref="B2:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="45">
+      <c r="B2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="99" customHeight="1">
+      <c r="B3" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="98" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" s="78">
+        <v>2</v>
+      </c>
+      <c r="H3" s="94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="91.5" customHeight="1">
+      <c r="B4" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="92.25" customHeight="1">
+      <c r="B5" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="78">
+        <v>3</v>
+      </c>
+      <c r="G5" s="78">
+        <v>3</v>
+      </c>
+      <c r="H5" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="109.5" customHeight="1">
+      <c r="B6" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="78">
+        <v>4</v>
+      </c>
+      <c r="G6" s="78">
+        <v>2</v>
+      </c>
+      <c r="H6" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="117" customHeight="1">
+      <c r="B7" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="80">
+        <v>4</v>
+      </c>
+      <c r="G7" s="78">
+        <v>1</v>
+      </c>
+      <c r="H7" s="86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="116.25" customHeight="1">
+      <c r="B8" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="78">
+        <v>4</v>
+      </c>
+      <c r="G8" s="82">
+        <v>2</v>
+      </c>
+      <c r="H8" s="87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="30">
+      <c r="B9" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="88" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="38.25">
+      <c r="B10" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="107.25" customHeight="1">
+      <c r="B11" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="E11" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="97" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" s="70">
+        <v>2</v>
+      </c>
+      <c r="H11" s="89" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08405894-06EE-4591-A891-3380E2748E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55721AB7-0043-495C-BD1B-AD37993B9293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="22-04-2022" sheetId="13" r:id="rId13"/>
     <sheet name="23-04-2022" sheetId="14" r:id="rId14"/>
     <sheet name="25-04-2022" sheetId="15" r:id="rId15"/>
+    <sheet name="26-04-2022" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="266">
   <si>
     <t>Resource Name</t>
   </si>
@@ -971,7 +972,7 @@
 Softskill with TN Team- 1 hour 30minutes</t>
   </si>
   <si>
-    <t>Created the prototype for Forgot password and modified the layout for cards - 1 hrs
+    <t>Created the prototype for Change password and modified the layout for cards - 1 hrs
 Discussed DB diagrams, Services with team  - 1 hrs
 Review with Rafi(discussed HTML layout, system architechture, Services)  - 1 hour
 Softskill with TN Team - 1:30 hrs</t>
@@ -1041,7 +1042,7 @@
 Working on Web api - 2hours</t>
   </si>
   <si>
-    <t>Working on Layout for change password</t>
+    <t>Working on Layout for forgot password password</t>
   </si>
   <si>
     <t xml:space="preserve">Cards Layout completed - 3hours
@@ -1065,6 +1066,71 @@
   </si>
   <si>
     <t>4 hrs</t>
+  </si>
+  <si>
+    <t>Exploring on Web Api</t>
+  </si>
+  <si>
+    <t>Discussion with Team members(Web Api and layout)-2 hour
+Meeting with Rafi(Services)-1 hour
+Modified Services and working on web api(dbcontext) - 2 hours</t>
+  </si>
+  <si>
+    <t>5 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussion with team about HTML layouts  - 1 hour
+Meeting with Rafi(Reviewed Services and operations) - 1 hour
+Did HTML Estimation for home page and forgot password page- 30minutes 
+Working on HTML layouts(wizard menu) - 3hours
+</t>
+  </si>
+  <si>
+    <t>5hours 30 minutes</t>
+  </si>
+  <si>
+    <t>Discussion with team on Web API - 2 hr
+Meeting with Rafi(Customer Meeting) - 1 hr
+HTML Layout for User Creation Page - 1.5 hr
+Created estimation for Education,project,skills page - 30 min</t>
+  </si>
+  <si>
+    <t>Discussion with team about web api  - 2 hours
+Meeting with Rafi(Reviewed Services and operations) - 1hour
+Did HTML Estimation for results viewing page(cards),Profile viewing page and personal details entering page - 30 minutes
+Modified services and operations- 30minutes 
+Working on web api for user creation(dbContext,migrations) - 2 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on Layout </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forgot Password Layout completed - 2hours
+Created estimation for Login and change password-30min
+Meeting with Rafi(customer meeting) - 1hour
+discussion with team about html-1hours
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Meeting with Rafi(customer) reviewed operations on Profile service - 1 hour,
+Discussion WIth Team members about services and Operations - 1 hour,
+modification of  MyProfile page and create profile page with Accordian - 2 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Created Webapi Get and Post end points for user-2hrs
+Discussion with team about web api and HTML layouts  - 2 hours
+Meeting with Rafi(services,Estimation,HTML Layouts)-1hour</t>
+  </si>
+  <si>
+    <t>Web API, HTML Layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussed Web API with team - 2 hr
+Review with Rafi(discussed Services) - 1 hr
+Decided estimation for profile history,user creation,achievements and working on layout- 2 hrs
+</t>
   </si>
 </sst>
 </file>
@@ -3537,7 +3603,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3790,8 +3856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F865C6-9385-4EAB-B6F7-8778F31EB47C}">
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4032,6 +4098,260 @@
         <v>2</v>
       </c>
       <c r="H11" s="89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE900E3-DEA1-432B-B896-AC8948918348}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="111.75" customHeight="1">
+      <c r="A2" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="78">
+        <v>2</v>
+      </c>
+      <c r="G2" s="94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="102.75" customHeight="1">
+      <c r="A3" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="97.5" customHeight="1">
+      <c r="A4" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="78">
+        <v>5</v>
+      </c>
+      <c r="F4" s="78">
+        <v>3</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="160.5" customHeight="1">
+      <c r="A5" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="78">
+        <v>4</v>
+      </c>
+      <c r="F5" s="78">
+        <v>2</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="130.5" customHeight="1">
+      <c r="A6" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="80">
+        <v>4.5</v>
+      </c>
+      <c r="F6" s="78">
+        <v>2</v>
+      </c>
+      <c r="G6" s="86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="159" customHeight="1">
+      <c r="A7" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="78">
+        <v>4</v>
+      </c>
+      <c r="F7" s="82">
+        <v>2</v>
+      </c>
+      <c r="G7" s="87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="89.25">
+      <c r="A8" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="78">
+        <v>5</v>
+      </c>
+      <c r="F8" s="78">
+        <v>3</v>
+      </c>
+      <c r="G8" s="88" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="38.25">
+      <c r="A9" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="91.5" customHeight="1">
+      <c r="A10" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="70">
+        <v>2</v>
+      </c>
+      <c r="G10" s="89" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55721AB7-0043-495C-BD1B-AD37993B9293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50B48B5A-609D-4EF7-9CF0-FA4E5DF332D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="23-04-2022" sheetId="14" r:id="rId14"/>
     <sheet name="25-04-2022" sheetId="15" r:id="rId15"/>
     <sheet name="26-04-2022" sheetId="16" r:id="rId16"/>
+    <sheet name="27-04-2022" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="272">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1131,6 +1132,37 @@
 Review with Rafi(discussed Services) - 1 hr
 Decided estimation for profile history,user creation,achievements and working on layout- 2 hrs
 </t>
+  </si>
+  <si>
+    <t>HTML layout</t>
+  </si>
+  <si>
+    <t>(8:45am - 9.30am) - Did estimation for HTML pages -  45minutes
+(9:30 am - 10:30am) - Softskills session with TN team - 1hour
+(11:15am - 12.30pm) - Reviewed Services and operations - 1hour 15minutes
+(1:00pm - 1:22pm) - Meeting with Rafi[reviewed HTML estimation] - 22minutes
+(2:30pm - 4:00pm) - Published HTML code in github and modified the changes in HTML layout - 1hour 30minutes
+(4.30pm - 5:30pm) - Modified the changes in Login page - 1hour
+(5.30pm - 6:00pm) - Discussion with team about splitting of works for HTML layout - 30minutes
+(9:00pm - 10:00pm) - Modified the changes in Login page - 1hour</t>
+  </si>
+  <si>
+    <t>6 hours 22 minutes</t>
+  </si>
+  <si>
+    <t>Created Webapi Get and Post end points for user-2hrs
+Discussion with team about web api and HTML layouts  - 2 hours
+Meeting with Rafi(services,Estimation,HTML Layouts)-1hour</t>
+  </si>
+  <si>
+    <t>HTML Layout,Angular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Review with Rafi(discussed Services) - 22 mins (01:00pm- 01:22pm)
+HTML Reviewed and discussed - 3:15 hrs (2:45pm - 06:00pm)
+Modified estimation for profile history,user creation,achievements - 1hr (07:30pm - 08:30pm)  
+Modified Wiizard layout</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1909,6 +1941,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3603,7 +3650,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3856,8 +3903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F865C6-9385-4EAB-B6F7-8778F31EB47C}">
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4110,8 +4157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE900E3-DEA1-432B-B896-AC8948918348}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4341,6 +4388,258 @@
       </c>
       <c r="C10" s="95" t="s">
         <v>265</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="70">
+        <v>2</v>
+      </c>
+      <c r="G10" s="89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE57188-5E1A-469F-A0CE-734C5E84D1D5}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" style="104" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="111" customHeight="1">
+      <c r="A2" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="102"/>
+      <c r="D2" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="78">
+        <v>2</v>
+      </c>
+      <c r="G2" s="94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="135" customHeight="1">
+      <c r="A3" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="103.5" customHeight="1">
+      <c r="A4" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="102" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="78">
+        <v>5</v>
+      </c>
+      <c r="F4" s="78">
+        <v>3</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="285" customHeight="1">
+      <c r="A5" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>268</v>
+      </c>
+      <c r="F5" s="78">
+        <v>1</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="152.25" customHeight="1">
+      <c r="A6" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="80">
+        <v>4.5</v>
+      </c>
+      <c r="F6" s="78">
+        <v>2</v>
+      </c>
+      <c r="G6" s="86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="104.25" customHeight="1">
+      <c r="A7" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="78">
+        <v>4</v>
+      </c>
+      <c r="F7" s="82">
+        <v>2</v>
+      </c>
+      <c r="G7" s="87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="106.5" customHeight="1">
+      <c r="A8" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="102" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="78">
+        <v>5</v>
+      </c>
+      <c r="F8" s="78">
+        <v>3</v>
+      </c>
+      <c r="G8" s="88" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="144" customHeight="1">
+      <c r="A10" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="100" t="s">
+        <v>271</v>
       </c>
       <c r="D10" s="72" t="s">
         <v>69</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50B48B5A-609D-4EF7-9CF0-FA4E5DF332D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7507EC8D-1570-4906-90AD-8154A6C72575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1134,7 +1134,7 @@
 </t>
   </si>
   <si>
-    <t>HTML layout</t>
+    <t>WEebapi</t>
   </si>
   <si>
     <t>(8:45am - 9.30am) - Did estimation for HTML pages -  45minutes
@@ -4411,8 +4411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE57188-5E1A-469F-A0CE-734C5E84D1D5}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7507EC8D-1570-4906-90AD-8154A6C72575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE8F6015-C52D-4B6E-A568-EDB3BD287F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="275">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1132,6 +1132,29 @@
 Review with Rafi(discussed Services) - 1 hr
 Decided estimation for profile history,user creation,achievements and working on layout- 2 hrs
 </t>
+  </si>
+  <si>
+    <t>Working on HTML Layout(User Creation) : 8.45 - 9:30 (45 mins)  
+Softskill session(Problem Solving) : 9:30 - 10:20 (50 mins)
+Tea break : 10:20 - 10:40 (20 mins)
+Updated Timesheet : 10:40 - 10:55 (15 mins)
+Discussed on Services and Operations : 11.00 - 12.30 (90 mins) 
+Idle : 12:30 - 12:55 (25 mins)     
+Meeting with Rafi(Customer Meeting) : 1:00 - 1:20 (20 mins)
+Lunch Break : 1.20 - 2.00 (40 mins)
+Idle : 2:00 - 2:30 (30 mins) 
+Splitting of works &amp; consolidating all opearions in HTML Layouts : 2:30 - 4:00 (90 mins) 
+Exploration on WebApi : 4:00 - 4:30 (30 mins)
+Coffee break : 4:30 - 4:45 (15 mins)
+Exploration on web api : 4:45 - 5:45 (60 mins)
+Brushing up of Basics(C#,ADO.Net) : 7:00 - 8:00 (60 mins)
+Learning on Web Api,EF : 9:00 - 10:00 (60 mins)</t>
+  </si>
+  <si>
+    <t>4 hours and 50 minutes</t>
+  </si>
+  <si>
+    <t>5 hours and 20 minutes</t>
   </si>
   <si>
     <t>WEebapi</t>
@@ -4411,8 +4434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE57188-5E1A-469F-A0CE-734C5E84D1D5}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4470,7 +4493,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="135" customHeight="1">
+    <row r="3" spans="1:7" ht="66" customHeight="1">
       <c r="A3" s="55" t="s">
         <v>48</v>
       </c>
@@ -4493,7 +4516,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="103.5" customHeight="1">
+    <row r="4" spans="1:7" ht="320.25" customHeight="1">
       <c r="A4" s="55" t="s">
         <v>54</v>
       </c>
@@ -4501,16 +4524,16 @@
         <v>244</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D4" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="78">
-        <v>5</v>
-      </c>
-      <c r="F4" s="78">
-        <v>3</v>
+      <c r="E4" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>268</v>
       </c>
       <c r="G4" s="84" t="s">
         <v>69</v>
@@ -4521,16 +4544,16 @@
         <v>11</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C5" s="102" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D5" s="78" t="s">
         <v>69</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F5" s="78">
         <v>1</v>
@@ -4593,7 +4616,7 @@
         <v>212</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D8" s="78" t="s">
         <v>69</v>
@@ -4636,10 +4659,10 @@
         <v>79</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D10" s="72" t="s">
         <v>69</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE8F6015-C52D-4B6E-A568-EDB3BD287F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A87478D-B258-4D32-A895-C37A9E55CFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="277">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1132,6 +1132,17 @@
 Review with Rafi(discussed Services) - 1 hr
 Decided estimation for profile history,user creation,achievements and working on layout- 2 hrs
 </t>
+  </si>
+  <si>
+    <t>(9:30am - 10:30am)- Softskills session with TN team - 1 hour
+(11:00am - 12:30 pm)- Modified Services and Operations - 1 hour 30 minutes
+(1:00pm - 1:22pm)- Meeting with Rafi(Estimation,Services)-22 mins
+(2:30pm - 4:00pm) - Worked on Web Api(DbContext and migrations)-1 hour 30 minutes
+(4:30pm - 5:30pm) - HTML Reviewed and Discussed - 1 hour 
+(9:00pm - 10:00pm)- Modified changes in Login page - 1 hour</t>
+  </si>
+  <si>
+    <t>6 hours 22 minutes</t>
   </si>
   <si>
     <t>Working on HTML Layout(User Creation) : 8.45 - 9:30 (45 mins)  
@@ -1170,22 +1181,29 @@
 (9:00pm - 10:00pm) - Modified the changes in Login page - 1hour</t>
   </si>
   <si>
-    <t>6 hours 22 minutes</t>
-  </si>
-  <si>
     <t>Created Webapi Get and Post end points for user-2hrs
 Discussion with team about web api and HTML layouts  - 2 hours
 Meeting with Rafi(services,Estimation,HTML Layouts)-1hour</t>
   </si>
   <si>
-    <t>HTML Layout,Angular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Review with Rafi(discussed Services) - 22 mins (01:00pm- 01:22pm)
-HTML Reviewed and discussed - 3:15 hrs (2:45pm - 06:00pm)
-Modified estimation for profile history,user creation,achievements - 1hr (07:30pm - 08:30pm)  
-Modified Wiizard layout</t>
+    <t>HTML Layout, Angular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated and pushed User story, MOM and Timesheet - 30 mins                     
+(08:30 am - 09:00 am)
+Decided HTML estimation - 30 mins             (09:00 am - 09:30 am)
+Softskill session with TN Team - 1 hr                (09:30 am - 10:30 am)
+Modified HTML and discussed services with team - 2 hrs  (11:00 am - 01:00 pm)
+Review with Rafi(discussed Services) - 22 mins           (01:00 pm- 01:22 pm)
+HTML Reviewed and discussed - 3:30 hrs        (2:30pm - 06:00pm)
+Modified estimation for profile history,user creation,achievements - 30 mins (07:30pm - 08:00pm)  
+Modified Wizard layout - 1:30 hrs      (08:30 pm - 10:00 pm)
+Explored Angular - 40 mins             (10:00 pm - 10:40 pm)
+</t>
+  </si>
+  <si>
+    <t>07:52 hrs(at office)
+02:40 hrs</t>
   </si>
 </sst>
 </file>
@@ -4434,15 +4452,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE57188-5E1A-469F-A0CE-734C5E84D1D5}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" style="104" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" style="104" customWidth="1"/>
     <col min="4" max="4" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
@@ -4472,28 +4490,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="111" customHeight="1">
+    <row r="2" spans="1:7" ht="100.5" customHeight="1">
       <c r="A2" s="55" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="102"/>
+      <c r="C2" s="102" t="s">
+        <v>266</v>
+      </c>
       <c r="D2" s="78" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="98" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="F2" s="78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="94" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="66" customHeight="1">
+    <row r="3" spans="1:7" ht="125.25" customHeight="1">
       <c r="A3" s="55" t="s">
         <v>48</v>
       </c>
@@ -4516,7 +4536,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="320.25" customHeight="1">
+    <row r="4" spans="1:7" ht="254.25" customHeight="1">
       <c r="A4" s="55" t="s">
         <v>54</v>
       </c>
@@ -4524,16 +4544,16 @@
         <v>244</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D4" s="78" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F4" s="78" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G4" s="84" t="s">
         <v>69</v>
@@ -4544,16 +4564,16 @@
         <v>11</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C5" s="102" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D5" s="78" t="s">
         <v>69</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F5" s="78">
         <v>1</v>
@@ -4616,7 +4636,7 @@
         <v>212</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D8" s="78" t="s">
         <v>69</v>
@@ -4654,21 +4674,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="144" customHeight="1">
+    <row r="10" spans="1:7" ht="158.25" customHeight="1">
       <c r="A10" s="61" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D10" s="72" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="97" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="F10" s="70">
         <v>2</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83116581-E3CA-458A-9236-4C89E3409506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A87478D-B258-4D32-A895-C37A9E55CFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="277">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1132,6 +1132,17 @@
 Review with Rafi(discussed Services) - 1 hr
 Decided estimation for profile history,user creation,achievements and working on layout- 2 hrs
 </t>
+  </si>
+  <si>
+    <t>(9:30am - 10:30am)- Softskills session with TN team - 1 hour
+(11:00am - 12:30 pm)- Modified Services and Operations - 1 hour 30 minutes
+(1:00pm - 1:22pm)- Meeting with Rafi(Estimation,Services)-22 mins
+(2:30pm - 4:00pm) - Worked on Web Api(DbContext and migrations)-1 hour 30 minutes
+(4:30pm - 5:30pm) - HTML Reviewed and Discussed - 1 hour 
+(9:00pm - 10:00pm)- Modified changes in Login page - 1 hour</t>
+  </si>
+  <si>
+    <t>6 hours 22 minutes</t>
   </si>
   <si>
     <t>Working on HTML Layout(User Creation) : 8.45 - 9:30 (45 mins)  
@@ -1170,37 +1181,29 @@
 (9:00pm - 10:00pm) - Modified the changes in Login page - 1hour</t>
   </si>
   <si>
-    <t>6 hours 22 minutes</t>
-  </si>
-  <si>
-    <t>Watched WebAPI Course in udemy using Code first approch-8.45-9.30(45 mins)
-Softskill session(Problem Solving) : 9:30 - 10:20 (50 mins)
-Tea break : 10:20 - 10:40 (20 mins)
-Updated Timesheet : 10:40 - 10:50 (10 mins)
-Created WebAPI for User in ProfileManagement without following SOC: 10.50 - 1.00 (130 mins)  
-Meeting with Rafi(Customer Meeting) : 1:00 - 1:20 (20 mins)
-Lunch Break : 1.20 - 2.00 (40 mins)
-Again worked on web api to complete all operations-2.10-4.15(125mins) 
-Coffee break : 4:30 - 4:45 (15 mins)
-Discussed with Mani bro regarding splitting of dependencies: 4:45 - 5:10 (25 mins)
-Idle-5.15-5.45(30 mins)
-Explored EF : 7:00 - 8:00 (60 mins)</t>
-  </si>
-  <si>
-    <t>4h30mins</t>
-  </si>
-  <si>
-    <t>4hours</t>
-  </si>
-  <si>
-    <t>HTML Layout,Angular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Review with Rafi(discussed Services) - 22 mins (01:00pm- 01:22pm)
-HTML Reviewed and discussed - 3:15 hrs (2:45pm - 06:00pm)
-Modified estimation for profile history,user creation,achievements - 1hr (07:30pm - 08:30pm)  
-Modified Wiizard layout</t>
+    <t>Created Webapi Get and Post end points for user-2hrs
+Discussion with team about web api and HTML layouts  - 2 hours
+Meeting with Rafi(services,Estimation,HTML Layouts)-1hour</t>
+  </si>
+  <si>
+    <t>HTML Layout, Angular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated and pushed User story, MOM and Timesheet - 30 mins                     
+(08:30 am - 09:00 am)
+Decided HTML estimation - 30 mins             (09:00 am - 09:30 am)
+Softskill session with TN Team - 1 hr                (09:30 am - 10:30 am)
+Modified HTML and discussed services with team - 2 hrs  (11:00 am - 01:00 pm)
+Review with Rafi(discussed Services) - 22 mins           (01:00 pm- 01:22 pm)
+HTML Reviewed and discussed - 3:30 hrs        (2:30pm - 06:00pm)
+Modified estimation for profile history,user creation,achievements - 30 mins (07:30pm - 08:00pm)  
+Modified Wizard layout - 1:30 hrs      (08:30 pm - 10:00 pm)
+Explored Angular - 40 mins             (10:00 pm - 10:40 pm)
+</t>
+  </si>
+  <si>
+    <t>07:52 hrs(at office)
+02:40 hrs</t>
   </si>
 </sst>
 </file>
@@ -4449,15 +4452,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE57188-5E1A-469F-A0CE-734C5E84D1D5}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" style="104" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" style="104" customWidth="1"/>
     <col min="4" max="4" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
@@ -4487,28 +4490,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="111" customHeight="1">
+    <row r="2" spans="1:7" ht="100.5" customHeight="1">
       <c r="A2" s="55" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="102"/>
+      <c r="C2" s="102" t="s">
+        <v>266</v>
+      </c>
       <c r="D2" s="78" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="98" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="F2" s="78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="94" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="66" customHeight="1">
+    <row r="3" spans="1:7" ht="125.25" customHeight="1">
       <c r="A3" s="55" t="s">
         <v>48</v>
       </c>
@@ -4531,7 +4536,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="320.25" customHeight="1">
+    <row r="4" spans="1:7" ht="254.25" customHeight="1">
       <c r="A4" s="55" t="s">
         <v>54</v>
       </c>
@@ -4539,16 +4544,16 @@
         <v>244</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D4" s="78" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F4" s="78" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G4" s="84" t="s">
         <v>69</v>
@@ -4559,16 +4564,16 @@
         <v>11</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C5" s="102" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D5" s="78" t="s">
         <v>69</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F5" s="78">
         <v>1</v>
@@ -4623,7 +4628,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="268.5" customHeight="1">
+    <row r="8" spans="1:7" ht="106.5" customHeight="1">
       <c r="A8" s="55" t="s">
         <v>28</v>
       </c>
@@ -4631,16 +4636,16 @@
         <v>212</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D8" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="78" t="s">
-        <v>273</v>
-      </c>
-      <c r="F8" s="78" t="s">
-        <v>274</v>
+      <c r="E8" s="78">
+        <v>5</v>
+      </c>
+      <c r="F8" s="78">
+        <v>3</v>
       </c>
       <c r="G8" s="88" t="s">
         <v>69</v>
@@ -4669,21 +4674,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="144" customHeight="1">
+    <row r="10" spans="1:7" ht="158.25" customHeight="1">
       <c r="A10" s="61" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="71" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="100" t="s">
         <v>275</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="D10" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="97" t="s">
         <v>276</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="97" t="s">
-        <v>252</v>
       </c>
       <c r="F10" s="70">
         <v>2</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A87478D-B258-4D32-A895-C37A9E55CFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A968AD78-EE5B-4CE2-8A82-ECAA85D2127A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="281">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1179,6 +1179,35 @@
 (4.30pm - 5:30pm) - Modified the changes in Login page - 1hour
 (5.30pm - 6:00pm) - Discussion with team about splitting of works for HTML layout - 30minutes
 (9:00pm - 10:00pm) - Modified the changes in Login page - 1hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on HTML Layout(Change Password) : 8.45am - 9:30am (45 mins)  
+Softskill session(Problem Solving) : 9:30am - 10:20am (50 mins) 
+Tea break : 10:20am - 10:45am (20 mins)
+Modified HTML(Forgot Password): 10:45am-11:00am (15 mins)
+Revised the concept of mvc,sql,ado.net and c# : 11:00am - 12:00am (1 hour)
+discussed about services and operation: 12:00pm-1:00pm (1 hour) 
+Meeting with Rafi(Customer Meeting) : 1:00pm - 1:20pm (20 mins) 
+Lunch Break : 1.20 - 2.10 (50 mins) 
+Splitting of works &amp; consolidating all opearions in HTML Layouts : 2:30 - 4:00 (90 mins) 
+Coffee break : 4:30 - 4:45 (15 mins)
+modified the html layout for change password and forgot password :4:45pm - 5:30pm(45 mins) 
+Review meeting with anitha : 5:40pm - 6:00pm(20 mins)
+Created the Prototype for Profile Histroy : 9:30pm - 10:30pm(1 hour) </t>
+  </si>
+  <si>
+    <t>5 hours 35minutes</t>
+  </si>
+  <si>
+    <t>3 hours 35 minutes</t>
+  </si>
+  <si>
+    <t>(8.45 am- 9-15 am) - Modification on myprofile page -30mins
+(9.30 am - 10.30 am) - Softskills session with TN team - 1 hour
+(1pm-1.20pm) Meeting with Rafi(Estimation,Services)-22 mins 
+(2:30pm - 4:00pm) - Worked on Web Api(DbContext and migrations)-1 hour 30 minutes
+(4:30pm - 5:30pm) - HTML Reviewed and Discussed - 1 hour 
+(9:00pm - 10:00pm)- Modified changes in Login page - 1 hour</t>
   </si>
   <si>
     <t>Created Webapi Get and Post end points for user-2hrs
@@ -4452,8 +4481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE57188-5E1A-469F-A0CE-734C5E84D1D5}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4582,7 +4611,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="152.25" customHeight="1">
+    <row r="6" spans="1:7" ht="191.25">
       <c r="A6" s="59" t="s">
         <v>62</v>
       </c>
@@ -4590,16 +4619,16 @@
         <v>260</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="80">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="78">
-        <v>2</v>
+      <c r="E6" s="80" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>275</v>
       </c>
       <c r="G6" s="86" t="s">
         <v>69</v>
@@ -4613,7 +4642,7 @@
         <v>249</v>
       </c>
       <c r="C7" s="102" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="D7" s="76" t="s">
         <v>69</v>
@@ -4636,7 +4665,7 @@
         <v>212</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D8" s="78" t="s">
         <v>69</v>
@@ -4679,16 +4708,16 @@
         <v>79</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D10" s="72" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="97" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F10" s="70">
         <v>2</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A968AD78-EE5B-4CE2-8A82-ECAA85D2127A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A921503-3BB1-48CA-B7A3-64666D105169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="283">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1210,9 +1210,18 @@
 (9:00pm - 10:00pm)- Modified changes in Login page - 1 hour</t>
   </si>
   <si>
-    <t>Created Webapi Get and Post end points for user-2hrs
-Discussion with team about web api and HTML layouts  - 2 hours
-Meeting with Rafi(services,Estimation,HTML Layouts)-1hour</t>
+    <t>Watched WebAPI Course in udemy using Code first approch-8.45-9.30(45 mins)
+Softskill session(Problem Solving) : 9:30 - 10:20 (50 mins)
+Created WebAPI for User in ProfileManagement without following SOC: 10.50 - 1.00 (130 mins)  
+Meeting with Rafi(Customer Meeting) : 1:00 - 1:20 (20 mins)
+Again worked on web api to complete all operations-2.10-4.15(125mins) 
+Explored EF : 7:00 - 8:00 (60 mins)</t>
+  </si>
+  <si>
+    <t>4h30mins</t>
+  </si>
+  <si>
+    <t>3hours</t>
   </si>
   <si>
     <t>HTML Layout, Angular</t>
@@ -4481,8 +4490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE57188-5E1A-469F-A0CE-734C5E84D1D5}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4657,7 +4666,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="106.5" customHeight="1">
+    <row r="8" spans="1:7" ht="249.75" customHeight="1">
       <c r="A8" s="55" t="s">
         <v>28</v>
       </c>
@@ -4670,11 +4679,11 @@
       <c r="D8" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="78">
-        <v>5</v>
-      </c>
-      <c r="F8" s="78">
-        <v>3</v>
+      <c r="E8" s="78" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="78" t="s">
+        <v>279</v>
       </c>
       <c r="G8" s="88" t="s">
         <v>69</v>
@@ -4708,16 +4717,16 @@
         <v>79</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D10" s="72" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="97" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F10" s="70">
         <v>2</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A921503-3BB1-48CA-B7A3-64666D105169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9C8DEDB-EEEF-496D-AFF1-89C1CD41B8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="283">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1143,6 +1143,21 @@
   </si>
   <si>
     <t>6 hours 22 minutes</t>
+  </si>
+  <si>
+    <t>(8:45am - 9.30am) - Working on HTML Layout -  45minutes
+(9:30 am - 10:30am) - Softskills session with TN team - 1hour
+(10:30 am - 10:50am) - Tea Break - 20minutes
+(11:00am - 12.30pm) - Reviewed Services and operations - 1hour 30minutes
+(12:30pm - 1:00pm) - Lunch time - 30minutes
+(1:00pm - 1:22pm) - Meeting with Rafi[reviewed HTML estimation] - 22minutes
+(2:30pm - 4:00pm) - Published HTML code in github and modified the changes in HTML layout - 1hour 30minutes
+(4.30pm - 5:30pm) - Modified the changes in Home page - 1hour
+(5.30pm - 6:00pm) - Discussion with team about splitting of works for HTML layout - 30minutes
+(9:00pm - 10:00pm) - Working on wizard method HTML Layout- 1hour</t>
+  </si>
+  <si>
+    <t>6hours 30 minutes</t>
   </si>
   <si>
     <t>Working on HTML Layout(User Creation) : 8.45 - 9:30 (45 mins)  
@@ -1193,7 +1208,7 @@
 Coffee break : 4:30 - 4:45 (15 mins)
 modified the html layout for change password and forgot password :4:45pm - 5:30pm(45 mins) 
 Review meeting with anitha : 5:40pm - 6:00pm(20 mins)
-Created the Prototype for Profile Histroy : 9:30pm - 10:30pm(1 hour) </t>
+Created the layout for Profile Histroy : 9:30pm - 10:30pm(1 hour) </t>
   </si>
   <si>
     <t>5 hours 35minutes</t>
@@ -1204,24 +1219,16 @@
   <si>
     <t>(8.45 am- 9-15 am) - Modification on myprofile page -30mins
 (9.30 am - 10.30 am) - Softskills session with TN team - 1 hour
+(11am - 12.30 am)- creation of create page - 1.30hour
 (1pm-1.20pm) Meeting with Rafi(Estimation,Services)-22 mins 
-(2:30pm - 4:00pm) - Worked on Web Api(DbContext and migrations)-1 hour 30 minutes
-(4:30pm - 5:30pm) - HTML Reviewed and Discussed - 1 hour 
-(9:00pm - 10:00pm)- Modified changes in Login page - 1 hour</t>
-  </si>
-  <si>
-    <t>Watched WebAPI Course in udemy using Code first approch-8.45-9.30(45 mins)
-Softskill session(Problem Solving) : 9:30 - 10:20 (50 mins)
-Created WebAPI for User in ProfileManagement without following SOC: 10.50 - 1.00 (130 mins)  
-Meeting with Rafi(Customer Meeting) : 1:00 - 1:20 (20 mins)
-Again worked on web api to complete all operations-2.10-4.15(125mins) 
-Explored EF : 7:00 - 8:00 (60 mins)</t>
-  </si>
-  <si>
-    <t>4h30mins</t>
-  </si>
-  <si>
-    <t>3hours</t>
+(2:30pm - 4:00pm) - Splitting of works,changes &amp; consolidating all opearions in HTML Layouts - 1.5 hours
+(4:30pm - 5:30pm) - Review changes in MyProfile page and CreateProfile page - 1hour
+(9pm-10.30pm) - applied collapsible on wizard page - 1.5 hours</t>
+  </si>
+  <si>
+    <t>Created Webapi Get and Post end points for user-2hrs
+Discussion with team about web api and HTML layouts  - 2 hours
+Meeting with Rafi(services,Estimation,HTML Layouts)-1hour</t>
   </si>
   <si>
     <t>HTML Layout, Angular</t>
@@ -4490,8 +4497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE57188-5E1A-469F-A0CE-734C5E84D1D5}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4551,7 +4558,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="125.25" customHeight="1">
+    <row r="3" spans="1:7" ht="181.5" customHeight="1">
       <c r="A3" s="55" t="s">
         <v>48</v>
       </c>
@@ -4559,13 +4566,13 @@
         <v>241</v>
       </c>
       <c r="C3" s="102" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D3" s="78" t="s">
         <v>69</v>
       </c>
       <c r="E3" s="78" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="F3" s="78" t="s">
         <v>215</v>
@@ -4582,16 +4589,16 @@
         <v>244</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D4" s="78" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F4" s="78" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G4" s="84" t="s">
         <v>69</v>
@@ -4602,10 +4609,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C5" s="102" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D5" s="78" t="s">
         <v>69</v>
@@ -4628,22 +4635,22 @@
         <v>260</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G6" s="86" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="104.25" customHeight="1">
+    <row r="7" spans="1:7" ht="142.5" customHeight="1">
       <c r="A7" s="55" t="s">
         <v>67</v>
       </c>
@@ -4651,7 +4658,7 @@
         <v>249</v>
       </c>
       <c r="C7" s="102" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D7" s="76" t="s">
         <v>69</v>
@@ -4666,7 +4673,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="249.75" customHeight="1">
+    <row r="8" spans="1:7" ht="106.5" customHeight="1">
       <c r="A8" s="55" t="s">
         <v>28</v>
       </c>
@@ -4674,16 +4681,16 @@
         <v>212</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D8" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="78" t="s">
-        <v>278</v>
-      </c>
-      <c r="F8" s="78" t="s">
-        <v>279</v>
+      <c r="E8" s="78">
+        <v>5</v>
+      </c>
+      <c r="F8" s="78">
+        <v>3</v>
       </c>
       <c r="G8" s="88" t="s">
         <v>69</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9C8DEDB-EEEF-496D-AFF1-89C1CD41B8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{268715BB-2D69-48F6-B418-A91F1D2D47B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="283">
   <si>
     <t>Resource Name</t>
   </si>
@@ -4243,7 +4243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE900E3-DEA1-432B-B896-AC8948918348}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
@@ -4497,8 +4497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE57188-5E1A-469F-A0CE-734C5E84D1D5}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4627,7 +4627,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="191.25">
+    <row r="6" spans="1:7" ht="202.5">
       <c r="A6" s="59" t="s">
         <v>62</v>
       </c>
@@ -4663,11 +4663,11 @@
       <c r="D7" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="78">
-        <v>4</v>
+      <c r="E7" s="78" t="s">
+        <v>267</v>
       </c>
       <c r="F7" s="82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="87" t="s">
         <v>69</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{268715BB-2D69-48F6-B418-A91F1D2D47B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1B421D7-4C4F-4DB4-B108-74EDFEC1BE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="25-04-2022" sheetId="15" r:id="rId15"/>
     <sheet name="26-04-2022" sheetId="16" r:id="rId16"/>
     <sheet name="27-04-2022" sheetId="17" r:id="rId17"/>
+    <sheet name="28-04-2022" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="313">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1250,12 +1251,105 @@
     <t>07:52 hrs(at office)
 02:40 hrs</t>
   </si>
+  <si>
+    <t xml:space="preserve">Resource </t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Task Type</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Discussed Estimation</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Reviewed HTML layout</t>
+  </si>
+  <si>
+    <t>Customer Meeting</t>
+  </si>
+  <si>
+    <t>Non Project</t>
+  </si>
+  <si>
+    <t>Team meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch </t>
+  </si>
+  <si>
+    <t>Lunch and Break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t>Morning Break</t>
+  </si>
+  <si>
+    <t>Customer Review</t>
+  </si>
+  <si>
+    <t>Evening Break</t>
+  </si>
+  <si>
+    <t>Exploration on Typescript topics</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Modified HTML layouts&lt;Educational details&gt;</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t>Soft Skill</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Topics&gt;</t>
+  </si>
+  <si>
+    <t>Working on HTML layout</t>
+  </si>
+  <si>
+    <t>Harini</t>
+  </si>
+  <si>
+    <t>Yoga dharshini</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]hh:mm:ss;@"/>
+  </numFmts>
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1367,8 +1461,16 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1381,8 +1483,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1733,11 +1841,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2042,12 +2161,301 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4497,8 +4905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE57188-5E1A-469F-A0CE-734C5E84D1D5}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4743,6 +5151,2833 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84DE649-C5F3-4109-BE1F-71D1CBA3BD0C}">
+  <dimension ref="A1:I136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="118" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="118" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="118" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="119" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="119" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="120" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="108">
+        <v>0.375</v>
+      </c>
+      <c r="E2" s="108">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F2" s="108">
+        <f t="shared" ref="F2:F65" si="0">E2-D2</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H2" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="I2" s="106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="120"/>
+      <c r="B3" s="107" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="108">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E3" s="108">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="108">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="H3" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="I3" s="108">
+        <f t="shared" ref="I3" si="1">SUMIFS(F2:F16, C2:C16,H3)</f>
+        <v>0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="120"/>
+      <c r="B4" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="108">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E4" s="108">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F4" s="108">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H4" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="I4" s="108">
+        <f t="shared" ref="I4" si="2">SUMIFS(F2:F16, C2:C16,H4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="120"/>
+      <c r="B5" s="107" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="108">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E5" s="108">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F5" s="108">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H5" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I5" s="108">
+        <f t="shared" ref="I5" si="3">SUMIFS(F2:F16, C2:C16,H5)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="120"/>
+      <c r="B6" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="108">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E6" s="108">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F6" s="108">
+        <f t="shared" si="0"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="H6" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="I6" s="108">
+        <f t="shared" ref="I6" si="4">SUMIFS(F2:F16, C2:C16,H6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="120"/>
+      <c r="B7" s="107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E7" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F7" s="108">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H7" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="I7" s="108">
+        <f t="shared" ref="I7" si="5">SUMIFS(F2:F16, C2:C16,H7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="120"/>
+      <c r="B8" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="108">
+        <v>0.65625</v>
+      </c>
+      <c r="E8" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F8" s="108">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H8" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="I8" s="108">
+        <f t="shared" ref="I8" si="6">SUMIFS(F2:F16, C2:C16,H8)</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="120"/>
+      <c r="B9" s="107" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="108">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E9" s="108">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F9" s="108">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H9" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="I9" s="106">
+        <f t="shared" ref="I9" si="7">SUM(I3:I8)</f>
+        <v>0.30555555555555558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="120"/>
+      <c r="B10" s="107" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="108">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E10" s="108">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F10" s="108">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="I10" s="110"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="120"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="110"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="120"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="120"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="120"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="120"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="120"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="107" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D17" s="108">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E17" s="108">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F17" s="108">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H17" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="I17" s="106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="120"/>
+      <c r="B18" s="107" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D18" s="108">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E18" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F18" s="108">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H18" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="I18" s="108">
+        <f t="shared" ref="I18" si="8">SUMIFS(F17:F31, C17:C31,H18)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="120"/>
+      <c r="B19" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D19" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E19" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F19" s="108">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H19" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="I19" s="108">
+        <f t="shared" ref="I19" si="9">SUMIFS(F17:F31, C17:C31,H19)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="120"/>
+      <c r="B20" s="107" t="s">
+        <v>308</v>
+      </c>
+      <c r="C20" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D20" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E20" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F20" s="108">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H20" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I20" s="108">
+        <f t="shared" ref="I20" si="10">SUMIFS(F17:F31, C17:C31,H20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="120"/>
+      <c r="B21" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D21" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E21" s="108">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F21" s="108">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H21" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="I21" s="108">
+        <f t="shared" ref="I21" si="11">SUMIFS(F17:F31, C17:C31,H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="120"/>
+      <c r="B22" s="107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D22" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E22" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F22" s="108">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H22" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="I22" s="108">
+        <f t="shared" ref="I22" si="12">SUMIFS(F17:F31, C17:C31,H22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="120"/>
+      <c r="B23" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="C23" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23" s="108">
+        <v>0.65625</v>
+      </c>
+      <c r="E23" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F23" s="108">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H23" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="I23" s="108">
+        <f t="shared" ref="I23" si="13">SUMIFS(F17:F31, C17:C31,H23)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="120"/>
+      <c r="B24" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="C24" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E24" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="108">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H24" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="I24" s="106">
+        <f t="shared" ref="I24" si="14">SUM(I18:I23)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="120"/>
+      <c r="B25" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="C25" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="108">
+        <v>0.875</v>
+      </c>
+      <c r="F25" s="108">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I25" s="110"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="120"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="110"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="120"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="120"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="120"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="120"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="120"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="107" t="s">
+        <v>307</v>
+      </c>
+      <c r="C32" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D32" s="108">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E32" s="108">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F32" s="108">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H32" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="I32" s="106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="120"/>
+      <c r="B33" s="107" t="s">
+        <v>308</v>
+      </c>
+      <c r="C33" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D33" s="108">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E33" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F33" s="108">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H33" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="I33" s="108">
+        <f t="shared" ref="I33" si="15">SUMIFS(F32:F46, C32:C46,H33)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="120"/>
+      <c r="B34" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="C34" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D34" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E34" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F34" s="108">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H34" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="I34" s="108">
+        <f t="shared" ref="I34" si="16">SUMIFS(F32:F46, C32:C46,H34)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="120"/>
+      <c r="B35" s="107" t="s">
+        <v>308</v>
+      </c>
+      <c r="C35" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D35" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E35" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F35" s="108">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H35" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I35" s="108">
+        <f t="shared" ref="I35" si="17">SUMIFS(F32:F46, C32:C46,H35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="120"/>
+      <c r="B36" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="C36" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D36" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E36" s="108">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F36" s="108">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H36" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="I36" s="108">
+        <f t="shared" ref="I36" si="18">SUMIFS(F32:F46, C32:C46,H36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="120"/>
+      <c r="B37" s="107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C37" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D37" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E37" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F37" s="108">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H37" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="I37" s="108">
+        <f t="shared" ref="I37" si="19">SUMIFS(F32:F46, C32:C46,H37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="120"/>
+      <c r="B38" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="C38" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D38" s="108">
+        <v>0.65625</v>
+      </c>
+      <c r="E38" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F38" s="108">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H38" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="I38" s="108">
+        <f t="shared" ref="I38" si="20">SUMIFS(F32:F46, C32:C46,H38)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="120"/>
+      <c r="B39" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="C39" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D39" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E39" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="F39" s="108">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H39" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="I39" s="106">
+        <f t="shared" ref="I39" si="21">SUM(I33:I38)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="120"/>
+      <c r="B40" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="C40" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D40" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="E40" s="108">
+        <v>0.875</v>
+      </c>
+      <c r="F40" s="108">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I40" s="110"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="120"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="110"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="120"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="120"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="120"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="120"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="120"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="120" t="s">
+        <v>311</v>
+      </c>
+      <c r="B47" s="107" t="s">
+        <v>307</v>
+      </c>
+      <c r="C47" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="108">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E47" s="108">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F47" s="108">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H47" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="I47" s="106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="120"/>
+      <c r="B48" s="107" t="s">
+        <v>308</v>
+      </c>
+      <c r="C48" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D48" s="108">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E48" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F48" s="108">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H48" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="I48" s="108">
+        <f t="shared" ref="I48" si="22">SUMIFS(F47:F61, C47:C61,H48)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="120"/>
+      <c r="B49" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="C49" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D49" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E49" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F49" s="108">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H49" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="I49" s="108">
+        <f t="shared" ref="I49" si="23">SUMIFS(F47:F61, C47:C61,H49)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="120"/>
+      <c r="B50" s="107" t="s">
+        <v>308</v>
+      </c>
+      <c r="C50" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D50" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E50" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F50" s="108">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H50" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I50" s="108">
+        <f t="shared" ref="I50" si="24">SUMIFS(F47:F61, C47:C61,H50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="120"/>
+      <c r="B51" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="C51" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D51" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E51" s="108">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F51" s="108">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H51" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="I51" s="108">
+        <f t="shared" ref="I51" si="25">SUMIFS(F47:F61, C47:C61,H51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="120"/>
+      <c r="B52" s="107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C52" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D52" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E52" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F52" s="108">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H52" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="I52" s="108">
+        <f t="shared" ref="I52" si="26">SUMIFS(F47:F61, C47:C61,H52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="120"/>
+      <c r="B53" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D53" s="108">
+        <v>0.65625</v>
+      </c>
+      <c r="E53" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F53" s="108">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H53" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="I53" s="108">
+        <f t="shared" ref="I53" si="27">SUMIFS(F47:F61, C47:C61,H53)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="120"/>
+      <c r="B54" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="C54" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D54" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E54" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="F54" s="108">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H54" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="I54" s="106">
+        <f t="shared" ref="I54" si="28">SUM(I48:I53)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="120"/>
+      <c r="B55" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="C55" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D55" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="E55" s="108">
+        <v>0.875</v>
+      </c>
+      <c r="F55" s="108">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I55" s="110"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="120"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="110"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="120"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="120"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="120"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="120"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="120"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="107" t="s">
+        <v>307</v>
+      </c>
+      <c r="C62" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D62" s="108">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E62" s="108">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F62" s="108">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H62" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="I62" s="106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="120"/>
+      <c r="B63" s="107" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D63" s="108">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E63" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F63" s="108">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H63" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="I63" s="108">
+        <f t="shared" ref="I63" si="29">SUMIFS(F62:F76, C62:C76,H63)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="120"/>
+      <c r="B64" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="C64" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D64" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E64" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F64" s="108">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H64" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="I64" s="108">
+        <f t="shared" ref="I64" si="30">SUMIFS(F62:F76, C62:C76,H64)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="120"/>
+      <c r="B65" s="107" t="s">
+        <v>308</v>
+      </c>
+      <c r="C65" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D65" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E65" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F65" s="108">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H65" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I65" s="108">
+        <f t="shared" ref="I65" si="31">SUMIFS(F62:F76, C62:C76,H65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="120"/>
+      <c r="B66" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="C66" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D66" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E66" s="108">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F66" s="108">
+        <f t="shared" ref="F66:F121" si="32">E66-D66</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H66" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="I66" s="108">
+        <f t="shared" ref="I66" si="33">SUMIFS(F62:F76, C62:C76,H66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="120"/>
+      <c r="B67" s="107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C67" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D67" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E67" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F67" s="108">
+        <f t="shared" si="32"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H67" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="I67" s="108">
+        <f t="shared" ref="I67" si="34">SUMIFS(F62:F76, C62:C76,H67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="120"/>
+      <c r="B68" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="C68" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D68" s="108">
+        <v>0.65625</v>
+      </c>
+      <c r="E68" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F68" s="108">
+        <f t="shared" si="32"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H68" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="I68" s="108">
+        <f t="shared" ref="I68" si="35">SUMIFS(F62:F76, C62:C76,H68)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="120"/>
+      <c r="B69" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="C69" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D69" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E69" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="F69" s="108">
+        <f t="shared" si="32"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H69" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="I69" s="106">
+        <f t="shared" ref="I69" si="36">SUM(I63:I68)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="120"/>
+      <c r="B70" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="C70" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D70" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="E70" s="108">
+        <v>0.875</v>
+      </c>
+      <c r="F70" s="108">
+        <f t="shared" si="32"/>
+        <v>0.125</v>
+      </c>
+      <c r="I70" s="110"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="120"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="107"/>
+      <c r="D71" s="108"/>
+      <c r="E71" s="108"/>
+      <c r="F71" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="110"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="120"/>
+      <c r="B72" s="107"/>
+      <c r="C72" s="107"/>
+      <c r="D72" s="108"/>
+      <c r="E72" s="108"/>
+      <c r="F72" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="120"/>
+      <c r="B73" s="107"/>
+      <c r="C73" s="107"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="120"/>
+      <c r="B74" s="107"/>
+      <c r="C74" s="107"/>
+      <c r="D74" s="108"/>
+      <c r="E74" s="108"/>
+      <c r="F74" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="120"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="107"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="108"/>
+      <c r="F75" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="120"/>
+      <c r="B76" s="107"/>
+      <c r="C76" s="107"/>
+      <c r="D76" s="108"/>
+      <c r="E76" s="108"/>
+      <c r="F76" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="120" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="107" t="s">
+        <v>307</v>
+      </c>
+      <c r="C77" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D77" s="108">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E77" s="108">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F77" s="108">
+        <f t="shared" si="32"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H77" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="I77" s="106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="120"/>
+      <c r="B78" s="107" t="s">
+        <v>308</v>
+      </c>
+      <c r="C78" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D78" s="108">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E78" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F78" s="108">
+        <f t="shared" si="32"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H78" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="I78" s="108">
+        <f t="shared" ref="I78" si="37">SUMIFS(F77:F91, C77:C91,H78)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="120"/>
+      <c r="B79" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="C79" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D79" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E79" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F79" s="108">
+        <f t="shared" si="32"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H79" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="I79" s="108">
+        <f t="shared" ref="I79" si="38">SUMIFS(F77:F91, C77:C91,H79)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="120"/>
+      <c r="B80" s="107" t="s">
+        <v>308</v>
+      </c>
+      <c r="C80" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D80" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E80" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F80" s="108">
+        <f t="shared" si="32"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H80" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I80" s="108">
+        <f t="shared" ref="I80" si="39">SUMIFS(F77:F91, C77:C91,H80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="120"/>
+      <c r="B81" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="C81" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D81" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E81" s="108">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F81" s="108">
+        <f t="shared" si="32"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H81" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="I81" s="108">
+        <f t="shared" ref="I81" si="40">SUMIFS(F77:F91, C77:C91,H81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="120"/>
+      <c r="B82" s="107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C82" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D82" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E82" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F82" s="108">
+        <f t="shared" si="32"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H82" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="I82" s="108">
+        <f t="shared" ref="I82" si="41">SUMIFS(F77:F91, C77:C91,H82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="120"/>
+      <c r="B83" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="C83" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D83" s="108">
+        <v>0.65625</v>
+      </c>
+      <c r="E83" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F83" s="108">
+        <f t="shared" si="32"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H83" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="I83" s="108">
+        <f t="shared" ref="I83" si="42">SUMIFS(F77:F91, C77:C91,H83)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="120"/>
+      <c r="B84" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="C84" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D84" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E84" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="F84" s="108">
+        <f t="shared" si="32"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H84" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="I84" s="106">
+        <f t="shared" ref="I84" si="43">SUM(I78:I83)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="120"/>
+      <c r="B85" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="C85" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D85" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="E85" s="108">
+        <v>0.875</v>
+      </c>
+      <c r="F85" s="108">
+        <f t="shared" si="32"/>
+        <v>0.125</v>
+      </c>
+      <c r="I85" s="110"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="120"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="107"/>
+      <c r="D86" s="108"/>
+      <c r="E86" s="108"/>
+      <c r="F86" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="110"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="120"/>
+      <c r="B87" s="107"/>
+      <c r="C87" s="107"/>
+      <c r="D87" s="108"/>
+      <c r="E87" s="108"/>
+      <c r="F87" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="120"/>
+      <c r="B88" s="107"/>
+      <c r="C88" s="107"/>
+      <c r="D88" s="108"/>
+      <c r="E88" s="108"/>
+      <c r="F88" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="120"/>
+      <c r="B89" s="107"/>
+      <c r="C89" s="107"/>
+      <c r="D89" s="108"/>
+      <c r="E89" s="108"/>
+      <c r="F89" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="120"/>
+      <c r="B90" s="107"/>
+      <c r="C90" s="107"/>
+      <c r="D90" s="108"/>
+      <c r="E90" s="108"/>
+      <c r="F90" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="120"/>
+      <c r="B91" s="107"/>
+      <c r="C91" s="107"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="108"/>
+      <c r="F91" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" s="107" t="s">
+        <v>307</v>
+      </c>
+      <c r="C92" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D92" s="108">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E92" s="108">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F92" s="108">
+        <f t="shared" si="32"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H92" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="I92" s="106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="120"/>
+      <c r="B93" s="107" t="s">
+        <v>308</v>
+      </c>
+      <c r="C93" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D93" s="108">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E93" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F93" s="108">
+        <f t="shared" si="32"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H93" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="I93" s="108">
+        <f t="shared" ref="I93" si="44">SUMIFS(F92:F106, C92:C106,H93)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="120"/>
+      <c r="B94" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="C94" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D94" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E94" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F94" s="108">
+        <f t="shared" si="32"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H94" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="I94" s="108">
+        <f t="shared" ref="I94" si="45">SUMIFS(F92:F106, C92:C106,H94)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="120"/>
+      <c r="B95" s="107" t="s">
+        <v>308</v>
+      </c>
+      <c r="C95" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D95" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E95" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F95" s="108">
+        <f t="shared" si="32"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H95" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I95" s="108">
+        <f t="shared" ref="I95" si="46">SUMIFS(F92:F106, C92:C106,H95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="120"/>
+      <c r="B96" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="C96" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D96" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E96" s="108">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F96" s="108">
+        <f t="shared" si="32"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H96" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="I96" s="108">
+        <f t="shared" ref="I96" si="47">SUMIFS(F92:F106, C92:C106,H96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="120"/>
+      <c r="B97" s="107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C97" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D97" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E97" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F97" s="108">
+        <f t="shared" si="32"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H97" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="I97" s="108">
+        <f t="shared" ref="I97" si="48">SUMIFS(F92:F106, C92:C106,H97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="120"/>
+      <c r="B98" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="C98" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D98" s="108">
+        <v>0.65625</v>
+      </c>
+      <c r="E98" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F98" s="108">
+        <f t="shared" si="32"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H98" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="I98" s="108">
+        <f t="shared" ref="I98" si="49">SUMIFS(F92:F106, C92:C106,H98)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="120"/>
+      <c r="B99" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="C99" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D99" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E99" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="F99" s="108">
+        <f t="shared" si="32"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H99" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="I99" s="106">
+        <f t="shared" ref="I99" si="50">SUM(I93:I98)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="120"/>
+      <c r="B100" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="C100" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D100" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="E100" s="108">
+        <v>0.875</v>
+      </c>
+      <c r="F100" s="108">
+        <f t="shared" si="32"/>
+        <v>0.125</v>
+      </c>
+      <c r="I100" s="110"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="120"/>
+      <c r="B101" s="107"/>
+      <c r="C101" s="107"/>
+      <c r="D101" s="108"/>
+      <c r="E101" s="108"/>
+      <c r="F101" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="110"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="120"/>
+      <c r="B102" s="107"/>
+      <c r="C102" s="107"/>
+      <c r="D102" s="108"/>
+      <c r="E102" s="108"/>
+      <c r="F102" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="120"/>
+      <c r="B103" s="107"/>
+      <c r="C103" s="107"/>
+      <c r="D103" s="108"/>
+      <c r="E103" s="108"/>
+      <c r="F103" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="120"/>
+      <c r="B104" s="107"/>
+      <c r="C104" s="107"/>
+      <c r="D104" s="108"/>
+      <c r="E104" s="108"/>
+      <c r="F104" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="120"/>
+      <c r="B105" s="107"/>
+      <c r="C105" s="107"/>
+      <c r="D105" s="108"/>
+      <c r="E105" s="108"/>
+      <c r="F105" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="121"/>
+      <c r="B106" s="107"/>
+      <c r="C106" s="107"/>
+      <c r="D106" s="108"/>
+      <c r="E106" s="108"/>
+      <c r="F106" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="122" t="s">
+        <v>19</v>
+      </c>
+      <c r="B107" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="C107" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D107" s="108">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E107" s="108">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F107" s="108">
+        <f t="shared" si="32"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H107" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="I107" s="106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="122"/>
+      <c r="B108" s="115" t="s">
+        <v>308</v>
+      </c>
+      <c r="C108" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D108" s="108">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E108" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F108" s="108">
+        <f t="shared" si="32"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H108" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="I108" s="108">
+        <f t="shared" ref="I108" si="51">SUMIFS(F107:F121, C107:C121,H108)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="122"/>
+      <c r="B109" s="115" t="s">
+        <v>294</v>
+      </c>
+      <c r="C109" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D109" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E109" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F109" s="108">
+        <f t="shared" si="32"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H109" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="I109" s="108">
+        <f t="shared" ref="I109" si="52">SUMIFS(F107:F121, C107:C121,H109)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="122"/>
+      <c r="B110" s="115" t="s">
+        <v>308</v>
+      </c>
+      <c r="C110" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D110" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E110" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F110" s="108">
+        <f t="shared" si="32"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H110" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I110" s="108">
+        <f t="shared" ref="I110" si="53">SUMIFS(F107:F121, C107:C121,H110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="122"/>
+      <c r="B111" s="115" t="s">
+        <v>298</v>
+      </c>
+      <c r="C111" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D111" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E111" s="108">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F111" s="108">
+        <f t="shared" si="32"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H111" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="I111" s="108">
+        <f t="shared" ref="I111" si="54">SUMIFS(F107:F121, C107:C121,H111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="122"/>
+      <c r="B112" s="115" t="s">
+        <v>301</v>
+      </c>
+      <c r="C112" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D112" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E112" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F112" s="108">
+        <f t="shared" si="32"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H112" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="I112" s="108">
+        <f t="shared" ref="I112" si="55">SUMIFS(F107:F121, C107:C121,H112)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="122"/>
+      <c r="B113" s="115" t="s">
+        <v>303</v>
+      </c>
+      <c r="C113" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D113" s="108">
+        <v>0.65625</v>
+      </c>
+      <c r="E113" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F113" s="108">
+        <f t="shared" si="32"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H113" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="I113" s="108">
+        <f t="shared" ref="I113" si="56">SUMIFS(F107:F121, C107:C121,H113)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="122"/>
+      <c r="B114" s="115" t="s">
+        <v>309</v>
+      </c>
+      <c r="C114" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D114" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E114" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="F114" s="108">
+        <f t="shared" si="32"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H114" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="I114" s="106">
+        <f t="shared" ref="I114" si="57">SUM(I108:I113)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="122"/>
+      <c r="B115" s="115" t="s">
+        <v>310</v>
+      </c>
+      <c r="C115" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D115" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="E115" s="108">
+        <v>0.875</v>
+      </c>
+      <c r="F115" s="108">
+        <f t="shared" si="32"/>
+        <v>0.125</v>
+      </c>
+      <c r="I115" s="110"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="122"/>
+      <c r="B116" s="115"/>
+      <c r="C116" s="107"/>
+      <c r="D116" s="108"/>
+      <c r="E116" s="108"/>
+      <c r="F116" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="110"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="122"/>
+      <c r="B117" s="115"/>
+      <c r="C117" s="107"/>
+      <c r="D117" s="108"/>
+      <c r="E117" s="108"/>
+      <c r="F117" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="122"/>
+      <c r="B118" s="115"/>
+      <c r="C118" s="107"/>
+      <c r="D118" s="108"/>
+      <c r="E118" s="108"/>
+      <c r="F118" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="122"/>
+      <c r="B119" s="115"/>
+      <c r="C119" s="107"/>
+      <c r="D119" s="108"/>
+      <c r="E119" s="108"/>
+      <c r="F119" s="108">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="122"/>
+      <c r="B120" s="116"/>
+      <c r="C120" s="111"/>
+      <c r="D120" s="112"/>
+      <c r="E120" s="112"/>
+      <c r="F120" s="112">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="122"/>
+      <c r="B121" s="117"/>
+      <c r="C121" s="113"/>
+      <c r="D121" s="114"/>
+      <c r="E121" s="114"/>
+      <c r="F121" s="114">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="122" t="s">
+        <v>312</v>
+      </c>
+      <c r="B122" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="C122" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D122" s="108">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E122" s="108">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F122" s="108">
+        <f t="shared" ref="F122:F136" si="58">E122-D122</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H122" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="I122" s="106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="122"/>
+      <c r="B123" s="115" t="s">
+        <v>308</v>
+      </c>
+      <c r="C123" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D123" s="108">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E123" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F123" s="108">
+        <f t="shared" si="58"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H123" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="I123" s="108">
+        <f t="shared" ref="I123" si="59">SUMIFS(F122:F136, C122:C136,H123)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="122"/>
+      <c r="B124" s="115" t="s">
+        <v>294</v>
+      </c>
+      <c r="C124" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D124" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E124" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F124" s="108">
+        <f t="shared" si="58"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H124" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="I124" s="108">
+        <f t="shared" ref="I124" si="60">SUMIFS(F122:F136, C122:C136,H124)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="122"/>
+      <c r="B125" s="115" t="s">
+        <v>308</v>
+      </c>
+      <c r="C125" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D125" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E125" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F125" s="108">
+        <f t="shared" si="58"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H125" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I125" s="108">
+        <f t="shared" ref="I125" si="61">SUMIFS(F122:F136, C122:C136,H125)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="122"/>
+      <c r="B126" s="115" t="s">
+        <v>298</v>
+      </c>
+      <c r="C126" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D126" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E126" s="108">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F126" s="108">
+        <f t="shared" si="58"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H126" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="I126" s="108">
+        <f t="shared" ref="I126" si="62">SUMIFS(F122:F136, C122:C136,H126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="122"/>
+      <c r="B127" s="115" t="s">
+        <v>301</v>
+      </c>
+      <c r="C127" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D127" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E127" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F127" s="108">
+        <f t="shared" si="58"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H127" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="I127" s="108">
+        <f t="shared" ref="I127" si="63">SUMIFS(F122:F136, C122:C136,H127)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="122"/>
+      <c r="B128" s="115" t="s">
+        <v>303</v>
+      </c>
+      <c r="C128" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D128" s="108">
+        <v>0.65625</v>
+      </c>
+      <c r="E128" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F128" s="108">
+        <f t="shared" si="58"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H128" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="I128" s="108">
+        <f t="shared" ref="I128" si="64">SUMIFS(F122:F136, C122:C136,H128)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="122"/>
+      <c r="B129" s="115" t="s">
+        <v>309</v>
+      </c>
+      <c r="C129" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D129" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E129" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="F129" s="108">
+        <f t="shared" si="58"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H129" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="I129" s="106">
+        <f t="shared" ref="I129" si="65">SUM(I123:I128)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="122"/>
+      <c r="B130" s="115" t="s">
+        <v>310</v>
+      </c>
+      <c r="C130" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D130" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="E130" s="108">
+        <v>0.875</v>
+      </c>
+      <c r="F130" s="108">
+        <f t="shared" si="58"/>
+        <v>0.125</v>
+      </c>
+      <c r="I130" s="110"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="122"/>
+      <c r="B131" s="115"/>
+      <c r="C131" s="107"/>
+      <c r="D131" s="108"/>
+      <c r="E131" s="108"/>
+      <c r="F131" s="108">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="I131" s="110"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="122"/>
+      <c r="B132" s="115"/>
+      <c r="C132" s="107"/>
+      <c r="D132" s="108"/>
+      <c r="E132" s="108"/>
+      <c r="F132" s="108">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="122"/>
+      <c r="B133" s="115"/>
+      <c r="C133" s="107"/>
+      <c r="D133" s="108"/>
+      <c r="E133" s="108"/>
+      <c r="F133" s="108">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="122"/>
+      <c r="B134" s="115"/>
+      <c r="C134" s="107"/>
+      <c r="D134" s="108"/>
+      <c r="E134" s="108"/>
+      <c r="F134" s="108">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="122"/>
+      <c r="B135" s="116"/>
+      <c r="C135" s="111"/>
+      <c r="D135" s="112"/>
+      <c r="E135" s="112"/>
+      <c r="F135" s="112">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="122"/>
+      <c r="B136" s="117"/>
+      <c r="C136" s="113"/>
+      <c r="D136" s="114"/>
+      <c r="E136" s="114"/>
+      <c r="F136" s="114">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A77:A91"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="greaterThan">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="lessThan">
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 I19 I34 I49 I64 I79 I94 I109">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5 I20 I35 I50 I65 I80 I95 I110">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="lessThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="greaterThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 I21 I36 I51 I66 I81 I96 I111">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7 I22 I37 I52 I67 I82 I97 I112">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8 I23 I38 I53 I68 I83 I98 I113">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
+      <formula>0.0625</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="greaterThan">
+      <formula>0.0625</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I123">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I124">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I125">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I126">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I127">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I128">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0.0625</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0.0625</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C136" xr:uid="{E7D3DEBE-31D3-46E9-AD47-8DAC4D7556ED}">
+      <formula1>$Q$2:$Q$8</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1B421D7-4C4F-4DB4-B108-74EDFEC1BE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDBE0418-F6FA-43AB-90D8-D568602FBBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="320">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1337,6 +1337,27 @@
   </si>
   <si>
     <t>Harini</t>
+  </si>
+  <si>
+    <t>Worked on Web api(SOC,Factory pattern)</t>
+  </si>
+  <si>
+    <t>Worked on Web api</t>
+  </si>
+  <si>
+    <t>Lunch Break</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>Tried Console logging</t>
+  </si>
+  <si>
+    <t>TypeScript Session</t>
+  </si>
+  <si>
+    <t>TypeScript and Entity Framework</t>
   </si>
   <si>
     <t>Yoga dharshini</t>
@@ -2168,10 +2189,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -2180,15 +2210,6 @@
     </xf>
     <xf numFmtId="164" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5159,8 +5180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84DE649-C5F3-4109-BE1F-71D1CBA3BD0C}">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5176,27 +5197,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="121" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="121" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="121" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="122" t="s">
         <v>286</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="122" t="s">
         <v>287</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="111" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -5223,7 +5244,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="120"/>
+      <c r="A3" s="111"/>
       <c r="B3" s="107" t="s">
         <v>293</v>
       </c>
@@ -5249,7 +5270,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="120"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="107" t="s">
         <v>294</v>
       </c>
@@ -5275,7 +5296,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="120"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="107" t="s">
         <v>296</v>
       </c>
@@ -5301,7 +5322,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="120"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="107" t="s">
         <v>298</v>
       </c>
@@ -5327,7 +5348,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="120"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="107" t="s">
         <v>301</v>
       </c>
@@ -5353,7 +5374,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="120"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="107" t="s">
         <v>303</v>
       </c>
@@ -5379,7 +5400,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="120"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="107" t="s">
         <v>304</v>
       </c>
@@ -5405,7 +5426,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="120"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="107" t="s">
         <v>306</v>
       </c>
@@ -5425,7 +5446,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="120"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -5437,7 +5458,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="120"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -5448,7 +5469,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="120"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -5459,7 +5480,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="120"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -5470,7 +5491,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="120"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -5481,7 +5502,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="120"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -5492,7 +5513,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="120" t="s">
+      <c r="A17" s="111" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -5519,7 +5540,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="120"/>
+      <c r="A18" s="111"/>
       <c r="B18" s="107" t="s">
         <v>308</v>
       </c>
@@ -5545,7 +5566,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="120"/>
+      <c r="A19" s="111"/>
       <c r="B19" s="107" t="s">
         <v>294</v>
       </c>
@@ -5571,7 +5592,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="120"/>
+      <c r="A20" s="111"/>
       <c r="B20" s="107" t="s">
         <v>308</v>
       </c>
@@ -5597,7 +5618,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="120"/>
+      <c r="A21" s="111"/>
       <c r="B21" s="107" t="s">
         <v>298</v>
       </c>
@@ -5623,7 +5644,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="120"/>
+      <c r="A22" s="111"/>
       <c r="B22" s="107" t="s">
         <v>301</v>
       </c>
@@ -5649,7 +5670,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="120"/>
+      <c r="A23" s="111"/>
       <c r="B23" s="107" t="s">
         <v>303</v>
       </c>
@@ -5675,7 +5696,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="120"/>
+      <c r="A24" s="111"/>
       <c r="B24" s="107" t="s">
         <v>309</v>
       </c>
@@ -5701,7 +5722,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="120"/>
+      <c r="A25" s="111"/>
       <c r="B25" s="107" t="s">
         <v>310</v>
       </c>
@@ -5721,7 +5742,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="120"/>
+      <c r="A26" s="111"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -5733,7 +5754,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="120"/>
+      <c r="A27" s="111"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -5744,7 +5765,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="120"/>
+      <c r="A28" s="111"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -5755,7 +5776,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="120"/>
+      <c r="A29" s="111"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -5766,7 +5787,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="120"/>
+      <c r="A30" s="111"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -5777,7 +5798,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="120"/>
+      <c r="A31" s="111"/>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="108"/>
@@ -5788,7 +5809,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="120" t="s">
+      <c r="A32" s="111" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="107" t="s">
@@ -5815,7 +5836,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="120"/>
+      <c r="A33" s="111"/>
       <c r="B33" s="107" t="s">
         <v>308</v>
       </c>
@@ -5841,7 +5862,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="120"/>
+      <c r="A34" s="111"/>
       <c r="B34" s="107" t="s">
         <v>294</v>
       </c>
@@ -5867,7 +5888,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="120"/>
+      <c r="A35" s="111"/>
       <c r="B35" s="107" t="s">
         <v>308</v>
       </c>
@@ -5893,7 +5914,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="120"/>
+      <c r="A36" s="111"/>
       <c r="B36" s="107" t="s">
         <v>298</v>
       </c>
@@ -5919,7 +5940,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="120"/>
+      <c r="A37" s="111"/>
       <c r="B37" s="107" t="s">
         <v>301</v>
       </c>
@@ -5945,7 +5966,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="120"/>
+      <c r="A38" s="111"/>
       <c r="B38" s="107" t="s">
         <v>303</v>
       </c>
@@ -5971,7 +5992,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="120"/>
+      <c r="A39" s="111"/>
       <c r="B39" s="107" t="s">
         <v>309</v>
       </c>
@@ -5997,7 +6018,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="120"/>
+      <c r="A40" s="111"/>
       <c r="B40" s="107" t="s">
         <v>310</v>
       </c>
@@ -6017,7 +6038,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="120"/>
+      <c r="A41" s="111"/>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="108"/>
@@ -6029,7 +6050,7 @@
       <c r="I41" s="110"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="120"/>
+      <c r="A42" s="111"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -6040,7 +6061,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="120"/>
+      <c r="A43" s="111"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -6051,7 +6072,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="120"/>
+      <c r="A44" s="111"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -6062,7 +6083,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="120"/>
+      <c r="A45" s="111"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -6073,7 +6094,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="120"/>
+      <c r="A46" s="111"/>
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
       <c r="D46" s="108"/>
@@ -6084,7 +6105,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="120" t="s">
+      <c r="A47" s="111" t="s">
         <v>311</v>
       </c>
       <c r="B47" s="107" t="s">
@@ -6111,7 +6132,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="120"/>
+      <c r="A48" s="111"/>
       <c r="B48" s="107" t="s">
         <v>308</v>
       </c>
@@ -6137,7 +6158,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="120"/>
+      <c r="A49" s="111"/>
       <c r="B49" s="107" t="s">
         <v>294</v>
       </c>
@@ -6163,7 +6184,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="120"/>
+      <c r="A50" s="111"/>
       <c r="B50" s="107" t="s">
         <v>308</v>
       </c>
@@ -6189,7 +6210,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="120"/>
+      <c r="A51" s="111"/>
       <c r="B51" s="107" t="s">
         <v>298</v>
       </c>
@@ -6215,7 +6236,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="120"/>
+      <c r="A52" s="111"/>
       <c r="B52" s="107" t="s">
         <v>301</v>
       </c>
@@ -6241,7 +6262,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="120"/>
+      <c r="A53" s="111"/>
       <c r="B53" s="107" t="s">
         <v>303</v>
       </c>
@@ -6267,7 +6288,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="120"/>
+      <c r="A54" s="111"/>
       <c r="B54" s="107" t="s">
         <v>309</v>
       </c>
@@ -6293,7 +6314,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="120"/>
+      <c r="A55" s="111"/>
       <c r="B55" s="107" t="s">
         <v>310</v>
       </c>
@@ -6313,7 +6334,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="120"/>
+      <c r="A56" s="111"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -6325,7 +6346,7 @@
       <c r="I56" s="110"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="120"/>
+      <c r="A57" s="111"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -6336,7 +6357,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="120"/>
+      <c r="A58" s="111"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -6347,7 +6368,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="120"/>
+      <c r="A59" s="111"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -6358,7 +6379,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="120"/>
+      <c r="A60" s="111"/>
       <c r="B60" s="107"/>
       <c r="C60" s="107"/>
       <c r="D60" s="108"/>
@@ -6369,7 +6390,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="120"/>
+      <c r="A61" s="111"/>
       <c r="B61" s="107"/>
       <c r="C61" s="107"/>
       <c r="D61" s="108"/>
@@ -6380,7 +6401,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="120" t="s">
+      <c r="A62" s="111" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="107" t="s">
@@ -6407,7 +6428,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="120"/>
+      <c r="A63" s="111"/>
       <c r="B63" s="107" t="s">
         <v>308</v>
       </c>
@@ -6433,7 +6454,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="120"/>
+      <c r="A64" s="111"/>
       <c r="B64" s="107" t="s">
         <v>294</v>
       </c>
@@ -6459,7 +6480,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="120"/>
+      <c r="A65" s="111"/>
       <c r="B65" s="107" t="s">
         <v>308</v>
       </c>
@@ -6485,7 +6506,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="120"/>
+      <c r="A66" s="111"/>
       <c r="B66" s="107" t="s">
         <v>298</v>
       </c>
@@ -6511,7 +6532,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="120"/>
+      <c r="A67" s="111"/>
       <c r="B67" s="107" t="s">
         <v>301</v>
       </c>
@@ -6537,7 +6558,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="120"/>
+      <c r="A68" s="111"/>
       <c r="B68" s="107" t="s">
         <v>303</v>
       </c>
@@ -6563,7 +6584,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="120"/>
+      <c r="A69" s="111"/>
       <c r="B69" s="107" t="s">
         <v>309</v>
       </c>
@@ -6589,7 +6610,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="120"/>
+      <c r="A70" s="111"/>
       <c r="B70" s="107" t="s">
         <v>310</v>
       </c>
@@ -6609,7 +6630,7 @@
       <c r="I70" s="110"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="120"/>
+      <c r="A71" s="111"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -6621,7 +6642,7 @@
       <c r="I71" s="110"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="120"/>
+      <c r="A72" s="111"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -6632,7 +6653,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="120"/>
+      <c r="A73" s="111"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -6643,7 +6664,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="120"/>
+      <c r="A74" s="111"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -6654,7 +6675,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="120"/>
+      <c r="A75" s="111"/>
       <c r="B75" s="107"/>
       <c r="C75" s="107"/>
       <c r="D75" s="108"/>
@@ -6665,7 +6686,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="120"/>
+      <c r="A76" s="111"/>
       <c r="B76" s="107"/>
       <c r="C76" s="107"/>
       <c r="D76" s="108"/>
@@ -6676,7 +6697,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="120" t="s">
+      <c r="A77" s="111" t="s">
         <v>67</v>
       </c>
       <c r="B77" s="107" t="s">
@@ -6703,7 +6724,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="120"/>
+      <c r="A78" s="111"/>
       <c r="B78" s="107" t="s">
         <v>308</v>
       </c>
@@ -6729,7 +6750,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="120"/>
+      <c r="A79" s="111"/>
       <c r="B79" s="107" t="s">
         <v>294</v>
       </c>
@@ -6755,7 +6776,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="120"/>
+      <c r="A80" s="111"/>
       <c r="B80" s="107" t="s">
         <v>308</v>
       </c>
@@ -6781,7 +6802,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="120"/>
+      <c r="A81" s="111"/>
       <c r="B81" s="107" t="s">
         <v>298</v>
       </c>
@@ -6807,7 +6828,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="120"/>
+      <c r="A82" s="111"/>
       <c r="B82" s="107" t="s">
         <v>301</v>
       </c>
@@ -6833,7 +6854,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="120"/>
+      <c r="A83" s="111"/>
       <c r="B83" s="107" t="s">
         <v>303</v>
       </c>
@@ -6859,7 +6880,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="120"/>
+      <c r="A84" s="111"/>
       <c r="B84" s="107" t="s">
         <v>309</v>
       </c>
@@ -6885,7 +6906,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="120"/>
+      <c r="A85" s="111"/>
       <c r="B85" s="107" t="s">
         <v>310</v>
       </c>
@@ -6905,7 +6926,7 @@
       <c r="I85" s="110"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="120"/>
+      <c r="A86" s="111"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -6917,7 +6938,7 @@
       <c r="I86" s="110"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="120"/>
+      <c r="A87" s="111"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107"/>
       <c r="D87" s="108"/>
@@ -6928,7 +6949,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="120"/>
+      <c r="A88" s="111"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -6939,7 +6960,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="120"/>
+      <c r="A89" s="111"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -6950,7 +6971,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="120"/>
+      <c r="A90" s="111"/>
       <c r="B90" s="107"/>
       <c r="C90" s="107"/>
       <c r="D90" s="108"/>
@@ -6961,7 +6982,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="120"/>
+      <c r="A91" s="111"/>
       <c r="B91" s="107"/>
       <c r="C91" s="107"/>
       <c r="D91" s="108"/>
@@ -6972,7 +6993,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="120" t="s">
+      <c r="A92" s="111" t="s">
         <v>28</v>
       </c>
       <c r="B92" s="107" t="s">
@@ -6982,14 +7003,14 @@
         <v>290</v>
       </c>
       <c r="D92" s="108">
-        <v>0.41666666666666669</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="E92" s="108">
-        <v>0.4236111111111111</v>
+        <v>0.375</v>
       </c>
       <c r="F92" s="108">
         <f t="shared" si="32"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H92" s="106" t="s">
         <v>291</v>
@@ -6999,44 +7020,44 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="120"/>
+      <c r="A93" s="111"/>
       <c r="B93" s="107" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C93" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D93" s="108">
-        <v>0.42708333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="E93" s="108">
         <v>0.45833333333333331</v>
       </c>
       <c r="F93" s="108">
         <f t="shared" si="32"/>
-        <v>3.125E-2</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="H93" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I93" s="108">
         <f t="shared" ref="I93" si="44">SUMIFS(F92:F106, C92:C106,H93)</f>
-        <v>0.22916666666666674</v>
+        <v>0.2083333333333332</v>
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="120"/>
+      <c r="A94" s="111"/>
       <c r="B94" s="107" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C94" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D94" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="E94" s="108">
-        <v>0.47222222222222227</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F94" s="108">
         <f t="shared" si="32"/>
@@ -7047,52 +7068,52 @@
       </c>
       <c r="I94" s="108">
         <f t="shared" ref="I94" si="45">SUMIFS(F92:F106, C92:C106,H94)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="120"/>
+      <c r="A95" s="111"/>
       <c r="B95" s="107" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C95" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D95" s="108">
         <v>0.47916666666666669</v>
       </c>
       <c r="E95" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F95" s="108">
         <f t="shared" si="32"/>
-        <v>4.1666666666666685E-2</v>
+        <v>6.2499999999999944E-2</v>
       </c>
       <c r="H95" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I95" s="108">
         <f t="shared" ref="I95" si="46">SUMIFS(F92:F106, C92:C106,H95)</f>
-        <v>0</v>
+        <v>0.12152777777777779</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="120"/>
+      <c r="A96" s="111"/>
       <c r="B96" s="107" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C96" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D96" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E96" s="108">
-        <v>0.54166666666666663</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="F96" s="108">
         <f t="shared" si="32"/>
-        <v>2.0833333333333259E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H96" s="109" t="s">
         <v>300</v>
@@ -7103,22 +7124,22 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="120"/>
+      <c r="A97" s="111"/>
       <c r="B97" s="107" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="C97" s="107" t="s">
         <v>299</v>
       </c>
       <c r="D97" s="108">
-        <v>0.47222222222222227</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E97" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.59375</v>
       </c>
       <c r="F97" s="108">
         <f t="shared" si="32"/>
-        <v>6.9444444444444198E-3</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H97" s="109" t="s">
         <v>302</v>
@@ -7129,113 +7150,137 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="120"/>
+      <c r="A98" s="111"/>
       <c r="B98" s="107" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C98" s="107" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D98" s="108">
-        <v>0.65625</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="E98" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="F98" s="108">
         <f t="shared" si="32"/>
-        <v>1.041666666666663E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H98" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I98" s="108">
         <f t="shared" ref="I98" si="49">SUMIFS(F92:F106, C92:C106,H98)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>4.861111111111116E-2</v>
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="120"/>
+      <c r="A99" s="111"/>
       <c r="B99" s="107" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C99" s="107" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D99" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="E99" s="108">
-        <v>0.75</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F99" s="108">
         <f t="shared" si="32"/>
-        <v>8.333333333333337E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H99" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I99" s="106">
         <f t="shared" ref="I99" si="50">SUM(I93:I98)</f>
-        <v>0.34027777777777773</v>
+        <v>0.39930555555555552</v>
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="120"/>
+      <c r="A100" s="111"/>
       <c r="B100" s="107" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C100" s="107" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D100" s="108">
-        <v>0.75</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E100" s="108">
-        <v>0.875</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F100" s="108">
         <f t="shared" si="32"/>
-        <v>0.125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I100" s="110"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="120"/>
-      <c r="B101" s="107"/>
-      <c r="C101" s="107"/>
-      <c r="D101" s="108"/>
-      <c r="E101" s="108"/>
+      <c r="A101" s="111"/>
+      <c r="B101" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="C101" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D101" s="108">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E101" s="108">
+        <v>0.72222222222222221</v>
+      </c>
       <c r="F101" s="108">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="I101" s="110"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="120"/>
-      <c r="B102" s="107"/>
-      <c r="C102" s="107"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="108"/>
+      <c r="A102" s="111"/>
+      <c r="B102" s="107" t="s">
+        <v>315</v>
+      </c>
+      <c r="C102" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D102" s="108">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E102" s="108">
+        <v>0.74305555555555547</v>
+      </c>
       <c r="F102" s="108">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="120"/>
-      <c r="B103" s="107"/>
-      <c r="C103" s="107"/>
-      <c r="D103" s="108"/>
-      <c r="E103" s="108"/>
+      <c r="A103" s="111"/>
+      <c r="B103" s="107" t="s">
+        <v>318</v>
+      </c>
+      <c r="C103" s="107" t="s">
+        <v>297</v>
+      </c>
+      <c r="D103" s="108">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="E103" s="108">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F103" s="108">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="120"/>
+      <c r="A104" s="111"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -7246,7 +7291,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="120"/>
+      <c r="A105" s="111"/>
       <c r="B105" s="107"/>
       <c r="C105" s="107"/>
       <c r="D105" s="108"/>
@@ -7257,7 +7302,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="121"/>
+      <c r="A106" s="112"/>
       <c r="B106" s="107"/>
       <c r="C106" s="107"/>
       <c r="D106" s="108"/>
@@ -7268,10 +7313,10 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="122" t="s">
+      <c r="A107" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="B107" s="115" t="s">
+      <c r="B107" s="118" t="s">
         <v>307</v>
       </c>
       <c r="C107" s="107" t="s">
@@ -7295,8 +7340,8 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="122"/>
-      <c r="B108" s="115" t="s">
+      <c r="A108" s="117"/>
+      <c r="B108" s="118" t="s">
         <v>308</v>
       </c>
       <c r="C108" s="107" t="s">
@@ -7321,8 +7366,8 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="122"/>
-      <c r="B109" s="115" t="s">
+      <c r="A109" s="117"/>
+      <c r="B109" s="118" t="s">
         <v>294</v>
       </c>
       <c r="C109" s="107" t="s">
@@ -7347,8 +7392,8 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="122"/>
-      <c r="B110" s="115" t="s">
+      <c r="A110" s="117"/>
+      <c r="B110" s="118" t="s">
         <v>308</v>
       </c>
       <c r="C110" s="107" t="s">
@@ -7373,8 +7418,8 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="122"/>
-      <c r="B111" s="115" t="s">
+      <c r="A111" s="117"/>
+      <c r="B111" s="118" t="s">
         <v>298</v>
       </c>
       <c r="C111" s="107" t="s">
@@ -7399,8 +7444,8 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="122"/>
-      <c r="B112" s="115" t="s">
+      <c r="A112" s="117"/>
+      <c r="B112" s="118" t="s">
         <v>301</v>
       </c>
       <c r="C112" s="107" t="s">
@@ -7425,8 +7470,8 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="122"/>
-      <c r="B113" s="115" t="s">
+      <c r="A113" s="117"/>
+      <c r="B113" s="118" t="s">
         <v>303</v>
       </c>
       <c r="C113" s="107" t="s">
@@ -7451,8 +7496,8 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="122"/>
-      <c r="B114" s="115" t="s">
+      <c r="A114" s="117"/>
+      <c r="B114" s="118" t="s">
         <v>309</v>
       </c>
       <c r="C114" s="107" t="s">
@@ -7477,8 +7522,8 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="122"/>
-      <c r="B115" s="115" t="s">
+      <c r="A115" s="117"/>
+      <c r="B115" s="118" t="s">
         <v>310</v>
       </c>
       <c r="C115" s="107" t="s">
@@ -7497,8 +7542,8 @@
       <c r="I115" s="110"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="122"/>
-      <c r="B116" s="115"/>
+      <c r="A116" s="117"/>
+      <c r="B116" s="118"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
       <c r="E116" s="108"/>
@@ -7509,8 +7554,8 @@
       <c r="I116" s="110"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="122"/>
-      <c r="B117" s="115"/>
+      <c r="A117" s="117"/>
+      <c r="B117" s="118"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
       <c r="E117" s="108"/>
@@ -7520,8 +7565,8 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="122"/>
-      <c r="B118" s="115"/>
+      <c r="A118" s="117"/>
+      <c r="B118" s="118"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
       <c r="E118" s="108"/>
@@ -7531,8 +7576,8 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="122"/>
-      <c r="B119" s="115"/>
+      <c r="A119" s="117"/>
+      <c r="B119" s="118"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
       <c r="E119" s="108"/>
@@ -7542,32 +7587,32 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="122"/>
-      <c r="B120" s="116"/>
-      <c r="C120" s="111"/>
-      <c r="D120" s="112"/>
-      <c r="E120" s="112"/>
-      <c r="F120" s="112">
+      <c r="A120" s="117"/>
+      <c r="B120" s="119"/>
+      <c r="C120" s="113"/>
+      <c r="D120" s="114"/>
+      <c r="E120" s="114"/>
+      <c r="F120" s="114">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="122"/>
-      <c r="B121" s="117"/>
-      <c r="C121" s="113"/>
-      <c r="D121" s="114"/>
-      <c r="E121" s="114"/>
-      <c r="F121" s="114">
+      <c r="A121" s="117"/>
+      <c r="B121" s="120"/>
+      <c r="C121" s="115"/>
+      <c r="D121" s="116"/>
+      <c r="E121" s="116"/>
+      <c r="F121" s="116">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="122" t="s">
-        <v>312</v>
-      </c>
-      <c r="B122" s="115" t="s">
+      <c r="A122" s="117" t="s">
+        <v>319</v>
+      </c>
+      <c r="B122" s="118" t="s">
         <v>307</v>
       </c>
       <c r="C122" s="107" t="s">
@@ -7591,8 +7636,8 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="122"/>
-      <c r="B123" s="115" t="s">
+      <c r="A123" s="117"/>
+      <c r="B123" s="118" t="s">
         <v>308</v>
       </c>
       <c r="C123" s="107" t="s">
@@ -7617,8 +7662,8 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="122"/>
-      <c r="B124" s="115" t="s">
+      <c r="A124" s="117"/>
+      <c r="B124" s="118" t="s">
         <v>294</v>
       </c>
       <c r="C124" s="107" t="s">
@@ -7643,8 +7688,8 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="122"/>
-      <c r="B125" s="115" t="s">
+      <c r="A125" s="117"/>
+      <c r="B125" s="118" t="s">
         <v>308</v>
       </c>
       <c r="C125" s="107" t="s">
@@ -7669,8 +7714,8 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="122"/>
-      <c r="B126" s="115" t="s">
+      <c r="A126" s="117"/>
+      <c r="B126" s="118" t="s">
         <v>298</v>
       </c>
       <c r="C126" s="107" t="s">
@@ -7695,8 +7740,8 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="122"/>
-      <c r="B127" s="115" t="s">
+      <c r="A127" s="117"/>
+      <c r="B127" s="118" t="s">
         <v>301</v>
       </c>
       <c r="C127" s="107" t="s">
@@ -7721,8 +7766,8 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="122"/>
-      <c r="B128" s="115" t="s">
+      <c r="A128" s="117"/>
+      <c r="B128" s="118" t="s">
         <v>303</v>
       </c>
       <c r="C128" s="107" t="s">
@@ -7747,8 +7792,8 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="122"/>
-      <c r="B129" s="115" t="s">
+      <c r="A129" s="117"/>
+      <c r="B129" s="118" t="s">
         <v>309</v>
       </c>
       <c r="C129" s="107" t="s">
@@ -7773,8 +7818,8 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="122"/>
-      <c r="B130" s="115" t="s">
+      <c r="A130" s="117"/>
+      <c r="B130" s="118" t="s">
         <v>310</v>
       </c>
       <c r="C130" s="107" t="s">
@@ -7793,8 +7838,8 @@
       <c r="I130" s="110"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="122"/>
-      <c r="B131" s="115"/>
+      <c r="A131" s="117"/>
+      <c r="B131" s="118"/>
       <c r="C131" s="107"/>
       <c r="D131" s="108"/>
       <c r="E131" s="108"/>
@@ -7805,8 +7850,8 @@
       <c r="I131" s="110"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="122"/>
-      <c r="B132" s="115"/>
+      <c r="A132" s="117"/>
+      <c r="B132" s="118"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
       <c r="E132" s="108"/>
@@ -7816,8 +7861,8 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="122"/>
-      <c r="B133" s="115"/>
+      <c r="A133" s="117"/>
+      <c r="B133" s="118"/>
       <c r="C133" s="107"/>
       <c r="D133" s="108"/>
       <c r="E133" s="108"/>
@@ -7827,8 +7872,8 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="122"/>
-      <c r="B134" s="115"/>
+      <c r="A134" s="117"/>
+      <c r="B134" s="118"/>
       <c r="C134" s="107"/>
       <c r="D134" s="108"/>
       <c r="E134" s="108"/>
@@ -7838,23 +7883,23 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="122"/>
-      <c r="B135" s="116"/>
-      <c r="C135" s="111"/>
-      <c r="D135" s="112"/>
-      <c r="E135" s="112"/>
-      <c r="F135" s="112">
+      <c r="A135" s="117"/>
+      <c r="B135" s="119"/>
+      <c r="C135" s="113"/>
+      <c r="D135" s="114"/>
+      <c r="E135" s="114"/>
+      <c r="F135" s="114">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="122"/>
-      <c r="B136" s="117"/>
-      <c r="C136" s="113"/>
-      <c r="D136" s="114"/>
-      <c r="E136" s="114"/>
-      <c r="F136" s="114">
+      <c r="A136" s="117"/>
+      <c r="B136" s="120"/>
+      <c r="C136" s="115"/>
+      <c r="D136" s="116"/>
+      <c r="E136" s="116"/>
+      <c r="F136" s="116">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDBE0418-F6FA-43AB-90D8-D568602FBBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6D25A6C-3681-4C04-9AD1-C4EEBDDBC6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="329">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1337,6 +1337,33 @@
   </si>
   <si>
     <t>Harini</t>
+  </si>
+  <si>
+    <t>Reviewed estimation sheet</t>
+  </si>
+  <si>
+    <t>Worked on HTML layout for login page</t>
+  </si>
+  <si>
+    <t>Morning break</t>
+  </si>
+  <si>
+    <t>Reviewed the HTML layout</t>
+  </si>
+  <si>
+    <t>Customer meeting</t>
+  </si>
+  <si>
+    <t>Lunch break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration on typescript topics </t>
+  </si>
+  <si>
+    <t>Modified changes in Login page(HTML)</t>
+  </si>
+  <si>
+    <t>Worked on HTML layout for home page</t>
   </si>
   <si>
     <t>Worked on Web api(SOC,Factory pattern)</t>
@@ -5180,8 +5207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84DE649-C5F3-4109-BE1F-71D1CBA3BD0C}">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6109,20 +6136,20 @@
         <v>311</v>
       </c>
       <c r="B47" s="107" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C47" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D47" s="108">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E47" s="108">
-        <v>0.4236111111111111</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F47" s="108">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H47" s="106" t="s">
         <v>291</v>
@@ -6134,98 +6161,98 @@
     <row r="48" spans="1:9">
       <c r="A48" s="111"/>
       <c r="B48" s="107" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C48" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D48" s="108">
-        <v>0.42708333333333331</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="E48" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="F48" s="108">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.819444444444442E-2</v>
       </c>
       <c r="H48" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I48" s="108">
         <f t="shared" ref="I48" si="22">SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.22916666666666674</v>
+        <v>0.28124999999999989</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="111"/>
       <c r="B49" s="107" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C49" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D49" s="108">
+        <v>0.4375</v>
+      </c>
+      <c r="E49" s="108">
         <v>0.45833333333333331</v>
-      </c>
-      <c r="E49" s="108">
-        <v>0.47222222222222227</v>
       </c>
       <c r="F49" s="108">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H49" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I49" s="108">
         <f t="shared" ref="I49" si="23">SUMIFS(F47:F61, C47:C61,H49)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="111"/>
       <c r="B50" s="107" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C50" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D50" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="E50" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F50" s="108">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="H50" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I50" s="108">
         <f t="shared" ref="I50" si="24">SUMIFS(F47:F61, C47:C61,H50)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="111"/>
       <c r="B51" s="107" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="C51" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D51" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E51" s="108">
-        <v>0.54166666666666663</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="F51" s="108">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <f>E51-D51</f>
+        <v>3.125E-2</v>
       </c>
       <c r="H51" s="109" t="s">
         <v>300</v>
@@ -6238,20 +6265,20 @@
     <row r="52" spans="1:9">
       <c r="A52" s="111"/>
       <c r="B52" s="107" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="C52" s="107" t="s">
         <v>299</v>
       </c>
       <c r="D52" s="108">
-        <v>0.47222222222222227</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E52" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.59375</v>
       </c>
       <c r="F52" s="108">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <f>E52-D52</f>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H52" s="109" t="s">
         <v>302</v>
@@ -6264,84 +6291,92 @@
     <row r="53" spans="1:9">
       <c r="A53" s="111"/>
       <c r="B53" s="107" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C53" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D53" s="108">
-        <v>0.65625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E53" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F53" s="108">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H53" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I53" s="108">
         <f t="shared" ref="I53" si="27">SUMIFS(F47:F61, C47:C61,H53)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="111"/>
       <c r="B54" s="107" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C54" s="107" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D54" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E54" s="108">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F54" s="108">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H54" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I54" s="106">
         <f t="shared" ref="I54" si="28">SUM(I48:I53)</f>
-        <v>0.34027777777777773</v>
+        <v>0.38541666666666657</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="111"/>
       <c r="B55" s="107" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C55" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D55" s="108">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E55" s="108">
-        <v>0.875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="F55" s="108">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="111"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="108"/>
-      <c r="E56" s="108"/>
+      <c r="B56" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="C56" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D56" s="108">
+        <v>0.875</v>
+      </c>
+      <c r="E56" s="108">
+        <v>0.9375</v>
+      </c>
       <c r="F56" s="108">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I56" s="110"/>
     </row>
@@ -7022,7 +7057,7 @@
     <row r="93" spans="1:9">
       <c r="A93" s="111"/>
       <c r="B93" s="107" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C93" s="107" t="s">
         <v>290</v>
@@ -7074,7 +7109,7 @@
     <row r="95" spans="1:9">
       <c r="A95" s="111"/>
       <c r="B95" s="107" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C95" s="107" t="s">
         <v>290</v>
@@ -7126,7 +7161,7 @@
     <row r="97" spans="1:9">
       <c r="A97" s="111"/>
       <c r="B97" s="107" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C97" s="107" t="s">
         <v>299</v>
@@ -7152,7 +7187,7 @@
     <row r="98" spans="1:9">
       <c r="A98" s="111"/>
       <c r="B98" s="107" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C98" s="107" t="s">
         <v>297</v>
@@ -7178,7 +7213,7 @@
     <row r="99" spans="1:9">
       <c r="A99" s="111"/>
       <c r="B99" s="107" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C99" s="107" t="s">
         <v>295</v>
@@ -7204,7 +7239,7 @@
     <row r="100" spans="1:9">
       <c r="A100" s="111"/>
       <c r="B100" s="107" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C100" s="107" t="s">
         <v>297</v>
@@ -7244,7 +7279,7 @@
     <row r="102" spans="1:9">
       <c r="A102" s="111"/>
       <c r="B102" s="107" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C102" s="107" t="s">
         <v>290</v>
@@ -7263,7 +7298,7 @@
     <row r="103" spans="1:9">
       <c r="A103" s="111"/>
       <c r="B103" s="107" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C103" s="107" t="s">
         <v>297</v>
@@ -7610,7 +7645,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="117" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B122" s="118" t="s">
         <v>307</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6D25A6C-3681-4C04-9AD1-C4EEBDDBC6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27E384EE-5BCD-4B48-9EBC-FAC36B98B397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="332">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1336,6 +1336,18 @@
     <t>Working on HTML layout</t>
   </si>
   <si>
+    <t>Worked on HTML layout for User Creation Page</t>
+  </si>
+  <si>
+    <t>Lunch Break</t>
+  </si>
+  <si>
+    <t>Worked on HTML Layout for Wizard(skill)page</t>
+  </si>
+  <si>
+    <t>HTML layout wizard(In progress)</t>
+  </si>
+  <si>
     <t>Harini</t>
   </si>
   <si>
@@ -1370,9 +1382,6 @@
   </si>
   <si>
     <t>Worked on Web api</t>
-  </si>
-  <si>
-    <t>Lunch Break</t>
   </si>
   <si>
     <t>Logging</t>
@@ -2216,19 +2225,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -2237,6 +2237,15 @@
     </xf>
     <xf numFmtId="164" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5207,8 +5216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84DE649-C5F3-4109-BE1F-71D1CBA3BD0C}">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5224,27 +5233,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="118" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="119" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="120" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -5271,7 +5280,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="111"/>
+      <c r="A3" s="120"/>
       <c r="B3" s="107" t="s">
         <v>293</v>
       </c>
@@ -5297,7 +5306,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="111"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="107" t="s">
         <v>294</v>
       </c>
@@ -5323,7 +5332,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="111"/>
+      <c r="A5" s="120"/>
       <c r="B5" s="107" t="s">
         <v>296</v>
       </c>
@@ -5349,7 +5358,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="111"/>
+      <c r="A6" s="120"/>
       <c r="B6" s="107" t="s">
         <v>298</v>
       </c>
@@ -5375,7 +5384,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="111"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="107" t="s">
         <v>301</v>
       </c>
@@ -5401,7 +5410,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="111"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="107" t="s">
         <v>303</v>
       </c>
@@ -5427,7 +5436,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="111"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="107" t="s">
         <v>304</v>
       </c>
@@ -5453,7 +5462,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="111"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="107" t="s">
         <v>306</v>
       </c>
@@ -5473,7 +5482,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="111"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -5485,7 +5494,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="111"/>
+      <c r="A12" s="120"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -5496,7 +5505,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="111"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -5507,7 +5516,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="111"/>
+      <c r="A14" s="120"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -5518,7 +5527,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="111"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -5529,7 +5538,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="111"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -5540,7 +5549,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="120" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -5567,7 +5576,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="111"/>
+      <c r="A18" s="120"/>
       <c r="B18" s="107" t="s">
         <v>308</v>
       </c>
@@ -5593,7 +5602,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="111"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="107" t="s">
         <v>294</v>
       </c>
@@ -5619,7 +5628,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="111"/>
+      <c r="A20" s="120"/>
       <c r="B20" s="107" t="s">
         <v>308</v>
       </c>
@@ -5645,7 +5654,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="111"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="107" t="s">
         <v>298</v>
       </c>
@@ -5671,7 +5680,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="111"/>
+      <c r="A22" s="120"/>
       <c r="B22" s="107" t="s">
         <v>301</v>
       </c>
@@ -5697,7 +5706,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="111"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="107" t="s">
         <v>303</v>
       </c>
@@ -5723,7 +5732,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="111"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="107" t="s">
         <v>309</v>
       </c>
@@ -5749,7 +5758,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="111"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="107" t="s">
         <v>310</v>
       </c>
@@ -5769,7 +5778,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="111"/>
+      <c r="A26" s="120"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -5781,7 +5790,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="111"/>
+      <c r="A27" s="120"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -5792,7 +5801,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="111"/>
+      <c r="A28" s="120"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -5803,7 +5812,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="111"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -5814,7 +5823,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="111"/>
+      <c r="A30" s="120"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -5825,7 +5834,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="111"/>
+      <c r="A31" s="120"/>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="108"/>
@@ -5836,24 +5845,24 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="111" t="s">
+      <c r="A32" s="120" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="107" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="C32" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D32" s="108">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E32" s="108">
-        <v>0.4236111111111111</v>
+        <v>0.40625</v>
       </c>
       <c r="F32" s="108">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H32" s="106" t="s">
         <v>291</v>
@@ -5863,18 +5872,18 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="111"/>
+      <c r="A33" s="120"/>
       <c r="B33" s="107" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C33" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D33" s="108">
-        <v>0.42708333333333331</v>
+        <v>0.40625</v>
       </c>
       <c r="E33" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="F33" s="108">
         <f t="shared" si="0"/>
@@ -5885,78 +5894,78 @@
       </c>
       <c r="I33" s="108">
         <f t="shared" ref="I33" si="15">SUMIFS(F32:F46, C32:C46,H33)</f>
-        <v>0.22916666666666674</v>
+        <v>0.22916666666666669</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="111"/>
+      <c r="A34" s="120"/>
       <c r="B34" s="107" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C34" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D34" s="108">
+        <v>0.4375</v>
+      </c>
+      <c r="E34" s="108">
         <v>0.45833333333333331</v>
-      </c>
-      <c r="E34" s="108">
-        <v>0.47222222222222227</v>
       </c>
       <c r="F34" s="108">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H34" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I34" s="108">
         <f t="shared" ref="I34" si="16">SUMIFS(F32:F46, C32:C46,H34)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="111"/>
+      <c r="A35" s="120"/>
       <c r="B35" s="107" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D35" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E35" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F35" s="108">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="H35" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I35" s="108">
         <f t="shared" ref="I35" si="17">SUMIFS(F32:F46, C32:C46,H35)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="111"/>
+      <c r="A36" s="120"/>
       <c r="B36" s="107" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C36" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D36" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E36" s="108">
-        <v>0.54166666666666663</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="F36" s="108">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H36" s="109" t="s">
         <v>300</v>
@@ -5967,22 +5976,22 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="111"/>
+      <c r="A37" s="120"/>
       <c r="B37" s="107" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="C37" s="107" t="s">
         <v>299</v>
       </c>
       <c r="D37" s="108">
-        <v>0.47222222222222227</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E37" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.59375</v>
       </c>
       <c r="F37" s="108">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H37" s="109" t="s">
         <v>302</v>
@@ -5993,91 +6002,99 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="111"/>
+      <c r="A38" s="120"/>
       <c r="B38" s="107" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C38" s="107" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D38" s="108">
-        <v>0.65625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E38" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F38" s="108">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H38" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I38" s="108">
         <f t="shared" ref="I38" si="20">SUMIFS(F32:F46, C32:C46,H38)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>5.5555555555555525E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="111"/>
+      <c r="A39" s="120"/>
       <c r="B39" s="107" t="s">
         <v>309</v>
       </c>
       <c r="C39" s="107" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D39" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E39" s="108">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F39" s="108">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H39" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I39" s="106">
         <f t="shared" ref="I39" si="21">SUM(I33:I38)</f>
-        <v>0.34027777777777773</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="111"/>
+      <c r="A40" s="120"/>
       <c r="B40" s="107" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C40" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D40" s="108">
-        <v>0.75</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="E40" s="108">
-        <v>0.875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="F40" s="108">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="111"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
+      <c r="A41" s="120"/>
+      <c r="B41" s="107" t="s">
+        <v>313</v>
+      </c>
+      <c r="C41" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41" s="108">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E41" s="108">
+        <v>0.78125</v>
+      </c>
       <c r="F41" s="108">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="I41" s="110"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="111"/>
+      <c r="A42" s="120"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -6088,8 +6105,10 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="111"/>
-      <c r="B43" s="107"/>
+      <c r="A43" s="120"/>
+      <c r="B43" s="107" t="s">
+        <v>314</v>
+      </c>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
       <c r="E43" s="108"/>
@@ -6099,7 +6118,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="111"/>
+      <c r="A44" s="120"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -6110,7 +6129,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="111"/>
+      <c r="A45" s="120"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -6121,7 +6140,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="111"/>
+      <c r="A46" s="120"/>
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
       <c r="D46" s="108"/>
@@ -6132,11 +6151,11 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="111" t="s">
-        <v>311</v>
+      <c r="A47" s="120" t="s">
+        <v>315</v>
       </c>
       <c r="B47" s="107" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C47" s="107" t="s">
         <v>290</v>
@@ -6159,9 +6178,9 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="111"/>
+      <c r="A48" s="120"/>
       <c r="B48" s="107" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C48" s="107" t="s">
         <v>290</v>
@@ -6185,9 +6204,9 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="111"/>
+      <c r="A49" s="120"/>
       <c r="B49" s="107" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C49" s="107" t="s">
         <v>299</v>
@@ -6211,9 +6230,9 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="111"/>
+      <c r="A50" s="120"/>
       <c r="B50" s="107" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C50" s="107" t="s">
         <v>290</v>
@@ -6237,9 +6256,9 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="111"/>
+      <c r="A51" s="120"/>
       <c r="B51" s="107" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C51" s="107" t="s">
         <v>290</v>
@@ -6263,9 +6282,9 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="111"/>
+      <c r="A52" s="120"/>
       <c r="B52" s="107" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C52" s="107" t="s">
         <v>299</v>
@@ -6289,7 +6308,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="111"/>
+      <c r="A53" s="120"/>
       <c r="B53" s="107" t="s">
         <v>296</v>
       </c>
@@ -6315,9 +6334,9 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="111"/>
+      <c r="A54" s="120"/>
       <c r="B54" s="107" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C54" s="107" t="s">
         <v>297</v>
@@ -6341,9 +6360,9 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="111"/>
+      <c r="A55" s="120"/>
       <c r="B55" s="107" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C55" s="107" t="s">
         <v>290</v>
@@ -6361,9 +6380,9 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="111"/>
+      <c r="A56" s="120"/>
       <c r="B56" s="107" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C56" s="107" t="s">
         <v>290</v>
@@ -6381,7 +6400,7 @@
       <c r="I56" s="110"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="111"/>
+      <c r="A57" s="120"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -6392,7 +6411,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="111"/>
+      <c r="A58" s="120"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -6403,7 +6422,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="111"/>
+      <c r="A59" s="120"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -6414,7 +6433,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="111"/>
+      <c r="A60" s="120"/>
       <c r="B60" s="107"/>
       <c r="C60" s="107"/>
       <c r="D60" s="108"/>
@@ -6425,7 +6444,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="111"/>
+      <c r="A61" s="120"/>
       <c r="B61" s="107"/>
       <c r="C61" s="107"/>
       <c r="D61" s="108"/>
@@ -6436,7 +6455,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="111" t="s">
+      <c r="A62" s="120" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="107" t="s">
@@ -6463,7 +6482,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="111"/>
+      <c r="A63" s="120"/>
       <c r="B63" s="107" t="s">
         <v>308</v>
       </c>
@@ -6489,7 +6508,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="111"/>
+      <c r="A64" s="120"/>
       <c r="B64" s="107" t="s">
         <v>294</v>
       </c>
@@ -6515,7 +6534,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="111"/>
+      <c r="A65" s="120"/>
       <c r="B65" s="107" t="s">
         <v>308</v>
       </c>
@@ -6541,7 +6560,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="111"/>
+      <c r="A66" s="120"/>
       <c r="B66" s="107" t="s">
         <v>298</v>
       </c>
@@ -6567,7 +6586,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="111"/>
+      <c r="A67" s="120"/>
       <c r="B67" s="107" t="s">
         <v>301</v>
       </c>
@@ -6593,7 +6612,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="111"/>
+      <c r="A68" s="120"/>
       <c r="B68" s="107" t="s">
         <v>303</v>
       </c>
@@ -6619,7 +6638,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="111"/>
+      <c r="A69" s="120"/>
       <c r="B69" s="107" t="s">
         <v>309</v>
       </c>
@@ -6645,7 +6664,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="111"/>
+      <c r="A70" s="120"/>
       <c r="B70" s="107" t="s">
         <v>310</v>
       </c>
@@ -6665,7 +6684,7 @@
       <c r="I70" s="110"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="111"/>
+      <c r="A71" s="120"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -6677,7 +6696,7 @@
       <c r="I71" s="110"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="111"/>
+      <c r="A72" s="120"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -6688,7 +6707,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="111"/>
+      <c r="A73" s="120"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -6699,7 +6718,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="111"/>
+      <c r="A74" s="120"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -6710,7 +6729,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="111"/>
+      <c r="A75" s="120"/>
       <c r="B75" s="107"/>
       <c r="C75" s="107"/>
       <c r="D75" s="108"/>
@@ -6721,7 +6740,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="111"/>
+      <c r="A76" s="120"/>
       <c r="B76" s="107"/>
       <c r="C76" s="107"/>
       <c r="D76" s="108"/>
@@ -6732,7 +6751,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="111" t="s">
+      <c r="A77" s="120" t="s">
         <v>67</v>
       </c>
       <c r="B77" s="107" t="s">
@@ -6759,7 +6778,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="111"/>
+      <c r="A78" s="120"/>
       <c r="B78" s="107" t="s">
         <v>308</v>
       </c>
@@ -6785,7 +6804,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="111"/>
+      <c r="A79" s="120"/>
       <c r="B79" s="107" t="s">
         <v>294</v>
       </c>
@@ -6811,7 +6830,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="111"/>
+      <c r="A80" s="120"/>
       <c r="B80" s="107" t="s">
         <v>308</v>
       </c>
@@ -6837,7 +6856,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="111"/>
+      <c r="A81" s="120"/>
       <c r="B81" s="107" t="s">
         <v>298</v>
       </c>
@@ -6863,7 +6882,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="111"/>
+      <c r="A82" s="120"/>
       <c r="B82" s="107" t="s">
         <v>301</v>
       </c>
@@ -6889,7 +6908,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="111"/>
+      <c r="A83" s="120"/>
       <c r="B83" s="107" t="s">
         <v>303</v>
       </c>
@@ -6915,7 +6934,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="111"/>
+      <c r="A84" s="120"/>
       <c r="B84" s="107" t="s">
         <v>309</v>
       </c>
@@ -6941,7 +6960,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="111"/>
+      <c r="A85" s="120"/>
       <c r="B85" s="107" t="s">
         <v>310</v>
       </c>
@@ -6961,7 +6980,7 @@
       <c r="I85" s="110"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="111"/>
+      <c r="A86" s="120"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -6973,7 +6992,7 @@
       <c r="I86" s="110"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="111"/>
+      <c r="A87" s="120"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107"/>
       <c r="D87" s="108"/>
@@ -6984,7 +7003,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="111"/>
+      <c r="A88" s="120"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -6995,7 +7014,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="111"/>
+      <c r="A89" s="120"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -7006,7 +7025,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="111"/>
+      <c r="A90" s="120"/>
       <c r="B90" s="107"/>
       <c r="C90" s="107"/>
       <c r="D90" s="108"/>
@@ -7017,7 +7036,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="111"/>
+      <c r="A91" s="120"/>
       <c r="B91" s="107"/>
       <c r="C91" s="107"/>
       <c r="D91" s="108"/>
@@ -7028,7 +7047,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="111" t="s">
+      <c r="A92" s="120" t="s">
         <v>28</v>
       </c>
       <c r="B92" s="107" t="s">
@@ -7055,9 +7074,9 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="111"/>
+      <c r="A93" s="120"/>
       <c r="B93" s="107" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C93" s="107" t="s">
         <v>290</v>
@@ -7081,7 +7100,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="111"/>
+      <c r="A94" s="120"/>
       <c r="B94" s="107" t="s">
         <v>301</v>
       </c>
@@ -7107,9 +7126,9 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="111"/>
+      <c r="A95" s="120"/>
       <c r="B95" s="107" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C95" s="107" t="s">
         <v>290</v>
@@ -7133,7 +7152,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="111"/>
+      <c r="A96" s="120"/>
       <c r="B96" s="107" t="s">
         <v>294</v>
       </c>
@@ -7159,9 +7178,9 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="111"/>
+      <c r="A97" s="120"/>
       <c r="B97" s="107" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C97" s="107" t="s">
         <v>299</v>
@@ -7185,9 +7204,9 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="111"/>
+      <c r="A98" s="120"/>
       <c r="B98" s="107" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C98" s="107" t="s">
         <v>297</v>
@@ -7211,9 +7230,9 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="111"/>
+      <c r="A99" s="120"/>
       <c r="B99" s="107" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C99" s="107" t="s">
         <v>295</v>
@@ -7237,9 +7256,9 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="111"/>
+      <c r="A100" s="120"/>
       <c r="B100" s="107" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C100" s="107" t="s">
         <v>297</v>
@@ -7257,7 +7276,7 @@
       <c r="I100" s="110"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="111"/>
+      <c r="A101" s="120"/>
       <c r="B101" s="107" t="s">
         <v>303</v>
       </c>
@@ -7277,9 +7296,9 @@
       <c r="I101" s="110"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="111"/>
+      <c r="A102" s="120"/>
       <c r="B102" s="107" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C102" s="107" t="s">
         <v>290</v>
@@ -7296,9 +7315,9 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="111"/>
+      <c r="A103" s="120"/>
       <c r="B103" s="107" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C103" s="107" t="s">
         <v>297</v>
@@ -7315,7 +7334,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="111"/>
+      <c r="A104" s="120"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -7326,7 +7345,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="111"/>
+      <c r="A105" s="120"/>
       <c r="B105" s="107"/>
       <c r="C105" s="107"/>
       <c r="D105" s="108"/>
@@ -7337,7 +7356,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="112"/>
+      <c r="A106" s="121"/>
       <c r="B106" s="107"/>
       <c r="C106" s="107"/>
       <c r="D106" s="108"/>
@@ -7348,10 +7367,10 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="117" t="s">
+      <c r="A107" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="B107" s="118" t="s">
+      <c r="B107" s="115" t="s">
         <v>307</v>
       </c>
       <c r="C107" s="107" t="s">
@@ -7375,8 +7394,8 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="117"/>
-      <c r="B108" s="118" t="s">
+      <c r="A108" s="122"/>
+      <c r="B108" s="115" t="s">
         <v>308</v>
       </c>
       <c r="C108" s="107" t="s">
@@ -7401,8 +7420,8 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="117"/>
-      <c r="B109" s="118" t="s">
+      <c r="A109" s="122"/>
+      <c r="B109" s="115" t="s">
         <v>294</v>
       </c>
       <c r="C109" s="107" t="s">
@@ -7427,8 +7446,8 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="117"/>
-      <c r="B110" s="118" t="s">
+      <c r="A110" s="122"/>
+      <c r="B110" s="115" t="s">
         <v>308</v>
       </c>
       <c r="C110" s="107" t="s">
@@ -7453,8 +7472,8 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="117"/>
-      <c r="B111" s="118" t="s">
+      <c r="A111" s="122"/>
+      <c r="B111" s="115" t="s">
         <v>298</v>
       </c>
       <c r="C111" s="107" t="s">
@@ -7479,8 +7498,8 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="117"/>
-      <c r="B112" s="118" t="s">
+      <c r="A112" s="122"/>
+      <c r="B112" s="115" t="s">
         <v>301</v>
       </c>
       <c r="C112" s="107" t="s">
@@ -7505,8 +7524,8 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="117"/>
-      <c r="B113" s="118" t="s">
+      <c r="A113" s="122"/>
+      <c r="B113" s="115" t="s">
         <v>303</v>
       </c>
       <c r="C113" s="107" t="s">
@@ -7531,8 +7550,8 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="117"/>
-      <c r="B114" s="118" t="s">
+      <c r="A114" s="122"/>
+      <c r="B114" s="115" t="s">
         <v>309</v>
       </c>
       <c r="C114" s="107" t="s">
@@ -7557,8 +7576,8 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="117"/>
-      <c r="B115" s="118" t="s">
+      <c r="A115" s="122"/>
+      <c r="B115" s="115" t="s">
         <v>310</v>
       </c>
       <c r="C115" s="107" t="s">
@@ -7577,8 +7596,8 @@
       <c r="I115" s="110"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="117"/>
-      <c r="B116" s="118"/>
+      <c r="A116" s="122"/>
+      <c r="B116" s="115"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
       <c r="E116" s="108"/>
@@ -7589,8 +7608,8 @@
       <c r="I116" s="110"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="117"/>
-      <c r="B117" s="118"/>
+      <c r="A117" s="122"/>
+      <c r="B117" s="115"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
       <c r="E117" s="108"/>
@@ -7600,8 +7619,8 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="117"/>
-      <c r="B118" s="118"/>
+      <c r="A118" s="122"/>
+      <c r="B118" s="115"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
       <c r="E118" s="108"/>
@@ -7611,8 +7630,8 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="117"/>
-      <c r="B119" s="118"/>
+      <c r="A119" s="122"/>
+      <c r="B119" s="115"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
       <c r="E119" s="108"/>
@@ -7622,32 +7641,32 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="117"/>
-      <c r="B120" s="119"/>
-      <c r="C120" s="113"/>
-      <c r="D120" s="114"/>
-      <c r="E120" s="114"/>
-      <c r="F120" s="114">
+      <c r="A120" s="122"/>
+      <c r="B120" s="116"/>
+      <c r="C120" s="111"/>
+      <c r="D120" s="112"/>
+      <c r="E120" s="112"/>
+      <c r="F120" s="112">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="117"/>
-      <c r="B121" s="120"/>
-      <c r="C121" s="115"/>
-      <c r="D121" s="116"/>
-      <c r="E121" s="116"/>
-      <c r="F121" s="116">
+      <c r="A121" s="122"/>
+      <c r="B121" s="117"/>
+      <c r="C121" s="113"/>
+      <c r="D121" s="114"/>
+      <c r="E121" s="114"/>
+      <c r="F121" s="114">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="117" t="s">
-        <v>328</v>
-      </c>
-      <c r="B122" s="118" t="s">
+      <c r="A122" s="122" t="s">
+        <v>331</v>
+      </c>
+      <c r="B122" s="115" t="s">
         <v>307</v>
       </c>
       <c r="C122" s="107" t="s">
@@ -7671,8 +7690,8 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="117"/>
-      <c r="B123" s="118" t="s">
+      <c r="A123" s="122"/>
+      <c r="B123" s="115" t="s">
         <v>308</v>
       </c>
       <c r="C123" s="107" t="s">
@@ -7697,8 +7716,8 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="117"/>
-      <c r="B124" s="118" t="s">
+      <c r="A124" s="122"/>
+      <c r="B124" s="115" t="s">
         <v>294</v>
       </c>
       <c r="C124" s="107" t="s">
@@ -7723,8 +7742,8 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="117"/>
-      <c r="B125" s="118" t="s">
+      <c r="A125" s="122"/>
+      <c r="B125" s="115" t="s">
         <v>308</v>
       </c>
       <c r="C125" s="107" t="s">
@@ -7749,8 +7768,8 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="117"/>
-      <c r="B126" s="118" t="s">
+      <c r="A126" s="122"/>
+      <c r="B126" s="115" t="s">
         <v>298</v>
       </c>
       <c r="C126" s="107" t="s">
@@ -7775,8 +7794,8 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="117"/>
-      <c r="B127" s="118" t="s">
+      <c r="A127" s="122"/>
+      <c r="B127" s="115" t="s">
         <v>301</v>
       </c>
       <c r="C127" s="107" t="s">
@@ -7801,8 +7820,8 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="117"/>
-      <c r="B128" s="118" t="s">
+      <c r="A128" s="122"/>
+      <c r="B128" s="115" t="s">
         <v>303</v>
       </c>
       <c r="C128" s="107" t="s">
@@ -7827,8 +7846,8 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="117"/>
-      <c r="B129" s="118" t="s">
+      <c r="A129" s="122"/>
+      <c r="B129" s="115" t="s">
         <v>309</v>
       </c>
       <c r="C129" s="107" t="s">
@@ -7853,8 +7872,8 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="117"/>
-      <c r="B130" s="118" t="s">
+      <c r="A130" s="122"/>
+      <c r="B130" s="115" t="s">
         <v>310</v>
       </c>
       <c r="C130" s="107" t="s">
@@ -7873,8 +7892,8 @@
       <c r="I130" s="110"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="117"/>
-      <c r="B131" s="118"/>
+      <c r="A131" s="122"/>
+      <c r="B131" s="115"/>
       <c r="C131" s="107"/>
       <c r="D131" s="108"/>
       <c r="E131" s="108"/>
@@ -7885,8 +7904,8 @@
       <c r="I131" s="110"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="117"/>
-      <c r="B132" s="118"/>
+      <c r="A132" s="122"/>
+      <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
       <c r="E132" s="108"/>
@@ -7896,8 +7915,8 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="117"/>
-      <c r="B133" s="118"/>
+      <c r="A133" s="122"/>
+      <c r="B133" s="115"/>
       <c r="C133" s="107"/>
       <c r="D133" s="108"/>
       <c r="E133" s="108"/>
@@ -7907,8 +7926,8 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="117"/>
-      <c r="B134" s="118"/>
+      <c r="A134" s="122"/>
+      <c r="B134" s="115"/>
       <c r="C134" s="107"/>
       <c r="D134" s="108"/>
       <c r="E134" s="108"/>
@@ -7918,23 +7937,23 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="117"/>
-      <c r="B135" s="119"/>
-      <c r="C135" s="113"/>
-      <c r="D135" s="114"/>
-      <c r="E135" s="114"/>
-      <c r="F135" s="114">
+      <c r="A135" s="122"/>
+      <c r="B135" s="116"/>
+      <c r="C135" s="111"/>
+      <c r="D135" s="112"/>
+      <c r="E135" s="112"/>
+      <c r="F135" s="112">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="117"/>
-      <c r="B136" s="120"/>
-      <c r="C136" s="115"/>
-      <c r="D136" s="116"/>
-      <c r="E136" s="116"/>
-      <c r="F136" s="116">
+      <c r="A136" s="122"/>
+      <c r="B136" s="117"/>
+      <c r="C136" s="113"/>
+      <c r="D136" s="114"/>
+      <c r="E136" s="114"/>
+      <c r="F136" s="114">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27E384EE-5BCD-4B48-9EBC-FAC36B98B397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B82235F-5AE0-49AB-99DB-FCA0A751A7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="336">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1378,6 +1378,18 @@
     <t>Worked on HTML layout for home page</t>
   </si>
   <si>
+    <t>worked on HTML layout for Change Password</t>
+  </si>
+  <si>
+    <t>worked on HTML layout for Forgot Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular session </t>
+  </si>
+  <si>
+    <t>Working on HTML layout for Change Password</t>
+  </si>
+  <si>
     <t>Worked on Web api(SOC,Factory pattern)</t>
   </si>
   <si>
@@ -1406,7 +1418,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1525,6 +1537,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1913,7 +1931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2238,6 +2256,7 @@
     <xf numFmtId="164" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5216,8 +5235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84DE649-C5F3-4109-BE1F-71D1CBA3BD0C}">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5253,7 +5272,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="121" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -5280,7 +5299,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="120"/>
+      <c r="A3" s="121"/>
       <c r="B3" s="107" t="s">
         <v>293</v>
       </c>
@@ -5306,7 +5325,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="120"/>
+      <c r="A4" s="121"/>
       <c r="B4" s="107" t="s">
         <v>294</v>
       </c>
@@ -5332,7 +5351,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="120"/>
+      <c r="A5" s="121"/>
       <c r="B5" s="107" t="s">
         <v>296</v>
       </c>
@@ -5358,7 +5377,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="120"/>
+      <c r="A6" s="121"/>
       <c r="B6" s="107" t="s">
         <v>298</v>
       </c>
@@ -5384,7 +5403,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="120"/>
+      <c r="A7" s="121"/>
       <c r="B7" s="107" t="s">
         <v>301</v>
       </c>
@@ -5410,7 +5429,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="120"/>
+      <c r="A8" s="121"/>
       <c r="B8" s="107" t="s">
         <v>303</v>
       </c>
@@ -5436,7 +5455,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="120"/>
+      <c r="A9" s="121"/>
       <c r="B9" s="107" t="s">
         <v>304</v>
       </c>
@@ -5462,7 +5481,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="120"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="107" t="s">
         <v>306</v>
       </c>
@@ -5482,7 +5501,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="120"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -5494,7 +5513,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="120"/>
+      <c r="A12" s="121"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -5505,7 +5524,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="120"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -5516,7 +5535,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="120"/>
+      <c r="A14" s="121"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -5527,7 +5546,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="120"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -5538,7 +5557,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="120"/>
+      <c r="A16" s="121"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -5549,7 +5568,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="120" t="s">
+      <c r="A17" s="121" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -5576,7 +5595,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="120"/>
+      <c r="A18" s="121"/>
       <c r="B18" s="107" t="s">
         <v>308</v>
       </c>
@@ -5602,7 +5621,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="120"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="107" t="s">
         <v>294</v>
       </c>
@@ -5628,7 +5647,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="120"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="107" t="s">
         <v>308</v>
       </c>
@@ -5654,7 +5673,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="120"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="107" t="s">
         <v>298</v>
       </c>
@@ -5680,7 +5699,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="120"/>
+      <c r="A22" s="121"/>
       <c r="B22" s="107" t="s">
         <v>301</v>
       </c>
@@ -5706,7 +5725,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="120"/>
+      <c r="A23" s="121"/>
       <c r="B23" s="107" t="s">
         <v>303</v>
       </c>
@@ -5732,7 +5751,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="120"/>
+      <c r="A24" s="121"/>
       <c r="B24" s="107" t="s">
         <v>309</v>
       </c>
@@ -5758,7 +5777,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="120"/>
+      <c r="A25" s="121"/>
       <c r="B25" s="107" t="s">
         <v>310</v>
       </c>
@@ -5778,7 +5797,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="120"/>
+      <c r="A26" s="121"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -5790,7 +5809,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="120"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -5801,7 +5820,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="120"/>
+      <c r="A28" s="121"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -5812,7 +5831,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="120"/>
+      <c r="A29" s="121"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -5823,7 +5842,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="120"/>
+      <c r="A30" s="121"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -5834,7 +5853,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="120"/>
+      <c r="A31" s="121"/>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="108"/>
@@ -5845,7 +5864,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="120" t="s">
+      <c r="A32" s="121" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="107" t="s">
@@ -5872,7 +5891,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="120"/>
+      <c r="A33" s="121"/>
       <c r="B33" s="107" t="s">
         <v>311</v>
       </c>
@@ -5898,7 +5917,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="120"/>
+      <c r="A34" s="121"/>
       <c r="B34" s="107" t="s">
         <v>301</v>
       </c>
@@ -5924,7 +5943,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="120"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="107" t="s">
         <v>311</v>
       </c>
@@ -5950,7 +5969,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="120"/>
+      <c r="A36" s="121"/>
       <c r="B36" s="107" t="s">
         <v>294</v>
       </c>
@@ -5976,7 +5995,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="120"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="107" t="s">
         <v>312</v>
       </c>
@@ -6002,7 +6021,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="120"/>
+      <c r="A38" s="121"/>
       <c r="B38" s="107" t="s">
         <v>307</v>
       </c>
@@ -6028,7 +6047,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="120"/>
+      <c r="A39" s="121"/>
       <c r="B39" s="107" t="s">
         <v>309</v>
       </c>
@@ -6054,7 +6073,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="120"/>
+      <c r="A40" s="121"/>
       <c r="B40" s="107" t="s">
         <v>303</v>
       </c>
@@ -6074,7 +6093,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="120"/>
+      <c r="A41" s="121"/>
       <c r="B41" s="107" t="s">
         <v>313</v>
       </c>
@@ -6094,7 +6113,7 @@
       <c r="I41" s="110"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="120"/>
+      <c r="A42" s="121"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -6105,7 +6124,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="120"/>
+      <c r="A43" s="121"/>
       <c r="B43" s="107" t="s">
         <v>314</v>
       </c>
@@ -6118,7 +6137,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="120"/>
+      <c r="A44" s="121"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -6129,7 +6148,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="120"/>
+      <c r="A45" s="121"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -6140,7 +6159,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="120"/>
+      <c r="A46" s="121"/>
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
       <c r="D46" s="108"/>
@@ -6151,7 +6170,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="120" t="s">
+      <c r="A47" s="121" t="s">
         <v>315</v>
       </c>
       <c r="B47" s="107" t="s">
@@ -6178,7 +6197,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="120"/>
+      <c r="A48" s="121"/>
       <c r="B48" s="107" t="s">
         <v>317</v>
       </c>
@@ -6204,7 +6223,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="120"/>
+      <c r="A49" s="121"/>
       <c r="B49" s="107" t="s">
         <v>318</v>
       </c>
@@ -6230,7 +6249,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="120"/>
+      <c r="A50" s="121"/>
       <c r="B50" s="107" t="s">
         <v>319</v>
       </c>
@@ -6256,7 +6275,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="120"/>
+      <c r="A51" s="121"/>
       <c r="B51" s="107" t="s">
         <v>320</v>
       </c>
@@ -6282,7 +6301,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="120"/>
+      <c r="A52" s="121"/>
       <c r="B52" s="107" t="s">
         <v>321</v>
       </c>
@@ -6308,7 +6327,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="120"/>
+      <c r="A53" s="121"/>
       <c r="B53" s="107" t="s">
         <v>296</v>
       </c>
@@ -6334,7 +6353,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="120"/>
+      <c r="A54" s="121"/>
       <c r="B54" s="107" t="s">
         <v>322</v>
       </c>
@@ -6360,7 +6379,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="120"/>
+      <c r="A55" s="121"/>
       <c r="B55" s="107" t="s">
         <v>323</v>
       </c>
@@ -6380,7 +6399,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="120"/>
+      <c r="A56" s="121"/>
       <c r="B56" s="107" t="s">
         <v>324</v>
       </c>
@@ -6400,7 +6419,7 @@
       <c r="I56" s="110"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="120"/>
+      <c r="A57" s="121"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -6411,7 +6430,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="120"/>
+      <c r="A58" s="121"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -6422,7 +6441,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="120"/>
+      <c r="A59" s="121"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -6433,7 +6452,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="120"/>
+      <c r="A60" s="121"/>
       <c r="B60" s="107"/>
       <c r="C60" s="107"/>
       <c r="D60" s="108"/>
@@ -6444,7 +6463,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="120"/>
+      <c r="A61" s="121"/>
       <c r="B61" s="107"/>
       <c r="C61" s="107"/>
       <c r="D61" s="108"/>
@@ -6455,24 +6474,24 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="120" t="s">
+      <c r="A62" s="121" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="107" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="C62" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D62" s="108">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E62" s="108">
-        <v>0.4236111111111111</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="F62" s="108">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="H62" s="106" t="s">
         <v>291</v>
@@ -6482,38 +6501,38 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="120"/>
+      <c r="A63" s="121"/>
       <c r="B63" s="107" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="C63" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D63" s="108">
-        <v>0.42708333333333331</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="E63" s="108">
         <v>0.45833333333333331</v>
       </c>
       <c r="F63" s="108">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="H63" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I63" s="108">
         <f t="shared" ref="I63" si="29">SUMIFS(F62:F76, C62:C76,H63)</f>
-        <v>0.22916666666666674</v>
+        <v>0.23611111111111116</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="120"/>
+      <c r="A64" s="121"/>
       <c r="B64" s="107" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C64" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D64" s="108">
         <v>0.45833333333333331</v>
@@ -6530,16 +6549,16 @@
       </c>
       <c r="I64" s="108">
         <f t="shared" ref="I64" si="30">SUMIFS(F62:F76, C62:C76,H64)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>3.4722222222222321E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="120"/>
+      <c r="A65" s="121"/>
       <c r="B65" s="107" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="C65" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D65" s="108">
         <v>0.47916666666666669</v>
@@ -6560,22 +6579,22 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="120"/>
+      <c r="A66" s="121"/>
       <c r="B66" s="107" t="s">
-        <v>298</v>
-      </c>
-      <c r="C66" s="107" t="s">
-        <v>299</v>
+        <v>294</v>
+      </c>
+      <c r="C66" s="120" t="s">
+        <v>290</v>
       </c>
       <c r="D66" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E66" s="108">
-        <v>0.54166666666666663</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="F66" s="108">
         <f t="shared" ref="F66:F121" si="32">E66-D66</f>
-        <v>2.0833333333333259E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H66" s="109" t="s">
         <v>300</v>
@@ -6586,22 +6605,22 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="120"/>
+      <c r="A67" s="121"/>
       <c r="B67" s="107" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="C67" s="107" t="s">
         <v>299</v>
       </c>
       <c r="D67" s="108">
-        <v>0.47222222222222227</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E67" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.59375</v>
       </c>
       <c r="F67" s="108">
         <f t="shared" si="32"/>
-        <v>6.9444444444444198E-3</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H67" s="109" t="s">
         <v>302</v>
@@ -6612,61 +6631,61 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="120"/>
+      <c r="A68" s="121"/>
       <c r="B68" s="107" t="s">
-        <v>303</v>
-      </c>
-      <c r="C68" s="107" t="s">
-        <v>299</v>
+        <v>296</v>
+      </c>
+      <c r="C68" s="120" t="s">
+        <v>295</v>
       </c>
       <c r="D68" s="108">
-        <v>0.65625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E68" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="F68" s="108">
         <f t="shared" si="32"/>
-        <v>1.041666666666663E-2</v>
+        <v>3.4722222222222321E-2</v>
       </c>
       <c r="H68" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I68" s="108">
         <f t="shared" ref="I68" si="35">SUMIFS(F62:F76, C62:C76,H68)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>3.4722222222222321E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="120"/>
+      <c r="A69" s="121"/>
       <c r="B69" s="107" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="C69" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D69" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E69" s="108">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F69" s="108">
         <f t="shared" si="32"/>
-        <v>8.333333333333337E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H69" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I69" s="106">
         <f t="shared" ref="I69" si="36">SUM(I63:I68)</f>
-        <v>0.34027777777777773</v>
+        <v>0.3055555555555558</v>
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="120"/>
+      <c r="A70" s="121"/>
       <c r="B70" s="107" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="C70" s="107" t="s">
         <v>290</v>
@@ -6675,16 +6694,16 @@
         <v>0.75</v>
       </c>
       <c r="E70" s="108">
-        <v>0.875</v>
+        <v>0.78125</v>
       </c>
       <c r="F70" s="108">
         <f t="shared" si="32"/>
-        <v>0.125</v>
+        <v>3.125E-2</v>
       </c>
       <c r="I70" s="110"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="120"/>
+      <c r="A71" s="121"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -6696,7 +6715,7 @@
       <c r="I71" s="110"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="120"/>
+      <c r="A72" s="121"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -6707,7 +6726,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="120"/>
+      <c r="A73" s="121"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -6718,7 +6737,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="120"/>
+      <c r="A74" s="121"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -6729,7 +6748,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="120"/>
+      <c r="A75" s="121"/>
       <c r="B75" s="107"/>
       <c r="C75" s="107"/>
       <c r="D75" s="108"/>
@@ -6740,7 +6759,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="120"/>
+      <c r="A76" s="121"/>
       <c r="B76" s="107"/>
       <c r="C76" s="107"/>
       <c r="D76" s="108"/>
@@ -6751,7 +6770,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="120" t="s">
+      <c r="A77" s="121" t="s">
         <v>67</v>
       </c>
       <c r="B77" s="107" t="s">
@@ -6778,7 +6797,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="120"/>
+      <c r="A78" s="121"/>
       <c r="B78" s="107" t="s">
         <v>308</v>
       </c>
@@ -6804,7 +6823,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="120"/>
+      <c r="A79" s="121"/>
       <c r="B79" s="107" t="s">
         <v>294</v>
       </c>
@@ -6830,7 +6849,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="120"/>
+      <c r="A80" s="121"/>
       <c r="B80" s="107" t="s">
         <v>308</v>
       </c>
@@ -6856,7 +6875,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="120"/>
+      <c r="A81" s="121"/>
       <c r="B81" s="107" t="s">
         <v>298</v>
       </c>
@@ -6882,7 +6901,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="120"/>
+      <c r="A82" s="121"/>
       <c r="B82" s="107" t="s">
         <v>301</v>
       </c>
@@ -6908,7 +6927,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="120"/>
+      <c r="A83" s="121"/>
       <c r="B83" s="107" t="s">
         <v>303</v>
       </c>
@@ -6934,7 +6953,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="120"/>
+      <c r="A84" s="121"/>
       <c r="B84" s="107" t="s">
         <v>309</v>
       </c>
@@ -6960,7 +6979,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="120"/>
+      <c r="A85" s="121"/>
       <c r="B85" s="107" t="s">
         <v>310</v>
       </c>
@@ -6980,7 +6999,7 @@
       <c r="I85" s="110"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="120"/>
+      <c r="A86" s="121"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -6992,7 +7011,7 @@
       <c r="I86" s="110"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="120"/>
+      <c r="A87" s="121"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107"/>
       <c r="D87" s="108"/>
@@ -7003,7 +7022,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="120"/>
+      <c r="A88" s="121"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -7014,7 +7033,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="120"/>
+      <c r="A89" s="121"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -7025,7 +7044,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="120"/>
+      <c r="A90" s="121"/>
       <c r="B90" s="107"/>
       <c r="C90" s="107"/>
       <c r="D90" s="108"/>
@@ -7036,7 +7055,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="120"/>
+      <c r="A91" s="121"/>
       <c r="B91" s="107"/>
       <c r="C91" s="107"/>
       <c r="D91" s="108"/>
@@ -7047,7 +7066,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="120" t="s">
+      <c r="A92" s="121" t="s">
         <v>28</v>
       </c>
       <c r="B92" s="107" t="s">
@@ -7074,9 +7093,9 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="120"/>
+      <c r="A93" s="121"/>
       <c r="B93" s="107" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C93" s="107" t="s">
         <v>290</v>
@@ -7100,7 +7119,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="120"/>
+      <c r="A94" s="121"/>
       <c r="B94" s="107" t="s">
         <v>301</v>
       </c>
@@ -7126,9 +7145,9 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="120"/>
+      <c r="A95" s="121"/>
       <c r="B95" s="107" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C95" s="107" t="s">
         <v>290</v>
@@ -7152,7 +7171,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="120"/>
+      <c r="A96" s="121"/>
       <c r="B96" s="107" t="s">
         <v>294</v>
       </c>
@@ -7178,7 +7197,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="120"/>
+      <c r="A97" s="121"/>
       <c r="B97" s="107" t="s">
         <v>312</v>
       </c>
@@ -7204,9 +7223,9 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="120"/>
+      <c r="A98" s="121"/>
       <c r="B98" s="107" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C98" s="107" t="s">
         <v>297</v>
@@ -7230,9 +7249,9 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="120"/>
+      <c r="A99" s="121"/>
       <c r="B99" s="107" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C99" s="107" t="s">
         <v>295</v>
@@ -7256,9 +7275,9 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="120"/>
+      <c r="A100" s="121"/>
       <c r="B100" s="107" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C100" s="107" t="s">
         <v>297</v>
@@ -7276,7 +7295,7 @@
       <c r="I100" s="110"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="120"/>
+      <c r="A101" s="121"/>
       <c r="B101" s="107" t="s">
         <v>303</v>
       </c>
@@ -7296,9 +7315,9 @@
       <c r="I101" s="110"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="120"/>
+      <c r="A102" s="121"/>
       <c r="B102" s="107" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C102" s="107" t="s">
         <v>290</v>
@@ -7315,9 +7334,9 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="120"/>
+      <c r="A103" s="121"/>
       <c r="B103" s="107" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C103" s="107" t="s">
         <v>297</v>
@@ -7334,7 +7353,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="120"/>
+      <c r="A104" s="121"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -7345,7 +7364,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="120"/>
+      <c r="A105" s="121"/>
       <c r="B105" s="107"/>
       <c r="C105" s="107"/>
       <c r="D105" s="108"/>
@@ -7356,7 +7375,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="121"/>
+      <c r="A106" s="122"/>
       <c r="B106" s="107"/>
       <c r="C106" s="107"/>
       <c r="D106" s="108"/>
@@ -7367,7 +7386,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="122" t="s">
+      <c r="A107" s="123" t="s">
         <v>19</v>
       </c>
       <c r="B107" s="115" t="s">
@@ -7394,7 +7413,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="122"/>
+      <c r="A108" s="123"/>
       <c r="B108" s="115" t="s">
         <v>308</v>
       </c>
@@ -7420,7 +7439,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="122"/>
+      <c r="A109" s="123"/>
       <c r="B109" s="115" t="s">
         <v>294</v>
       </c>
@@ -7446,7 +7465,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="122"/>
+      <c r="A110" s="123"/>
       <c r="B110" s="115" t="s">
         <v>308</v>
       </c>
@@ -7472,7 +7491,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="122"/>
+      <c r="A111" s="123"/>
       <c r="B111" s="115" t="s">
         <v>298</v>
       </c>
@@ -7498,7 +7517,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="122"/>
+      <c r="A112" s="123"/>
       <c r="B112" s="115" t="s">
         <v>301</v>
       </c>
@@ -7524,7 +7543,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="122"/>
+      <c r="A113" s="123"/>
       <c r="B113" s="115" t="s">
         <v>303</v>
       </c>
@@ -7550,7 +7569,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="122"/>
+      <c r="A114" s="123"/>
       <c r="B114" s="115" t="s">
         <v>309</v>
       </c>
@@ -7576,7 +7595,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="122"/>
+      <c r="A115" s="123"/>
       <c r="B115" s="115" t="s">
         <v>310</v>
       </c>
@@ -7596,7 +7615,7 @@
       <c r="I115" s="110"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="122"/>
+      <c r="A116" s="123"/>
       <c r="B116" s="115"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -7608,7 +7627,7 @@
       <c r="I116" s="110"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="122"/>
+      <c r="A117" s="123"/>
       <c r="B117" s="115"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -7619,7 +7638,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="122"/>
+      <c r="A118" s="123"/>
       <c r="B118" s="115"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -7630,7 +7649,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="122"/>
+      <c r="A119" s="123"/>
       <c r="B119" s="115"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -7641,7 +7660,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="122"/>
+      <c r="A120" s="123"/>
       <c r="B120" s="116"/>
       <c r="C120" s="111"/>
       <c r="D120" s="112"/>
@@ -7652,7 +7671,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="122"/>
+      <c r="A121" s="123"/>
       <c r="B121" s="117"/>
       <c r="C121" s="113"/>
       <c r="D121" s="114"/>
@@ -7663,8 +7682,8 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="122" t="s">
-        <v>331</v>
+      <c r="A122" s="123" t="s">
+        <v>335</v>
       </c>
       <c r="B122" s="115" t="s">
         <v>307</v>
@@ -7690,7 +7709,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="122"/>
+      <c r="A123" s="123"/>
       <c r="B123" s="115" t="s">
         <v>308</v>
       </c>
@@ -7716,7 +7735,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="122"/>
+      <c r="A124" s="123"/>
       <c r="B124" s="115" t="s">
         <v>294</v>
       </c>
@@ -7742,7 +7761,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="122"/>
+      <c r="A125" s="123"/>
       <c r="B125" s="115" t="s">
         <v>308</v>
       </c>
@@ -7768,7 +7787,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="122"/>
+      <c r="A126" s="123"/>
       <c r="B126" s="115" t="s">
         <v>298</v>
       </c>
@@ -7794,7 +7813,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="122"/>
+      <c r="A127" s="123"/>
       <c r="B127" s="115" t="s">
         <v>301</v>
       </c>
@@ -7820,7 +7839,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="122"/>
+      <c r="A128" s="123"/>
       <c r="B128" s="115" t="s">
         <v>303</v>
       </c>
@@ -7846,7 +7865,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="122"/>
+      <c r="A129" s="123"/>
       <c r="B129" s="115" t="s">
         <v>309</v>
       </c>
@@ -7872,7 +7891,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="122"/>
+      <c r="A130" s="123"/>
       <c r="B130" s="115" t="s">
         <v>310</v>
       </c>
@@ -7892,7 +7911,7 @@
       <c r="I130" s="110"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="122"/>
+      <c r="A131" s="123"/>
       <c r="B131" s="115"/>
       <c r="C131" s="107"/>
       <c r="D131" s="108"/>
@@ -7904,7 +7923,7 @@
       <c r="I131" s="110"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="122"/>
+      <c r="A132" s="123"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -7915,7 +7934,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="122"/>
+      <c r="A133" s="123"/>
       <c r="B133" s="115"/>
       <c r="C133" s="107"/>
       <c r="D133" s="108"/>
@@ -7926,7 +7945,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="122"/>
+      <c r="A134" s="123"/>
       <c r="B134" s="115"/>
       <c r="C134" s="107"/>
       <c r="D134" s="108"/>
@@ -7937,7 +7956,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="122"/>
+      <c r="A135" s="123"/>
       <c r="B135" s="116"/>
       <c r="C135" s="111"/>
       <c r="D135" s="112"/>
@@ -7948,7 +7967,7 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="122"/>
+      <c r="A136" s="123"/>
       <c r="B136" s="117"/>
       <c r="C136" s="113"/>
       <c r="D136" s="114"/>
@@ -8073,7 +8092,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C136" xr:uid="{E7D3DEBE-31D3-46E9-AD47-8DAC4D7556ED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69:C136 C67 C2:C65" xr:uid="{E7D3DEBE-31D3-46E9-AD47-8DAC4D7556ED}">
       <formula1>$Q$2:$Q$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B82235F-5AE0-49AB-99DB-FCA0A751A7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1024BF58-8922-47F8-8919-4F696072C976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="340">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1324,70 +1324,82 @@
     <t>Modified HTML layouts&lt;Educational details&gt;</t>
   </si>
   <si>
+    <t>Reviewed estimation sheet</t>
+  </si>
+  <si>
+    <t>Worked on HTML Layout for Wizard page</t>
+  </si>
+  <si>
+    <t>Reviewed HTML layout(Login,Forgot Password,Chnage Password,User Creation)</t>
+  </si>
+  <si>
+    <t>Lunch Break</t>
+  </si>
+  <si>
+    <t>Typescript topic</t>
+  </si>
+  <si>
+    <t>Working on HTML layout for wizard Layout</t>
+  </si>
+  <si>
+    <t>Worked on HTML layout for User Creation Page</t>
+  </si>
+  <si>
     <t>Team Meeting</t>
   </si>
   <si>
+    <t>Learned Angular &lt;Topics&gt;</t>
+  </si>
+  <si>
+    <t>Worked on HTML Layout for Wizard(skill)page</t>
+  </si>
+  <si>
+    <t>HTML layout wizard(In progress)</t>
+  </si>
+  <si>
+    <t>Harini</t>
+  </si>
+  <si>
+    <t>Worked on HTML layout for login page</t>
+  </si>
+  <si>
+    <t>Morning break</t>
+  </si>
+  <si>
+    <t>Reviewed the HTML layout</t>
+  </si>
+  <si>
+    <t>Customer meeting</t>
+  </si>
+  <si>
+    <t>Lunch break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration on typescript topics </t>
+  </si>
+  <si>
+    <t>Modified changes in Login page(HTML)</t>
+  </si>
+  <si>
+    <t>Worked on HTML layout for home page</t>
+  </si>
+  <si>
+    <t>worked on HTML layout for Change Password</t>
+  </si>
+  <si>
+    <t>worked on HTML layout for Forgot Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular session </t>
+  </si>
+  <si>
+    <t>Working on HTML layout for Change Password</t>
+  </si>
+  <si>
     <t>Soft Skill</t>
   </si>
   <si>
-    <t>Learned Angular &lt;Topics&gt;</t>
-  </si>
-  <si>
     <t>Working on HTML layout</t>
-  </si>
-  <si>
-    <t>Worked on HTML layout for User Creation Page</t>
-  </si>
-  <si>
-    <t>Lunch Break</t>
-  </si>
-  <si>
-    <t>Worked on HTML Layout for Wizard(skill)page</t>
-  </si>
-  <si>
-    <t>HTML layout wizard(In progress)</t>
-  </si>
-  <si>
-    <t>Harini</t>
-  </si>
-  <si>
-    <t>Reviewed estimation sheet</t>
-  </si>
-  <si>
-    <t>Worked on HTML layout for login page</t>
-  </si>
-  <si>
-    <t>Morning break</t>
-  </si>
-  <si>
-    <t>Reviewed the HTML layout</t>
-  </si>
-  <si>
-    <t>Customer meeting</t>
-  </si>
-  <si>
-    <t>Lunch break</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration on typescript topics </t>
-  </si>
-  <si>
-    <t>Modified changes in Login page(HTML)</t>
-  </si>
-  <si>
-    <t>Worked on HTML layout for home page</t>
-  </si>
-  <si>
-    <t>worked on HTML layout for Change Password</t>
-  </si>
-  <si>
-    <t>worked on HTML layout for Forgot Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular session </t>
-  </si>
-  <si>
-    <t>Working on HTML layout for Change Password</t>
   </si>
   <si>
     <t>Worked on Web api(SOC,Factory pattern)</t>
@@ -5235,8 +5247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84DE649-C5F3-4109-BE1F-71D1CBA3BD0C}">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5578,14 +5590,14 @@
         <v>290</v>
       </c>
       <c r="D17" s="108">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E17" s="108">
-        <v>0.4236111111111111</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F17" s="108">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H17" s="106" t="s">
         <v>291</v>
@@ -5600,95 +5612,95 @@
         <v>308</v>
       </c>
       <c r="C18" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D18" s="108">
-        <v>0.42708333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E18" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="F18" s="108">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H18" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I18" s="108">
         <f t="shared" ref="I18" si="8">SUMIFS(F17:F31, C17:C31,H18)</f>
-        <v>0.22916666666666674</v>
+        <v>0.27083333333333331</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="121"/>
       <c r="B19" s="107" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C19" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D19" s="108">
+        <v>0.4375</v>
+      </c>
+      <c r="E19" s="108">
         <v>0.45833333333333331</v>
-      </c>
-      <c r="E19" s="108">
-        <v>0.47222222222222227</v>
       </c>
       <c r="F19" s="108">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H19" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I19" s="108">
         <f t="shared" ref="I19" si="9">SUMIFS(F17:F31, C17:C31,H19)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="121"/>
       <c r="B20" s="107" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C20" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D20" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E20" s="108">
         <v>0.52083333333333337</v>
       </c>
       <c r="F20" s="108">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>6.2500000000000056E-2</v>
       </c>
       <c r="H20" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I20" s="108">
         <f t="shared" ref="I20" si="10">SUMIFS(F17:F31, C17:C31,H20)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="121"/>
       <c r="B21" s="107" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C21" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D21" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E21" s="108">
-        <v>0.54166666666666663</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="F21" s="108">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H21" s="109" t="s">
         <v>300</v>
@@ -5701,20 +5713,20 @@
     <row r="22" spans="1:9">
       <c r="A22" s="121"/>
       <c r="B22" s="107" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C22" s="107" t="s">
         <v>299</v>
       </c>
       <c r="D22" s="108">
-        <v>0.47222222222222227</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E22" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.59375</v>
       </c>
       <c r="F22" s="108">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H22" s="109" t="s">
         <v>302</v>
@@ -5727,72 +5739,72 @@
     <row r="23" spans="1:9">
       <c r="A23" s="121"/>
       <c r="B23" s="107" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C23" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D23" s="108">
-        <v>0.65625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E23" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F23" s="108">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H23" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I23" s="108">
         <f t="shared" ref="I23" si="13">SUMIFS(F17:F31, C17:C31,H23)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="121"/>
       <c r="B24" s="107" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C24" s="107" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D24" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E24" s="108">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F24" s="108">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H24" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I24" s="106">
         <f t="shared" ref="I24" si="14">SUM(I18:I23)</f>
-        <v>0.34027777777777773</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="121"/>
       <c r="B25" s="107" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C25" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D25" s="108">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E25" s="108">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="F25" s="108">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="I25" s="110"/>
     </row>
@@ -5893,7 +5905,7 @@
     <row r="33" spans="1:9">
       <c r="A33" s="121"/>
       <c r="B33" s="107" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C33" s="107" t="s">
         <v>290</v>
@@ -5945,7 +5957,7 @@
     <row r="35" spans="1:9">
       <c r="A35" s="121"/>
       <c r="B35" s="107" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C35" s="107" t="s">
         <v>290</v>
@@ -5997,7 +6009,7 @@
     <row r="37" spans="1:9">
       <c r="A37" s="121"/>
       <c r="B37" s="107" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C37" s="107" t="s">
         <v>299</v>
@@ -6023,7 +6035,7 @@
     <row r="38" spans="1:9">
       <c r="A38" s="121"/>
       <c r="B38" s="107" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C38" s="107" t="s">
         <v>295</v>
@@ -6049,7 +6061,7 @@
     <row r="39" spans="1:9">
       <c r="A39" s="121"/>
       <c r="B39" s="107" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C39" s="107" t="s">
         <v>297</v>
@@ -6095,7 +6107,7 @@
     <row r="41" spans="1:9">
       <c r="A41" s="121"/>
       <c r="B41" s="107" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C41" s="107" t="s">
         <v>290</v>
@@ -6126,7 +6138,7 @@
     <row r="43" spans="1:9">
       <c r="A43" s="121"/>
       <c r="B43" s="107" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -6171,10 +6183,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="121" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B47" s="107" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C47" s="107" t="s">
         <v>290</v>
@@ -6199,7 +6211,7 @@
     <row r="48" spans="1:9">
       <c r="A48" s="121"/>
       <c r="B48" s="107" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C48" s="107" t="s">
         <v>290</v>
@@ -6225,7 +6237,7 @@
     <row r="49" spans="1:9">
       <c r="A49" s="121"/>
       <c r="B49" s="107" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C49" s="107" t="s">
         <v>299</v>
@@ -6251,7 +6263,7 @@
     <row r="50" spans="1:9">
       <c r="A50" s="121"/>
       <c r="B50" s="107" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C50" s="107" t="s">
         <v>290</v>
@@ -6277,7 +6289,7 @@
     <row r="51" spans="1:9">
       <c r="A51" s="121"/>
       <c r="B51" s="107" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C51" s="107" t="s">
         <v>290</v>
@@ -6303,7 +6315,7 @@
     <row r="52" spans="1:9">
       <c r="A52" s="121"/>
       <c r="B52" s="107" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C52" s="107" t="s">
         <v>299</v>
@@ -6355,7 +6367,7 @@
     <row r="54" spans="1:9">
       <c r="A54" s="121"/>
       <c r="B54" s="107" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C54" s="107" t="s">
         <v>297</v>
@@ -6381,7 +6393,7 @@
     <row r="55" spans="1:9">
       <c r="A55" s="121"/>
       <c r="B55" s="107" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C55" s="107" t="s">
         <v>290</v>
@@ -6401,7 +6413,7 @@
     <row r="56" spans="1:9">
       <c r="A56" s="121"/>
       <c r="B56" s="107" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C56" s="107" t="s">
         <v>290</v>
@@ -6478,7 +6490,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="107" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C62" s="107" t="s">
         <v>290</v>
@@ -6503,7 +6515,7 @@
     <row r="63" spans="1:9">
       <c r="A63" s="121"/>
       <c r="B63" s="107" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C63" s="107" t="s">
         <v>290</v>
@@ -6555,7 +6567,7 @@
     <row r="65" spans="1:9">
       <c r="A65" s="121"/>
       <c r="B65" s="107" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C65" s="107" t="s">
         <v>290</v>
@@ -6607,7 +6619,7 @@
     <row r="67" spans="1:9">
       <c r="A67" s="121"/>
       <c r="B67" s="107" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C67" s="107" t="s">
         <v>299</v>
@@ -6659,7 +6671,7 @@
     <row r="69" spans="1:9">
       <c r="A69" s="121"/>
       <c r="B69" s="107" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C69" s="107" t="s">
         <v>290</v>
@@ -6685,7 +6697,7 @@
     <row r="70" spans="1:9">
       <c r="A70" s="121"/>
       <c r="B70" s="107" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C70" s="107" t="s">
         <v>290</v>
@@ -6774,7 +6786,7 @@
         <v>67</v>
       </c>
       <c r="B77" s="107" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C77" s="107" t="s">
         <v>290</v>
@@ -6799,7 +6811,7 @@
     <row r="78" spans="1:9">
       <c r="A78" s="121"/>
       <c r="B78" s="107" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="C78" s="107" t="s">
         <v>295</v>
@@ -6851,7 +6863,7 @@
     <row r="80" spans="1:9">
       <c r="A80" s="121"/>
       <c r="B80" s="107" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="C80" s="107" t="s">
         <v>295</v>
@@ -6955,7 +6967,7 @@
     <row r="84" spans="1:9">
       <c r="A84" s="121"/>
       <c r="B84" s="107" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C84" s="107" t="s">
         <v>290</v>
@@ -6981,7 +6993,7 @@
     <row r="85" spans="1:9">
       <c r="A85" s="121"/>
       <c r="B85" s="107" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="C85" s="107" t="s">
         <v>290</v>
@@ -7070,7 +7082,7 @@
         <v>28</v>
       </c>
       <c r="B92" s="107" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C92" s="107" t="s">
         <v>290</v>
@@ -7095,7 +7107,7 @@
     <row r="93" spans="1:9">
       <c r="A93" s="121"/>
       <c r="B93" s="107" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C93" s="107" t="s">
         <v>290</v>
@@ -7147,7 +7159,7 @@
     <row r="95" spans="1:9">
       <c r="A95" s="121"/>
       <c r="B95" s="107" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C95" s="107" t="s">
         <v>290</v>
@@ -7199,7 +7211,7 @@
     <row r="97" spans="1:9">
       <c r="A97" s="121"/>
       <c r="B97" s="107" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C97" s="107" t="s">
         <v>299</v>
@@ -7225,7 +7237,7 @@
     <row r="98" spans="1:9">
       <c r="A98" s="121"/>
       <c r="B98" s="107" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C98" s="107" t="s">
         <v>297</v>
@@ -7251,7 +7263,7 @@
     <row r="99" spans="1:9">
       <c r="A99" s="121"/>
       <c r="B99" s="107" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C99" s="107" t="s">
         <v>295</v>
@@ -7277,7 +7289,7 @@
     <row r="100" spans="1:9">
       <c r="A100" s="121"/>
       <c r="B100" s="107" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C100" s="107" t="s">
         <v>297</v>
@@ -7317,7 +7329,7 @@
     <row r="102" spans="1:9">
       <c r="A102" s="121"/>
       <c r="B102" s="107" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C102" s="107" t="s">
         <v>290</v>
@@ -7336,7 +7348,7 @@
     <row r="103" spans="1:9">
       <c r="A103" s="121"/>
       <c r="B103" s="107" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C103" s="107" t="s">
         <v>297</v>
@@ -7390,7 +7402,7 @@
         <v>19</v>
       </c>
       <c r="B107" s="115" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C107" s="107" t="s">
         <v>290</v>
@@ -7415,7 +7427,7 @@
     <row r="108" spans="1:9">
       <c r="A108" s="123"/>
       <c r="B108" s="115" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="C108" s="107" t="s">
         <v>295</v>
@@ -7467,7 +7479,7 @@
     <row r="110" spans="1:9">
       <c r="A110" s="123"/>
       <c r="B110" s="115" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="C110" s="107" t="s">
         <v>295</v>
@@ -7571,7 +7583,7 @@
     <row r="114" spans="1:9">
       <c r="A114" s="123"/>
       <c r="B114" s="115" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C114" s="107" t="s">
         <v>290</v>
@@ -7597,7 +7609,7 @@
     <row r="115" spans="1:9">
       <c r="A115" s="123"/>
       <c r="B115" s="115" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="C115" s="107" t="s">
         <v>290</v>
@@ -7683,10 +7695,10 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="123" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B122" s="115" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>290</v>
@@ -7711,7 +7723,7 @@
     <row r="123" spans="1:9">
       <c r="A123" s="123"/>
       <c r="B123" s="115" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="C123" s="107" t="s">
         <v>295</v>
@@ -7763,7 +7775,7 @@
     <row r="125" spans="1:9">
       <c r="A125" s="123"/>
       <c r="B125" s="115" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>295</v>
@@ -7867,7 +7879,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="123"/>
       <c r="B129" s="115" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C129" s="107" t="s">
         <v>290</v>
@@ -7893,7 +7905,7 @@
     <row r="130" spans="1:9">
       <c r="A130" s="123"/>
       <c r="B130" s="115" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="C130" s="107" t="s">
         <v>290</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39D70636-F6EB-44D8-B922-04804A256800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACC29E29-E7AC-4C9E-BD62-985495ECDD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,7 @@
     <sheet name="26-04-2022" sheetId="16" r:id="rId16"/>
     <sheet name="27-04-2022" sheetId="17" r:id="rId17"/>
     <sheet name="28-04-2022" sheetId="19" r:id="rId18"/>
+    <sheet name="29-04-2022" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="352">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1439,6 +1440,24 @@
   </si>
   <si>
     <t>Worked on wizard layout</t>
+  </si>
+  <si>
+    <t>Refined Estimation and Worked on HTML</t>
+  </si>
+  <si>
+    <t>Softskill with TN Team</t>
+  </si>
+  <si>
+    <t>Modified Wizard Layout</t>
+  </si>
+  <si>
+    <t>Updated Timesheet and MOM and pushed in GIT</t>
+  </si>
+  <si>
+    <t>Refined Estimation</t>
+  </si>
+  <si>
+    <t>Team dicussion on HTML layout and Work split</t>
   </si>
 </sst>
 </file>
@@ -1575,7 +1594,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1591,6 +1610,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1974,7 +1999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2309,14 +2334,284 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="52">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5281,8 +5576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84DE649-C5F3-4109-BE1F-71D1CBA3BD0C}">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7432,7 +7727,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="123" t="s">
+      <c r="A107" s="129" t="s">
         <v>19</v>
       </c>
       <c r="B107" s="115" t="s">
@@ -7442,14 +7737,14 @@
         <v>290</v>
       </c>
       <c r="D107" s="108">
-        <v>0.41666666666666669</v>
+        <v>0</v>
       </c>
       <c r="E107" s="108">
-        <v>0.4236111111111111</v>
+        <v>0</v>
       </c>
       <c r="F107" s="108">
         <f t="shared" si="32"/>
-        <v>6.9444444444444198E-3</v>
+        <v>0</v>
       </c>
       <c r="H107" s="106" t="s">
         <v>291</v>
@@ -7459,7 +7754,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="123"/>
+      <c r="A108" s="129"/>
       <c r="B108" s="115" t="s">
         <v>331</v>
       </c>
@@ -7467,25 +7762,25 @@
         <v>295</v>
       </c>
       <c r="D108" s="108">
-        <v>0.42708333333333331</v>
+        <v>0</v>
       </c>
       <c r="E108" s="108">
-        <v>0.45833333333333331</v>
+        <v>0</v>
       </c>
       <c r="F108" s="108">
         <f t="shared" si="32"/>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="H108" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I108" s="108">
         <f t="shared" ref="I108" si="51">SUMIFS(F107:F121, C107:C121,H108)</f>
-        <v>0.22916666666666674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="123"/>
+      <c r="A109" s="129"/>
       <c r="B109" s="115" t="s">
         <v>294</v>
       </c>
@@ -7493,25 +7788,25 @@
         <v>290</v>
       </c>
       <c r="D109" s="108">
-        <v>0.45833333333333331</v>
+        <v>0</v>
       </c>
       <c r="E109" s="108">
-        <v>0.47222222222222227</v>
+        <v>0</v>
       </c>
       <c r="F109" s="108">
         <f t="shared" si="32"/>
-        <v>1.3888888888888951E-2</v>
+        <v>0</v>
       </c>
       <c r="H109" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I109" s="108">
         <f t="shared" ref="I109" si="52">SUMIFS(F107:F121, C107:C121,H109)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="123"/>
+      <c r="A110" s="129"/>
       <c r="B110" s="115" t="s">
         <v>331</v>
       </c>
@@ -7519,14 +7814,14 @@
         <v>295</v>
       </c>
       <c r="D110" s="108">
-        <v>0.47916666666666669</v>
+        <v>0</v>
       </c>
       <c r="E110" s="108">
-        <v>0.52083333333333337</v>
+        <v>0</v>
       </c>
       <c r="F110" s="108">
         <f t="shared" si="32"/>
-        <v>4.1666666666666685E-2</v>
+        <v>0</v>
       </c>
       <c r="H110" s="109" t="s">
         <v>297</v>
@@ -7537,7 +7832,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="123"/>
+      <c r="A111" s="129"/>
       <c r="B111" s="115" t="s">
         <v>298</v>
       </c>
@@ -7545,14 +7840,14 @@
         <v>299</v>
       </c>
       <c r="D111" s="108">
-        <v>0.52083333333333337</v>
+        <v>0</v>
       </c>
       <c r="E111" s="108">
-        <v>0.54166666666666663</v>
+        <v>0</v>
       </c>
       <c r="F111" s="108">
         <f t="shared" si="32"/>
-        <v>2.0833333333333259E-2</v>
+        <v>0</v>
       </c>
       <c r="H111" s="109" t="s">
         <v>300</v>
@@ -7563,7 +7858,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="123"/>
+      <c r="A112" s="129"/>
       <c r="B112" s="115" t="s">
         <v>301</v>
       </c>
@@ -7571,14 +7866,14 @@
         <v>299</v>
       </c>
       <c r="D112" s="108">
-        <v>0.47222222222222227</v>
+        <v>0</v>
       </c>
       <c r="E112" s="108">
-        <v>0.47916666666666669</v>
+        <v>0</v>
       </c>
       <c r="F112" s="108">
         <f t="shared" si="32"/>
-        <v>6.9444444444444198E-3</v>
+        <v>0</v>
       </c>
       <c r="H112" s="109" t="s">
         <v>302</v>
@@ -7589,7 +7884,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="123"/>
+      <c r="A113" s="129"/>
       <c r="B113" s="115" t="s">
         <v>303</v>
       </c>
@@ -7597,25 +7892,25 @@
         <v>299</v>
       </c>
       <c r="D113" s="108">
-        <v>0.65625</v>
+        <v>0</v>
       </c>
       <c r="E113" s="108">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="F113" s="108">
         <f t="shared" si="32"/>
-        <v>1.041666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="H113" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I113" s="108">
         <f t="shared" ref="I113" si="56">SUMIFS(F107:F121, C107:C121,H113)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="123"/>
+      <c r="A114" s="129"/>
       <c r="B114" s="115" t="s">
         <v>315</v>
       </c>
@@ -7623,25 +7918,25 @@
         <v>290</v>
       </c>
       <c r="D114" s="108">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="E114" s="108">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F114" s="108">
         <f t="shared" si="32"/>
-        <v>8.333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="H114" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I114" s="106">
         <f t="shared" ref="I114" si="57">SUM(I108:I113)</f>
-        <v>0.34027777777777773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="123"/>
+      <c r="A115" s="129"/>
       <c r="B115" s="115" t="s">
         <v>332</v>
       </c>
@@ -7649,19 +7944,19 @@
         <v>290</v>
       </c>
       <c r="D115" s="108">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E115" s="108">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="F115" s="108">
         <f t="shared" si="32"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I115" s="110"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="123"/>
+      <c r="A116" s="129"/>
       <c r="B116" s="115"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -7673,7 +7968,7 @@
       <c r="I116" s="110"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="123"/>
+      <c r="A117" s="129"/>
       <c r="B117" s="115"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -7684,7 +7979,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="123"/>
+      <c r="A118" s="129"/>
       <c r="B118" s="115"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -7695,7 +7990,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="123"/>
+      <c r="A119" s="129"/>
       <c r="B119" s="115"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -7706,7 +8001,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="123"/>
+      <c r="A120" s="129"/>
       <c r="B120" s="116"/>
       <c r="C120" s="111"/>
       <c r="D120" s="112"/>
@@ -7717,7 +8012,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="124"/>
+      <c r="A121" s="130"/>
       <c r="B121" s="117"/>
       <c r="C121" s="113"/>
       <c r="D121" s="114"/>
@@ -8046,6 +8341,2958 @@
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A77:A91"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108">
+    <cfRule type="cellIs" dxfId="51" priority="25" operator="greaterThan">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="26" operator="lessThan">
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 I19 I34 I49 I64 I79 I94 I109">
+    <cfRule type="cellIs" dxfId="49" priority="22" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="23" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="24" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5 I20 I35 I50 I65 I80 I95 I110">
+    <cfRule type="cellIs" dxfId="46" priority="20" operator="lessThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="21" operator="greaterThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 I21 I36 I51 I66 I81 I96 I111">
+    <cfRule type="cellIs" dxfId="44" priority="18" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="19" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7 I22 I37 I52 I67 I82 I97 I112">
+    <cfRule type="cellIs" dxfId="42" priority="16" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="17" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8 I23 I38 I53 I68 I83 I98 I113">
+    <cfRule type="cellIs" dxfId="40" priority="14" operator="lessThan">
+      <formula>0.0625</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="greaterThan">
+      <formula>0.0625</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I123">
+    <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="13" operator="lessThan">
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I124">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I125">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="lessThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="greaterThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I126">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I127">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I128">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="lessThan">
+      <formula>0.0625</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
+      <formula>0.0625</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C65 C67 C69:C136" xr:uid="{E7D3DEBE-31D3-46E9-AD47-8DAC4D7556ED}">
+      <formula1>$Q$2:$Q$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5637F7A4-DF7F-491A-93FD-52364AFE80A8}">
+  <dimension ref="A1:Q144"/>
+  <sheetViews>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107:E115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="110" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="110" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="110" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="118" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="105" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="106" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="106" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="106" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" s="124"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="121" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="108">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E2" s="108">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F2" s="108">
+        <f>E2-D2</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H2" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="I2" s="106" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="121"/>
+      <c r="B3" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="108">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E3" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F3" s="108">
+        <f t="shared" ref="F3:F66" si="0">E3-D3</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H3" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="I3" s="108">
+        <f>SUMIFS(F2:F16, C2:C16,H3)</f>
+        <v>0.22916666666666674</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="121"/>
+      <c r="B4" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E4" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F4" s="108">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H4" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="I4" s="108">
+        <f>SUMIFS(F2:F16, C2:C16,H4)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="121"/>
+      <c r="B5" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E5" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F5" s="108">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H5" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I5" s="108">
+        <f>SUMIFS(F2:F16, C2:C16,H5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="121"/>
+      <c r="B6" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E6" s="108">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F6" s="108">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H6" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="I6" s="108">
+        <f>SUMIFS(F2:F16, C2:C16,H6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="121"/>
+      <c r="B7" s="107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E7" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F7" s="108">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H7" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="I7" s="108">
+        <f>SUMIFS(F2:F16, C2:C16,H7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="121"/>
+      <c r="B8" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="108">
+        <v>0.65625</v>
+      </c>
+      <c r="E8" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F8" s="108">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H8" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="I8" s="108">
+        <f>SUMIFS(F2:F16, C2:C16,H8)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="121"/>
+      <c r="B9" s="107" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E9" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="F9" s="108">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H9" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="I9" s="106">
+        <f>SUM(I3:I8)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="121"/>
+      <c r="B10" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="108">
+        <v>0.875</v>
+      </c>
+      <c r="F10" s="108">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I10" s="110"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="121"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="110"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="121"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="121"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="121"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="121"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="121"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="107" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D17" s="108">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E17" s="108">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F17" s="108">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H17" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="I17" s="106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="121"/>
+      <c r="B18" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="C18" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D18" s="108">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E18" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F18" s="108">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H18" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="I18" s="108">
+        <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
+        <v>0.10416666666666674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="121"/>
+      <c r="B19" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D19" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E19" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F19" s="108">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H19" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="I19" s="108">
+        <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="121"/>
+      <c r="B20" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="C20" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D20" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E20" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F20" s="108">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H20" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I20" s="108">
+        <f t="shared" ref="I20" si="3">SUMIFS(F17:F31, C17:C31,H20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="121"/>
+      <c r="B21" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D21" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E21" s="108">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F21" s="108">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H21" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="I21" s="108">
+        <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="121"/>
+      <c r="B22" s="107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D22" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E22" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F22" s="108">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H22" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="I22" s="108">
+        <f t="shared" ref="I22" si="5">SUMIFS(F17:F31, C17:C31,H22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="121"/>
+      <c r="B23" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="C23" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23" s="108">
+        <v>0.65625</v>
+      </c>
+      <c r="E23" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F23" s="108">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H23" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="I23" s="108">
+        <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="121"/>
+      <c r="B24" s="107" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E24" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="108">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H24" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="I24" s="106">
+        <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="121"/>
+      <c r="B25" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="C25" s="107" t="s">
+        <v>300</v>
+      </c>
+      <c r="D25" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="108">
+        <v>0.875</v>
+      </c>
+      <c r="F25" s="108">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I25" s="110"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="121"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="110"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="121"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="121"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="121"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="121"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="121"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="121" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="107" t="s">
+        <v>314</v>
+      </c>
+      <c r="C32" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D32" s="108">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E32" s="108">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F32" s="108">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H32" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="I32" s="106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="121"/>
+      <c r="B33" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D33" s="108">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E33" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F33" s="108">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H33" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="I33" s="108">
+        <f t="shared" ref="I33" si="8">SUMIFS(F32:F46, C32:C46,H33)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="121"/>
+      <c r="B34" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="C34" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D34" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E34" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F34" s="108">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H34" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="I34" s="108">
+        <f t="shared" ref="I34" si="9">SUMIFS(F32:F46, C32:C46,H34)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="121"/>
+      <c r="B35" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="C35" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D35" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E35" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F35" s="108">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H35" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I35" s="108">
+        <f t="shared" ref="I35" si="10">SUMIFS(F32:F46, C32:C46,H35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="121"/>
+      <c r="B36" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="C36" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D36" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E36" s="108">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F36" s="108">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H36" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="I36" s="108">
+        <f t="shared" ref="I36" si="11">SUMIFS(F32:F46, C32:C46,H36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="121"/>
+      <c r="B37" s="107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C37" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D37" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E37" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F37" s="108">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H37" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="I37" s="108">
+        <f t="shared" ref="I37" si="12">SUMIFS(F32:F46, C32:C46,H37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="121"/>
+      <c r="B38" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="C38" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D38" s="108">
+        <v>0.65625</v>
+      </c>
+      <c r="E38" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F38" s="108">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H38" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="I38" s="108">
+        <f t="shared" ref="I38" si="13">SUMIFS(F32:F46, C32:C46,H38)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="121"/>
+      <c r="B39" s="107" t="s">
+        <v>315</v>
+      </c>
+      <c r="C39" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D39" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E39" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="F39" s="108">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H39" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="I39" s="106">
+        <f t="shared" ref="I39" si="14">SUM(I33:I38)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="121"/>
+      <c r="B40" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="C40" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D40" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="E40" s="108">
+        <v>0.875</v>
+      </c>
+      <c r="F40" s="108">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I40" s="110"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="121"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="110"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="121"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="121"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="121"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="121"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="121"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="121" t="s">
+        <v>318</v>
+      </c>
+      <c r="B47" s="107" t="s">
+        <v>314</v>
+      </c>
+      <c r="C47" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="108">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E47" s="108">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F47" s="108">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H47" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="I47" s="106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="121"/>
+      <c r="B48" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="C48" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D48" s="108">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E48" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F48" s="108">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H48" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="I48" s="108">
+        <f t="shared" ref="I48" si="15">SUMIFS(F47:F61, C47:C61,H48)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="121"/>
+      <c r="B49" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="C49" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D49" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E49" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F49" s="108">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H49" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="I49" s="108">
+        <f t="shared" ref="I49" si="16">SUMIFS(F47:F61, C47:C61,H49)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="121"/>
+      <c r="B50" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="C50" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D50" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E50" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F50" s="108">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H50" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I50" s="108">
+        <f t="shared" ref="I50" si="17">SUMIFS(F47:F61, C47:C61,H50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="121"/>
+      <c r="B51" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="C51" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D51" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E51" s="108">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F51" s="108">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H51" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="I51" s="108">
+        <f t="shared" ref="I51" si="18">SUMIFS(F47:F61, C47:C61,H51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="121"/>
+      <c r="B52" s="107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C52" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D52" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E52" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F52" s="108">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H52" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="I52" s="108">
+        <f t="shared" ref="I52" si="19">SUMIFS(F47:F61, C47:C61,H52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="121"/>
+      <c r="B53" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D53" s="108">
+        <v>0.65625</v>
+      </c>
+      <c r="E53" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F53" s="108">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H53" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="I53" s="108">
+        <f t="shared" ref="I53" si="20">SUMIFS(F47:F61, C47:C61,H53)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="121"/>
+      <c r="B54" s="107" t="s">
+        <v>315</v>
+      </c>
+      <c r="C54" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D54" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E54" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="F54" s="108">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H54" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="I54" s="106">
+        <f t="shared" ref="I54" si="21">SUM(I48:I53)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="121"/>
+      <c r="B55" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="C55" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D55" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="E55" s="108">
+        <v>0.875</v>
+      </c>
+      <c r="F55" s="108">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I55" s="110"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="121"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="110"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="121"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="121"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="121"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="121"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="121"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="121" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="107" t="s">
+        <v>314</v>
+      </c>
+      <c r="C62" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D62" s="108">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E62" s="108">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F62" s="108">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H62" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="I62" s="106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="121"/>
+      <c r="B63" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="C63" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D63" s="108">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E63" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F63" s="108">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H63" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="I63" s="108">
+        <f t="shared" ref="I63" si="22">SUMIFS(F62:F76, C62:C76,H63)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="121"/>
+      <c r="B64" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="C64" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D64" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E64" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F64" s="108">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H64" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="I64" s="108">
+        <f t="shared" ref="I64" si="23">SUMIFS(F62:F76, C62:C76,H64)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="121"/>
+      <c r="B65" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="C65" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D65" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E65" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F65" s="108">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H65" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I65" s="108">
+        <f t="shared" ref="I65" si="24">SUMIFS(F62:F76, C62:C76,H65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="121"/>
+      <c r="B66" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="C66" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D66" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E66" s="108">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F66" s="108">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H66" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="I66" s="108">
+        <f t="shared" ref="I66" si="25">SUMIFS(F62:F76, C62:C76,H66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="121"/>
+      <c r="B67" s="107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C67" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D67" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E67" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F67" s="108">
+        <f t="shared" ref="D67:F130" si="26">E67-D67</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H67" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="I67" s="108">
+        <f t="shared" ref="I67" si="27">SUMIFS(F62:F76, C62:C76,H67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="121"/>
+      <c r="B68" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="C68" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D68" s="108">
+        <v>0.65625</v>
+      </c>
+      <c r="E68" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F68" s="108">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H68" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="I68" s="108">
+        <f t="shared" ref="I68" si="28">SUMIFS(F62:F76, C62:C76,H68)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="121"/>
+      <c r="B69" s="107" t="s">
+        <v>315</v>
+      </c>
+      <c r="C69" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D69" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E69" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="F69" s="108">
+        <f t="shared" si="26"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H69" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="I69" s="106">
+        <f t="shared" ref="I69" si="29">SUM(I63:I68)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="121"/>
+      <c r="B70" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="C70" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D70" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="E70" s="108">
+        <v>0.875</v>
+      </c>
+      <c r="F70" s="108">
+        <f t="shared" si="26"/>
+        <v>0.125</v>
+      </c>
+      <c r="I70" s="110"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="121"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="107"/>
+      <c r="D71" s="108"/>
+      <c r="E71" s="108"/>
+      <c r="F71" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="110"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="121"/>
+      <c r="B72" s="107"/>
+      <c r="C72" s="107"/>
+      <c r="D72" s="108"/>
+      <c r="E72" s="108"/>
+      <c r="F72" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="121"/>
+      <c r="B73" s="107"/>
+      <c r="C73" s="107"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="121"/>
+      <c r="B74" s="107"/>
+      <c r="C74" s="107"/>
+      <c r="D74" s="108"/>
+      <c r="E74" s="108"/>
+      <c r="F74" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="121"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="107"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="108"/>
+      <c r="F75" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="121"/>
+      <c r="B76" s="107"/>
+      <c r="C76" s="107"/>
+      <c r="D76" s="108"/>
+      <c r="E76" s="108"/>
+      <c r="F76" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="107" t="s">
+        <v>314</v>
+      </c>
+      <c r="C77" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D77" s="108">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E77" s="108">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F77" s="108">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H77" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="I77" s="106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="121"/>
+      <c r="B78" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="C78" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D78" s="108">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E78" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F78" s="108">
+        <f t="shared" si="26"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H78" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="I78" s="108">
+        <f t="shared" ref="I78" si="30">SUMIFS(F77:F91, C77:C91,H78)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="121"/>
+      <c r="B79" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="C79" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D79" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E79" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F79" s="108">
+        <f t="shared" si="26"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H79" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="I79" s="108">
+        <f t="shared" ref="I79" si="31">SUMIFS(F77:F91, C77:C91,H79)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="121"/>
+      <c r="B80" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="C80" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D80" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E80" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F80" s="108">
+        <f t="shared" si="26"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H80" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I80" s="108">
+        <f t="shared" ref="I80" si="32">SUMIFS(F77:F91, C77:C91,H80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="121"/>
+      <c r="B81" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="C81" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D81" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E81" s="108">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F81" s="108">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H81" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="I81" s="108">
+        <f t="shared" ref="I81" si="33">SUMIFS(F77:F91, C77:C91,H81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="121"/>
+      <c r="B82" s="107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C82" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D82" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E82" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F82" s="108">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H82" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="I82" s="108">
+        <f t="shared" ref="I82" si="34">SUMIFS(F77:F91, C77:C91,H82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="121"/>
+      <c r="B83" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="C83" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D83" s="108">
+        <v>0.65625</v>
+      </c>
+      <c r="E83" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F83" s="108">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H83" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="I83" s="108">
+        <f t="shared" ref="I83" si="35">SUMIFS(F77:F91, C77:C91,H83)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="121"/>
+      <c r="B84" s="107" t="s">
+        <v>315</v>
+      </c>
+      <c r="C84" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D84" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E84" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="F84" s="108">
+        <f t="shared" si="26"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H84" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="I84" s="106">
+        <f t="shared" ref="I84" si="36">SUM(I78:I83)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="121"/>
+      <c r="B85" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="C85" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D85" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="E85" s="108">
+        <v>0.875</v>
+      </c>
+      <c r="F85" s="108">
+        <f t="shared" si="26"/>
+        <v>0.125</v>
+      </c>
+      <c r="I85" s="110"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="121"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="107"/>
+      <c r="D86" s="108"/>
+      <c r="E86" s="108"/>
+      <c r="F86" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="110"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="121"/>
+      <c r="B87" s="107"/>
+      <c r="C87" s="107"/>
+      <c r="D87" s="108"/>
+      <c r="E87" s="108"/>
+      <c r="F87" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="121"/>
+      <c r="B88" s="107"/>
+      <c r="C88" s="107"/>
+      <c r="D88" s="108"/>
+      <c r="E88" s="108"/>
+      <c r="F88" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="121"/>
+      <c r="B89" s="107"/>
+      <c r="C89" s="107"/>
+      <c r="D89" s="108"/>
+      <c r="E89" s="108"/>
+      <c r="F89" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="121"/>
+      <c r="B90" s="107"/>
+      <c r="C90" s="107"/>
+      <c r="D90" s="108"/>
+      <c r="E90" s="108"/>
+      <c r="F90" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="121"/>
+      <c r="B91" s="107"/>
+      <c r="C91" s="107"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="108"/>
+      <c r="F91" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" s="107" t="s">
+        <v>314</v>
+      </c>
+      <c r="C92" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D92" s="108">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E92" s="108">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F92" s="108">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H92" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="I92" s="106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="121"/>
+      <c r="B93" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="C93" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D93" s="108">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E93" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F93" s="108">
+        <f t="shared" si="26"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H93" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="I93" s="108">
+        <f t="shared" ref="I93" si="37">SUMIFS(F92:F106, C92:C106,H93)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="121"/>
+      <c r="B94" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="C94" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D94" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E94" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F94" s="108">
+        <f t="shared" si="26"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H94" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="I94" s="108">
+        <f t="shared" ref="I94" si="38">SUMIFS(F92:F106, C92:C106,H94)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="121"/>
+      <c r="B95" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="C95" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D95" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E95" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F95" s="108">
+        <f t="shared" si="26"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H95" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I95" s="108">
+        <f t="shared" ref="I95" si="39">SUMIFS(F92:F106, C92:C106,H95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="121"/>
+      <c r="B96" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="C96" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D96" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E96" s="108">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F96" s="108">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H96" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="I96" s="108">
+        <f t="shared" ref="I96" si="40">SUMIFS(F92:F106, C92:C106,H96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="121"/>
+      <c r="B97" s="107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C97" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D97" s="108">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E97" s="108">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F97" s="108">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H97" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="I97" s="108">
+        <f t="shared" ref="I97" si="41">SUMIFS(F92:F106, C92:C106,H97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="121"/>
+      <c r="B98" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="C98" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D98" s="108">
+        <v>0.65625</v>
+      </c>
+      <c r="E98" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F98" s="108">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H98" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="I98" s="108">
+        <f t="shared" ref="I98" si="42">SUMIFS(F92:F106, C92:C106,H98)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="121"/>
+      <c r="B99" s="107" t="s">
+        <v>315</v>
+      </c>
+      <c r="C99" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D99" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E99" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="F99" s="108">
+        <f t="shared" si="26"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H99" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="I99" s="106">
+        <f t="shared" ref="I99" si="43">SUM(I93:I98)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="121"/>
+      <c r="B100" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="C100" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D100" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="E100" s="108">
+        <v>0.875</v>
+      </c>
+      <c r="F100" s="108">
+        <f t="shared" si="26"/>
+        <v>0.125</v>
+      </c>
+      <c r="I100" s="110"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="121"/>
+      <c r="B101" s="107"/>
+      <c r="C101" s="107"/>
+      <c r="D101" s="108"/>
+      <c r="E101" s="108"/>
+      <c r="F101" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="110"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="121"/>
+      <c r="B102" s="107"/>
+      <c r="C102" s="107"/>
+      <c r="D102" s="108"/>
+      <c r="E102" s="108"/>
+      <c r="F102" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="121"/>
+      <c r="B103" s="107"/>
+      <c r="C103" s="107"/>
+      <c r="D103" s="108"/>
+      <c r="E103" s="108"/>
+      <c r="F103" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="121"/>
+      <c r="B104" s="107"/>
+      <c r="C104" s="107"/>
+      <c r="D104" s="108"/>
+      <c r="E104" s="108"/>
+      <c r="F104" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="121"/>
+      <c r="B105" s="107"/>
+      <c r="C105" s="107"/>
+      <c r="D105" s="108"/>
+      <c r="E105" s="108"/>
+      <c r="F105" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="122"/>
+      <c r="B106" s="107"/>
+      <c r="C106" s="107"/>
+      <c r="D106" s="108"/>
+      <c r="E106" s="108"/>
+      <c r="F106" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="B107" s="107" t="s">
+        <v>314</v>
+      </c>
+      <c r="C107" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D107" s="108">
+        <v>0</v>
+      </c>
+      <c r="E107" s="108">
+        <v>0</v>
+      </c>
+      <c r="F107" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="I107" s="106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="129"/>
+      <c r="B108" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="C108" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D108" s="108">
+        <v>0</v>
+      </c>
+      <c r="E108" s="108">
+        <v>0</v>
+      </c>
+      <c r="F108" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="I108" s="108">
+        <f t="shared" ref="I108" si="44">SUMIFS(F107:F121, C107:C121,H108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="129"/>
+      <c r="B109" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="C109" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D109" s="108">
+        <v>0</v>
+      </c>
+      <c r="E109" s="108">
+        <v>0</v>
+      </c>
+      <c r="F109" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="I109" s="108">
+        <f t="shared" ref="I109" si="45">SUMIFS(F107:F121, C107:C121,H109)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="129"/>
+      <c r="B110" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="C110" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D110" s="108">
+        <v>0</v>
+      </c>
+      <c r="E110" s="108">
+        <v>0</v>
+      </c>
+      <c r="F110" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I110" s="108">
+        <f t="shared" ref="I110" si="46">SUMIFS(F107:F121, C107:C121,H110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="129"/>
+      <c r="B111" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="C111" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D111" s="108">
+        <v>0</v>
+      </c>
+      <c r="E111" s="108">
+        <v>0</v>
+      </c>
+      <c r="F111" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="I111" s="108">
+        <f t="shared" ref="I111" si="47">SUMIFS(F107:F121, C107:C121,H111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="129"/>
+      <c r="B112" s="107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C112" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D112" s="108">
+        <v>0</v>
+      </c>
+      <c r="E112" s="108">
+        <v>0</v>
+      </c>
+      <c r="F112" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="I112" s="108">
+        <f t="shared" ref="I112" si="48">SUMIFS(F107:F121, C107:C121,H112)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="129"/>
+      <c r="B113" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="C113" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D113" s="108">
+        <v>0</v>
+      </c>
+      <c r="E113" s="108">
+        <v>0</v>
+      </c>
+      <c r="F113" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H113" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="I113" s="108">
+        <f t="shared" ref="I113" si="49">SUMIFS(F107:F121, C107:C121,H113)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="129"/>
+      <c r="B114" s="107" t="s">
+        <v>315</v>
+      </c>
+      <c r="C114" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D114" s="108">
+        <v>0</v>
+      </c>
+      <c r="E114" s="108">
+        <v>0</v>
+      </c>
+      <c r="F114" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="I114" s="106">
+        <f t="shared" ref="I114" si="50">SUM(I108:I113)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="129"/>
+      <c r="B115" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="C115" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D115" s="108">
+        <v>0</v>
+      </c>
+      <c r="E115" s="108">
+        <v>0</v>
+      </c>
+      <c r="F115" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="110"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="129"/>
+      <c r="B116" s="107"/>
+      <c r="C116" s="107"/>
+      <c r="D116" s="108"/>
+      <c r="E116" s="108"/>
+      <c r="F116" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="110"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="129"/>
+      <c r="B117" s="107"/>
+      <c r="C117" s="107"/>
+      <c r="D117" s="108"/>
+      <c r="E117" s="108"/>
+      <c r="F117" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="129"/>
+      <c r="B118" s="107"/>
+      <c r="C118" s="107"/>
+      <c r="D118" s="108"/>
+      <c r="E118" s="108"/>
+      <c r="F118" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="129"/>
+      <c r="B119" s="107"/>
+      <c r="C119" s="107"/>
+      <c r="D119" s="108"/>
+      <c r="E119" s="108"/>
+      <c r="F119" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="129"/>
+      <c r="B120" s="107"/>
+      <c r="C120" s="107"/>
+      <c r="D120" s="108"/>
+      <c r="E120" s="108"/>
+      <c r="F120" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="130"/>
+      <c r="B121" s="107"/>
+      <c r="C121" s="107"/>
+      <c r="D121" s="108"/>
+      <c r="E121" s="108"/>
+      <c r="F121" s="108">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="123" t="s">
+        <v>339</v>
+      </c>
+      <c r="B122" s="115" t="s">
+        <v>346</v>
+      </c>
+      <c r="C122" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D122" s="108">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E122" s="108">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F122" s="108">
+        <f t="shared" si="26"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="H122" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="I122" s="106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="123"/>
+      <c r="B123" s="115" t="s">
+        <v>347</v>
+      </c>
+      <c r="C123" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D123" s="108">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E123" s="108">
+        <v>0.4375</v>
+      </c>
+      <c r="F123" s="108">
+        <f t="shared" si="26"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H123" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="I123" s="108">
+        <f t="shared" ref="I123" si="51">SUMIFS(F122:F136, C122:C136,H123)</f>
+        <v>0.24305555555555552</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="123"/>
+      <c r="B124" s="115" t="s">
+        <v>301</v>
+      </c>
+      <c r="C124" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D124" s="108">
+        <v>0.4375</v>
+      </c>
+      <c r="E124" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F124" s="108">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H124" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="I124" s="108">
+        <f t="shared" ref="I124" si="52">SUMIFS(F122:F136, C122:C136,H124)</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="123"/>
+      <c r="B125" s="115" t="s">
+        <v>348</v>
+      </c>
+      <c r="C125" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D125" s="108">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E125" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F125" s="108">
+        <f t="shared" si="26"/>
+        <v>6.2500000000000056E-2</v>
+      </c>
+      <c r="H125" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I125" s="108">
+        <f t="shared" ref="I125" si="53">SUMIFS(F122:F136, C122:C136,H125)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="123"/>
+      <c r="B126" s="115" t="s">
+        <v>349</v>
+      </c>
+      <c r="C126" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D126" s="108">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E126" s="108">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="F126" s="108">
+        <f t="shared" si="26"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="H126" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="I126" s="108">
+        <f t="shared" ref="I126" si="54">SUMIFS(F122:F136, C122:C136,H126)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="123"/>
+      <c r="B127" s="115" t="s">
+        <v>302</v>
+      </c>
+      <c r="C127" s="107" t="s">
+        <v>302</v>
+      </c>
+      <c r="D127" s="108">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E127" s="108">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F127" s="108">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H127" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="I127" s="108">
+        <f t="shared" ref="I127" si="55">SUMIFS(F122:F136, C122:C136,H127)</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="123"/>
+      <c r="B128" s="115" t="s">
+        <v>310</v>
+      </c>
+      <c r="C128" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D128" s="108">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="E128" s="108">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="F128" s="108">
+        <f t="shared" si="26"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="H128" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="I128" s="108">
+        <f t="shared" ref="I128" si="56">SUMIFS(F122:F136, C122:C136,H128)</f>
+        <v>5.9027777777777846E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="123"/>
+      <c r="B129" s="120" t="s">
+        <v>350</v>
+      </c>
+      <c r="C129" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D129" s="108">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E129" s="108">
+        <v>0.65625</v>
+      </c>
+      <c r="F129" s="108">
+        <f t="shared" si="26"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="H129" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="I129" s="106">
+        <f t="shared" ref="I129" si="57">SUM(I123:I128)</f>
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="123"/>
+      <c r="B130" s="115" t="s">
+        <v>303</v>
+      </c>
+      <c r="C130" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D130" s="108">
+        <v>0.65625</v>
+      </c>
+      <c r="E130" s="108">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F130" s="108">
+        <f t="shared" si="26"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I130" s="110"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="123"/>
+      <c r="B131" s="115" t="s">
+        <v>348</v>
+      </c>
+      <c r="C131" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D131" s="108">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E131" s="108">
+        <v>0.71875</v>
+      </c>
+      <c r="F131" s="108">
+        <f t="shared" ref="F131:F136" si="58">E131-D131</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I131" s="110"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="123"/>
+      <c r="B132" s="115" t="s">
+        <v>351</v>
+      </c>
+      <c r="C132" s="107" t="s">
+        <v>300</v>
+      </c>
+      <c r="D132" s="108">
+        <v>0.71875</v>
+      </c>
+      <c r="E132" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="F132" s="108">
+        <f t="shared" si="58"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="123"/>
+      <c r="B133" s="115"/>
+      <c r="C133" s="107"/>
+      <c r="D133" s="108"/>
+      <c r="E133" s="108"/>
+      <c r="F133" s="108">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="123"/>
+      <c r="B134" s="115"/>
+      <c r="C134" s="107"/>
+      <c r="D134" s="108"/>
+      <c r="E134" s="108"/>
+      <c r="F134" s="108">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="123"/>
+      <c r="B135" s="116"/>
+      <c r="C135" s="111"/>
+      <c r="D135" s="112"/>
+      <c r="E135" s="112"/>
+      <c r="F135" s="112">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="123"/>
+      <c r="B136" s="117"/>
+      <c r="C136" s="113"/>
+      <c r="D136" s="114"/>
+      <c r="E136" s="114"/>
+      <c r="F136" s="114">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="128"/>
+      <c r="B137" s="125"/>
+      <c r="C137" s="125"/>
+      <c r="D137" s="126"/>
+      <c r="E137" s="126"/>
+      <c r="F137" s="126"/>
+      <c r="G137" s="125"/>
+      <c r="H137" s="127"/>
+      <c r="I137" s="127"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="128"/>
+      <c r="B138" s="125"/>
+      <c r="C138" s="125"/>
+      <c r="D138" s="126"/>
+      <c r="E138" s="126"/>
+      <c r="F138" s="126"/>
+      <c r="G138" s="125"/>
+      <c r="H138" s="125"/>
+      <c r="I138" s="126"/>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="128"/>
+      <c r="B139" s="125"/>
+      <c r="C139" s="125"/>
+      <c r="D139" s="126"/>
+      <c r="E139" s="126"/>
+      <c r="F139" s="126"/>
+      <c r="G139" s="125"/>
+      <c r="H139" s="125"/>
+      <c r="I139" s="126"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="128"/>
+      <c r="B140" s="125"/>
+      <c r="C140" s="125"/>
+      <c r="D140" s="126"/>
+      <c r="E140" s="126"/>
+      <c r="F140" s="126"/>
+      <c r="G140" s="125"/>
+      <c r="H140" s="125"/>
+      <c r="I140" s="125"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="128"/>
+      <c r="B141" s="125"/>
+      <c r="C141" s="125"/>
+      <c r="D141" s="126"/>
+      <c r="E141" s="126"/>
+      <c r="F141" s="126"/>
+      <c r="G141" s="125"/>
+      <c r="H141" s="125"/>
+      <c r="I141" s="125"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="128"/>
+      <c r="B142" s="125"/>
+      <c r="C142" s="125"/>
+      <c r="D142" s="126"/>
+      <c r="E142" s="126"/>
+      <c r="F142" s="126"/>
+      <c r="G142" s="125"/>
+      <c r="H142" s="125"/>
+      <c r="I142" s="125"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="128"/>
+      <c r="B143" s="125"/>
+      <c r="C143" s="125"/>
+      <c r="D143" s="126"/>
+      <c r="E143" s="126"/>
+      <c r="F143" s="126"/>
+      <c r="G143" s="125"/>
+      <c r="H143" s="125"/>
+      <c r="I143" s="125"/>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="128"/>
+      <c r="B144" s="125"/>
+      <c r="C144" s="125"/>
+      <c r="D144" s="126"/>
+      <c r="E144" s="126"/>
+      <c r="F144" s="126"/>
+      <c r="G144" s="125"/>
+      <c r="H144" s="125"/>
+      <c r="I144" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8162,8 +11409,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C65 C67 C69:C136" xr:uid="{E7D3DEBE-31D3-46E9-AD47-8DAC4D7556ED}">
-      <formula1>$Q$2:$Q$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C144" xr:uid="{88C014AD-A7D9-4D4C-94D4-04B35D19CF09}">
+      <formula1>$Q$1:$Q$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACC29E29-E7AC-4C9E-BD62-985495ECDD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B204554-27B1-49D8-B08A-AE4675CFC83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="17" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="357">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1440,6 +1440,21 @@
   </si>
   <si>
     <t>Worked on wizard layout</t>
+  </si>
+  <si>
+    <t>Worked on HTML for Home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed estimation sheet and modified home page </t>
+  </si>
+  <si>
+    <t>Worked on responsive sidebar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on the modififications in home page </t>
+  </si>
+  <si>
+    <t>Explored on angular topics</t>
   </si>
   <si>
     <t>Refined Estimation and Worked on HTML</t>
@@ -1999,7 +2014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2325,26 +2340,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5576,8 +5589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84DE649-C5F3-4109-BE1F-71D1CBA3BD0C}">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:A121"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5613,7 +5626,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="124" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -5640,7 +5653,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="121"/>
+      <c r="A3" s="124"/>
       <c r="B3" s="107" t="s">
         <v>293</v>
       </c>
@@ -5666,7 +5679,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="121"/>
+      <c r="A4" s="124"/>
       <c r="B4" s="107" t="s">
         <v>294</v>
       </c>
@@ -5692,7 +5705,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="121"/>
+      <c r="A5" s="124"/>
       <c r="B5" s="107" t="s">
         <v>296</v>
       </c>
@@ -5718,7 +5731,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="121"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="107" t="s">
         <v>298</v>
       </c>
@@ -5744,7 +5757,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="121"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="107" t="s">
         <v>301</v>
       </c>
@@ -5770,7 +5783,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="121"/>
+      <c r="A8" s="124"/>
       <c r="B8" s="107" t="s">
         <v>303</v>
       </c>
@@ -5796,7 +5809,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="121"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="107" t="s">
         <v>304</v>
       </c>
@@ -5822,7 +5835,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="121"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="107" t="s">
         <v>306</v>
       </c>
@@ -5842,7 +5855,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="121"/>
+      <c r="A11" s="124"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -5854,7 +5867,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="121"/>
+      <c r="A12" s="124"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -5865,7 +5878,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="121"/>
+      <c r="A13" s="124"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -5876,7 +5889,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="121"/>
+      <c r="A14" s="124"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -5887,7 +5900,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="121"/>
+      <c r="A15" s="124"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -5898,7 +5911,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="121"/>
+      <c r="A16" s="124"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -5909,7 +5922,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="124" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -5936,7 +5949,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="121"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="107" t="s">
         <v>308</v>
       </c>
@@ -5962,7 +5975,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="121"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -5988,7 +6001,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="121"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="107" t="s">
         <v>309</v>
       </c>
@@ -6014,7 +6027,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="121"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="107" t="s">
         <v>294</v>
       </c>
@@ -6040,7 +6053,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="121"/>
+      <c r="A22" s="124"/>
       <c r="B22" s="107" t="s">
         <v>310</v>
       </c>
@@ -6066,7 +6079,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="121"/>
+      <c r="A23" s="124"/>
       <c r="B23" s="107" t="s">
         <v>296</v>
       </c>
@@ -6092,7 +6105,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="121"/>
+      <c r="A24" s="124"/>
       <c r="B24" s="107" t="s">
         <v>311</v>
       </c>
@@ -6118,7 +6131,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="121"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="107" t="s">
         <v>312</v>
       </c>
@@ -6138,7 +6151,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="121"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -6150,7 +6163,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="121"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -6161,7 +6174,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="121"/>
+      <c r="A28" s="124"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -6172,7 +6185,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="121"/>
+      <c r="A29" s="124"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -6183,7 +6196,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="121"/>
+      <c r="A30" s="124"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -6194,7 +6207,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="121"/>
+      <c r="A31" s="124"/>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="108"/>
@@ -6205,7 +6218,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="121" t="s">
+      <c r="A32" s="124" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="107" t="s">
@@ -6232,7 +6245,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="121"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="107" t="s">
         <v>313</v>
       </c>
@@ -6258,7 +6271,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="121"/>
+      <c r="A34" s="124"/>
       <c r="B34" s="107" t="s">
         <v>301</v>
       </c>
@@ -6284,7 +6297,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="121"/>
+      <c r="A35" s="124"/>
       <c r="B35" s="107" t="s">
         <v>313</v>
       </c>
@@ -6310,7 +6323,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="121"/>
+      <c r="A36" s="124"/>
       <c r="B36" s="107" t="s">
         <v>294</v>
       </c>
@@ -6336,7 +6349,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="121"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="107" t="s">
         <v>310</v>
       </c>
@@ -6362,7 +6375,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="121"/>
+      <c r="A38" s="124"/>
       <c r="B38" s="107" t="s">
         <v>314</v>
       </c>
@@ -6388,7 +6401,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="121"/>
+      <c r="A39" s="124"/>
       <c r="B39" s="107" t="s">
         <v>315</v>
       </c>
@@ -6414,7 +6427,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="121"/>
+      <c r="A40" s="124"/>
       <c r="B40" s="107" t="s">
         <v>303</v>
       </c>
@@ -6434,7 +6447,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="121"/>
+      <c r="A41" s="124"/>
       <c r="B41" s="107" t="s">
         <v>316</v>
       </c>
@@ -6454,7 +6467,7 @@
       <c r="I41" s="110"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="121"/>
+      <c r="A42" s="124"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -6465,7 +6478,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="121"/>
+      <c r="A43" s="124"/>
       <c r="B43" s="107" t="s">
         <v>317</v>
       </c>
@@ -6478,7 +6491,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="121"/>
+      <c r="A44" s="124"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -6489,7 +6502,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="121"/>
+      <c r="A45" s="124"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -6500,7 +6513,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="121"/>
+      <c r="A46" s="124"/>
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
       <c r="D46" s="108"/>
@@ -6511,7 +6524,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="121" t="s">
+      <c r="A47" s="124" t="s">
         <v>318</v>
       </c>
       <c r="B47" s="107" t="s">
@@ -6538,7 +6551,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="121"/>
+      <c r="A48" s="124"/>
       <c r="B48" s="107" t="s">
         <v>319</v>
       </c>
@@ -6564,7 +6577,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="121"/>
+      <c r="A49" s="124"/>
       <c r="B49" s="107" t="s">
         <v>320</v>
       </c>
@@ -6590,7 +6603,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="121"/>
+      <c r="A50" s="124"/>
       <c r="B50" s="107" t="s">
         <v>321</v>
       </c>
@@ -6616,7 +6629,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="121"/>
+      <c r="A51" s="124"/>
       <c r="B51" s="107" t="s">
         <v>322</v>
       </c>
@@ -6642,7 +6655,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="121"/>
+      <c r="A52" s="124"/>
       <c r="B52" s="107" t="s">
         <v>323</v>
       </c>
@@ -6668,7 +6681,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="121"/>
+      <c r="A53" s="124"/>
       <c r="B53" s="107" t="s">
         <v>296</v>
       </c>
@@ -6694,7 +6707,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="121"/>
+      <c r="A54" s="124"/>
       <c r="B54" s="107" t="s">
         <v>324</v>
       </c>
@@ -6720,7 +6733,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="121"/>
+      <c r="A55" s="124"/>
       <c r="B55" s="107" t="s">
         <v>325</v>
       </c>
@@ -6740,7 +6753,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="121"/>
+      <c r="A56" s="124"/>
       <c r="B56" s="107" t="s">
         <v>326</v>
       </c>
@@ -6760,7 +6773,7 @@
       <c r="I56" s="110"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="121"/>
+      <c r="A57" s="124"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -6771,7 +6784,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="121"/>
+      <c r="A58" s="124"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -6782,7 +6795,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="121"/>
+      <c r="A59" s="124"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -6793,7 +6806,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="121"/>
+      <c r="A60" s="124"/>
       <c r="B60" s="107"/>
       <c r="C60" s="107"/>
       <c r="D60" s="108"/>
@@ -6804,7 +6817,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="121"/>
+      <c r="A61" s="124"/>
       <c r="B61" s="107"/>
       <c r="C61" s="107"/>
       <c r="D61" s="108"/>
@@ -6815,7 +6828,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="121" t="s">
+      <c r="A62" s="124" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="107" t="s">
@@ -6842,7 +6855,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="121"/>
+      <c r="A63" s="124"/>
       <c r="B63" s="107" t="s">
         <v>328</v>
       </c>
@@ -6868,7 +6881,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="121"/>
+      <c r="A64" s="124"/>
       <c r="B64" s="107" t="s">
         <v>301</v>
       </c>
@@ -6894,7 +6907,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="121"/>
+      <c r="A65" s="124"/>
       <c r="B65" s="107" t="s">
         <v>321</v>
       </c>
@@ -6920,7 +6933,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="121"/>
+      <c r="A66" s="124"/>
       <c r="B66" s="107" t="s">
         <v>294</v>
       </c>
@@ -6946,7 +6959,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="121"/>
+      <c r="A67" s="124"/>
       <c r="B67" s="107" t="s">
         <v>310</v>
       </c>
@@ -6972,7 +6985,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="121"/>
+      <c r="A68" s="124"/>
       <c r="B68" s="107" t="s">
         <v>296</v>
       </c>
@@ -6998,7 +7011,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="121"/>
+      <c r="A69" s="124"/>
       <c r="B69" s="107" t="s">
         <v>329</v>
       </c>
@@ -7024,7 +7037,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="121"/>
+      <c r="A70" s="124"/>
       <c r="B70" s="107" t="s">
         <v>330</v>
       </c>
@@ -7044,7 +7057,7 @@
       <c r="I70" s="110"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="121"/>
+      <c r="A71" s="124"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -7056,7 +7069,7 @@
       <c r="I71" s="110"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="121"/>
+      <c r="A72" s="124"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -7067,7 +7080,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="121"/>
+      <c r="A73" s="124"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -7078,7 +7091,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="121"/>
+      <c r="A74" s="124"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -7089,7 +7102,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="121"/>
+      <c r="A75" s="124"/>
       <c r="B75" s="107"/>
       <c r="C75" s="107"/>
       <c r="D75" s="108"/>
@@ -7100,7 +7113,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="121"/>
+      <c r="A76" s="124"/>
       <c r="B76" s="107"/>
       <c r="C76" s="107"/>
       <c r="D76" s="108"/>
@@ -7111,7 +7124,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="121" t="s">
+      <c r="A77" s="124" t="s">
         <v>67</v>
       </c>
       <c r="B77" s="107" t="s">
@@ -7138,7 +7151,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="121"/>
+      <c r="A78" s="124"/>
       <c r="B78" s="107" t="s">
         <v>331</v>
       </c>
@@ -7164,7 +7177,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="121"/>
+      <c r="A79" s="124"/>
       <c r="B79" s="107" t="s">
         <v>294</v>
       </c>
@@ -7190,7 +7203,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="121"/>
+      <c r="A80" s="124"/>
       <c r="B80" s="107" t="s">
         <v>331</v>
       </c>
@@ -7216,7 +7229,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="121"/>
+      <c r="A81" s="124"/>
       <c r="B81" s="107" t="s">
         <v>298</v>
       </c>
@@ -7242,7 +7255,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="121"/>
+      <c r="A82" s="124"/>
       <c r="B82" s="107" t="s">
         <v>301</v>
       </c>
@@ -7268,7 +7281,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="121"/>
+      <c r="A83" s="124"/>
       <c r="B83" s="107" t="s">
         <v>303</v>
       </c>
@@ -7294,7 +7307,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="121"/>
+      <c r="A84" s="124"/>
       <c r="B84" s="107" t="s">
         <v>315</v>
       </c>
@@ -7320,7 +7333,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="121"/>
+      <c r="A85" s="124"/>
       <c r="B85" s="107" t="s">
         <v>332</v>
       </c>
@@ -7340,7 +7353,7 @@
       <c r="I85" s="110"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="121"/>
+      <c r="A86" s="124"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -7352,7 +7365,7 @@
       <c r="I86" s="110"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="121"/>
+      <c r="A87" s="124"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107"/>
       <c r="D87" s="108"/>
@@ -7363,7 +7376,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="121"/>
+      <c r="A88" s="124"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -7374,7 +7387,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="121"/>
+      <c r="A89" s="124"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -7385,7 +7398,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="121"/>
+      <c r="A90" s="124"/>
       <c r="B90" s="107"/>
       <c r="C90" s="107"/>
       <c r="D90" s="108"/>
@@ -7396,7 +7409,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="121"/>
+      <c r="A91" s="124"/>
       <c r="B91" s="107"/>
       <c r="C91" s="107"/>
       <c r="D91" s="108"/>
@@ -7407,7 +7420,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="121" t="s">
+      <c r="A92" s="124" t="s">
         <v>28</v>
       </c>
       <c r="B92" s="107" t="s">
@@ -7434,7 +7447,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="121"/>
+      <c r="A93" s="124"/>
       <c r="B93" s="107" t="s">
         <v>333</v>
       </c>
@@ -7460,7 +7473,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="121"/>
+      <c r="A94" s="124"/>
       <c r="B94" s="107" t="s">
         <v>301</v>
       </c>
@@ -7486,7 +7499,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="121"/>
+      <c r="A95" s="124"/>
       <c r="B95" s="107" t="s">
         <v>334</v>
       </c>
@@ -7512,7 +7525,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="121"/>
+      <c r="A96" s="124"/>
       <c r="B96" s="107" t="s">
         <v>294</v>
       </c>
@@ -7538,7 +7551,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="121"/>
+      <c r="A97" s="124"/>
       <c r="B97" s="107" t="s">
         <v>310</v>
       </c>
@@ -7564,7 +7577,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="121"/>
+      <c r="A98" s="124"/>
       <c r="B98" s="107" t="s">
         <v>335</v>
       </c>
@@ -7590,7 +7603,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="121"/>
+      <c r="A99" s="124"/>
       <c r="B99" s="107" t="s">
         <v>336</v>
       </c>
@@ -7616,7 +7629,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="121"/>
+      <c r="A100" s="124"/>
       <c r="B100" s="107" t="s">
         <v>337</v>
       </c>
@@ -7636,7 +7649,7 @@
       <c r="I100" s="110"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="121"/>
+      <c r="A101" s="124"/>
       <c r="B101" s="107" t="s">
         <v>303</v>
       </c>
@@ -7656,7 +7669,7 @@
       <c r="I101" s="110"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="121"/>
+      <c r="A102" s="124"/>
       <c r="B102" s="107" t="s">
         <v>335</v>
       </c>
@@ -7675,7 +7688,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="121"/>
+      <c r="A103" s="124"/>
       <c r="B103" s="107" t="s">
         <v>338</v>
       </c>
@@ -7694,7 +7707,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="121"/>
+      <c r="A104" s="124"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -7705,7 +7718,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="121"/>
+      <c r="A105" s="124"/>
       <c r="B105" s="107"/>
       <c r="C105" s="107"/>
       <c r="D105" s="108"/>
@@ -7716,7 +7729,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="122"/>
+      <c r="A106" s="125"/>
       <c r="B106" s="107"/>
       <c r="C106" s="107"/>
       <c r="D106" s="108"/>
@@ -7727,7 +7740,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="129" t="s">
+      <c r="A107" s="126" t="s">
         <v>19</v>
       </c>
       <c r="B107" s="115" t="s">
@@ -7754,7 +7767,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="129"/>
+      <c r="A108" s="126"/>
       <c r="B108" s="115" t="s">
         <v>331</v>
       </c>
@@ -7780,7 +7793,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="129"/>
+      <c r="A109" s="126"/>
       <c r="B109" s="115" t="s">
         <v>294</v>
       </c>
@@ -7806,7 +7819,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="129"/>
+      <c r="A110" s="126"/>
       <c r="B110" s="115" t="s">
         <v>331</v>
       </c>
@@ -7832,7 +7845,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="129"/>
+      <c r="A111" s="126"/>
       <c r="B111" s="115" t="s">
         <v>298</v>
       </c>
@@ -7858,7 +7871,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="129"/>
+      <c r="A112" s="126"/>
       <c r="B112" s="115" t="s">
         <v>301</v>
       </c>
@@ -7884,7 +7897,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="129"/>
+      <c r="A113" s="126"/>
       <c r="B113" s="115" t="s">
         <v>303</v>
       </c>
@@ -7910,7 +7923,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="129"/>
+      <c r="A114" s="126"/>
       <c r="B114" s="115" t="s">
         <v>315</v>
       </c>
@@ -7936,7 +7949,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="129"/>
+      <c r="A115" s="126"/>
       <c r="B115" s="115" t="s">
         <v>332</v>
       </c>
@@ -7956,7 +7969,7 @@
       <c r="I115" s="110"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="129"/>
+      <c r="A116" s="126"/>
       <c r="B116" s="115"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -7968,7 +7981,7 @@
       <c r="I116" s="110"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="129"/>
+      <c r="A117" s="126"/>
       <c r="B117" s="115"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -7979,7 +7992,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="129"/>
+      <c r="A118" s="126"/>
       <c r="B118" s="115"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -7990,7 +8003,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="129"/>
+      <c r="A119" s="126"/>
       <c r="B119" s="115"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -8001,7 +8014,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="129"/>
+      <c r="A120" s="126"/>
       <c r="B120" s="116"/>
       <c r="C120" s="111"/>
       <c r="D120" s="112"/>
@@ -8012,7 +8025,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="130"/>
+      <c r="A121" s="127"/>
       <c r="B121" s="117"/>
       <c r="C121" s="113"/>
       <c r="D121" s="114"/>
@@ -8023,7 +8036,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="123" t="s">
+      <c r="A122" s="128" t="s">
         <v>339</v>
       </c>
       <c r="B122" s="115" t="s">
@@ -8050,7 +8063,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="123"/>
+      <c r="A123" s="128"/>
       <c r="B123" s="115" t="s">
         <v>341</v>
       </c>
@@ -8076,7 +8089,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="123"/>
+      <c r="A124" s="128"/>
       <c r="B124" s="115" t="s">
         <v>320</v>
       </c>
@@ -8102,7 +8115,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="123"/>
+      <c r="A125" s="128"/>
       <c r="B125" s="115" t="s">
         <v>342</v>
       </c>
@@ -8128,7 +8141,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="123"/>
+      <c r="A126" s="128"/>
       <c r="B126" s="115" t="s">
         <v>322</v>
       </c>
@@ -8154,7 +8167,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="123"/>
+      <c r="A127" s="128"/>
       <c r="B127" s="115" t="s">
         <v>323</v>
       </c>
@@ -8180,7 +8193,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="123"/>
+      <c r="A128" s="128"/>
       <c r="B128" s="115" t="s">
         <v>343</v>
       </c>
@@ -8206,7 +8219,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="123"/>
+      <c r="A129" s="128"/>
       <c r="B129" s="115" t="s">
         <v>329</v>
       </c>
@@ -8232,7 +8245,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="123"/>
+      <c r="A130" s="128"/>
       <c r="B130" s="115" t="s">
         <v>303</v>
       </c>
@@ -8252,7 +8265,7 @@
       <c r="I130" s="110"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="123"/>
+      <c r="A131" s="128"/>
       <c r="B131" s="115" t="s">
         <v>329</v>
       </c>
@@ -8272,7 +8285,7 @@
       <c r="I131" s="110"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="123"/>
+      <c r="A132" s="128"/>
       <c r="B132" s="115" t="s">
         <v>344</v>
       </c>
@@ -8291,7 +8304,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="123"/>
+      <c r="A133" s="128"/>
       <c r="B133" s="115" t="s">
         <v>345</v>
       </c>
@@ -8310,7 +8323,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="123"/>
+      <c r="A134" s="128"/>
       <c r="B134" s="115"/>
       <c r="C134" s="107"/>
       <c r="D134" s="108"/>
@@ -8321,7 +8334,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="123"/>
+      <c r="A135" s="128"/>
       <c r="B135" s="116"/>
       <c r="C135" s="111"/>
       <c r="D135" s="112"/>
@@ -8332,7 +8345,7 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="123"/>
+      <c r="A136" s="128"/>
       <c r="B136" s="117"/>
       <c r="C136" s="113"/>
       <c r="D136" s="114"/>
@@ -8469,8 +8482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5637F7A4-DF7F-491A-93FD-52364AFE80A8}">
   <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107:E115"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8506,10 +8519,10 @@
       <c r="F1" s="106" t="s">
         <v>288</v>
       </c>
-      <c r="G1" s="124"/>
+      <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="124" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -8539,7 +8552,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="121"/>
+      <c r="A3" s="124"/>
       <c r="B3" s="107" t="s">
         <v>331</v>
       </c>
@@ -8568,7 +8581,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="121"/>
+      <c r="A4" s="124"/>
       <c r="B4" s="107" t="s">
         <v>294</v>
       </c>
@@ -8597,7 +8610,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="121"/>
+      <c r="A5" s="124"/>
       <c r="B5" s="107" t="s">
         <v>331</v>
       </c>
@@ -8626,7 +8639,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="121"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="107" t="s">
         <v>298</v>
       </c>
@@ -8655,7 +8668,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="121"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="107" t="s">
         <v>301</v>
       </c>
@@ -8684,7 +8697,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="121"/>
+      <c r="A8" s="124"/>
       <c r="B8" s="107" t="s">
         <v>303</v>
       </c>
@@ -8710,7 +8723,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="121"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="107" t="s">
         <v>315</v>
       </c>
@@ -8736,7 +8749,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="121"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="107" t="s">
         <v>332</v>
       </c>
@@ -8756,7 +8769,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="121"/>
+      <c r="A11" s="124"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -8768,7 +8781,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="121"/>
+      <c r="A12" s="124"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -8779,7 +8792,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="121"/>
+      <c r="A13" s="124"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -8790,7 +8803,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="121"/>
+      <c r="A14" s="124"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -8801,7 +8814,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="121"/>
+      <c r="A15" s="124"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -8812,7 +8825,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="121"/>
+      <c r="A16" s="124"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -8823,7 +8836,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="124" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -8850,7 +8863,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="121"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="107" t="s">
         <v>331</v>
       </c>
@@ -8876,7 +8889,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="121"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="107" t="s">
         <v>294</v>
       </c>
@@ -8902,7 +8915,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="121"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="107" t="s">
         <v>331</v>
       </c>
@@ -8928,7 +8941,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="121"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="107" t="s">
         <v>298</v>
       </c>
@@ -8954,7 +8967,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="121"/>
+      <c r="A22" s="124"/>
       <c r="B22" s="107" t="s">
         <v>301</v>
       </c>
@@ -8980,7 +8993,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="121"/>
+      <c r="A23" s="124"/>
       <c r="B23" s="107" t="s">
         <v>303</v>
       </c>
@@ -9006,7 +9019,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="121"/>
+      <c r="A24" s="124"/>
       <c r="B24" s="107" t="s">
         <v>315</v>
       </c>
@@ -9032,7 +9045,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="121"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="107" t="s">
         <v>332</v>
       </c>
@@ -9052,7 +9065,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="121"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -9064,7 +9077,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="121"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -9075,7 +9088,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="121"/>
+      <c r="A28" s="124"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -9086,7 +9099,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="121"/>
+      <c r="A29" s="124"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -9097,7 +9110,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="121"/>
+      <c r="A30" s="124"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -9108,7 +9121,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="121"/>
+      <c r="A31" s="124"/>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="108"/>
@@ -9119,7 +9132,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="121" t="s">
+      <c r="A32" s="124" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="107" t="s">
@@ -9146,7 +9159,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="121"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="107" t="s">
         <v>331</v>
       </c>
@@ -9172,7 +9185,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="121"/>
+      <c r="A34" s="124"/>
       <c r="B34" s="107" t="s">
         <v>294</v>
       </c>
@@ -9198,7 +9211,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="121"/>
+      <c r="A35" s="124"/>
       <c r="B35" s="107" t="s">
         <v>331</v>
       </c>
@@ -9224,7 +9237,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="121"/>
+      <c r="A36" s="124"/>
       <c r="B36" s="107" t="s">
         <v>298</v>
       </c>
@@ -9250,7 +9263,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="121"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="107" t="s">
         <v>301</v>
       </c>
@@ -9276,7 +9289,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="121"/>
+      <c r="A38" s="124"/>
       <c r="B38" s="107" t="s">
         <v>303</v>
       </c>
@@ -9302,7 +9315,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="121"/>
+      <c r="A39" s="124"/>
       <c r="B39" s="107" t="s">
         <v>315</v>
       </c>
@@ -9328,7 +9341,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="121"/>
+      <c r="A40" s="124"/>
       <c r="B40" s="107" t="s">
         <v>332</v>
       </c>
@@ -9348,7 +9361,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="121"/>
+      <c r="A41" s="124"/>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="108"/>
@@ -9360,7 +9373,7 @@
       <c r="I41" s="110"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="121"/>
+      <c r="A42" s="124"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -9371,7 +9384,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="121"/>
+      <c r="A43" s="124"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -9382,7 +9395,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="121"/>
+      <c r="A44" s="124"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -9393,7 +9406,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="121"/>
+      <c r="A45" s="124"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -9404,7 +9417,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="121"/>
+      <c r="A46" s="124"/>
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
       <c r="D46" s="108"/>
@@ -9415,24 +9428,24 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="121" t="s">
+      <c r="A47" s="124" t="s">
         <v>318</v>
       </c>
       <c r="B47" s="107" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="C47" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D47" s="108">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E47" s="108">
-        <v>0.4236111111111111</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F47" s="108">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H47" s="106" t="s">
         <v>291</v>
@@ -9442,7 +9455,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="121"/>
+      <c r="A48" s="124"/>
       <c r="B48" s="107" t="s">
         <v>331</v>
       </c>
@@ -9450,118 +9463,118 @@
         <v>295</v>
       </c>
       <c r="D48" s="108">
-        <v>0.42708333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E48" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="F48" s="108">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H48" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I48" s="108">
         <f t="shared" ref="I48" si="15">SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.22916666666666674</v>
+        <v>0.21180555555555558</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="121"/>
+      <c r="A49" s="124"/>
       <c r="B49" s="107" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C49" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D49" s="108">
+        <v>0.4375</v>
+      </c>
+      <c r="E49" s="108">
         <v>0.45833333333333331</v>
-      </c>
-      <c r="E49" s="108">
-        <v>0.47222222222222227</v>
       </c>
       <c r="F49" s="108">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H49" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I49" s="108">
         <f t="shared" ref="I49" si="16">SUMIFS(F47:F61, C47:C61,H49)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="121"/>
+      <c r="A50" s="124"/>
       <c r="B50" s="107" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="C50" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D50" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E50" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.53125</v>
       </c>
       <c r="F50" s="108">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>7.2916666666666685E-2</v>
       </c>
       <c r="H50" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I50" s="108">
         <f t="shared" ref="I50" si="17">SUMIFS(F47:F61, C47:C61,H50)</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="121"/>
+      <c r="A51" s="124"/>
       <c r="B51" s="107" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="C51" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D51" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="E51" s="108">
-        <v>0.54166666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="F51" s="108">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H51" s="109" t="s">
         <v>300</v>
       </c>
       <c r="I51" s="108">
         <f t="shared" ref="I51" si="18">SUMIFS(F47:F61, C47:C61,H51)</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="121"/>
+      <c r="A52" s="124"/>
       <c r="B52" s="107" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C52" s="107" t="s">
         <v>299</v>
       </c>
       <c r="D52" s="108">
-        <v>0.47222222222222227</v>
+        <v>0.5625</v>
       </c>
       <c r="E52" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.59375</v>
       </c>
       <c r="F52" s="108">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H52" s="109" t="s">
         <v>302</v>
@@ -9572,102 +9585,118 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="121"/>
+      <c r="A53" s="124"/>
       <c r="B53" s="107" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="C53" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D53" s="108">
-        <v>0.65625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E53" s="108">
         <v>0.66666666666666663</v>
       </c>
       <c r="F53" s="108">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H53" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I53" s="108">
         <f t="shared" ref="I53" si="20">SUMIFS(F47:F61, C47:C61,H53)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>7.2916666666666685E-2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="121"/>
+      <c r="A54" s="124"/>
       <c r="B54" s="107" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C54" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D54" s="108">
         <v>0.66666666666666663</v>
       </c>
       <c r="E54" s="108">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="F54" s="108">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H54" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I54" s="106">
         <f t="shared" ref="I54" si="21">SUM(I48:I53)</f>
-        <v>0.34027777777777773</v>
+        <v>0.39930555555555569</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="121"/>
+      <c r="A55" s="124"/>
       <c r="B55" s="107" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="C55" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D55" s="108">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="E55" s="108">
-        <v>0.875</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="F55" s="108">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="121"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="108"/>
-      <c r="E56" s="108"/>
+      <c r="A56" s="124"/>
+      <c r="B56" s="107" t="s">
+        <v>314</v>
+      </c>
+      <c r="C56" s="107" t="s">
+        <v>300</v>
+      </c>
+      <c r="D56" s="108">
+        <v>0.71875</v>
+      </c>
+      <c r="E56" s="108">
+        <v>0.75</v>
+      </c>
       <c r="F56" s="108">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="I56" s="110"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="121"/>
-      <c r="B57" s="107"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="108"/>
-      <c r="E57" s="108"/>
+      <c r="A57" s="124"/>
+      <c r="B57" s="107" t="s">
+        <v>350</v>
+      </c>
+      <c r="C57" s="107" t="s">
+        <v>297</v>
+      </c>
+      <c r="D57" s="108">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E57" s="108">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="F57" s="108">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="121"/>
+      <c r="A58" s="124"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -9678,7 +9707,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="121"/>
+      <c r="A59" s="124"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -9689,7 +9718,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="121"/>
+      <c r="A60" s="124"/>
       <c r="B60" s="107"/>
       <c r="C60" s="107"/>
       <c r="D60" s="108"/>
@@ -9700,7 +9729,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="121"/>
+      <c r="A61" s="124"/>
       <c r="B61" s="107"/>
       <c r="C61" s="107"/>
       <c r="D61" s="108"/>
@@ -9711,7 +9740,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="121" t="s">
+      <c r="A62" s="124" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="107" t="s">
@@ -9738,7 +9767,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="121"/>
+      <c r="A63" s="124"/>
       <c r="B63" s="107" t="s">
         <v>331</v>
       </c>
@@ -9764,7 +9793,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="121"/>
+      <c r="A64" s="124"/>
       <c r="B64" s="107" t="s">
         <v>294</v>
       </c>
@@ -9790,7 +9819,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="121"/>
+      <c r="A65" s="124"/>
       <c r="B65" s="107" t="s">
         <v>331</v>
       </c>
@@ -9816,7 +9845,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="121"/>
+      <c r="A66" s="124"/>
       <c r="B66" s="107" t="s">
         <v>298</v>
       </c>
@@ -9842,7 +9871,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="121"/>
+      <c r="A67" s="124"/>
       <c r="B67" s="107" t="s">
         <v>301</v>
       </c>
@@ -9868,7 +9897,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="121"/>
+      <c r="A68" s="124"/>
       <c r="B68" s="107" t="s">
         <v>303</v>
       </c>
@@ -9894,7 +9923,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="121"/>
+      <c r="A69" s="124"/>
       <c r="B69" s="107" t="s">
         <v>315</v>
       </c>
@@ -9920,7 +9949,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="121"/>
+      <c r="A70" s="124"/>
       <c r="B70" s="107" t="s">
         <v>332</v>
       </c>
@@ -9940,7 +9969,7 @@
       <c r="I70" s="110"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="121"/>
+      <c r="A71" s="124"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -9952,7 +9981,7 @@
       <c r="I71" s="110"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="121"/>
+      <c r="A72" s="124"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -9963,7 +9992,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="121"/>
+      <c r="A73" s="124"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -9974,7 +10003,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="121"/>
+      <c r="A74" s="124"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -9985,7 +10014,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="121"/>
+      <c r="A75" s="124"/>
       <c r="B75" s="107"/>
       <c r="C75" s="107"/>
       <c r="D75" s="108"/>
@@ -9996,7 +10025,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="121"/>
+      <c r="A76" s="124"/>
       <c r="B76" s="107"/>
       <c r="C76" s="107"/>
       <c r="D76" s="108"/>
@@ -10007,7 +10036,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="121" t="s">
+      <c r="A77" s="124" t="s">
         <v>67</v>
       </c>
       <c r="B77" s="107" t="s">
@@ -10034,7 +10063,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="121"/>
+      <c r="A78" s="124"/>
       <c r="B78" s="107" t="s">
         <v>331</v>
       </c>
@@ -10060,7 +10089,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="121"/>
+      <c r="A79" s="124"/>
       <c r="B79" s="107" t="s">
         <v>294</v>
       </c>
@@ -10086,7 +10115,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="121"/>
+      <c r="A80" s="124"/>
       <c r="B80" s="107" t="s">
         <v>331</v>
       </c>
@@ -10112,7 +10141,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="121"/>
+      <c r="A81" s="124"/>
       <c r="B81" s="107" t="s">
         <v>298</v>
       </c>
@@ -10138,7 +10167,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="121"/>
+      <c r="A82" s="124"/>
       <c r="B82" s="107" t="s">
         <v>301</v>
       </c>
@@ -10164,7 +10193,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="121"/>
+      <c r="A83" s="124"/>
       <c r="B83" s="107" t="s">
         <v>303</v>
       </c>
@@ -10190,7 +10219,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="121"/>
+      <c r="A84" s="124"/>
       <c r="B84" s="107" t="s">
         <v>315</v>
       </c>
@@ -10216,7 +10245,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="121"/>
+      <c r="A85" s="124"/>
       <c r="B85" s="107" t="s">
         <v>332</v>
       </c>
@@ -10236,7 +10265,7 @@
       <c r="I85" s="110"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="121"/>
+      <c r="A86" s="124"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -10248,7 +10277,7 @@
       <c r="I86" s="110"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="121"/>
+      <c r="A87" s="124"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107"/>
       <c r="D87" s="108"/>
@@ -10259,7 +10288,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="121"/>
+      <c r="A88" s="124"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -10270,7 +10299,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="121"/>
+      <c r="A89" s="124"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -10281,7 +10310,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="121"/>
+      <c r="A90" s="124"/>
       <c r="B90" s="107"/>
       <c r="C90" s="107"/>
       <c r="D90" s="108"/>
@@ -10292,7 +10321,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="121"/>
+      <c r="A91" s="124"/>
       <c r="B91" s="107"/>
       <c r="C91" s="107"/>
       <c r="D91" s="108"/>
@@ -10303,7 +10332,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="121" t="s">
+      <c r="A92" s="124" t="s">
         <v>28</v>
       </c>
       <c r="B92" s="107" t="s">
@@ -10330,7 +10359,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="121"/>
+      <c r="A93" s="124"/>
       <c r="B93" s="107" t="s">
         <v>331</v>
       </c>
@@ -10356,7 +10385,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="121"/>
+      <c r="A94" s="124"/>
       <c r="B94" s="107" t="s">
         <v>294</v>
       </c>
@@ -10382,7 +10411,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="121"/>
+      <c r="A95" s="124"/>
       <c r="B95" s="107" t="s">
         <v>331</v>
       </c>
@@ -10408,7 +10437,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="121"/>
+      <c r="A96" s="124"/>
       <c r="B96" s="107" t="s">
         <v>298</v>
       </c>
@@ -10434,7 +10463,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="121"/>
+      <c r="A97" s="124"/>
       <c r="B97" s="107" t="s">
         <v>301</v>
       </c>
@@ -10460,7 +10489,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="121"/>
+      <c r="A98" s="124"/>
       <c r="B98" s="107" t="s">
         <v>303</v>
       </c>
@@ -10486,7 +10515,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="121"/>
+      <c r="A99" s="124"/>
       <c r="B99" s="107" t="s">
         <v>315</v>
       </c>
@@ -10512,7 +10541,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="121"/>
+      <c r="A100" s="124"/>
       <c r="B100" s="107" t="s">
         <v>332</v>
       </c>
@@ -10532,7 +10561,7 @@
       <c r="I100" s="110"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="121"/>
+      <c r="A101" s="124"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -10544,7 +10573,7 @@
       <c r="I101" s="110"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="121"/>
+      <c r="A102" s="124"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -10555,7 +10584,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="121"/>
+      <c r="A103" s="124"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -10566,7 +10595,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="121"/>
+      <c r="A104" s="124"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -10577,7 +10606,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="121"/>
+      <c r="A105" s="124"/>
       <c r="B105" s="107"/>
       <c r="C105" s="107"/>
       <c r="D105" s="108"/>
@@ -10588,7 +10617,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="122"/>
+      <c r="A106" s="125"/>
       <c r="B106" s="107"/>
       <c r="C106" s="107"/>
       <c r="D106" s="108"/>
@@ -10599,7 +10628,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="129" t="s">
+      <c r="A107" s="126" t="s">
         <v>19</v>
       </c>
       <c r="B107" s="107" t="s">
@@ -10626,7 +10655,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="129"/>
+      <c r="A108" s="126"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -10652,7 +10681,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="129"/>
+      <c r="A109" s="126"/>
       <c r="B109" s="107" t="s">
         <v>294</v>
       </c>
@@ -10678,7 +10707,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="129"/>
+      <c r="A110" s="126"/>
       <c r="B110" s="107" t="s">
         <v>331</v>
       </c>
@@ -10704,7 +10733,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="129"/>
+      <c r="A111" s="126"/>
       <c r="B111" s="107" t="s">
         <v>298</v>
       </c>
@@ -10730,7 +10759,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="129"/>
+      <c r="A112" s="126"/>
       <c r="B112" s="107" t="s">
         <v>301</v>
       </c>
@@ -10756,7 +10785,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="129"/>
+      <c r="A113" s="126"/>
       <c r="B113" s="107" t="s">
         <v>303</v>
       </c>
@@ -10782,7 +10811,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="129"/>
+      <c r="A114" s="126"/>
       <c r="B114" s="107" t="s">
         <v>315</v>
       </c>
@@ -10808,7 +10837,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="129"/>
+      <c r="A115" s="126"/>
       <c r="B115" s="107" t="s">
         <v>332</v>
       </c>
@@ -10828,7 +10857,7 @@
       <c r="I115" s="110"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="129"/>
+      <c r="A116" s="126"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -10840,7 +10869,7 @@
       <c r="I116" s="110"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="129"/>
+      <c r="A117" s="126"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -10851,7 +10880,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="129"/>
+      <c r="A118" s="126"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -10862,7 +10891,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="129"/>
+      <c r="A119" s="126"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -10873,7 +10902,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="129"/>
+      <c r="A120" s="126"/>
       <c r="B120" s="107"/>
       <c r="C120" s="107"/>
       <c r="D120" s="108"/>
@@ -10884,7 +10913,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="130"/>
+      <c r="A121" s="127"/>
       <c r="B121" s="107"/>
       <c r="C121" s="107"/>
       <c r="D121" s="108"/>
@@ -10895,11 +10924,11 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="123" t="s">
+      <c r="A122" s="128" t="s">
         <v>339</v>
       </c>
       <c r="B122" s="115" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>290</v>
@@ -10922,9 +10951,9 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="123"/>
+      <c r="A123" s="128"/>
       <c r="B123" s="115" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C123" s="107" t="s">
         <v>295</v>
@@ -10948,7 +10977,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="123"/>
+      <c r="A124" s="128"/>
       <c r="B124" s="115" t="s">
         <v>301</v>
       </c>
@@ -10974,9 +11003,9 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="123"/>
+      <c r="A125" s="128"/>
       <c r="B125" s="115" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>290</v>
@@ -11000,9 +11029,9 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="123"/>
+      <c r="A126" s="128"/>
       <c r="B126" s="115" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C126" s="107" t="s">
         <v>290</v>
@@ -11026,7 +11055,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="123"/>
+      <c r="A127" s="128"/>
       <c r="B127" s="115" t="s">
         <v>302</v>
       </c>
@@ -11052,7 +11081,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="123"/>
+      <c r="A128" s="128"/>
       <c r="B128" s="115" t="s">
         <v>310</v>
       </c>
@@ -11078,9 +11107,9 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="123"/>
+      <c r="A129" s="128"/>
       <c r="B129" s="120" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C129" s="107" t="s">
         <v>290</v>
@@ -11104,7 +11133,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="123"/>
+      <c r="A130" s="128"/>
       <c r="B130" s="115" t="s">
         <v>303</v>
       </c>
@@ -11124,9 +11153,9 @@
       <c r="I130" s="110"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="123"/>
+      <c r="A131" s="128"/>
       <c r="B131" s="115" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C131" s="107" t="s">
         <v>290</v>
@@ -11144,9 +11173,9 @@
       <c r="I131" s="110"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="123"/>
+      <c r="A132" s="128"/>
       <c r="B132" s="115" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C132" s="107" t="s">
         <v>300</v>
@@ -11163,7 +11192,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="123"/>
+      <c r="A133" s="128"/>
       <c r="B133" s="115"/>
       <c r="C133" s="107"/>
       <c r="D133" s="108"/>
@@ -11174,7 +11203,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="123"/>
+      <c r="A134" s="128"/>
       <c r="B134" s="115"/>
       <c r="C134" s="107"/>
       <c r="D134" s="108"/>
@@ -11185,7 +11214,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="123"/>
+      <c r="A135" s="128"/>
       <c r="B135" s="116"/>
       <c r="C135" s="111"/>
       <c r="D135" s="112"/>
@@ -11196,7 +11225,7 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="123"/>
+      <c r="A136" s="128"/>
       <c r="B136" s="117"/>
       <c r="C136" s="113"/>
       <c r="D136" s="114"/>
@@ -11207,92 +11236,32 @@
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="128"/>
-      <c r="B137" s="125"/>
-      <c r="C137" s="125"/>
-      <c r="D137" s="126"/>
-      <c r="E137" s="126"/>
-      <c r="F137" s="126"/>
-      <c r="G137" s="125"/>
-      <c r="H137" s="127"/>
-      <c r="I137" s="127"/>
+      <c r="A137" s="123"/>
+      <c r="H137" s="122"/>
+      <c r="I137" s="122"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="128"/>
-      <c r="B138" s="125"/>
-      <c r="C138" s="125"/>
-      <c r="D138" s="126"/>
-      <c r="E138" s="126"/>
-      <c r="F138" s="126"/>
-      <c r="G138" s="125"/>
-      <c r="H138" s="125"/>
-      <c r="I138" s="126"/>
+      <c r="A138" s="123"/>
+      <c r="I138" s="110"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="128"/>
-      <c r="B139" s="125"/>
-      <c r="C139" s="125"/>
-      <c r="D139" s="126"/>
-      <c r="E139" s="126"/>
-      <c r="F139" s="126"/>
-      <c r="G139" s="125"/>
-      <c r="H139" s="125"/>
-      <c r="I139" s="126"/>
+      <c r="A139" s="123"/>
+      <c r="I139" s="110"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="128"/>
-      <c r="B140" s="125"/>
-      <c r="C140" s="125"/>
-      <c r="D140" s="126"/>
-      <c r="E140" s="126"/>
-      <c r="F140" s="126"/>
-      <c r="G140" s="125"/>
-      <c r="H140" s="125"/>
-      <c r="I140" s="125"/>
+      <c r="A140" s="123"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="128"/>
-      <c r="B141" s="125"/>
-      <c r="C141" s="125"/>
-      <c r="D141" s="126"/>
-      <c r="E141" s="126"/>
-      <c r="F141" s="126"/>
-      <c r="G141" s="125"/>
-      <c r="H141" s="125"/>
-      <c r="I141" s="125"/>
+      <c r="A141" s="123"/>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="128"/>
-      <c r="B142" s="125"/>
-      <c r="C142" s="125"/>
-      <c r="D142" s="126"/>
-      <c r="E142" s="126"/>
-      <c r="F142" s="126"/>
-      <c r="G142" s="125"/>
-      <c r="H142" s="125"/>
-      <c r="I142" s="125"/>
+      <c r="A142" s="123"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="128"/>
-      <c r="B143" s="125"/>
-      <c r="C143" s="125"/>
-      <c r="D143" s="126"/>
-      <c r="E143" s="126"/>
-      <c r="F143" s="126"/>
-      <c r="G143" s="125"/>
-      <c r="H143" s="125"/>
-      <c r="I143" s="125"/>
+      <c r="A143" s="123"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="128"/>
-      <c r="B144" s="125"/>
-      <c r="C144" s="125"/>
-      <c r="D144" s="126"/>
-      <c r="E144" s="126"/>
-      <c r="F144" s="126"/>
-      <c r="G144" s="125"/>
-      <c r="H144" s="125"/>
-      <c r="I144" s="125"/>
+      <c r="A144" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B204554-27B1-49D8-B08A-AE4675CFC83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E22237D0-977C-47C6-8F5E-E5CD058BC784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="17" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="364">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1442,6 +1442,24 @@
     <t>Worked on wizard layout</t>
   </si>
   <si>
+    <t>Worked on HTML layout Page(skills)</t>
+  </si>
+  <si>
+    <t>Modifications on HTML layout Page(skills)</t>
+  </si>
+  <si>
+    <t>Discussed on Web Api(Services &amp; Models)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussed on HTML layout(Modifications) </t>
+  </si>
+  <si>
+    <t>Exploration on Web api &amp; angular topics</t>
+  </si>
+  <si>
+    <t>Working on Web api models</t>
+  </si>
+  <si>
     <t>Worked on HTML for Home page</t>
   </si>
   <si>
@@ -1455,6 +1473,9 @@
   </si>
   <si>
     <t>Explored on angular topics</t>
+  </si>
+  <si>
+    <t>Worked on home page and integrating it with responsive sidebar</t>
   </si>
   <si>
     <t>Refined Estimation and Worked on HTML</t>
@@ -8483,7 +8504,7 @@
   <dimension ref="A1:Q144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9136,20 +9157,20 @@
         <v>54</v>
       </c>
       <c r="B32" s="107" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="C32" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D32" s="108">
-        <v>0.41666666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E32" s="108">
-        <v>0.4236111111111111</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F32" s="108">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H32" s="106" t="s">
         <v>291</v>
@@ -9167,231 +9188,255 @@
         <v>295</v>
       </c>
       <c r="D33" s="108">
-        <v>0.42708333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E33" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="F33" s="108">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H33" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I33" s="108">
         <f t="shared" ref="I33" si="8">SUMIFS(F32:F46, C32:C46,H33)</f>
-        <v>0.22916666666666674</v>
+        <v>0.28125000000000011</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="124"/>
       <c r="B34" s="107" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C34" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D34" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="E34" s="108">
-        <v>0.47222222222222227</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F34" s="108">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H34" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I34" s="108">
         <f t="shared" ref="I34" si="9">SUMIFS(F32:F46, C32:C46,H34)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="124"/>
       <c r="B35" s="107" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D35" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="E35" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="F35" s="108">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="H35" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I35" s="108">
         <f t="shared" ref="I35" si="10">SUMIFS(F32:F46, C32:C46,H35)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="124"/>
       <c r="B36" s="107" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="C36" s="107" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D36" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="E36" s="108">
-        <v>0.54166666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="F36" s="108">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H36" s="109" t="s">
         <v>300</v>
       </c>
       <c r="I36" s="108">
         <f t="shared" ref="I36" si="11">SUMIFS(F32:F46, C32:C46,H36)</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="124"/>
       <c r="B37" s="107" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C37" s="107" t="s">
         <v>299</v>
       </c>
       <c r="D37" s="108">
-        <v>0.47222222222222227</v>
+        <v>0.5625</v>
       </c>
       <c r="E37" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="F37" s="108">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H37" s="109" t="s">
         <v>302</v>
       </c>
       <c r="I37" s="108">
         <f t="shared" ref="I37" si="12">SUMIFS(F32:F46, C32:C46,H37)</f>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="124"/>
       <c r="B38" s="107" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="C38" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D38" s="108">
-        <v>0.65625</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="E38" s="108">
         <v>0.66666666666666663</v>
       </c>
       <c r="F38" s="108">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>6.944444444444442E-2</v>
       </c>
       <c r="H38" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I38" s="108">
         <f t="shared" ref="I38" si="13">SUMIFS(F32:F46, C32:C46,H38)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>4.8611111111111049E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="124"/>
       <c r="B39" s="107" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C39" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D39" s="108">
         <v>0.66666666666666663</v>
       </c>
       <c r="E39" s="108">
-        <v>0.75</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="F39" s="108">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H39" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I39" s="106">
         <f t="shared" ref="I39" si="14">SUM(I33:I38)</f>
-        <v>0.34027777777777773</v>
+        <v>0.49305555555555564</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="124"/>
       <c r="B40" s="107" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="C40" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D40" s="108">
-        <v>0.75</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="E40" s="108">
-        <v>0.875</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="F40" s="108">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>3.4722222222222321E-2</v>
       </c>
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="124"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
+      <c r="B41" s="107" t="s">
+        <v>314</v>
+      </c>
+      <c r="C41" s="107" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" s="108">
+        <v>0.71875</v>
+      </c>
+      <c r="E41" s="108">
+        <v>0.75</v>
+      </c>
       <c r="F41" s="108">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="I41" s="110"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="124"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
+      <c r="B42" s="107" t="s">
+        <v>350</v>
+      </c>
+      <c r="C42" s="107" t="s">
+        <v>297</v>
+      </c>
+      <c r="D42" s="108">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E42" s="108">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F42" s="108">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="124"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="108"/>
+      <c r="B43" s="107" t="s">
+        <v>351</v>
+      </c>
+      <c r="C43" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D43" s="108">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E43" s="108">
+        <v>0.90625</v>
+      </c>
       <c r="F43" s="108">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.208333333333337E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -9432,20 +9477,20 @@
         <v>318</v>
       </c>
       <c r="B47" s="107" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C47" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D47" s="108">
-        <v>0.375</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E47" s="108">
         <v>0.39583333333333331</v>
       </c>
       <c r="F47" s="108">
         <f t="shared" si="0"/>
-        <v>2.0833333333333315E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H47" s="106" t="s">
         <v>291</v>
@@ -9477,7 +9522,7 @@
       </c>
       <c r="I48" s="108">
         <f t="shared" ref="I48" si="15">SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.21180555555555558</v>
+        <v>0.2986111111111111</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -9492,11 +9537,11 @@
         <v>0.4375</v>
       </c>
       <c r="E49" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F49" s="108">
         <f t="shared" si="0"/>
-        <v>2.0833333333333315E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H49" s="109" t="s">
         <v>295</v>
@@ -9509,27 +9554,27 @@
     <row r="50" spans="1:9">
       <c r="A50" s="124"/>
       <c r="B50" s="107" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C50" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D50" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="E50" s="108">
         <v>0.53125</v>
       </c>
       <c r="F50" s="108">
         <f t="shared" si="0"/>
-        <v>7.2916666666666685E-2</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="H50" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I50" s="108">
         <f t="shared" ref="I50" si="17">SUMIFS(F47:F61, C47:C61,H50)</f>
-        <v>4.1666666666666741E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -9538,7 +9583,7 @@
         <v>322</v>
       </c>
       <c r="C51" s="107" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="D51" s="108">
         <v>0.53472222222222221</v>
@@ -9570,44 +9615,44 @@
         <v>0.5625</v>
       </c>
       <c r="E52" s="108">
-        <v>0.59375</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F52" s="108">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H52" s="109" t="s">
         <v>302</v>
       </c>
       <c r="I52" s="108">
         <f t="shared" ref="I52" si="19">SUMIFS(F47:F61, C47:C61,H52)</f>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="124"/>
       <c r="B53" s="107" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C53" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D53" s="108">
-        <v>0.60416666666666663</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="E53" s="108">
         <v>0.66666666666666663</v>
       </c>
       <c r="F53" s="108">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>7.638888888888884E-2</v>
       </c>
       <c r="H53" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I53" s="108">
         <f t="shared" ref="I53" si="20">SUMIFS(F47:F61, C47:C61,H53)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>5.2083333333333426E-2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -9633,13 +9678,13 @@
       </c>
       <c r="I54" s="106">
         <f t="shared" ref="I54" si="21">SUM(I48:I53)</f>
-        <v>0.39930555555555569</v>
+        <v>0.49305555555555564</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="124"/>
       <c r="B55" s="107" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C55" s="107" t="s">
         <v>290</v>
@@ -9679,31 +9724,39 @@
     <row r="57" spans="1:9">
       <c r="A57" s="124"/>
       <c r="B57" s="107" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C57" s="107" t="s">
         <v>297</v>
       </c>
       <c r="D57" s="108">
-        <v>0.91666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E57" s="108">
-        <v>0.95833333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="F57" s="108">
         <f t="shared" si="0"/>
-        <v>4.1666666666666741E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="124"/>
-      <c r="B58" s="107"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="108"/>
-      <c r="E58" s="108"/>
+      <c r="B58" s="107" t="s">
+        <v>357</v>
+      </c>
+      <c r="C58" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D58" s="108">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E58" s="108">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="F58" s="108">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444531E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -10928,7 +10981,7 @@
         <v>339</v>
       </c>
       <c r="B122" s="115" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>290</v>
@@ -10953,7 +11006,7 @@
     <row r="123" spans="1:9">
       <c r="A123" s="128"/>
       <c r="B123" s="115" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C123" s="107" t="s">
         <v>295</v>
@@ -11005,7 +11058,7 @@
     <row r="125" spans="1:9">
       <c r="A125" s="128"/>
       <c r="B125" s="115" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>290</v>
@@ -11031,7 +11084,7 @@
     <row r="126" spans="1:9">
       <c r="A126" s="128"/>
       <c r="B126" s="115" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C126" s="107" t="s">
         <v>290</v>
@@ -11109,7 +11162,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="128"/>
       <c r="B129" s="120" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C129" s="107" t="s">
         <v>290</v>
@@ -11155,7 +11208,7 @@
     <row r="131" spans="1:9">
       <c r="A131" s="128"/>
       <c r="B131" s="115" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C131" s="107" t="s">
         <v>290</v>
@@ -11175,7 +11228,7 @@
     <row r="132" spans="1:9">
       <c r="A132" s="128"/>
       <c r="B132" s="115" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C132" s="107" t="s">
         <v>300</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E22237D0-977C-47C6-8F5E-E5CD058BC784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FED5EE60-2C1C-4AEF-84B1-AED63DE18D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="368">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1442,10 +1442,10 @@
     <t>Worked on wizard layout</t>
   </si>
   <si>
-    <t>Worked on HTML layout Page(skills)</t>
-  </si>
-  <si>
-    <t>Modifications on HTML layout Page(skills)</t>
+    <t>Worked on HTML layout Page(project)</t>
+  </si>
+  <si>
+    <t>Modifications on HTML layout Page(project)</t>
   </si>
   <si>
     <t>Discussed on Web Api(Services &amp; Models)</t>
@@ -1476,6 +1476,18 @@
   </si>
   <si>
     <t>Worked on home page and integrating it with responsive sidebar</t>
+  </si>
+  <si>
+    <t>Worked on HTML page(Change Password)</t>
+  </si>
+  <si>
+    <t>Worked on Modified Education Page</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>Worked on HTML layout(Education)</t>
   </si>
   <si>
     <t>Refined Estimation and Worked on HTML</t>
@@ -8503,8 +8515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5637F7A4-DF7F-491A-93FD-52364AFE80A8}">
   <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9797,20 +9809,20 @@
         <v>62</v>
       </c>
       <c r="B62" s="107" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="C62" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D62" s="108">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E62" s="108">
-        <v>0.4236111111111111</v>
+        <v>0.3923611111111111</v>
       </c>
       <c r="F62" s="108">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.7361111111111105E-2</v>
       </c>
       <c r="H62" s="106" t="s">
         <v>291</v>
@@ -9828,66 +9840,66 @@
         <v>295</v>
       </c>
       <c r="D63" s="108">
-        <v>0.42708333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E63" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="F63" s="108">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H63" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I63" s="108">
         <f t="shared" ref="I63" si="22">SUMIFS(F62:F76, C62:C76,H63)</f>
-        <v>0.22916666666666674</v>
+        <v>0.26388888888888884</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="124"/>
       <c r="B64" s="107" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C64" s="107" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D64" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="E64" s="108">
-        <v>0.47222222222222227</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="F64" s="108">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <v>1.7361111111111105E-2</v>
       </c>
       <c r="H64" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I64" s="108">
         <f t="shared" ref="I64" si="23">SUMIFS(F62:F76, C62:C76,H64)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>5.902777777777779E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="124"/>
       <c r="B65" s="107" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="C65" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D65" s="108">
         <v>0.47916666666666669</v>
       </c>
       <c r="E65" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="F65" s="108">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>5.5555555555555525E-2</v>
       </c>
       <c r="H65" s="109" t="s">
         <v>297</v>
@@ -9900,46 +9912,46 @@
     <row r="66" spans="1:9">
       <c r="A66" s="124"/>
       <c r="B66" s="107" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="C66" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D66" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="E66" s="108">
-        <v>0.54166666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="F66" s="108">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H66" s="109" t="s">
         <v>300</v>
       </c>
       <c r="I66" s="108">
         <f t="shared" ref="I66" si="25">SUMIFS(F62:F76, C62:C76,H66)</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="124"/>
       <c r="B67" s="107" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C67" s="107" t="s">
         <v>299</v>
       </c>
       <c r="D67" s="108">
-        <v>0.47222222222222227</v>
+        <v>0.5625</v>
       </c>
       <c r="E67" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="F67" s="108">
         <f t="shared" ref="D67:F130" si="26">E67-D67</f>
-        <v>6.9444444444444198E-3</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H67" s="109" t="s">
         <v>302</v>
@@ -9952,96 +9964,112 @@
     <row r="68" spans="1:9">
       <c r="A68" s="124"/>
       <c r="B68" s="107" t="s">
-        <v>303</v>
+        <v>359</v>
       </c>
       <c r="C68" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D68" s="108">
-        <v>0.65625</v>
+        <v>0.59375</v>
       </c>
       <c r="E68" s="108">
         <v>0.66666666666666663</v>
       </c>
       <c r="F68" s="108">
         <f t="shared" si="26"/>
-        <v>1.041666666666663E-2</v>
+        <v>7.291666666666663E-2</v>
       </c>
       <c r="H68" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I68" s="108">
         <f t="shared" ref="I68" si="28">SUMIFS(F62:F76, C62:C76,H68)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>4.861111111111116E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="124"/>
       <c r="B69" s="107" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="C69" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D69" s="108">
         <v>0.66666666666666663</v>
       </c>
       <c r="E69" s="108">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="F69" s="108">
         <f t="shared" si="26"/>
-        <v>8.333333333333337E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H69" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I69" s="106">
         <f t="shared" ref="I69" si="29">SUM(I63:I68)</f>
-        <v>0.34027777777777773</v>
+        <v>0.40277777777777779</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="124"/>
       <c r="B70" s="107" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="C70" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D70" s="108">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E70" s="108">
-        <v>0.875</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="F70" s="108">
         <f t="shared" si="26"/>
-        <v>0.125</v>
+        <v>4.861111111111116E-2</v>
       </c>
       <c r="I70" s="110"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="124"/>
-      <c r="B71" s="107"/>
-      <c r="C71" s="107"/>
-      <c r="D71" s="108"/>
-      <c r="E71" s="108"/>
+      <c r="B71" s="107" t="s">
+        <v>314</v>
+      </c>
+      <c r="C71" s="107" t="s">
+        <v>300</v>
+      </c>
+      <c r="D71" s="108">
+        <v>0.71875</v>
+      </c>
+      <c r="E71" s="108">
+        <v>0.75</v>
+      </c>
       <c r="F71" s="108">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="I71" s="110"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="124"/>
-      <c r="B72" s="107"/>
-      <c r="C72" s="107"/>
-      <c r="D72" s="108"/>
-      <c r="E72" s="108"/>
+      <c r="B72" s="107" t="s">
+        <v>361</v>
+      </c>
+      <c r="C72" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D72" s="108">
+        <v>0.875</v>
+      </c>
+      <c r="E72" s="108">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="F72" s="108">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -10981,7 +11009,7 @@
         <v>339</v>
       </c>
       <c r="B122" s="115" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>290</v>
@@ -11006,7 +11034,7 @@
     <row r="123" spans="1:9">
       <c r="A123" s="128"/>
       <c r="B123" s="115" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C123" s="107" t="s">
         <v>295</v>
@@ -11058,7 +11086,7 @@
     <row r="125" spans="1:9">
       <c r="A125" s="128"/>
       <c r="B125" s="115" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>290</v>
@@ -11084,7 +11112,7 @@
     <row r="126" spans="1:9">
       <c r="A126" s="128"/>
       <c r="B126" s="115" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C126" s="107" t="s">
         <v>290</v>
@@ -11162,7 +11190,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="128"/>
       <c r="B129" s="120" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C129" s="107" t="s">
         <v>290</v>
@@ -11208,7 +11236,7 @@
     <row r="131" spans="1:9">
       <c r="A131" s="128"/>
       <c r="B131" s="115" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C131" s="107" t="s">
         <v>290</v>
@@ -11228,7 +11256,7 @@
     <row r="132" spans="1:9">
       <c r="A132" s="128"/>
       <c r="B132" s="115" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C132" s="107" t="s">
         <v>300</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FED5EE60-2C1C-4AEF-84B1-AED63DE18D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DCFAB4B-BAF3-405D-A283-B955C92C7865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="372">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1488,6 +1488,18 @@
   </si>
   <si>
     <t>Worked on HTML layout(Education)</t>
+  </si>
+  <si>
+    <t>WebAPI</t>
+  </si>
+  <si>
+    <t>Team meeting on WebAPI</t>
+  </si>
+  <si>
+    <t>webAPI</t>
+  </si>
+  <si>
+    <t>Explored on Defensive Coding,Typescript</t>
   </si>
   <si>
     <t>Refined Estimation and Worked on HTML</t>
@@ -8515,8 +8527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5637F7A4-DF7F-491A-93FD-52364AFE80A8}">
   <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10423,14 +10435,14 @@
         <v>290</v>
       </c>
       <c r="D92" s="108">
-        <v>0.41666666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E92" s="108">
-        <v>0.4236111111111111</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="F92" s="108">
         <f t="shared" si="26"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H92" s="106" t="s">
         <v>291</v>
@@ -10442,16 +10454,16 @@
     <row r="93" spans="1:9">
       <c r="A93" s="124"/>
       <c r="B93" s="107" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="C93" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D93" s="108">
-        <v>0.42708333333333331</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="E93" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F93" s="108">
         <f t="shared" si="26"/>
@@ -10462,78 +10474,78 @@
       </c>
       <c r="I93" s="108">
         <f t="shared" ref="I93" si="37">SUMIFS(F92:F106, C92:C106,H93)</f>
-        <v>0.22916666666666674</v>
+        <v>0.27083333333333337</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="124"/>
       <c r="B94" s="107" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="C94" s="107" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D94" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E94" s="108">
-        <v>0.47222222222222227</v>
+        <v>0.4375</v>
       </c>
       <c r="F94" s="108">
         <f t="shared" si="26"/>
-        <v>1.3888888888888951E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H94" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I94" s="108">
         <f t="shared" ref="I94" si="38">SUMIFS(F92:F106, C92:C106,H94)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="124"/>
       <c r="B95" s="107" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="C95" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D95" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="E95" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="F95" s="108">
         <f t="shared" si="26"/>
-        <v>4.1666666666666685E-2</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="H95" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I95" s="108">
         <f t="shared" ref="I95" si="39">SUMIFS(F92:F106, C92:C106,H95)</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="124"/>
       <c r="B96" s="107" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C96" s="107" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D96" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.53125</v>
       </c>
       <c r="E96" s="108">
-        <v>0.54166666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="F96" s="108">
         <f t="shared" si="26"/>
-        <v>2.0833333333333259E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H96" s="109" t="s">
         <v>300</v>
@@ -10546,122 +10558,138 @@
     <row r="97" spans="1:9">
       <c r="A97" s="124"/>
       <c r="B97" s="107" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C97" s="107" t="s">
         <v>299</v>
       </c>
       <c r="D97" s="108">
-        <v>0.47222222222222227</v>
+        <v>0.5625</v>
       </c>
       <c r="E97" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="F97" s="108">
         <f t="shared" si="26"/>
-        <v>6.9444444444444198E-3</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H97" s="109" t="s">
         <v>302</v>
       </c>
       <c r="I97" s="108">
         <f t="shared" ref="I97" si="41">SUMIFS(F92:F106, C92:C106,H97)</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="124"/>
       <c r="B98" s="107" t="s">
-        <v>303</v>
+        <v>363</v>
       </c>
       <c r="C98" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D98" s="108">
-        <v>0.65625</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="E98" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="F98" s="108">
         <f t="shared" si="26"/>
-        <v>1.041666666666663E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="H98" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I98" s="108">
         <f t="shared" ref="I98" si="42">SUMIFS(F92:F106, C92:C106,H98)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="124"/>
       <c r="B99" s="107" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="C99" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D99" s="108">
+        <v>0.625</v>
+      </c>
+      <c r="E99" s="108">
         <v>0.66666666666666663</v>
-      </c>
-      <c r="E99" s="108">
-        <v>0.75</v>
       </c>
       <c r="F99" s="108">
         <f t="shared" si="26"/>
-        <v>8.333333333333337E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H99" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I99" s="106">
         <f t="shared" ref="I99" si="43">SUM(I93:I98)</f>
-        <v>0.34027777777777773</v>
+        <v>0.42708333333333343</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="124"/>
       <c r="B100" s="107" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="C100" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D100" s="108">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E100" s="108">
-        <v>0.875</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="F100" s="108">
         <f t="shared" si="26"/>
-        <v>0.125</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="I100" s="110"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="124"/>
-      <c r="B101" s="107"/>
-      <c r="C101" s="107"/>
-      <c r="D101" s="108"/>
-      <c r="E101" s="108"/>
+      <c r="B101" s="107" t="s">
+        <v>362</v>
+      </c>
+      <c r="C101" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D101" s="108">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="E101" s="108">
+        <v>0.75</v>
+      </c>
       <c r="F101" s="108">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>6.9444444444444531E-2</v>
       </c>
       <c r="I101" s="110"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="124"/>
-      <c r="B102" s="107"/>
-      <c r="C102" s="107"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="108"/>
+      <c r="B102" s="107" t="s">
+        <v>365</v>
+      </c>
+      <c r="C102" s="107" t="s">
+        <v>297</v>
+      </c>
+      <c r="D102" s="108">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E102" s="108">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F102" s="108">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -11009,7 +11037,7 @@
         <v>339</v>
       </c>
       <c r="B122" s="115" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>290</v>
@@ -11034,7 +11062,7 @@
     <row r="123" spans="1:9">
       <c r="A123" s="128"/>
       <c r="B123" s="115" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C123" s="107" t="s">
         <v>295</v>
@@ -11086,7 +11114,7 @@
     <row r="125" spans="1:9">
       <c r="A125" s="128"/>
       <c r="B125" s="115" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>290</v>
@@ -11112,7 +11140,7 @@
     <row r="126" spans="1:9">
       <c r="A126" s="128"/>
       <c r="B126" s="115" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C126" s="107" t="s">
         <v>290</v>
@@ -11190,7 +11218,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="128"/>
       <c r="B129" s="120" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C129" s="107" t="s">
         <v>290</v>
@@ -11236,7 +11264,7 @@
     <row r="131" spans="1:9">
       <c r="A131" s="128"/>
       <c r="B131" s="115" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C131" s="107" t="s">
         <v>290</v>
@@ -11256,7 +11284,7 @@
     <row r="132" spans="1:9">
       <c r="A132" s="128"/>
       <c r="B132" s="115" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C132" s="107" t="s">
         <v>300</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DCFAB4B-BAF3-405D-A283-B955C92C7865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12F7712B-104B-4241-8BD4-E2EF61972969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="377">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1440,6 +1440,21 @@
   </si>
   <si>
     <t>Worked on wizard layout</t>
+  </si>
+  <si>
+    <t>Updated Timesheet and Reviewed HTML layouts</t>
+  </si>
+  <si>
+    <t>Modified Personal details  and Education details page(HTML)</t>
+  </si>
+  <si>
+    <t>Worked on Web api(Dbcontext and Services)</t>
+  </si>
+  <si>
+    <t>Explored on Web api(Controllers)</t>
+  </si>
+  <si>
+    <t>Team Meeting(Webapi and html layouts)</t>
   </si>
   <si>
     <t>Worked on HTML layout Page(project)</t>
@@ -8527,8 +8542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5637F7A4-DF7F-491A-93FD-52364AFE80A8}">
   <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8571,20 +8586,20 @@
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D2" s="108">
-        <v>0.41666666666666669</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="E2" s="108">
-        <v>0.4236111111111111</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F2" s="108">
         <f>E2-D2</f>
-        <v>6.9444444444444198E-3</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H2" s="106" t="s">
         <v>291</v>
@@ -8605,21 +8620,21 @@
         <v>295</v>
       </c>
       <c r="D3" s="108">
-        <v>0.42708333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E3" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="F3" s="108">
         <f t="shared" ref="F3:F66" si="0">E3-D3</f>
-        <v>3.125E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H3" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I3" s="108">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>0.22916666666666674</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="Q3" t="s">
         <v>295</v>
@@ -8628,27 +8643,27 @@
     <row r="4" spans="1:17">
       <c r="A4" s="124"/>
       <c r="B4" s="107" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C4" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D4" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="E4" s="108">
-        <v>0.47222222222222227</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F4" s="108">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H4" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I4" s="108">
         <f>SUMIFS(F2:F16, C2:C16,H4)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="Q4" t="s">
         <v>297</v>
@@ -8657,20 +8672,20 @@
     <row r="5" spans="1:17">
       <c r="A5" s="124"/>
       <c r="B5" s="107" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="C5" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D5" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="E5" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.53125</v>
       </c>
       <c r="F5" s="108">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="H5" s="109" t="s">
         <v>297</v>
@@ -8686,20 +8701,20 @@
     <row r="6" spans="1:17">
       <c r="A6" s="124"/>
       <c r="B6" s="107" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C6" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D6" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="E6" s="108">
-        <v>0.54166666666666663</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F6" s="108">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H6" s="109" t="s">
         <v>300</v>
@@ -8715,20 +8730,20 @@
     <row r="7" spans="1:17">
       <c r="A7" s="124"/>
       <c r="B7" s="107" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>299</v>
       </c>
       <c r="D7" s="108">
-        <v>0.47222222222222227</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="E7" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="F7" s="108">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="H7" s="109" t="s">
         <v>302</v>
@@ -8744,84 +8759,92 @@
     <row r="8" spans="1:17">
       <c r="A8" s="124"/>
       <c r="B8" s="107" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D8" s="108">
-        <v>0.65625</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E8" s="108">
         <v>0.66666666666666663</v>
       </c>
       <c r="F8" s="108">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="H8" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I8" s="108">
         <f>SUMIFS(F2:F16, C2:C16,H8)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>4.8611111111111105E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="124"/>
       <c r="B9" s="107" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C9" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D9" s="108">
         <v>0.66666666666666663</v>
       </c>
       <c r="E9" s="108">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="F9" s="108">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H9" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I9" s="106">
         <f>SUM(I3:I8)</f>
-        <v>0.34027777777777773</v>
+        <v>0.38194444444444448</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="124"/>
-      <c r="B10" s="107" t="s">
-        <v>332</v>
+      <c r="B10" s="120" t="s">
+        <v>349</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D10" s="108">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="E10" s="108">
-        <v>0.875</v>
+        <v>0.71875</v>
       </c>
       <c r="F10" s="108">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>3.125E-2</v>
       </c>
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="124"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
+      <c r="B11" s="107" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="108">
+        <v>0.71875</v>
+      </c>
+      <c r="E11" s="108">
+        <v>0.75</v>
+      </c>
       <c r="F11" s="108">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="I11" s="110"/>
     </row>
@@ -9181,7 +9204,7 @@
         <v>54</v>
       </c>
       <c r="B32" s="107" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C32" s="107" t="s">
         <v>290</v>
@@ -9258,7 +9281,7 @@
     <row r="35" spans="1:9">
       <c r="A35" s="124"/>
       <c r="B35" s="107" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C35" s="107" t="s">
         <v>290</v>
@@ -9336,7 +9359,7 @@
     <row r="38" spans="1:9">
       <c r="A38" s="124"/>
       <c r="B38" s="107" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C38" s="107" t="s">
         <v>290</v>
@@ -9388,7 +9411,7 @@
     <row r="40" spans="1:9">
       <c r="A40" s="124"/>
       <c r="B40" s="107" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C40" s="107" t="s">
         <v>290</v>
@@ -9428,7 +9451,7 @@
     <row r="42" spans="1:9">
       <c r="A42" s="124"/>
       <c r="B42" s="107" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C42" s="107" t="s">
         <v>297</v>
@@ -9447,7 +9470,7 @@
     <row r="43" spans="1:9">
       <c r="A43" s="124"/>
       <c r="B43" s="107" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C43" s="107" t="s">
         <v>290</v>
@@ -9501,7 +9524,7 @@
         <v>318</v>
       </c>
       <c r="B47" s="107" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C47" s="107" t="s">
         <v>290</v>
@@ -9578,7 +9601,7 @@
     <row r="50" spans="1:9">
       <c r="A50" s="124"/>
       <c r="B50" s="107" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C50" s="107" t="s">
         <v>290</v>
@@ -9656,7 +9679,7 @@
     <row r="53" spans="1:9">
       <c r="A53" s="124"/>
       <c r="B53" s="107" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C53" s="107" t="s">
         <v>290</v>
@@ -9708,7 +9731,7 @@
     <row r="55" spans="1:9">
       <c r="A55" s="124"/>
       <c r="B55" s="107" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C55" s="107" t="s">
         <v>290</v>
@@ -9748,7 +9771,7 @@
     <row r="57" spans="1:9">
       <c r="A57" s="124"/>
       <c r="B57" s="107" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C57" s="107" t="s">
         <v>297</v>
@@ -9767,7 +9790,7 @@
     <row r="58" spans="1:9">
       <c r="A58" s="124"/>
       <c r="B58" s="107" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C58" s="107" t="s">
         <v>290</v>
@@ -9821,7 +9844,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="107" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C62" s="107" t="s">
         <v>290</v>
@@ -9898,7 +9921,7 @@
     <row r="65" spans="1:9">
       <c r="A65" s="124"/>
       <c r="B65" s="107" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C65" s="107" t="s">
         <v>290</v>
@@ -9976,7 +9999,7 @@
     <row r="68" spans="1:9">
       <c r="A68" s="124"/>
       <c r="B68" s="107" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C68" s="107" t="s">
         <v>290</v>
@@ -10002,7 +10025,7 @@
     <row r="69" spans="1:9">
       <c r="A69" s="124"/>
       <c r="B69" s="107" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C69" s="107" t="s">
         <v>299</v>
@@ -10028,7 +10051,7 @@
     <row r="70" spans="1:9">
       <c r="A70" s="124"/>
       <c r="B70" s="107" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C70" s="107" t="s">
         <v>290</v>
@@ -10068,7 +10091,7 @@
     <row r="72" spans="1:9">
       <c r="A72" s="124"/>
       <c r="B72" s="107" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C72" s="107" t="s">
         <v>290</v>
@@ -10454,7 +10477,7 @@
     <row r="93" spans="1:9">
       <c r="A93" s="124"/>
       <c r="B93" s="107" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C93" s="107" t="s">
         <v>290</v>
@@ -10506,7 +10529,7 @@
     <row r="95" spans="1:9">
       <c r="A95" s="124"/>
       <c r="B95" s="107" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C95" s="107" t="s">
         <v>290</v>
@@ -10584,7 +10607,7 @@
     <row r="98" spans="1:9">
       <c r="A98" s="124"/>
       <c r="B98" s="107" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C98" s="107" t="s">
         <v>290</v>
@@ -10610,7 +10633,7 @@
     <row r="99" spans="1:9">
       <c r="A99" s="124"/>
       <c r="B99" s="107" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C99" s="107" t="s">
         <v>290</v>
@@ -10656,7 +10679,7 @@
     <row r="101" spans="1:9">
       <c r="A101" s="124"/>
       <c r="B101" s="107" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C101" s="107" t="s">
         <v>290</v>
@@ -10676,7 +10699,7 @@
     <row r="102" spans="1:9">
       <c r="A102" s="124"/>
       <c r="B102" s="107" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C102" s="107" t="s">
         <v>297</v>
@@ -11037,7 +11060,7 @@
         <v>339</v>
       </c>
       <c r="B122" s="115" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>290</v>
@@ -11062,7 +11085,7 @@
     <row r="123" spans="1:9">
       <c r="A123" s="128"/>
       <c r="B123" s="115" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C123" s="107" t="s">
         <v>295</v>
@@ -11114,7 +11137,7 @@
     <row r="125" spans="1:9">
       <c r="A125" s="128"/>
       <c r="B125" s="115" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>290</v>
@@ -11140,7 +11163,7 @@
     <row r="126" spans="1:9">
       <c r="A126" s="128"/>
       <c r="B126" s="115" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C126" s="107" t="s">
         <v>290</v>
@@ -11218,7 +11241,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="128"/>
       <c r="B129" s="120" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C129" s="107" t="s">
         <v>290</v>
@@ -11264,7 +11287,7 @@
     <row r="131" spans="1:9">
       <c r="A131" s="128"/>
       <c r="B131" s="115" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C131" s="107" t="s">
         <v>290</v>
@@ -11284,7 +11307,7 @@
     <row r="132" spans="1:9">
       <c r="A132" s="128"/>
       <c r="B132" s="115" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C132" s="107" t="s">
         <v>300</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12F7712B-104B-4241-8BD4-E2EF61972969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB2A9B45-2C8B-4216-974A-9017A3F9877A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="380">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1457,6 +1457,21 @@
     <t>Team Meeting(Webapi and html layouts)</t>
   </si>
   <si>
+    <t>Explored on angular topics</t>
+  </si>
+  <si>
+    <t>Worked on HTML for Wizard method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed estimation sheet </t>
+  </si>
+  <si>
+    <t>Worked on responsive sidebar</t>
+  </si>
+  <si>
+    <t>Worked on the modififications in wizard method</t>
+  </si>
+  <si>
     <t>Worked on HTML layout Page(project)</t>
   </si>
   <si>
@@ -1481,13 +1496,7 @@
     <t xml:space="preserve">Reviewed estimation sheet and modified home page </t>
   </si>
   <si>
-    <t>Worked on responsive sidebar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Worked on the modififications in home page </t>
-  </si>
-  <si>
-    <t>Explored on angular topics</t>
   </si>
   <si>
     <t>Worked on home page and integrating it with responsive sidebar</t>
@@ -5649,7 +5658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84DE649-C5F3-4109-BE1F-71D1CBA3BD0C}">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
@@ -8542,8 +8551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5637F7A4-DF7F-491A-93FD-52364AFE80A8}">
   <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8592,14 +8601,14 @@
         <v>290</v>
       </c>
       <c r="D2" s="108">
-        <v>0.36458333333333331</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E2" s="108">
         <v>0.39583333333333331</v>
       </c>
       <c r="F2" s="108">
         <f>E2-D2</f>
-        <v>3.125E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H2" s="106" t="s">
         <v>291</v>
@@ -8634,7 +8643,7 @@
       </c>
       <c r="I3" s="108">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>0.29166666666666669</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="Q3" t="s">
         <v>295</v>
@@ -8692,7 +8701,7 @@
       </c>
       <c r="I5" s="108">
         <f>SUMIFS(F2:F16, C2:C16,H5)</f>
-        <v>0</v>
+        <v>7.2916666666666741E-2</v>
       </c>
       <c r="Q5" t="s">
         <v>300</v>
@@ -8721,7 +8730,7 @@
       </c>
       <c r="I6" s="108">
         <f>SUMIFS(F2:F16, C2:C16,H6)</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="Q6" t="s">
         <v>302</v>
@@ -8768,18 +8777,18 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="E8" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="F8" s="108">
         <f t="shared" si="0"/>
-        <v>9.375E-2</v>
+        <v>0.10416666666666674</v>
       </c>
       <c r="H8" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I8" s="108">
         <f>SUMIFS(F2:F16, C2:C16,H8)</f>
-        <v>4.8611111111111105E-2</v>
+        <v>3.8194444444444364E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -8791,21 +8800,21 @@
         <v>299</v>
       </c>
       <c r="D9" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E9" s="108">
         <v>0.6875</v>
       </c>
       <c r="F9" s="108">
         <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H9" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I9" s="106">
         <f>SUM(I3:I8)</f>
-        <v>0.38194444444444448</v>
+        <v>0.43402777777777785</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -8814,7 +8823,7 @@
         <v>349</v>
       </c>
       <c r="C10" s="107" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D10" s="108">
         <v>0.6875</v>
@@ -8834,7 +8843,7 @@
         <v>350</v>
       </c>
       <c r="C11" s="107" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D11" s="108">
         <v>0.71875</v>
@@ -8850,13 +8859,21 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="124"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
+      <c r="B12" s="107" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" s="107" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12" s="108">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E12" s="108">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="F12" s="108">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -8908,20 +8925,20 @@
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="C17" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D17" s="108">
-        <v>0.41666666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E17" s="108">
-        <v>0.4236111111111111</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F17" s="108">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H17" s="106" t="s">
         <v>291</v>
@@ -8939,220 +8956,236 @@
         <v>295</v>
       </c>
       <c r="D18" s="108">
-        <v>0.42708333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E18" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="F18" s="108">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H18" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I18" s="108">
         <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
-        <v>0.10416666666666674</v>
+        <v>0.22916666666666657</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="124"/>
       <c r="B19" s="107" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C19" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D19" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="E19" s="108">
-        <v>0.47222222222222227</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F19" s="108">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H19" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I19" s="108">
         <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="124"/>
       <c r="B20" s="107" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="C20" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D20" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="E20" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.53125</v>
       </c>
       <c r="F20" s="108">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="H20" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I20" s="108">
         <f t="shared" ref="I20" si="3">SUMIFS(F17:F31, C17:C31,H20)</f>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="124"/>
       <c r="B21" s="107" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="C21" s="107" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D21" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="E21" s="108">
-        <v>0.54166666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="F21" s="108">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H21" s="109" t="s">
         <v>300</v>
       </c>
       <c r="I21" s="108">
         <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
-        <v>0.125</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="124"/>
       <c r="B22" s="107" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C22" s="107" t="s">
         <v>299</v>
       </c>
       <c r="D22" s="108">
-        <v>0.47222222222222227</v>
+        <v>0.5625</v>
       </c>
       <c r="E22" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F22" s="108">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H22" s="109" t="s">
         <v>302</v>
       </c>
       <c r="I22" s="108">
         <f t="shared" ref="I22" si="5">SUMIFS(F17:F31, C17:C31,H22)</f>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="124"/>
       <c r="B23" s="107" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="C23" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D23" s="108">
-        <v>0.65625</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="E23" s="108">
         <v>0.66666666666666663</v>
       </c>
       <c r="F23" s="108">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>7.638888888888884E-2</v>
       </c>
       <c r="H23" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I23" s="108">
         <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>5.2083333333333426E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="124"/>
       <c r="B24" s="107" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C24" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D24" s="108">
         <v>0.66666666666666663</v>
       </c>
       <c r="E24" s="108">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="F24" s="108">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H24" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I24" s="106">
         <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
-        <v>0.34027777777777773</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="124"/>
       <c r="B25" s="107" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="C25" s="107" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D25" s="108">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="E25" s="108">
-        <v>0.875</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="F25" s="108">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="124"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
+      <c r="B26" s="107" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26" s="107" t="s">
+        <v>300</v>
+      </c>
+      <c r="D26" s="108">
+        <v>0.71875</v>
+      </c>
+      <c r="E26" s="108">
+        <v>0.75</v>
+      </c>
       <c r="F26" s="108">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="124"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
+      <c r="B27" s="107" t="s">
+        <v>351</v>
+      </c>
+      <c r="C27" s="107" t="s">
+        <v>297</v>
+      </c>
+      <c r="D27" s="108">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E27" s="108">
+        <v>0.875</v>
+      </c>
       <c r="F27" s="108">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -9204,7 +9237,7 @@
         <v>54</v>
       </c>
       <c r="B32" s="107" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C32" s="107" t="s">
         <v>290</v>
@@ -9281,7 +9314,7 @@
     <row r="35" spans="1:9">
       <c r="A35" s="124"/>
       <c r="B35" s="107" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C35" s="107" t="s">
         <v>290</v>
@@ -9359,7 +9392,7 @@
     <row r="38" spans="1:9">
       <c r="A38" s="124"/>
       <c r="B38" s="107" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C38" s="107" t="s">
         <v>290</v>
@@ -9411,7 +9444,7 @@
     <row r="40" spans="1:9">
       <c r="A40" s="124"/>
       <c r="B40" s="107" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C40" s="107" t="s">
         <v>290</v>
@@ -9451,7 +9484,7 @@
     <row r="42" spans="1:9">
       <c r="A42" s="124"/>
       <c r="B42" s="107" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C42" s="107" t="s">
         <v>297</v>
@@ -9470,7 +9503,7 @@
     <row r="43" spans="1:9">
       <c r="A43" s="124"/>
       <c r="B43" s="107" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C43" s="107" t="s">
         <v>290</v>
@@ -9524,7 +9557,7 @@
         <v>318</v>
       </c>
       <c r="B47" s="107" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C47" s="107" t="s">
         <v>290</v>
@@ -9601,7 +9634,7 @@
     <row r="50" spans="1:9">
       <c r="A50" s="124"/>
       <c r="B50" s="107" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C50" s="107" t="s">
         <v>290</v>
@@ -9679,7 +9712,7 @@
     <row r="53" spans="1:9">
       <c r="A53" s="124"/>
       <c r="B53" s="107" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C53" s="107" t="s">
         <v>290</v>
@@ -9731,7 +9764,7 @@
     <row r="55" spans="1:9">
       <c r="A55" s="124"/>
       <c r="B55" s="107" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C55" s="107" t="s">
         <v>290</v>
@@ -9771,7 +9804,7 @@
     <row r="57" spans="1:9">
       <c r="A57" s="124"/>
       <c r="B57" s="107" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C57" s="107" t="s">
         <v>297</v>
@@ -9790,7 +9823,7 @@
     <row r="58" spans="1:9">
       <c r="A58" s="124"/>
       <c r="B58" s="107" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C58" s="107" t="s">
         <v>290</v>
@@ -9844,7 +9877,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="107" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C62" s="107" t="s">
         <v>290</v>
@@ -9921,7 +9954,7 @@
     <row r="65" spans="1:9">
       <c r="A65" s="124"/>
       <c r="B65" s="107" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C65" s="107" t="s">
         <v>290</v>
@@ -9999,7 +10032,7 @@
     <row r="68" spans="1:9">
       <c r="A68" s="124"/>
       <c r="B68" s="107" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C68" s="107" t="s">
         <v>290</v>
@@ -10025,7 +10058,7 @@
     <row r="69" spans="1:9">
       <c r="A69" s="124"/>
       <c r="B69" s="107" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C69" s="107" t="s">
         <v>299</v>
@@ -10051,7 +10084,7 @@
     <row r="70" spans="1:9">
       <c r="A70" s="124"/>
       <c r="B70" s="107" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C70" s="107" t="s">
         <v>290</v>
@@ -10091,7 +10124,7 @@
     <row r="72" spans="1:9">
       <c r="A72" s="124"/>
       <c r="B72" s="107" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C72" s="107" t="s">
         <v>290</v>
@@ -10477,7 +10510,7 @@
     <row r="93" spans="1:9">
       <c r="A93" s="124"/>
       <c r="B93" s="107" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C93" s="107" t="s">
         <v>290</v>
@@ -10529,7 +10562,7 @@
     <row r="95" spans="1:9">
       <c r="A95" s="124"/>
       <c r="B95" s="107" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C95" s="107" t="s">
         <v>290</v>
@@ -10607,7 +10640,7 @@
     <row r="98" spans="1:9">
       <c r="A98" s="124"/>
       <c r="B98" s="107" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C98" s="107" t="s">
         <v>290</v>
@@ -10633,7 +10666,7 @@
     <row r="99" spans="1:9">
       <c r="A99" s="124"/>
       <c r="B99" s="107" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C99" s="107" t="s">
         <v>290</v>
@@ -10679,7 +10712,7 @@
     <row r="101" spans="1:9">
       <c r="A101" s="124"/>
       <c r="B101" s="107" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C101" s="107" t="s">
         <v>290</v>
@@ -10699,7 +10732,7 @@
     <row r="102" spans="1:9">
       <c r="A102" s="124"/>
       <c r="B102" s="107" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C102" s="107" t="s">
         <v>297</v>
@@ -11060,7 +11093,7 @@
         <v>339</v>
       </c>
       <c r="B122" s="115" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>290</v>
@@ -11085,7 +11118,7 @@
     <row r="123" spans="1:9">
       <c r="A123" s="128"/>
       <c r="B123" s="115" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C123" s="107" t="s">
         <v>295</v>
@@ -11137,7 +11170,7 @@
     <row r="125" spans="1:9">
       <c r="A125" s="128"/>
       <c r="B125" s="115" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>290</v>
@@ -11163,7 +11196,7 @@
     <row r="126" spans="1:9">
       <c r="A126" s="128"/>
       <c r="B126" s="115" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C126" s="107" t="s">
         <v>290</v>
@@ -11241,7 +11274,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="128"/>
       <c r="B129" s="120" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C129" s="107" t="s">
         <v>290</v>
@@ -11287,7 +11320,7 @@
     <row r="131" spans="1:9">
       <c r="A131" s="128"/>
       <c r="B131" s="115" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C131" s="107" t="s">
         <v>290</v>
@@ -11307,7 +11340,7 @@
     <row r="132" spans="1:9">
       <c r="A132" s="128"/>
       <c r="B132" s="115" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C132" s="107" t="s">
         <v>300</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB2A9B45-2C8B-4216-974A-9017A3F9877A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE8BD76B-5E3D-4445-91C6-9B2B2C8A9E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="385">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1512,6 +1512,21 @@
   </si>
   <si>
     <t>Worked on HTML layout(Education)</t>
+  </si>
+  <si>
+    <t>Worked on HTML layout(Achivements)</t>
+  </si>
+  <si>
+    <t>Modifying MyProfile page</t>
+  </si>
+  <si>
+    <t>Timesheet Entering</t>
+  </si>
+  <si>
+    <t>Modifying create Page</t>
+  </si>
+  <si>
+    <t>Exploration on web API</t>
   </si>
   <si>
     <t>WebAPI</t>
@@ -8551,8 +8566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5637F7A4-DF7F-491A-93FD-52364AFE80A8}">
   <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8643,7 +8658,7 @@
       </c>
       <c r="I3" s="108">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>0.25000000000000006</v>
+        <v>0.25347222222222227</v>
       </c>
       <c r="Q3" t="s">
         <v>295</v>
@@ -8748,11 +8763,11 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="E7" s="108">
-        <v>0.57291666666666663</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="F7" s="108">
         <f t="shared" si="0"/>
-        <v>1.7361111111111049E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H7" s="109" t="s">
         <v>302</v>
@@ -8774,21 +8789,21 @@
         <v>290</v>
       </c>
       <c r="D8" s="108">
-        <v>0.57291666666666663</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="E8" s="108">
         <v>0.67708333333333337</v>
       </c>
       <c r="F8" s="108">
         <f t="shared" si="0"/>
-        <v>0.10416666666666674</v>
+        <v>0.10763888888888895</v>
       </c>
       <c r="H8" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I8" s="108">
         <f>SUMIFS(F2:F16, C2:C16,H8)</f>
-        <v>3.8194444444444364E-2</v>
+        <v>3.4722222222222154E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -10018,7 +10033,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="F67" s="108">
-        <f t="shared" ref="D67:F130" si="26">E67-D67</f>
+        <f t="shared" ref="F67:F130" si="26">E67-D67</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="H67" s="109" t="s">
@@ -10124,7 +10139,7 @@
     <row r="72" spans="1:9">
       <c r="A72" s="124"/>
       <c r="B72" s="107" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C72" s="107" t="s">
         <v>290</v>
@@ -10189,20 +10204,20 @@
         <v>67</v>
       </c>
       <c r="B77" s="107" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="C77" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D77" s="108">
-        <v>0.41666666666666669</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="E77" s="108">
-        <v>0.4236111111111111</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F77" s="108">
         <f t="shared" si="26"/>
-        <v>6.9444444444444198E-3</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H77" s="106" t="s">
         <v>291</v>
@@ -10220,62 +10235,62 @@
         <v>295</v>
       </c>
       <c r="D78" s="108">
-        <v>0.42708333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E78" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="F78" s="108">
         <f t="shared" si="26"/>
-        <v>3.125E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H78" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I78" s="108">
         <f t="shared" ref="I78" si="30">SUMIFS(F77:F91, C77:C91,H78)</f>
-        <v>0.22916666666666674</v>
+        <v>0.2638888888888889</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="124"/>
       <c r="B79" s="107" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C79" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D79" s="108">
+        <v>0.4375</v>
+      </c>
+      <c r="E79" s="108">
         <v>0.45833333333333331</v>
-      </c>
-      <c r="E79" s="108">
-        <v>0.47222222222222227</v>
       </c>
       <c r="F79" s="108">
         <f t="shared" si="26"/>
-        <v>1.3888888888888951E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H79" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I79" s="108">
         <f t="shared" ref="I79" si="31">SUMIFS(F77:F91, C77:C91,H79)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>9.7222222222222154E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="124"/>
       <c r="B80" s="107" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="C80" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D80" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E80" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="F80" s="108">
         <f t="shared" si="26"/>
@@ -10292,46 +10307,46 @@
     <row r="81" spans="1:9">
       <c r="A81" s="124"/>
       <c r="B81" s="107" t="s">
-        <v>298</v>
+        <v>372</v>
       </c>
       <c r="C81" s="107" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D81" s="108">
+        <v>0.5</v>
+      </c>
+      <c r="E81" s="108">
         <v>0.52083333333333337</v>
-      </c>
-      <c r="E81" s="108">
-        <v>0.54166666666666663</v>
       </c>
       <c r="F81" s="108">
         <f t="shared" si="26"/>
-        <v>2.0833333333333259E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H81" s="109" t="s">
         <v>300</v>
       </c>
       <c r="I81" s="108">
         <f t="shared" ref="I81" si="33">SUMIFS(F77:F91, C77:C91,H81)</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="124"/>
       <c r="B82" s="107" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="C82" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D82" s="108">
-        <v>0.47222222222222227</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E82" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F82" s="108">
         <f t="shared" si="26"/>
-        <v>6.9444444444444198E-3</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="H82" s="109" t="s">
         <v>302</v>
@@ -10344,118 +10359,150 @@
     <row r="83" spans="1:9">
       <c r="A83" s="124"/>
       <c r="B83" s="107" t="s">
-        <v>303</v>
+        <v>371</v>
       </c>
       <c r="C83" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D83" s="108">
-        <v>0.65625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E83" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="F83" s="108">
         <f t="shared" si="26"/>
-        <v>1.041666666666663E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H83" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I83" s="108">
         <f t="shared" ref="I83" si="35">SUMIFS(F77:F91, C77:C91,H83)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="124"/>
       <c r="B84" s="107" t="s">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="C84" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D84" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="E84" s="108">
-        <v>0.75</v>
+        <v>0.65625</v>
       </c>
       <c r="F84" s="108">
         <f t="shared" si="26"/>
-        <v>8.333333333333337E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H84" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I84" s="106">
         <f t="shared" ref="I84" si="36">SUM(I78:I83)</f>
-        <v>0.34027777777777773</v>
+        <v>0.43402777777777773</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="124"/>
       <c r="B85" s="107" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="C85" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D85" s="108">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E85" s="108">
-        <v>0.875</v>
+        <v>0.6875</v>
       </c>
       <c r="F85" s="108">
         <f t="shared" si="26"/>
-        <v>0.125</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="I85" s="110"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="124"/>
-      <c r="B86" s="107"/>
-      <c r="C86" s="107"/>
-      <c r="D86" s="108"/>
-      <c r="E86" s="108"/>
+      <c r="B86" s="107" t="s">
+        <v>373</v>
+      </c>
+      <c r="C86" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D86" s="108">
+        <v>0.6875</v>
+      </c>
+      <c r="E86" s="108">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F86" s="108">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="I86" s="110"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="124"/>
-      <c r="B87" s="107"/>
-      <c r="C87" s="107"/>
-      <c r="D87" s="108"/>
-      <c r="E87" s="108"/>
+      <c r="B87" s="107" t="s">
+        <v>314</v>
+      </c>
+      <c r="C87" s="107" t="s">
+        <v>300</v>
+      </c>
+      <c r="D87" s="108">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E87" s="108">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F87" s="108">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="124"/>
-      <c r="B88" s="107"/>
-      <c r="C88" s="107"/>
-      <c r="D88" s="108"/>
-      <c r="E88" s="108"/>
+      <c r="B88" s="107" t="s">
+        <v>371</v>
+      </c>
+      <c r="C88" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D88" s="108">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E88" s="108">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="F88" s="108">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f>E88-D88</f>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="124"/>
-      <c r="B89" s="107"/>
-      <c r="C89" s="107"/>
-      <c r="D89" s="108"/>
-      <c r="E89" s="108"/>
+      <c r="B89" s="107" t="s">
+        <v>374</v>
+      </c>
+      <c r="C89" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D89" s="108">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E89" s="108">
+        <v>0.99305555555555547</v>
+      </c>
       <c r="F89" s="108">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f>E89-D89</f>
+        <v>3.4722222222222099E-2</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -10510,7 +10557,7 @@
     <row r="93" spans="1:9">
       <c r="A93" s="124"/>
       <c r="B93" s="107" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C93" s="107" t="s">
         <v>290</v>
@@ -10562,7 +10609,7 @@
     <row r="95" spans="1:9">
       <c r="A95" s="124"/>
       <c r="B95" s="107" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C95" s="107" t="s">
         <v>290</v>
@@ -10640,7 +10687,7 @@
     <row r="98" spans="1:9">
       <c r="A98" s="124"/>
       <c r="B98" s="107" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C98" s="107" t="s">
         <v>290</v>
@@ -10666,7 +10713,7 @@
     <row r="99" spans="1:9">
       <c r="A99" s="124"/>
       <c r="B99" s="107" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C99" s="107" t="s">
         <v>290</v>
@@ -10712,7 +10759,7 @@
     <row r="101" spans="1:9">
       <c r="A101" s="124"/>
       <c r="B101" s="107" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C101" s="107" t="s">
         <v>290</v>
@@ -10732,7 +10779,7 @@
     <row r="102" spans="1:9">
       <c r="A102" s="124"/>
       <c r="B102" s="107" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C102" s="107" t="s">
         <v>297</v>
@@ -11093,7 +11140,7 @@
         <v>339</v>
       </c>
       <c r="B122" s="115" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>290</v>
@@ -11118,7 +11165,7 @@
     <row r="123" spans="1:9">
       <c r="A123" s="128"/>
       <c r="B123" s="115" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C123" s="107" t="s">
         <v>295</v>
@@ -11170,7 +11217,7 @@
     <row r="125" spans="1:9">
       <c r="A125" s="128"/>
       <c r="B125" s="115" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>290</v>
@@ -11196,7 +11243,7 @@
     <row r="126" spans="1:9">
       <c r="A126" s="128"/>
       <c r="B126" s="115" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C126" s="107" t="s">
         <v>290</v>
@@ -11274,7 +11321,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="128"/>
       <c r="B129" s="120" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C129" s="107" t="s">
         <v>290</v>
@@ -11320,7 +11367,7 @@
     <row r="131" spans="1:9">
       <c r="A131" s="128"/>
       <c r="B131" s="115" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C131" s="107" t="s">
         <v>290</v>
@@ -11340,7 +11387,7 @@
     <row r="132" spans="1:9">
       <c r="A132" s="128"/>
       <c r="B132" s="115" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C132" s="107" t="s">
         <v>300</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{462B1689-35C2-4BCD-8B9C-540616366233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5B95799-65FC-4FD0-B15F-6B92C3DD180A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="23" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="23" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="476">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1627,7 +1627,7 @@
     <t>Worked on Angular(components)</t>
   </si>
   <si>
-    <t>Worked on HTML (achivements)</t>
+    <t>Modified on HTML (achivements)</t>
   </si>
   <si>
     <t>Explored Anugular Concept</t>
@@ -1675,6 +1675,12 @@
     <t>Worked on Angular for home page content</t>
   </si>
   <si>
+    <t>Worked on HTML page(Education Page)</t>
+  </si>
+  <si>
+    <t>Modified the layout for Wizard type</t>
+  </si>
+  <si>
     <t>Explored Angular basic conpects</t>
   </si>
   <si>
@@ -1735,6 +1741,12 @@
     <t>worked on API</t>
   </si>
   <si>
+    <t>Worked on webAPI</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
     <t>worked on webAPI</t>
   </si>
   <si>
@@ -1757,6 +1769,18 @@
   </si>
   <si>
     <t>Explored on Databinding</t>
+  </si>
+  <si>
+    <t>Updated Timesheet</t>
+  </si>
+  <si>
+    <t>Worked on Web Api(Userservices - Models and Dbcontext)</t>
+  </si>
+  <si>
+    <t>Worked on Web api(Datafactory)</t>
+  </si>
+  <si>
+    <t>Worked on Web Api(logger)</t>
   </si>
   <si>
     <t>Worked on angular for profile history</t>
@@ -1973,7 +1997,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2348,11 +2372,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2698,6 +2731,10 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10118,7 +10155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5637F7A4-DF7F-491A-93FD-52364AFE80A8}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
+    <sheetView topLeftCell="B27" workbookViewId="0">
       <selection activeCell="B27" sqref="B27:F27"/>
     </sheetView>
   </sheetViews>
@@ -13479,8 +13516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E469F2C2-993F-4F48-8C74-266B916F6309}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16493,8 +16530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30934AA5-FE34-4D93-9147-E487E171875A}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17721,48 +17758,42 @@
         <v>407</v>
       </c>
       <c r="C61" s="107" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D61" s="108">
-        <v>0.39583333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E61" s="108">
-        <v>0.4375</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="F61" s="108">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>4.8611111111111105E-2</v>
       </c>
       <c r="H61" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I61" s="108">
         <f t="shared" ref="I61" si="10">SUMIFS(F60:F74, C60:C74,H61)</f>
-        <v>0.30902777777777773</v>
+        <v>0.13541666666666663</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="124"/>
       <c r="B62" s="107"/>
-      <c r="C62" s="107" t="s">
-        <v>295</v>
-      </c>
-      <c r="D62" s="108">
-        <v>0.4375</v>
-      </c>
-      <c r="E62" s="108">
-        <v>0.4548611111111111</v>
-      </c>
+      <c r="C62" s="107"/>
+      <c r="D62" s="108"/>
+      <c r="E62" s="108"/>
       <c r="F62" s="108">
         <f t="shared" si="0"/>
-        <v>1.7361111111111105E-2</v>
+        <v>0</v>
       </c>
       <c r="H62" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I62" s="108">
         <f t="shared" ref="I62" si="11">SUMIFS(F60:F74, C60:C74,H62)</f>
-        <v>5.902777777777779E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -17774,66 +17805,50 @@
         <v>290</v>
       </c>
       <c r="D63" s="108">
-        <v>0.47916666666666669</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E63" s="108">
-        <v>0.53472222222222221</v>
+        <v>0.59375</v>
       </c>
       <c r="F63" s="108">
         <f t="shared" si="0"/>
-        <v>5.5555555555555525E-2</v>
+        <v>7.291666666666663E-2</v>
       </c>
       <c r="H63" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I63" s="108">
         <f t="shared" ref="I63" si="12">SUMIFS(F60:F74, C60:C74,H63)</f>
-        <v>0</v>
+        <v>4.8611111111111105E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="124"/>
-      <c r="B64" s="107" t="s">
-        <v>322</v>
-      </c>
-      <c r="C64" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="D64" s="108">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="E64" s="108">
-        <v>0.5625</v>
-      </c>
+      <c r="B64" s="107"/>
+      <c r="C64" s="107"/>
+      <c r="D64" s="108"/>
+      <c r="E64" s="108"/>
       <c r="F64" s="108">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
+        <v>0</v>
       </c>
       <c r="H64" s="109" t="s">
         <v>300</v>
       </c>
       <c r="I64" s="108">
         <f t="shared" ref="I64" si="13">SUMIFS(F60:F74, C60:C74,H64)</f>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="124"/>
-      <c r="B65" s="107" t="s">
-        <v>298</v>
-      </c>
-      <c r="C65" s="107" t="s">
-        <v>299</v>
-      </c>
-      <c r="D65" s="108">
-        <v>0.5625</v>
-      </c>
-      <c r="E65" s="108">
-        <v>0.59027777777777779</v>
-      </c>
+      <c r="B65" s="107"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="108"/>
       <c r="F65" s="108">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
+        <v>0</v>
       </c>
       <c r="H65" s="109" t="s">
         <v>302</v>
@@ -17845,113 +17860,73 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="124"/>
-      <c r="B66" s="107" t="s">
-        <v>367</v>
-      </c>
-      <c r="C66" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="D66" s="108">
-        <v>0.59375</v>
-      </c>
-      <c r="E66" s="108">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="B66" s="107"/>
+      <c r="C66" s="107"/>
+      <c r="D66" s="108"/>
+      <c r="E66" s="108"/>
       <c r="F66" s="108">
         <f t="shared" si="0"/>
-        <v>7.291666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="H66" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I66" s="108">
         <f t="shared" ref="I66" si="15">SUMIFS(F60:F74, C60:C74,H66)</f>
-        <v>4.861111111111116E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="124"/>
-      <c r="B67" s="107" t="s">
-        <v>368</v>
-      </c>
-      <c r="C67" s="107" t="s">
-        <v>299</v>
-      </c>
-      <c r="D67" s="108">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E67" s="108">
-        <v>0.6875</v>
-      </c>
+      <c r="B67" s="107"/>
+      <c r="C67" s="107"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="108"/>
       <c r="F67" s="108">
         <f t="shared" ref="F67:F130" si="16">E67-D67</f>
-        <v>2.083333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="H67" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I67" s="106">
         <f t="shared" ref="I67" si="17">SUM(I61:I66)</f>
-        <v>0.44791666666666669</v>
+        <v>0.18402777777777773</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="124"/>
-      <c r="B68" s="107" t="s">
-        <v>369</v>
-      </c>
-      <c r="C68" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="D68" s="108">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E68" s="108">
-        <v>0.71527777777777779</v>
-      </c>
+      <c r="B68" s="107"/>
+      <c r="C68" s="107"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="108"/>
       <c r="F68" s="108">
         <f t="shared" si="16"/>
-        <v>4.861111111111116E-2</v>
+        <v>0</v>
       </c>
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="124"/>
-      <c r="B69" s="107" t="s">
-        <v>314</v>
-      </c>
-      <c r="C69" s="107" t="s">
-        <v>300</v>
-      </c>
-      <c r="D69" s="108">
-        <v>0.71875</v>
-      </c>
-      <c r="E69" s="108">
-        <v>0.75</v>
-      </c>
+      <c r="B69" s="107"/>
+      <c r="C69" s="107"/>
+      <c r="D69" s="108"/>
+      <c r="E69" s="108"/>
       <c r="F69" s="108">
         <f t="shared" si="16"/>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="124"/>
-      <c r="B70" s="107" t="s">
-        <v>370</v>
-      </c>
-      <c r="C70" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="D70" s="108">
-        <v>0.875</v>
-      </c>
-      <c r="E70" s="108">
-        <v>0.91666666666666663</v>
-      </c>
+      <c r="B70" s="107"/>
+      <c r="C70" s="107"/>
+      <c r="D70" s="108"/>
+      <c r="E70" s="108"/>
       <c r="F70" s="108">
         <f t="shared" si="16"/>
-        <v>4.166666666666663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -19361,8 +19336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F5FAB4-9E65-460D-998C-A6B05E121251}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20569,7 +20544,7 @@
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
-        <v>366</v>
+        <v>422</v>
       </c>
       <c r="C60" s="107" t="s">
         <v>290</v>
@@ -20578,11 +20553,11 @@
         <v>0.375</v>
       </c>
       <c r="E60" s="108">
-        <v>0.3923611111111111</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="F60" s="108">
         <f t="shared" si="0"/>
-        <v>1.7361111111111105E-2</v>
+        <v>9.0277777777777735E-2</v>
       </c>
       <c r="H60" s="106" t="s">
         <v>291</v>
@@ -20594,53 +20569,53 @@
     <row r="61" spans="1:9">
       <c r="A61" s="124"/>
       <c r="B61" s="107" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="C61" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D61" s="108">
-        <v>0.39583333333333331</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="E61" s="108">
-        <v>0.4375</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="F61" s="108">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>6.9444444444444475E-2</v>
       </c>
       <c r="H61" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I61" s="108">
         <f t="shared" ref="I61" si="10">SUMIFS(F60:F74, C60:C74,H61)</f>
-        <v>0.26388888888888884</v>
+        <v>0.40624999999999994</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="124"/>
       <c r="B62" s="107" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C62" s="107" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D62" s="108">
-        <v>0.4375</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E62" s="108">
-        <v>0.4548611111111111</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F62" s="108">
         <f t="shared" si="0"/>
-        <v>1.7361111111111105E-2</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H62" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I62" s="108">
         <f t="shared" ref="I62" si="11">SUMIFS(F60:F74, C60:C74,H62)</f>
-        <v>5.902777777777779E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -20692,7 +20667,7 @@
       </c>
       <c r="I64" s="108">
         <f t="shared" ref="I64" si="13">SUMIFS(F60:F74, C60:C74,H64)</f>
-        <v>3.125E-2</v>
+        <v>5.2083333333333259E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -20770,7 +20745,7 @@
       </c>
       <c r="I67" s="106">
         <f t="shared" ref="I67" si="17">SUM(I61:I66)</f>
-        <v>0.40277777777777779</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -21817,7 +21792,7 @@
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C120" s="107" t="s">
         <v>297</v>
@@ -21868,7 +21843,7 @@
     <row r="122" spans="1:9">
       <c r="A122" s="128"/>
       <c r="B122" s="115" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>300</v>
@@ -21946,7 +21921,7 @@
     <row r="125" spans="1:9">
       <c r="A125" s="128"/>
       <c r="B125" s="115" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>290</v>
@@ -22239,8 +22214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEFA632-027C-44B7-B2E8-75A517756B1E}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135:F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22283,7 +22258,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>290</v>
@@ -22340,7 +22315,7 @@
     <row r="4" spans="1:17">
       <c r="A4" s="124"/>
       <c r="B4" s="107" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>290</v>
@@ -22369,7 +22344,7 @@
     <row r="5" spans="1:17">
       <c r="A5" s="124"/>
       <c r="B5" s="107" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>290</v>
@@ -22427,7 +22402,7 @@
     <row r="7" spans="1:17">
       <c r="A7" s="124"/>
       <c r="B7" s="107" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>290</v>
@@ -22482,7 +22457,7 @@
     <row r="9" spans="1:17">
       <c r="A9" s="124"/>
       <c r="B9" s="107" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C9" s="107" t="s">
         <v>297</v>
@@ -22528,7 +22503,7 @@
     <row r="11" spans="1:17">
       <c r="A11" s="124"/>
       <c r="B11" s="107" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C11" s="107" t="s">
         <v>297</v>
@@ -22906,7 +22881,7 @@
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C31" s="107" t="s">
         <v>290</v>
@@ -23226,7 +23201,7 @@
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C46" s="107" t="s">
         <v>290</v>
@@ -23277,7 +23252,7 @@
     <row r="48" spans="1:9">
       <c r="A48" s="124"/>
       <c r="B48" s="107" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C48" s="107" t="s">
         <v>290</v>
@@ -23329,7 +23304,7 @@
     <row r="50" spans="1:9">
       <c r="A50" s="124"/>
       <c r="B50" s="107" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C50" s="107" t="s">
         <v>290</v>
@@ -23381,7 +23356,7 @@
     <row r="52" spans="1:9">
       <c r="A52" s="124"/>
       <c r="B52" s="107" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C52" s="107" t="s">
         <v>297</v>
@@ -23503,7 +23478,7 @@
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C60" s="107" t="s">
         <v>297</v>
@@ -23580,7 +23555,7 @@
     <row r="63" spans="1:9">
       <c r="A63" s="124"/>
       <c r="B63" s="107" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C63" s="107" t="s">
         <v>295</v>
@@ -23632,7 +23607,7 @@
     <row r="65" spans="1:9">
       <c r="A65" s="124"/>
       <c r="B65" s="107" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C65" s="107" t="s">
         <v>295</v>
@@ -23658,7 +23633,7 @@
     <row r="66" spans="1:9">
       <c r="A66" s="124"/>
       <c r="B66" s="107" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C66" s="107" t="s">
         <v>295</v>
@@ -23696,7 +23671,7 @@
         <v>0.6875</v>
       </c>
       <c r="F67" s="108">
-        <f t="shared" ref="F67:F129" si="16">E67-D67</f>
+        <f t="shared" ref="F67:F130" si="16">E67-D67</f>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H67" s="105" t="s">
@@ -23710,7 +23685,7 @@
     <row r="68" spans="1:9">
       <c r="A68" s="124"/>
       <c r="B68" s="107" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C68" s="107" t="s">
         <v>290</v>
@@ -23730,7 +23705,7 @@
     <row r="69" spans="1:9">
       <c r="A69" s="124"/>
       <c r="B69" s="107" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C69" s="107" t="s">
         <v>290</v>
@@ -23807,7 +23782,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C75" s="107" t="s">
         <v>297</v>
@@ -23832,7 +23807,7 @@
     <row r="76" spans="1:9">
       <c r="A76" s="124"/>
       <c r="B76" s="107" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C76" s="107" t="s">
         <v>290</v>
@@ -23851,8 +23826,8 @@
         <v>290</v>
       </c>
       <c r="I76" s="108">
-        <f>SUMIFS(F75:F88, C75:C88,H76)</f>
-        <v>0.29513888888888895</v>
+        <f>SUMIFS(F75:F89, C75:C89,H76)</f>
+        <v>0.2326388888888889</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -23877,207 +23852,195 @@
         <v>295</v>
       </c>
       <c r="I77" s="108">
-        <f>SUMIFS(F75:F88, C75:C88,H77)</f>
-        <v>3.4722222222222099E-2</v>
+        <f>SUMIFS(F75:F89, C75:C89,H77)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="124"/>
-      <c r="B78" s="107"/>
+      <c r="B78" s="107" t="s">
+        <v>444</v>
+      </c>
       <c r="C78" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D78" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.46875</v>
       </c>
       <c r="E78" s="108">
-        <v>0.5</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F78" s="108">
-        <f t="shared" si="16"/>
-        <v>4.1666666666666685E-2</v>
+        <f>E78-D78</f>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="H78" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I78" s="108">
-        <f>SUMIFS(F75:F88, C75:C88,H78)</f>
-        <v>0.13541666666666674</v>
+        <f>SUMIFS(F75:F89, C75:C89,H78)</f>
+        <v>0.17708333333333348</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="124"/>
       <c r="B79" s="107" t="s">
-        <v>314</v>
+        <v>445</v>
       </c>
       <c r="C79" s="107" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D79" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E79" s="108">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F79" s="108">
         <f t="shared" si="16"/>
-        <v>2.0833333333333259E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="H79" s="109" t="s">
         <v>300</v>
       </c>
       <c r="I79" s="108">
-        <f>SUMIFS(F75:F88, C75:C88,H79)</f>
+        <f>SUMIFS(F75:F89, C75:C89,H79)</f>
         <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="124"/>
       <c r="B80" s="107" t="s">
-        <v>442</v>
+        <v>314</v>
       </c>
       <c r="C80" s="107" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D80" s="108">
-        <v>0.58333333333333337</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E80" s="108">
-        <v>0.70833333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F80" s="108">
         <f t="shared" si="16"/>
-        <v>0.125</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H80" s="109" t="s">
         <v>302</v>
       </c>
       <c r="I80" s="108">
-        <f>SUMIFS(F75:F88, C75:C88,H80)</f>
+        <f>SUMIFS(F75:F89, C75:C89,H80)</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="124"/>
-      <c r="B81" t="s">
-        <v>443</v>
+      <c r="B81" s="107" t="s">
+        <v>446</v>
       </c>
       <c r="C81" s="107" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D81" s="108">
-        <v>0.75</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E81" s="108">
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F81" s="108">
         <f t="shared" si="16"/>
-        <v>8.333333333333337E-2</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="H81" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I81" s="108">
-        <f>SUMIFS(F75:F88, C75:C88,H81)</f>
-        <v>2.0833333333333315E-2</v>
+        <f>SUMIFS(F75:F89, C75:C89,H81)</f>
+        <v>6.2500000000000056E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="124"/>
-      <c r="B82" s="107" t="s">
-        <v>444</v>
+      <c r="B82" t="s">
+        <v>447</v>
       </c>
       <c r="C82" s="107" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D82" s="108">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="E82" s="108">
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F82" s="108">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="H82" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I82" s="106">
         <f t="shared" ref="I82" si="18">SUM(I76:I81)</f>
-        <v>0.50694444444444442</v>
+        <v>0.49305555555555569</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="124"/>
-      <c r="B83" s="107"/>
+      <c r="B83" s="107" t="s">
+        <v>448</v>
+      </c>
       <c r="C83" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D83" s="108">
-        <v>0.6875</v>
+        <v>0.875</v>
       </c>
       <c r="E83" s="108">
-        <v>0.70833333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="F83" s="108">
         <f t="shared" si="16"/>
-        <v>2.083333333333337E-2</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="124"/>
-      <c r="B84" s="107"/>
+      <c r="B84" s="107" t="s">
+        <v>431</v>
+      </c>
       <c r="C84" s="107" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D84" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E84" s="108">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E84" s="108">
-        <v>0.73958333333333337</v>
-      </c>
       <c r="F84" s="108">
-        <f t="shared" si="16"/>
-        <v>3.125E-2</v>
+        <f>E84-D84</f>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="124"/>
       <c r="B85" s="107"/>
-      <c r="C85" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="D85" s="108">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="E85" s="108">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="F85" s="108">
-        <f>E85-D85</f>
-        <v>6.25E-2</v>
-      </c>
+      <c r="C85" s="107"/>
+      <c r="D85" s="108"/>
+      <c r="E85" s="108"/>
+      <c r="F85" s="108"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="124"/>
       <c r="B86" s="107"/>
-      <c r="C86" s="107" t="s">
-        <v>295</v>
-      </c>
-      <c r="D86" s="108">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="E86" s="108">
-        <v>0.99305555555555547</v>
-      </c>
-      <c r="F86" s="108">
-        <f>E86-D86</f>
-        <v>3.4722222222222099E-2</v>
-      </c>
+      <c r="C86" s="107"/>
+      <c r="D86" s="108"/>
+      <c r="E86" s="108"/>
+      <c r="F86" s="108"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="124"/>
@@ -24085,10 +24048,7 @@
       <c r="C87" s="107"/>
       <c r="D87" s="108"/>
       <c r="E87" s="108"/>
-      <c r="F87" s="108">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+      <c r="F87" s="108"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="124"/>
@@ -24104,18 +24064,12 @@
     <row r="89" spans="1:9">
       <c r="A89" s="124"/>
       <c r="B89" s="107"/>
-      <c r="C89" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="D89" s="108">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E89" s="108">
-        <v>0.36458333333333331</v>
-      </c>
+      <c r="C89" s="107"/>
+      <c r="D89" s="108"/>
+      <c r="E89" s="108"/>
       <c r="F89" s="108">
         <f t="shared" si="16"/>
-        <v>1.041666666666663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -24129,14 +24083,14 @@
         <v>290</v>
       </c>
       <c r="D90" s="108">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E90" s="108">
         <v>0.36458333333333331</v>
-      </c>
-      <c r="E90" s="108">
-        <v>0.39583333333333331</v>
       </c>
       <c r="F90" s="108">
         <f t="shared" si="16"/>
-        <v>3.125E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H90" s="106" t="s">
         <v>291</v>
@@ -24151,23 +24105,23 @@
         <v>375</v>
       </c>
       <c r="C91" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D91" s="108">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E91" s="108">
         <v>0.39583333333333331</v>
-      </c>
-      <c r="E91" s="108">
-        <v>0.4375</v>
       </c>
       <c r="F91" s="108">
         <f t="shared" si="16"/>
-        <v>4.1666666666666685E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H91" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I91" s="108">
-        <f>SUMIFS(F89:F103, C89:C103,H91)</f>
+        <f>SUMIFS(F90:F104, C90:C104,H91)</f>
         <v>0.27083333333333337</v>
       </c>
     </row>
@@ -24177,23 +24131,23 @@
         <v>331</v>
       </c>
       <c r="C92" s="107" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D92" s="108">
-        <v>0.44444444444444442</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E92" s="108">
-        <v>0.52777777777777779</v>
+        <v>0.4375</v>
       </c>
       <c r="F92" s="108">
         <f t="shared" si="16"/>
-        <v>8.333333333333337E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H92" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I92" s="108">
-        <f>SUMIFS(F89:F103, C89:C103,H92)</f>
+        <f>SUMIFS(F90:F104, C90:C104,H92)</f>
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
@@ -24203,23 +24157,23 @@
         <v>375</v>
       </c>
       <c r="C93" s="107" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D93" s="108">
-        <v>0.53125</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="E93" s="108">
-        <v>0.5625</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="F93" s="108">
         <f t="shared" si="16"/>
-        <v>3.125E-2</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="H93" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I93" s="108">
-        <f>SUMIFS(F89:F103, C89:C103,H93)</f>
+        <f>SUMIFS(F90:F104, C90:C104,H93)</f>
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
@@ -24229,23 +24183,23 @@
         <v>294</v>
       </c>
       <c r="C94" s="107" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D94" s="108">
+        <v>0.53125</v>
+      </c>
+      <c r="E94" s="108">
         <v>0.5625</v>
-      </c>
-      <c r="E94" s="108">
-        <v>0.59027777777777779</v>
       </c>
       <c r="F94" s="108">
         <f t="shared" si="16"/>
-        <v>2.777777777777779E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H94" s="109" t="s">
         <v>300</v>
       </c>
       <c r="I94" s="108">
-        <f>SUMIFS(F89:F103, C89:C103,H94)</f>
+        <f>SUMIFS(F90:F104, C90:C104,H94)</f>
         <v>0</v>
       </c>
     </row>
@@ -24255,23 +24209,23 @@
         <v>310</v>
       </c>
       <c r="C95" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D95" s="108">
+        <v>0.5625</v>
+      </c>
+      <c r="E95" s="108">
         <v>0.59027777777777779</v>
-      </c>
-      <c r="E95" s="108">
-        <v>0.625</v>
       </c>
       <c r="F95" s="108">
         <f t="shared" si="16"/>
-        <v>3.472222222222221E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H95" s="109" t="s">
         <v>302</v>
       </c>
       <c r="I95" s="108">
-        <f>SUMIFS(F89:F103, C89:C103,H95)</f>
+        <f>SUMIFS(F90:F104, C90:C104,H95)</f>
         <v>3.125E-2</v>
       </c>
     </row>
@@ -24284,20 +24238,20 @@
         <v>290</v>
       </c>
       <c r="D96" s="108">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="E96" s="108">
         <v>0.625</v>
-      </c>
-      <c r="E96" s="108">
-        <v>0.66666666666666663</v>
       </c>
       <c r="F96" s="108">
         <f t="shared" si="16"/>
-        <v>4.166666666666663E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="H96" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I96" s="108">
-        <f>SUMIFS(F89:F103, C89:C103,H96)</f>
+        <f>SUMIFS(F90:F104, C90:C104,H96)</f>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
@@ -24307,17 +24261,17 @@
         <v>377</v>
       </c>
       <c r="C97" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D97" s="108">
+        <v>0.625</v>
+      </c>
+      <c r="E97" s="108">
         <v>0.66666666666666663</v>
-      </c>
-      <c r="E97" s="108">
-        <v>0.68055555555555547</v>
       </c>
       <c r="F97" s="108">
         <f t="shared" si="16"/>
-        <v>1.388888888888884E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H97" s="105" t="s">
         <v>305</v>
@@ -24333,17 +24287,17 @@
         <v>303</v>
       </c>
       <c r="C98" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D98" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E98" s="108">
         <v>0.68055555555555547</v>
-      </c>
-      <c r="E98" s="108">
-        <v>0.75</v>
       </c>
       <c r="F98" s="108">
         <f t="shared" si="16"/>
-        <v>6.9444444444444531E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="I98" s="110"/>
     </row>
@@ -24353,17 +24307,17 @@
         <v>375</v>
       </c>
       <c r="C99" s="107" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D99" s="108">
-        <v>0.79166666666666663</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="E99" s="108">
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F99" s="108">
         <f t="shared" si="16"/>
-        <v>4.1666666666666741E-2</v>
+        <v>6.9444444444444531E-2</v>
       </c>
       <c r="I99" s="110"/>
     </row>
@@ -24372,12 +24326,18 @@
       <c r="B100" s="107" t="s">
         <v>378</v>
       </c>
-      <c r="C100" s="107"/>
-      <c r="D100" s="108"/>
-      <c r="E100" s="108"/>
+      <c r="C100" s="107" t="s">
+        <v>297</v>
+      </c>
+      <c r="D100" s="108">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E100" s="108">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F100" s="108">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -24416,15 +24376,9 @@
     <row r="104" spans="1:9">
       <c r="A104" s="125"/>
       <c r="B104" s="107"/>
-      <c r="C104" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="D104" s="108">
-        <v>0</v>
-      </c>
-      <c r="E104" s="108">
-        <v>0</v>
-      </c>
+      <c r="C104" s="107"/>
+      <c r="D104" s="108"/>
+      <c r="E104" s="108"/>
       <c r="F104" s="108">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -24438,7 +24392,7 @@
         <v>314</v>
       </c>
       <c r="C105" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D105" s="108">
         <v>0</v>
@@ -24463,7 +24417,7 @@
         <v>331</v>
       </c>
       <c r="C106" s="107" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D106" s="108">
         <v>0</v>
@@ -24479,7 +24433,7 @@
         <v>290</v>
       </c>
       <c r="I106" s="108">
-        <f>SUMIFS(F104:F118, C104:C118,H106)</f>
+        <f>SUMIFS(F105:F119, C105:C119,H106)</f>
         <v>0</v>
       </c>
     </row>
@@ -24489,7 +24443,7 @@
         <v>294</v>
       </c>
       <c r="C107" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D107" s="108">
         <v>0</v>
@@ -24505,7 +24459,7 @@
         <v>295</v>
       </c>
       <c r="I107" s="108">
-        <f>SUMIFS(F104:F118, C104:C118,H107)</f>
+        <f>SUMIFS(F105:F119, C105:C119,H107)</f>
         <v>0</v>
       </c>
     </row>
@@ -24515,7 +24469,7 @@
         <v>331</v>
       </c>
       <c r="C108" s="107" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D108" s="108">
         <v>0</v>
@@ -24531,7 +24485,7 @@
         <v>297</v>
       </c>
       <c r="I108" s="108">
-        <f>SUMIFS(F104:F118, C104:C118,H108)</f>
+        <f>SUMIFS(F105:F119, C105:C119,H108)</f>
         <v>0</v>
       </c>
     </row>
@@ -24557,7 +24511,7 @@
         <v>300</v>
       </c>
       <c r="I109" s="108">
-        <f>SUMIFS(F104:F118, C104:C118,H109)</f>
+        <f>SUMIFS(F105:F119, C105:C119,H109)</f>
         <v>0</v>
       </c>
     </row>
@@ -24583,7 +24537,7 @@
         <v>302</v>
       </c>
       <c r="I110" s="108">
-        <f>SUMIFS(F104:F118, C104:C118,H110)</f>
+        <f>SUMIFS(F105:F119, C105:C119,H110)</f>
         <v>0</v>
       </c>
     </row>
@@ -24593,7 +24547,7 @@
         <v>303</v>
       </c>
       <c r="C111" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D111" s="108">
         <v>0</v>
@@ -24609,7 +24563,7 @@
         <v>299</v>
       </c>
       <c r="I111" s="108">
-        <f>SUMIFS(F104:F118, C104:C118,H111)</f>
+        <f>SUMIFS(F105:F119, C105:C119,H111)</f>
         <v>0</v>
       </c>
     </row>
@@ -24644,9 +24598,15 @@
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
-      <c r="C113" s="107"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="108"/>
+      <c r="C113" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D113" s="108">
+        <v>0</v>
+      </c>
+      <c r="E113" s="108">
+        <v>0</v>
+      </c>
       <c r="F113" s="108">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -24725,7 +24685,7 @@
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C120" s="107" t="s">
         <v>290</v>
@@ -24737,7 +24697,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="F120" s="108">
-        <f>E120-D120</f>
+        <f t="shared" si="16"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="H120" s="106" t="s">
@@ -24750,7 +24710,7 @@
     <row r="121" spans="1:9">
       <c r="A121" s="128"/>
       <c r="B121" s="115" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C121" s="107" t="s">
         <v>290</v>
@@ -24769,7 +24729,7 @@
         <v>290</v>
       </c>
       <c r="I121" s="108">
-        <f>SUMIFS(F119:F133, C119:C133,H121)</f>
+        <f>SUMIFS(F120:F134, C120:C134,H121)</f>
         <v>0.26041666666666669</v>
       </c>
     </row>
@@ -24795,14 +24755,14 @@
         <v>295</v>
       </c>
       <c r="I122" s="108">
-        <f>SUMIFS(F119:F133, C119:C133,H122)</f>
+        <f>SUMIFS(F120:F134, C120:C134,H122)</f>
         <v>5.208333333333337E-2</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="128"/>
       <c r="B123" s="107" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C123" s="107" t="s">
         <v>290</v>
@@ -24821,7 +24781,7 @@
         <v>297</v>
       </c>
       <c r="I123" s="108">
-        <f>SUMIFS(F119:F133, C119:C133,H123)</f>
+        <f>SUMIFS(F120:F134, C120:C134,H123)</f>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -24847,14 +24807,14 @@
         <v>300</v>
       </c>
       <c r="I124" s="108">
-        <f>SUMIFS(F119:F133, C119:C133,H124)</f>
+        <f>SUMIFS(F120:F134, C120:C134,H124)</f>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="128"/>
       <c r="B125" s="107" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>290</v>
@@ -24873,7 +24833,7 @@
         <v>302</v>
       </c>
       <c r="I125" s="108">
-        <f>SUMIFS(F119:F133, C119:C133,H125)</f>
+        <f>SUMIFS(F120:F134, C120:C134,H125)</f>
         <v>0</v>
       </c>
     </row>
@@ -24899,14 +24859,14 @@
         <v>299</v>
       </c>
       <c r="I126" s="108">
-        <f>SUMIFS(F119:F133, C119:C133,H126)</f>
+        <f>SUMIFS(F120:F134, C120:C134,H126)</f>
         <v>4.513888888888884E-2</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="128"/>
       <c r="B127" s="107" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C127" s="107" t="s">
         <v>295</v>
@@ -24944,7 +24904,7 @@
         <v>0.75</v>
       </c>
       <c r="F128" s="108">
-        <f t="shared" si="16"/>
+        <f>E128-D128</f>
         <v>3.125E-2</v>
       </c>
       <c r="I128" s="110"/>
@@ -24952,7 +24912,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="128"/>
       <c r="B129" s="115" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C129" s="107" t="s">
         <v>297</v>
@@ -24976,7 +24936,7 @@
       <c r="D130" s="108"/>
       <c r="E130" s="108"/>
       <c r="F130" s="108">
-        <f t="shared" ref="F130:F135" si="22">E130-D130</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -24987,17 +24947,17 @@
       <c r="D131" s="108"/>
       <c r="E131" s="108"/>
       <c r="F131" s="108">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="F131:F136" si="22">E131-D131</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="128"/>
       <c r="B132" s="115"/>
-      <c r="C132" s="111"/>
-      <c r="D132" s="112"/>
-      <c r="E132" s="112"/>
-      <c r="F132" s="112">
+      <c r="C132" s="107"/>
+      <c r="D132" s="108"/>
+      <c r="E132" s="108"/>
+      <c r="F132" s="108">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -25005,10 +24965,10 @@
     <row r="133" spans="1:9">
       <c r="A133" s="128"/>
       <c r="B133" s="116"/>
-      <c r="C133" s="113"/>
-      <c r="D133" s="114"/>
-      <c r="E133" s="114"/>
-      <c r="F133" s="114">
+      <c r="C133" s="111"/>
+      <c r="D133" s="112"/>
+      <c r="E133" s="112"/>
+      <c r="F133" s="112">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -25016,16 +24976,20 @@
     <row r="134" spans="1:9">
       <c r="A134" s="128"/>
       <c r="B134" s="117"/>
-      <c r="C134" s="113"/>
-      <c r="D134" s="114"/>
-      <c r="E134" s="114"/>
-      <c r="F134" s="114">
-        <f>E134-D134</f>
+      <c r="C134" s="129"/>
+      <c r="D134" s="130"/>
+      <c r="E134" s="130"/>
+      <c r="F134" s="130">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="123"/>
+      <c r="C135" s="131"/>
+      <c r="D135" s="132"/>
+      <c r="E135" s="132"/>
+      <c r="F135" s="132"/>
       <c r="H135" s="122"/>
       <c r="I135" s="122"/>
     </row>
@@ -25167,7 +25131,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C141" xr:uid="{A015514F-8F30-4A0A-996F-EF4FFA697FC3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C142" xr:uid="{A015514F-8F30-4A0A-996F-EF4FFA697FC3}">
       <formula1>$Q$1:$Q$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -25179,8 +25143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9EFCF2-B647-4263-9741-7AEEC9FEC381}">
   <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25223,20 +25187,20 @@
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D2" s="108">
-        <v>0.35416666666666669</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="E2" s="108">
-        <v>0.4375</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="F2" s="108">
         <f>E2-D2</f>
-        <v>8.3333333333333315E-2</v>
+        <v>1.7361111111111105E-2</v>
       </c>
       <c r="H2" s="106" t="s">
         <v>291</v>
@@ -25251,27 +25215,27 @@
     <row r="3" spans="1:17">
       <c r="A3" s="124"/>
       <c r="B3" s="107" t="s">
-        <v>301</v>
+        <v>455</v>
       </c>
       <c r="C3" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D3" s="108">
-        <v>0.4375</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="E3" s="108">
         <v>0.44791666666666669</v>
       </c>
       <c r="F3" s="108">
         <f t="shared" ref="F3:F65" si="0">E3-D3</f>
-        <v>1.0416666666666685E-2</v>
+        <v>6.5972222222222265E-2</v>
       </c>
       <c r="H3" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I3" s="108">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>0.26041666666666663</v>
+        <v>0.2152777777777779</v>
       </c>
       <c r="Q3" t="s">
         <v>295</v>
@@ -25280,10 +25244,10 @@
     <row r="4" spans="1:17">
       <c r="A4" s="124"/>
       <c r="B4" s="107" t="s">
-        <v>426</v>
+        <v>301</v>
       </c>
       <c r="C4" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D4" s="108">
         <v>0.44791666666666669</v>
@@ -25300,7 +25264,7 @@
       </c>
       <c r="I4" s="108">
         <f>SUMIFS(F2:F16, C2:C16,H4)</f>
-        <v>0</v>
+        <v>5.2083333333333315E-2</v>
       </c>
       <c r="Q4" t="s">
         <v>297</v>
@@ -25309,7 +25273,7 @@
     <row r="5" spans="1:17">
       <c r="A5" s="124"/>
       <c r="B5" s="107" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>290</v>
@@ -25318,18 +25282,18 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E5" s="108">
-        <v>0.54166666666666663</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F5" s="108">
         <f t="shared" si="0"/>
-        <v>8.3333333333333315E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H5" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I5" s="108">
         <f>SUMIFS(F2:F16, C2:C16,H5)</f>
-        <v>6.9444444444444531E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="Q5" t="s">
         <v>300</v>
@@ -25338,27 +25302,27 @@
     <row r="6" spans="1:17">
       <c r="A6" s="124"/>
       <c r="B6" s="107" t="s">
-        <v>298</v>
+        <v>431</v>
       </c>
       <c r="C6" s="107" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D6" s="108">
-        <v>0.54166666666666663</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E6" s="108">
-        <v>0.57291666666666663</v>
+        <v>0.53125</v>
       </c>
       <c r="F6" s="108">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>5.2083333333333315E-2</v>
       </c>
       <c r="H6" s="109" t="s">
         <v>300</v>
       </c>
       <c r="I6" s="108">
         <f>SUMIFS(F2:F16, C2:C16,H6)</f>
-        <v>2.4305555555555469E-2</v>
+        <v>3.8194444444444309E-2</v>
       </c>
       <c r="Q6" t="s">
         <v>302</v>
@@ -25367,20 +25331,20 @@
     <row r="7" spans="1:17">
       <c r="A7" s="124"/>
       <c r="B7" s="107" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="C7" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D7" s="108">
+        <v>0.53125</v>
+      </c>
+      <c r="E7" s="108">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E7" s="108">
-        <v>0.65625</v>
-      </c>
       <c r="F7" s="108">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H7" s="109" t="s">
         <v>302</v>
@@ -25396,53 +25360,53 @@
     <row r="8" spans="1:17">
       <c r="A8" s="124"/>
       <c r="B8" s="107" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D8" s="108">
-        <v>0.65625</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="E8" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F8" s="108">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H8" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I8" s="108">
         <f>SUMIFS(F2:F16, C2:C16,H8)</f>
-        <v>5.2083333333333315E-2</v>
+        <v>5.2083333333333259E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="124"/>
       <c r="B9" s="107" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="C9" s="107" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D9" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E9" s="108">
         <v>0.71527777777777779</v>
       </c>
       <c r="F9" s="108">
         <f t="shared" si="0"/>
-        <v>4.861111111111116E-2</v>
+        <v>0.11111111111111116</v>
       </c>
       <c r="H9" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I9" s="106">
         <f>SUM(I3:I8)</f>
-        <v>0.40624999999999994</v>
+        <v>0.37847222222222215</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -25468,7 +25432,7 @@
     <row r="11" spans="1:17">
       <c r="A11" s="124"/>
       <c r="B11" s="107" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C11" s="107" t="s">
         <v>297</v>
@@ -25545,7 +25509,7 @@
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C17" s="107" t="s">
         <v>290</v>
@@ -25596,7 +25560,7 @@
     <row r="19" spans="1:9">
       <c r="A19" s="124"/>
       <c r="B19" s="107" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C19" s="107" t="s">
         <v>290</v>
@@ -25622,7 +25586,7 @@
     <row r="20" spans="1:9">
       <c r="A20" s="124"/>
       <c r="B20" s="107" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C20" s="107" t="s">
         <v>297</v>
@@ -25648,7 +25612,7 @@
     <row r="21" spans="1:9">
       <c r="A21" s="124"/>
       <c r="B21" s="107" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C21" s="107" t="s">
         <v>299</v>
@@ -25674,7 +25638,7 @@
     <row r="22" spans="1:9">
       <c r="A22" s="124"/>
       <c r="B22" s="107" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C22" s="107" t="s">
         <v>290</v>
@@ -25752,7 +25716,7 @@
     <row r="25" spans="1:9">
       <c r="A25" s="124"/>
       <c r="B25" s="107" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C25" s="107" t="s">
         <v>290</v>
@@ -25807,7 +25771,7 @@
         <v>54</v>
       </c>
       <c r="B29" s="107" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C29" s="107" t="s">
         <v>290</v>
@@ -26127,7 +26091,7 @@
         <v>318</v>
       </c>
       <c r="B44" s="107" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C44" s="107" t="s">
         <v>290</v>
@@ -26178,7 +26142,7 @@
     <row r="46" spans="1:9">
       <c r="A46" s="124"/>
       <c r="B46" s="107" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C46" s="107" t="s">
         <v>290</v>
@@ -26204,7 +26168,7 @@
     <row r="47" spans="1:9">
       <c r="A47" s="124"/>
       <c r="B47" s="107" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C47" s="107" t="s">
         <v>297</v>
@@ -26230,7 +26194,7 @@
     <row r="48" spans="1:9">
       <c r="A48" s="124"/>
       <c r="B48" s="107" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C48" s="107" t="s">
         <v>299</v>
@@ -26282,7 +26246,7 @@
     <row r="50" spans="1:9">
       <c r="A50" s="124"/>
       <c r="B50" s="107" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C50" s="107" t="s">
         <v>290</v>
@@ -26334,7 +26298,7 @@
     <row r="52" spans="1:9">
       <c r="A52" s="124"/>
       <c r="B52" s="107" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="C52" s="107" t="s">
         <v>290</v>
@@ -26354,7 +26318,7 @@
     <row r="53" spans="1:9">
       <c r="A53" s="124"/>
       <c r="B53" s="107" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C53" s="107" t="s">
         <v>290</v>
@@ -26420,7 +26384,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="107" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C58" s="107" t="s">
         <v>297</v>
@@ -26497,7 +26461,7 @@
     <row r="61" spans="1:9">
       <c r="A61" s="124"/>
       <c r="B61" s="107" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C61" s="107" t="s">
         <v>295</v>
@@ -26549,7 +26513,7 @@
     <row r="63" spans="1:9">
       <c r="A63" s="124"/>
       <c r="B63" s="107" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C63" s="107" t="s">
         <v>295</v>
@@ -26601,7 +26565,7 @@
     <row r="65" spans="1:9">
       <c r="A65" s="124"/>
       <c r="B65" s="107" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C65" s="107" t="s">
         <v>295</v>
@@ -26648,7 +26612,7 @@
     <row r="67" spans="1:9">
       <c r="A67" s="124"/>
       <c r="B67" s="107" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C67" s="107" t="s">
         <v>290</v>
@@ -26668,7 +26632,7 @@
     <row r="68" spans="1:9">
       <c r="A68" s="124"/>
       <c r="B68" s="107" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C68" s="107" t="s">
         <v>290</v>
@@ -26745,7 +26709,7 @@
         <v>67</v>
       </c>
       <c r="B74" s="107" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="C74" s="107" t="s">
         <v>290</v>
@@ -26796,7 +26760,7 @@
     <row r="76" spans="1:9">
       <c r="A76" s="124"/>
       <c r="B76" s="107" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="C76" s="107" t="s">
         <v>290</v>
@@ -26822,7 +26786,7 @@
     <row r="77" spans="1:9">
       <c r="A77" s="124"/>
       <c r="B77" s="107" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C77" s="107" t="s">
         <v>297</v>
@@ -27665,7 +27629,7 @@
         <v>339</v>
       </c>
       <c r="B119" s="115" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C119" s="107" t="s">
         <v>290</v>
@@ -27690,7 +27654,7 @@
     <row r="120" spans="1:9">
       <c r="A120" s="128"/>
       <c r="B120" s="115" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C120" s="107" t="s">
         <v>297</v>
@@ -27742,7 +27706,7 @@
     <row r="122" spans="1:9">
       <c r="A122" s="128"/>
       <c r="B122" s="107" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>290</v>
@@ -27768,7 +27732,7 @@
     <row r="123" spans="1:9">
       <c r="A123" s="128"/>
       <c r="B123" s="107" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C123" s="107" t="s">
         <v>295</v>
@@ -27820,7 +27784,7 @@
     <row r="125" spans="1:9">
       <c r="A125" s="128"/>
       <c r="B125" s="107" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>290</v>
@@ -27872,7 +27836,7 @@
     <row r="127" spans="1:9">
       <c r="A127" s="128"/>
       <c r="B127" s="107" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C127" s="107" t="s">
         <v>290</v>
@@ -27912,7 +27876,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="128"/>
       <c r="B129" s="115" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="C129" s="107" t="s">
         <v>290</v>
@@ -27956,7 +27920,7 @@
       <c r="D132" s="112"/>
       <c r="E132" s="112"/>
       <c r="F132" s="112">
-        <f>E132-D132</f>
+        <f t="shared" ref="F132:F133" si="20">E132-D132</f>
         <v>0</v>
       </c>
     </row>
@@ -27967,7 +27931,7 @@
       <c r="D133" s="114"/>
       <c r="E133" s="114"/>
       <c r="F133" s="114">
-        <f>E133-D133</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3188E5C-B203-45F7-B7AE-C6A0BDD5E228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C71CDFAC-18BA-4903-AFAA-BF67BB613039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="20" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="487">
   <si>
     <t>Resource Name</t>
   </si>
@@ -2763,6 +2763,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2778,9 +2781,6 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7345,7 +7345,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -7372,7 +7372,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>293</v>
       </c>
@@ -7398,7 +7398,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>294</v>
       </c>
@@ -7424,7 +7424,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>296</v>
       </c>
@@ -7450,7 +7450,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>298</v>
       </c>
@@ -7476,7 +7476,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
         <v>301</v>
       </c>
@@ -7502,7 +7502,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107" t="s">
         <v>303</v>
       </c>
@@ -7528,7 +7528,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107" t="s">
         <v>304</v>
       </c>
@@ -7554,7 +7554,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="107" t="s">
         <v>306</v>
       </c>
@@ -7574,7 +7574,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -7586,7 +7586,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -7597,7 +7597,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -7608,7 +7608,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -7619,7 +7619,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -7630,7 +7630,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -7641,7 +7641,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -7668,7 +7668,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="107" t="s">
         <v>308</v>
       </c>
@@ -7694,7 +7694,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -7720,7 +7720,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>309</v>
       </c>
@@ -7746,7 +7746,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
         <v>294</v>
       </c>
@@ -7772,7 +7772,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
         <v>310</v>
       </c>
@@ -7798,7 +7798,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107" t="s">
         <v>296</v>
       </c>
@@ -7824,7 +7824,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107" t="s">
         <v>311</v>
       </c>
@@ -7850,7 +7850,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107" t="s">
         <v>312</v>
       </c>
@@ -7870,7 +7870,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -7882,7 +7882,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -7893,7 +7893,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -7904,7 +7904,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -7915,7 +7915,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -7926,7 +7926,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129"/>
+      <c r="A31" s="132"/>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="108"/>
@@ -7937,7 +7937,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129" t="s">
+      <c r="A32" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="107" t="s">
@@ -7964,7 +7964,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="107" t="s">
         <v>313</v>
       </c>
@@ -7990,7 +7990,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>301</v>
       </c>
@@ -8016,7 +8016,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>313</v>
       </c>
@@ -8042,7 +8042,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="107" t="s">
         <v>294</v>
       </c>
@@ -8068,7 +8068,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>310</v>
       </c>
@@ -8094,7 +8094,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107" t="s">
         <v>314</v>
       </c>
@@ -8120,7 +8120,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107" t="s">
         <v>315</v>
       </c>
@@ -8146,7 +8146,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107" t="s">
         <v>303</v>
       </c>
@@ -8166,7 +8166,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107" t="s">
         <v>316</v>
       </c>
@@ -8186,7 +8186,7 @@
       <c r="I41" s="110"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -8197,7 +8197,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107" t="s">
         <v>317</v>
       </c>
@@ -8210,7 +8210,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -8221,7 +8221,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -8232,7 +8232,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129"/>
+      <c r="A46" s="132"/>
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
       <c r="D46" s="108"/>
@@ -8243,7 +8243,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129" t="s">
+      <c r="A47" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B47" s="107" t="s">
@@ -8270,7 +8270,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>319</v>
       </c>
@@ -8296,7 +8296,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>320</v>
       </c>
@@ -8322,7 +8322,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
         <v>321</v>
       </c>
@@ -8348,7 +8348,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107" t="s">
         <v>322</v>
       </c>
@@ -8374,7 +8374,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107" t="s">
         <v>323</v>
       </c>
@@ -8400,7 +8400,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107" t="s">
         <v>296</v>
       </c>
@@ -8426,7 +8426,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107" t="s">
         <v>324</v>
       </c>
@@ -8452,7 +8452,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107" t="s">
         <v>325</v>
       </c>
@@ -8472,7 +8472,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107" t="s">
         <v>326</v>
       </c>
@@ -8492,7 +8492,7 @@
       <c r="I56" s="110"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -8503,7 +8503,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -8514,7 +8514,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -8525,7 +8525,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129"/>
+      <c r="A60" s="132"/>
       <c r="B60" s="107"/>
       <c r="C60" s="107"/>
       <c r="D60" s="108"/>
@@ -8536,7 +8536,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107"/>
       <c r="C61" s="107"/>
       <c r="D61" s="108"/>
@@ -8547,7 +8547,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129" t="s">
+      <c r="A62" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="107" t="s">
@@ -8574,7 +8574,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>328</v>
       </c>
@@ -8600,7 +8600,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>301</v>
       </c>
@@ -8626,7 +8626,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>321</v>
       </c>
@@ -8652,7 +8652,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107" t="s">
         <v>294</v>
       </c>
@@ -8678,7 +8678,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107" t="s">
         <v>310</v>
       </c>
@@ -8704,7 +8704,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107" t="s">
         <v>296</v>
       </c>
@@ -8730,7 +8730,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107" t="s">
         <v>329</v>
       </c>
@@ -8756,7 +8756,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107" t="s">
         <v>330</v>
       </c>
@@ -8776,7 +8776,7 @@
       <c r="I70" s="110"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -8788,7 +8788,7 @@
       <c r="I71" s="110"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -8799,7 +8799,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -8810,7 +8810,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -8821,7 +8821,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129"/>
+      <c r="A75" s="132"/>
       <c r="B75" s="107"/>
       <c r="C75" s="107"/>
       <c r="D75" s="108"/>
@@ -8832,7 +8832,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107"/>
       <c r="C76" s="107"/>
       <c r="D76" s="108"/>
@@ -8843,7 +8843,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129" t="s">
+      <c r="A77" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B77" s="107" t="s">
@@ -8870,7 +8870,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
         <v>331</v>
       </c>
@@ -8896,7 +8896,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
         <v>294</v>
       </c>
@@ -8922,7 +8922,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
         <v>331</v>
       </c>
@@ -8948,7 +8948,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
         <v>298</v>
       </c>
@@ -8974,7 +8974,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="107" t="s">
         <v>301</v>
       </c>
@@ -9000,7 +9000,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
         <v>303</v>
       </c>
@@ -9026,7 +9026,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="107" t="s">
         <v>315</v>
       </c>
@@ -9052,7 +9052,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
+      <c r="A85" s="132"/>
       <c r="B85" s="107" t="s">
         <v>332</v>
       </c>
@@ -9072,7 +9072,7 @@
       <c r="I85" s="110"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
+      <c r="A86" s="132"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -9084,7 +9084,7 @@
       <c r="I86" s="110"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
+      <c r="A87" s="132"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107"/>
       <c r="D87" s="108"/>
@@ -9095,7 +9095,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -9106,7 +9106,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="129"/>
+      <c r="A89" s="132"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -9117,7 +9117,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="129"/>
+      <c r="A90" s="132"/>
       <c r="B90" s="107"/>
       <c r="C90" s="107"/>
       <c r="D90" s="108"/>
@@ -9128,7 +9128,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="107"/>
       <c r="C91" s="107"/>
       <c r="D91" s="108"/>
@@ -9139,7 +9139,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="129" t="s">
+      <c r="A92" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B92" s="107" t="s">
@@ -9166,7 +9166,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
+      <c r="A93" s="132"/>
       <c r="B93" s="107" t="s">
         <v>333</v>
       </c>
@@ -9192,7 +9192,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
+      <c r="A94" s="132"/>
       <c r="B94" s="107" t="s">
         <v>301</v>
       </c>
@@ -9218,7 +9218,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
+      <c r="A95" s="132"/>
       <c r="B95" s="107" t="s">
         <v>334</v>
       </c>
@@ -9244,7 +9244,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
+      <c r="A96" s="132"/>
       <c r="B96" s="107" t="s">
         <v>294</v>
       </c>
@@ -9270,7 +9270,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
+      <c r="A97" s="132"/>
       <c r="B97" s="107" t="s">
         <v>310</v>
       </c>
@@ -9296,7 +9296,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
+      <c r="A98" s="132"/>
       <c r="B98" s="107" t="s">
         <v>335</v>
       </c>
@@ -9322,7 +9322,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
+      <c r="A99" s="132"/>
       <c r="B99" s="107" t="s">
         <v>336</v>
       </c>
@@ -9348,7 +9348,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
+      <c r="A100" s="132"/>
       <c r="B100" s="107" t="s">
         <v>337</v>
       </c>
@@ -9368,7 +9368,7 @@
       <c r="I100" s="110"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107" t="s">
         <v>303</v>
       </c>
@@ -9388,7 +9388,7 @@
       <c r="I101" s="110"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107" t="s">
         <v>335</v>
       </c>
@@ -9407,7 +9407,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="129"/>
+      <c r="A103" s="132"/>
       <c r="B103" s="107" t="s">
         <v>338</v>
       </c>
@@ -9426,7 +9426,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="129"/>
+      <c r="A104" s="132"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -9437,7 +9437,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="129"/>
+      <c r="A105" s="132"/>
       <c r="B105" s="107"/>
       <c r="C105" s="107"/>
       <c r="D105" s="108"/>
@@ -9448,7 +9448,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="130"/>
+      <c r="A106" s="133"/>
       <c r="B106" s="107"/>
       <c r="C106" s="107"/>
       <c r="D106" s="108"/>
@@ -9459,7 +9459,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131" t="s">
+      <c r="A107" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B107" s="115" t="s">
@@ -9486,7 +9486,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="115" t="s">
         <v>331</v>
       </c>
@@ -9512,7 +9512,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="115" t="s">
         <v>294</v>
       </c>
@@ -9538,7 +9538,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="115" t="s">
         <v>331</v>
       </c>
@@ -9564,7 +9564,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="115" t="s">
         <v>298</v>
       </c>
@@ -9590,7 +9590,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="115" t="s">
         <v>301</v>
       </c>
@@ -9616,7 +9616,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="115" t="s">
         <v>303</v>
       </c>
@@ -9642,7 +9642,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="115" t="s">
         <v>315</v>
       </c>
@@ -9668,7 +9668,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="115" t="s">
         <v>332</v>
       </c>
@@ -9688,7 +9688,7 @@
       <c r="I115" s="110"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="115"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -9700,7 +9700,7 @@
       <c r="I116" s="110"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="115"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -9711,7 +9711,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="131"/>
+      <c r="A118" s="134"/>
       <c r="B118" s="115"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -9722,7 +9722,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="131"/>
+      <c r="A119" s="134"/>
       <c r="B119" s="115"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -9733,7 +9733,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="131"/>
+      <c r="A120" s="134"/>
       <c r="B120" s="116"/>
       <c r="C120" s="111"/>
       <c r="D120" s="112"/>
@@ -9744,7 +9744,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="132"/>
+      <c r="A121" s="135"/>
       <c r="B121" s="117"/>
       <c r="C121" s="113"/>
       <c r="D121" s="114"/>
@@ -9755,7 +9755,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133" t="s">
+      <c r="A122" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B122" s="115" t="s">
@@ -9782,7 +9782,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="115" t="s">
         <v>341</v>
       </c>
@@ -9808,7 +9808,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="115" t="s">
         <v>320</v>
       </c>
@@ -9834,7 +9834,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="115" t="s">
         <v>342</v>
       </c>
@@ -9860,7 +9860,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="115" t="s">
         <v>322</v>
       </c>
@@ -9886,7 +9886,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="115" t="s">
         <v>323</v>
       </c>
@@ -9912,7 +9912,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="115" t="s">
         <v>343</v>
       </c>
@@ -9938,7 +9938,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115" t="s">
         <v>329</v>
       </c>
@@ -9964,7 +9964,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="B130" s="115" t="s">
         <v>303</v>
       </c>
@@ -9984,7 +9984,7 @@
       <c r="I130" s="110"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="115" t="s">
         <v>329</v>
       </c>
@@ -10004,7 +10004,7 @@
       <c r="I131" s="110"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="115" t="s">
         <v>344</v>
       </c>
@@ -10023,7 +10023,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="115" t="s">
         <v>345</v>
       </c>
@@ -10042,7 +10042,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="133"/>
+      <c r="A134" s="136"/>
       <c r="B134" s="115"/>
       <c r="C134" s="107"/>
       <c r="D134" s="108"/>
@@ -10053,7 +10053,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="133"/>
+      <c r="A135" s="136"/>
       <c r="B135" s="116"/>
       <c r="C135" s="111"/>
       <c r="D135" s="112"/>
@@ -10064,7 +10064,7 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="133"/>
+      <c r="A136" s="136"/>
       <c r="B136" s="117"/>
       <c r="C136" s="113"/>
       <c r="D136" s="114"/>
@@ -10241,7 +10241,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -10271,7 +10271,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>331</v>
       </c>
@@ -10300,7 +10300,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>301</v>
       </c>
@@ -10329,7 +10329,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>347</v>
       </c>
@@ -10358,7 +10358,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>294</v>
       </c>
@@ -10387,7 +10387,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
         <v>298</v>
       </c>
@@ -10416,7 +10416,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107" t="s">
         <v>348</v>
       </c>
@@ -10442,7 +10442,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107" t="s">
         <v>303</v>
       </c>
@@ -10468,7 +10468,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="120" t="s">
         <v>349</v>
       </c>
@@ -10488,7 +10488,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107" t="s">
         <v>350</v>
       </c>
@@ -10508,7 +10508,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107" t="s">
         <v>351</v>
       </c>
@@ -10527,7 +10527,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -10538,7 +10538,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -10549,7 +10549,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -10560,7 +10560,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -10571,7 +10571,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -10598,7 +10598,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="107" t="s">
         <v>331</v>
       </c>
@@ -10624,7 +10624,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -10650,7 +10650,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>353</v>
       </c>
@@ -10676,7 +10676,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
         <v>322</v>
       </c>
@@ -10702,7 +10702,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
         <v>298</v>
       </c>
@@ -10728,7 +10728,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107" t="s">
         <v>354</v>
       </c>
@@ -10754,7 +10754,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107" t="s">
         <v>303</v>
       </c>
@@ -10780,7 +10780,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107" t="s">
         <v>355</v>
       </c>
@@ -10800,7 +10800,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107" t="s">
         <v>314</v>
       </c>
@@ -10820,7 +10820,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107" t="s">
         <v>355</v>
       </c>
@@ -10839,7 +10839,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -10850,7 +10850,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -10861,7 +10861,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -10872,7 +10872,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -10899,7 +10899,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="107" t="s">
         <v>331</v>
       </c>
@@ -10925,7 +10925,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -10951,7 +10951,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>357</v>
       </c>
@@ -10977,7 +10977,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>322</v>
       </c>
@@ -11003,7 +11003,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="107" t="s">
         <v>298</v>
       </c>
@@ -11029,7 +11029,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>358</v>
       </c>
@@ -11055,7 +11055,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107" t="s">
         <v>303</v>
       </c>
@@ -11081,7 +11081,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107" t="s">
         <v>359</v>
       </c>
@@ -11101,7 +11101,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107" t="s">
         <v>314</v>
       </c>
@@ -11121,7 +11121,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107" t="s">
         <v>360</v>
       </c>
@@ -11140,7 +11140,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="107" t="s">
         <v>361</v>
       </c>
@@ -11159,7 +11159,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -11170,7 +11170,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -11181,7 +11181,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -11192,7 +11192,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -11219,7 +11219,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
         <v>331</v>
       </c>
@@ -11245,7 +11245,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>301</v>
       </c>
@@ -11271,7 +11271,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>363</v>
       </c>
@@ -11297,7 +11297,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
         <v>322</v>
       </c>
@@ -11323,7 +11323,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107" t="s">
         <v>298</v>
       </c>
@@ -11349,7 +11349,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107" t="s">
         <v>354</v>
       </c>
@@ -11375,7 +11375,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107" t="s">
         <v>303</v>
       </c>
@@ -11401,7 +11401,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107" t="s">
         <v>364</v>
       </c>
@@ -11421,7 +11421,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107" t="s">
         <v>314</v>
       </c>
@@ -11441,7 +11441,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107" t="s">
         <v>365</v>
       </c>
@@ -11460,7 +11460,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -11471,7 +11471,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -11482,7 +11482,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -11493,7 +11493,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -11520,7 +11520,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
         <v>331</v>
       </c>
@@ -11546,7 +11546,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="107" t="s">
         <v>301</v>
       </c>
@@ -11572,7 +11572,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>366</v>
       </c>
@@ -11598,7 +11598,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>322</v>
       </c>
@@ -11624,7 +11624,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>298</v>
       </c>
@@ -11650,7 +11650,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107" t="s">
         <v>367</v>
       </c>
@@ -11676,7 +11676,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107" t="s">
         <v>368</v>
       </c>
@@ -11702,7 +11702,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107" t="s">
         <v>369</v>
       </c>
@@ -11722,7 +11722,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107" t="s">
         <v>314</v>
       </c>
@@ -11742,7 +11742,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107" t="s">
         <v>370</v>
       </c>
@@ -11761,7 +11761,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -11772,7 +11772,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -11783,7 +11783,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -11794,7 +11794,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -11805,7 +11805,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129" t="s">
+      <c r="A75" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -11832,7 +11832,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
         <v>331</v>
       </c>
@@ -11858,7 +11858,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="107" t="s">
         <v>301</v>
       </c>
@@ -11884,7 +11884,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
         <v>371</v>
       </c>
@@ -11910,7 +11910,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
         <v>372</v>
       </c>
@@ -11936,7 +11936,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
         <v>322</v>
       </c>
@@ -11962,7 +11962,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
         <v>371</v>
       </c>
@@ -11988,7 +11988,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="107" t="s">
         <v>373</v>
       </c>
@@ -12014,7 +12014,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
         <v>368</v>
       </c>
@@ -12034,7 +12034,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="107" t="s">
         <v>373</v>
       </c>
@@ -12054,7 +12054,7 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
+      <c r="A85" s="132"/>
       <c r="B85" s="107" t="s">
         <v>314</v>
       </c>
@@ -12073,7 +12073,7 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
+      <c r="A86" s="132"/>
       <c r="B86" s="107" t="s">
         <v>371</v>
       </c>
@@ -12092,7 +12092,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
+      <c r="A87" s="132"/>
       <c r="B87" s="107" t="s">
         <v>374</v>
       </c>
@@ -12111,7 +12111,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -12122,7 +12122,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="129"/>
+      <c r="A89" s="132"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -12133,7 +12133,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="129" t="s">
+      <c r="A90" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -12160,7 +12160,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="107" t="s">
         <v>375</v>
       </c>
@@ -12186,7 +12186,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="129"/>
+      <c r="A92" s="132"/>
       <c r="B92" s="107" t="s">
         <v>331</v>
       </c>
@@ -12212,7 +12212,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
+      <c r="A93" s="132"/>
       <c r="B93" s="107" t="s">
         <v>375</v>
       </c>
@@ -12238,7 +12238,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
+      <c r="A94" s="132"/>
       <c r="B94" s="107" t="s">
         <v>294</v>
       </c>
@@ -12264,7 +12264,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
+      <c r="A95" s="132"/>
       <c r="B95" s="107" t="s">
         <v>310</v>
       </c>
@@ -12290,7 +12290,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
+      <c r="A96" s="132"/>
       <c r="B96" s="107" t="s">
         <v>376</v>
       </c>
@@ -12316,7 +12316,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
+      <c r="A97" s="132"/>
       <c r="B97" s="107" t="s">
         <v>377</v>
       </c>
@@ -12342,7 +12342,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
+      <c r="A98" s="132"/>
       <c r="B98" s="107" t="s">
         <v>303</v>
       </c>
@@ -12362,7 +12362,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
+      <c r="A99" s="132"/>
       <c r="B99" s="107" t="s">
         <v>375</v>
       </c>
@@ -12382,7 +12382,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
+      <c r="A100" s="132"/>
       <c r="B100" s="107" t="s">
         <v>378</v>
       </c>
@@ -12401,7 +12401,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -12412,7 +12412,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -12423,7 +12423,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="129"/>
+      <c r="A103" s="132"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -12434,7 +12434,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="130"/>
+      <c r="A104" s="133"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -12445,7 +12445,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="131" t="s">
+      <c r="A105" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -12472,7 +12472,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="131"/>
+      <c r="A106" s="134"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -12498,7 +12498,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131"/>
+      <c r="A107" s="134"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -12524,7 +12524,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -12550,7 +12550,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -12576,7 +12576,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -12602,7 +12602,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -12628,7 +12628,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -12654,7 +12654,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -12674,7 +12674,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -12686,7 +12686,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -12697,7 +12697,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -12708,7 +12708,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -12719,7 +12719,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="131"/>
+      <c r="A118" s="134"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -12730,7 +12730,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="132"/>
+      <c r="A119" s="135"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -12741,7 +12741,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="133" t="s">
+      <c r="A120" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -12768,7 +12768,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="133"/>
+      <c r="A121" s="136"/>
       <c r="B121" s="115" t="s">
         <v>380</v>
       </c>
@@ -12794,7 +12794,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133"/>
+      <c r="A122" s="136"/>
       <c r="B122" s="115" t="s">
         <v>301</v>
       </c>
@@ -12820,7 +12820,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="115" t="s">
         <v>381</v>
       </c>
@@ -12846,7 +12846,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="115" t="s">
         <v>382</v>
       </c>
@@ -12872,7 +12872,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="115" t="s">
         <v>302</v>
       </c>
@@ -12898,7 +12898,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="115" t="s">
         <v>310</v>
       </c>
@@ -12924,7 +12924,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="120" t="s">
         <v>383</v>
       </c>
@@ -12950,7 +12950,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="115" t="s">
         <v>303</v>
       </c>
@@ -12970,7 +12970,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115" t="s">
         <v>381</v>
       </c>
@@ -12990,7 +12990,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="B130" s="115" t="s">
         <v>384</v>
       </c>
@@ -13009,7 +13009,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="115" t="s">
         <v>385</v>
       </c>
@@ -13028,7 +13028,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -13039,7 +13039,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -13050,7 +13050,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="133"/>
+      <c r="A134" s="136"/>
       <c r="B134" s="117"/>
       <c r="C134" s="113"/>
       <c r="D134" s="114"/>
@@ -13562,8 +13562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E469F2C2-993F-4F48-8C74-266B916F6309}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="L88" sqref="L88"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13602,7 +13602,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -13632,7 +13632,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>331</v>
       </c>
@@ -13661,7 +13661,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>301</v>
       </c>
@@ -13690,7 +13690,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>351</v>
       </c>
@@ -13719,7 +13719,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>294</v>
       </c>
@@ -13748,7 +13748,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
         <v>298</v>
       </c>
@@ -13777,7 +13777,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107" t="s">
         <v>348</v>
       </c>
@@ -13803,7 +13803,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107" t="s">
         <v>303</v>
       </c>
@@ -13829,7 +13829,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="120" t="s">
         <v>349</v>
       </c>
@@ -13849,7 +13849,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107" t="s">
         <v>350</v>
       </c>
@@ -13869,7 +13869,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107" t="s">
         <v>351</v>
       </c>
@@ -13888,7 +13888,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -13899,7 +13899,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -13910,7 +13910,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -13921,7 +13921,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -13932,7 +13932,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -13959,7 +13959,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="107" t="s">
         <v>331</v>
       </c>
@@ -13985,7 +13985,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -14011,7 +14011,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>352</v>
       </c>
@@ -14037,7 +14037,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
         <v>298</v>
       </c>
@@ -14063,7 +14063,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
         <v>294</v>
       </c>
@@ -14089,7 +14089,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107" t="s">
         <v>386</v>
       </c>
@@ -14115,7 +14115,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107" t="s">
         <v>303</v>
       </c>
@@ -14141,7 +14141,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107" t="s">
         <v>387</v>
       </c>
@@ -14161,7 +14161,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107" t="s">
         <v>314</v>
       </c>
@@ -14181,7 +14181,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107" t="s">
         <v>388</v>
       </c>
@@ -14200,7 +14200,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -14211,7 +14211,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -14222,7 +14222,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -14233,7 +14233,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -14260,7 +14260,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="107" t="s">
         <v>331</v>
       </c>
@@ -14286,7 +14286,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -14312,7 +14312,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>389</v>
       </c>
@@ -14338,7 +14338,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>322</v>
       </c>
@@ -14364,7 +14364,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="107" t="s">
         <v>298</v>
       </c>
@@ -14390,7 +14390,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>358</v>
       </c>
@@ -14416,7 +14416,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107" t="s">
         <v>303</v>
       </c>
@@ -14442,7 +14442,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107" t="s">
         <v>359</v>
       </c>
@@ -14462,7 +14462,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107" t="s">
         <v>314</v>
       </c>
@@ -14482,7 +14482,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107" t="s">
         <v>360</v>
       </c>
@@ -14501,7 +14501,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="107" t="s">
         <v>361</v>
       </c>
@@ -14520,7 +14520,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -14531,7 +14531,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -14542,7 +14542,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -14553,7 +14553,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -14580,7 +14580,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
         <v>331</v>
       </c>
@@ -14606,7 +14606,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>301</v>
       </c>
@@ -14632,7 +14632,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>390</v>
       </c>
@@ -14658,7 +14658,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
         <v>298</v>
       </c>
@@ -14684,7 +14684,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107" t="s">
         <v>294</v>
       </c>
@@ -14710,7 +14710,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107" t="s">
         <v>386</v>
       </c>
@@ -14736,7 +14736,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107" t="s">
         <v>303</v>
       </c>
@@ -14762,7 +14762,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107" t="s">
         <v>391</v>
       </c>
@@ -14782,7 +14782,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107" t="s">
         <v>314</v>
       </c>
@@ -14802,7 +14802,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107" t="s">
         <v>392</v>
       </c>
@@ -14821,7 +14821,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -14832,7 +14832,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -14843,7 +14843,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -14854,7 +14854,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -14881,7 +14881,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
         <v>331</v>
       </c>
@@ -14907,7 +14907,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="107" t="s">
         <v>301</v>
       </c>
@@ -14933,7 +14933,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>366</v>
       </c>
@@ -14959,7 +14959,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>322</v>
       </c>
@@ -14985,7 +14985,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>298</v>
       </c>
@@ -15011,7 +15011,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107" t="s">
         <v>391</v>
       </c>
@@ -15037,7 +15037,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107" t="s">
         <v>368</v>
       </c>
@@ -15063,7 +15063,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107" t="s">
         <v>394</v>
       </c>
@@ -15083,7 +15083,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107" t="s">
         <v>314</v>
       </c>
@@ -15103,7 +15103,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107" t="s">
         <v>395</v>
       </c>
@@ -15122,7 +15122,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -15133,7 +15133,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -15144,7 +15144,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -15155,7 +15155,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -15166,7 +15166,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129" t="s">
+      <c r="A75" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -15193,7 +15193,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
         <v>331</v>
       </c>
@@ -15219,7 +15219,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="107" t="s">
         <v>301</v>
       </c>
@@ -15245,7 +15245,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
         <v>373</v>
       </c>
@@ -15271,7 +15271,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
         <v>372</v>
       </c>
@@ -15297,7 +15297,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
         <v>371</v>
       </c>
@@ -15323,7 +15323,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
         <v>373</v>
       </c>
@@ -15349,7 +15349,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="107" t="s">
         <v>368</v>
       </c>
@@ -15375,7 +15375,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
         <v>373</v>
       </c>
@@ -15395,7 +15395,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="107" t="s">
         <v>314</v>
       </c>
@@ -15415,7 +15415,7 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
+      <c r="A85" s="132"/>
       <c r="B85" s="107" t="s">
         <v>371</v>
       </c>
@@ -15435,7 +15435,7 @@
       <c r="G85" s="110"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
+      <c r="A86" s="132"/>
       <c r="B86" s="107" t="s">
         <v>396</v>
       </c>
@@ -15454,10 +15454,10 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
+      <c r="A87" s="132"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -15468,7 +15468,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="129"/>
+      <c r="A89" s="132"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -15479,7 +15479,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="129" t="s">
+      <c r="A90" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -15506,7 +15506,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="107" t="s">
         <v>375</v>
       </c>
@@ -15532,7 +15532,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="129"/>
+      <c r="A92" s="132"/>
       <c r="B92" s="107" t="s">
         <v>331</v>
       </c>
@@ -15558,7 +15558,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
+      <c r="A93" s="132"/>
       <c r="B93" s="107" t="s">
         <v>375</v>
       </c>
@@ -15584,7 +15584,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
+      <c r="A94" s="132"/>
       <c r="B94" s="107" t="s">
         <v>294</v>
       </c>
@@ -15610,7 +15610,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
+      <c r="A95" s="132"/>
       <c r="B95" s="107" t="s">
         <v>310</v>
       </c>
@@ -15636,7 +15636,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
+      <c r="A96" s="132"/>
       <c r="B96" s="107" t="s">
         <v>376</v>
       </c>
@@ -15662,7 +15662,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
+      <c r="A97" s="132"/>
       <c r="B97" s="107" t="s">
         <v>377</v>
       </c>
@@ -15688,7 +15688,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
+      <c r="A98" s="132"/>
       <c r="B98" s="107" t="s">
         <v>303</v>
       </c>
@@ -15708,7 +15708,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
+      <c r="A99" s="132"/>
       <c r="B99" s="107" t="s">
         <v>375</v>
       </c>
@@ -15728,7 +15728,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
+      <c r="A100" s="132"/>
       <c r="B100" s="107" t="s">
         <v>378</v>
       </c>
@@ -15747,7 +15747,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -15758,7 +15758,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -15769,7 +15769,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="129"/>
+      <c r="A103" s="132"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -15780,7 +15780,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="130"/>
+      <c r="A104" s="133"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -15791,7 +15791,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="131" t="s">
+      <c r="A105" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -15818,7 +15818,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="131"/>
+      <c r="A106" s="134"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -15844,7 +15844,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131"/>
+      <c r="A107" s="134"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -15870,7 +15870,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -15896,7 +15896,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -15922,7 +15922,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -15948,7 +15948,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -15974,7 +15974,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -16000,7 +16000,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -16020,7 +16020,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -16032,7 +16032,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -16043,7 +16043,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -16054,7 +16054,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -16065,7 +16065,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="131"/>
+      <c r="A118" s="134"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -16076,7 +16076,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="132"/>
+      <c r="A119" s="135"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -16087,7 +16087,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="133" t="s">
+      <c r="A120" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -16114,7 +16114,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="133"/>
+      <c r="A121" s="136"/>
       <c r="B121" s="115" t="s">
         <v>380</v>
       </c>
@@ -16140,7 +16140,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133"/>
+      <c r="A122" s="136"/>
       <c r="B122" s="115" t="s">
         <v>301</v>
       </c>
@@ -16166,7 +16166,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="115" t="s">
         <v>381</v>
       </c>
@@ -16192,7 +16192,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="115" t="s">
         <v>382</v>
       </c>
@@ -16218,7 +16218,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="115" t="s">
         <v>310</v>
       </c>
@@ -16244,7 +16244,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="107" t="s">
         <v>294</v>
       </c>
@@ -16270,7 +16270,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="120" t="s">
         <v>383</v>
       </c>
@@ -16296,7 +16296,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="115" t="s">
         <v>303</v>
       </c>
@@ -16316,7 +16316,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115" t="s">
         <v>398</v>
       </c>
@@ -16336,7 +16336,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="B130" s="115" t="s">
         <v>399</v>
       </c>
@@ -16355,7 +16355,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="115" t="s">
         <v>398</v>
       </c>
@@ -16374,7 +16374,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -16385,7 +16385,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -16396,7 +16396,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="133"/>
+      <c r="A134" s="136"/>
       <c r="B134" s="117"/>
       <c r="C134" s="113"/>
       <c r="D134" s="114"/>
@@ -16561,8 +16561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30934AA5-FE34-4D93-9147-E487E171875A}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="R64" sqref="R64"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16601,7 +16601,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -16631,7 +16631,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>298</v>
       </c>
@@ -16660,7 +16660,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>351</v>
       </c>
@@ -16689,7 +16689,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>303</v>
       </c>
@@ -16718,7 +16718,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>401</v>
       </c>
@@ -16747,7 +16747,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107"/>
       <c r="C7" s="107"/>
       <c r="D7" s="108"/>
@@ -16768,7 +16768,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107"/>
       <c r="C8" s="107"/>
       <c r="D8" s="108"/>
@@ -16786,7 +16786,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107"/>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -16804,7 +16804,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="120"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108"/>
@@ -16816,7 +16816,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -16828,7 +16828,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -16839,7 +16839,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -16850,7 +16850,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -16861,7 +16861,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -16872,7 +16872,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -16883,7 +16883,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -16910,7 +16910,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="107" t="s">
         <v>331</v>
       </c>
@@ -16936,7 +16936,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -16962,7 +16962,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>402</v>
       </c>
@@ -16988,7 +16988,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
         <v>322</v>
       </c>
@@ -17014,7 +17014,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
         <v>298</v>
       </c>
@@ -17040,7 +17040,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107" t="s">
         <v>354</v>
       </c>
@@ -17066,7 +17066,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107" t="s">
         <v>303</v>
       </c>
@@ -17092,7 +17092,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107" t="s">
         <v>355</v>
       </c>
@@ -17112,7 +17112,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107" t="s">
         <v>314</v>
       </c>
@@ -17132,7 +17132,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107" t="s">
         <v>355</v>
       </c>
@@ -17151,7 +17151,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107" t="s">
         <v>403</v>
       </c>
@@ -17170,7 +17170,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -17181,7 +17181,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -17192,7 +17192,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -17219,7 +17219,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="107" t="s">
         <v>331</v>
       </c>
@@ -17245,7 +17245,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -17271,7 +17271,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>357</v>
       </c>
@@ -17297,7 +17297,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>322</v>
       </c>
@@ -17323,7 +17323,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="107" t="s">
         <v>298</v>
       </c>
@@ -17349,7 +17349,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>358</v>
       </c>
@@ -17375,7 +17375,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107" t="s">
         <v>303</v>
       </c>
@@ -17401,7 +17401,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107" t="s">
         <v>359</v>
       </c>
@@ -17421,7 +17421,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107" t="s">
         <v>314</v>
       </c>
@@ -17441,7 +17441,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107" t="s">
         <v>360</v>
       </c>
@@ -17460,7 +17460,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="107" t="s">
         <v>361</v>
       </c>
@@ -17479,7 +17479,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -17490,7 +17490,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -17501,7 +17501,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -17512,7 +17512,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -17539,7 +17539,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
         <v>405</v>
       </c>
@@ -17565,7 +17565,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>406</v>
       </c>
@@ -17591,7 +17591,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>314</v>
       </c>
@@ -17617,7 +17617,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107"/>
       <c r="C50" s="107"/>
       <c r="D50" s="108"/>
@@ -17635,7 +17635,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107"/>
       <c r="C51" s="107"/>
       <c r="D51" s="108"/>
@@ -17653,7 +17653,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107"/>
       <c r="C52" s="107"/>
       <c r="D52" s="108"/>
@@ -17671,7 +17671,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107"/>
       <c r="C53" s="107"/>
       <c r="D53" s="108"/>
@@ -17689,7 +17689,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -17701,7 +17701,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -17713,7 +17713,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -17724,7 +17724,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -17735,7 +17735,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -17746,7 +17746,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -17757,7 +17757,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -17784,7 +17784,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
         <v>408</v>
       </c>
@@ -17810,7 +17810,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="107" t="s">
         <v>409</v>
       </c>
@@ -17836,7 +17836,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>314</v>
       </c>
@@ -17862,7 +17862,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>298</v>
       </c>
@@ -17888,7 +17888,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>410</v>
       </c>
@@ -17914,7 +17914,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107"/>
       <c r="C66" s="107"/>
       <c r="D66" s="108"/>
@@ -17932,7 +17932,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107"/>
       <c r="C67" s="107"/>
       <c r="D67" s="108"/>
@@ -17950,7 +17950,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107"/>
       <c r="C68" s="107"/>
       <c r="D68" s="108"/>
@@ -17962,7 +17962,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -17974,7 +17974,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -17985,7 +17985,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -17996,7 +17996,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -18007,7 +18007,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -18018,7 +18018,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -18029,7 +18029,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129" t="s">
+      <c r="A75" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -18056,163 +18056,163 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="C76" s="107" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D76" s="108">
-        <v>0.39583333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="E76" s="108">
-        <v>0.4375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F76" s="108">
         <f t="shared" si="16"/>
-        <v>4.1666666666666685E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H76" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I76" s="108">
-        <f t="shared" ref="I76" si="18">SUMIFS(F75:F89, C75:C89,H76)</f>
-        <v>0.2638888888888889</v>
+        <f>SUMIFS(F75:F89, C75:C89,H76)</f>
+        <v>0.22916666666666669</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="107" t="s">
-        <v>301</v>
+        <v>371</v>
       </c>
       <c r="C77" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D77" s="108">
-        <v>0.4375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E77" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="F77" s="108">
         <f t="shared" si="16"/>
-        <v>2.0833333333333315E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H77" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I77" s="108">
-        <f t="shared" ref="I77" si="19">SUMIFS(F75:F89, C75:C89,H77)</f>
-        <v>9.7222222222222154E-2</v>
+        <f>SUMIFS(F75:F89, C75:C89,H77)</f>
+        <v>5.5555555555555469E-2</v>
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C78" s="107" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D78" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E78" s="108">
-        <v>0.5</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F78" s="108">
         <f t="shared" si="16"/>
-        <v>4.1666666666666685E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H78" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I78" s="108">
-        <f t="shared" ref="I78" si="20">SUMIFS(F75:F89, C75:C89,H78)</f>
+        <f>SUMIFS(F75:F89, C75:C89,H78)</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C79" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D79" s="108">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E79" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="F79" s="108">
         <f t="shared" si="16"/>
-        <v>2.083333333333337E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H79" s="109" t="s">
         <v>300</v>
       </c>
       <c r="I79" s="108">
-        <f t="shared" ref="I79" si="21">SUMIFS(F75:F89, C75:C89,H79)</f>
-        <v>3.125E-2</v>
+        <f>SUMIFS(F75:F89, C75:C89,H79)</f>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
-        <v>322</v>
+        <v>373</v>
       </c>
       <c r="C80" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D80" s="108">
-        <v>0.52083333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E80" s="108">
-        <v>0.55555555555555558</v>
+        <v>0.65625</v>
       </c>
       <c r="F80" s="108">
         <f t="shared" si="16"/>
-        <v>3.472222222222221E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H80" s="109" t="s">
         <v>302</v>
       </c>
       <c r="I80" s="108">
-        <f t="shared" ref="I80" si="22">SUMIFS(F75:F89, C75:C89,H80)</f>
+        <f>SUMIFS(F75:F89, C75:C89,H80)</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C81" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D81" s="108">
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E81" s="108">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="F81" s="108">
         <f t="shared" si="16"/>
-        <v>4.166666666666663E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H81" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I81" s="108">
-        <f t="shared" ref="I81" si="23">SUMIFS(F75:F89, C75:C89,H81)</f>
+        <f>SUMIFS(F75:F89, C75:C89,H81)</f>
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="107" t="s">
         <v>373</v>
       </c>
@@ -18220,122 +18220,106 @@
         <v>290</v>
       </c>
       <c r="D82" s="108">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="E82" s="108">
-        <v>0.65625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F82" s="108">
         <f t="shared" si="16"/>
-        <v>3.125E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H82" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I82" s="106">
-        <f t="shared" ref="I82" si="24">SUM(I76:I81)</f>
-        <v>0.43402777777777773</v>
+        <f t="shared" ref="I82" si="18">SUM(I76:I81)</f>
+        <v>0.33680555555555547</v>
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="C83" s="107" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D83" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E83" s="108">
-        <v>0.6875</v>
+        <v>0.71875</v>
       </c>
       <c r="F83" s="108">
         <f t="shared" si="16"/>
-        <v>2.083333333333337E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="107" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C84" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D84" s="108">
-        <v>0.6875</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="E84" s="108">
-        <v>0.70833333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="F84" s="108">
+        <f>E84-D84</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I84" s="110"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="132"/>
+      <c r="B85" s="107" t="s">
+        <v>374</v>
+      </c>
+      <c r="C85" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D85" s="108">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E85" s="108">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="F85" s="108">
+        <f>E85-D85</f>
+        <v>3.4722222222222099E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="132"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="107"/>
+      <c r="D86" s="108"/>
+      <c r="E86" s="108"/>
+      <c r="F86" s="108">
         <f t="shared" si="16"/>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="I84" s="110"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
-      <c r="B85" s="107" t="s">
-        <v>314</v>
-      </c>
-      <c r="C85" s="107" t="s">
-        <v>300</v>
-      </c>
-      <c r="D85" s="108">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E85" s="108">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="F85" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="132"/>
+      <c r="B87" s="107"/>
+      <c r="C87" s="107"/>
+      <c r="D87" s="108"/>
+      <c r="E87" s="108"/>
+      <c r="F87" s="108">
         <f t="shared" si="16"/>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
-      <c r="B86" s="107" t="s">
-        <v>371</v>
-      </c>
-      <c r="C86" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="D86" s="108">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="E86" s="108">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="F86" s="108">
-        <f>E86-D86</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
-      <c r="B87" s="107" t="s">
-        <v>374</v>
-      </c>
-      <c r="C87" s="107" t="s">
-        <v>295</v>
-      </c>
-      <c r="D87" s="108">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="E87" s="108">
-        <v>0.99305555555555547</v>
-      </c>
-      <c r="F87" s="108">
-        <f>E87-D87</f>
-        <v>3.4722222222222099E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -18346,7 +18330,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="129"/>
+      <c r="A89" s="132"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -18357,7 +18341,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="129" t="s">
+      <c r="A90" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -18384,7 +18368,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="107" t="s">
         <v>375</v>
       </c>
@@ -18405,12 +18389,12 @@
         <v>290</v>
       </c>
       <c r="I91" s="108">
-        <f t="shared" ref="I91" si="25">SUMIFS(F90:F104, C90:C104,H91)</f>
+        <f>SUMIFS(F90:F104, C90:C104,H91)</f>
         <v>0.27083333333333337</v>
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="129"/>
+      <c r="A92" s="132"/>
       <c r="B92" s="107" t="s">
         <v>331</v>
       </c>
@@ -18431,12 +18415,12 @@
         <v>295</v>
       </c>
       <c r="I92" s="108">
-        <f t="shared" ref="I92" si="26">SUMIFS(F90:F104, C90:C104,H92)</f>
+        <f>SUMIFS(F90:F104, C90:C104,H92)</f>
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
+      <c r="A93" s="132"/>
       <c r="B93" s="107" t="s">
         <v>375</v>
       </c>
@@ -18457,12 +18441,12 @@
         <v>297</v>
       </c>
       <c r="I93" s="108">
-        <f t="shared" ref="I93" si="27">SUMIFS(F90:F104, C90:C104,H93)</f>
+        <f>SUMIFS(F90:F104, C90:C104,H93)</f>
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
+      <c r="A94" s="132"/>
       <c r="B94" s="107" t="s">
         <v>294</v>
       </c>
@@ -18483,12 +18467,12 @@
         <v>300</v>
       </c>
       <c r="I94" s="108">
-        <f t="shared" ref="I94" si="28">SUMIFS(F90:F104, C90:C104,H94)</f>
+        <f>SUMIFS(F90:F104, C90:C104,H94)</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
+      <c r="A95" s="132"/>
       <c r="B95" s="107" t="s">
         <v>310</v>
       </c>
@@ -18509,12 +18493,12 @@
         <v>302</v>
       </c>
       <c r="I95" s="108">
-        <f t="shared" ref="I95" si="29">SUMIFS(F90:F104, C90:C104,H95)</f>
+        <f>SUMIFS(F90:F104, C90:C104,H95)</f>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
+      <c r="A96" s="132"/>
       <c r="B96" s="107" t="s">
         <v>376</v>
       </c>
@@ -18535,12 +18519,12 @@
         <v>299</v>
       </c>
       <c r="I96" s="108">
-        <f t="shared" ref="I96" si="30">SUMIFS(F90:F104, C90:C104,H96)</f>
+        <f>SUMIFS(F90:F104, C90:C104,H96)</f>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
+      <c r="A97" s="132"/>
       <c r="B97" s="107" t="s">
         <v>377</v>
       </c>
@@ -18561,12 +18545,12 @@
         <v>305</v>
       </c>
       <c r="I97" s="106">
-        <f t="shared" ref="I97" si="31">SUM(I91:I96)</f>
+        <f t="shared" ref="I97" si="19">SUM(I91:I96)</f>
         <v>0.42708333333333343</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
+      <c r="A98" s="132"/>
       <c r="B98" s="107" t="s">
         <v>303</v>
       </c>
@@ -18586,7 +18570,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
+      <c r="A99" s="132"/>
       <c r="B99" s="107" t="s">
         <v>375</v>
       </c>
@@ -18606,7 +18590,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
+      <c r="A100" s="132"/>
       <c r="B100" s="107" t="s">
         <v>378</v>
       </c>
@@ -18625,7 +18609,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -18636,7 +18620,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -18647,7 +18631,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="129"/>
+      <c r="A103" s="132"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -18658,7 +18642,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="130"/>
+      <c r="A104" s="133"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -18669,7 +18653,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="131" t="s">
+      <c r="A105" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -18696,7 +18680,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="131"/>
+      <c r="A106" s="134"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -18717,12 +18701,12 @@
         <v>290</v>
       </c>
       <c r="I106" s="108">
-        <f t="shared" ref="I106" si="32">SUMIFS(F105:F119, C105:C119,H106)</f>
+        <f>SUMIFS(F105:F119, C105:C119,H106)</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131"/>
+      <c r="A107" s="134"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -18743,12 +18727,12 @@
         <v>295</v>
       </c>
       <c r="I107" s="108">
-        <f t="shared" ref="I107" si="33">SUMIFS(F105:F119, C105:C119,H107)</f>
+        <f>SUMIFS(F105:F119, C105:C119,H107)</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -18769,12 +18753,12 @@
         <v>297</v>
       </c>
       <c r="I108" s="108">
-        <f t="shared" ref="I108" si="34">SUMIFS(F105:F119, C105:C119,H108)</f>
+        <f>SUMIFS(F105:F119, C105:C119,H108)</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -18795,12 +18779,12 @@
         <v>300</v>
       </c>
       <c r="I109" s="108">
-        <f t="shared" ref="I109" si="35">SUMIFS(F105:F119, C105:C119,H109)</f>
+        <f>SUMIFS(F105:F119, C105:C119,H109)</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -18821,12 +18805,12 @@
         <v>302</v>
       </c>
       <c r="I110" s="108">
-        <f t="shared" ref="I110" si="36">SUMIFS(F105:F119, C105:C119,H110)</f>
+        <f>SUMIFS(F105:F119, C105:C119,H110)</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -18847,12 +18831,12 @@
         <v>299</v>
       </c>
       <c r="I111" s="108">
-        <f t="shared" ref="I111" si="37">SUMIFS(F105:F119, C105:C119,H111)</f>
+        <f>SUMIFS(F105:F119, C105:C119,H111)</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -18873,12 +18857,12 @@
         <v>305</v>
       </c>
       <c r="I112" s="106">
-        <f t="shared" ref="I112" si="38">SUM(I106:I111)</f>
+        <f t="shared" ref="I112" si="20">SUM(I106:I111)</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -18898,7 +18882,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -18910,7 +18894,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -18921,7 +18905,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -18932,7 +18916,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -18943,7 +18927,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="131"/>
+      <c r="A118" s="134"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -18954,7 +18938,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="132"/>
+      <c r="A119" s="135"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -18965,7 +18949,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="133" t="s">
+      <c r="A120" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -18992,7 +18976,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="133"/>
+      <c r="A121" s="136"/>
       <c r="B121" s="115" t="s">
         <v>310</v>
       </c>
@@ -19013,12 +18997,12 @@
         <v>290</v>
       </c>
       <c r="I121" s="108">
-        <f t="shared" ref="I121" si="39">SUMIFS(F120:F134, C120:C134,H121)</f>
+        <f>SUMIFS(F120:F134, C120:C134,H121)</f>
         <v>0.19791666666666674</v>
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133"/>
+      <c r="A122" s="136"/>
       <c r="B122" s="115" t="s">
         <v>412</v>
       </c>
@@ -19039,12 +19023,12 @@
         <v>295</v>
       </c>
       <c r="I122" s="108">
-        <f t="shared" ref="I122" si="40">SUMIFS(F120:F134, C120:C134,H122)</f>
+        <f>SUMIFS(F120:F134, C120:C134,H122)</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="115" t="s">
         <v>413</v>
       </c>
@@ -19065,12 +19049,12 @@
         <v>297</v>
       </c>
       <c r="I123" s="108">
-        <f t="shared" ref="I123" si="41">SUMIFS(F120:F134, C120:C134,H123)</f>
+        <f>SUMIFS(F120:F134, C120:C134,H123)</f>
         <v>8.3333333333333315E-2</v>
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="115" t="s">
         <v>303</v>
       </c>
@@ -19091,12 +19075,12 @@
         <v>300</v>
       </c>
       <c r="I124" s="108">
-        <f t="shared" ref="I124" si="42">SUMIFS(F120:F134, C120:C134,H124)</f>
+        <f>SUMIFS(F120:F134, C120:C134,H124)</f>
         <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="115" t="s">
         <v>414</v>
       </c>
@@ -19117,12 +19101,12 @@
         <v>302</v>
       </c>
       <c r="I125" s="108">
-        <f t="shared" ref="I125" si="43">SUMIFS(F120:F134, C120:C134,H125)</f>
+        <f>SUMIFS(F120:F134, C120:C134,H125)</f>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="115"/>
       <c r="C126" s="107"/>
       <c r="D126" s="108"/>
@@ -19135,12 +19119,12 @@
         <v>299</v>
       </c>
       <c r="I126" s="108">
-        <f t="shared" ref="I126" si="44">SUMIFS(F120:F134, C120:C134,H126)</f>
+        <f>SUMIFS(F120:F134, C120:C134,H126)</f>
         <v>7.6388888888888951E-2</v>
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="120"/>
       <c r="C127" s="107"/>
       <c r="D127" s="108"/>
@@ -19153,12 +19137,12 @@
         <v>305</v>
       </c>
       <c r="I127" s="106">
-        <f t="shared" ref="I127" si="45">SUM(I121:I126)</f>
+        <f t="shared" ref="I127" si="21">SUM(I121:I126)</f>
         <v>0.37847222222222227</v>
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="115"/>
       <c r="C128" s="107"/>
       <c r="D128" s="108"/>
@@ -19170,7 +19154,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115"/>
       <c r="C129" s="107"/>
       <c r="D129" s="108"/>
@@ -19182,7 +19166,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="B130" s="115"/>
       <c r="C130" s="107"/>
       <c r="D130" s="108"/>
@@ -19193,46 +19177,46 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="115"/>
       <c r="C131" s="107"/>
       <c r="D131" s="108"/>
       <c r="E131" s="108"/>
       <c r="F131" s="108">
-        <f t="shared" ref="F131:F136" si="46">E131-D131</f>
+        <f t="shared" ref="F131:F136" si="22">E131-D131</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
       <c r="E132" s="108"/>
       <c r="F132" s="108">
-        <f t="shared" si="46"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
       <c r="E133" s="112"/>
       <c r="F133" s="112">
-        <f t="shared" si="46"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="133"/>
+      <c r="A134" s="136"/>
       <c r="B134" s="117"/>
       <c r="C134" s="113"/>
       <c r="D134" s="114"/>
       <c r="E134" s="114"/>
       <c r="F134" s="114">
-        <f t="shared" si="46"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19391,8 +19375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F5FAB4-9E65-460D-998C-A6B05E121251}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19431,7 +19415,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -19461,7 +19445,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>314</v>
       </c>
@@ -19490,7 +19474,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>298</v>
       </c>
@@ -19519,7 +19503,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>416</v>
       </c>
@@ -19548,7 +19532,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>417</v>
       </c>
@@ -19577,7 +19561,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
         <v>418</v>
       </c>
@@ -19606,7 +19590,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107"/>
       <c r="C8" s="107"/>
       <c r="D8" s="108"/>
@@ -19624,7 +19608,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107"/>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -19642,7 +19626,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="120"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108"/>
@@ -19654,7 +19638,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -19666,7 +19650,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -19677,7 +19661,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -19688,7 +19672,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -19699,7 +19683,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -19710,7 +19694,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -19721,7 +19705,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -19748,7 +19732,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="107" t="s">
         <v>331</v>
       </c>
@@ -19774,7 +19758,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -19800,7 +19784,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>353</v>
       </c>
@@ -19826,7 +19810,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
         <v>322</v>
       </c>
@@ -19852,7 +19836,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
         <v>298</v>
       </c>
@@ -19878,7 +19862,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107" t="s">
         <v>354</v>
       </c>
@@ -19904,7 +19888,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107" t="s">
         <v>303</v>
       </c>
@@ -19930,7 +19914,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107" t="s">
         <v>355</v>
       </c>
@@ -19950,7 +19934,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107" t="s">
         <v>314</v>
       </c>
@@ -19970,7 +19954,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107" t="s">
         <v>355</v>
       </c>
@@ -19989,7 +19973,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -20000,7 +19984,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -20011,7 +19995,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -20022,7 +20006,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -20049,7 +20033,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="107" t="s">
         <v>331</v>
       </c>
@@ -20075,7 +20059,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -20101,7 +20085,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>357</v>
       </c>
@@ -20127,7 +20111,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>322</v>
       </c>
@@ -20153,7 +20137,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="107" t="s">
         <v>298</v>
       </c>
@@ -20179,7 +20163,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>358</v>
       </c>
@@ -20205,7 +20189,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107" t="s">
         <v>303</v>
       </c>
@@ -20231,7 +20215,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107" t="s">
         <v>359</v>
       </c>
@@ -20251,7 +20235,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107" t="s">
         <v>314</v>
       </c>
@@ -20271,7 +20255,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107" t="s">
         <v>360</v>
       </c>
@@ -20290,7 +20274,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="107" t="s">
         <v>361</v>
       </c>
@@ -20309,7 +20293,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -20320,7 +20304,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -20331,7 +20315,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -20342,7 +20326,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -20369,7 +20353,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
         <v>420</v>
       </c>
@@ -20395,7 +20379,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>421</v>
       </c>
@@ -20421,7 +20405,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>422</v>
       </c>
@@ -20447,7 +20431,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
         <v>423</v>
       </c>
@@ -20473,7 +20457,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107"/>
       <c r="C51" s="107"/>
       <c r="D51" s="108"/>
@@ -20491,7 +20475,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107"/>
       <c r="C52" s="107"/>
       <c r="D52" s="108"/>
@@ -20509,7 +20493,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107"/>
       <c r="C53" s="107"/>
       <c r="D53" s="108"/>
@@ -20527,7 +20511,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -20539,7 +20523,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -20551,7 +20535,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -20562,7 +20546,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -20573,7 +20557,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -20584,7 +20568,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -20595,7 +20579,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -20622,7 +20606,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
         <v>425</v>
       </c>
@@ -20648,7 +20632,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="107" t="s">
         <v>426</v>
       </c>
@@ -20674,7 +20658,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>427</v>
       </c>
@@ -20700,7 +20684,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>428</v>
       </c>
@@ -20726,7 +20710,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>429</v>
       </c>
@@ -20752,7 +20736,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107"/>
       <c r="C66" s="107"/>
       <c r="D66" s="108"/>
@@ -20770,13 +20754,13 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107"/>
       <c r="C67" s="107"/>
       <c r="D67" s="108"/>
       <c r="E67" s="108"/>
       <c r="F67" s="108">
-        <f t="shared" ref="F67:F128" si="16">E67-D67</f>
+        <f t="shared" ref="F67:F130" si="16">E67-D67</f>
         <v>0</v>
       </c>
       <c r="H67" s="105" t="s">
@@ -20788,7 +20772,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107"/>
       <c r="C68" s="107"/>
       <c r="D68" s="108"/>
@@ -20800,7 +20784,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -20812,7 +20796,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -20823,7 +20807,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -20834,7 +20818,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -20845,7 +20829,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -20856,7 +20840,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -20867,7 +20851,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129" t="s">
+      <c r="A75" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -20894,7 +20878,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
         <v>301</v>
       </c>
@@ -20915,12 +20899,12 @@
         <v>290</v>
       </c>
       <c r="I76" s="108">
-        <f>SUMIFS(F75:F87, C75:C87,H76)</f>
+        <f>SUMIFS(F75:F89, C75:C89,H76)</f>
         <v>0.18750000000000006</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="107" t="s">
         <v>371</v>
       </c>
@@ -20941,12 +20925,12 @@
         <v>295</v>
       </c>
       <c r="I77" s="108">
-        <f>SUMIFS(F75:F87, C75:C87,H77)</f>
+        <f>SUMIFS(F75:F89, C75:C89,H77)</f>
         <v>3.4722222222222099E-2</v>
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
         <v>373</v>
       </c>
@@ -20967,12 +20951,12 @@
         <v>297</v>
       </c>
       <c r="I78" s="108">
-        <f>SUMIFS(F75:F87, C75:C87,H78)</f>
+        <f>SUMIFS(F75:F89, C75:C89,H78)</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
         <v>368</v>
       </c>
@@ -20993,12 +20977,12 @@
         <v>300</v>
       </c>
       <c r="I79" s="108">
-        <f>SUMIFS(F75:F87, C75:C87,H79)</f>
-        <v>3.125E-2</v>
+        <f>SUMIFS(F75:F89, C75:C89,H79)</f>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
         <v>373</v>
       </c>
@@ -21019,12 +21003,12 @@
         <v>302</v>
       </c>
       <c r="I80" s="108">
-        <f>SUMIFS(F75:F87, C75:C87,H80)</f>
+        <f>SUMIFS(F75:F89, C75:C89,H80)</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
         <v>314</v>
       </c>
@@ -21035,22 +21019,22 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E81" s="108">
-        <v>0.73958333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="F81" s="108">
         <f>E81-D81</f>
-        <v>3.125E-2</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H81" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I81" s="108">
-        <f>SUMIFS(F75:F87, C75:C87,H81)</f>
+        <f>SUMIFS(F75:F89, C75:C89,H81)</f>
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="107" t="s">
         <v>371</v>
       </c>
@@ -21072,11 +21056,11 @@
       </c>
       <c r="I82" s="106">
         <f t="shared" ref="I82" si="18">SUM(I76:I81)</f>
-        <v>0.29513888888888884</v>
+        <v>0.2847222222222221</v>
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
         <v>374</v>
       </c>
@@ -21096,8 +21080,8 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
-      <c r="B84" s="136"/>
+      <c r="A84" s="132"/>
+      <c r="B84" s="131"/>
       <c r="C84" s="113"/>
       <c r="D84" s="114"/>
       <c r="E84" s="114"/>
@@ -21105,272 +21089,248 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
+      <c r="A85" s="132"/>
       <c r="C85" s="113"/>
       <c r="D85" s="114"/>
       <c r="E85" s="114"/>
       <c r="F85" s="114"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
-      <c r="B86" s="107"/>
-      <c r="C86" s="134"/>
-      <c r="D86" s="135"/>
-      <c r="E86" s="135"/>
-      <c r="F86" s="135">
+      <c r="A86" s="132"/>
+      <c r="C86" s="113"/>
+      <c r="D86" s="114"/>
+      <c r="E86" s="114"/>
+      <c r="F86" s="114"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="132"/>
+      <c r="C87" s="113"/>
+      <c r="D87" s="114"/>
+      <c r="E87" s="114"/>
+      <c r="F87" s="114"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="132"/>
+      <c r="B88" s="107"/>
+      <c r="C88" s="129"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="130"/>
+      <c r="F88" s="130">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
-      <c r="B87" s="107"/>
-      <c r="C87" s="107"/>
-      <c r="D87" s="108"/>
-      <c r="E87" s="108"/>
-      <c r="F87" s="108">
+    <row r="89" spans="1:9">
+      <c r="A89" s="132"/>
+      <c r="B89" s="107"/>
+      <c r="C89" s="107"/>
+      <c r="D89" s="108"/>
+      <c r="E89" s="108"/>
+      <c r="F89" s="108">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
-      <c r="B88" s="107" t="s">
+    <row r="90" spans="1:9">
+      <c r="A90" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="107" t="s">
         <v>314</v>
       </c>
-      <c r="C88" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="D88" s="108">
+      <c r="C90" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D90" s="108">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E88" s="108">
+      <c r="E90" s="108">
         <v>0.36458333333333331</v>
       </c>
-      <c r="F88" s="108">
+      <c r="F90" s="108">
         <f t="shared" si="16"/>
         <v>1.041666666666663E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="129"/>
-      <c r="B89" s="107" t="s">
+      <c r="H90" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="I90" s="106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="132"/>
+      <c r="B91" s="107" t="s">
         <v>375</v>
       </c>
-      <c r="C89" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="D89" s="108">
+      <c r="C91" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D91" s="108">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E89" s="108">
+      <c r="E91" s="108">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F89" s="108">
+      <c r="F91" s="108">
         <f t="shared" si="16"/>
         <v>3.125E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="129" t="s">
-        <v>28</v>
-      </c>
-      <c r="B90" s="107" t="s">
+      <c r="H91" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="I91" s="108">
+        <f>SUMIFS(F90:F104, C90:C104,H91)</f>
+        <v>0.27083333333333337</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="132"/>
+      <c r="B92" s="107" t="s">
         <v>331</v>
       </c>
-      <c r="C90" s="107" t="s">
+      <c r="C92" s="107" t="s">
         <v>295</v>
       </c>
-      <c r="D90" s="108">
+      <c r="D92" s="108">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E90" s="108">
+      <c r="E92" s="108">
         <v>0.4375</v>
       </c>
-      <c r="F90" s="108">
+      <c r="F92" s="108">
         <f t="shared" si="16"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="H90" s="106" t="s">
-        <v>291</v>
-      </c>
-      <c r="I90" s="106" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
-      <c r="B91" s="107" t="s">
+      <c r="H92" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="I92" s="108">
+        <f>SUMIFS(F90:F104, C90:C104,H92)</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="132"/>
+      <c r="B93" s="107" t="s">
         <v>375</v>
       </c>
-      <c r="C91" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="D91" s="108">
+      <c r="C93" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D93" s="108">
         <v>0.44444444444444442</v>
       </c>
-      <c r="E91" s="108">
+      <c r="E93" s="108">
         <v>0.52777777777777779</v>
       </c>
-      <c r="F91" s="108">
+      <c r="F93" s="108">
         <f t="shared" si="16"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="H91" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="I91" s="108">
-        <f>SUMIFS(F88:F102, C88:C102,H91)</f>
-        <v>0.27083333333333337</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="129"/>
-      <c r="B92" s="107" t="s">
+      <c r="H93" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I93" s="108">
+        <f>SUMIFS(F90:F104, C90:C104,H93)</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="132"/>
+      <c r="B94" s="107" t="s">
         <v>294</v>
       </c>
-      <c r="C92" s="107" t="s">
+      <c r="C94" s="107" t="s">
         <v>302</v>
       </c>
-      <c r="D92" s="108">
+      <c r="D94" s="108">
         <v>0.53125</v>
       </c>
-      <c r="E92" s="108">
+      <c r="E94" s="108">
         <v>0.5625</v>
       </c>
-      <c r="F92" s="108">
+      <c r="F94" s="108">
         <f t="shared" si="16"/>
         <v>3.125E-2</v>
       </c>
-      <c r="H92" s="109" t="s">
-        <v>295</v>
-      </c>
-      <c r="I92" s="108">
-        <f>SUMIFS(F88:F102, C88:C102,H92)</f>
-        <v>4.1666666666666685E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
-      <c r="B93" s="107" t="s">
+      <c r="H94" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="I94" s="108">
+        <f>SUMIFS(F90:F104, C90:C104,H94)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="132"/>
+      <c r="B95" s="107" t="s">
         <v>310</v>
       </c>
-      <c r="C93" s="107" t="s">
+      <c r="C95" s="107" t="s">
         <v>299</v>
       </c>
-      <c r="D93" s="108">
+      <c r="D95" s="108">
         <v>0.5625</v>
       </c>
-      <c r="E93" s="108">
+      <c r="E95" s="108">
         <v>0.59027777777777779</v>
       </c>
-      <c r="F93" s="108">
+      <c r="F95" s="108">
         <f t="shared" si="16"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="H93" s="109" t="s">
-        <v>297</v>
-      </c>
-      <c r="I93" s="108">
-        <f>SUMIFS(F88:F102, C88:C102,H93)</f>
-        <v>4.1666666666666741E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
-      <c r="B94" s="107" t="s">
+      <c r="H95" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="I95" s="108">
+        <f>SUMIFS(F90:F104, C90:C104,H95)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="132"/>
+      <c r="B96" s="107" t="s">
         <v>376</v>
       </c>
-      <c r="C94" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="D94" s="108">
+      <c r="C96" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D96" s="108">
         <v>0.59027777777777779</v>
       </c>
-      <c r="E94" s="108">
+      <c r="E96" s="108">
         <v>0.625</v>
       </c>
-      <c r="F94" s="108">
+      <c r="F96" s="108">
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="H94" s="109" t="s">
-        <v>300</v>
-      </c>
-      <c r="I94" s="108">
-        <f>SUMIFS(F88:F102, C88:C102,H94)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
-      <c r="B95" s="107" t="s">
+      <c r="H96" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="I96" s="108">
+        <f>SUMIFS(F90:F104, C90:C104,H96)</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="132"/>
+      <c r="B97" s="107" t="s">
         <v>377</v>
       </c>
-      <c r="C95" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="D95" s="108">
+      <c r="C97" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D97" s="108">
         <v>0.625</v>
       </c>
-      <c r="E95" s="108">
+      <c r="E97" s="108">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F95" s="108">
+      <c r="F97" s="108">
         <f t="shared" si="16"/>
         <v>4.166666666666663E-2</v>
-      </c>
-      <c r="H95" s="109" t="s">
-        <v>302</v>
-      </c>
-      <c r="I95" s="108">
-        <f>SUMIFS(F88:F102, C88:C102,H95)</f>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
-      <c r="B96" s="107" t="s">
-        <v>303</v>
-      </c>
-      <c r="C96" s="107" t="s">
-        <v>299</v>
-      </c>
-      <c r="D96" s="108">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E96" s="108">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="F96" s="108">
-        <f t="shared" si="16"/>
-        <v>1.388888888888884E-2</v>
-      </c>
-      <c r="H96" s="109" t="s">
-        <v>299</v>
-      </c>
-      <c r="I96" s="108">
-        <f>SUMIFS(F88:F102, C88:C102,H96)</f>
-        <v>4.166666666666663E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
-      <c r="B97" s="107" t="s">
-        <v>375</v>
-      </c>
-      <c r="C97" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="D97" s="108">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="E97" s="108">
-        <v>0.75</v>
-      </c>
-      <c r="F97" s="108">
-        <f t="shared" si="16"/>
-        <v>6.9444444444444531E-2</v>
       </c>
       <c r="H97" s="105" t="s">
         <v>305</v>
@@ -21381,50 +21341,66 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
+      <c r="A98" s="132"/>
       <c r="B98" s="107" t="s">
-        <v>378</v>
+        <v>303</v>
       </c>
       <c r="C98" s="107" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D98" s="108">
-        <v>0.79166666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E98" s="108">
-        <v>0.83333333333333337</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="F98" s="108">
         <f t="shared" si="16"/>
-        <v>4.1666666666666741E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
-      <c r="B99" s="107"/>
-      <c r="C99" s="107"/>
-      <c r="D99" s="108"/>
-      <c r="E99" s="108"/>
+      <c r="A99" s="132"/>
+      <c r="B99" s="107" t="s">
+        <v>375</v>
+      </c>
+      <c r="C99" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D99" s="108">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="E99" s="108">
+        <v>0.75</v>
+      </c>
       <c r="F99" s="108">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>6.9444444444444531E-2</v>
       </c>
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
-      <c r="B100" s="107"/>
-      <c r="C100" s="107"/>
-      <c r="D100" s="108"/>
-      <c r="E100" s="108"/>
+      <c r="A100" s="132"/>
+      <c r="B100" s="107" t="s">
+        <v>378</v>
+      </c>
+      <c r="C100" s="107" t="s">
+        <v>297</v>
+      </c>
+      <c r="D100" s="108">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E100" s="108">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F100" s="108">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -21435,7 +21411,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -21446,49 +21422,33 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="129"/>
-      <c r="B103" s="107" t="s">
-        <v>314</v>
-      </c>
-      <c r="C103" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="D103" s="108">
-        <v>0</v>
-      </c>
-      <c r="E103" s="108">
-        <v>0</v>
-      </c>
+      <c r="A103" s="132"/>
+      <c r="B103" s="107"/>
+      <c r="C103" s="107"/>
+      <c r="D103" s="108"/>
+      <c r="E103" s="108"/>
       <c r="F103" s="108">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="130"/>
-      <c r="B104" s="107" t="s">
-        <v>331</v>
-      </c>
-      <c r="C104" s="107" t="s">
-        <v>295</v>
-      </c>
-      <c r="D104" s="108">
-        <v>0</v>
-      </c>
-      <c r="E104" s="108">
-        <v>0</v>
-      </c>
+      <c r="A104" s="133"/>
+      <c r="B104" s="107"/>
+      <c r="C104" s="107"/>
+      <c r="D104" s="108"/>
+      <c r="E104" s="108"/>
       <c r="F104" s="108">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="131" t="s">
+      <c r="A105" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C105" s="107" t="s">
         <v>290</v>
@@ -21511,7 +21471,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="131"/>
+      <c r="A106" s="134"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -21532,17 +21492,17 @@
         <v>290</v>
       </c>
       <c r="I106" s="108">
-        <f>SUMIFS(F103:F117, C103:C117,H106)</f>
+        <f>SUMIFS(F105:F119, C105:C119,H106)</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131"/>
+      <c r="A107" s="134"/>
       <c r="B107" s="107" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C107" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D107" s="108">
         <v>0</v>
@@ -21558,17 +21518,17 @@
         <v>295</v>
       </c>
       <c r="I107" s="108">
-        <f>SUMIFS(F103:F117, C103:C117,H107)</f>
+        <f>SUMIFS(F105:F119, C105:C119,H107)</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="107" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="C108" s="107" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D108" s="108">
         <v>0</v>
@@ -21584,14 +21544,14 @@
         <v>297</v>
       </c>
       <c r="I108" s="108">
-        <f>SUMIFS(F103:F117, C103:C117,H108)</f>
+        <f>SUMIFS(F105:F119, C105:C119,H108)</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="107" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C109" s="107" t="s">
         <v>299</v>
@@ -21610,17 +21570,17 @@
         <v>300</v>
       </c>
       <c r="I109" s="108">
-        <f>SUMIFS(F103:F117, C103:C117,H109)</f>
+        <f>SUMIFS(F105:F119, C105:C119,H109)</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="107" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C110" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D110" s="108">
         <v>0</v>
@@ -21636,17 +21596,17 @@
         <v>302</v>
       </c>
       <c r="I110" s="108">
-        <f>SUMIFS(F103:F117, C103:C117,H110)</f>
+        <f>SUMIFS(F105:F119, C105:C119,H110)</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="107" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="C111" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D111" s="108">
         <v>0</v>
@@ -21662,16 +21622,24 @@
         <v>299</v>
       </c>
       <c r="I111" s="108">
-        <f>SUMIFS(F103:F117, C103:C117,H111)</f>
+        <f>SUMIFS(F105:F119, C105:C119,H111)</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
-      <c r="B112" s="107"/>
-      <c r="C112" s="107"/>
-      <c r="D112" s="108"/>
-      <c r="E112" s="108"/>
+      <c r="A112" s="134"/>
+      <c r="B112" s="107" t="s">
+        <v>315</v>
+      </c>
+      <c r="C112" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D112" s="108">
+        <v>0</v>
+      </c>
+      <c r="E112" s="108">
+        <v>0</v>
+      </c>
       <c r="F112" s="108">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -21685,11 +21653,19 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
-      <c r="B113" s="107"/>
-      <c r="C113" s="107"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="108"/>
+      <c r="A113" s="134"/>
+      <c r="B113" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="C113" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D113" s="108">
+        <v>0</v>
+      </c>
+      <c r="E113" s="108">
+        <v>0</v>
+      </c>
       <c r="F113" s="108">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -21697,7 +21673,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -21709,7 +21685,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -21720,7 +21696,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -21731,7 +21707,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -21742,62 +21718,46 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="131"/>
-      <c r="B118" s="115" t="s">
-        <v>430</v>
-      </c>
-      <c r="C118" s="107" t="s">
-        <v>297</v>
-      </c>
-      <c r="D118" s="108">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E118" s="108">
-        <v>0.5</v>
-      </c>
+      <c r="A118" s="134"/>
+      <c r="B118" s="107"/>
+      <c r="C118" s="107"/>
+      <c r="D118" s="108"/>
+      <c r="E118" s="108"/>
       <c r="F118" s="108">
         <f t="shared" si="16"/>
-        <v>8.3333333333333315E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="132"/>
-      <c r="B119" s="115" t="s">
-        <v>310</v>
-      </c>
-      <c r="C119" s="107" t="s">
-        <v>299</v>
-      </c>
-      <c r="D119" s="108">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E119" s="108">
-        <v>0.57638888888888895</v>
-      </c>
+      <c r="A119" s="135"/>
+      <c r="B119" s="107"/>
+      <c r="C119" s="107"/>
+      <c r="D119" s="108"/>
+      <c r="E119" s="108"/>
       <c r="F119" s="108">
         <f t="shared" si="16"/>
-        <v>3.4722222222222321E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="133" t="s">
+      <c r="A120" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C120" s="107" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D120" s="108">
-        <v>0.58333333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E120" s="108">
-        <v>0.60416666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="F120" s="108">
         <f t="shared" si="16"/>
-        <v>2.0833333333333259E-2</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="H120" s="106" t="s">
         <v>291</v>
@@ -21807,121 +21767,137 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="133"/>
+      <c r="A121" s="136"/>
       <c r="B121" s="115" t="s">
-        <v>413</v>
+        <v>310</v>
       </c>
       <c r="C121" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D121" s="108">
-        <v>0.625</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E121" s="108">
-        <v>0.71875</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="F121" s="108">
         <f t="shared" si="16"/>
-        <v>9.375E-2</v>
+        <v>3.4722222222222321E-2</v>
       </c>
       <c r="H121" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I121" s="108">
-        <f>SUMIFS(F118:F132, C118:C132,H121)</f>
+        <f>SUMIFS(F120:F134, C120:C134,H121)</f>
         <v>0.19791666666666674</v>
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133"/>
+      <c r="A122" s="136"/>
       <c r="B122" s="115" t="s">
-        <v>303</v>
+        <v>431</v>
       </c>
       <c r="C122" s="107" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D122" s="108">
-        <v>0.71875</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E122" s="108">
-        <v>0.75</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F122" s="108">
         <f t="shared" si="16"/>
-        <v>3.125E-2</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H122" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I122" s="108">
-        <f>SUMIFS(F118:F132, C118:C132,H122)</f>
+        <f>SUMIFS(F120:F134, C120:C134,H122)</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="115" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="C123" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D123" s="108">
-        <v>0.79166666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="E123" s="108">
-        <v>0.89583333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="F123" s="108">
         <f t="shared" si="16"/>
-        <v>0.10416666666666674</v>
+        <v>9.375E-2</v>
       </c>
       <c r="H123" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I123" s="108">
-        <f>SUMIFS(F118:F132, C118:C132,H123)</f>
+        <f>SUMIFS(F120:F134, C120:C134,H123)</f>
         <v>8.3333333333333315E-2</v>
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
-      <c r="B124" s="115"/>
-      <c r="C124" s="107"/>
-      <c r="D124" s="108"/>
-      <c r="E124" s="108"/>
+      <c r="A124" s="136"/>
+      <c r="B124" s="115" t="s">
+        <v>303</v>
+      </c>
+      <c r="C124" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="D124" s="108">
+        <v>0.71875</v>
+      </c>
+      <c r="E124" s="108">
+        <v>0.75</v>
+      </c>
       <c r="F124" s="108">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H124" s="109" t="s">
         <v>300</v>
       </c>
       <c r="I124" s="108">
-        <f>SUMIFS(F118:F132, C118:C132,H124)</f>
+        <f>SUMIFS(F120:F134, C120:C134,H124)</f>
         <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
-      <c r="B125" s="120"/>
-      <c r="C125" s="107"/>
-      <c r="D125" s="108"/>
-      <c r="E125" s="108"/>
+      <c r="A125" s="136"/>
+      <c r="B125" s="115" t="s">
+        <v>432</v>
+      </c>
+      <c r="C125" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D125" s="108">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E125" s="108">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="F125" s="108">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.10416666666666674</v>
       </c>
       <c r="H125" s="109" t="s">
         <v>302</v>
       </c>
       <c r="I125" s="108">
-        <f>SUMIFS(F118:F132, C118:C132,H125)</f>
+        <f>SUMIFS(F120:F134, C120:C134,H125)</f>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="115"/>
       <c r="C126" s="107"/>
       <c r="D126" s="108"/>
@@ -21934,13 +21910,13 @@
         <v>299</v>
       </c>
       <c r="I126" s="108">
-        <f>SUMIFS(F118:F132, C118:C132,H126)</f>
+        <f>SUMIFS(F120:F134, C120:C134,H126)</f>
         <v>6.5972222222222321E-2</v>
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
-      <c r="B127" s="115"/>
+      <c r="A127" s="136"/>
+      <c r="B127" s="120"/>
       <c r="C127" s="107"/>
       <c r="D127" s="108"/>
       <c r="E127" s="108"/>
@@ -21957,7 +21933,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="115"/>
       <c r="C128" s="107"/>
       <c r="D128" s="108"/>
@@ -21969,55 +21945,71 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115"/>
       <c r="C129" s="107"/>
       <c r="D129" s="108"/>
       <c r="E129" s="108"/>
       <c r="F129" s="108">
-        <f t="shared" ref="F129:F134" si="22">E129-D129</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="B130" s="115"/>
       <c r="C130" s="107"/>
       <c r="D130" s="108"/>
       <c r="E130" s="108"/>
       <c r="F130" s="108">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="136"/>
+      <c r="B131" s="115"/>
+      <c r="C131" s="107"/>
+      <c r="D131" s="108"/>
+      <c r="E131" s="108"/>
+      <c r="F131" s="108">
+        <f t="shared" ref="F131:F136" si="22">E131-D131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="136"/>
+      <c r="B132" s="115"/>
+      <c r="C132" s="107"/>
+      <c r="D132" s="108"/>
+      <c r="E132" s="108"/>
+      <c r="F132" s="108">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
-      <c r="B131" s="116"/>
-      <c r="C131" s="111"/>
-      <c r="D131" s="112"/>
-      <c r="E131" s="112"/>
-      <c r="F131" s="112">
+    <row r="133" spans="1:9">
+      <c r="A133" s="136"/>
+      <c r="B133" s="116"/>
+      <c r="C133" s="111"/>
+      <c r="D133" s="112"/>
+      <c r="E133" s="112"/>
+      <c r="F133" s="112">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
-      <c r="B132" s="117"/>
-      <c r="C132" s="113"/>
-      <c r="D132" s="114"/>
-      <c r="E132" s="114"/>
-      <c r="F132" s="114">
+    <row r="134" spans="1:9">
+      <c r="A134" s="136"/>
+      <c r="B134" s="117"/>
+      <c r="C134" s="113"/>
+      <c r="D134" s="114"/>
+      <c r="E134" s="114"/>
+      <c r="F134" s="114">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="133"/>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="123"/>
@@ -22162,7 +22154,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C86:C140 C2:C83" xr:uid="{CD684CF7-AC2C-4948-B259-5FB55DB9ADCA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C88:C142 C2:C83" xr:uid="{CD684CF7-AC2C-4948-B259-5FB55DB9ADCA}">
       <formula1>$Q$1:$Q$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -22174,7 +22166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEFA632-027C-44B7-B2E8-75A517756B1E}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
@@ -22214,7 +22206,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -22244,7 +22236,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>301</v>
       </c>
@@ -22273,7 +22265,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>434</v>
       </c>
@@ -22302,7 +22294,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>435</v>
       </c>
@@ -22331,7 +22323,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>298</v>
       </c>
@@ -22360,7 +22352,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
         <v>436</v>
       </c>
@@ -22389,7 +22381,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107" t="s">
         <v>303</v>
       </c>
@@ -22415,7 +22407,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107" t="s">
         <v>437</v>
       </c>
@@ -22441,7 +22433,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="107" t="s">
         <v>350</v>
       </c>
@@ -22461,7 +22453,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107" t="s">
         <v>438</v>
       </c>
@@ -22481,7 +22473,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -22492,7 +22484,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -22503,7 +22495,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -22514,7 +22506,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -22525,7 +22517,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -22536,7 +22528,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -22563,7 +22555,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="107" t="s">
         <v>331</v>
       </c>
@@ -22589,7 +22581,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -22615,7 +22607,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>353</v>
       </c>
@@ -22641,7 +22633,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
         <v>322</v>
       </c>
@@ -22667,7 +22659,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
         <v>298</v>
       </c>
@@ -22693,7 +22685,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107" t="s">
         <v>354</v>
       </c>
@@ -22719,7 +22711,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107" t="s">
         <v>303</v>
       </c>
@@ -22745,7 +22737,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107" t="s">
         <v>355</v>
       </c>
@@ -22765,7 +22757,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107" t="s">
         <v>314</v>
       </c>
@@ -22785,7 +22777,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107" t="s">
         <v>355</v>
       </c>
@@ -22804,7 +22796,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -22815,7 +22807,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -22826,7 +22818,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -22837,7 +22829,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -22864,7 +22856,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="107" t="s">
         <v>331</v>
       </c>
@@ -22890,7 +22882,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -22916,7 +22908,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>357</v>
       </c>
@@ -22942,7 +22934,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>322</v>
       </c>
@@ -22968,7 +22960,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="107" t="s">
         <v>298</v>
       </c>
@@ -22994,7 +22986,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>358</v>
       </c>
@@ -23020,7 +23012,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107" t="s">
         <v>303</v>
       </c>
@@ -23046,7 +23038,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107" t="s">
         <v>359</v>
       </c>
@@ -23066,7 +23058,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107" t="s">
         <v>314</v>
       </c>
@@ -23086,7 +23078,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107" t="s">
         <v>360</v>
       </c>
@@ -23105,7 +23097,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="107" t="s">
         <v>361</v>
       </c>
@@ -23124,7 +23116,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -23135,7 +23127,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -23146,7 +23138,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -23157,7 +23149,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -23184,7 +23176,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
         <v>301</v>
       </c>
@@ -23210,7 +23202,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>441</v>
       </c>
@@ -23236,7 +23228,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>298</v>
       </c>
@@ -23262,7 +23254,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
         <v>442</v>
       </c>
@@ -23288,7 +23280,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107" t="s">
         <v>303</v>
       </c>
@@ -23314,7 +23306,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107" t="s">
         <v>437</v>
       </c>
@@ -23340,7 +23332,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107" t="s">
         <v>296</v>
       </c>
@@ -23366,7 +23358,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -23378,7 +23370,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -23390,7 +23382,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -23401,7 +23393,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -23412,7 +23404,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -23423,7 +23415,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -23434,7 +23426,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -23461,7 +23453,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
         <v>444</v>
       </c>
@@ -23487,7 +23479,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="107" t="s">
         <v>301</v>
       </c>
@@ -23513,7 +23505,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>445</v>
       </c>
@@ -23539,7 +23531,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>298</v>
       </c>
@@ -23565,7 +23557,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>446</v>
       </c>
@@ -23591,7 +23583,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107" t="s">
         <v>303</v>
       </c>
@@ -23617,7 +23609,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107" t="s">
         <v>447</v>
       </c>
@@ -23643,7 +23635,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107" t="s">
         <v>314</v>
       </c>
@@ -23663,7 +23655,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -23675,7 +23667,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -23686,7 +23678,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -23697,7 +23689,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -23708,7 +23700,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -23719,7 +23711,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -23730,7 +23722,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129" t="s">
+      <c r="A75" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -23757,7 +23749,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
         <v>449</v>
       </c>
@@ -23783,7 +23775,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="107" t="s">
         <v>301</v>
       </c>
@@ -23809,7 +23801,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
         <v>450</v>
       </c>
@@ -23835,7 +23827,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
         <v>451</v>
       </c>
@@ -23861,7 +23853,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
         <v>314</v>
       </c>
@@ -23887,7 +23879,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
         <v>452</v>
       </c>
@@ -23913,7 +23905,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" t="s">
         <v>453</v>
       </c>
@@ -23939,7 +23931,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
         <v>454</v>
       </c>
@@ -23959,7 +23951,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="107" t="s">
         <v>437</v>
       </c>
@@ -23979,7 +23971,7 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
+      <c r="A85" s="132"/>
       <c r="B85" s="107"/>
       <c r="C85" s="107"/>
       <c r="D85" s="108"/>
@@ -23987,7 +23979,7 @@
       <c r="F85" s="108"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
+      <c r="A86" s="132"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -23995,7 +23987,7 @@
       <c r="F86" s="108"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
+      <c r="A87" s="132"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107"/>
       <c r="D87" s="108"/>
@@ -24003,7 +23995,7 @@
       <c r="F87" s="108"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -24014,7 +24006,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="129"/>
+      <c r="A89" s="132"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -24025,7 +24017,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="129" t="s">
+      <c r="A90" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -24052,7 +24044,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="107" t="s">
         <v>375</v>
       </c>
@@ -24078,7 +24070,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="129"/>
+      <c r="A92" s="132"/>
       <c r="B92" s="107" t="s">
         <v>331</v>
       </c>
@@ -24104,7 +24096,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
+      <c r="A93" s="132"/>
       <c r="B93" s="107" t="s">
         <v>375</v>
       </c>
@@ -24130,7 +24122,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
+      <c r="A94" s="132"/>
       <c r="B94" s="107" t="s">
         <v>294</v>
       </c>
@@ -24156,7 +24148,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
+      <c r="A95" s="132"/>
       <c r="B95" s="107" t="s">
         <v>310</v>
       </c>
@@ -24182,7 +24174,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
+      <c r="A96" s="132"/>
       <c r="B96" s="107" t="s">
         <v>376</v>
       </c>
@@ -24208,7 +24200,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
+      <c r="A97" s="132"/>
       <c r="B97" s="107" t="s">
         <v>377</v>
       </c>
@@ -24234,7 +24226,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
+      <c r="A98" s="132"/>
       <c r="B98" s="107" t="s">
         <v>303</v>
       </c>
@@ -24254,7 +24246,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
+      <c r="A99" s="132"/>
       <c r="B99" s="107" t="s">
         <v>375</v>
       </c>
@@ -24274,7 +24266,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
+      <c r="A100" s="132"/>
       <c r="B100" s="107" t="s">
         <v>378</v>
       </c>
@@ -24293,7 +24285,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -24304,7 +24296,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -24315,7 +24307,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="129"/>
+      <c r="A103" s="132"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -24326,7 +24318,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="130"/>
+      <c r="A104" s="133"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -24337,7 +24329,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="131" t="s">
+      <c r="A105" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -24364,7 +24356,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="131"/>
+      <c r="A106" s="134"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -24390,7 +24382,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131"/>
+      <c r="A107" s="134"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -24416,7 +24408,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -24442,7 +24434,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -24468,7 +24460,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -24494,7 +24486,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -24520,7 +24512,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -24546,7 +24538,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -24566,7 +24558,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -24578,7 +24570,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -24589,7 +24581,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -24600,7 +24592,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -24611,7 +24603,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="131"/>
+      <c r="A118" s="134"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -24622,7 +24614,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="132"/>
+      <c r="A119" s="135"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -24633,7 +24625,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="133" t="s">
+      <c r="A120" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -24660,7 +24652,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="133"/>
+      <c r="A121" s="136"/>
       <c r="B121" s="115" t="s">
         <v>456</v>
       </c>
@@ -24686,7 +24678,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133"/>
+      <c r="A122" s="136"/>
       <c r="B122" s="107" t="s">
         <v>301</v>
       </c>
@@ -24712,7 +24704,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="107" t="s">
         <v>457</v>
       </c>
@@ -24738,7 +24730,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="107" t="s">
         <v>310</v>
       </c>
@@ -24764,7 +24756,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="107" t="s">
         <v>442</v>
       </c>
@@ -24790,7 +24782,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="107" t="s">
         <v>303</v>
       </c>
@@ -24816,7 +24808,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="107" t="s">
         <v>447</v>
       </c>
@@ -24842,7 +24834,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="107" t="s">
         <v>296</v>
       </c>
@@ -24862,7 +24854,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115" t="s">
         <v>458</v>
       </c>
@@ -24882,7 +24874,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="B130" s="115"/>
       <c r="C130" s="107"/>
       <c r="D130" s="108"/>
@@ -24893,7 +24885,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="115"/>
       <c r="C131" s="107"/>
       <c r="D131" s="108"/>
@@ -24904,7 +24896,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -24915,7 +24907,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -24926,7 +24918,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="133"/>
+      <c r="A134" s="136"/>
       <c r="B134" s="117"/>
       <c r="C134" s="124"/>
       <c r="D134" s="125"/>
@@ -25095,8 +25087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9EFCF2-B647-4263-9741-7AEEC9FEC381}">
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25135,7 +25127,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -25165,7 +25157,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>460</v>
       </c>
@@ -25194,7 +25186,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>301</v>
       </c>
@@ -25223,7 +25215,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>461</v>
       </c>
@@ -25252,7 +25244,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>437</v>
       </c>
@@ -25281,7 +25273,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
         <v>451</v>
       </c>
@@ -25310,7 +25302,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107" t="s">
         <v>314</v>
       </c>
@@ -25336,7 +25328,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107" t="s">
         <v>462</v>
       </c>
@@ -25362,7 +25354,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="107" t="s">
         <v>303</v>
       </c>
@@ -25382,7 +25374,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107" t="s">
         <v>463</v>
       </c>
@@ -25402,7 +25394,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107" t="s">
         <v>464</v>
       </c>
@@ -25421,7 +25413,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -25432,7 +25424,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -25443,7 +25435,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -25454,7 +25446,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -25465,7 +25457,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -25492,7 +25484,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="107" t="s">
         <v>301</v>
       </c>
@@ -25518,7 +25510,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>466</v>
       </c>
@@ -25544,7 +25536,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>437</v>
       </c>
@@ -25570,7 +25562,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
         <v>467</v>
       </c>
@@ -25596,7 +25588,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
         <v>468</v>
       </c>
@@ -25622,7 +25614,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107" t="s">
         <v>303</v>
       </c>
@@ -25648,7 +25640,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107" t="s">
         <v>314</v>
       </c>
@@ -25674,7 +25666,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107" t="s">
         <v>469</v>
       </c>
@@ -25694,7 +25686,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -25705,7 +25697,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -25716,7 +25708,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -25727,7 +25719,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129" t="s">
+      <c r="A29" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="107" t="s">
@@ -25754,7 +25746,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107" t="s">
         <v>331</v>
       </c>
@@ -25780,7 +25772,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129"/>
+      <c r="A31" s="132"/>
       <c r="B31" s="107" t="s">
         <v>301</v>
       </c>
@@ -25806,7 +25798,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="107" t="s">
         <v>357</v>
       </c>
@@ -25832,7 +25824,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="107" t="s">
         <v>322</v>
       </c>
@@ -25858,7 +25850,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>298</v>
       </c>
@@ -25884,7 +25876,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>358</v>
       </c>
@@ -25910,7 +25902,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="107" t="s">
         <v>303</v>
       </c>
@@ -25936,7 +25928,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>359</v>
       </c>
@@ -25956,7 +25948,7 @@
       <c r="I37" s="110"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107" t="s">
         <v>314</v>
       </c>
@@ -25976,7 +25968,7 @@
       <c r="I38" s="110"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107" t="s">
         <v>360</v>
       </c>
@@ -25995,7 +25987,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107" t="s">
         <v>361</v>
       </c>
@@ -26014,7 +26006,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="108"/>
@@ -26025,7 +26017,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -26036,7 +26028,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -26047,7 +26039,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129" t="s">
+      <c r="A44" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B44" s="107" t="s">
@@ -26074,7 +26066,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107" t="s">
         <v>301</v>
       </c>
@@ -26100,7 +26092,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129"/>
+      <c r="A46" s="132"/>
       <c r="B46" s="107" t="s">
         <v>471</v>
       </c>
@@ -26126,7 +26118,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
         <v>437</v>
       </c>
@@ -26152,7 +26144,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>467</v>
       </c>
@@ -26178,7 +26170,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>296</v>
       </c>
@@ -26204,7 +26196,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
         <v>472</v>
       </c>
@@ -26230,7 +26222,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107" t="s">
         <v>303</v>
       </c>
@@ -26256,7 +26248,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107" t="s">
         <v>473</v>
       </c>
@@ -26276,7 +26268,7 @@
       <c r="I52" s="110"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107" t="s">
         <v>474</v>
       </c>
@@ -26296,7 +26288,7 @@
       <c r="I53" s="110"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -26307,7 +26299,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -26318,7 +26310,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -26329,7 +26321,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -26340,7 +26332,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129" t="s">
+      <c r="A58" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="107" t="s">
@@ -26367,7 +26359,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107" t="s">
         <v>403</v>
       </c>
@@ -26393,7 +26385,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129"/>
+      <c r="A60" s="132"/>
       <c r="B60" s="107" t="s">
         <v>368</v>
       </c>
@@ -26419,7 +26411,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
         <v>437</v>
       </c>
@@ -26445,7 +26437,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="107" t="s">
         <v>310</v>
       </c>
@@ -26471,7 +26463,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>475</v>
       </c>
@@ -26497,7 +26489,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>314</v>
       </c>
@@ -26523,7 +26515,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>476</v>
       </c>
@@ -26549,7 +26541,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107" t="s">
         <v>368</v>
       </c>
@@ -26570,7 +26562,7 @@
       <c r="I66" s="106"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107" t="s">
         <v>477</v>
       </c>
@@ -26590,7 +26582,7 @@
       <c r="I67" s="110"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107" t="s">
         <v>478</v>
       </c>
@@ -26610,7 +26602,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -26621,7 +26613,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -26632,7 +26624,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -26643,7 +26635,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -26654,7 +26646,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -26665,7 +26657,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129" t="s">
+      <c r="A74" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B74" s="107" t="s">
@@ -26692,7 +26684,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129"/>
+      <c r="A75" s="132"/>
       <c r="B75" s="107" t="s">
         <v>301</v>
       </c>
@@ -26718,7 +26710,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
         <v>479</v>
       </c>
@@ -26744,7 +26736,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="107" t="s">
         <v>480</v>
       </c>
@@ -26770,7 +26762,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
         <v>371</v>
       </c>
@@ -26796,7 +26788,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
         <v>373</v>
       </c>
@@ -26822,7 +26814,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
         <v>368</v>
       </c>
@@ -26848,7 +26840,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
         <v>373</v>
       </c>
@@ -26874,7 +26866,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="107" t="s">
         <v>314</v>
       </c>
@@ -26894,7 +26886,7 @@
       <c r="I82" s="110"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
         <v>371</v>
       </c>
@@ -26914,7 +26906,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="107" t="s">
         <v>374</v>
       </c>
@@ -26933,7 +26925,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
+      <c r="A85" s="132"/>
       <c r="B85" s="107"/>
       <c r="C85" s="107"/>
       <c r="D85" s="108"/>
@@ -26944,7 +26936,7 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
+      <c r="A86" s="132"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -26955,7 +26947,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
+      <c r="A87" s="132"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107" t="s">
         <v>290</v>
@@ -26972,7 +26964,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107" t="s">
         <v>290</v>
@@ -26989,7 +26981,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="129" t="s">
+      <c r="A89" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B89" s="107" t="s">
@@ -27016,7 +27008,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="129"/>
+      <c r="A90" s="132"/>
       <c r="B90" s="107" t="s">
         <v>375</v>
       </c>
@@ -27042,7 +27034,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="107" t="s">
         <v>331</v>
       </c>
@@ -27068,7 +27060,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="129"/>
+      <c r="A92" s="132"/>
       <c r="B92" s="107" t="s">
         <v>375</v>
       </c>
@@ -27094,7 +27086,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
+      <c r="A93" s="132"/>
       <c r="B93" s="107" t="s">
         <v>294</v>
       </c>
@@ -27120,7 +27112,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
+      <c r="A94" s="132"/>
       <c r="B94" s="107" t="s">
         <v>310</v>
       </c>
@@ -27146,7 +27138,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
+      <c r="A95" s="132"/>
       <c r="B95" s="107" t="s">
         <v>376</v>
       </c>
@@ -27172,7 +27164,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
+      <c r="A96" s="132"/>
       <c r="B96" s="107" t="s">
         <v>377</v>
       </c>
@@ -27198,7 +27190,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
+      <c r="A97" s="132"/>
       <c r="B97" s="107" t="s">
         <v>303</v>
       </c>
@@ -27218,7 +27210,7 @@
       <c r="I97" s="110"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
+      <c r="A98" s="132"/>
       <c r="B98" s="107" t="s">
         <v>375</v>
       </c>
@@ -27232,7 +27224,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
+      <c r="A99" s="132"/>
       <c r="B99" s="107" t="s">
         <v>378</v>
       </c>
@@ -27245,7 +27237,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
+      <c r="A100" s="132"/>
       <c r="B100" s="107"/>
       <c r="C100" s="107"/>
       <c r="D100" s="108"/>
@@ -27256,7 +27248,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -27267,7 +27259,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107" t="s">
         <v>290</v>
@@ -27284,7 +27276,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="130"/>
+      <c r="A103" s="133"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107" t="s">
         <v>295</v>
@@ -27301,7 +27293,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="131" t="s">
+      <c r="A104" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B104" s="107" t="s">
@@ -27328,7 +27320,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="131"/>
+      <c r="A105" s="134"/>
       <c r="B105" s="107" t="s">
         <v>331</v>
       </c>
@@ -27354,7 +27346,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="131"/>
+      <c r="A106" s="134"/>
       <c r="B106" s="107" t="s">
         <v>294</v>
       </c>
@@ -27380,7 +27372,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131"/>
+      <c r="A107" s="134"/>
       <c r="B107" s="107" t="s">
         <v>331</v>
       </c>
@@ -27406,7 +27398,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="107" t="s">
         <v>298</v>
       </c>
@@ -27432,7 +27424,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="107" t="s">
         <v>301</v>
       </c>
@@ -27458,7 +27450,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="107" t="s">
         <v>303</v>
       </c>
@@ -27484,7 +27476,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="107" t="s">
         <v>315</v>
       </c>
@@ -27504,7 +27496,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="107" t="s">
         <v>332</v>
       </c>
@@ -27518,7 +27510,7 @@
       <c r="I112" s="110"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="107"/>
       <c r="C113" s="107"/>
       <c r="D113" s="108"/>
@@ -27530,7 +27522,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -27541,7 +27533,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -27552,7 +27544,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -27563,7 +27555,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -27574,7 +27566,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="132"/>
+      <c r="A118" s="135"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -27585,7 +27577,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="133" t="s">
+      <c r="A119" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B119" s="115" t="s">
@@ -27612,7 +27604,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="133"/>
+      <c r="A120" s="136"/>
       <c r="B120" s="115" t="s">
         <v>481</v>
       </c>
@@ -27638,7 +27630,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="133"/>
+      <c r="A121" s="136"/>
       <c r="B121" s="107" t="s">
         <v>301</v>
       </c>
@@ -27664,7 +27656,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133"/>
+      <c r="A122" s="136"/>
       <c r="B122" s="107" t="s">
         <v>482</v>
       </c>
@@ -27690,7 +27682,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="107" t="s">
         <v>483</v>
       </c>
@@ -27716,7 +27708,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="107" t="s">
         <v>310</v>
       </c>
@@ -27742,7 +27734,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="107" t="s">
         <v>484</v>
       </c>
@@ -27768,7 +27760,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="107" t="s">
         <v>303</v>
       </c>
@@ -27794,7 +27786,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="107" t="s">
         <v>485</v>
       </c>
@@ -27814,7 +27806,7 @@
       <c r="I127" s="110"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="107" t="s">
         <v>296</v>
       </c>
@@ -27834,7 +27826,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115" t="s">
         <v>486</v>
       </c>
@@ -27853,7 +27845,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="C130" s="111"/>
       <c r="D130" s="112"/>
       <c r="E130" s="112"/>
@@ -27863,7 +27855,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="115"/>
       <c r="C131" s="113"/>
       <c r="D131" s="114"/>
@@ -27874,7 +27866,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="116"/>
       <c r="C132" s="111"/>
       <c r="D132" s="112"/>
@@ -27885,7 +27877,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="117"/>
       <c r="C133" s="113"/>
       <c r="D133" s="114"/>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C71CDFAC-18BA-4903-AFAA-BF67BB613039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C79A58A1-DF0E-4014-9906-AAF6CB61F06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="20" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="491">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1621,6 +1621,9 @@
     <t>Exploration on angular topics</t>
   </si>
   <si>
+    <t>Entering Timesheet</t>
+  </si>
+  <si>
     <t>Explored on Angular(components)</t>
   </si>
   <si>
@@ -1630,6 +1633,9 @@
     <t>Worked on Angular(components)</t>
   </si>
   <si>
+    <t xml:space="preserve">College project </t>
+  </si>
+  <si>
     <t>Modified on HTML (achivements)</t>
   </si>
   <si>
@@ -1640,6 +1646,12 @@
   </si>
   <si>
     <t>Worked on Angular topics</t>
+  </si>
+  <si>
+    <t>Modifications on HTML layout Page(Home page)</t>
+  </si>
+  <si>
+    <t>Explored on Web Api</t>
   </si>
   <si>
     <t>Explored Web API, Angular</t>
@@ -16561,8 +16573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30934AA5-FE34-4D93-9147-E487E171875A}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17196,20 +17208,20 @@
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="C31" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D31" s="108">
-        <v>0.35416666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E31" s="108">
-        <v>0.39583333333333331</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="F31" s="108">
         <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H31" s="106" t="s">
         <v>291</v>
@@ -17221,10 +17233,10 @@
     <row r="32" spans="1:9">
       <c r="A32" s="132"/>
       <c r="B32" s="107" t="s">
-        <v>331</v>
+        <v>387</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D32" s="108">
         <v>0.39583333333333331</v>
@@ -17241,7 +17253,7 @@
       </c>
       <c r="I32" s="108">
         <f t="shared" ref="I32" si="2">SUMIFS(F31:F45, C31:C45,H32)</f>
-        <v>0.28125000000000011</v>
+        <v>0.25000000000000017</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -17256,18 +17268,18 @@
         <v>0.4375</v>
       </c>
       <c r="E33" s="108">
-        <v>0.44444444444444442</v>
+        <v>0.46875</v>
       </c>
       <c r="F33" s="108">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H33" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I33" s="108">
         <f t="shared" ref="I33" si="3">SUMIFS(F31:F45, C31:C45,H33)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -17293,7 +17305,7 @@
       </c>
       <c r="I34" s="108">
         <f t="shared" ref="I34" si="4">SUMIFS(F31:F45, C31:C45,H34)</f>
-        <v>6.25E-2</v>
+        <v>0.10416666666666669</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -17371,7 +17383,7 @@
       </c>
       <c r="I37" s="108">
         <f t="shared" ref="I37" si="7">SUMIFS(F31:F45, C31:C45,H37)</f>
-        <v>4.8611111111111049E-2</v>
+        <v>7.291666666666663E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -17397,7 +17409,7 @@
       </c>
       <c r="I38" s="106">
         <f t="shared" ref="I38" si="8">SUM(I32:I37)</f>
-        <v>0.49305555555555564</v>
+        <v>0.48611111111111127</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -17516,7 +17528,7 @@
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C46" s="107" t="s">
         <v>297</v>
@@ -17541,7 +17553,7 @@
     <row r="47" spans="1:9">
       <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C47" s="107" t="s">
         <v>290</v>
@@ -17567,7 +17579,7 @@
     <row r="48" spans="1:9">
       <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C48" s="107" t="s">
         <v>290</v>
@@ -17587,7 +17599,7 @@
       </c>
       <c r="I48" s="108">
         <f>SUMIFS(F46:F59, C46:C59,H48)</f>
-        <v>0</v>
+        <v>0.14583333333333326</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -17618,13 +17630,21 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="132"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="108"/>
+      <c r="B50" s="107" t="s">
+        <v>408</v>
+      </c>
+      <c r="C50" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D50" s="108">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E50" s="108">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F50" s="108">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14583333333333326</v>
       </c>
       <c r="H50" s="109" t="s">
         <v>300</v>
@@ -17685,7 +17705,7 @@
       </c>
       <c r="I53" s="106">
         <f t="shared" ref="I53" si="9">SUM(I47:I52)</f>
-        <v>0.17708333333333326</v>
+        <v>0.32291666666666652</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -17761,7 +17781,7 @@
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C60" s="107" t="s">
         <v>290</v>
@@ -17786,7 +17806,7 @@
     <row r="61" spans="1:9">
       <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C61" s="107" t="s">
         <v>297</v>
@@ -17806,13 +17826,13 @@
       </c>
       <c r="I61" s="108">
         <f t="shared" ref="I61" si="10">SUMIFS(F60:F74, C60:C74,H61)</f>
-        <v>0.17361111111111116</v>
+        <v>0.21527777777777779</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="132"/>
       <c r="B62" s="107" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C62" s="107" t="s">
         <v>290</v>
@@ -17858,7 +17878,7 @@
       </c>
       <c r="I63" s="108">
         <f t="shared" ref="I63" si="12">SUMIFS(F60:F74, C60:C74,H63)</f>
-        <v>4.8611111111111105E-2</v>
+        <v>9.0277777777777846E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -17890,7 +17910,7 @@
     <row r="65" spans="1:9">
       <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C65" s="107" t="s">
         <v>290</v>
@@ -17915,13 +17935,21 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="132"/>
-      <c r="B66" s="107"/>
-      <c r="C66" s="107"/>
-      <c r="D66" s="108"/>
-      <c r="E66" s="108"/>
+      <c r="B66" s="107" t="s">
+        <v>413</v>
+      </c>
+      <c r="C66" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D66" s="108">
+        <v>0.6875</v>
+      </c>
+      <c r="E66" s="108">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="F66" s="108">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H66" s="109" t="s">
         <v>299</v>
@@ -17933,20 +17961,28 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="132"/>
-      <c r="B67" s="107"/>
-      <c r="C67" s="107"/>
-      <c r="D67" s="108"/>
-      <c r="E67" s="108"/>
+      <c r="B67" s="107" t="s">
+        <v>414</v>
+      </c>
+      <c r="C67" s="107" t="s">
+        <v>297</v>
+      </c>
+      <c r="D67" s="108">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E67" s="108">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="F67" s="108">
         <f t="shared" ref="F67:F130" si="16">E67-D67</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="H67" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I67" s="106">
         <f t="shared" ref="I67" si="17">SUM(I61:I66)</f>
-        <v>0.2638888888888889</v>
+        <v>0.34722222222222227</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -18953,7 +18989,7 @@
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C120" s="107" t="s">
         <v>297</v>
@@ -19004,7 +19040,7 @@
     <row r="122" spans="1:9">
       <c r="A122" s="136"/>
       <c r="B122" s="115" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>300</v>
@@ -19030,7 +19066,7 @@
     <row r="123" spans="1:9">
       <c r="A123" s="136"/>
       <c r="B123" s="115" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C123" s="107" t="s">
         <v>290</v>
@@ -19082,7 +19118,7 @@
     <row r="125" spans="1:9">
       <c r="A125" s="136"/>
       <c r="B125" s="115" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>290</v>
@@ -19375,7 +19411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F5FAB4-9E65-460D-998C-A6B05E121251}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
@@ -19419,7 +19455,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>290</v>
@@ -19505,7 +19541,7 @@
     <row r="5" spans="1:17">
       <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>290</v>
@@ -19534,7 +19570,7 @@
     <row r="6" spans="1:17">
       <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>290</v>
@@ -19563,7 +19599,7 @@
     <row r="7" spans="1:17">
       <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>297</v>
@@ -20330,7 +20366,7 @@
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C46" s="107" t="s">
         <v>297</v>
@@ -20355,7 +20391,7 @@
     <row r="47" spans="1:9">
       <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C47" s="107" t="s">
         <v>290</v>
@@ -20381,7 +20417,7 @@
     <row r="48" spans="1:9">
       <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C48" s="107" t="s">
         <v>300</v>
@@ -20407,7 +20443,7 @@
     <row r="49" spans="1:9">
       <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C49" s="107" t="s">
         <v>290</v>
@@ -20433,7 +20469,7 @@
     <row r="50" spans="1:9">
       <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C50" s="107" t="s">
         <v>290</v>
@@ -20583,7 +20619,7 @@
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C60" s="107" t="s">
         <v>290</v>
@@ -20608,7 +20644,7 @@
     <row r="61" spans="1:9">
       <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C61" s="107" t="s">
         <v>290</v>
@@ -20634,7 +20670,7 @@
     <row r="62" spans="1:9">
       <c r="A62" s="132"/>
       <c r="B62" s="107" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C62" s="107" t="s">
         <v>300</v>
@@ -20660,7 +20696,7 @@
     <row r="63" spans="1:9">
       <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C63" s="107" t="s">
         <v>290</v>
@@ -20686,7 +20722,7 @@
     <row r="64" spans="1:9">
       <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C64" s="107" t="s">
         <v>297</v>
@@ -20712,7 +20748,7 @@
     <row r="65" spans="1:9">
       <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C65" s="107" t="s">
         <v>290</v>
@@ -21744,7 +21780,7 @@
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C120" s="107" t="s">
         <v>297</v>
@@ -21795,7 +21831,7 @@
     <row r="122" spans="1:9">
       <c r="A122" s="136"/>
       <c r="B122" s="115" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>300</v>
@@ -21821,7 +21857,7 @@
     <row r="123" spans="1:9">
       <c r="A123" s="136"/>
       <c r="B123" s="115" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C123" s="107" t="s">
         <v>290</v>
@@ -21873,7 +21909,7 @@
     <row r="125" spans="1:9">
       <c r="A125" s="136"/>
       <c r="B125" s="115" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>290</v>
@@ -22166,7 +22202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEFA632-027C-44B7-B2E8-75A517756B1E}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
@@ -22210,7 +22246,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>290</v>
@@ -22267,7 +22303,7 @@
     <row r="4" spans="1:17">
       <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>290</v>
@@ -22296,7 +22332,7 @@
     <row r="5" spans="1:17">
       <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>290</v>
@@ -22354,7 +22390,7 @@
     <row r="7" spans="1:17">
       <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>290</v>
@@ -22409,7 +22445,7 @@
     <row r="9" spans="1:17">
       <c r="A9" s="132"/>
       <c r="B9" s="107" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C9" s="107" t="s">
         <v>297</v>
@@ -22455,7 +22491,7 @@
     <row r="11" spans="1:17">
       <c r="A11" s="132"/>
       <c r="B11" s="107" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C11" s="107" t="s">
         <v>290</v>
@@ -22833,7 +22869,7 @@
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C31" s="107" t="s">
         <v>290</v>
@@ -23153,7 +23189,7 @@
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C46" s="107" t="s">
         <v>290</v>
@@ -23204,7 +23240,7 @@
     <row r="48" spans="1:9">
       <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C48" s="107" t="s">
         <v>290</v>
@@ -23256,7 +23292,7 @@
     <row r="50" spans="1:9">
       <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C50" s="107" t="s">
         <v>290</v>
@@ -23308,7 +23344,7 @@
     <row r="52" spans="1:9">
       <c r="A52" s="132"/>
       <c r="B52" s="107" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C52" s="107" t="s">
         <v>297</v>
@@ -23430,7 +23466,7 @@
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C60" s="107" t="s">
         <v>290</v>
@@ -23455,7 +23491,7 @@
     <row r="61" spans="1:9">
       <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C61" s="107" t="s">
         <v>290</v>
@@ -23507,7 +23543,7 @@
     <row r="63" spans="1:9">
       <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C63" s="107" t="s">
         <v>290</v>
@@ -23559,7 +23595,7 @@
     <row r="65" spans="1:9">
       <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C65" s="107" t="s">
         <v>290</v>
@@ -23611,7 +23647,7 @@
     <row r="67" spans="1:9">
       <c r="A67" s="132"/>
       <c r="B67" s="107" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C67" s="107" t="s">
         <v>297</v>
@@ -23726,7 +23762,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C75" s="107" t="s">
         <v>297</v>
@@ -23751,7 +23787,7 @@
     <row r="76" spans="1:9">
       <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C76" s="107" t="s">
         <v>290</v>
@@ -23803,7 +23839,7 @@
     <row r="78" spans="1:9">
       <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C78" s="107" t="s">
         <v>290</v>
@@ -23829,7 +23865,7 @@
     <row r="79" spans="1:9">
       <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C79" s="107" t="s">
         <v>299</v>
@@ -23881,7 +23917,7 @@
     <row r="81" spans="1:9">
       <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C81" s="107" t="s">
         <v>290</v>
@@ -23907,7 +23943,7 @@
     <row r="82" spans="1:9">
       <c r="A82" s="132"/>
       <c r="B82" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C82" s="107" t="s">
         <v>297</v>
@@ -23933,7 +23969,7 @@
     <row r="83" spans="1:9">
       <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C83" s="107" t="s">
         <v>290</v>
@@ -23953,7 +23989,7 @@
     <row r="84" spans="1:9">
       <c r="A84" s="132"/>
       <c r="B84" s="107" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C84" s="107" t="s">
         <v>297</v>
@@ -24629,7 +24665,7 @@
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C120" s="107" t="s">
         <v>290</v>
@@ -24654,7 +24690,7 @@
     <row r="121" spans="1:9">
       <c r="A121" s="136"/>
       <c r="B121" s="115" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C121" s="107" t="s">
         <v>290</v>
@@ -24706,7 +24742,7 @@
     <row r="123" spans="1:9">
       <c r="A123" s="136"/>
       <c r="B123" s="107" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C123" s="107" t="s">
         <v>290</v>
@@ -24758,7 +24794,7 @@
     <row r="125" spans="1:9">
       <c r="A125" s="136"/>
       <c r="B125" s="107" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>290</v>
@@ -24810,7 +24846,7 @@
     <row r="127" spans="1:9">
       <c r="A127" s="136"/>
       <c r="B127" s="107" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C127" s="107" t="s">
         <v>295</v>
@@ -24856,7 +24892,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="136"/>
       <c r="B129" s="115" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C129" s="107" t="s">
         <v>297</v>
@@ -25131,7 +25167,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>290</v>
@@ -25159,7 +25195,7 @@
     <row r="3" spans="1:17">
       <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C3" s="107" t="s">
         <v>290</v>
@@ -25217,7 +25253,7 @@
     <row r="5" spans="1:17">
       <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>290</v>
@@ -25246,7 +25282,7 @@
     <row r="6" spans="1:17">
       <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>297</v>
@@ -25275,7 +25311,7 @@
     <row r="7" spans="1:17">
       <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>299</v>
@@ -25330,7 +25366,7 @@
     <row r="9" spans="1:17">
       <c r="A9" s="132"/>
       <c r="B9" s="107" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C9" s="107" t="s">
         <v>290</v>
@@ -25376,7 +25412,7 @@
     <row r="11" spans="1:17">
       <c r="A11" s="132"/>
       <c r="B11" s="107" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C11" s="107" t="s">
         <v>290</v>
@@ -25396,7 +25432,7 @@
     <row r="12" spans="1:17">
       <c r="A12" s="132"/>
       <c r="B12" s="107" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>290</v>
@@ -25461,7 +25497,7 @@
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C17" s="107" t="s">
         <v>290</v>
@@ -25512,7 +25548,7 @@
     <row r="19" spans="1:9">
       <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C19" s="107" t="s">
         <v>290</v>
@@ -25538,7 +25574,7 @@
     <row r="20" spans="1:9">
       <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C20" s="107" t="s">
         <v>297</v>
@@ -25564,7 +25600,7 @@
     <row r="21" spans="1:9">
       <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C21" s="107" t="s">
         <v>299</v>
@@ -25590,7 +25626,7 @@
     <row r="22" spans="1:9">
       <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C22" s="107" t="s">
         <v>290</v>
@@ -25668,7 +25704,7 @@
     <row r="25" spans="1:9">
       <c r="A25" s="132"/>
       <c r="B25" s="107" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C25" s="107" t="s">
         <v>290</v>
@@ -25723,7 +25759,7 @@
         <v>54</v>
       </c>
       <c r="B29" s="107" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C29" s="107" t="s">
         <v>290</v>
@@ -26043,7 +26079,7 @@
         <v>318</v>
       </c>
       <c r="B44" s="107" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C44" s="107" t="s">
         <v>290</v>
@@ -26094,7 +26130,7 @@
     <row r="46" spans="1:9">
       <c r="A46" s="132"/>
       <c r="B46" s="107" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C46" s="107" t="s">
         <v>290</v>
@@ -26120,7 +26156,7 @@
     <row r="47" spans="1:9">
       <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C47" s="107" t="s">
         <v>297</v>
@@ -26146,7 +26182,7 @@
     <row r="48" spans="1:9">
       <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C48" s="107" t="s">
         <v>299</v>
@@ -26198,7 +26234,7 @@
     <row r="50" spans="1:9">
       <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C50" s="107" t="s">
         <v>290</v>
@@ -26250,7 +26286,7 @@
     <row r="52" spans="1:9">
       <c r="A52" s="132"/>
       <c r="B52" s="107" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C52" s="107" t="s">
         <v>290</v>
@@ -26270,7 +26306,7 @@
     <row r="53" spans="1:9">
       <c r="A53" s="132"/>
       <c r="B53" s="107" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C53" s="107" t="s">
         <v>290</v>
@@ -26336,7 +26372,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="107" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C58" s="107" t="s">
         <v>297</v>
@@ -26413,7 +26449,7 @@
     <row r="61" spans="1:9">
       <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C61" s="107" t="s">
         <v>295</v>
@@ -26465,7 +26501,7 @@
     <row r="63" spans="1:9">
       <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C63" s="107" t="s">
         <v>295</v>
@@ -26517,7 +26553,7 @@
     <row r="65" spans="1:9">
       <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C65" s="107" t="s">
         <v>295</v>
@@ -26564,7 +26600,7 @@
     <row r="67" spans="1:9">
       <c r="A67" s="132"/>
       <c r="B67" s="107" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C67" s="107" t="s">
         <v>290</v>
@@ -26584,7 +26620,7 @@
     <row r="68" spans="1:9">
       <c r="A68" s="132"/>
       <c r="B68" s="107" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C68" s="107" t="s">
         <v>290</v>
@@ -26661,7 +26697,7 @@
         <v>67</v>
       </c>
       <c r="B74" s="107" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C74" s="107" t="s">
         <v>290</v>
@@ -26712,7 +26748,7 @@
     <row r="76" spans="1:9">
       <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C76" s="107" t="s">
         <v>290</v>
@@ -26738,7 +26774,7 @@
     <row r="77" spans="1:9">
       <c r="A77" s="132"/>
       <c r="B77" s="107" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C77" s="107" t="s">
         <v>297</v>
@@ -27581,7 +27617,7 @@
         <v>339</v>
       </c>
       <c r="B119" s="115" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C119" s="107" t="s">
         <v>290</v>
@@ -27606,7 +27642,7 @@
     <row r="120" spans="1:9">
       <c r="A120" s="136"/>
       <c r="B120" s="115" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C120" s="107" t="s">
         <v>297</v>
@@ -27658,7 +27694,7 @@
     <row r="122" spans="1:9">
       <c r="A122" s="136"/>
       <c r="B122" s="107" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>290</v>
@@ -27684,7 +27720,7 @@
     <row r="123" spans="1:9">
       <c r="A123" s="136"/>
       <c r="B123" s="107" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C123" s="107" t="s">
         <v>295</v>
@@ -27736,7 +27772,7 @@
     <row r="125" spans="1:9">
       <c r="A125" s="136"/>
       <c r="B125" s="107" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>290</v>
@@ -27788,7 +27824,7 @@
     <row r="127" spans="1:9">
       <c r="A127" s="136"/>
       <c r="B127" s="107" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C127" s="107" t="s">
         <v>290</v>
@@ -27828,7 +27864,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="136"/>
       <c r="B129" s="115" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C129" s="107" t="s">
         <v>290</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C79A58A1-DF0E-4014-9906-AAF6CB61F06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F965E72-E06A-4606-8B83-C28C0A4EC2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="20" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="506">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1624,6 +1624,24 @@
     <t>Entering Timesheet</t>
   </si>
   <si>
+    <t>Worked on Web api (Creating models)</t>
+  </si>
+  <si>
+    <t>Worked on Web api (Master data)</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Worked on College project</t>
+  </si>
+  <si>
+    <t>Refining errors in web api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinner </t>
+  </si>
+  <si>
     <t>Explored on Angular(components)</t>
   </si>
   <si>
@@ -1678,6 +1696,15 @@
     <t>Explored on angular</t>
   </si>
   <si>
+    <t>Entering Timesheet &amp; Refining Errors in Migration</t>
+  </si>
+  <si>
+    <t>College project work</t>
+  </si>
+  <si>
+    <t>Working on Web Api(Understanding controllers )</t>
+  </si>
+  <si>
     <t>Explored on Angular topics(components)</t>
   </si>
   <si>
@@ -1738,7 +1765,19 @@
     <t>Worked on Web Api(Models- Userservices)</t>
   </si>
   <si>
-    <t>Worked on Web Api</t>
+    <t>Worked on Web Api(Controllers)</t>
+  </si>
+  <si>
+    <t>Modifications on Web API(Master data - College)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on Web api (Models and Dbcontext - College service) </t>
+  </si>
+  <si>
+    <t>Angular Session with TN Team</t>
+  </si>
+  <si>
+    <t>Working on Web api models(Refining Errors in Migration)</t>
   </si>
   <si>
     <t>Learned Angular topics for sidebar and tried it</t>
@@ -1762,9 +1801,6 @@
     <t>Modified the Profile Histroy layout(side bar)</t>
   </si>
   <si>
-    <t>Angular Session with TN Team</t>
-  </si>
-  <si>
     <t>WebAPI exploration</t>
   </si>
   <si>
@@ -1822,13 +1858,22 @@
     <t>Worked on angular for creating path</t>
   </si>
   <si>
-    <t>Lunch</t>
-  </si>
-  <si>
     <t>Exploration on integration of angular pages</t>
   </si>
   <si>
     <t>Worked on integartion of angular pages</t>
+  </si>
+  <si>
+    <t>Discussed with teammates on yesterday's progress(web api)</t>
+  </si>
+  <si>
+    <t>Exploration on Angular (Interpolation and binding)</t>
+  </si>
+  <si>
+    <t>Refining User service on Web api</t>
+  </si>
+  <si>
+    <t>Worked on Web api (College and Domain)</t>
   </si>
   <si>
     <t>Worked on angular for home page</t>
@@ -2439,7 +2484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2775,9 +2820,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2793,6 +2835,10 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7357,7 +7403,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="129" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -7384,7 +7430,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="132"/>
+      <c r="A3" s="129"/>
       <c r="B3" s="107" t="s">
         <v>293</v>
       </c>
@@ -7410,7 +7456,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="132"/>
+      <c r="A4" s="129"/>
       <c r="B4" s="107" t="s">
         <v>294</v>
       </c>
@@ -7436,7 +7482,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="132"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="107" t="s">
         <v>296</v>
       </c>
@@ -7462,7 +7508,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="132"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="107" t="s">
         <v>298</v>
       </c>
@@ -7488,7 +7534,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="132"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="107" t="s">
         <v>301</v>
       </c>
@@ -7514,7 +7560,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="132"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="107" t="s">
         <v>303</v>
       </c>
@@ -7540,7 +7586,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="132"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="107" t="s">
         <v>304</v>
       </c>
@@ -7566,7 +7612,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="132"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="107" t="s">
         <v>306</v>
       </c>
@@ -7586,7 +7632,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="132"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -7598,7 +7644,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="132"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -7609,7 +7655,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="132"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -7620,7 +7666,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="132"/>
+      <c r="A14" s="129"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -7631,7 +7677,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="132"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -7642,7 +7688,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="132"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -7653,7 +7699,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="129" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -7680,7 +7726,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="132"/>
+      <c r="A18" s="129"/>
       <c r="B18" s="107" t="s">
         <v>308</v>
       </c>
@@ -7706,7 +7752,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="132"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -7732,7 +7778,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="132"/>
+      <c r="A20" s="129"/>
       <c r="B20" s="107" t="s">
         <v>309</v>
       </c>
@@ -7758,7 +7804,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="132"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="107" t="s">
         <v>294</v>
       </c>
@@ -7784,7 +7830,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="132"/>
+      <c r="A22" s="129"/>
       <c r="B22" s="107" t="s">
         <v>310</v>
       </c>
@@ -7810,7 +7856,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="132"/>
+      <c r="A23" s="129"/>
       <c r="B23" s="107" t="s">
         <v>296</v>
       </c>
@@ -7836,7 +7882,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="132"/>
+      <c r="A24" s="129"/>
       <c r="B24" s="107" t="s">
         <v>311</v>
       </c>
@@ -7862,7 +7908,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="132"/>
+      <c r="A25" s="129"/>
       <c r="B25" s="107" t="s">
         <v>312</v>
       </c>
@@ -7882,7 +7928,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="132"/>
+      <c r="A26" s="129"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -7894,7 +7940,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="132"/>
+      <c r="A27" s="129"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -7905,7 +7951,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="132"/>
+      <c r="A28" s="129"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -7916,7 +7962,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="132"/>
+      <c r="A29" s="129"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -7927,7 +7973,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="132"/>
+      <c r="A30" s="129"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -7938,7 +7984,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="132"/>
+      <c r="A31" s="129"/>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="108"/>
@@ -7949,7 +7995,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="132" t="s">
+      <c r="A32" s="129" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="107" t="s">
@@ -7976,7 +8022,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="132"/>
+      <c r="A33" s="129"/>
       <c r="B33" s="107" t="s">
         <v>313</v>
       </c>
@@ -8002,7 +8048,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="132"/>
+      <c r="A34" s="129"/>
       <c r="B34" s="107" t="s">
         <v>301</v>
       </c>
@@ -8028,7 +8074,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="132"/>
+      <c r="A35" s="129"/>
       <c r="B35" s="107" t="s">
         <v>313</v>
       </c>
@@ -8054,7 +8100,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="132"/>
+      <c r="A36" s="129"/>
       <c r="B36" s="107" t="s">
         <v>294</v>
       </c>
@@ -8080,7 +8126,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="132"/>
+      <c r="A37" s="129"/>
       <c r="B37" s="107" t="s">
         <v>310</v>
       </c>
@@ -8106,7 +8152,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="132"/>
+      <c r="A38" s="129"/>
       <c r="B38" s="107" t="s">
         <v>314</v>
       </c>
@@ -8132,7 +8178,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="132"/>
+      <c r="A39" s="129"/>
       <c r="B39" s="107" t="s">
         <v>315</v>
       </c>
@@ -8158,7 +8204,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="132"/>
+      <c r="A40" s="129"/>
       <c r="B40" s="107" t="s">
         <v>303</v>
       </c>
@@ -8178,7 +8224,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="132"/>
+      <c r="A41" s="129"/>
       <c r="B41" s="107" t="s">
         <v>316</v>
       </c>
@@ -8198,7 +8244,7 @@
       <c r="I41" s="110"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="132"/>
+      <c r="A42" s="129"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -8209,7 +8255,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="132"/>
+      <c r="A43" s="129"/>
       <c r="B43" s="107" t="s">
         <v>317</v>
       </c>
@@ -8222,7 +8268,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="132"/>
+      <c r="A44" s="129"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -8233,7 +8279,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="132"/>
+      <c r="A45" s="129"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -8244,7 +8290,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="132"/>
+      <c r="A46" s="129"/>
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
       <c r="D46" s="108"/>
@@ -8255,7 +8301,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="132" t="s">
+      <c r="A47" s="129" t="s">
         <v>318</v>
       </c>
       <c r="B47" s="107" t="s">
@@ -8282,7 +8328,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="132"/>
+      <c r="A48" s="129"/>
       <c r="B48" s="107" t="s">
         <v>319</v>
       </c>
@@ -8308,7 +8354,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="132"/>
+      <c r="A49" s="129"/>
       <c r="B49" s="107" t="s">
         <v>320</v>
       </c>
@@ -8334,7 +8380,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="132"/>
+      <c r="A50" s="129"/>
       <c r="B50" s="107" t="s">
         <v>321</v>
       </c>
@@ -8360,7 +8406,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="132"/>
+      <c r="A51" s="129"/>
       <c r="B51" s="107" t="s">
         <v>322</v>
       </c>
@@ -8386,7 +8432,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="132"/>
+      <c r="A52" s="129"/>
       <c r="B52" s="107" t="s">
         <v>323</v>
       </c>
@@ -8412,7 +8458,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="132"/>
+      <c r="A53" s="129"/>
       <c r="B53" s="107" t="s">
         <v>296</v>
       </c>
@@ -8438,7 +8484,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="132"/>
+      <c r="A54" s="129"/>
       <c r="B54" s="107" t="s">
         <v>324</v>
       </c>
@@ -8464,7 +8510,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="132"/>
+      <c r="A55" s="129"/>
       <c r="B55" s="107" t="s">
         <v>325</v>
       </c>
@@ -8484,7 +8530,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="132"/>
+      <c r="A56" s="129"/>
       <c r="B56" s="107" t="s">
         <v>326</v>
       </c>
@@ -8504,7 +8550,7 @@
       <c r="I56" s="110"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="132"/>
+      <c r="A57" s="129"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -8515,7 +8561,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="132"/>
+      <c r="A58" s="129"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -8526,7 +8572,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="132"/>
+      <c r="A59" s="129"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -8537,7 +8583,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="132"/>
+      <c r="A60" s="129"/>
       <c r="B60" s="107"/>
       <c r="C60" s="107"/>
       <c r="D60" s="108"/>
@@ -8548,7 +8594,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="132"/>
+      <c r="A61" s="129"/>
       <c r="B61" s="107"/>
       <c r="C61" s="107"/>
       <c r="D61" s="108"/>
@@ -8559,7 +8605,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="132" t="s">
+      <c r="A62" s="129" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="107" t="s">
@@ -8586,7 +8632,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="132"/>
+      <c r="A63" s="129"/>
       <c r="B63" s="107" t="s">
         <v>328</v>
       </c>
@@ -8612,7 +8658,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="132"/>
+      <c r="A64" s="129"/>
       <c r="B64" s="107" t="s">
         <v>301</v>
       </c>
@@ -8638,7 +8684,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="132"/>
+      <c r="A65" s="129"/>
       <c r="B65" s="107" t="s">
         <v>321</v>
       </c>
@@ -8664,7 +8710,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="132"/>
+      <c r="A66" s="129"/>
       <c r="B66" s="107" t="s">
         <v>294</v>
       </c>
@@ -8690,7 +8736,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="132"/>
+      <c r="A67" s="129"/>
       <c r="B67" s="107" t="s">
         <v>310</v>
       </c>
@@ -8716,7 +8762,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="132"/>
+      <c r="A68" s="129"/>
       <c r="B68" s="107" t="s">
         <v>296</v>
       </c>
@@ -8742,7 +8788,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="132"/>
+      <c r="A69" s="129"/>
       <c r="B69" s="107" t="s">
         <v>329</v>
       </c>
@@ -8768,7 +8814,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="132"/>
+      <c r="A70" s="129"/>
       <c r="B70" s="107" t="s">
         <v>330</v>
       </c>
@@ -8788,7 +8834,7 @@
       <c r="I70" s="110"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="132"/>
+      <c r="A71" s="129"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -8800,7 +8846,7 @@
       <c r="I71" s="110"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="132"/>
+      <c r="A72" s="129"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -8811,7 +8857,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="132"/>
+      <c r="A73" s="129"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -8822,7 +8868,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="132"/>
+      <c r="A74" s="129"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -8833,7 +8879,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="132"/>
+      <c r="A75" s="129"/>
       <c r="B75" s="107"/>
       <c r="C75" s="107"/>
       <c r="D75" s="108"/>
@@ -8844,7 +8890,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="132"/>
+      <c r="A76" s="129"/>
       <c r="B76" s="107"/>
       <c r="C76" s="107"/>
       <c r="D76" s="108"/>
@@ -8855,7 +8901,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="132" t="s">
+      <c r="A77" s="129" t="s">
         <v>67</v>
       </c>
       <c r="B77" s="107" t="s">
@@ -8882,7 +8928,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="132"/>
+      <c r="A78" s="129"/>
       <c r="B78" s="107" t="s">
         <v>331</v>
       </c>
@@ -8908,7 +8954,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="132"/>
+      <c r="A79" s="129"/>
       <c r="B79" s="107" t="s">
         <v>294</v>
       </c>
@@ -8934,7 +8980,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="132"/>
+      <c r="A80" s="129"/>
       <c r="B80" s="107" t="s">
         <v>331</v>
       </c>
@@ -8960,7 +9006,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="132"/>
+      <c r="A81" s="129"/>
       <c r="B81" s="107" t="s">
         <v>298</v>
       </c>
@@ -8986,7 +9032,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="132"/>
+      <c r="A82" s="129"/>
       <c r="B82" s="107" t="s">
         <v>301</v>
       </c>
@@ -9012,7 +9058,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="132"/>
+      <c r="A83" s="129"/>
       <c r="B83" s="107" t="s">
         <v>303</v>
       </c>
@@ -9038,7 +9084,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="132"/>
+      <c r="A84" s="129"/>
       <c r="B84" s="107" t="s">
         <v>315</v>
       </c>
@@ -9064,7 +9110,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="132"/>
+      <c r="A85" s="129"/>
       <c r="B85" s="107" t="s">
         <v>332</v>
       </c>
@@ -9084,7 +9130,7 @@
       <c r="I85" s="110"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="132"/>
+      <c r="A86" s="129"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -9096,7 +9142,7 @@
       <c r="I86" s="110"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="132"/>
+      <c r="A87" s="129"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107"/>
       <c r="D87" s="108"/>
@@ -9107,7 +9153,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="132"/>
+      <c r="A88" s="129"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -9118,7 +9164,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="132"/>
+      <c r="A89" s="129"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -9129,7 +9175,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="132"/>
+      <c r="A90" s="129"/>
       <c r="B90" s="107"/>
       <c r="C90" s="107"/>
       <c r="D90" s="108"/>
@@ -9140,7 +9186,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="132"/>
+      <c r="A91" s="129"/>
       <c r="B91" s="107"/>
       <c r="C91" s="107"/>
       <c r="D91" s="108"/>
@@ -9151,7 +9197,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="132" t="s">
+      <c r="A92" s="129" t="s">
         <v>28</v>
       </c>
       <c r="B92" s="107" t="s">
@@ -9178,7 +9224,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="132"/>
+      <c r="A93" s="129"/>
       <c r="B93" s="107" t="s">
         <v>333</v>
       </c>
@@ -9204,7 +9250,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="132"/>
+      <c r="A94" s="129"/>
       <c r="B94" s="107" t="s">
         <v>301</v>
       </c>
@@ -9230,7 +9276,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="132"/>
+      <c r="A95" s="129"/>
       <c r="B95" s="107" t="s">
         <v>334</v>
       </c>
@@ -9256,7 +9302,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="132"/>
+      <c r="A96" s="129"/>
       <c r="B96" s="107" t="s">
         <v>294</v>
       </c>
@@ -9282,7 +9328,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="132"/>
+      <c r="A97" s="129"/>
       <c r="B97" s="107" t="s">
         <v>310</v>
       </c>
@@ -9308,7 +9354,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="132"/>
+      <c r="A98" s="129"/>
       <c r="B98" s="107" t="s">
         <v>335</v>
       </c>
@@ -9334,7 +9380,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="132"/>
+      <c r="A99" s="129"/>
       <c r="B99" s="107" t="s">
         <v>336</v>
       </c>
@@ -9360,7 +9406,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="132"/>
+      <c r="A100" s="129"/>
       <c r="B100" s="107" t="s">
         <v>337</v>
       </c>
@@ -9380,7 +9426,7 @@
       <c r="I100" s="110"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="132"/>
+      <c r="A101" s="129"/>
       <c r="B101" s="107" t="s">
         <v>303</v>
       </c>
@@ -9400,7 +9446,7 @@
       <c r="I101" s="110"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="132"/>
+      <c r="A102" s="129"/>
       <c r="B102" s="107" t="s">
         <v>335</v>
       </c>
@@ -9419,7 +9465,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="132"/>
+      <c r="A103" s="129"/>
       <c r="B103" s="107" t="s">
         <v>338</v>
       </c>
@@ -9438,7 +9484,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="132"/>
+      <c r="A104" s="129"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -9449,7 +9495,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="132"/>
+      <c r="A105" s="129"/>
       <c r="B105" s="107"/>
       <c r="C105" s="107"/>
       <c r="D105" s="108"/>
@@ -9460,7 +9506,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="133"/>
+      <c r="A106" s="130"/>
       <c r="B106" s="107"/>
       <c r="C106" s="107"/>
       <c r="D106" s="108"/>
@@ -9471,7 +9517,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="134" t="s">
+      <c r="A107" s="131" t="s">
         <v>19</v>
       </c>
       <c r="B107" s="115" t="s">
@@ -9498,7 +9544,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="134"/>
+      <c r="A108" s="131"/>
       <c r="B108" s="115" t="s">
         <v>331</v>
       </c>
@@ -9524,7 +9570,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="134"/>
+      <c r="A109" s="131"/>
       <c r="B109" s="115" t="s">
         <v>294</v>
       </c>
@@ -9550,7 +9596,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="134"/>
+      <c r="A110" s="131"/>
       <c r="B110" s="115" t="s">
         <v>331</v>
       </c>
@@ -9576,7 +9622,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="134"/>
+      <c r="A111" s="131"/>
       <c r="B111" s="115" t="s">
         <v>298</v>
       </c>
@@ -9602,7 +9648,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="134"/>
+      <c r="A112" s="131"/>
       <c r="B112" s="115" t="s">
         <v>301</v>
       </c>
@@ -9628,7 +9674,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="134"/>
+      <c r="A113" s="131"/>
       <c r="B113" s="115" t="s">
         <v>303</v>
       </c>
@@ -9654,7 +9700,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="134"/>
+      <c r="A114" s="131"/>
       <c r="B114" s="115" t="s">
         <v>315</v>
       </c>
@@ -9680,7 +9726,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="134"/>
+      <c r="A115" s="131"/>
       <c r="B115" s="115" t="s">
         <v>332</v>
       </c>
@@ -9700,7 +9746,7 @@
       <c r="I115" s="110"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="134"/>
+      <c r="A116" s="131"/>
       <c r="B116" s="115"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -9712,7 +9758,7 @@
       <c r="I116" s="110"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="134"/>
+      <c r="A117" s="131"/>
       <c r="B117" s="115"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -9723,7 +9769,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="134"/>
+      <c r="A118" s="131"/>
       <c r="B118" s="115"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -9734,7 +9780,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="134"/>
+      <c r="A119" s="131"/>
       <c r="B119" s="115"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -9745,7 +9791,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="134"/>
+      <c r="A120" s="131"/>
       <c r="B120" s="116"/>
       <c r="C120" s="111"/>
       <c r="D120" s="112"/>
@@ -9756,7 +9802,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="135"/>
+      <c r="A121" s="132"/>
       <c r="B121" s="117"/>
       <c r="C121" s="113"/>
       <c r="D121" s="114"/>
@@ -9767,7 +9813,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="136" t="s">
+      <c r="A122" s="133" t="s">
         <v>339</v>
       </c>
       <c r="B122" s="115" t="s">
@@ -9794,7 +9840,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="136"/>
+      <c r="A123" s="133"/>
       <c r="B123" s="115" t="s">
         <v>341</v>
       </c>
@@ -9820,7 +9866,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="136"/>
+      <c r="A124" s="133"/>
       <c r="B124" s="115" t="s">
         <v>320</v>
       </c>
@@ -9846,7 +9892,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="136"/>
+      <c r="A125" s="133"/>
       <c r="B125" s="115" t="s">
         <v>342</v>
       </c>
@@ -9872,7 +9918,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="136"/>
+      <c r="A126" s="133"/>
       <c r="B126" s="115" t="s">
         <v>322</v>
       </c>
@@ -9898,7 +9944,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="136"/>
+      <c r="A127" s="133"/>
       <c r="B127" s="115" t="s">
         <v>323</v>
       </c>
@@ -9924,7 +9970,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="136"/>
+      <c r="A128" s="133"/>
       <c r="B128" s="115" t="s">
         <v>343</v>
       </c>
@@ -9950,7 +9996,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="136"/>
+      <c r="A129" s="133"/>
       <c r="B129" s="115" t="s">
         <v>329</v>
       </c>
@@ -9976,7 +10022,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="136"/>
+      <c r="A130" s="133"/>
       <c r="B130" s="115" t="s">
         <v>303</v>
       </c>
@@ -9996,7 +10042,7 @@
       <c r="I130" s="110"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="136"/>
+      <c r="A131" s="133"/>
       <c r="B131" s="115" t="s">
         <v>329</v>
       </c>
@@ -10016,7 +10062,7 @@
       <c r="I131" s="110"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="136"/>
+      <c r="A132" s="133"/>
       <c r="B132" s="115" t="s">
         <v>344</v>
       </c>
@@ -10035,7 +10081,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="136"/>
+      <c r="A133" s="133"/>
       <c r="B133" s="115" t="s">
         <v>345</v>
       </c>
@@ -10054,7 +10100,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="136"/>
+      <c r="A134" s="133"/>
       <c r="B134" s="115"/>
       <c r="C134" s="107"/>
       <c r="D134" s="108"/>
@@ -10065,7 +10111,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="136"/>
+      <c r="A135" s="133"/>
       <c r="B135" s="116"/>
       <c r="C135" s="111"/>
       <c r="D135" s="112"/>
@@ -10076,7 +10122,7 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="136"/>
+      <c r="A136" s="133"/>
       <c r="B136" s="117"/>
       <c r="C136" s="113"/>
       <c r="D136" s="114"/>
@@ -10253,7 +10299,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="129" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -10283,7 +10329,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="132"/>
+      <c r="A3" s="129"/>
       <c r="B3" s="107" t="s">
         <v>331</v>
       </c>
@@ -10312,7 +10358,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="132"/>
+      <c r="A4" s="129"/>
       <c r="B4" s="107" t="s">
         <v>301</v>
       </c>
@@ -10341,7 +10387,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="132"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="107" t="s">
         <v>347</v>
       </c>
@@ -10370,7 +10416,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="132"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="107" t="s">
         <v>294</v>
       </c>
@@ -10399,7 +10445,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="132"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="107" t="s">
         <v>298</v>
       </c>
@@ -10428,7 +10474,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="132"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="107" t="s">
         <v>348</v>
       </c>
@@ -10454,7 +10500,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="132"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="107" t="s">
         <v>303</v>
       </c>
@@ -10480,7 +10526,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="132"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="120" t="s">
         <v>349</v>
       </c>
@@ -10500,7 +10546,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="132"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="107" t="s">
         <v>350</v>
       </c>
@@ -10520,7 +10566,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="132"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="107" t="s">
         <v>351</v>
       </c>
@@ -10539,7 +10585,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="132"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -10550,7 +10596,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="132"/>
+      <c r="A14" s="129"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -10561,7 +10607,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="132"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -10572,7 +10618,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="132"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -10583,7 +10629,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="129" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -10610,7 +10656,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="132"/>
+      <c r="A18" s="129"/>
       <c r="B18" s="107" t="s">
         <v>331</v>
       </c>
@@ -10636,7 +10682,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="132"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -10662,7 +10708,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="132"/>
+      <c r="A20" s="129"/>
       <c r="B20" s="107" t="s">
         <v>353</v>
       </c>
@@ -10688,7 +10734,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="132"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="107" t="s">
         <v>322</v>
       </c>
@@ -10714,7 +10760,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="132"/>
+      <c r="A22" s="129"/>
       <c r="B22" s="107" t="s">
         <v>298</v>
       </c>
@@ -10740,7 +10786,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="132"/>
+      <c r="A23" s="129"/>
       <c r="B23" s="107" t="s">
         <v>354</v>
       </c>
@@ -10766,7 +10812,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="132"/>
+      <c r="A24" s="129"/>
       <c r="B24" s="107" t="s">
         <v>303</v>
       </c>
@@ -10792,7 +10838,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="132"/>
+      <c r="A25" s="129"/>
       <c r="B25" s="107" t="s">
         <v>355</v>
       </c>
@@ -10812,7 +10858,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="132"/>
+      <c r="A26" s="129"/>
       <c r="B26" s="107" t="s">
         <v>314</v>
       </c>
@@ -10832,7 +10878,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="132"/>
+      <c r="A27" s="129"/>
       <c r="B27" s="107" t="s">
         <v>355</v>
       </c>
@@ -10851,7 +10897,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="132"/>
+      <c r="A28" s="129"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -10862,7 +10908,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="132"/>
+      <c r="A29" s="129"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -10873,7 +10919,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="132"/>
+      <c r="A30" s="129"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -10884,7 +10930,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="129" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -10911,7 +10957,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="132"/>
+      <c r="A32" s="129"/>
       <c r="B32" s="107" t="s">
         <v>331</v>
       </c>
@@ -10937,7 +10983,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="132"/>
+      <c r="A33" s="129"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -10963,7 +11009,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="132"/>
+      <c r="A34" s="129"/>
       <c r="B34" s="107" t="s">
         <v>357</v>
       </c>
@@ -10989,7 +11035,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="132"/>
+      <c r="A35" s="129"/>
       <c r="B35" s="107" t="s">
         <v>322</v>
       </c>
@@ -11015,7 +11061,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="132"/>
+      <c r="A36" s="129"/>
       <c r="B36" s="107" t="s">
         <v>298</v>
       </c>
@@ -11041,7 +11087,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="132"/>
+      <c r="A37" s="129"/>
       <c r="B37" s="107" t="s">
         <v>358</v>
       </c>
@@ -11067,7 +11113,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="132"/>
+      <c r="A38" s="129"/>
       <c r="B38" s="107" t="s">
         <v>303</v>
       </c>
@@ -11093,7 +11139,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="132"/>
+      <c r="A39" s="129"/>
       <c r="B39" s="107" t="s">
         <v>359</v>
       </c>
@@ -11113,7 +11159,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="132"/>
+      <c r="A40" s="129"/>
       <c r="B40" s="107" t="s">
         <v>314</v>
       </c>
@@ -11133,7 +11179,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="132"/>
+      <c r="A41" s="129"/>
       <c r="B41" s="107" t="s">
         <v>360</v>
       </c>
@@ -11152,7 +11198,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="132"/>
+      <c r="A42" s="129"/>
       <c r="B42" s="107" t="s">
         <v>361</v>
       </c>
@@ -11171,7 +11217,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="132"/>
+      <c r="A43" s="129"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -11182,7 +11228,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="132"/>
+      <c r="A44" s="129"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -11193,7 +11239,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="132"/>
+      <c r="A45" s="129"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -11204,7 +11250,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="132" t="s">
+      <c r="A46" s="129" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -11231,7 +11277,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="132"/>
+      <c r="A47" s="129"/>
       <c r="B47" s="107" t="s">
         <v>331</v>
       </c>
@@ -11257,7 +11303,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="132"/>
+      <c r="A48" s="129"/>
       <c r="B48" s="107" t="s">
         <v>301</v>
       </c>
@@ -11283,7 +11329,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="132"/>
+      <c r="A49" s="129"/>
       <c r="B49" s="107" t="s">
         <v>363</v>
       </c>
@@ -11309,7 +11355,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="132"/>
+      <c r="A50" s="129"/>
       <c r="B50" s="107" t="s">
         <v>322</v>
       </c>
@@ -11335,7 +11381,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="132"/>
+      <c r="A51" s="129"/>
       <c r="B51" s="107" t="s">
         <v>298</v>
       </c>
@@ -11361,7 +11407,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="132"/>
+      <c r="A52" s="129"/>
       <c r="B52" s="107" t="s">
         <v>354</v>
       </c>
@@ -11387,7 +11433,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="132"/>
+      <c r="A53" s="129"/>
       <c r="B53" s="107" t="s">
         <v>303</v>
       </c>
@@ -11413,7 +11459,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="132"/>
+      <c r="A54" s="129"/>
       <c r="B54" s="107" t="s">
         <v>364</v>
       </c>
@@ -11433,7 +11479,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="132"/>
+      <c r="A55" s="129"/>
       <c r="B55" s="107" t="s">
         <v>314</v>
       </c>
@@ -11453,7 +11499,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="132"/>
+      <c r="A56" s="129"/>
       <c r="B56" s="107" t="s">
         <v>365</v>
       </c>
@@ -11472,7 +11518,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="132"/>
+      <c r="A57" s="129"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -11483,7 +11529,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="132"/>
+      <c r="A58" s="129"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -11494,7 +11540,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="132"/>
+      <c r="A59" s="129"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -11505,7 +11551,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="132" t="s">
+      <c r="A60" s="129" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -11532,7 +11578,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="132"/>
+      <c r="A61" s="129"/>
       <c r="B61" s="107" t="s">
         <v>331</v>
       </c>
@@ -11558,7 +11604,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="132"/>
+      <c r="A62" s="129"/>
       <c r="B62" s="107" t="s">
         <v>301</v>
       </c>
@@ -11584,7 +11630,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="132"/>
+      <c r="A63" s="129"/>
       <c r="B63" s="107" t="s">
         <v>366</v>
       </c>
@@ -11610,7 +11656,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="132"/>
+      <c r="A64" s="129"/>
       <c r="B64" s="107" t="s">
         <v>322</v>
       </c>
@@ -11636,7 +11682,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="132"/>
+      <c r="A65" s="129"/>
       <c r="B65" s="107" t="s">
         <v>298</v>
       </c>
@@ -11662,7 +11708,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="132"/>
+      <c r="A66" s="129"/>
       <c r="B66" s="107" t="s">
         <v>367</v>
       </c>
@@ -11688,7 +11734,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="132"/>
+      <c r="A67" s="129"/>
       <c r="B67" s="107" t="s">
         <v>368</v>
       </c>
@@ -11714,7 +11760,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="132"/>
+      <c r="A68" s="129"/>
       <c r="B68" s="107" t="s">
         <v>369</v>
       </c>
@@ -11734,7 +11780,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="132"/>
+      <c r="A69" s="129"/>
       <c r="B69" s="107" t="s">
         <v>314</v>
       </c>
@@ -11754,7 +11800,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="132"/>
+      <c r="A70" s="129"/>
       <c r="B70" s="107" t="s">
         <v>370</v>
       </c>
@@ -11773,7 +11819,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="132"/>
+      <c r="A71" s="129"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -11784,7 +11830,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="132"/>
+      <c r="A72" s="129"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -11795,7 +11841,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="132"/>
+      <c r="A73" s="129"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -11806,7 +11852,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="132"/>
+      <c r="A74" s="129"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -11817,7 +11863,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="132" t="s">
+      <c r="A75" s="129" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -11844,7 +11890,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="132"/>
+      <c r="A76" s="129"/>
       <c r="B76" s="107" t="s">
         <v>331</v>
       </c>
@@ -11870,7 +11916,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="132"/>
+      <c r="A77" s="129"/>
       <c r="B77" s="107" t="s">
         <v>301</v>
       </c>
@@ -11896,7 +11942,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="132"/>
+      <c r="A78" s="129"/>
       <c r="B78" s="107" t="s">
         <v>371</v>
       </c>
@@ -11922,7 +11968,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="132"/>
+      <c r="A79" s="129"/>
       <c r="B79" s="107" t="s">
         <v>372</v>
       </c>
@@ -11948,7 +11994,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="132"/>
+      <c r="A80" s="129"/>
       <c r="B80" s="107" t="s">
         <v>322</v>
       </c>
@@ -11974,7 +12020,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="132"/>
+      <c r="A81" s="129"/>
       <c r="B81" s="107" t="s">
         <v>371</v>
       </c>
@@ -12000,7 +12046,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="132"/>
+      <c r="A82" s="129"/>
       <c r="B82" s="107" t="s">
         <v>373</v>
       </c>
@@ -12026,7 +12072,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="132"/>
+      <c r="A83" s="129"/>
       <c r="B83" s="107" t="s">
         <v>368</v>
       </c>
@@ -12046,7 +12092,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="132"/>
+      <c r="A84" s="129"/>
       <c r="B84" s="107" t="s">
         <v>373</v>
       </c>
@@ -12066,7 +12112,7 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="132"/>
+      <c r="A85" s="129"/>
       <c r="B85" s="107" t="s">
         <v>314</v>
       </c>
@@ -12085,7 +12131,7 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="132"/>
+      <c r="A86" s="129"/>
       <c r="B86" s="107" t="s">
         <v>371</v>
       </c>
@@ -12104,7 +12150,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="132"/>
+      <c r="A87" s="129"/>
       <c r="B87" s="107" t="s">
         <v>374</v>
       </c>
@@ -12123,7 +12169,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="132"/>
+      <c r="A88" s="129"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -12134,7 +12180,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="132"/>
+      <c r="A89" s="129"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -12145,7 +12191,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="132" t="s">
+      <c r="A90" s="129" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -12172,7 +12218,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="132"/>
+      <c r="A91" s="129"/>
       <c r="B91" s="107" t="s">
         <v>375</v>
       </c>
@@ -12198,7 +12244,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="132"/>
+      <c r="A92" s="129"/>
       <c r="B92" s="107" t="s">
         <v>331</v>
       </c>
@@ -12224,7 +12270,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="132"/>
+      <c r="A93" s="129"/>
       <c r="B93" s="107" t="s">
         <v>375</v>
       </c>
@@ -12250,7 +12296,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="132"/>
+      <c r="A94" s="129"/>
       <c r="B94" s="107" t="s">
         <v>294</v>
       </c>
@@ -12276,7 +12322,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="132"/>
+      <c r="A95" s="129"/>
       <c r="B95" s="107" t="s">
         <v>310</v>
       </c>
@@ -12302,7 +12348,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="132"/>
+      <c r="A96" s="129"/>
       <c r="B96" s="107" t="s">
         <v>376</v>
       </c>
@@ -12328,7 +12374,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="132"/>
+      <c r="A97" s="129"/>
       <c r="B97" s="107" t="s">
         <v>377</v>
       </c>
@@ -12354,7 +12400,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="132"/>
+      <c r="A98" s="129"/>
       <c r="B98" s="107" t="s">
         <v>303</v>
       </c>
@@ -12374,7 +12420,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="132"/>
+      <c r="A99" s="129"/>
       <c r="B99" s="107" t="s">
         <v>375</v>
       </c>
@@ -12394,7 +12440,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="132"/>
+      <c r="A100" s="129"/>
       <c r="B100" s="107" t="s">
         <v>378</v>
       </c>
@@ -12413,7 +12459,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="132"/>
+      <c r="A101" s="129"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -12424,7 +12470,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="132"/>
+      <c r="A102" s="129"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -12435,7 +12481,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="132"/>
+      <c r="A103" s="129"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -12446,7 +12492,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="133"/>
+      <c r="A104" s="130"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -12457,7 +12503,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="134" t="s">
+      <c r="A105" s="131" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -12484,7 +12530,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="134"/>
+      <c r="A106" s="131"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -12510,7 +12556,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="134"/>
+      <c r="A107" s="131"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -12536,7 +12582,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="134"/>
+      <c r="A108" s="131"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -12562,7 +12608,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="134"/>
+      <c r="A109" s="131"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -12588,7 +12634,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="134"/>
+      <c r="A110" s="131"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -12614,7 +12660,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="134"/>
+      <c r="A111" s="131"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -12640,7 +12686,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="134"/>
+      <c r="A112" s="131"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -12666,7 +12712,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="134"/>
+      <c r="A113" s="131"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -12686,7 +12732,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="134"/>
+      <c r="A114" s="131"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -12698,7 +12744,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="134"/>
+      <c r="A115" s="131"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -12709,7 +12755,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="134"/>
+      <c r="A116" s="131"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -12720,7 +12766,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="134"/>
+      <c r="A117" s="131"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -12731,7 +12777,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="134"/>
+      <c r="A118" s="131"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -12742,7 +12788,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="135"/>
+      <c r="A119" s="132"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -12753,7 +12799,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="136" t="s">
+      <c r="A120" s="133" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -12780,7 +12826,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="136"/>
+      <c r="A121" s="133"/>
       <c r="B121" s="115" t="s">
         <v>380</v>
       </c>
@@ -12806,7 +12852,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="136"/>
+      <c r="A122" s="133"/>
       <c r="B122" s="115" t="s">
         <v>301</v>
       </c>
@@ -12832,7 +12878,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="136"/>
+      <c r="A123" s="133"/>
       <c r="B123" s="115" t="s">
         <v>381</v>
       </c>
@@ -12858,7 +12904,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="136"/>
+      <c r="A124" s="133"/>
       <c r="B124" s="115" t="s">
         <v>382</v>
       </c>
@@ -12884,7 +12930,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="136"/>
+      <c r="A125" s="133"/>
       <c r="B125" s="115" t="s">
         <v>302</v>
       </c>
@@ -12910,7 +12956,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="136"/>
+      <c r="A126" s="133"/>
       <c r="B126" s="115" t="s">
         <v>310</v>
       </c>
@@ -12936,7 +12982,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="136"/>
+      <c r="A127" s="133"/>
       <c r="B127" s="120" t="s">
         <v>383</v>
       </c>
@@ -12962,7 +13008,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="136"/>
+      <c r="A128" s="133"/>
       <c r="B128" s="115" t="s">
         <v>303</v>
       </c>
@@ -12982,7 +13028,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="136"/>
+      <c r="A129" s="133"/>
       <c r="B129" s="115" t="s">
         <v>381</v>
       </c>
@@ -13002,7 +13048,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="136"/>
+      <c r="A130" s="133"/>
       <c r="B130" s="115" t="s">
         <v>384</v>
       </c>
@@ -13021,7 +13067,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="136"/>
+      <c r="A131" s="133"/>
       <c r="B131" s="115" t="s">
         <v>385</v>
       </c>
@@ -13040,7 +13086,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="136"/>
+      <c r="A132" s="133"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -13051,7 +13097,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="136"/>
+      <c r="A133" s="133"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -13062,7 +13108,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="136"/>
+      <c r="A134" s="133"/>
       <c r="B134" s="117"/>
       <c r="C134" s="113"/>
       <c r="D134" s="114"/>
@@ -13574,8 +13620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E469F2C2-993F-4F48-8C74-266B916F6309}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13614,7 +13660,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="129" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -13644,7 +13690,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="132"/>
+      <c r="A3" s="129"/>
       <c r="B3" s="107" t="s">
         <v>331</v>
       </c>
@@ -13673,7 +13719,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="132"/>
+      <c r="A4" s="129"/>
       <c r="B4" s="107" t="s">
         <v>301</v>
       </c>
@@ -13702,7 +13748,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="132"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="107" t="s">
         <v>351</v>
       </c>
@@ -13731,7 +13777,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="132"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="107" t="s">
         <v>294</v>
       </c>
@@ -13760,7 +13806,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="132"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="107" t="s">
         <v>298</v>
       </c>
@@ -13789,7 +13835,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="132"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="107" t="s">
         <v>348</v>
       </c>
@@ -13815,7 +13861,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="132"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="107" t="s">
         <v>303</v>
       </c>
@@ -13841,7 +13887,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="132"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="120" t="s">
         <v>349</v>
       </c>
@@ -13861,7 +13907,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="132"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="107" t="s">
         <v>350</v>
       </c>
@@ -13881,7 +13927,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="132"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="107" t="s">
         <v>351</v>
       </c>
@@ -13900,7 +13946,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="132"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -13911,7 +13957,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="132"/>
+      <c r="A14" s="129"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -13922,7 +13968,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="132"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -13933,7 +13979,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="132"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -13944,7 +13990,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="129" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -13971,7 +14017,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="132"/>
+      <c r="A18" s="129"/>
       <c r="B18" s="107" t="s">
         <v>331</v>
       </c>
@@ -13997,7 +14043,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="132"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -14023,7 +14069,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="132"/>
+      <c r="A20" s="129"/>
       <c r="B20" s="107" t="s">
         <v>352</v>
       </c>
@@ -14049,7 +14095,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="132"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="107" t="s">
         <v>298</v>
       </c>
@@ -14075,7 +14121,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="132"/>
+      <c r="A22" s="129"/>
       <c r="B22" s="107" t="s">
         <v>294</v>
       </c>
@@ -14101,7 +14147,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="132"/>
+      <c r="A23" s="129"/>
       <c r="B23" s="107" t="s">
         <v>386</v>
       </c>
@@ -14127,7 +14173,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="132"/>
+      <c r="A24" s="129"/>
       <c r="B24" s="107" t="s">
         <v>303</v>
       </c>
@@ -14153,7 +14199,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="132"/>
+      <c r="A25" s="129"/>
       <c r="B25" s="107" t="s">
         <v>387</v>
       </c>
@@ -14173,7 +14219,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="132"/>
+      <c r="A26" s="129"/>
       <c r="B26" s="107" t="s">
         <v>314</v>
       </c>
@@ -14193,7 +14239,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="132"/>
+      <c r="A27" s="129"/>
       <c r="B27" s="107" t="s">
         <v>388</v>
       </c>
@@ -14212,7 +14258,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="132"/>
+      <c r="A28" s="129"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -14223,7 +14269,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="132"/>
+      <c r="A29" s="129"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -14234,7 +14280,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="132"/>
+      <c r="A30" s="129"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -14245,7 +14291,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="129" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -14272,7 +14318,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="132"/>
+      <c r="A32" s="129"/>
       <c r="B32" s="107" t="s">
         <v>331</v>
       </c>
@@ -14298,7 +14344,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="132"/>
+      <c r="A33" s="129"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -14324,7 +14370,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="132"/>
+      <c r="A34" s="129"/>
       <c r="B34" s="107" t="s">
         <v>389</v>
       </c>
@@ -14350,7 +14396,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="132"/>
+      <c r="A35" s="129"/>
       <c r="B35" s="107" t="s">
         <v>322</v>
       </c>
@@ -14376,7 +14422,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="132"/>
+      <c r="A36" s="129"/>
       <c r="B36" s="107" t="s">
         <v>298</v>
       </c>
@@ -14402,7 +14448,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="132"/>
+      <c r="A37" s="129"/>
       <c r="B37" s="107" t="s">
         <v>358</v>
       </c>
@@ -14428,7 +14474,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="132"/>
+      <c r="A38" s="129"/>
       <c r="B38" s="107" t="s">
         <v>303</v>
       </c>
@@ -14454,7 +14500,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="132"/>
+      <c r="A39" s="129"/>
       <c r="B39" s="107" t="s">
         <v>359</v>
       </c>
@@ -14474,7 +14520,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="132"/>
+      <c r="A40" s="129"/>
       <c r="B40" s="107" t="s">
         <v>314</v>
       </c>
@@ -14494,7 +14540,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="132"/>
+      <c r="A41" s="129"/>
       <c r="B41" s="107" t="s">
         <v>360</v>
       </c>
@@ -14513,7 +14559,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="132"/>
+      <c r="A42" s="129"/>
       <c r="B42" s="107" t="s">
         <v>361</v>
       </c>
@@ -14532,7 +14578,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="132"/>
+      <c r="A43" s="129"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -14543,7 +14589,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="132"/>
+      <c r="A44" s="129"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -14554,7 +14600,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="132"/>
+      <c r="A45" s="129"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -14565,7 +14611,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="132" t="s">
+      <c r="A46" s="129" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -14592,7 +14638,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="132"/>
+      <c r="A47" s="129"/>
       <c r="B47" s="107" t="s">
         <v>331</v>
       </c>
@@ -14618,7 +14664,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="132"/>
+      <c r="A48" s="129"/>
       <c r="B48" s="107" t="s">
         <v>301</v>
       </c>
@@ -14644,7 +14690,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="132"/>
+      <c r="A49" s="129"/>
       <c r="B49" s="107" t="s">
         <v>390</v>
       </c>
@@ -14670,7 +14716,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="132"/>
+      <c r="A50" s="129"/>
       <c r="B50" s="107" t="s">
         <v>298</v>
       </c>
@@ -14696,7 +14742,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="132"/>
+      <c r="A51" s="129"/>
       <c r="B51" s="107" t="s">
         <v>294</v>
       </c>
@@ -14722,7 +14768,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="132"/>
+      <c r="A52" s="129"/>
       <c r="B52" s="107" t="s">
         <v>386</v>
       </c>
@@ -14748,7 +14794,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="132"/>
+      <c r="A53" s="129"/>
       <c r="B53" s="107" t="s">
         <v>303</v>
       </c>
@@ -14774,7 +14820,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="132"/>
+      <c r="A54" s="129"/>
       <c r="B54" s="107" t="s">
         <v>391</v>
       </c>
@@ -14794,7 +14840,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="132"/>
+      <c r="A55" s="129"/>
       <c r="B55" s="107" t="s">
         <v>314</v>
       </c>
@@ -14814,7 +14860,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="132"/>
+      <c r="A56" s="129"/>
       <c r="B56" s="107" t="s">
         <v>392</v>
       </c>
@@ -14833,7 +14879,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="132"/>
+      <c r="A57" s="129"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -14844,7 +14890,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="132"/>
+      <c r="A58" s="129"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -14855,7 +14901,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="132"/>
+      <c r="A59" s="129"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -14866,7 +14912,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="132" t="s">
+      <c r="A60" s="129" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -14893,7 +14939,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="132"/>
+      <c r="A61" s="129"/>
       <c r="B61" s="107" t="s">
         <v>331</v>
       </c>
@@ -14919,7 +14965,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="132"/>
+      <c r="A62" s="129"/>
       <c r="B62" s="107" t="s">
         <v>301</v>
       </c>
@@ -14945,7 +14991,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="132"/>
+      <c r="A63" s="129"/>
       <c r="B63" s="107" t="s">
         <v>366</v>
       </c>
@@ -14971,7 +15017,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="132"/>
+      <c r="A64" s="129"/>
       <c r="B64" s="107" t="s">
         <v>322</v>
       </c>
@@ -14997,7 +15043,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="132"/>
+      <c r="A65" s="129"/>
       <c r="B65" s="107" t="s">
         <v>298</v>
       </c>
@@ -15023,7 +15069,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="132"/>
+      <c r="A66" s="129"/>
       <c r="B66" s="107" t="s">
         <v>391</v>
       </c>
@@ -15049,7 +15095,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="132"/>
+      <c r="A67" s="129"/>
       <c r="B67" s="107" t="s">
         <v>368</v>
       </c>
@@ -15075,7 +15121,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="132"/>
+      <c r="A68" s="129"/>
       <c r="B68" s="107" t="s">
         <v>394</v>
       </c>
@@ -15095,7 +15141,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="132"/>
+      <c r="A69" s="129"/>
       <c r="B69" s="107" t="s">
         <v>314</v>
       </c>
@@ -15115,7 +15161,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="132"/>
+      <c r="A70" s="129"/>
       <c r="B70" s="107" t="s">
         <v>395</v>
       </c>
@@ -15134,7 +15180,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="132"/>
+      <c r="A71" s="129"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -15145,7 +15191,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="132"/>
+      <c r="A72" s="129"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -15156,7 +15202,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="132"/>
+      <c r="A73" s="129"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -15167,7 +15213,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="132"/>
+      <c r="A74" s="129"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -15178,7 +15224,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="132" t="s">
+      <c r="A75" s="129" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -15205,7 +15251,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="132"/>
+      <c r="A76" s="129"/>
       <c r="B76" s="107" t="s">
         <v>331</v>
       </c>
@@ -15231,7 +15277,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="132"/>
+      <c r="A77" s="129"/>
       <c r="B77" s="107" t="s">
         <v>301</v>
       </c>
@@ -15257,7 +15303,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="132"/>
+      <c r="A78" s="129"/>
       <c r="B78" s="107" t="s">
         <v>373</v>
       </c>
@@ -15283,7 +15329,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="132"/>
+      <c r="A79" s="129"/>
       <c r="B79" s="107" t="s">
         <v>372</v>
       </c>
@@ -15309,7 +15355,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="132"/>
+      <c r="A80" s="129"/>
       <c r="B80" s="107" t="s">
         <v>371</v>
       </c>
@@ -15335,7 +15381,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="132"/>
+      <c r="A81" s="129"/>
       <c r="B81" s="107" t="s">
         <v>373</v>
       </c>
@@ -15361,7 +15407,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="132"/>
+      <c r="A82" s="129"/>
       <c r="B82" s="107" t="s">
         <v>368</v>
       </c>
@@ -15387,7 +15433,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="132"/>
+      <c r="A83" s="129"/>
       <c r="B83" s="107" t="s">
         <v>373</v>
       </c>
@@ -15407,7 +15453,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="132"/>
+      <c r="A84" s="129"/>
       <c r="B84" s="107" t="s">
         <v>314</v>
       </c>
@@ -15427,7 +15473,7 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="132"/>
+      <c r="A85" s="129"/>
       <c r="B85" s="107" t="s">
         <v>371</v>
       </c>
@@ -15447,7 +15493,7 @@
       <c r="G85" s="110"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="132"/>
+      <c r="A86" s="129"/>
       <c r="B86" s="107" t="s">
         <v>396</v>
       </c>
@@ -15466,10 +15512,10 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="132"/>
+      <c r="A87" s="129"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="132"/>
+      <c r="A88" s="129"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -15480,7 +15526,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="132"/>
+      <c r="A89" s="129"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -15491,7 +15537,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="132" t="s">
+      <c r="A90" s="129" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -15518,7 +15564,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="132"/>
+      <c r="A91" s="129"/>
       <c r="B91" s="107" t="s">
         <v>375</v>
       </c>
@@ -15544,7 +15590,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="132"/>
+      <c r="A92" s="129"/>
       <c r="B92" s="107" t="s">
         <v>331</v>
       </c>
@@ -15570,7 +15616,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="132"/>
+      <c r="A93" s="129"/>
       <c r="B93" s="107" t="s">
         <v>375</v>
       </c>
@@ -15596,7 +15642,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="132"/>
+      <c r="A94" s="129"/>
       <c r="B94" s="107" t="s">
         <v>294</v>
       </c>
@@ -15622,7 +15668,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="132"/>
+      <c r="A95" s="129"/>
       <c r="B95" s="107" t="s">
         <v>310</v>
       </c>
@@ -15648,7 +15694,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="132"/>
+      <c r="A96" s="129"/>
       <c r="B96" s="107" t="s">
         <v>376</v>
       </c>
@@ -15674,7 +15720,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="132"/>
+      <c r="A97" s="129"/>
       <c r="B97" s="107" t="s">
         <v>377</v>
       </c>
@@ -15700,7 +15746,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="132"/>
+      <c r="A98" s="129"/>
       <c r="B98" s="107" t="s">
         <v>303</v>
       </c>
@@ -15720,7 +15766,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="132"/>
+      <c r="A99" s="129"/>
       <c r="B99" s="107" t="s">
         <v>375</v>
       </c>
@@ -15740,7 +15786,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="132"/>
+      <c r="A100" s="129"/>
       <c r="B100" s="107" t="s">
         <v>378</v>
       </c>
@@ -15759,7 +15805,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="132"/>
+      <c r="A101" s="129"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -15770,7 +15816,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="132"/>
+      <c r="A102" s="129"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -15781,7 +15827,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="132"/>
+      <c r="A103" s="129"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -15792,7 +15838,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="133"/>
+      <c r="A104" s="130"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -15803,7 +15849,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="134" t="s">
+      <c r="A105" s="131" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -15830,7 +15876,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="134"/>
+      <c r="A106" s="131"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -15856,7 +15902,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="134"/>
+      <c r="A107" s="131"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -15882,7 +15928,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="134"/>
+      <c r="A108" s="131"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -15908,7 +15954,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="134"/>
+      <c r="A109" s="131"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -15934,7 +15980,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="134"/>
+      <c r="A110" s="131"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -15960,7 +16006,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="134"/>
+      <c r="A111" s="131"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -15986,7 +16032,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="134"/>
+      <c r="A112" s="131"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -16012,7 +16058,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="134"/>
+      <c r="A113" s="131"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -16032,7 +16078,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="134"/>
+      <c r="A114" s="131"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -16044,7 +16090,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="134"/>
+      <c r="A115" s="131"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -16055,7 +16101,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="134"/>
+      <c r="A116" s="131"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -16066,7 +16112,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="134"/>
+      <c r="A117" s="131"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -16077,7 +16123,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="134"/>
+      <c r="A118" s="131"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -16088,7 +16134,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="135"/>
+      <c r="A119" s="132"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -16099,7 +16145,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="136" t="s">
+      <c r="A120" s="133" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -16126,7 +16172,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="136"/>
+      <c r="A121" s="133"/>
       <c r="B121" s="115" t="s">
         <v>380</v>
       </c>
@@ -16152,7 +16198,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="136"/>
+      <c r="A122" s="133"/>
       <c r="B122" s="115" t="s">
         <v>301</v>
       </c>
@@ -16178,7 +16224,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="136"/>
+      <c r="A123" s="133"/>
       <c r="B123" s="115" t="s">
         <v>381</v>
       </c>
@@ -16204,7 +16250,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="136"/>
+      <c r="A124" s="133"/>
       <c r="B124" s="115" t="s">
         <v>382</v>
       </c>
@@ -16230,7 +16276,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="136"/>
+      <c r="A125" s="133"/>
       <c r="B125" s="115" t="s">
         <v>310</v>
       </c>
@@ -16256,7 +16302,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="136"/>
+      <c r="A126" s="133"/>
       <c r="B126" s="107" t="s">
         <v>294</v>
       </c>
@@ -16282,7 +16328,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="136"/>
+      <c r="A127" s="133"/>
       <c r="B127" s="120" t="s">
         <v>383</v>
       </c>
@@ -16308,7 +16354,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="136"/>
+      <c r="A128" s="133"/>
       <c r="B128" s="115" t="s">
         <v>303</v>
       </c>
@@ -16328,7 +16374,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="136"/>
+      <c r="A129" s="133"/>
       <c r="B129" s="115" t="s">
         <v>398</v>
       </c>
@@ -16348,7 +16394,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="136"/>
+      <c r="A130" s="133"/>
       <c r="B130" s="115" t="s">
         <v>399</v>
       </c>
@@ -16367,7 +16413,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="136"/>
+      <c r="A131" s="133"/>
       <c r="B131" s="115" t="s">
         <v>398</v>
       </c>
@@ -16386,7 +16432,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="136"/>
+      <c r="A132" s="133"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -16397,7 +16443,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="136"/>
+      <c r="A133" s="133"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -16408,7 +16454,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="136"/>
+      <c r="A134" s="133"/>
       <c r="B134" s="117"/>
       <c r="C134" s="113"/>
       <c r="D134" s="114"/>
@@ -16573,8 +16619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30934AA5-FE34-4D93-9147-E487E171875A}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="P63" sqref="P63"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16613,7 +16659,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="129" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -16643,7 +16689,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="132"/>
+      <c r="A3" s="129"/>
       <c r="B3" s="107" t="s">
         <v>298</v>
       </c>
@@ -16672,7 +16718,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="132"/>
+      <c r="A4" s="129"/>
       <c r="B4" s="107" t="s">
         <v>351</v>
       </c>
@@ -16701,7 +16747,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="132"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="107" t="s">
         <v>303</v>
       </c>
@@ -16730,7 +16776,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="132"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="107" t="s">
         <v>401</v>
       </c>
@@ -16759,7 +16805,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="132"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="107"/>
       <c r="C7" s="107"/>
       <c r="D7" s="108"/>
@@ -16780,7 +16826,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="132"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="107"/>
       <c r="C8" s="107"/>
       <c r="D8" s="108"/>
@@ -16798,7 +16844,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="132"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="107"/>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -16816,7 +16862,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="132"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="120"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108"/>
@@ -16828,7 +16874,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="132"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -16840,7 +16886,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="132"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -16851,7 +16897,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="132"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -16862,7 +16908,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="132"/>
+      <c r="A14" s="129"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -16873,7 +16919,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="132"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -16884,7 +16930,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="132"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -16895,7 +16941,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="129" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -16922,7 +16968,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="132"/>
+      <c r="A18" s="129"/>
       <c r="B18" s="107" t="s">
         <v>331</v>
       </c>
@@ -16948,7 +16994,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="132"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -16974,7 +17020,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="132"/>
+      <c r="A20" s="129"/>
       <c r="B20" s="107" t="s">
         <v>402</v>
       </c>
@@ -17000,7 +17046,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="132"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="107" t="s">
         <v>322</v>
       </c>
@@ -17026,7 +17072,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="132"/>
+      <c r="A22" s="129"/>
       <c r="B22" s="107" t="s">
         <v>298</v>
       </c>
@@ -17052,7 +17098,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="132"/>
+      <c r="A23" s="129"/>
       <c r="B23" s="107" t="s">
         <v>354</v>
       </c>
@@ -17078,7 +17124,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="132"/>
+      <c r="A24" s="129"/>
       <c r="B24" s="107" t="s">
         <v>303</v>
       </c>
@@ -17104,7 +17150,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="132"/>
+      <c r="A25" s="129"/>
       <c r="B25" s="107" t="s">
         <v>355</v>
       </c>
@@ -17124,7 +17170,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="132"/>
+      <c r="A26" s="129"/>
       <c r="B26" s="107" t="s">
         <v>314</v>
       </c>
@@ -17144,7 +17190,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="132"/>
+      <c r="A27" s="129"/>
       <c r="B27" s="107" t="s">
         <v>355</v>
       </c>
@@ -17163,7 +17209,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="132"/>
+      <c r="A28" s="129"/>
       <c r="B28" s="107" t="s">
         <v>403</v>
       </c>
@@ -17182,7 +17228,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="132"/>
+      <c r="A29" s="129"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -17193,7 +17239,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="132"/>
+      <c r="A30" s="129"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -17204,7 +17250,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="129" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -17231,7 +17277,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="132"/>
+      <c r="A32" s="129"/>
       <c r="B32" s="107" t="s">
         <v>387</v>
       </c>
@@ -17253,11 +17299,11 @@
       </c>
       <c r="I32" s="108">
         <f t="shared" ref="I32" si="2">SUMIFS(F31:F45, C31:C45,H32)</f>
-        <v>0.25000000000000017</v>
+        <v>0.22569444444444453</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="132"/>
+      <c r="A33" s="129"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -17279,186 +17325,186 @@
       </c>
       <c r="I33" s="108">
         <f t="shared" ref="I33" si="3">SUMIFS(F31:F45, C31:C45,H33)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="132"/>
+      <c r="A34" s="129"/>
       <c r="B34" s="107" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="C34" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D34" s="108">
-        <v>0.44444444444444442</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="E34" s="108">
-        <v>0.52777777777777779</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="F34" s="108">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H34" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I34" s="108">
         <f t="shared" ref="I34" si="4">SUMIFS(F31:F45, C31:C45,H34)</f>
-        <v>0.10416666666666669</v>
+        <v>8.3333333333333315E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="132"/>
+      <c r="A35" s="129"/>
       <c r="B35" s="107" t="s">
-        <v>322</v>
+        <v>406</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D35" s="108">
-        <v>0.53472222222222221</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E35" s="108">
-        <v>0.5625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F35" s="108">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
+        <v>6.944444444444442E-2</v>
       </c>
       <c r="H35" s="109" t="s">
         <v>300</v>
       </c>
       <c r="I35" s="108">
         <f t="shared" ref="I35" si="5">SUMIFS(F31:F45, C31:C45,H35)</f>
-        <v>3.125E-2</v>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="132"/>
+      <c r="A36" s="129"/>
       <c r="B36" s="107" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="C36" s="107" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D36" s="108">
-        <v>0.5625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E36" s="108">
-        <v>0.59027777777777779</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F36" s="108">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H36" s="109" t="s">
         <v>302</v>
       </c>
       <c r="I36" s="108">
         <f t="shared" ref="I36" si="6">SUMIFS(F31:F45, C31:C45,H36)</f>
-        <v>2.777777777777779E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="132"/>
+      <c r="A37" s="129"/>
       <c r="B37" s="107" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="C37" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D37" s="108">
-        <v>0.59722222222222221</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E37" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F37" s="108">
         <f t="shared" si="0"/>
-        <v>6.944444444444442E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H37" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I37" s="108">
         <f t="shared" ref="I37" si="7">SUMIFS(F31:F45, C31:C45,H37)</f>
-        <v>7.291666666666663E-2</v>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="132"/>
+      <c r="A38" s="129"/>
       <c r="B38" s="107" t="s">
-        <v>303</v>
+        <v>408</v>
       </c>
       <c r="C38" s="107" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D38" s="108">
         <v>0.66666666666666663</v>
       </c>
       <c r="E38" s="108">
-        <v>0.68055555555555547</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="F38" s="108">
         <f t="shared" si="0"/>
-        <v>1.388888888888884E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H38" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I38" s="106">
         <f t="shared" ref="I38" si="8">SUM(I32:I37)</f>
-        <v>0.48611111111111127</v>
+        <v>0.47569444444444436</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="132"/>
+      <c r="A39" s="129"/>
       <c r="B39" s="107" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="C39" s="107" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D39" s="108">
-        <v>0.68055555555555547</v>
+        <v>0.73611111111111116</v>
       </c>
       <c r="E39" s="108">
-        <v>0.71527777777777779</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F39" s="108">
         <f t="shared" si="0"/>
-        <v>3.4722222222222321E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="132"/>
+      <c r="A40" s="129"/>
       <c r="B40" s="107" t="s">
-        <v>314</v>
+        <v>409</v>
       </c>
       <c r="C40" s="107" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D40" s="108">
-        <v>0.71875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E40" s="108">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F40" s="108">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="132"/>
+      <c r="A41" s="129"/>
       <c r="B41" s="107" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C41" s="107" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D41" s="108">
         <v>0.77083333333333337</v>
@@ -17472,26 +17518,26 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="132"/>
-      <c r="B42" s="107" t="s">
-        <v>361</v>
+      <c r="A42" s="129"/>
+      <c r="B42" t="s">
+        <v>410</v>
       </c>
       <c r="C42" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D42" s="108">
-        <v>0.85416666666666663</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="E42" s="108">
-        <v>0.90625</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="F42" s="108">
         <f t="shared" si="0"/>
-        <v>5.208333333333337E-2</v>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="132"/>
+      <c r="A43" s="129"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -17502,7 +17548,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="132"/>
+      <c r="A44" s="129"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -17513,7 +17559,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="132"/>
+      <c r="A45" s="129"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -17524,11 +17570,11 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="132" t="s">
+      <c r="A46" s="129" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C46" s="107" t="s">
         <v>297</v>
@@ -17551,9 +17597,9 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="132"/>
+      <c r="A47" s="129"/>
       <c r="B47" s="107" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C47" s="107" t="s">
         <v>290</v>
@@ -17577,9 +17623,9 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="132"/>
+      <c r="A48" s="129"/>
       <c r="B48" s="107" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C48" s="107" t="s">
         <v>290</v>
@@ -17603,7 +17649,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="132"/>
+      <c r="A49" s="129"/>
       <c r="B49" s="107" t="s">
         <v>314</v>
       </c>
@@ -17629,9 +17675,9 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="132"/>
+      <c r="A50" s="129"/>
       <c r="B50" s="107" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C50" s="107" t="s">
         <v>295</v>
@@ -17655,7 +17701,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="132"/>
+      <c r="A51" s="129"/>
       <c r="B51" s="107"/>
       <c r="C51" s="107"/>
       <c r="D51" s="108"/>
@@ -17673,7 +17719,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="132"/>
+      <c r="A52" s="129"/>
       <c r="B52" s="107"/>
       <c r="C52" s="107"/>
       <c r="D52" s="108"/>
@@ -17691,7 +17737,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="132"/>
+      <c r="A53" s="129"/>
       <c r="B53" s="107"/>
       <c r="C53" s="107"/>
       <c r="D53" s="108"/>
@@ -17709,7 +17755,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="132"/>
+      <c r="A54" s="129"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -17721,7 +17767,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="132"/>
+      <c r="A55" s="129"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -17733,7 +17779,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="132"/>
+      <c r="A56" s="129"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -17744,7 +17790,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="132"/>
+      <c r="A57" s="129"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -17755,7 +17801,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="132"/>
+      <c r="A58" s="129"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -17766,7 +17812,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="132"/>
+      <c r="A59" s="129"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -17777,11 +17823,11 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="132" t="s">
+      <c r="A60" s="129" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C60" s="107" t="s">
         <v>290</v>
@@ -17804,9 +17850,9 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="132"/>
+      <c r="A61" s="129"/>
       <c r="B61" s="107" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C61" s="107" t="s">
         <v>297</v>
@@ -17830,9 +17876,9 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="132"/>
+      <c r="A62" s="129"/>
       <c r="B62" s="107" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C62" s="107" t="s">
         <v>290</v>
@@ -17856,7 +17902,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="132"/>
+      <c r="A63" s="129"/>
       <c r="B63" s="107" t="s">
         <v>314</v>
       </c>
@@ -17882,7 +17928,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="132"/>
+      <c r="A64" s="129"/>
       <c r="B64" s="107" t="s">
         <v>298</v>
       </c>
@@ -17908,9 +17954,9 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="132"/>
+      <c r="A65" s="129"/>
       <c r="B65" s="107" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C65" s="107" t="s">
         <v>290</v>
@@ -17934,9 +17980,9 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="132"/>
+      <c r="A66" s="129"/>
       <c r="B66" s="107" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C66" s="107" t="s">
         <v>290</v>
@@ -17960,9 +18006,9 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="132"/>
+      <c r="A67" s="129"/>
       <c r="B67" s="107" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C67" s="107" t="s">
         <v>297</v>
@@ -17986,7 +18032,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="132"/>
+      <c r="A68" s="129"/>
       <c r="B68" s="107"/>
       <c r="C68" s="107"/>
       <c r="D68" s="108"/>
@@ -17998,7 +18044,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="132"/>
+      <c r="A69" s="129"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -18010,7 +18056,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="132"/>
+      <c r="A70" s="129"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -18021,7 +18067,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="132"/>
+      <c r="A71" s="129"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -18032,7 +18078,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="132"/>
+      <c r="A72" s="129"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -18043,7 +18089,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="132"/>
+      <c r="A73" s="129"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -18054,7 +18100,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="132"/>
+      <c r="A74" s="129"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -18065,7 +18111,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="132" t="s">
+      <c r="A75" s="129" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -18092,7 +18138,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="132"/>
+      <c r="A76" s="129"/>
       <c r="B76" s="107" t="s">
         <v>301</v>
       </c>
@@ -18118,7 +18164,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="132"/>
+      <c r="A77" s="129"/>
       <c r="B77" s="107" t="s">
         <v>371</v>
       </c>
@@ -18144,7 +18190,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="132"/>
+      <c r="A78" s="129"/>
       <c r="B78" s="107" t="s">
         <v>372</v>
       </c>
@@ -18170,7 +18216,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="132"/>
+      <c r="A79" s="129"/>
       <c r="B79" s="107" t="s">
         <v>371</v>
       </c>
@@ -18196,7 +18242,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="132"/>
+      <c r="A80" s="129"/>
       <c r="B80" s="107" t="s">
         <v>373</v>
       </c>
@@ -18222,7 +18268,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="132"/>
+      <c r="A81" s="129"/>
       <c r="B81" s="107" t="s">
         <v>368</v>
       </c>
@@ -18248,7 +18294,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="132"/>
+      <c r="A82" s="129"/>
       <c r="B82" s="107" t="s">
         <v>373</v>
       </c>
@@ -18274,7 +18320,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="132"/>
+      <c r="A83" s="129"/>
       <c r="B83" s="107" t="s">
         <v>314</v>
       </c>
@@ -18294,7 +18340,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="132"/>
+      <c r="A84" s="129"/>
       <c r="B84" s="107" t="s">
         <v>371</v>
       </c>
@@ -18314,7 +18360,7 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="132"/>
+      <c r="A85" s="129"/>
       <c r="B85" s="107" t="s">
         <v>374</v>
       </c>
@@ -18333,29 +18379,29 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="132"/>
+      <c r="A86" s="129"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
       <c r="E86" s="108"/>
       <c r="F86" s="108">
-        <f t="shared" si="16"/>
+        <f>E86-D86</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="132"/>
+      <c r="A87" s="129"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107"/>
       <c r="D87" s="108"/>
       <c r="E87" s="108"/>
       <c r="F87" s="108">
-        <f t="shared" si="16"/>
+        <f>E87-D87</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="132"/>
+      <c r="A88" s="129"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -18366,7 +18412,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="132"/>
+      <c r="A89" s="129"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -18377,7 +18423,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="132" t="s">
+      <c r="A90" s="129" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -18404,7 +18450,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="132"/>
+      <c r="A91" s="129"/>
       <c r="B91" s="107" t="s">
         <v>375</v>
       </c>
@@ -18430,7 +18476,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="132"/>
+      <c r="A92" s="129"/>
       <c r="B92" s="107" t="s">
         <v>331</v>
       </c>
@@ -18456,7 +18502,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="132"/>
+      <c r="A93" s="129"/>
       <c r="B93" s="107" t="s">
         <v>375</v>
       </c>
@@ -18482,7 +18528,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="132"/>
+      <c r="A94" s="129"/>
       <c r="B94" s="107" t="s">
         <v>294</v>
       </c>
@@ -18508,7 +18554,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="132"/>
+      <c r="A95" s="129"/>
       <c r="B95" s="107" t="s">
         <v>310</v>
       </c>
@@ -18534,7 +18580,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="132"/>
+      <c r="A96" s="129"/>
       <c r="B96" s="107" t="s">
         <v>376</v>
       </c>
@@ -18560,7 +18606,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="132"/>
+      <c r="A97" s="129"/>
       <c r="B97" s="107" t="s">
         <v>377</v>
       </c>
@@ -18586,7 +18632,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="132"/>
+      <c r="A98" s="129"/>
       <c r="B98" s="107" t="s">
         <v>303</v>
       </c>
@@ -18606,7 +18652,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="132"/>
+      <c r="A99" s="129"/>
       <c r="B99" s="107" t="s">
         <v>375</v>
       </c>
@@ -18626,7 +18672,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="132"/>
+      <c r="A100" s="129"/>
       <c r="B100" s="107" t="s">
         <v>378</v>
       </c>
@@ -18645,7 +18691,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="132"/>
+      <c r="A101" s="129"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -18656,7 +18702,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="132"/>
+      <c r="A102" s="129"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -18667,7 +18713,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="132"/>
+      <c r="A103" s="129"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -18678,7 +18724,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="133"/>
+      <c r="A104" s="130"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -18689,7 +18735,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="134" t="s">
+      <c r="A105" s="131" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -18716,7 +18762,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="134"/>
+      <c r="A106" s="131"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -18742,7 +18788,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="134"/>
+      <c r="A107" s="131"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -18768,7 +18814,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="134"/>
+      <c r="A108" s="131"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -18794,7 +18840,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="134"/>
+      <c r="A109" s="131"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -18820,7 +18866,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="134"/>
+      <c r="A110" s="131"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -18846,7 +18892,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="134"/>
+      <c r="A111" s="131"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -18872,7 +18918,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="134"/>
+      <c r="A112" s="131"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -18898,7 +18944,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="134"/>
+      <c r="A113" s="131"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -18918,7 +18964,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="134"/>
+      <c r="A114" s="131"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -18930,7 +18976,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="134"/>
+      <c r="A115" s="131"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -18941,7 +18987,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="134"/>
+      <c r="A116" s="131"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -18952,7 +18998,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="134"/>
+      <c r="A117" s="131"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -18963,7 +19009,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="134"/>
+      <c r="A118" s="131"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -18974,7 +19020,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="135"/>
+      <c r="A119" s="132"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -18985,11 +19031,11 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="136" t="s">
+      <c r="A120" s="133" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C120" s="107" t="s">
         <v>297</v>
@@ -19012,7 +19058,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="136"/>
+      <c r="A121" s="133"/>
       <c r="B121" s="115" t="s">
         <v>310</v>
       </c>
@@ -19038,9 +19084,9 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="136"/>
+      <c r="A122" s="133"/>
       <c r="B122" s="115" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>300</v>
@@ -19064,9 +19110,9 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="136"/>
+      <c r="A123" s="133"/>
       <c r="B123" s="115" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C123" s="107" t="s">
         <v>290</v>
@@ -19090,7 +19136,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="136"/>
+      <c r="A124" s="133"/>
       <c r="B124" s="115" t="s">
         <v>303</v>
       </c>
@@ -19116,9 +19162,9 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="136"/>
+      <c r="A125" s="133"/>
       <c r="B125" s="115" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>290</v>
@@ -19142,7 +19188,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="136"/>
+      <c r="A126" s="133"/>
       <c r="B126" s="115"/>
       <c r="C126" s="107"/>
       <c r="D126" s="108"/>
@@ -19160,7 +19206,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="136"/>
+      <c r="A127" s="133"/>
       <c r="B127" s="120"/>
       <c r="C127" s="107"/>
       <c r="D127" s="108"/>
@@ -19178,7 +19224,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="136"/>
+      <c r="A128" s="133"/>
       <c r="B128" s="115"/>
       <c r="C128" s="107"/>
       <c r="D128" s="108"/>
@@ -19190,7 +19236,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="136"/>
+      <c r="A129" s="133"/>
       <c r="B129" s="115"/>
       <c r="C129" s="107"/>
       <c r="D129" s="108"/>
@@ -19202,7 +19248,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="136"/>
+      <c r="A130" s="133"/>
       <c r="B130" s="115"/>
       <c r="C130" s="107"/>
       <c r="D130" s="108"/>
@@ -19213,7 +19259,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="136"/>
+      <c r="A131" s="133"/>
       <c r="B131" s="115"/>
       <c r="C131" s="107"/>
       <c r="D131" s="108"/>
@@ -19224,7 +19270,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="136"/>
+      <c r="A132" s="133"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -19235,7 +19281,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="136"/>
+      <c r="A133" s="133"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -19246,7 +19292,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="136"/>
+      <c r="A134" s="133"/>
       <c r="B134" s="117"/>
       <c r="C134" s="113"/>
       <c r="D134" s="114"/>
@@ -19411,8 +19457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F5FAB4-9E65-460D-998C-A6B05E121251}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19451,11 +19497,11 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="129" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>290</v>
@@ -19481,7 +19527,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="132"/>
+      <c r="A3" s="129"/>
       <c r="B3" s="107" t="s">
         <v>314</v>
       </c>
@@ -19510,7 +19556,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="132"/>
+      <c r="A4" s="129"/>
       <c r="B4" s="107" t="s">
         <v>298</v>
       </c>
@@ -19539,9 +19585,9 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="132"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="107" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>290</v>
@@ -19568,9 +19614,9 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="132"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="107" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>290</v>
@@ -19597,9 +19643,9 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="132"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="107" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>297</v>
@@ -19626,7 +19672,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="132"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="107"/>
       <c r="C8" s="107"/>
       <c r="D8" s="108"/>
@@ -19644,7 +19690,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="132"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="107"/>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -19662,7 +19708,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="132"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="120"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108"/>
@@ -19674,7 +19720,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="132"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -19686,7 +19732,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="132"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -19697,7 +19743,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="132"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -19708,7 +19754,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="132"/>
+      <c r="A14" s="129"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -19719,7 +19765,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="132"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -19730,7 +19776,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="132"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -19741,7 +19787,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="129" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -19768,7 +19814,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="132"/>
+      <c r="A18" s="129"/>
       <c r="B18" s="107" t="s">
         <v>331</v>
       </c>
@@ -19794,7 +19840,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="132"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -19820,7 +19866,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="132"/>
+      <c r="A20" s="129"/>
       <c r="B20" s="107" t="s">
         <v>353</v>
       </c>
@@ -19846,7 +19892,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="132"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="107" t="s">
         <v>322</v>
       </c>
@@ -19872,7 +19918,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="132"/>
+      <c r="A22" s="129"/>
       <c r="B22" s="107" t="s">
         <v>298</v>
       </c>
@@ -19898,7 +19944,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="132"/>
+      <c r="A23" s="129"/>
       <c r="B23" s="107" t="s">
         <v>354</v>
       </c>
@@ -19924,7 +19970,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="132"/>
+      <c r="A24" s="129"/>
       <c r="B24" s="107" t="s">
         <v>303</v>
       </c>
@@ -19950,7 +19996,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="132"/>
+      <c r="A25" s="129"/>
       <c r="B25" s="107" t="s">
         <v>355</v>
       </c>
@@ -19970,7 +20016,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="132"/>
+      <c r="A26" s="129"/>
       <c r="B26" s="107" t="s">
         <v>314</v>
       </c>
@@ -19990,7 +20036,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="132"/>
+      <c r="A27" s="129"/>
       <c r="B27" s="107" t="s">
         <v>355</v>
       </c>
@@ -20009,7 +20055,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="132"/>
+      <c r="A28" s="129"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -20020,7 +20066,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="132"/>
+      <c r="A29" s="129"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -20031,7 +20077,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="132"/>
+      <c r="A30" s="129"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -20042,24 +20088,24 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="129" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
-        <v>356</v>
+        <v>429</v>
       </c>
       <c r="C31" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D31" s="108">
-        <v>0.35416666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E31" s="108">
-        <v>0.39583333333333331</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="F31" s="108">
         <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+        <v>5.555555555555558E-2</v>
       </c>
       <c r="H31" s="106" t="s">
         <v>291</v>
@@ -20069,96 +20115,96 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="132"/>
+      <c r="A32" s="129"/>
       <c r="B32" s="107" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D32" s="108">
-        <v>0.39583333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="E32" s="108">
-        <v>0.4375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F32" s="108">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H32" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I32" s="108">
         <f t="shared" ref="I32" si="2">SUMIFS(F31:F45, C31:C45,H32)</f>
-        <v>0.28125000000000011</v>
+        <v>0.23611111111111116</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="132"/>
-      <c r="B33" s="107" t="s">
-        <v>301</v>
+      <c r="A33" s="129"/>
+      <c r="B33" t="s">
+        <v>430</v>
       </c>
       <c r="C33" s="107" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D33" s="108">
-        <v>0.4375</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="E33" s="108">
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F33" s="108">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>0.2013888888888889</v>
       </c>
       <c r="H33" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I33" s="108">
         <f t="shared" ref="I33" si="3">SUMIFS(F31:F45, C31:C45,H33)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0.2013888888888889</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="132"/>
+      <c r="A34" s="129"/>
       <c r="B34" s="107" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="C34" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D34" s="108">
-        <v>0.44444444444444442</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E34" s="108">
-        <v>0.52777777777777779</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="F34" s="108">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="H34" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I34" s="108">
         <f t="shared" ref="I34" si="4">SUMIFS(F31:F45, C31:C45,H34)</f>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="132"/>
+      <c r="A35" s="129"/>
       <c r="B35" s="107" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D35" s="108">
-        <v>0.53472222222222221</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E35" s="108">
-        <v>0.5625</v>
+        <v>0.73611111111111116</v>
       </c>
       <c r="F35" s="108">
         <f t="shared" si="0"/>
@@ -20169,167 +20215,127 @@
       </c>
       <c r="I35" s="108">
         <f t="shared" ref="I35" si="5">SUMIFS(F31:F45, C31:C45,H35)</f>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="132"/>
+      <c r="A36" s="129"/>
       <c r="B36" s="107" t="s">
-        <v>298</v>
+        <v>374</v>
       </c>
       <c r="C36" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D36" s="108">
-        <v>0.5625</v>
+        <v>0.75</v>
       </c>
       <c r="E36" s="108">
-        <v>0.59027777777777779</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="F36" s="108">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
+        <v>6.9444444444444531E-2</v>
       </c>
       <c r="H36" s="109" t="s">
         <v>302</v>
       </c>
       <c r="I36" s="108">
         <f t="shared" ref="I36" si="6">SUMIFS(F31:F45, C31:C45,H36)</f>
-        <v>2.777777777777779E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="132"/>
+      <c r="A37" s="129"/>
       <c r="B37" s="107" t="s">
-        <v>358</v>
+        <v>431</v>
       </c>
       <c r="C37" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D37" s="108">
-        <v>0.59722222222222221</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E37" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="F37" s="108">
         <f t="shared" si="0"/>
-        <v>6.944444444444442E-2</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="H37" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I37" s="108">
         <f t="shared" ref="I37" si="7">SUMIFS(F31:F45, C31:C45,H37)</f>
-        <v>4.8611111111111049E-2</v>
+        <v>3.8194444444444475E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="132"/>
-      <c r="B38" s="107" t="s">
-        <v>303</v>
-      </c>
-      <c r="C38" s="107" t="s">
-        <v>299</v>
-      </c>
-      <c r="D38" s="108">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E38" s="108">
-        <v>0.68055555555555547</v>
-      </c>
+      <c r="A38" s="129"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
       <c r="F38" s="108">
         <f t="shared" si="0"/>
-        <v>1.388888888888884E-2</v>
+        <v>0</v>
       </c>
       <c r="H38" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I38" s="106">
         <f t="shared" ref="I38" si="8">SUM(I32:I37)</f>
-        <v>0.49305555555555564</v>
+        <v>0.47569444444444453</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="132"/>
-      <c r="B39" s="107" t="s">
-        <v>359</v>
-      </c>
-      <c r="C39" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="D39" s="108">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="E39" s="108">
-        <v>0.71527777777777779</v>
-      </c>
+      <c r="A39" s="129"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
       <c r="F39" s="108">
         <f t="shared" si="0"/>
-        <v>3.4722222222222321E-2</v>
+        <v>0</v>
       </c>
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="132"/>
-      <c r="B40" s="107" t="s">
-        <v>314</v>
-      </c>
-      <c r="C40" s="107" t="s">
-        <v>300</v>
-      </c>
-      <c r="D40" s="108">
-        <v>0.71875</v>
-      </c>
-      <c r="E40" s="108">
-        <v>0.75</v>
-      </c>
+      <c r="A40" s="129"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
       <c r="F40" s="108">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="132"/>
-      <c r="B41" s="107" t="s">
-        <v>360</v>
-      </c>
-      <c r="C41" s="107" t="s">
-        <v>297</v>
-      </c>
-      <c r="D41" s="108">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E41" s="108">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="A41" s="129"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
       <c r="F41" s="108">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="132"/>
-      <c r="B42" s="107" t="s">
-        <v>361</v>
-      </c>
-      <c r="C42" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="D42" s="108">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="E42" s="108">
-        <v>0.90625</v>
-      </c>
+      <c r="A42" s="129"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
       <c r="F42" s="108">
         <f t="shared" si="0"/>
-        <v>5.208333333333337E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="132"/>
+      <c r="A43" s="129"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -20340,7 +20346,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="132"/>
+      <c r="A44" s="129"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -20351,7 +20357,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="132"/>
+      <c r="A45" s="129"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -20362,11 +20368,11 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="132" t="s">
+      <c r="A46" s="129" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C46" s="107" t="s">
         <v>297</v>
@@ -20389,9 +20395,9 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="132"/>
+      <c r="A47" s="129"/>
       <c r="B47" s="107" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C47" s="107" t="s">
         <v>290</v>
@@ -20415,9 +20421,9 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="132"/>
+      <c r="A48" s="129"/>
       <c r="B48" s="107" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C48" s="107" t="s">
         <v>300</v>
@@ -20441,9 +20447,9 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="132"/>
+      <c r="A49" s="129"/>
       <c r="B49" s="107" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="C49" s="107" t="s">
         <v>290</v>
@@ -20467,9 +20473,9 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="132"/>
+      <c r="A50" s="129"/>
       <c r="B50" s="107" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="C50" s="107" t="s">
         <v>290</v>
@@ -20493,7 +20499,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="132"/>
+      <c r="A51" s="129"/>
       <c r="B51" s="107"/>
       <c r="C51" s="107"/>
       <c r="D51" s="108"/>
@@ -20511,7 +20517,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="132"/>
+      <c r="A52" s="129"/>
       <c r="B52" s="107"/>
       <c r="C52" s="107"/>
       <c r="D52" s="108"/>
@@ -20529,7 +20535,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="132"/>
+      <c r="A53" s="129"/>
       <c r="B53" s="107"/>
       <c r="C53" s="107"/>
       <c r="D53" s="108"/>
@@ -20547,7 +20553,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="132"/>
+      <c r="A54" s="129"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -20559,7 +20565,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="132"/>
+      <c r="A55" s="129"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -20571,7 +20577,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="132"/>
+      <c r="A56" s="129"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -20582,7 +20588,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="132"/>
+      <c r="A57" s="129"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -20593,7 +20599,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="132"/>
+      <c r="A58" s="129"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -20604,7 +20610,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="132"/>
+      <c r="A59" s="129"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -20615,11 +20621,11 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="132" t="s">
+      <c r="A60" s="129" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="C60" s="107" t="s">
         <v>290</v>
@@ -20642,9 +20648,9 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="132"/>
+      <c r="A61" s="129"/>
       <c r="B61" s="107" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C61" s="107" t="s">
         <v>290</v>
@@ -20668,9 +20674,9 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="132"/>
+      <c r="A62" s="129"/>
       <c r="B62" s="107" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="C62" s="107" t="s">
         <v>300</v>
@@ -20694,9 +20700,9 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="132"/>
+      <c r="A63" s="129"/>
       <c r="B63" s="107" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="C63" s="107" t="s">
         <v>290</v>
@@ -20720,9 +20726,9 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="132"/>
+      <c r="A64" s="129"/>
       <c r="B64" s="107" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="C64" s="107" t="s">
         <v>297</v>
@@ -20746,9 +20752,9 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="132"/>
+      <c r="A65" s="129"/>
       <c r="B65" s="107" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="C65" s="107" t="s">
         <v>290</v>
@@ -20772,7 +20778,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="132"/>
+      <c r="A66" s="129"/>
       <c r="B66" s="107"/>
       <c r="C66" s="107"/>
       <c r="D66" s="108"/>
@@ -20790,7 +20796,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="132"/>
+      <c r="A67" s="129"/>
       <c r="B67" s="107"/>
       <c r="C67" s="107"/>
       <c r="D67" s="108"/>
@@ -20808,7 +20814,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="132"/>
+      <c r="A68" s="129"/>
       <c r="B68" s="107"/>
       <c r="C68" s="107"/>
       <c r="D68" s="108"/>
@@ -20820,7 +20826,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="132"/>
+      <c r="A69" s="129"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -20832,7 +20838,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="132"/>
+      <c r="A70" s="129"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -20843,7 +20849,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="132"/>
+      <c r="A71" s="129"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -20854,7 +20860,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="132"/>
+      <c r="A72" s="129"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -20865,7 +20871,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="132"/>
+      <c r="A73" s="129"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -20876,7 +20882,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="132"/>
+      <c r="A74" s="129"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -20887,7 +20893,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="132" t="s">
+      <c r="A75" s="129" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -20914,7 +20920,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="132"/>
+      <c r="A76" s="129"/>
       <c r="B76" s="107" t="s">
         <v>301</v>
       </c>
@@ -20940,7 +20946,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="132"/>
+      <c r="A77" s="129"/>
       <c r="B77" s="107" t="s">
         <v>371</v>
       </c>
@@ -20966,7 +20972,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="132"/>
+      <c r="A78" s="129"/>
       <c r="B78" s="107" t="s">
         <v>373</v>
       </c>
@@ -20992,7 +20998,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="132"/>
+      <c r="A79" s="129"/>
       <c r="B79" s="107" t="s">
         <v>368</v>
       </c>
@@ -21018,7 +21024,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="132"/>
+      <c r="A80" s="129"/>
       <c r="B80" s="107" t="s">
         <v>373</v>
       </c>
@@ -21044,7 +21050,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="132"/>
+      <c r="A81" s="129"/>
       <c r="B81" s="107" t="s">
         <v>314</v>
       </c>
@@ -21070,7 +21076,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="132"/>
+      <c r="A82" s="129"/>
       <c r="B82" s="107" t="s">
         <v>371</v>
       </c>
@@ -21096,7 +21102,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="132"/>
+      <c r="A83" s="129"/>
       <c r="B83" s="107" t="s">
         <v>374</v>
       </c>
@@ -21116,8 +21122,8 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="132"/>
-      <c r="B84" s="131"/>
+      <c r="A84" s="129"/>
+      <c r="B84" s="137"/>
       <c r="C84" s="113"/>
       <c r="D84" s="114"/>
       <c r="E84" s="114"/>
@@ -21125,39 +21131,41 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="132"/>
+      <c r="A85" s="129"/>
+      <c r="B85" s="134"/>
       <c r="C85" s="113"/>
       <c r="D85" s="114"/>
       <c r="E85" s="114"/>
       <c r="F85" s="114"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="132"/>
+      <c r="A86" s="129"/>
+      <c r="B86" s="134"/>
       <c r="C86" s="113"/>
       <c r="D86" s="114"/>
       <c r="E86" s="114"/>
       <c r="F86" s="114"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="132"/>
+      <c r="A87" s="129"/>
       <c r="C87" s="113"/>
       <c r="D87" s="114"/>
       <c r="E87" s="114"/>
       <c r="F87" s="114"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="132"/>
+      <c r="A88" s="129"/>
       <c r="B88" s="107"/>
-      <c r="C88" s="129"/>
-      <c r="D88" s="130"/>
-      <c r="E88" s="130"/>
-      <c r="F88" s="130">
+      <c r="C88" s="135"/>
+      <c r="D88" s="136"/>
+      <c r="E88" s="136"/>
+      <c r="F88" s="136">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="132"/>
+      <c r="A89" s="129"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -21168,7 +21176,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="132" t="s">
+      <c r="A90" s="129" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -21195,7 +21203,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="132"/>
+      <c r="A91" s="129"/>
       <c r="B91" s="107" t="s">
         <v>375</v>
       </c>
@@ -21221,7 +21229,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="132"/>
+      <c r="A92" s="129"/>
       <c r="B92" s="107" t="s">
         <v>331</v>
       </c>
@@ -21247,7 +21255,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="132"/>
+      <c r="A93" s="129"/>
       <c r="B93" s="107" t="s">
         <v>375</v>
       </c>
@@ -21273,7 +21281,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="132"/>
+      <c r="A94" s="129"/>
       <c r="B94" s="107" t="s">
         <v>294</v>
       </c>
@@ -21299,7 +21307,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="132"/>
+      <c r="A95" s="129"/>
       <c r="B95" s="107" t="s">
         <v>310</v>
       </c>
@@ -21325,7 +21333,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="132"/>
+      <c r="A96" s="129"/>
       <c r="B96" s="107" t="s">
         <v>376</v>
       </c>
@@ -21351,7 +21359,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="132"/>
+      <c r="A97" s="129"/>
       <c r="B97" s="107" t="s">
         <v>377</v>
       </c>
@@ -21377,7 +21385,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="132"/>
+      <c r="A98" s="129"/>
       <c r="B98" s="107" t="s">
         <v>303</v>
       </c>
@@ -21397,7 +21405,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="132"/>
+      <c r="A99" s="129"/>
       <c r="B99" s="107" t="s">
         <v>375</v>
       </c>
@@ -21417,7 +21425,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="132"/>
+      <c r="A100" s="129"/>
       <c r="B100" s="107" t="s">
         <v>378</v>
       </c>
@@ -21436,7 +21444,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="132"/>
+      <c r="A101" s="129"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -21447,7 +21455,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="132"/>
+      <c r="A102" s="129"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -21458,7 +21466,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="132"/>
+      <c r="A103" s="129"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -21469,7 +21477,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="133"/>
+      <c r="A104" s="130"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -21480,7 +21488,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="134" t="s">
+      <c r="A105" s="131" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -21507,7 +21515,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="134"/>
+      <c r="A106" s="131"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -21533,7 +21541,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="134"/>
+      <c r="A107" s="131"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -21559,7 +21567,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="134"/>
+      <c r="A108" s="131"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -21585,7 +21593,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="134"/>
+      <c r="A109" s="131"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -21611,7 +21619,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="134"/>
+      <c r="A110" s="131"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -21637,7 +21645,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="134"/>
+      <c r="A111" s="131"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -21663,7 +21671,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="134"/>
+      <c r="A112" s="131"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -21689,7 +21697,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="134"/>
+      <c r="A113" s="131"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -21709,7 +21717,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="134"/>
+      <c r="A114" s="131"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -21721,7 +21729,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="134"/>
+      <c r="A115" s="131"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -21732,7 +21740,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="134"/>
+      <c r="A116" s="131"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -21743,7 +21751,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="134"/>
+      <c r="A117" s="131"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -21754,7 +21762,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="134"/>
+      <c r="A118" s="131"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -21765,7 +21773,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="135"/>
+      <c r="A119" s="132"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -21776,11 +21784,11 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="136" t="s">
+      <c r="A120" s="133" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="C120" s="107" t="s">
         <v>297</v>
@@ -21803,7 +21811,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="136"/>
+      <c r="A121" s="133"/>
       <c r="B121" s="115" t="s">
         <v>310</v>
       </c>
@@ -21829,9 +21837,9 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="136"/>
+      <c r="A122" s="133"/>
       <c r="B122" s="115" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>300</v>
@@ -21855,9 +21863,9 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="136"/>
+      <c r="A123" s="133"/>
       <c r="B123" s="115" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C123" s="107" t="s">
         <v>290</v>
@@ -21881,7 +21889,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="136"/>
+      <c r="A124" s="133"/>
       <c r="B124" s="115" t="s">
         <v>303</v>
       </c>
@@ -21907,9 +21915,9 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="136"/>
+      <c r="A125" s="133"/>
       <c r="B125" s="115" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>290</v>
@@ -21933,7 +21941,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="136"/>
+      <c r="A126" s="133"/>
       <c r="B126" s="115"/>
       <c r="C126" s="107"/>
       <c r="D126" s="108"/>
@@ -21951,7 +21959,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="136"/>
+      <c r="A127" s="133"/>
       <c r="B127" s="120"/>
       <c r="C127" s="107"/>
       <c r="D127" s="108"/>
@@ -21969,7 +21977,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="136"/>
+      <c r="A128" s="133"/>
       <c r="B128" s="115"/>
       <c r="C128" s="107"/>
       <c r="D128" s="108"/>
@@ -21981,7 +21989,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="136"/>
+      <c r="A129" s="133"/>
       <c r="B129" s="115"/>
       <c r="C129" s="107"/>
       <c r="D129" s="108"/>
@@ -21993,7 +22001,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="136"/>
+      <c r="A130" s="133"/>
       <c r="B130" s="115"/>
       <c r="C130" s="107"/>
       <c r="D130" s="108"/>
@@ -22004,7 +22012,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="136"/>
+      <c r="A131" s="133"/>
       <c r="B131" s="115"/>
       <c r="C131" s="107"/>
       <c r="D131" s="108"/>
@@ -22015,7 +22023,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="136"/>
+      <c r="A132" s="133"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -22026,7 +22034,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="136"/>
+      <c r="A133" s="133"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -22037,7 +22045,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="136"/>
+      <c r="A134" s="133"/>
       <c r="B134" s="117"/>
       <c r="C134" s="113"/>
       <c r="D134" s="114"/>
@@ -22202,8 +22210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEFA632-027C-44B7-B2E8-75A517756B1E}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22242,11 +22250,11 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="129" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>290</v>
@@ -22272,7 +22280,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="132"/>
+      <c r="A3" s="129"/>
       <c r="B3" s="107" t="s">
         <v>301</v>
       </c>
@@ -22301,9 +22309,9 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="132"/>
+      <c r="A4" s="129"/>
       <c r="B4" s="107" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>290</v>
@@ -22330,9 +22338,9 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="132"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="107" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>290</v>
@@ -22359,7 +22367,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="132"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="107" t="s">
         <v>298</v>
       </c>
@@ -22388,9 +22396,9 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="132"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="107" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>290</v>
@@ -22417,7 +22425,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="132"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="107" t="s">
         <v>303</v>
       </c>
@@ -22443,9 +22451,9 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="132"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="107" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C9" s="107" t="s">
         <v>297</v>
@@ -22469,7 +22477,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="132"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="107" t="s">
         <v>350</v>
       </c>
@@ -22489,9 +22497,9 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="132"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="107" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="C11" s="107" t="s">
         <v>290</v>
@@ -22509,7 +22517,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="132"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -22520,7 +22528,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="132"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -22531,7 +22539,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="132"/>
+      <c r="A14" s="129"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -22542,7 +22550,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="132"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -22553,7 +22561,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="132"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -22564,7 +22572,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="129" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -22591,7 +22599,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="132"/>
+      <c r="A18" s="129"/>
       <c r="B18" s="107" t="s">
         <v>331</v>
       </c>
@@ -22617,7 +22625,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="132"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -22643,7 +22651,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="132"/>
+      <c r="A20" s="129"/>
       <c r="B20" s="107" t="s">
         <v>353</v>
       </c>
@@ -22669,7 +22677,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="132"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="107" t="s">
         <v>322</v>
       </c>
@@ -22695,7 +22703,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="132"/>
+      <c r="A22" s="129"/>
       <c r="B22" s="107" t="s">
         <v>298</v>
       </c>
@@ -22721,7 +22729,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="132"/>
+      <c r="A23" s="129"/>
       <c r="B23" s="107" t="s">
         <v>354</v>
       </c>
@@ -22747,7 +22755,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="132"/>
+      <c r="A24" s="129"/>
       <c r="B24" s="107" t="s">
         <v>303</v>
       </c>
@@ -22773,7 +22781,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="132"/>
+      <c r="A25" s="129"/>
       <c r="B25" s="107" t="s">
         <v>355</v>
       </c>
@@ -22793,7 +22801,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="132"/>
+      <c r="A26" s="129"/>
       <c r="B26" s="107" t="s">
         <v>314</v>
       </c>
@@ -22813,7 +22821,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="132"/>
+      <c r="A27" s="129"/>
       <c r="B27" s="107" t="s">
         <v>355</v>
       </c>
@@ -22832,7 +22840,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="132"/>
+      <c r="A28" s="129"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -22843,7 +22851,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="132"/>
+      <c r="A29" s="129"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -22854,7 +22862,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="132"/>
+      <c r="A30" s="129"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -22865,24 +22873,24 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="129" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="C31" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D31" s="108">
-        <v>0.35416666666666669</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="E31" s="108">
-        <v>0.39583333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F31" s="108">
         <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+        <v>5.555555555555558E-2</v>
       </c>
       <c r="H31" s="106" t="s">
         <v>291</v>
@@ -22892,33 +22900,33 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="132"/>
+      <c r="A32" s="129"/>
       <c r="B32" s="107" t="s">
-        <v>331</v>
+        <v>404</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D32" s="108">
-        <v>0.39583333333333331</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="E32" s="108">
-        <v>0.4375</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="F32" s="108">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H32" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I32" s="108">
         <f t="shared" ref="I32" si="2">SUMIFS(F31:F45, C31:C45,H32)</f>
-        <v>0.28125000000000011</v>
+        <v>0.2986111111111111</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="132"/>
+      <c r="A33" s="129"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -22929,230 +22937,214 @@
         <v>0.4375</v>
       </c>
       <c r="E33" s="108">
-        <v>0.44444444444444442</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F33" s="108">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H33" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I33" s="108">
         <f t="shared" ref="I33" si="3">SUMIFS(F31:F45, C31:C45,H33)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="132"/>
+      <c r="A34" s="129"/>
       <c r="B34" s="107" t="s">
-        <v>357</v>
+        <v>453</v>
       </c>
       <c r="C34" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D34" s="108">
-        <v>0.44444444444444442</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="E34" s="108">
         <v>0.52777777777777779</v>
       </c>
       <c r="F34" s="108">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="H34" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I34" s="108">
         <f t="shared" ref="I34" si="4">SUMIFS(F31:F45, C31:C45,H34)</f>
-        <v>6.25E-2</v>
+        <v>5.208333333333337E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="132"/>
+      <c r="A35" s="129"/>
       <c r="B35" s="107" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D35" s="108">
-        <v>0.53472222222222221</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E35" s="108">
         <v>0.5625</v>
       </c>
       <c r="F35" s="108">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H35" s="109" t="s">
         <v>300</v>
       </c>
       <c r="I35" s="108">
         <f t="shared" ref="I35" si="5">SUMIFS(F31:F45, C31:C45,H35)</f>
-        <v>3.125E-2</v>
+        <v>2.4305555555555469E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="132"/>
-      <c r="B36" s="107" t="s">
-        <v>298</v>
+      <c r="A36" s="129"/>
+      <c r="B36" t="s">
+        <v>454</v>
       </c>
       <c r="C36" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D36" s="108">
         <v>0.5625</v>
       </c>
       <c r="E36" s="108">
-        <v>0.59027777777777779</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F36" s="108">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="H36" s="109" t="s">
         <v>302</v>
       </c>
       <c r="I36" s="108">
         <f t="shared" ref="I36" si="6">SUMIFS(F31:F45, C31:C45,H36)</f>
-        <v>2.777777777777779E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="132"/>
+      <c r="A37" s="129"/>
       <c r="B37" s="107" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="C37" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D37" s="108">
-        <v>0.59722222222222221</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="E37" s="108">
         <v>0.66666666666666663</v>
       </c>
       <c r="F37" s="108">
         <f t="shared" si="0"/>
-        <v>6.944444444444442E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H37" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I37" s="108">
         <f t="shared" ref="I37" si="7">SUMIFS(F31:F45, C31:C45,H37)</f>
-        <v>4.8611111111111049E-2</v>
+        <v>4.5138888888888895E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="132"/>
+      <c r="A38" s="129"/>
       <c r="B38" s="107" t="s">
-        <v>303</v>
+        <v>455</v>
       </c>
       <c r="C38" s="107" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D38" s="108">
         <v>0.66666666666666663</v>
       </c>
       <c r="E38" s="108">
-        <v>0.68055555555555547</v>
+        <v>0.71875</v>
       </c>
       <c r="F38" s="108">
         <f t="shared" si="0"/>
-        <v>1.388888888888884E-2</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="H38" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I38" s="106">
         <f t="shared" ref="I38" si="8">SUM(I32:I37)</f>
-        <v>0.49305555555555564</v>
+        <v>0.42013888888888884</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="132"/>
+      <c r="A39" s="129"/>
       <c r="B39" s="107" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="C39" s="107" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D39" s="108">
-        <v>0.68055555555555547</v>
+        <v>0.72569444444444453</v>
       </c>
       <c r="E39" s="108">
-        <v>0.71527777777777779</v>
+        <v>0.75</v>
       </c>
       <c r="F39" s="108">
         <f t="shared" si="0"/>
-        <v>3.4722222222222321E-2</v>
+        <v>2.4305555555555469E-2</v>
       </c>
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="132"/>
+      <c r="A40" s="129"/>
       <c r="B40" s="107" t="s">
-        <v>314</v>
+        <v>456</v>
       </c>
       <c r="C40" s="107" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D40" s="108">
-        <v>0.71875</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="E40" s="108">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="F40" s="108">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>7.291666666666663E-2</v>
       </c>
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="132"/>
-      <c r="B41" s="107" t="s">
-        <v>360</v>
-      </c>
-      <c r="C41" s="107" t="s">
-        <v>297</v>
-      </c>
-      <c r="D41" s="108">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E41" s="108">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="A41" s="129"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
       <c r="F41" s="108">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="132"/>
-      <c r="B42" s="107" t="s">
-        <v>361</v>
-      </c>
-      <c r="C42" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="D42" s="108">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="E42" s="108">
-        <v>0.90625</v>
-      </c>
+      <c r="A42" s="129"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
       <c r="F42" s="108">
         <f t="shared" si="0"/>
-        <v>5.208333333333337E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="132"/>
+      <c r="A43" s="129"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -23163,7 +23155,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="132"/>
+      <c r="A44" s="129"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -23174,7 +23166,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="132"/>
+      <c r="A45" s="129"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -23185,11 +23177,11 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="132" t="s">
+      <c r="A46" s="129" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="C46" s="107" t="s">
         <v>290</v>
@@ -23212,7 +23204,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="132"/>
+      <c r="A47" s="129"/>
       <c r="B47" s="107" t="s">
         <v>301</v>
       </c>
@@ -23238,9 +23230,9 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="132"/>
+      <c r="A48" s="129"/>
       <c r="B48" s="107" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="C48" s="107" t="s">
         <v>290</v>
@@ -23264,7 +23256,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="132"/>
+      <c r="A49" s="129"/>
       <c r="B49" s="107" t="s">
         <v>298</v>
       </c>
@@ -23290,9 +23282,9 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="132"/>
+      <c r="A50" s="129"/>
       <c r="B50" s="107" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="C50" s="107" t="s">
         <v>290</v>
@@ -23316,7 +23308,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="132"/>
+      <c r="A51" s="129"/>
       <c r="B51" s="107" t="s">
         <v>303</v>
       </c>
@@ -23342,9 +23334,9 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="132"/>
+      <c r="A52" s="129"/>
       <c r="B52" s="107" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C52" s="107" t="s">
         <v>297</v>
@@ -23368,7 +23360,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="132"/>
+      <c r="A53" s="129"/>
       <c r="B53" s="107" t="s">
         <v>296</v>
       </c>
@@ -23394,7 +23386,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="132"/>
+      <c r="A54" s="129"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -23406,7 +23398,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="132"/>
+      <c r="A55" s="129"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -23418,7 +23410,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="132"/>
+      <c r="A56" s="129"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -23429,7 +23421,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="132"/>
+      <c r="A57" s="129"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -23440,7 +23432,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="132"/>
+      <c r="A58" s="129"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -23451,7 +23443,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="132"/>
+      <c r="A59" s="129"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -23462,11 +23454,11 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="132" t="s">
+      <c r="A60" s="129" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="C60" s="107" t="s">
         <v>290</v>
@@ -23489,9 +23481,9 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="132"/>
+      <c r="A61" s="129"/>
       <c r="B61" s="107" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="C61" s="107" t="s">
         <v>290</v>
@@ -23515,7 +23507,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="132"/>
+      <c r="A62" s="129"/>
       <c r="B62" s="107" t="s">
         <v>301</v>
       </c>
@@ -23541,9 +23533,9 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="132"/>
+      <c r="A63" s="129"/>
       <c r="B63" s="107" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="C63" s="107" t="s">
         <v>290</v>
@@ -23567,7 +23559,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="132"/>
+      <c r="A64" s="129"/>
       <c r="B64" s="107" t="s">
         <v>298</v>
       </c>
@@ -23593,9 +23585,9 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="132"/>
+      <c r="A65" s="129"/>
       <c r="B65" s="107" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="C65" s="107" t="s">
         <v>290</v>
@@ -23619,7 +23611,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="132"/>
+      <c r="A66" s="129"/>
       <c r="B66" s="107" t="s">
         <v>303</v>
       </c>
@@ -23645,9 +23637,9 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="132"/>
+      <c r="A67" s="129"/>
       <c r="B67" s="107" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C67" s="107" t="s">
         <v>297</v>
@@ -23671,7 +23663,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="132"/>
+      <c r="A68" s="129"/>
       <c r="B68" s="107" t="s">
         <v>314</v>
       </c>
@@ -23691,7 +23683,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="132"/>
+      <c r="A69" s="129"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -23703,7 +23695,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="132"/>
+      <c r="A70" s="129"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -23714,7 +23706,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="132"/>
+      <c r="A71" s="129"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -23725,7 +23717,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="132"/>
+      <c r="A72" s="129"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -23736,7 +23728,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="132"/>
+      <c r="A73" s="129"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -23747,7 +23739,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="132"/>
+      <c r="A74" s="129"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -23758,11 +23750,11 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="132" t="s">
+      <c r="A75" s="129" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="C75" s="107" t="s">
         <v>297</v>
@@ -23785,9 +23777,9 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="132"/>
+      <c r="A76" s="129"/>
       <c r="B76" s="107" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C76" s="107" t="s">
         <v>290</v>
@@ -23811,7 +23803,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="132"/>
+      <c r="A77" s="129"/>
       <c r="B77" s="107" t="s">
         <v>301</v>
       </c>
@@ -23837,9 +23829,9 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="132"/>
+      <c r="A78" s="129"/>
       <c r="B78" s="107" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="C78" s="107" t="s">
         <v>290</v>
@@ -23863,9 +23855,9 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="132"/>
+      <c r="A79" s="129"/>
       <c r="B79" s="107" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C79" s="107" t="s">
         <v>299</v>
@@ -23889,7 +23881,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="132"/>
+      <c r="A80" s="129"/>
       <c r="B80" s="107" t="s">
         <v>314</v>
       </c>
@@ -23915,9 +23907,9 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="132"/>
+      <c r="A81" s="129"/>
       <c r="B81" s="107" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="C81" s="107" t="s">
         <v>290</v>
@@ -23941,9 +23933,9 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="132"/>
+      <c r="A82" s="129"/>
       <c r="B82" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="C82" s="107" t="s">
         <v>297</v>
@@ -23967,9 +23959,9 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="132"/>
+      <c r="A83" s="129"/>
       <c r="B83" s="107" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="C83" s="107" t="s">
         <v>290</v>
@@ -23987,9 +23979,9 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="132"/>
+      <c r="A84" s="129"/>
       <c r="B84" s="107" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C84" s="107" t="s">
         <v>297</v>
@@ -24007,7 +23999,7 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="132"/>
+      <c r="A85" s="129"/>
       <c r="B85" s="107"/>
       <c r="C85" s="107"/>
       <c r="D85" s="108"/>
@@ -24015,7 +24007,7 @@
       <c r="F85" s="108"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="132"/>
+      <c r="A86" s="129"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -24023,7 +24015,7 @@
       <c r="F86" s="108"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="132"/>
+      <c r="A87" s="129"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107"/>
       <c r="D87" s="108"/>
@@ -24031,7 +24023,7 @@
       <c r="F87" s="108"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="132"/>
+      <c r="A88" s="129"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -24042,7 +24034,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="132"/>
+      <c r="A89" s="129"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -24053,7 +24045,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="132" t="s">
+      <c r="A90" s="129" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -24080,7 +24072,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="132"/>
+      <c r="A91" s="129"/>
       <c r="B91" s="107" t="s">
         <v>375</v>
       </c>
@@ -24106,7 +24098,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="132"/>
+      <c r="A92" s="129"/>
       <c r="B92" s="107" t="s">
         <v>331</v>
       </c>
@@ -24132,7 +24124,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="132"/>
+      <c r="A93" s="129"/>
       <c r="B93" s="107" t="s">
         <v>375</v>
       </c>
@@ -24158,7 +24150,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="132"/>
+      <c r="A94" s="129"/>
       <c r="B94" s="107" t="s">
         <v>294</v>
       </c>
@@ -24184,7 +24176,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="132"/>
+      <c r="A95" s="129"/>
       <c r="B95" s="107" t="s">
         <v>310</v>
       </c>
@@ -24210,7 +24202,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="132"/>
+      <c r="A96" s="129"/>
       <c r="B96" s="107" t="s">
         <v>376</v>
       </c>
@@ -24236,7 +24228,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="132"/>
+      <c r="A97" s="129"/>
       <c r="B97" s="107" t="s">
         <v>377</v>
       </c>
@@ -24262,7 +24254,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="132"/>
+      <c r="A98" s="129"/>
       <c r="B98" s="107" t="s">
         <v>303</v>
       </c>
@@ -24282,7 +24274,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="132"/>
+      <c r="A99" s="129"/>
       <c r="B99" s="107" t="s">
         <v>375</v>
       </c>
@@ -24302,7 +24294,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="132"/>
+      <c r="A100" s="129"/>
       <c r="B100" s="107" t="s">
         <v>378</v>
       </c>
@@ -24321,7 +24313,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="132"/>
+      <c r="A101" s="129"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -24332,7 +24324,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="132"/>
+      <c r="A102" s="129"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -24343,7 +24335,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="132"/>
+      <c r="A103" s="129"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -24354,7 +24346,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="133"/>
+      <c r="A104" s="130"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -24365,7 +24357,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="134" t="s">
+      <c r="A105" s="131" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -24392,7 +24384,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="134"/>
+      <c r="A106" s="131"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -24418,7 +24410,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="134"/>
+      <c r="A107" s="131"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -24444,7 +24436,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="134"/>
+      <c r="A108" s="131"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -24470,7 +24462,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="134"/>
+      <c r="A109" s="131"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -24496,7 +24488,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="134"/>
+      <c r="A110" s="131"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -24522,7 +24514,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="134"/>
+      <c r="A111" s="131"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -24548,7 +24540,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="134"/>
+      <c r="A112" s="131"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -24574,7 +24566,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="134"/>
+      <c r="A113" s="131"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -24594,7 +24586,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="134"/>
+      <c r="A114" s="131"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -24606,7 +24598,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="134"/>
+      <c r="A115" s="131"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -24617,7 +24609,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="134"/>
+      <c r="A116" s="131"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -24628,7 +24620,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="134"/>
+      <c r="A117" s="131"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -24639,7 +24631,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="134"/>
+      <c r="A118" s="131"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -24650,7 +24642,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="135"/>
+      <c r="A119" s="132"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -24661,11 +24653,11 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="136" t="s">
+      <c r="A120" s="133" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="C120" s="107" t="s">
         <v>290</v>
@@ -24688,9 +24680,9 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="136"/>
+      <c r="A121" s="133"/>
       <c r="B121" s="115" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="C121" s="107" t="s">
         <v>290</v>
@@ -24714,7 +24706,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="136"/>
+      <c r="A122" s="133"/>
       <c r="B122" s="107" t="s">
         <v>301</v>
       </c>
@@ -24740,9 +24732,9 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="136"/>
+      <c r="A123" s="133"/>
       <c r="B123" s="107" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="C123" s="107" t="s">
         <v>290</v>
@@ -24766,7 +24758,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="136"/>
+      <c r="A124" s="133"/>
       <c r="B124" s="107" t="s">
         <v>310</v>
       </c>
@@ -24792,9 +24784,9 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="136"/>
+      <c r="A125" s="133"/>
       <c r="B125" s="107" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>290</v>
@@ -24818,7 +24810,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="136"/>
+      <c r="A126" s="133"/>
       <c r="B126" s="107" t="s">
         <v>303</v>
       </c>
@@ -24844,9 +24836,9 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="136"/>
+      <c r="A127" s="133"/>
       <c r="B127" s="107" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C127" s="107" t="s">
         <v>295</v>
@@ -24870,7 +24862,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="136"/>
+      <c r="A128" s="133"/>
       <c r="B128" s="107" t="s">
         <v>296</v>
       </c>
@@ -24890,9 +24882,9 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="136"/>
+      <c r="A129" s="133"/>
       <c r="B129" s="115" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="C129" s="107" t="s">
         <v>297</v>
@@ -24910,7 +24902,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="136"/>
+      <c r="A130" s="133"/>
       <c r="B130" s="115"/>
       <c r="C130" s="107"/>
       <c r="D130" s="108"/>
@@ -24921,7 +24913,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="136"/>
+      <c r="A131" s="133"/>
       <c r="B131" s="115"/>
       <c r="C131" s="107"/>
       <c r="D131" s="108"/>
@@ -24932,7 +24924,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="136"/>
+      <c r="A132" s="133"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -24943,7 +24935,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="136"/>
+      <c r="A133" s="133"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -24954,7 +24946,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="136"/>
+      <c r="A134" s="133"/>
       <c r="B134" s="117"/>
       <c r="C134" s="124"/>
       <c r="D134" s="125"/>
@@ -25123,8 +25115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9EFCF2-B647-4263-9741-7AEEC9FEC381}">
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25163,11 +25155,11 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="129" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>290</v>
@@ -25193,9 +25185,9 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="132"/>
+      <c r="A3" s="129"/>
       <c r="B3" s="107" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="C3" s="107" t="s">
         <v>290</v>
@@ -25222,7 +25214,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="132"/>
+      <c r="A4" s="129"/>
       <c r="B4" s="107" t="s">
         <v>301</v>
       </c>
@@ -25251,9 +25243,9 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="132"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="107" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>290</v>
@@ -25280,9 +25272,9 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="132"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="107" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>297</v>
@@ -25309,9 +25301,9 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="132"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="107" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>299</v>
@@ -25338,7 +25330,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="132"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="107" t="s">
         <v>314</v>
       </c>
@@ -25364,9 +25356,9 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="132"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="107" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="C9" s="107" t="s">
         <v>290</v>
@@ -25390,7 +25382,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="132"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="107" t="s">
         <v>303</v>
       </c>
@@ -25410,9 +25402,9 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="132"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="107" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C11" s="107" t="s">
         <v>290</v>
@@ -25430,9 +25422,9 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="132"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="107" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>290</v>
@@ -25449,7 +25441,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="132"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -25460,7 +25452,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="132"/>
+      <c r="A14" s="129"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -25471,7 +25463,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="132"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -25482,7 +25474,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="132"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -25493,11 +25485,11 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="129" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="C17" s="107" t="s">
         <v>290</v>
@@ -25520,7 +25512,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="132"/>
+      <c r="A18" s="129"/>
       <c r="B18" s="107" t="s">
         <v>301</v>
       </c>
@@ -25546,9 +25538,9 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="132"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="107" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="C19" s="107" t="s">
         <v>290</v>
@@ -25572,9 +25564,9 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="132"/>
+      <c r="A20" s="129"/>
       <c r="B20" s="107" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C20" s="107" t="s">
         <v>297</v>
@@ -25598,9 +25590,9 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="132"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="107" t="s">
-        <v>471</v>
+        <v>407</v>
       </c>
       <c r="C21" s="107" t="s">
         <v>299</v>
@@ -25624,9 +25616,9 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="132"/>
+      <c r="A22" s="129"/>
       <c r="B22" s="107" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="C22" s="107" t="s">
         <v>290</v>
@@ -25650,7 +25642,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="132"/>
+      <c r="A23" s="129"/>
       <c r="B23" s="107" t="s">
         <v>303</v>
       </c>
@@ -25676,7 +25668,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="132"/>
+      <c r="A24" s="129"/>
       <c r="B24" s="107" t="s">
         <v>314</v>
       </c>
@@ -25702,9 +25694,9 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="132"/>
+      <c r="A25" s="129"/>
       <c r="B25" s="107" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="C25" s="107" t="s">
         <v>290</v>
@@ -25722,7 +25714,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="132"/>
+      <c r="A26" s="129"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -25733,7 +25725,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="132"/>
+      <c r="A27" s="129"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -25744,7 +25736,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="132"/>
+      <c r="A28" s="129"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -25755,24 +25747,24 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="129" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="107" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
       <c r="C29" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D29" s="108">
-        <v>0.35416666666666669</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="E29" s="108">
-        <v>0.39583333333333331</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="F29" s="108">
         <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+        <v>3.4722222222222154E-2</v>
       </c>
       <c r="H29" s="106" t="s">
         <v>291</v>
@@ -25782,33 +25774,33 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="132"/>
+      <c r="A30" s="129"/>
       <c r="B30" s="107" t="s">
-        <v>331</v>
+        <v>404</v>
       </c>
       <c r="C30" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D30" s="108">
-        <v>0.39583333333333331</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="E30" s="108">
-        <v>0.4375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F30" s="108">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="H30" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I30" s="108">
         <f t="shared" ref="I30" si="1">SUMIFS(F29:F43, C29:C43,H30)</f>
-        <v>0.28125000000000011</v>
+        <v>0.28124999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="132"/>
+      <c r="A31" s="129"/>
       <c r="B31" s="107" t="s">
         <v>301</v>
       </c>
@@ -25819,74 +25811,74 @@
         <v>0.4375</v>
       </c>
       <c r="E31" s="108">
-        <v>0.44444444444444442</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F31" s="108">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H31" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I31" s="108">
         <f t="shared" ref="I31" si="2">SUMIFS(F29:F43, C29:C43,H31)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="132"/>
+      <c r="A32" s="129"/>
       <c r="B32" s="107" t="s">
-        <v>357</v>
+        <v>479</v>
       </c>
       <c r="C32" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D32" s="108">
-        <v>0.44444444444444442</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="E32" s="108">
-        <v>0.52777777777777779</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="F32" s="108">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="H32" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I32" s="108">
         <f t="shared" ref="I32" si="3">SUMIFS(F29:F43, C29:C43,H32)</f>
-        <v>6.25E-2</v>
+        <v>9.0277777777777846E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="132"/>
+      <c r="A33" s="129"/>
       <c r="B33" s="107" t="s">
-        <v>322</v>
+        <v>450</v>
       </c>
       <c r="C33" s="107" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D33" s="108">
-        <v>0.53472222222222221</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="E33" s="108">
-        <v>0.5625</v>
+        <v>0.53125</v>
       </c>
       <c r="F33" s="108">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
+        <v>4.5138888888888895E-2</v>
       </c>
       <c r="H33" s="109" t="s">
         <v>300</v>
       </c>
       <c r="I33" s="108">
         <f t="shared" ref="I33" si="4">SUMIFS(F29:F43, C29:C43,H33)</f>
-        <v>3.125E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="132"/>
+      <c r="A34" s="129"/>
       <c r="B34" s="107" t="s">
         <v>298</v>
       </c>
@@ -25894,122 +25886,122 @@
         <v>299</v>
       </c>
       <c r="D34" s="108">
-        <v>0.5625</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E34" s="108">
-        <v>0.59027777777777779</v>
+        <v>0.57986111111111105</v>
       </c>
       <c r="F34" s="108">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
+        <v>3.819444444444442E-2</v>
       </c>
       <c r="H34" s="109" t="s">
         <v>302</v>
       </c>
       <c r="I34" s="108">
         <f t="shared" ref="I34" si="5">SUMIFS(F29:F43, C29:C43,H34)</f>
-        <v>2.777777777777779E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="132"/>
+      <c r="A35" s="129"/>
       <c r="B35" s="107" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D35" s="108">
-        <v>0.59722222222222221</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="E35" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F35" s="108">
         <f t="shared" si="0"/>
-        <v>6.944444444444442E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H35" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I35" s="108">
         <f t="shared" ref="I35" si="6">SUMIFS(F29:F43, C29:C43,H35)</f>
-        <v>4.8611111111111049E-2</v>
+        <v>6.2499999999999944E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="132"/>
+      <c r="A36" s="129"/>
       <c r="B36" s="107" t="s">
-        <v>303</v>
+        <v>486</v>
       </c>
       <c r="C36" s="107" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D36" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="E36" s="108">
-        <v>0.68055555555555547</v>
+        <v>0.65625</v>
       </c>
       <c r="F36" s="108">
         <f t="shared" si="0"/>
-        <v>1.388888888888884E-2</v>
+        <v>4.5138888888888951E-2</v>
       </c>
       <c r="H36" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I36" s="106">
         <f t="shared" ref="I36" si="7">SUM(I30:I35)</f>
-        <v>0.49305555555555564</v>
+        <v>0.44791666666666657</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="132"/>
+      <c r="A37" s="129"/>
       <c r="B37" s="107" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="C37" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D37" s="108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E37" s="108">
         <v>0.68055555555555547</v>
       </c>
-      <c r="E37" s="108">
-        <v>0.71527777777777779</v>
-      </c>
       <c r="F37" s="108">
         <f t="shared" si="0"/>
-        <v>3.4722222222222321E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="I37" s="110"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="132"/>
+      <c r="A38" s="129"/>
       <c r="B38" s="107" t="s">
-        <v>314</v>
+        <v>480</v>
       </c>
       <c r="C38" s="107" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D38" s="108">
-        <v>0.71875</v>
+        <v>0.6875</v>
       </c>
       <c r="E38" s="108">
         <v>0.75</v>
       </c>
       <c r="F38" s="108">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I38" s="110"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="132"/>
+      <c r="A39" s="129"/>
       <c r="B39" s="107" t="s">
-        <v>360</v>
+        <v>487</v>
       </c>
       <c r="C39" s="107" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D39" s="108">
         <v>0.77083333333333337</v>
@@ -26023,26 +26015,26 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="132"/>
+      <c r="A40" s="129"/>
       <c r="B40" s="107" t="s">
-        <v>361</v>
+        <v>488</v>
       </c>
       <c r="C40" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D40" s="108">
-        <v>0.85416666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E40" s="108">
         <v>0.90625</v>
       </c>
       <c r="F40" s="108">
         <f t="shared" si="0"/>
-        <v>5.208333333333337E-2</v>
+        <v>7.291666666666663E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="132"/>
+      <c r="A41" s="129"/>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="108"/>
@@ -26053,7 +26045,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="132"/>
+      <c r="A42" s="129"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -26064,7 +26056,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="132"/>
+      <c r="A43" s="129"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -26075,11 +26067,11 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="132" t="s">
+      <c r="A44" s="129" t="s">
         <v>318</v>
       </c>
       <c r="B44" s="107" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="C44" s="107" t="s">
         <v>290</v>
@@ -26102,7 +26094,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="132"/>
+      <c r="A45" s="129"/>
       <c r="B45" s="107" t="s">
         <v>301</v>
       </c>
@@ -26128,9 +26120,9 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="132"/>
+      <c r="A46" s="129"/>
       <c r="B46" s="107" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="C46" s="107" t="s">
         <v>290</v>
@@ -26154,9 +26146,9 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="132"/>
+      <c r="A47" s="129"/>
       <c r="B47" s="107" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C47" s="107" t="s">
         <v>297</v>
@@ -26180,9 +26172,9 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="132"/>
+      <c r="A48" s="129"/>
       <c r="B48" s="107" t="s">
-        <v>471</v>
+        <v>407</v>
       </c>
       <c r="C48" s="107" t="s">
         <v>299</v>
@@ -26206,7 +26198,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="132"/>
+      <c r="A49" s="129"/>
       <c r="B49" s="107" t="s">
         <v>296</v>
       </c>
@@ -26232,9 +26224,9 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="132"/>
+      <c r="A50" s="129"/>
       <c r="B50" s="107" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="C50" s="107" t="s">
         <v>290</v>
@@ -26258,7 +26250,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="132"/>
+      <c r="A51" s="129"/>
       <c r="B51" s="107" t="s">
         <v>303</v>
       </c>
@@ -26284,9 +26276,9 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="132"/>
+      <c r="A52" s="129"/>
       <c r="B52" s="107" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="C52" s="107" t="s">
         <v>290</v>
@@ -26304,9 +26296,9 @@
       <c r="I52" s="110"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="132"/>
+      <c r="A53" s="129"/>
       <c r="B53" s="107" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="C53" s="107" t="s">
         <v>290</v>
@@ -26324,7 +26316,7 @@
       <c r="I53" s="110"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="132"/>
+      <c r="A54" s="129"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -26335,7 +26327,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="132"/>
+      <c r="A55" s="129"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -26346,7 +26338,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="132"/>
+      <c r="A56" s="129"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -26357,7 +26349,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="132"/>
+      <c r="A57" s="129"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -26368,11 +26360,11 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="132" t="s">
+      <c r="A58" s="129" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="107" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="C58" s="107" t="s">
         <v>297</v>
@@ -26395,7 +26387,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="132"/>
+      <c r="A59" s="129"/>
       <c r="B59" s="107" t="s">
         <v>403</v>
       </c>
@@ -26421,7 +26413,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="132"/>
+      <c r="A60" s="129"/>
       <c r="B60" s="107" t="s">
         <v>368</v>
       </c>
@@ -26447,9 +26439,9 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="132"/>
+      <c r="A61" s="129"/>
       <c r="B61" s="107" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C61" s="107" t="s">
         <v>295</v>
@@ -26473,7 +26465,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="132"/>
+      <c r="A62" s="129"/>
       <c r="B62" s="107" t="s">
         <v>310</v>
       </c>
@@ -26499,9 +26491,9 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="132"/>
+      <c r="A63" s="129"/>
       <c r="B63" s="107" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C63" s="107" t="s">
         <v>295</v>
@@ -26525,7 +26517,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="132"/>
+      <c r="A64" s="129"/>
       <c r="B64" s="107" t="s">
         <v>314</v>
       </c>
@@ -26551,9 +26543,9 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="132"/>
+      <c r="A65" s="129"/>
       <c r="B65" s="107" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="C65" s="107" t="s">
         <v>295</v>
@@ -26577,7 +26569,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="132"/>
+      <c r="A66" s="129"/>
       <c r="B66" s="107" t="s">
         <v>368</v>
       </c>
@@ -26598,9 +26590,9 @@
       <c r="I66" s="106"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="132"/>
+      <c r="A67" s="129"/>
       <c r="B67" s="107" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="C67" s="107" t="s">
         <v>290</v>
@@ -26618,9 +26610,9 @@
       <c r="I67" s="110"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="132"/>
+      <c r="A68" s="129"/>
       <c r="B68" s="107" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="C68" s="107" t="s">
         <v>290</v>
@@ -26638,7 +26630,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="132"/>
+      <c r="A69" s="129"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -26649,7 +26641,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="132"/>
+      <c r="A70" s="129"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -26660,7 +26652,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="132"/>
+      <c r="A71" s="129"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -26671,7 +26663,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="132"/>
+      <c r="A72" s="129"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -26682,7 +26674,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="132"/>
+      <c r="A73" s="129"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -26693,11 +26685,11 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="132" t="s">
+      <c r="A74" s="129" t="s">
         <v>67</v>
       </c>
       <c r="B74" s="107" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C74" s="107" t="s">
         <v>290</v>
@@ -26720,7 +26712,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="132"/>
+      <c r="A75" s="129"/>
       <c r="B75" s="107" t="s">
         <v>301</v>
       </c>
@@ -26746,9 +26738,9 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="132"/>
+      <c r="A76" s="129"/>
       <c r="B76" s="107" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C76" s="107" t="s">
         <v>290</v>
@@ -26772,9 +26764,9 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="132"/>
+      <c r="A77" s="129"/>
       <c r="B77" s="107" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="C77" s="107" t="s">
         <v>297</v>
@@ -26798,7 +26790,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="132"/>
+      <c r="A78" s="129"/>
       <c r="B78" s="107" t="s">
         <v>371</v>
       </c>
@@ -26824,7 +26816,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="132"/>
+      <c r="A79" s="129"/>
       <c r="B79" s="107" t="s">
         <v>373</v>
       </c>
@@ -26850,7 +26842,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="132"/>
+      <c r="A80" s="129"/>
       <c r="B80" s="107" t="s">
         <v>368</v>
       </c>
@@ -26876,7 +26868,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="132"/>
+      <c r="A81" s="129"/>
       <c r="B81" s="107" t="s">
         <v>373</v>
       </c>
@@ -26902,7 +26894,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="132"/>
+      <c r="A82" s="129"/>
       <c r="B82" s="107" t="s">
         <v>314</v>
       </c>
@@ -26922,7 +26914,7 @@
       <c r="I82" s="110"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="132"/>
+      <c r="A83" s="129"/>
       <c r="B83" s="107" t="s">
         <v>371</v>
       </c>
@@ -26942,7 +26934,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="132"/>
+      <c r="A84" s="129"/>
       <c r="B84" s="107" t="s">
         <v>374</v>
       </c>
@@ -26961,7 +26953,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="132"/>
+      <c r="A85" s="129"/>
       <c r="B85" s="107"/>
       <c r="C85" s="107"/>
       <c r="D85" s="108"/>
@@ -26972,7 +26964,7 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="132"/>
+      <c r="A86" s="129"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -26983,7 +26975,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="132"/>
+      <c r="A87" s="129"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107" t="s">
         <v>290</v>
@@ -27000,7 +26992,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="132"/>
+      <c r="A88" s="129"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107" t="s">
         <v>290</v>
@@ -27017,24 +27009,24 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="132" t="s">
+      <c r="A89" s="129" t="s">
         <v>28</v>
       </c>
       <c r="B89" s="107" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="C89" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D89" s="108">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="E89" s="108">
-        <v>0.4375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F89" s="108">
         <f t="shared" si="14"/>
-        <v>4.1666666666666685E-2</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="H89" s="106" t="s">
         <v>291</v>
@@ -27044,64 +27036,64 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="132"/>
+      <c r="A90" s="129"/>
       <c r="B90" s="107" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="C90" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D90" s="108">
-        <v>0.44444444444444442</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E90" s="108">
-        <v>0.52777777777777779</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="F90" s="108">
         <f t="shared" si="14"/>
-        <v>8.333333333333337E-2</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="H90" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I90" s="108">
         <f>SUMIFS(F87:F101, C87:C101,H90)</f>
-        <v>0.27083333333333337</v>
+        <v>0.28472222222222227</v>
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="132"/>
+      <c r="A91" s="129"/>
       <c r="B91" s="107" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="C91" s="107" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D91" s="108">
-        <v>0.53125</v>
+        <v>0.5</v>
       </c>
       <c r="E91" s="108">
         <v>0.5625</v>
       </c>
       <c r="F91" s="108">
         <f t="shared" si="14"/>
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H91" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I91" s="108">
         <f>SUMIFS(F87:F101, C87:C101,H91)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="132"/>
+      <c r="A92" s="129"/>
       <c r="B92" s="107" t="s">
         <v>375</v>
       </c>
       <c r="C92" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D92" s="108">
         <v>0.5625</v>
@@ -27118,16 +27110,16 @@
       </c>
       <c r="I92" s="108">
         <f>SUMIFS(F87:F101, C87:C101,H92)</f>
-        <v>4.1666666666666741E-2</v>
+        <v>7.6388888888888951E-2</v>
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="132"/>
+      <c r="A93" s="129"/>
       <c r="B93" s="107" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="C93" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D93" s="108">
         <v>0.59027777777777779</v>
@@ -27148,33 +27140,33 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="132"/>
+      <c r="A94" s="129"/>
       <c r="B94" s="107" t="s">
-        <v>310</v>
+        <v>403</v>
       </c>
       <c r="C94" s="107" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D94" s="108">
-        <v>0.625</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="E94" s="108">
         <v>0.66666666666666663</v>
       </c>
       <c r="F94" s="108">
         <f t="shared" si="14"/>
-        <v>4.166666666666663E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="H94" s="109" t="s">
         <v>302</v>
       </c>
       <c r="I94" s="108">
         <f>SUMIFS(F87:F101, C87:C101,H94)</f>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="132"/>
+      <c r="A95" s="129"/>
       <c r="B95" s="107" t="s">
         <v>376</v>
       </c>
@@ -27196,11 +27188,11 @@
       </c>
       <c r="I95" s="108">
         <f>SUMIFS(F87:F101, C87:C101,H95)</f>
-        <v>4.166666666666663E-2</v>
+        <v>8.3333333333333315E-2</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="132"/>
+      <c r="A96" s="129"/>
       <c r="B96" s="107" t="s">
         <v>377</v>
       </c>
@@ -27222,11 +27214,11 @@
       </c>
       <c r="I96" s="106">
         <f t="shared" ref="I96" si="16">SUM(I90:I95)</f>
-        <v>0.42708333333333343</v>
+        <v>0.44444444444444453</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="132"/>
+      <c r="A97" s="129"/>
       <c r="B97" s="107" t="s">
         <v>303</v>
       </c>
@@ -27246,7 +27238,7 @@
       <c r="I97" s="110"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="132"/>
+      <c r="A98" s="129"/>
       <c r="B98" s="107" t="s">
         <v>375</v>
       </c>
@@ -27260,7 +27252,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="132"/>
+      <c r="A99" s="129"/>
       <c r="B99" s="107" t="s">
         <v>378</v>
       </c>
@@ -27273,7 +27265,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="132"/>
+      <c r="A100" s="129"/>
       <c r="B100" s="107"/>
       <c r="C100" s="107"/>
       <c r="D100" s="108"/>
@@ -27284,7 +27276,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="132"/>
+      <c r="A101" s="129"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -27295,7 +27287,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="132"/>
+      <c r="A102" s="129"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107" t="s">
         <v>290</v>
@@ -27312,7 +27304,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="133"/>
+      <c r="A103" s="130"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107" t="s">
         <v>295</v>
@@ -27329,7 +27321,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="134" t="s">
+      <c r="A104" s="131" t="s">
         <v>19</v>
       </c>
       <c r="B104" s="107" t="s">
@@ -27356,7 +27348,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="134"/>
+      <c r="A105" s="131"/>
       <c r="B105" s="107" t="s">
         <v>331</v>
       </c>
@@ -27382,7 +27374,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="134"/>
+      <c r="A106" s="131"/>
       <c r="B106" s="107" t="s">
         <v>294</v>
       </c>
@@ -27408,7 +27400,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="134"/>
+      <c r="A107" s="131"/>
       <c r="B107" s="107" t="s">
         <v>331</v>
       </c>
@@ -27434,7 +27426,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="134"/>
+      <c r="A108" s="131"/>
       <c r="B108" s="107" t="s">
         <v>298</v>
       </c>
@@ -27460,7 +27452,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="134"/>
+      <c r="A109" s="131"/>
       <c r="B109" s="107" t="s">
         <v>301</v>
       </c>
@@ -27486,7 +27478,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="134"/>
+      <c r="A110" s="131"/>
       <c r="B110" s="107" t="s">
         <v>303</v>
       </c>
@@ -27512,7 +27504,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="134"/>
+      <c r="A111" s="131"/>
       <c r="B111" s="107" t="s">
         <v>315</v>
       </c>
@@ -27532,7 +27524,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="134"/>
+      <c r="A112" s="131"/>
       <c r="B112" s="107" t="s">
         <v>332</v>
       </c>
@@ -27546,7 +27538,7 @@
       <c r="I112" s="110"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="134"/>
+      <c r="A113" s="131"/>
       <c r="B113" s="107"/>
       <c r="C113" s="107"/>
       <c r="D113" s="108"/>
@@ -27558,7 +27550,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="134"/>
+      <c r="A114" s="131"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -27569,7 +27561,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="134"/>
+      <c r="A115" s="131"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -27580,7 +27572,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="134"/>
+      <c r="A116" s="131"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -27591,7 +27583,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="134"/>
+      <c r="A117" s="131"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -27602,7 +27594,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="135"/>
+      <c r="A118" s="132"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -27613,11 +27605,11 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="136" t="s">
+      <c r="A119" s="133" t="s">
         <v>339</v>
       </c>
       <c r="B119" s="115" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="C119" s="107" t="s">
         <v>290</v>
@@ -27640,9 +27632,9 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="136"/>
+      <c r="A120" s="133"/>
       <c r="B120" s="115" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="C120" s="107" t="s">
         <v>297</v>
@@ -27666,7 +27658,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="136"/>
+      <c r="A121" s="133"/>
       <c r="B121" s="107" t="s">
         <v>301</v>
       </c>
@@ -27692,9 +27684,9 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="136"/>
+      <c r="A122" s="133"/>
       <c r="B122" s="107" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>290</v>
@@ -27718,9 +27710,9 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="136"/>
+      <c r="A123" s="133"/>
       <c r="B123" s="107" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="C123" s="107" t="s">
         <v>295</v>
@@ -27744,7 +27736,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="136"/>
+      <c r="A124" s="133"/>
       <c r="B124" s="107" t="s">
         <v>310</v>
       </c>
@@ -27770,9 +27762,9 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="136"/>
+      <c r="A125" s="133"/>
       <c r="B125" s="107" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>290</v>
@@ -27796,7 +27788,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="136"/>
+      <c r="A126" s="133"/>
       <c r="B126" s="107" t="s">
         <v>303</v>
       </c>
@@ -27822,9 +27814,9 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="136"/>
+      <c r="A127" s="133"/>
       <c r="B127" s="107" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="C127" s="107" t="s">
         <v>290</v>
@@ -27842,7 +27834,7 @@
       <c r="I127" s="110"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="136"/>
+      <c r="A128" s="133"/>
       <c r="B128" s="107" t="s">
         <v>296</v>
       </c>
@@ -27862,9 +27854,9 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="136"/>
+      <c r="A129" s="133"/>
       <c r="B129" s="115" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="C129" s="107" t="s">
         <v>290</v>
@@ -27881,7 +27873,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="136"/>
+      <c r="A130" s="133"/>
       <c r="C130" s="111"/>
       <c r="D130" s="112"/>
       <c r="E130" s="112"/>
@@ -27891,7 +27883,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="136"/>
+      <c r="A131" s="133"/>
       <c r="B131" s="115"/>
       <c r="C131" s="113"/>
       <c r="D131" s="114"/>
@@ -27902,7 +27894,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="136"/>
+      <c r="A132" s="133"/>
       <c r="B132" s="116"/>
       <c r="C132" s="111"/>
       <c r="D132" s="112"/>
@@ -27913,7 +27905,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="136"/>
+      <c r="A133" s="133"/>
       <c r="B133" s="117"/>
       <c r="C133" s="113"/>
       <c r="D133" s="114"/>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F965E72-E06A-4606-8B83-C28C0A4EC2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5661727D-DFE8-4E81-8A24-2667C425B12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="23" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="506">
   <si>
     <t>Resource Name</t>
   </si>
@@ -2484,7 +2484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2820,6 +2820,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2835,10 +2838,6 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7403,7 +7402,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -7430,7 +7429,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>293</v>
       </c>
@@ -7456,7 +7455,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>294</v>
       </c>
@@ -7482,7 +7481,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>296</v>
       </c>
@@ -7508,7 +7507,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>298</v>
       </c>
@@ -7534,7 +7533,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
         <v>301</v>
       </c>
@@ -7560,7 +7559,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107" t="s">
         <v>303</v>
       </c>
@@ -7586,7 +7585,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107" t="s">
         <v>304</v>
       </c>
@@ -7612,7 +7611,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="107" t="s">
         <v>306</v>
       </c>
@@ -7632,7 +7631,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -7644,7 +7643,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -7655,7 +7654,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -7666,7 +7665,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -7677,7 +7676,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -7688,7 +7687,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -7699,7 +7698,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -7726,7 +7725,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="107" t="s">
         <v>308</v>
       </c>
@@ -7752,7 +7751,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -7778,7 +7777,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>309</v>
       </c>
@@ -7804,7 +7803,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
         <v>294</v>
       </c>
@@ -7830,7 +7829,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
         <v>310</v>
       </c>
@@ -7856,7 +7855,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107" t="s">
         <v>296</v>
       </c>
@@ -7882,7 +7881,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107" t="s">
         <v>311</v>
       </c>
@@ -7908,7 +7907,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107" t="s">
         <v>312</v>
       </c>
@@ -7928,7 +7927,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -7940,7 +7939,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -7951,7 +7950,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -7962,7 +7961,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -7973,7 +7972,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -7984,7 +7983,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129"/>
+      <c r="A31" s="132"/>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="108"/>
@@ -7995,7 +7994,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129" t="s">
+      <c r="A32" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="107" t="s">
@@ -8022,7 +8021,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="107" t="s">
         <v>313</v>
       </c>
@@ -8048,7 +8047,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>301</v>
       </c>
@@ -8074,7 +8073,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>313</v>
       </c>
@@ -8100,7 +8099,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="107" t="s">
         <v>294</v>
       </c>
@@ -8126,7 +8125,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>310</v>
       </c>
@@ -8152,7 +8151,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107" t="s">
         <v>314</v>
       </c>
@@ -8178,7 +8177,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107" t="s">
         <v>315</v>
       </c>
@@ -8204,7 +8203,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107" t="s">
         <v>303</v>
       </c>
@@ -8224,7 +8223,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107" t="s">
         <v>316</v>
       </c>
@@ -8244,7 +8243,7 @@
       <c r="I41" s="110"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -8255,7 +8254,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107" t="s">
         <v>317</v>
       </c>
@@ -8268,7 +8267,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -8279,7 +8278,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -8290,7 +8289,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129"/>
+      <c r="A46" s="132"/>
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
       <c r="D46" s="108"/>
@@ -8301,7 +8300,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129" t="s">
+      <c r="A47" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B47" s="107" t="s">
@@ -8328,7 +8327,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>319</v>
       </c>
@@ -8354,7 +8353,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>320</v>
       </c>
@@ -8380,7 +8379,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
         <v>321</v>
       </c>
@@ -8406,7 +8405,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107" t="s">
         <v>322</v>
       </c>
@@ -8432,7 +8431,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107" t="s">
         <v>323</v>
       </c>
@@ -8458,7 +8457,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107" t="s">
         <v>296</v>
       </c>
@@ -8484,7 +8483,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107" t="s">
         <v>324</v>
       </c>
@@ -8510,7 +8509,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107" t="s">
         <v>325</v>
       </c>
@@ -8530,7 +8529,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107" t="s">
         <v>326</v>
       </c>
@@ -8550,7 +8549,7 @@
       <c r="I56" s="110"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -8561,7 +8560,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -8572,7 +8571,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -8583,7 +8582,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129"/>
+      <c r="A60" s="132"/>
       <c r="B60" s="107"/>
       <c r="C60" s="107"/>
       <c r="D60" s="108"/>
@@ -8594,7 +8593,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107"/>
       <c r="C61" s="107"/>
       <c r="D61" s="108"/>
@@ -8605,7 +8604,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129" t="s">
+      <c r="A62" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="107" t="s">
@@ -8632,7 +8631,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>328</v>
       </c>
@@ -8658,7 +8657,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>301</v>
       </c>
@@ -8684,7 +8683,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>321</v>
       </c>
@@ -8710,7 +8709,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107" t="s">
         <v>294</v>
       </c>
@@ -8736,7 +8735,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107" t="s">
         <v>310</v>
       </c>
@@ -8762,7 +8761,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107" t="s">
         <v>296</v>
       </c>
@@ -8788,7 +8787,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107" t="s">
         <v>329</v>
       </c>
@@ -8814,7 +8813,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107" t="s">
         <v>330</v>
       </c>
@@ -8834,7 +8833,7 @@
       <c r="I70" s="110"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -8846,7 +8845,7 @@
       <c r="I71" s="110"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -8857,7 +8856,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -8868,7 +8867,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -8879,7 +8878,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129"/>
+      <c r="A75" s="132"/>
       <c r="B75" s="107"/>
       <c r="C75" s="107"/>
       <c r="D75" s="108"/>
@@ -8890,7 +8889,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107"/>
       <c r="C76" s="107"/>
       <c r="D76" s="108"/>
@@ -8901,7 +8900,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129" t="s">
+      <c r="A77" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B77" s="107" t="s">
@@ -8928,7 +8927,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
         <v>331</v>
       </c>
@@ -8954,7 +8953,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
         <v>294</v>
       </c>
@@ -8980,7 +8979,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
         <v>331</v>
       </c>
@@ -9006,7 +9005,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
         <v>298</v>
       </c>
@@ -9032,7 +9031,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="107" t="s">
         <v>301</v>
       </c>
@@ -9058,7 +9057,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
         <v>303</v>
       </c>
@@ -9084,7 +9083,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="107" t="s">
         <v>315</v>
       </c>
@@ -9110,7 +9109,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
+      <c r="A85" s="132"/>
       <c r="B85" s="107" t="s">
         <v>332</v>
       </c>
@@ -9130,7 +9129,7 @@
       <c r="I85" s="110"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
+      <c r="A86" s="132"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -9142,7 +9141,7 @@
       <c r="I86" s="110"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
+      <c r="A87" s="132"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107"/>
       <c r="D87" s="108"/>
@@ -9153,7 +9152,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -9164,7 +9163,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="129"/>
+      <c r="A89" s="132"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -9175,7 +9174,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="129"/>
+      <c r="A90" s="132"/>
       <c r="B90" s="107"/>
       <c r="C90" s="107"/>
       <c r="D90" s="108"/>
@@ -9186,7 +9185,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="107"/>
       <c r="C91" s="107"/>
       <c r="D91" s="108"/>
@@ -9197,7 +9196,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="129" t="s">
+      <c r="A92" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B92" s="107" t="s">
@@ -9224,7 +9223,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
+      <c r="A93" s="132"/>
       <c r="B93" s="107" t="s">
         <v>333</v>
       </c>
@@ -9250,7 +9249,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
+      <c r="A94" s="132"/>
       <c r="B94" s="107" t="s">
         <v>301</v>
       </c>
@@ -9276,7 +9275,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
+      <c r="A95" s="132"/>
       <c r="B95" s="107" t="s">
         <v>334</v>
       </c>
@@ -9302,7 +9301,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
+      <c r="A96" s="132"/>
       <c r="B96" s="107" t="s">
         <v>294</v>
       </c>
@@ -9328,7 +9327,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
+      <c r="A97" s="132"/>
       <c r="B97" s="107" t="s">
         <v>310</v>
       </c>
@@ -9354,7 +9353,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
+      <c r="A98" s="132"/>
       <c r="B98" s="107" t="s">
         <v>335</v>
       </c>
@@ -9380,7 +9379,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
+      <c r="A99" s="132"/>
       <c r="B99" s="107" t="s">
         <v>336</v>
       </c>
@@ -9406,7 +9405,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
+      <c r="A100" s="132"/>
       <c r="B100" s="107" t="s">
         <v>337</v>
       </c>
@@ -9426,7 +9425,7 @@
       <c r="I100" s="110"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107" t="s">
         <v>303</v>
       </c>
@@ -9446,7 +9445,7 @@
       <c r="I101" s="110"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107" t="s">
         <v>335</v>
       </c>
@@ -9465,7 +9464,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="129"/>
+      <c r="A103" s="132"/>
       <c r="B103" s="107" t="s">
         <v>338</v>
       </c>
@@ -9484,7 +9483,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="129"/>
+      <c r="A104" s="132"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -9495,7 +9494,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="129"/>
+      <c r="A105" s="132"/>
       <c r="B105" s="107"/>
       <c r="C105" s="107"/>
       <c r="D105" s="108"/>
@@ -9506,7 +9505,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="130"/>
+      <c r="A106" s="133"/>
       <c r="B106" s="107"/>
       <c r="C106" s="107"/>
       <c r="D106" s="108"/>
@@ -9517,7 +9516,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131" t="s">
+      <c r="A107" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B107" s="115" t="s">
@@ -9544,7 +9543,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="115" t="s">
         <v>331</v>
       </c>
@@ -9570,7 +9569,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="115" t="s">
         <v>294</v>
       </c>
@@ -9596,7 +9595,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="115" t="s">
         <v>331</v>
       </c>
@@ -9622,7 +9621,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="115" t="s">
         <v>298</v>
       </c>
@@ -9648,7 +9647,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="115" t="s">
         <v>301</v>
       </c>
@@ -9674,7 +9673,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="115" t="s">
         <v>303</v>
       </c>
@@ -9700,7 +9699,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="115" t="s">
         <v>315</v>
       </c>
@@ -9726,7 +9725,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="115" t="s">
         <v>332</v>
       </c>
@@ -9746,7 +9745,7 @@
       <c r="I115" s="110"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="115"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -9758,7 +9757,7 @@
       <c r="I116" s="110"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="115"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -9769,7 +9768,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="131"/>
+      <c r="A118" s="134"/>
       <c r="B118" s="115"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -9780,7 +9779,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="131"/>
+      <c r="A119" s="134"/>
       <c r="B119" s="115"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -9791,7 +9790,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="131"/>
+      <c r="A120" s="134"/>
       <c r="B120" s="116"/>
       <c r="C120" s="111"/>
       <c r="D120" s="112"/>
@@ -9802,7 +9801,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="132"/>
+      <c r="A121" s="135"/>
       <c r="B121" s="117"/>
       <c r="C121" s="113"/>
       <c r="D121" s="114"/>
@@ -9813,7 +9812,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133" t="s">
+      <c r="A122" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B122" s="115" t="s">
@@ -9840,7 +9839,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="115" t="s">
         <v>341</v>
       </c>
@@ -9866,7 +9865,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="115" t="s">
         <v>320</v>
       </c>
@@ -9892,7 +9891,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="115" t="s">
         <v>342</v>
       </c>
@@ -9918,7 +9917,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="115" t="s">
         <v>322</v>
       </c>
@@ -9944,7 +9943,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="115" t="s">
         <v>323</v>
       </c>
@@ -9970,7 +9969,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="115" t="s">
         <v>343</v>
       </c>
@@ -9996,7 +9995,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115" t="s">
         <v>329</v>
       </c>
@@ -10022,7 +10021,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="B130" s="115" t="s">
         <v>303</v>
       </c>
@@ -10042,7 +10041,7 @@
       <c r="I130" s="110"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="115" t="s">
         <v>329</v>
       </c>
@@ -10062,7 +10061,7 @@
       <c r="I131" s="110"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="115" t="s">
         <v>344</v>
       </c>
@@ -10081,7 +10080,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="115" t="s">
         <v>345</v>
       </c>
@@ -10100,7 +10099,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="133"/>
+      <c r="A134" s="136"/>
       <c r="B134" s="115"/>
       <c r="C134" s="107"/>
       <c r="D134" s="108"/>
@@ -10111,7 +10110,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="133"/>
+      <c r="A135" s="136"/>
       <c r="B135" s="116"/>
       <c r="C135" s="111"/>
       <c r="D135" s="112"/>
@@ -10122,7 +10121,7 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="133"/>
+      <c r="A136" s="136"/>
       <c r="B136" s="117"/>
       <c r="C136" s="113"/>
       <c r="D136" s="114"/>
@@ -10299,7 +10298,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -10329,7 +10328,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>331</v>
       </c>
@@ -10358,7 +10357,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>301</v>
       </c>
@@ -10387,7 +10386,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>347</v>
       </c>
@@ -10416,7 +10415,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>294</v>
       </c>
@@ -10445,7 +10444,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
         <v>298</v>
       </c>
@@ -10474,7 +10473,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107" t="s">
         <v>348</v>
       </c>
@@ -10500,7 +10499,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107" t="s">
         <v>303</v>
       </c>
@@ -10526,7 +10525,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="120" t="s">
         <v>349</v>
       </c>
@@ -10546,7 +10545,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107" t="s">
         <v>350</v>
       </c>
@@ -10566,7 +10565,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107" t="s">
         <v>351</v>
       </c>
@@ -10585,7 +10584,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -10596,7 +10595,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -10607,7 +10606,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -10618,7 +10617,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -10629,7 +10628,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -10656,7 +10655,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="107" t="s">
         <v>331</v>
       </c>
@@ -10682,7 +10681,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -10708,7 +10707,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>353</v>
       </c>
@@ -10734,7 +10733,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
         <v>322</v>
       </c>
@@ -10760,7 +10759,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
         <v>298</v>
       </c>
@@ -10786,7 +10785,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107" t="s">
         <v>354</v>
       </c>
@@ -10812,7 +10811,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107" t="s">
         <v>303</v>
       </c>
@@ -10838,7 +10837,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107" t="s">
         <v>355</v>
       </c>
@@ -10858,7 +10857,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107" t="s">
         <v>314</v>
       </c>
@@ -10878,7 +10877,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107" t="s">
         <v>355</v>
       </c>
@@ -10897,7 +10896,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -10908,7 +10907,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -10919,7 +10918,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -10930,7 +10929,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -10957,7 +10956,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="107" t="s">
         <v>331</v>
       </c>
@@ -10983,7 +10982,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -11009,7 +11008,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>357</v>
       </c>
@@ -11035,7 +11034,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>322</v>
       </c>
@@ -11061,7 +11060,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="107" t="s">
         <v>298</v>
       </c>
@@ -11087,7 +11086,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>358</v>
       </c>
@@ -11113,7 +11112,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107" t="s">
         <v>303</v>
       </c>
@@ -11139,7 +11138,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107" t="s">
         <v>359</v>
       </c>
@@ -11159,7 +11158,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107" t="s">
         <v>314</v>
       </c>
@@ -11179,7 +11178,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107" t="s">
         <v>360</v>
       </c>
@@ -11198,7 +11197,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="107" t="s">
         <v>361</v>
       </c>
@@ -11217,7 +11216,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -11228,7 +11227,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -11239,7 +11238,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -11250,7 +11249,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -11277,7 +11276,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
         <v>331</v>
       </c>
@@ -11303,7 +11302,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>301</v>
       </c>
@@ -11329,7 +11328,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>363</v>
       </c>
@@ -11355,7 +11354,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
         <v>322</v>
       </c>
@@ -11381,7 +11380,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107" t="s">
         <v>298</v>
       </c>
@@ -11407,7 +11406,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107" t="s">
         <v>354</v>
       </c>
@@ -11433,7 +11432,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107" t="s">
         <v>303</v>
       </c>
@@ -11459,7 +11458,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107" t="s">
         <v>364</v>
       </c>
@@ -11479,7 +11478,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107" t="s">
         <v>314</v>
       </c>
@@ -11499,7 +11498,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107" t="s">
         <v>365</v>
       </c>
@@ -11518,7 +11517,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -11529,7 +11528,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -11540,7 +11539,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -11551,7 +11550,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -11578,7 +11577,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
         <v>331</v>
       </c>
@@ -11604,7 +11603,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="107" t="s">
         <v>301</v>
       </c>
@@ -11630,7 +11629,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>366</v>
       </c>
@@ -11656,7 +11655,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>322</v>
       </c>
@@ -11682,7 +11681,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>298</v>
       </c>
@@ -11708,7 +11707,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107" t="s">
         <v>367</v>
       </c>
@@ -11734,7 +11733,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107" t="s">
         <v>368</v>
       </c>
@@ -11760,7 +11759,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107" t="s">
         <v>369</v>
       </c>
@@ -11780,7 +11779,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107" t="s">
         <v>314</v>
       </c>
@@ -11800,7 +11799,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107" t="s">
         <v>370</v>
       </c>
@@ -11819,7 +11818,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -11830,7 +11829,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -11841,7 +11840,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -11852,7 +11851,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -11863,7 +11862,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129" t="s">
+      <c r="A75" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -11890,7 +11889,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
         <v>331</v>
       </c>
@@ -11916,7 +11915,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="107" t="s">
         <v>301</v>
       </c>
@@ -11942,7 +11941,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
         <v>371</v>
       </c>
@@ -11968,7 +11967,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
         <v>372</v>
       </c>
@@ -11994,7 +11993,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
         <v>322</v>
       </c>
@@ -12020,7 +12019,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
         <v>371</v>
       </c>
@@ -12046,7 +12045,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="107" t="s">
         <v>373</v>
       </c>
@@ -12072,7 +12071,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
         <v>368</v>
       </c>
@@ -12092,7 +12091,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="107" t="s">
         <v>373</v>
       </c>
@@ -12112,7 +12111,7 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
+      <c r="A85" s="132"/>
       <c r="B85" s="107" t="s">
         <v>314</v>
       </c>
@@ -12131,7 +12130,7 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
+      <c r="A86" s="132"/>
       <c r="B86" s="107" t="s">
         <v>371</v>
       </c>
@@ -12150,7 +12149,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
+      <c r="A87" s="132"/>
       <c r="B87" s="107" t="s">
         <v>374</v>
       </c>
@@ -12169,7 +12168,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -12180,7 +12179,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="129"/>
+      <c r="A89" s="132"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -12191,7 +12190,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="129" t="s">
+      <c r="A90" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -12218,7 +12217,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="107" t="s">
         <v>375</v>
       </c>
@@ -12244,7 +12243,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="129"/>
+      <c r="A92" s="132"/>
       <c r="B92" s="107" t="s">
         <v>331</v>
       </c>
@@ -12270,7 +12269,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
+      <c r="A93" s="132"/>
       <c r="B93" s="107" t="s">
         <v>375</v>
       </c>
@@ -12296,7 +12295,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
+      <c r="A94" s="132"/>
       <c r="B94" s="107" t="s">
         <v>294</v>
       </c>
@@ -12322,7 +12321,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
+      <c r="A95" s="132"/>
       <c r="B95" s="107" t="s">
         <v>310</v>
       </c>
@@ -12348,7 +12347,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
+      <c r="A96" s="132"/>
       <c r="B96" s="107" t="s">
         <v>376</v>
       </c>
@@ -12374,7 +12373,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
+      <c r="A97" s="132"/>
       <c r="B97" s="107" t="s">
         <v>377</v>
       </c>
@@ -12400,7 +12399,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
+      <c r="A98" s="132"/>
       <c r="B98" s="107" t="s">
         <v>303</v>
       </c>
@@ -12420,7 +12419,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
+      <c r="A99" s="132"/>
       <c r="B99" s="107" t="s">
         <v>375</v>
       </c>
@@ -12440,7 +12439,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
+      <c r="A100" s="132"/>
       <c r="B100" s="107" t="s">
         <v>378</v>
       </c>
@@ -12459,7 +12458,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -12470,7 +12469,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -12481,7 +12480,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="129"/>
+      <c r="A103" s="132"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -12492,7 +12491,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="130"/>
+      <c r="A104" s="133"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -12503,7 +12502,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="131" t="s">
+      <c r="A105" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -12530,7 +12529,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="131"/>
+      <c r="A106" s="134"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -12556,7 +12555,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131"/>
+      <c r="A107" s="134"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -12582,7 +12581,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -12608,7 +12607,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -12634,7 +12633,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -12660,7 +12659,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -12686,7 +12685,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -12712,7 +12711,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -12732,7 +12731,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -12744,7 +12743,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -12755,7 +12754,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -12766,7 +12765,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -12777,7 +12776,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="131"/>
+      <c r="A118" s="134"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -12788,7 +12787,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="132"/>
+      <c r="A119" s="135"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -12799,7 +12798,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="133" t="s">
+      <c r="A120" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -12826,7 +12825,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="133"/>
+      <c r="A121" s="136"/>
       <c r="B121" s="115" t="s">
         <v>380</v>
       </c>
@@ -12852,7 +12851,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133"/>
+      <c r="A122" s="136"/>
       <c r="B122" s="115" t="s">
         <v>301</v>
       </c>
@@ -12878,7 +12877,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="115" t="s">
         <v>381</v>
       </c>
@@ -12904,7 +12903,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="115" t="s">
         <v>382</v>
       </c>
@@ -12930,7 +12929,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="115" t="s">
         <v>302</v>
       </c>
@@ -12956,7 +12955,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="115" t="s">
         <v>310</v>
       </c>
@@ -12982,7 +12981,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="120" t="s">
         <v>383</v>
       </c>
@@ -13008,7 +13007,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="115" t="s">
         <v>303</v>
       </c>
@@ -13028,7 +13027,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115" t="s">
         <v>381</v>
       </c>
@@ -13048,7 +13047,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="B130" s="115" t="s">
         <v>384</v>
       </c>
@@ -13067,7 +13066,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="115" t="s">
         <v>385</v>
       </c>
@@ -13086,7 +13085,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -13097,7 +13096,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -13108,7 +13107,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="133"/>
+      <c r="A134" s="136"/>
       <c r="B134" s="117"/>
       <c r="C134" s="113"/>
       <c r="D134" s="114"/>
@@ -13620,7 +13619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E469F2C2-993F-4F48-8C74-266B916F6309}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
@@ -13660,7 +13659,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -13690,7 +13689,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>331</v>
       </c>
@@ -13719,7 +13718,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>301</v>
       </c>
@@ -13748,7 +13747,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>351</v>
       </c>
@@ -13777,7 +13776,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>294</v>
       </c>
@@ -13806,7 +13805,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
         <v>298</v>
       </c>
@@ -13835,7 +13834,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107" t="s">
         <v>348</v>
       </c>
@@ -13861,7 +13860,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107" t="s">
         <v>303</v>
       </c>
@@ -13887,7 +13886,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="120" t="s">
         <v>349</v>
       </c>
@@ -13907,7 +13906,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107" t="s">
         <v>350</v>
       </c>
@@ -13927,7 +13926,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107" t="s">
         <v>351</v>
       </c>
@@ -13946,7 +13945,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -13957,7 +13956,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -13968,7 +13967,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -13979,7 +13978,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -13990,7 +13989,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -14017,7 +14016,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="107" t="s">
         <v>331</v>
       </c>
@@ -14043,7 +14042,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -14069,7 +14068,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>352</v>
       </c>
@@ -14095,7 +14094,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
         <v>298</v>
       </c>
@@ -14121,7 +14120,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
         <v>294</v>
       </c>
@@ -14147,7 +14146,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107" t="s">
         <v>386</v>
       </c>
@@ -14173,7 +14172,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107" t="s">
         <v>303</v>
       </c>
@@ -14199,7 +14198,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107" t="s">
         <v>387</v>
       </c>
@@ -14219,7 +14218,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107" t="s">
         <v>314</v>
       </c>
@@ -14239,7 +14238,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107" t="s">
         <v>388</v>
       </c>
@@ -14258,7 +14257,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -14269,7 +14268,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -14280,7 +14279,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -14291,7 +14290,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -14318,7 +14317,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="107" t="s">
         <v>331</v>
       </c>
@@ -14344,7 +14343,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -14370,7 +14369,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>389</v>
       </c>
@@ -14396,7 +14395,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>322</v>
       </c>
@@ -14422,7 +14421,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="107" t="s">
         <v>298</v>
       </c>
@@ -14448,7 +14447,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>358</v>
       </c>
@@ -14474,7 +14473,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107" t="s">
         <v>303</v>
       </c>
@@ -14500,7 +14499,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107" t="s">
         <v>359</v>
       </c>
@@ -14520,7 +14519,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107" t="s">
         <v>314</v>
       </c>
@@ -14540,7 +14539,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107" t="s">
         <v>360</v>
       </c>
@@ -14559,7 +14558,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="107" t="s">
         <v>361</v>
       </c>
@@ -14578,7 +14577,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -14589,7 +14588,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -14600,7 +14599,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -14611,7 +14610,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -14638,7 +14637,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
         <v>331</v>
       </c>
@@ -14664,7 +14663,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>301</v>
       </c>
@@ -14690,7 +14689,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>390</v>
       </c>
@@ -14716,7 +14715,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
         <v>298</v>
       </c>
@@ -14742,7 +14741,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107" t="s">
         <v>294</v>
       </c>
@@ -14768,7 +14767,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107" t="s">
         <v>386</v>
       </c>
@@ -14794,7 +14793,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107" t="s">
         <v>303</v>
       </c>
@@ -14820,7 +14819,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107" t="s">
         <v>391</v>
       </c>
@@ -14840,7 +14839,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107" t="s">
         <v>314</v>
       </c>
@@ -14860,7 +14859,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107" t="s">
         <v>392</v>
       </c>
@@ -14879,7 +14878,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -14890,7 +14889,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -14901,7 +14900,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -14912,7 +14911,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -14939,7 +14938,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
         <v>331</v>
       </c>
@@ -14965,7 +14964,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="107" t="s">
         <v>301</v>
       </c>
@@ -14991,7 +14990,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>366</v>
       </c>
@@ -15017,7 +15016,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>322</v>
       </c>
@@ -15043,7 +15042,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>298</v>
       </c>
@@ -15069,7 +15068,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107" t="s">
         <v>391</v>
       </c>
@@ -15095,7 +15094,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107" t="s">
         <v>368</v>
       </c>
@@ -15121,7 +15120,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107" t="s">
         <v>394</v>
       </c>
@@ -15141,7 +15140,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107" t="s">
         <v>314</v>
       </c>
@@ -15161,7 +15160,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107" t="s">
         <v>395</v>
       </c>
@@ -15180,7 +15179,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -15191,7 +15190,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -15202,7 +15201,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -15213,7 +15212,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -15224,7 +15223,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129" t="s">
+      <c r="A75" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -15251,7 +15250,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
         <v>331</v>
       </c>
@@ -15277,7 +15276,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="107" t="s">
         <v>301</v>
       </c>
@@ -15303,7 +15302,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
         <v>373</v>
       </c>
@@ -15329,7 +15328,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
         <v>372</v>
       </c>
@@ -15355,7 +15354,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
         <v>371</v>
       </c>
@@ -15381,7 +15380,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
         <v>373</v>
       </c>
@@ -15407,7 +15406,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="107" t="s">
         <v>368</v>
       </c>
@@ -15433,7 +15432,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
         <v>373</v>
       </c>
@@ -15453,7 +15452,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="107" t="s">
         <v>314</v>
       </c>
@@ -15473,7 +15472,7 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
+      <c r="A85" s="132"/>
       <c r="B85" s="107" t="s">
         <v>371</v>
       </c>
@@ -15493,7 +15492,7 @@
       <c r="G85" s="110"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
+      <c r="A86" s="132"/>
       <c r="B86" s="107" t="s">
         <v>396</v>
       </c>
@@ -15512,10 +15511,10 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
+      <c r="A87" s="132"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -15526,7 +15525,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="129"/>
+      <c r="A89" s="132"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -15537,7 +15536,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="129" t="s">
+      <c r="A90" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -15564,7 +15563,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="107" t="s">
         <v>375</v>
       </c>
@@ -15590,7 +15589,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="129"/>
+      <c r="A92" s="132"/>
       <c r="B92" s="107" t="s">
         <v>331</v>
       </c>
@@ -15616,7 +15615,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
+      <c r="A93" s="132"/>
       <c r="B93" s="107" t="s">
         <v>375</v>
       </c>
@@ -15642,7 +15641,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
+      <c r="A94" s="132"/>
       <c r="B94" s="107" t="s">
         <v>294</v>
       </c>
@@ -15668,7 +15667,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
+      <c r="A95" s="132"/>
       <c r="B95" s="107" t="s">
         <v>310</v>
       </c>
@@ -15694,7 +15693,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
+      <c r="A96" s="132"/>
       <c r="B96" s="107" t="s">
         <v>376</v>
       </c>
@@ -15720,7 +15719,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
+      <c r="A97" s="132"/>
       <c r="B97" s="107" t="s">
         <v>377</v>
       </c>
@@ -15746,7 +15745,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
+      <c r="A98" s="132"/>
       <c r="B98" s="107" t="s">
         <v>303</v>
       </c>
@@ -15766,7 +15765,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
+      <c r="A99" s="132"/>
       <c r="B99" s="107" t="s">
         <v>375</v>
       </c>
@@ -15786,7 +15785,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
+      <c r="A100" s="132"/>
       <c r="B100" s="107" t="s">
         <v>378</v>
       </c>
@@ -15805,7 +15804,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -15816,7 +15815,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -15827,7 +15826,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="129"/>
+      <c r="A103" s="132"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -15838,7 +15837,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="130"/>
+      <c r="A104" s="133"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -15849,7 +15848,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="131" t="s">
+      <c r="A105" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -15876,7 +15875,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="131"/>
+      <c r="A106" s="134"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -15902,7 +15901,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131"/>
+      <c r="A107" s="134"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -15928,7 +15927,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -15954,7 +15953,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -15980,7 +15979,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -16006,7 +16005,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -16032,7 +16031,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -16058,7 +16057,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -16078,7 +16077,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -16090,7 +16089,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -16101,7 +16100,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -16112,7 +16111,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -16123,7 +16122,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="131"/>
+      <c r="A118" s="134"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -16134,7 +16133,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="132"/>
+      <c r="A119" s="135"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -16145,7 +16144,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="133" t="s">
+      <c r="A120" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -16172,7 +16171,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="133"/>
+      <c r="A121" s="136"/>
       <c r="B121" s="115" t="s">
         <v>380</v>
       </c>
@@ -16198,7 +16197,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133"/>
+      <c r="A122" s="136"/>
       <c r="B122" s="115" t="s">
         <v>301</v>
       </c>
@@ -16224,7 +16223,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="115" t="s">
         <v>381</v>
       </c>
@@ -16250,7 +16249,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="115" t="s">
         <v>382</v>
       </c>
@@ -16276,7 +16275,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="115" t="s">
         <v>310</v>
       </c>
@@ -16302,7 +16301,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="107" t="s">
         <v>294</v>
       </c>
@@ -16328,7 +16327,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="120" t="s">
         <v>383</v>
       </c>
@@ -16354,7 +16353,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="115" t="s">
         <v>303</v>
       </c>
@@ -16374,7 +16373,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115" t="s">
         <v>398</v>
       </c>
@@ -16394,7 +16393,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="B130" s="115" t="s">
         <v>399</v>
       </c>
@@ -16413,7 +16412,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="115" t="s">
         <v>398</v>
       </c>
@@ -16432,7 +16431,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -16443,7 +16442,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -16454,7 +16453,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="133"/>
+      <c r="A134" s="136"/>
       <c r="B134" s="117"/>
       <c r="C134" s="113"/>
       <c r="D134" s="114"/>
@@ -16619,7 +16618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30934AA5-FE34-4D93-9147-E487E171875A}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A68" workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
@@ -16659,7 +16658,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -16689,7 +16688,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>298</v>
       </c>
@@ -16718,7 +16717,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>351</v>
       </c>
@@ -16747,7 +16746,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>303</v>
       </c>
@@ -16776,7 +16775,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>401</v>
       </c>
@@ -16805,7 +16804,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107"/>
       <c r="C7" s="107"/>
       <c r="D7" s="108"/>
@@ -16826,7 +16825,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107"/>
       <c r="C8" s="107"/>
       <c r="D8" s="108"/>
@@ -16844,7 +16843,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107"/>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -16862,7 +16861,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="120"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108"/>
@@ -16874,7 +16873,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -16886,7 +16885,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -16897,7 +16896,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -16908,7 +16907,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -16919,7 +16918,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -16930,7 +16929,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -16941,7 +16940,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -16968,7 +16967,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="107" t="s">
         <v>331</v>
       </c>
@@ -16994,7 +16993,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -17020,7 +17019,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>402</v>
       </c>
@@ -17046,7 +17045,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
         <v>322</v>
       </c>
@@ -17072,7 +17071,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
         <v>298</v>
       </c>
@@ -17098,7 +17097,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107" t="s">
         <v>354</v>
       </c>
@@ -17124,7 +17123,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107" t="s">
         <v>303</v>
       </c>
@@ -17150,7 +17149,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107" t="s">
         <v>355</v>
       </c>
@@ -17170,7 +17169,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107" t="s">
         <v>314</v>
       </c>
@@ -17190,7 +17189,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107" t="s">
         <v>355</v>
       </c>
@@ -17209,7 +17208,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107" t="s">
         <v>403</v>
       </c>
@@ -17228,7 +17227,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -17239,7 +17238,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -17250,7 +17249,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -17277,7 +17276,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="107" t="s">
         <v>387</v>
       </c>
@@ -17303,7 +17302,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -17329,7 +17328,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>405</v>
       </c>
@@ -17355,7 +17354,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>406</v>
       </c>
@@ -17381,7 +17380,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="107" t="s">
         <v>314</v>
       </c>
@@ -17407,7 +17406,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>407</v>
       </c>
@@ -17433,7 +17432,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107" t="s">
         <v>408</v>
       </c>
@@ -17459,7 +17458,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107" t="s">
         <v>374</v>
       </c>
@@ -17479,7 +17478,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107" t="s">
         <v>409</v>
       </c>
@@ -17499,7 +17498,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107" t="s">
         <v>361</v>
       </c>
@@ -17518,7 +17517,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" t="s">
         <v>410</v>
       </c>
@@ -17537,7 +17536,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -17548,7 +17547,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -17559,7 +17558,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -17570,7 +17569,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -17597,7 +17596,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
         <v>412</v>
       </c>
@@ -17623,7 +17622,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>413</v>
       </c>
@@ -17649,7 +17648,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>314</v>
       </c>
@@ -17675,7 +17674,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
         <v>414</v>
       </c>
@@ -17701,7 +17700,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107"/>
       <c r="C51" s="107"/>
       <c r="D51" s="108"/>
@@ -17719,7 +17718,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107"/>
       <c r="C52" s="107"/>
       <c r="D52" s="108"/>
@@ -17737,7 +17736,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107"/>
       <c r="C53" s="107"/>
       <c r="D53" s="108"/>
@@ -17755,7 +17754,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -17767,7 +17766,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -17779,7 +17778,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -17790,7 +17789,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -17801,7 +17800,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -17812,7 +17811,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -17823,7 +17822,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -17850,7 +17849,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
         <v>416</v>
       </c>
@@ -17876,7 +17875,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="107" t="s">
         <v>417</v>
       </c>
@@ -17902,7 +17901,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>314</v>
       </c>
@@ -17928,7 +17927,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>298</v>
       </c>
@@ -17954,7 +17953,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>418</v>
       </c>
@@ -17980,7 +17979,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107" t="s">
         <v>419</v>
       </c>
@@ -18006,7 +18005,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107" t="s">
         <v>420</v>
       </c>
@@ -18032,7 +18031,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107"/>
       <c r="C68" s="107"/>
       <c r="D68" s="108"/>
@@ -18044,7 +18043,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -18056,7 +18055,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -18067,7 +18066,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -18078,7 +18077,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -18089,7 +18088,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -18100,7 +18099,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -18111,7 +18110,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129" t="s">
+      <c r="A75" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -18138,7 +18137,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
         <v>301</v>
       </c>
@@ -18164,7 +18163,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="107" t="s">
         <v>371</v>
       </c>
@@ -18190,7 +18189,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
         <v>372</v>
       </c>
@@ -18216,7 +18215,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
         <v>371</v>
       </c>
@@ -18242,7 +18241,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
         <v>373</v>
       </c>
@@ -18268,7 +18267,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
         <v>368</v>
       </c>
@@ -18294,7 +18293,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="107" t="s">
         <v>373</v>
       </c>
@@ -18320,7 +18319,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
         <v>314</v>
       </c>
@@ -18340,7 +18339,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="107" t="s">
         <v>371</v>
       </c>
@@ -18360,7 +18359,7 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
+      <c r="A85" s="132"/>
       <c r="B85" s="107" t="s">
         <v>374</v>
       </c>
@@ -18379,7 +18378,7 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
+      <c r="A86" s="132"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -18390,7 +18389,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
+      <c r="A87" s="132"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107"/>
       <c r="D87" s="108"/>
@@ -18401,7 +18400,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -18412,7 +18411,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="129"/>
+      <c r="A89" s="132"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -18423,24 +18422,24 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="129" t="s">
+      <c r="A90" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="C90" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D90" s="108">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="E90" s="108">
-        <v>0.36458333333333331</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="F90" s="108">
         <f t="shared" si="16"/>
-        <v>1.041666666666663E-2</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="H90" s="106" t="s">
         <v>291</v>
@@ -18450,100 +18449,84 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
-      <c r="B91" s="107" t="s">
-        <v>375</v>
-      </c>
-      <c r="C91" s="107" t="s">
-        <v>290</v>
-      </c>
+      <c r="A91" s="132"/>
+      <c r="B91" s="107"/>
+      <c r="C91" s="107"/>
       <c r="D91" s="108">
-        <v>0.36458333333333331</v>
+        <v>0</v>
       </c>
       <c r="E91" s="108">
-        <v>0.39583333333333331</v>
+        <v>0</v>
       </c>
       <c r="F91" s="108">
         <f t="shared" si="16"/>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="H91" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I91" s="108">
         <f>SUMIFS(F90:F104, C90:C104,H91)</f>
-        <v>0.27083333333333337</v>
+        <v>0.13541666666666663</v>
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="129"/>
-      <c r="B92" s="107" t="s">
-        <v>331</v>
-      </c>
-      <c r="C92" s="107" t="s">
-        <v>295</v>
-      </c>
+      <c r="A92" s="132"/>
+      <c r="B92" s="107"/>
+      <c r="C92" s="107"/>
       <c r="D92" s="108">
-        <v>0.39583333333333331</v>
+        <v>0</v>
       </c>
       <c r="E92" s="108">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="F92" s="108">
         <f t="shared" si="16"/>
-        <v>4.1666666666666685E-2</v>
+        <v>0</v>
       </c>
       <c r="H92" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I92" s="108">
         <f>SUMIFS(F90:F104, C90:C104,H92)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
-      <c r="B93" s="107" t="s">
-        <v>375</v>
-      </c>
-      <c r="C93" s="107" t="s">
-        <v>290</v>
-      </c>
+      <c r="A93" s="132"/>
+      <c r="B93" s="107"/>
+      <c r="C93" s="107"/>
       <c r="D93" s="108">
-        <v>0.44444444444444442</v>
+        <v>0</v>
       </c>
       <c r="E93" s="108">
-        <v>0.52777777777777779</v>
+        <v>0</v>
       </c>
       <c r="F93" s="108">
         <f t="shared" si="16"/>
-        <v>8.333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="H93" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I93" s="108">
         <f>SUMIFS(F90:F104, C90:C104,H93)</f>
-        <v>4.1666666666666741E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
-      <c r="B94" s="107" t="s">
-        <v>294</v>
-      </c>
-      <c r="C94" s="107" t="s">
-        <v>302</v>
-      </c>
+      <c r="A94" s="132"/>
+      <c r="B94" s="107"/>
+      <c r="C94" s="107"/>
       <c r="D94" s="108">
-        <v>0.53125</v>
+        <v>0</v>
       </c>
       <c r="E94" s="108">
-        <v>0.5625</v>
+        <v>0</v>
       </c>
       <c r="F94" s="108">
         <f t="shared" si="16"/>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="H94" s="109" t="s">
         <v>300</v>
@@ -18554,144 +18537,120 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
-      <c r="B95" s="107" t="s">
-        <v>310</v>
-      </c>
-      <c r="C95" s="107" t="s">
-        <v>299</v>
-      </c>
+      <c r="A95" s="132"/>
+      <c r="B95" s="107"/>
+      <c r="C95" s="107"/>
       <c r="D95" s="108">
-        <v>0.5625</v>
+        <v>0</v>
       </c>
       <c r="E95" s="108">
-        <v>0.59027777777777779</v>
+        <v>0</v>
       </c>
       <c r="F95" s="108">
         <f t="shared" si="16"/>
-        <v>2.777777777777779E-2</v>
+        <v>0</v>
       </c>
       <c r="H95" s="109" t="s">
         <v>302</v>
       </c>
       <c r="I95" s="108">
         <f>SUMIFS(F90:F104, C90:C104,H95)</f>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
-      <c r="B96" s="107" t="s">
-        <v>376</v>
-      </c>
-      <c r="C96" s="107" t="s">
-        <v>290</v>
-      </c>
+      <c r="A96" s="132"/>
+      <c r="B96" s="107"/>
+      <c r="C96" s="107"/>
       <c r="D96" s="108">
-        <v>0.59027777777777779</v>
+        <v>0</v>
       </c>
       <c r="E96" s="108">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="F96" s="108">
         <f t="shared" si="16"/>
-        <v>3.472222222222221E-2</v>
+        <v>0</v>
       </c>
       <c r="H96" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I96" s="108">
         <f>SUMIFS(F90:F104, C90:C104,H96)</f>
-        <v>4.166666666666663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
-      <c r="B97" s="107" t="s">
-        <v>377</v>
-      </c>
-      <c r="C97" s="107" t="s">
-        <v>290</v>
-      </c>
+      <c r="A97" s="132"/>
+      <c r="B97" s="107"/>
+      <c r="C97" s="107"/>
       <c r="D97" s="108">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="E97" s="108">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="F97" s="108">
         <f t="shared" si="16"/>
-        <v>4.166666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="H97" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I97" s="106">
         <f t="shared" ref="I97" si="19">SUM(I91:I96)</f>
-        <v>0.42708333333333343</v>
+        <v>0.13541666666666663</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
-      <c r="B98" s="107" t="s">
-        <v>303</v>
-      </c>
-      <c r="C98" s="107" t="s">
-        <v>299</v>
-      </c>
+      <c r="A98" s="132"/>
+      <c r="B98" s="107"/>
+      <c r="C98" s="107"/>
       <c r="D98" s="108">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="E98" s="108">
-        <v>0.68055555555555547</v>
+        <v>0</v>
       </c>
       <c r="F98" s="108">
         <f t="shared" si="16"/>
-        <v>1.388888888888884E-2</v>
+        <v>0</v>
       </c>
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
-      <c r="B99" s="107" t="s">
-        <v>375</v>
-      </c>
-      <c r="C99" s="107" t="s">
-        <v>290</v>
-      </c>
+      <c r="A99" s="132"/>
+      <c r="B99" s="107"/>
+      <c r="C99" s="107"/>
       <c r="D99" s="108">
-        <v>0.68055555555555547</v>
+        <v>0</v>
       </c>
       <c r="E99" s="108">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F99" s="108">
         <f t="shared" si="16"/>
-        <v>6.9444444444444531E-2</v>
+        <v>0</v>
       </c>
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
-      <c r="B100" s="107" t="s">
-        <v>378</v>
-      </c>
-      <c r="C100" s="107" t="s">
-        <v>297</v>
-      </c>
+      <c r="A100" s="132"/>
+      <c r="B100" s="107"/>
+      <c r="C100" s="107"/>
       <c r="D100" s="108">
-        <v>0.79166666666666663</v>
+        <v>0</v>
       </c>
       <c r="E100" s="108">
-        <v>0.83333333333333337</v>
+        <v>0</v>
       </c>
       <c r="F100" s="108">
         <f t="shared" si="16"/>
-        <v>4.1666666666666741E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -18702,7 +18661,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -18713,7 +18672,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="129"/>
+      <c r="A103" s="132"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -18724,7 +18683,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="130"/>
+      <c r="A104" s="133"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -18735,7 +18694,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="131" t="s">
+      <c r="A105" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -18762,7 +18721,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="131"/>
+      <c r="A106" s="134"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -18788,7 +18747,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131"/>
+      <c r="A107" s="134"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -18814,7 +18773,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -18840,7 +18799,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -18866,7 +18825,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -18892,7 +18851,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -18918,7 +18877,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -18944,7 +18903,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -18964,7 +18923,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -18976,7 +18935,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -18987,7 +18946,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -18998,7 +18957,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -19009,7 +18968,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="131"/>
+      <c r="A118" s="134"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -19020,7 +18979,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="132"/>
+      <c r="A119" s="135"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -19031,7 +18990,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="133" t="s">
+      <c r="A120" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -19058,7 +19017,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="133"/>
+      <c r="A121" s="136"/>
       <c r="B121" s="115" t="s">
         <v>310</v>
       </c>
@@ -19084,7 +19043,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133"/>
+      <c r="A122" s="136"/>
       <c r="B122" s="115" t="s">
         <v>422</v>
       </c>
@@ -19110,7 +19069,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="115" t="s">
         <v>423</v>
       </c>
@@ -19136,7 +19095,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="115" t="s">
         <v>303</v>
       </c>
@@ -19162,7 +19121,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="115" t="s">
         <v>424</v>
       </c>
@@ -19188,7 +19147,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="115"/>
       <c r="C126" s="107"/>
       <c r="D126" s="108"/>
@@ -19206,7 +19165,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="120"/>
       <c r="C127" s="107"/>
       <c r="D127" s="108"/>
@@ -19224,7 +19183,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="115"/>
       <c r="C128" s="107"/>
       <c r="D128" s="108"/>
@@ -19236,7 +19195,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115"/>
       <c r="C129" s="107"/>
       <c r="D129" s="108"/>
@@ -19248,7 +19207,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="B130" s="115"/>
       <c r="C130" s="107"/>
       <c r="D130" s="108"/>
@@ -19259,7 +19218,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="115"/>
       <c r="C131" s="107"/>
       <c r="D131" s="108"/>
@@ -19270,7 +19229,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -19281,7 +19240,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -19292,7 +19251,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="133"/>
+      <c r="A134" s="136"/>
       <c r="B134" s="117"/>
       <c r="C134" s="113"/>
       <c r="D134" s="114"/>
@@ -19497,7 +19456,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -19527,7 +19486,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>314</v>
       </c>
@@ -19556,7 +19515,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>298</v>
       </c>
@@ -19585,7 +19544,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>426</v>
       </c>
@@ -19614,7 +19573,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>427</v>
       </c>
@@ -19643,7 +19602,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
         <v>428</v>
       </c>
@@ -19672,7 +19631,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107"/>
       <c r="C8" s="107"/>
       <c r="D8" s="108"/>
@@ -19690,7 +19649,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107"/>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -19708,7 +19667,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="120"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108"/>
@@ -19720,7 +19679,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -19732,7 +19691,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -19743,7 +19702,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -19754,7 +19713,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -19765,7 +19724,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -19776,7 +19735,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -19787,7 +19746,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -19814,7 +19773,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="107" t="s">
         <v>331</v>
       </c>
@@ -19840,7 +19799,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -19866,7 +19825,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>353</v>
       </c>
@@ -19892,7 +19851,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
         <v>322</v>
       </c>
@@ -19918,7 +19877,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
         <v>298</v>
       </c>
@@ -19944,7 +19903,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107" t="s">
         <v>354</v>
       </c>
@@ -19970,7 +19929,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107" t="s">
         <v>303</v>
       </c>
@@ -19996,7 +19955,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107" t="s">
         <v>355</v>
       </c>
@@ -20016,7 +19975,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107" t="s">
         <v>314</v>
       </c>
@@ -20036,7 +19995,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107" t="s">
         <v>355</v>
       </c>
@@ -20055,7 +20014,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -20066,7 +20025,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -20077,7 +20036,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -20088,7 +20047,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -20115,7 +20074,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="107" t="s">
         <v>301</v>
       </c>
@@ -20141,7 +20100,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" t="s">
         <v>430</v>
       </c>
@@ -20167,7 +20126,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>303</v>
       </c>
@@ -20193,7 +20152,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>358</v>
       </c>
@@ -20219,7 +20178,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="107" t="s">
         <v>374</v>
       </c>
@@ -20245,7 +20204,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>431</v>
       </c>
@@ -20271,7 +20230,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107"/>
       <c r="C38" s="107"/>
       <c r="D38" s="108"/>
@@ -20289,7 +20248,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107"/>
       <c r="C39" s="107"/>
       <c r="D39" s="108"/>
@@ -20301,7 +20260,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107"/>
       <c r="C40" s="107"/>
       <c r="D40" s="108"/>
@@ -20313,7 +20272,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="108"/>
@@ -20324,7 +20283,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -20335,7 +20294,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -20346,7 +20305,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -20357,7 +20316,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -20368,7 +20327,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -20395,7 +20354,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
         <v>433</v>
       </c>
@@ -20421,7 +20380,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>434</v>
       </c>
@@ -20447,7 +20406,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>435</v>
       </c>
@@ -20473,7 +20432,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
         <v>436</v>
       </c>
@@ -20499,7 +20458,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107"/>
       <c r="C51" s="107"/>
       <c r="D51" s="108"/>
@@ -20517,7 +20476,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107"/>
       <c r="C52" s="107"/>
       <c r="D52" s="108"/>
@@ -20535,7 +20494,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107"/>
       <c r="C53" s="107"/>
       <c r="D53" s="108"/>
@@ -20553,7 +20512,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -20565,7 +20524,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -20577,7 +20536,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -20588,7 +20547,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -20599,7 +20558,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -20610,7 +20569,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -20621,7 +20580,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -20648,7 +20607,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
         <v>438</v>
       </c>
@@ -20674,7 +20633,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="107" t="s">
         <v>439</v>
       </c>
@@ -20700,7 +20659,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>440</v>
       </c>
@@ -20726,7 +20685,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>441</v>
       </c>
@@ -20752,7 +20711,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>442</v>
       </c>
@@ -20778,7 +20737,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107"/>
       <c r="C66" s="107"/>
       <c r="D66" s="108"/>
@@ -20796,7 +20755,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107"/>
       <c r="C67" s="107"/>
       <c r="D67" s="108"/>
@@ -20814,7 +20773,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107"/>
       <c r="C68" s="107"/>
       <c r="D68" s="108"/>
@@ -20826,7 +20785,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -20838,7 +20797,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -20849,7 +20808,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -20860,7 +20819,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -20871,7 +20830,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -20882,7 +20841,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -20893,7 +20852,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129" t="s">
+      <c r="A75" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -20920,7 +20879,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
         <v>301</v>
       </c>
@@ -20946,7 +20905,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="107" t="s">
         <v>371</v>
       </c>
@@ -20972,7 +20931,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
         <v>373</v>
       </c>
@@ -20998,7 +20957,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
         <v>368</v>
       </c>
@@ -21024,7 +20983,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
         <v>373</v>
       </c>
@@ -21050,7 +21009,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
         <v>314</v>
       </c>
@@ -21076,7 +21035,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="107" t="s">
         <v>371</v>
       </c>
@@ -21102,7 +21061,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
         <v>374</v>
       </c>
@@ -21122,8 +21081,8 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
-      <c r="B84" s="137"/>
+      <c r="A84" s="132"/>
+      <c r="B84" s="131"/>
       <c r="C84" s="113"/>
       <c r="D84" s="114"/>
       <c r="E84" s="114"/>
@@ -21131,41 +21090,39 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
-      <c r="B85" s="134"/>
+      <c r="A85" s="132"/>
       <c r="C85" s="113"/>
       <c r="D85" s="114"/>
       <c r="E85" s="114"/>
       <c r="F85" s="114"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
-      <c r="B86" s="134"/>
+      <c r="A86" s="132"/>
       <c r="C86" s="113"/>
       <c r="D86" s="114"/>
       <c r="E86" s="114"/>
       <c r="F86" s="114"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
+      <c r="A87" s="132"/>
       <c r="C87" s="113"/>
       <c r="D87" s="114"/>
       <c r="E87" s="114"/>
       <c r="F87" s="114"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="107"/>
-      <c r="C88" s="135"/>
-      <c r="D88" s="136"/>
-      <c r="E88" s="136"/>
-      <c r="F88" s="136">
+      <c r="C88" s="129"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="130"/>
+      <c r="F88" s="130">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="129"/>
+      <c r="A89" s="132"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -21176,24 +21133,24 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="129" t="s">
+      <c r="A90" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="C90" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D90" s="108">
-        <v>0.35416666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E90" s="108">
-        <v>0.36458333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F90" s="108">
         <f t="shared" si="16"/>
-        <v>1.041666666666663E-2</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="H90" s="106" t="s">
         <v>291</v>
@@ -21203,100 +21160,92 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="107" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="C91" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D91" s="108">
-        <v>0.36458333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E91" s="108">
-        <v>0.39583333333333331</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="F91" s="108">
         <f t="shared" si="16"/>
-        <v>3.125E-2</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="H91" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I91" s="108">
         <f>SUMIFS(F90:F104, C90:C104,H91)</f>
-        <v>0.27083333333333337</v>
+        <v>0.16666666666666669</v>
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="129"/>
+      <c r="A92" s="132"/>
       <c r="B92" s="107" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="C92" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D92" s="108">
-        <v>0.39583333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E92" s="108">
-        <v>0.4375</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F92" s="108">
         <f t="shared" si="16"/>
-        <v>4.1666666666666685E-2</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="H92" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I92" s="108">
         <f>SUMIFS(F90:F104, C90:C104,H92)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
-      <c r="B93" s="107" t="s">
-        <v>375</v>
-      </c>
-      <c r="C93" s="107" t="s">
-        <v>290</v>
-      </c>
+      <c r="A93" s="132"/>
+      <c r="B93" s="107"/>
+      <c r="C93" s="107"/>
       <c r="D93" s="108">
-        <v>0.44444444444444442</v>
+        <v>0</v>
       </c>
       <c r="E93" s="108">
-        <v>0.52777777777777779</v>
+        <v>0</v>
       </c>
       <c r="F93" s="108">
         <f t="shared" si="16"/>
-        <v>8.333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="H93" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I93" s="108">
         <f>SUMIFS(F90:F104, C90:C104,H93)</f>
-        <v>4.1666666666666741E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
-      <c r="B94" s="107" t="s">
-        <v>294</v>
-      </c>
-      <c r="C94" s="107" t="s">
-        <v>302</v>
-      </c>
+      <c r="A94" s="132"/>
+      <c r="B94" s="107"/>
+      <c r="C94" s="107"/>
       <c r="D94" s="108">
-        <v>0.53125</v>
+        <v>0</v>
       </c>
       <c r="E94" s="108">
-        <v>0.5625</v>
+        <v>0</v>
       </c>
       <c r="F94" s="108">
         <f t="shared" si="16"/>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="H94" s="109" t="s">
         <v>300</v>
@@ -21307,144 +21256,120 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
-      <c r="B95" s="107" t="s">
-        <v>310</v>
-      </c>
-      <c r="C95" s="107" t="s">
-        <v>299</v>
-      </c>
+      <c r="A95" s="132"/>
+      <c r="B95" s="107"/>
+      <c r="C95" s="107"/>
       <c r="D95" s="108">
-        <v>0.5625</v>
+        <v>0</v>
       </c>
       <c r="E95" s="108">
-        <v>0.59027777777777779</v>
+        <v>0</v>
       </c>
       <c r="F95" s="108">
         <f t="shared" si="16"/>
-        <v>2.777777777777779E-2</v>
+        <v>0</v>
       </c>
       <c r="H95" s="109" t="s">
         <v>302</v>
       </c>
       <c r="I95" s="108">
         <f>SUMIFS(F90:F104, C90:C104,H95)</f>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
-      <c r="B96" s="107" t="s">
-        <v>376</v>
-      </c>
-      <c r="C96" s="107" t="s">
-        <v>290</v>
-      </c>
+      <c r="A96" s="132"/>
+      <c r="B96" s="107"/>
+      <c r="C96" s="107"/>
       <c r="D96" s="108">
-        <v>0.59027777777777779</v>
+        <v>0</v>
       </c>
       <c r="E96" s="108">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="F96" s="108">
         <f t="shared" si="16"/>
-        <v>3.472222222222221E-2</v>
+        <v>0</v>
       </c>
       <c r="H96" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I96" s="108">
         <f>SUMIFS(F90:F104, C90:C104,H96)</f>
-        <v>4.166666666666663E-2</v>
+        <v>3.4722222222222265E-2</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
-      <c r="B97" s="107" t="s">
-        <v>377</v>
-      </c>
-      <c r="C97" s="107" t="s">
-        <v>290</v>
-      </c>
+      <c r="A97" s="132"/>
+      <c r="B97" s="107"/>
+      <c r="C97" s="107"/>
       <c r="D97" s="108">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="E97" s="108">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="F97" s="108">
         <f t="shared" si="16"/>
-        <v>4.166666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="H97" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I97" s="106">
         <f t="shared" ref="I97" si="19">SUM(I91:I96)</f>
-        <v>0.42708333333333343</v>
+        <v>0.20138888888888895</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
-      <c r="B98" s="107" t="s">
-        <v>303</v>
-      </c>
-      <c r="C98" s="107" t="s">
-        <v>299</v>
-      </c>
+      <c r="A98" s="132"/>
+      <c r="B98" s="107"/>
+      <c r="C98" s="107"/>
       <c r="D98" s="108">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="E98" s="108">
-        <v>0.68055555555555547</v>
+        <v>0</v>
       </c>
       <c r="F98" s="108">
         <f t="shared" si="16"/>
-        <v>1.388888888888884E-2</v>
+        <v>0</v>
       </c>
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
-      <c r="B99" s="107" t="s">
-        <v>375</v>
-      </c>
-      <c r="C99" s="107" t="s">
-        <v>290</v>
-      </c>
+      <c r="A99" s="132"/>
+      <c r="B99" s="107"/>
+      <c r="C99" s="107"/>
       <c r="D99" s="108">
-        <v>0.68055555555555547</v>
+        <v>0</v>
       </c>
       <c r="E99" s="108">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F99" s="108">
         <f t="shared" si="16"/>
-        <v>6.9444444444444531E-2</v>
+        <v>0</v>
       </c>
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
-      <c r="B100" s="107" t="s">
-        <v>378</v>
-      </c>
-      <c r="C100" s="107" t="s">
-        <v>297</v>
-      </c>
+      <c r="A100" s="132"/>
+      <c r="B100" s="107"/>
+      <c r="C100" s="107"/>
       <c r="D100" s="108">
-        <v>0.79166666666666663</v>
+        <v>0</v>
       </c>
       <c r="E100" s="108">
-        <v>0.83333333333333337</v>
+        <v>0</v>
       </c>
       <c r="F100" s="108">
         <f t="shared" si="16"/>
-        <v>4.1666666666666741E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -21455,7 +21380,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -21466,7 +21391,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="129"/>
+      <c r="A103" s="132"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -21477,7 +21402,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="130"/>
+      <c r="A104" s="133"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -21488,7 +21413,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="131" t="s">
+      <c r="A105" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -21515,7 +21440,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="131"/>
+      <c r="A106" s="134"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -21541,7 +21466,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131"/>
+      <c r="A107" s="134"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -21567,7 +21492,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -21593,7 +21518,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -21619,7 +21544,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -21645,7 +21570,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -21671,7 +21596,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -21697,7 +21622,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -21717,7 +21642,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -21729,7 +21654,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -21740,7 +21665,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -21751,7 +21676,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -21762,7 +21687,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="131"/>
+      <c r="A118" s="134"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -21773,7 +21698,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="132"/>
+      <c r="A119" s="135"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -21784,7 +21709,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="133" t="s">
+      <c r="A120" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -21811,7 +21736,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="133"/>
+      <c r="A121" s="136"/>
       <c r="B121" s="115" t="s">
         <v>310</v>
       </c>
@@ -21837,7 +21762,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133"/>
+      <c r="A122" s="136"/>
       <c r="B122" s="115" t="s">
         <v>444</v>
       </c>
@@ -21863,7 +21788,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="115" t="s">
         <v>423</v>
       </c>
@@ -21889,7 +21814,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="115" t="s">
         <v>303</v>
       </c>
@@ -21915,7 +21840,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="115" t="s">
         <v>445</v>
       </c>
@@ -21941,7 +21866,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="115"/>
       <c r="C126" s="107"/>
       <c r="D126" s="108"/>
@@ -21959,7 +21884,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="120"/>
       <c r="C127" s="107"/>
       <c r="D127" s="108"/>
@@ -21977,7 +21902,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="115"/>
       <c r="C128" s="107"/>
       <c r="D128" s="108"/>
@@ -21989,7 +21914,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115"/>
       <c r="C129" s="107"/>
       <c r="D129" s="108"/>
@@ -22001,7 +21926,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="B130" s="115"/>
       <c r="C130" s="107"/>
       <c r="D130" s="108"/>
@@ -22012,7 +21937,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="115"/>
       <c r="C131" s="107"/>
       <c r="D131" s="108"/>
@@ -22023,7 +21948,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -22034,7 +21959,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -22045,7 +21970,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="133"/>
+      <c r="A134" s="136"/>
       <c r="B134" s="117"/>
       <c r="C134" s="113"/>
       <c r="D134" s="114"/>
@@ -22198,7 +22123,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C88:C142 C2:C83" xr:uid="{CD684CF7-AC2C-4948-B259-5FB55DB9ADCA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C83 C88:C142" xr:uid="{CD684CF7-AC2C-4948-B259-5FB55DB9ADCA}">
       <formula1>$Q$1:$Q$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -22210,8 +22135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEFA632-027C-44B7-B2E8-75A517756B1E}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22250,7 +22175,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -22280,7 +22205,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>301</v>
       </c>
@@ -22309,7 +22234,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>447</v>
       </c>
@@ -22338,7 +22263,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>448</v>
       </c>
@@ -22367,7 +22292,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>298</v>
       </c>
@@ -22396,7 +22321,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
         <v>449</v>
       </c>
@@ -22425,7 +22350,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107" t="s">
         <v>303</v>
       </c>
@@ -22451,7 +22376,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107" t="s">
         <v>450</v>
       </c>
@@ -22477,7 +22402,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="107" t="s">
         <v>350</v>
       </c>
@@ -22497,7 +22422,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107" t="s">
         <v>451</v>
       </c>
@@ -22517,7 +22442,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -22528,7 +22453,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -22539,7 +22464,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -22550,7 +22475,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -22561,7 +22486,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -22572,7 +22497,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -22599,7 +22524,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="107" t="s">
         <v>331</v>
       </c>
@@ -22625,7 +22550,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -22651,7 +22576,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>353</v>
       </c>
@@ -22677,7 +22602,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
         <v>322</v>
       </c>
@@ -22703,7 +22628,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
         <v>298</v>
       </c>
@@ -22729,7 +22654,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107" t="s">
         <v>354</v>
       </c>
@@ -22755,7 +22680,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107" t="s">
         <v>303</v>
       </c>
@@ -22781,7 +22706,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107" t="s">
         <v>355</v>
       </c>
@@ -22801,7 +22726,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107" t="s">
         <v>314</v>
       </c>
@@ -22821,7 +22746,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107" t="s">
         <v>355</v>
       </c>
@@ -22840,7 +22765,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -22851,7 +22776,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -22862,7 +22787,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -22873,7 +22798,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -22900,7 +22825,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="107" t="s">
         <v>404</v>
       </c>
@@ -22926,7 +22851,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -22952,7 +22877,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>453</v>
       </c>
@@ -22978,7 +22903,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>298</v>
       </c>
@@ -23004,7 +22929,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" t="s">
         <v>454</v>
       </c>
@@ -23030,7 +22955,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>303</v>
       </c>
@@ -23056,7 +22981,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107" t="s">
         <v>455</v>
       </c>
@@ -23082,7 +23007,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107" t="s">
         <v>314</v>
       </c>
@@ -23102,7 +23027,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107" t="s">
         <v>456</v>
       </c>
@@ -23122,7 +23047,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="108"/>
@@ -23133,7 +23058,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -23144,7 +23069,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -23155,7 +23080,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -23166,7 +23091,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -23177,7 +23102,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -23204,7 +23129,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
         <v>301</v>
       </c>
@@ -23230,7 +23155,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>458</v>
       </c>
@@ -23256,7 +23181,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>298</v>
       </c>
@@ -23282,7 +23207,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
         <v>459</v>
       </c>
@@ -23308,7 +23233,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107" t="s">
         <v>303</v>
       </c>
@@ -23334,7 +23259,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107" t="s">
         <v>450</v>
       </c>
@@ -23360,7 +23285,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107" t="s">
         <v>296</v>
       </c>
@@ -23386,7 +23311,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -23398,7 +23323,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -23410,7 +23335,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -23421,7 +23346,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -23432,7 +23357,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -23443,7 +23368,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -23454,7 +23379,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -23481,7 +23406,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
         <v>461</v>
       </c>
@@ -23507,7 +23432,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="107" t="s">
         <v>301</v>
       </c>
@@ -23533,7 +23458,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>462</v>
       </c>
@@ -23559,7 +23484,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>298</v>
       </c>
@@ -23585,7 +23510,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>463</v>
       </c>
@@ -23611,7 +23536,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107" t="s">
         <v>303</v>
       </c>
@@ -23637,7 +23562,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107" t="s">
         <v>455</v>
       </c>
@@ -23663,7 +23588,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107" t="s">
         <v>314</v>
       </c>
@@ -23683,7 +23608,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -23695,7 +23620,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -23706,7 +23631,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -23717,7 +23642,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -23728,7 +23653,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -23739,7 +23664,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -23750,7 +23675,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129" t="s">
+      <c r="A75" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -23777,7 +23702,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
         <v>465</v>
       </c>
@@ -23803,7 +23728,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="107" t="s">
         <v>301</v>
       </c>
@@ -23829,7 +23754,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
         <v>466</v>
       </c>
@@ -23855,7 +23780,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
         <v>467</v>
       </c>
@@ -23881,7 +23806,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
         <v>314</v>
       </c>
@@ -23907,7 +23832,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
         <v>468</v>
       </c>
@@ -23933,7 +23858,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" t="s">
         <v>469</v>
       </c>
@@ -23959,7 +23884,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
         <v>470</v>
       </c>
@@ -23979,7 +23904,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="107" t="s">
         <v>450</v>
       </c>
@@ -23999,7 +23924,7 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
+      <c r="A85" s="132"/>
       <c r="B85" s="107"/>
       <c r="C85" s="107"/>
       <c r="D85" s="108"/>
@@ -24007,7 +23932,7 @@
       <c r="F85" s="108"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
+      <c r="A86" s="132"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -24015,7 +23940,7 @@
       <c r="F86" s="108"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
+      <c r="A87" s="132"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107"/>
       <c r="D87" s="108"/>
@@ -24023,7 +23948,7 @@
       <c r="F87" s="108"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -24034,7 +23959,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="129"/>
+      <c r="A89" s="132"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -24045,24 +23970,24 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="129" t="s">
+      <c r="A90" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="C90" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D90" s="108">
-        <v>0.35416666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E90" s="108">
-        <v>0.36458333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F90" s="108">
         <f t="shared" si="16"/>
-        <v>1.041666666666663E-2</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="H90" s="106" t="s">
         <v>291</v>
@@ -24072,100 +23997,92 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="107" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="C91" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D91" s="108">
-        <v>0.36458333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E91" s="108">
-        <v>0.39583333333333331</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="F91" s="108">
         <f t="shared" si="16"/>
-        <v>3.125E-2</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="H91" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I91" s="108">
         <f>SUMIFS(F90:F104, C90:C104,H91)</f>
-        <v>0.27083333333333337</v>
+        <v>0.16666666666666669</v>
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="129"/>
+      <c r="A92" s="132"/>
       <c r="B92" s="107" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="C92" s="107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D92" s="108">
-        <v>0.39583333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E92" s="108">
-        <v>0.4375</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F92" s="108">
         <f t="shared" si="16"/>
-        <v>4.1666666666666685E-2</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="H92" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I92" s="108">
         <f>SUMIFS(F90:F104, C90:C104,H92)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
-      <c r="B93" s="107" t="s">
-        <v>375</v>
-      </c>
-      <c r="C93" s="107" t="s">
-        <v>290</v>
-      </c>
+      <c r="A93" s="132"/>
+      <c r="B93" s="107"/>
+      <c r="C93" s="107"/>
       <c r="D93" s="108">
-        <v>0.44444444444444442</v>
+        <v>0</v>
       </c>
       <c r="E93" s="108">
-        <v>0.52777777777777779</v>
+        <v>0</v>
       </c>
       <c r="F93" s="108">
         <f t="shared" si="16"/>
-        <v>8.333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="H93" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I93" s="108">
         <f>SUMIFS(F90:F104, C90:C104,H93)</f>
-        <v>4.1666666666666741E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
-      <c r="B94" s="107" t="s">
-        <v>294</v>
-      </c>
-      <c r="C94" s="107" t="s">
-        <v>302</v>
-      </c>
+      <c r="A94" s="132"/>
+      <c r="B94" s="107"/>
+      <c r="C94" s="107"/>
       <c r="D94" s="108">
-        <v>0.53125</v>
+        <v>0</v>
       </c>
       <c r="E94" s="108">
-        <v>0.5625</v>
+        <v>0</v>
       </c>
       <c r="F94" s="108">
         <f t="shared" si="16"/>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="H94" s="109" t="s">
         <v>300</v>
@@ -24176,144 +24093,120 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
-      <c r="B95" s="107" t="s">
-        <v>310</v>
-      </c>
-      <c r="C95" s="107" t="s">
-        <v>299</v>
-      </c>
+      <c r="A95" s="132"/>
+      <c r="B95" s="107"/>
+      <c r="C95" s="107"/>
       <c r="D95" s="108">
-        <v>0.5625</v>
+        <v>0</v>
       </c>
       <c r="E95" s="108">
-        <v>0.59027777777777779</v>
+        <v>0</v>
       </c>
       <c r="F95" s="108">
         <f t="shared" si="16"/>
-        <v>2.777777777777779E-2</v>
+        <v>0</v>
       </c>
       <c r="H95" s="109" t="s">
         <v>302</v>
       </c>
       <c r="I95" s="108">
         <f>SUMIFS(F90:F104, C90:C104,H95)</f>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
-      <c r="B96" s="107" t="s">
-        <v>376</v>
-      </c>
-      <c r="C96" s="107" t="s">
-        <v>290</v>
-      </c>
+      <c r="A96" s="132"/>
+      <c r="B96" s="107"/>
+      <c r="C96" s="107"/>
       <c r="D96" s="108">
-        <v>0.59027777777777779</v>
+        <v>0</v>
       </c>
       <c r="E96" s="108">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="F96" s="108">
         <f t="shared" si="16"/>
-        <v>3.472222222222221E-2</v>
+        <v>0</v>
       </c>
       <c r="H96" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I96" s="108">
         <f>SUMIFS(F90:F104, C90:C104,H96)</f>
-        <v>4.166666666666663E-2</v>
+        <v>3.4722222222222265E-2</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
-      <c r="B97" s="107" t="s">
-        <v>377</v>
-      </c>
-      <c r="C97" s="107" t="s">
-        <v>290</v>
-      </c>
+      <c r="A97" s="132"/>
+      <c r="B97" s="107"/>
+      <c r="C97" s="107"/>
       <c r="D97" s="108">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="E97" s="108">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="F97" s="108">
         <f t="shared" si="16"/>
-        <v>4.166666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="H97" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I97" s="106">
         <f t="shared" ref="I97" si="19">SUM(I91:I96)</f>
-        <v>0.42708333333333343</v>
+        <v>0.20138888888888895</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
-      <c r="B98" s="107" t="s">
-        <v>303</v>
-      </c>
-      <c r="C98" s="107" t="s">
-        <v>299</v>
-      </c>
+      <c r="A98" s="132"/>
+      <c r="B98" s="107"/>
+      <c r="C98" s="107"/>
       <c r="D98" s="108">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="E98" s="108">
-        <v>0.68055555555555547</v>
+        <v>0</v>
       </c>
       <c r="F98" s="108">
         <f t="shared" si="16"/>
-        <v>1.388888888888884E-2</v>
+        <v>0</v>
       </c>
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
-      <c r="B99" s="107" t="s">
-        <v>375</v>
-      </c>
-      <c r="C99" s="107" t="s">
-        <v>290</v>
-      </c>
+      <c r="A99" s="132"/>
+      <c r="B99" s="107"/>
+      <c r="C99" s="107"/>
       <c r="D99" s="108">
-        <v>0.68055555555555547</v>
+        <v>0</v>
       </c>
       <c r="E99" s="108">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F99" s="108">
         <f t="shared" si="16"/>
-        <v>6.9444444444444531E-2</v>
+        <v>0</v>
       </c>
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
-      <c r="B100" s="107" t="s">
-        <v>378</v>
-      </c>
-      <c r="C100" s="107" t="s">
-        <v>297</v>
-      </c>
+      <c r="A100" s="132"/>
+      <c r="B100" s="107"/>
+      <c r="C100" s="107"/>
       <c r="D100" s="108">
-        <v>0.79166666666666663</v>
+        <v>0</v>
       </c>
       <c r="E100" s="108">
-        <v>0.83333333333333337</v>
+        <v>0</v>
       </c>
       <c r="F100" s="108">
         <f t="shared" si="16"/>
-        <v>4.1666666666666741E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -24324,7 +24217,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -24335,7 +24228,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="129"/>
+      <c r="A103" s="132"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -24346,7 +24239,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="130"/>
+      <c r="A104" s="133"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -24357,7 +24250,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="131" t="s">
+      <c r="A105" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -24384,7 +24277,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="131"/>
+      <c r="A106" s="134"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -24410,7 +24303,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131"/>
+      <c r="A107" s="134"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -24436,7 +24329,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -24462,7 +24355,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -24488,7 +24381,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -24514,7 +24407,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -24540,7 +24433,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -24566,7 +24459,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -24586,7 +24479,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -24598,7 +24491,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -24609,7 +24502,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -24620,7 +24513,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -24631,7 +24524,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="131"/>
+      <c r="A118" s="134"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -24642,7 +24535,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="132"/>
+      <c r="A119" s="135"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -24653,7 +24546,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="133" t="s">
+      <c r="A120" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -24680,7 +24573,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="133"/>
+      <c r="A121" s="136"/>
       <c r="B121" s="115" t="s">
         <v>472</v>
       </c>
@@ -24706,7 +24599,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133"/>
+      <c r="A122" s="136"/>
       <c r="B122" s="107" t="s">
         <v>301</v>
       </c>
@@ -24732,7 +24625,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="107" t="s">
         <v>473</v>
       </c>
@@ -24758,7 +24651,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="107" t="s">
         <v>310</v>
       </c>
@@ -24784,7 +24677,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="107" t="s">
         <v>459</v>
       </c>
@@ -24810,7 +24703,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="107" t="s">
         <v>303</v>
       </c>
@@ -24836,7 +24729,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="107" t="s">
         <v>455</v>
       </c>
@@ -24862,7 +24755,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="107" t="s">
         <v>296</v>
       </c>
@@ -24882,7 +24775,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115" t="s">
         <v>474</v>
       </c>
@@ -24902,7 +24795,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="B130" s="115"/>
       <c r="C130" s="107"/>
       <c r="D130" s="108"/>
@@ -24913,7 +24806,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="115"/>
       <c r="C131" s="107"/>
       <c r="D131" s="108"/>
@@ -24924,7 +24817,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -24935,7 +24828,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -24946,7 +24839,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="133"/>
+      <c r="A134" s="136"/>
       <c r="B134" s="117"/>
       <c r="C134" s="124"/>
       <c r="D134" s="125"/>
@@ -25115,8 +25008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9EFCF2-B647-4263-9741-7AEEC9FEC381}">
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94:E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25155,7 +25048,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -25185,7 +25078,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>476</v>
       </c>
@@ -25214,7 +25107,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>301</v>
       </c>
@@ -25243,7 +25136,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>477</v>
       </c>
@@ -25272,7 +25165,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>450</v>
       </c>
@@ -25301,7 +25194,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
         <v>467</v>
       </c>
@@ -25330,7 +25223,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107" t="s">
         <v>314</v>
       </c>
@@ -25356,7 +25249,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107" t="s">
         <v>478</v>
       </c>
@@ -25382,7 +25275,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="107" t="s">
         <v>303</v>
       </c>
@@ -25402,7 +25295,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107" t="s">
         <v>479</v>
       </c>
@@ -25422,7 +25315,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107" t="s">
         <v>480</v>
       </c>
@@ -25441,7 +25334,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -25452,7 +25345,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -25463,7 +25356,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -25474,7 +25367,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -25485,7 +25378,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -25512,7 +25405,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="107" t="s">
         <v>301</v>
       </c>
@@ -25538,7 +25431,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>482</v>
       </c>
@@ -25564,7 +25457,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>450</v>
       </c>
@@ -25590,7 +25483,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
         <v>407</v>
       </c>
@@ -25616,7 +25509,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
         <v>483</v>
       </c>
@@ -25642,7 +25535,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107" t="s">
         <v>303</v>
       </c>
@@ -25668,7 +25561,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107" t="s">
         <v>314</v>
       </c>
@@ -25694,7 +25587,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107" t="s">
         <v>484</v>
       </c>
@@ -25714,7 +25607,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -25725,7 +25618,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -25736,7 +25629,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -25747,7 +25640,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129" t="s">
+      <c r="A29" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="107" t="s">
@@ -25774,7 +25667,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107" t="s">
         <v>404</v>
       </c>
@@ -25800,7 +25693,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129"/>
+      <c r="A31" s="132"/>
       <c r="B31" s="107" t="s">
         <v>301</v>
       </c>
@@ -25826,7 +25719,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="107" t="s">
         <v>479</v>
       </c>
@@ -25852,7 +25745,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="107" t="s">
         <v>450</v>
       </c>
@@ -25878,7 +25771,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>298</v>
       </c>
@@ -25904,7 +25797,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>314</v>
       </c>
@@ -25930,7 +25823,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="107" t="s">
         <v>486</v>
       </c>
@@ -25956,7 +25849,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>303</v>
       </c>
@@ -25976,7 +25869,7 @@
       <c r="I37" s="110"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107" t="s">
         <v>480</v>
       </c>
@@ -25996,7 +25889,7 @@
       <c r="I38" s="110"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107" t="s">
         <v>487</v>
       </c>
@@ -26015,7 +25908,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107" t="s">
         <v>488</v>
       </c>
@@ -26034,7 +25927,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="108"/>
@@ -26045,7 +25938,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -26056,7 +25949,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -26067,7 +25960,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129" t="s">
+      <c r="A44" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B44" s="107" t="s">
@@ -26094,7 +25987,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107" t="s">
         <v>301</v>
       </c>
@@ -26120,7 +26013,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129"/>
+      <c r="A46" s="132"/>
       <c r="B46" s="107" t="s">
         <v>490</v>
       </c>
@@ -26146,7 +26039,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
         <v>450</v>
       </c>
@@ -26172,7 +26065,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>407</v>
       </c>
@@ -26198,7 +26091,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>296</v>
       </c>
@@ -26224,7 +26117,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
         <v>491</v>
       </c>
@@ -26250,7 +26143,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107" t="s">
         <v>303</v>
       </c>
@@ -26276,7 +26169,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107" t="s">
         <v>492</v>
       </c>
@@ -26296,7 +26189,7 @@
       <c r="I52" s="110"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107" t="s">
         <v>493</v>
       </c>
@@ -26316,7 +26209,7 @@
       <c r="I53" s="110"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -26327,7 +26220,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -26338,7 +26231,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -26349,7 +26242,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -26360,7 +26253,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129" t="s">
+      <c r="A58" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="107" t="s">
@@ -26387,7 +26280,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107" t="s">
         <v>403</v>
       </c>
@@ -26413,7 +26306,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129"/>
+      <c r="A60" s="132"/>
       <c r="B60" s="107" t="s">
         <v>368</v>
       </c>
@@ -26439,7 +26332,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
         <v>450</v>
       </c>
@@ -26465,7 +26358,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="107" t="s">
         <v>310</v>
       </c>
@@ -26491,7 +26384,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>494</v>
       </c>
@@ -26517,7 +26410,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>314</v>
       </c>
@@ -26543,7 +26436,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>495</v>
       </c>
@@ -26569,7 +26462,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107" t="s">
         <v>368</v>
       </c>
@@ -26590,7 +26483,7 @@
       <c r="I66" s="106"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107" t="s">
         <v>496</v>
       </c>
@@ -26610,7 +26503,7 @@
       <c r="I67" s="110"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107" t="s">
         <v>497</v>
       </c>
@@ -26630,7 +26523,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -26641,7 +26534,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -26652,7 +26545,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -26663,7 +26556,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -26674,7 +26567,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -26685,7 +26578,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129" t="s">
+      <c r="A74" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B74" s="107" t="s">
@@ -26712,7 +26605,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129"/>
+      <c r="A75" s="132"/>
       <c r="B75" s="107" t="s">
         <v>301</v>
       </c>
@@ -26738,7 +26631,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
         <v>498</v>
       </c>
@@ -26764,7 +26657,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="107" t="s">
         <v>499</v>
       </c>
@@ -26790,7 +26683,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
         <v>371</v>
       </c>
@@ -26816,7 +26709,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
         <v>373</v>
       </c>
@@ -26842,7 +26735,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
         <v>368</v>
       </c>
@@ -26868,7 +26761,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
         <v>373</v>
       </c>
@@ -26894,7 +26787,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="107" t="s">
         <v>314</v>
       </c>
@@ -26914,7 +26807,7 @@
       <c r="I82" s="110"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
         <v>371</v>
       </c>
@@ -26934,7 +26827,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="107" t="s">
         <v>374</v>
       </c>
@@ -26953,7 +26846,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
+      <c r="A85" s="132"/>
       <c r="B85" s="107"/>
       <c r="C85" s="107"/>
       <c r="D85" s="108"/>
@@ -26964,7 +26857,7 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
+      <c r="A86" s="132"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -26975,7 +26868,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
+      <c r="A87" s="132"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107" t="s">
         <v>290</v>
@@ -26992,7 +26885,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107" t="s">
         <v>290</v>
@@ -27009,7 +26902,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="129" t="s">
+      <c r="A89" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B89" s="107" t="s">
@@ -27036,7 +26929,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="129"/>
+      <c r="A90" s="132"/>
       <c r="B90" s="107" t="s">
         <v>301</v>
       </c>
@@ -27058,11 +26951,11 @@
       </c>
       <c r="I90" s="108">
         <f>SUMIFS(F87:F101, C87:C101,H90)</f>
-        <v>0.28472222222222227</v>
+        <v>0.21527777777777773</v>
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="107" t="s">
         <v>375</v>
       </c>
@@ -27088,7 +26981,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="129"/>
+      <c r="A92" s="132"/>
       <c r="B92" s="107" t="s">
         <v>375</v>
       </c>
@@ -27110,17 +27003,15 @@
       </c>
       <c r="I92" s="108">
         <f>SUMIFS(F87:F101, C87:C101,H92)</f>
-        <v>7.6388888888888951E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
+      <c r="A93" s="132"/>
       <c r="B93" s="107" t="s">
         <v>310</v>
       </c>
-      <c r="C93" s="107" t="s">
-        <v>299</v>
-      </c>
+      <c r="C93" s="107"/>
       <c r="D93" s="108">
         <v>0.59027777777777779</v>
       </c>
@@ -27140,22 +27031,18 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
-      <c r="B94" s="107" t="s">
-        <v>403</v>
-      </c>
-      <c r="C94" s="107" t="s">
-        <v>297</v>
-      </c>
+      <c r="A94" s="132"/>
+      <c r="B94" s="107"/>
+      <c r="C94" s="107"/>
       <c r="D94" s="108">
-        <v>0.63194444444444442</v>
+        <v>0</v>
       </c>
       <c r="E94" s="108">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="F94" s="108">
         <f t="shared" si="14"/>
-        <v>3.472222222222221E-2</v>
+        <v>0</v>
       </c>
       <c r="H94" s="109" t="s">
         <v>302</v>
@@ -27166,82 +27053,68 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
-      <c r="B95" s="107" t="s">
-        <v>376</v>
-      </c>
-      <c r="C95" s="107" t="s">
-        <v>299</v>
-      </c>
+      <c r="A95" s="132"/>
+      <c r="B95" s="107"/>
+      <c r="C95" s="107"/>
       <c r="D95" s="108">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="E95" s="108">
-        <v>0.68055555555555547</v>
+        <v>0</v>
       </c>
       <c r="F95" s="108">
         <f t="shared" si="14"/>
-        <v>1.388888888888884E-2</v>
+        <v>0</v>
       </c>
       <c r="H95" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I95" s="108">
         <f>SUMIFS(F87:F101, C87:C101,H95)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>3.4722222222222265E-2</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
-      <c r="B96" s="107" t="s">
-        <v>377</v>
-      </c>
-      <c r="C96" s="107" t="s">
-        <v>290</v>
-      </c>
+      <c r="A96" s="132"/>
+      <c r="B96" s="107"/>
+      <c r="C96" s="107"/>
       <c r="D96" s="108">
-        <v>0.68055555555555547</v>
+        <v>0</v>
       </c>
       <c r="E96" s="108">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F96" s="108">
         <f t="shared" si="14"/>
-        <v>6.9444444444444531E-2</v>
+        <v>0</v>
       </c>
       <c r="H96" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I96" s="106">
         <f t="shared" ref="I96" si="16">SUM(I90:I95)</f>
-        <v>0.44444444444444453</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
-      <c r="B97" s="107" t="s">
-        <v>303</v>
-      </c>
-      <c r="C97" s="107" t="s">
-        <v>297</v>
-      </c>
+      <c r="A97" s="132"/>
+      <c r="B97" s="107"/>
+      <c r="C97" s="107"/>
       <c r="D97" s="108">
-        <v>0.79166666666666663</v>
+        <v>0</v>
       </c>
       <c r="E97" s="108">
-        <v>0.83333333333333337</v>
+        <v>0</v>
       </c>
       <c r="F97" s="108">
         <f t="shared" si="14"/>
-        <v>4.1666666666666741E-2</v>
+        <v>0</v>
       </c>
       <c r="I97" s="110"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
-      <c r="B98" s="107" t="s">
-        <v>375</v>
-      </c>
+      <c r="A98" s="132"/>
+      <c r="B98" s="107"/>
       <c r="C98" s="107"/>
       <c r="D98" s="108"/>
       <c r="E98" s="108"/>
@@ -27252,10 +27125,8 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
-      <c r="B99" s="107" t="s">
-        <v>378</v>
-      </c>
+      <c r="A99" s="132"/>
+      <c r="B99" s="107"/>
       <c r="C99" s="107"/>
       <c r="D99" s="108"/>
       <c r="E99" s="108"/>
@@ -27265,7 +27136,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
+      <c r="A100" s="132"/>
       <c r="B100" s="107"/>
       <c r="C100" s="107"/>
       <c r="D100" s="108"/>
@@ -27276,7 +27147,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -27287,7 +27158,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107" t="s">
         <v>290</v>
@@ -27304,7 +27175,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="130"/>
+      <c r="A103" s="133"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107" t="s">
         <v>295</v>
@@ -27321,7 +27192,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="131" t="s">
+      <c r="A104" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B104" s="107" t="s">
@@ -27348,7 +27219,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="131"/>
+      <c r="A105" s="134"/>
       <c r="B105" s="107" t="s">
         <v>331</v>
       </c>
@@ -27374,7 +27245,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="131"/>
+      <c r="A106" s="134"/>
       <c r="B106" s="107" t="s">
         <v>294</v>
       </c>
@@ -27400,7 +27271,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131"/>
+      <c r="A107" s="134"/>
       <c r="B107" s="107" t="s">
         <v>331</v>
       </c>
@@ -27426,7 +27297,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="107" t="s">
         <v>298</v>
       </c>
@@ -27452,7 +27323,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="107" t="s">
         <v>301</v>
       </c>
@@ -27478,7 +27349,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="107" t="s">
         <v>303</v>
       </c>
@@ -27504,7 +27375,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="107" t="s">
         <v>315</v>
       </c>
@@ -27524,7 +27395,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="107" t="s">
         <v>332</v>
       </c>
@@ -27538,7 +27409,7 @@
       <c r="I112" s="110"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="107"/>
       <c r="C113" s="107"/>
       <c r="D113" s="108"/>
@@ -27550,7 +27421,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -27561,7 +27432,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -27572,7 +27443,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -27583,7 +27454,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -27594,7 +27465,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="132"/>
+      <c r="A118" s="135"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -27605,7 +27476,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="133" t="s">
+      <c r="A119" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B119" s="115" t="s">
@@ -27632,7 +27503,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="133"/>
+      <c r="A120" s="136"/>
       <c r="B120" s="115" t="s">
         <v>500</v>
       </c>
@@ -27658,7 +27529,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="133"/>
+      <c r="A121" s="136"/>
       <c r="B121" s="107" t="s">
         <v>301</v>
       </c>
@@ -27684,7 +27555,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133"/>
+      <c r="A122" s="136"/>
       <c r="B122" s="107" t="s">
         <v>501</v>
       </c>
@@ -27710,7 +27581,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="107" t="s">
         <v>502</v>
       </c>
@@ -27736,7 +27607,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="107" t="s">
         <v>310</v>
       </c>
@@ -27762,7 +27633,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="107" t="s">
         <v>503</v>
       </c>
@@ -27788,7 +27659,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="107" t="s">
         <v>303</v>
       </c>
@@ -27814,7 +27685,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="107" t="s">
         <v>504</v>
       </c>
@@ -27834,7 +27705,7 @@
       <c r="I127" s="110"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="107" t="s">
         <v>296</v>
       </c>
@@ -27854,7 +27725,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115" t="s">
         <v>505</v>
       </c>
@@ -27873,7 +27744,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="C130" s="111"/>
       <c r="D130" s="112"/>
       <c r="E130" s="112"/>
@@ -27883,7 +27754,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="115"/>
       <c r="C131" s="113"/>
       <c r="D131" s="114"/>
@@ -27894,7 +27765,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="116"/>
       <c r="C132" s="111"/>
       <c r="D132" s="112"/>
@@ -27905,7 +27776,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="117"/>
       <c r="C133" s="113"/>
       <c r="D133" s="114"/>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9E2CB59-32BB-4C27-8DAA-17420C1776BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2889049B-64E9-43F9-A2BA-30EDC82CDF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="19" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="513">
   <si>
     <t>Resource Name</t>
   </si>
@@ -2505,7 +2505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2841,6 +2841,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2856,10 +2859,6 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7424,7 +7423,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -7451,7 +7450,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>293</v>
       </c>
@@ -7477,7 +7476,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>294</v>
       </c>
@@ -7503,7 +7502,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>296</v>
       </c>
@@ -7529,7 +7528,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>298</v>
       </c>
@@ -7555,7 +7554,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
         <v>301</v>
       </c>
@@ -7581,7 +7580,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107" t="s">
         <v>303</v>
       </c>
@@ -7607,7 +7606,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107" t="s">
         <v>304</v>
       </c>
@@ -7633,7 +7632,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="107" t="s">
         <v>306</v>
       </c>
@@ -7653,7 +7652,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -7665,7 +7664,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -7676,7 +7675,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -7687,7 +7686,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -7698,7 +7697,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -7709,7 +7708,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -7720,7 +7719,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -7747,7 +7746,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="107" t="s">
         <v>308</v>
       </c>
@@ -7773,7 +7772,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -7799,7 +7798,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>309</v>
       </c>
@@ -7825,7 +7824,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
         <v>294</v>
       </c>
@@ -7851,7 +7850,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
         <v>310</v>
       </c>
@@ -7877,7 +7876,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107" t="s">
         <v>296</v>
       </c>
@@ -7903,7 +7902,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107" t="s">
         <v>311</v>
       </c>
@@ -7929,7 +7928,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107" t="s">
         <v>312</v>
       </c>
@@ -7949,7 +7948,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -7961,7 +7960,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -7972,7 +7971,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -7983,7 +7982,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -7994,7 +7993,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -8005,7 +8004,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129"/>
+      <c r="A31" s="132"/>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="108"/>
@@ -8016,7 +8015,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129" t="s">
+      <c r="A32" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="107" t="s">
@@ -8043,7 +8042,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="107" t="s">
         <v>313</v>
       </c>
@@ -8069,7 +8068,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>301</v>
       </c>
@@ -8095,7 +8094,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>313</v>
       </c>
@@ -8121,7 +8120,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="107" t="s">
         <v>294</v>
       </c>
@@ -8147,7 +8146,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>310</v>
       </c>
@@ -8173,7 +8172,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107" t="s">
         <v>314</v>
       </c>
@@ -8199,7 +8198,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107" t="s">
         <v>315</v>
       </c>
@@ -8225,7 +8224,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107" t="s">
         <v>303</v>
       </c>
@@ -8245,7 +8244,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107" t="s">
         <v>316</v>
       </c>
@@ -8265,7 +8264,7 @@
       <c r="I41" s="110"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -8276,7 +8275,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107" t="s">
         <v>317</v>
       </c>
@@ -8289,7 +8288,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -8300,7 +8299,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -8311,7 +8310,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129"/>
+      <c r="A46" s="132"/>
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
       <c r="D46" s="108"/>
@@ -8322,7 +8321,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129" t="s">
+      <c r="A47" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B47" s="107" t="s">
@@ -8349,7 +8348,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>319</v>
       </c>
@@ -8375,7 +8374,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>320</v>
       </c>
@@ -8401,7 +8400,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
         <v>321</v>
       </c>
@@ -8427,7 +8426,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107" t="s">
         <v>322</v>
       </c>
@@ -8453,7 +8452,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107" t="s">
         <v>323</v>
       </c>
@@ -8479,7 +8478,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107" t="s">
         <v>296</v>
       </c>
@@ -8505,7 +8504,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107" t="s">
         <v>324</v>
       </c>
@@ -8531,7 +8530,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107" t="s">
         <v>325</v>
       </c>
@@ -8551,7 +8550,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107" t="s">
         <v>326</v>
       </c>
@@ -8571,7 +8570,7 @@
       <c r="I56" s="110"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -8582,7 +8581,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -8593,7 +8592,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -8604,7 +8603,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129"/>
+      <c r="A60" s="132"/>
       <c r="B60" s="107"/>
       <c r="C60" s="107"/>
       <c r="D60" s="108"/>
@@ -8615,7 +8614,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107"/>
       <c r="C61" s="107"/>
       <c r="D61" s="108"/>
@@ -8626,7 +8625,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129" t="s">
+      <c r="A62" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="107" t="s">
@@ -8653,7 +8652,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>328</v>
       </c>
@@ -8679,7 +8678,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>301</v>
       </c>
@@ -8705,7 +8704,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>321</v>
       </c>
@@ -8731,7 +8730,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107" t="s">
         <v>294</v>
       </c>
@@ -8757,7 +8756,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107" t="s">
         <v>310</v>
       </c>
@@ -8783,7 +8782,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107" t="s">
         <v>296</v>
       </c>
@@ -8809,7 +8808,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107" t="s">
         <v>329</v>
       </c>
@@ -8835,7 +8834,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107" t="s">
         <v>330</v>
       </c>
@@ -8855,7 +8854,7 @@
       <c r="I70" s="110"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -8867,7 +8866,7 @@
       <c r="I71" s="110"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -8878,7 +8877,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -8889,7 +8888,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -8900,7 +8899,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129"/>
+      <c r="A75" s="132"/>
       <c r="B75" s="107"/>
       <c r="C75" s="107"/>
       <c r="D75" s="108"/>
@@ -8911,7 +8910,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107"/>
       <c r="C76" s="107"/>
       <c r="D76" s="108"/>
@@ -8922,7 +8921,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129" t="s">
+      <c r="A77" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B77" s="107" t="s">
@@ -8949,7 +8948,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
         <v>331</v>
       </c>
@@ -8975,7 +8974,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
         <v>294</v>
       </c>
@@ -9001,7 +9000,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
         <v>331</v>
       </c>
@@ -9027,7 +9026,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
         <v>298</v>
       </c>
@@ -9053,7 +9052,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="107" t="s">
         <v>301</v>
       </c>
@@ -9079,7 +9078,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
         <v>303</v>
       </c>
@@ -9105,7 +9104,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="107" t="s">
         <v>315</v>
       </c>
@@ -9131,7 +9130,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
+      <c r="A85" s="132"/>
       <c r="B85" s="107" t="s">
         <v>332</v>
       </c>
@@ -9151,7 +9150,7 @@
       <c r="I85" s="110"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
+      <c r="A86" s="132"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -9163,7 +9162,7 @@
       <c r="I86" s="110"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
+      <c r="A87" s="132"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107"/>
       <c r="D87" s="108"/>
@@ -9174,7 +9173,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -9185,7 +9184,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="129"/>
+      <c r="A89" s="132"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -9196,7 +9195,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="129"/>
+      <c r="A90" s="132"/>
       <c r="B90" s="107"/>
       <c r="C90" s="107"/>
       <c r="D90" s="108"/>
@@ -9207,7 +9206,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="107"/>
       <c r="C91" s="107"/>
       <c r="D91" s="108"/>
@@ -9218,7 +9217,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="129" t="s">
+      <c r="A92" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B92" s="107" t="s">
@@ -9245,7 +9244,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
+      <c r="A93" s="132"/>
       <c r="B93" s="107" t="s">
         <v>333</v>
       </c>
@@ -9271,7 +9270,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
+      <c r="A94" s="132"/>
       <c r="B94" s="107" t="s">
         <v>301</v>
       </c>
@@ -9297,7 +9296,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
+      <c r="A95" s="132"/>
       <c r="B95" s="107" t="s">
         <v>334</v>
       </c>
@@ -9323,7 +9322,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
+      <c r="A96" s="132"/>
       <c r="B96" s="107" t="s">
         <v>294</v>
       </c>
@@ -9349,7 +9348,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
+      <c r="A97" s="132"/>
       <c r="B97" s="107" t="s">
         <v>310</v>
       </c>
@@ -9375,7 +9374,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
+      <c r="A98" s="132"/>
       <c r="B98" s="107" t="s">
         <v>335</v>
       </c>
@@ -9401,7 +9400,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
+      <c r="A99" s="132"/>
       <c r="B99" s="107" t="s">
         <v>336</v>
       </c>
@@ -9427,7 +9426,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
+      <c r="A100" s="132"/>
       <c r="B100" s="107" t="s">
         <v>337</v>
       </c>
@@ -9447,7 +9446,7 @@
       <c r="I100" s="110"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107" t="s">
         <v>303</v>
       </c>
@@ -9467,7 +9466,7 @@
       <c r="I101" s="110"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107" t="s">
         <v>335</v>
       </c>
@@ -9486,7 +9485,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="129"/>
+      <c r="A103" s="132"/>
       <c r="B103" s="107" t="s">
         <v>338</v>
       </c>
@@ -9505,7 +9504,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="129"/>
+      <c r="A104" s="132"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -9516,7 +9515,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="129"/>
+      <c r="A105" s="132"/>
       <c r="B105" s="107"/>
       <c r="C105" s="107"/>
       <c r="D105" s="108"/>
@@ -9527,7 +9526,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="130"/>
+      <c r="A106" s="133"/>
       <c r="B106" s="107"/>
       <c r="C106" s="107"/>
       <c r="D106" s="108"/>
@@ -9538,7 +9537,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131" t="s">
+      <c r="A107" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B107" s="115" t="s">
@@ -9565,7 +9564,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="115" t="s">
         <v>331</v>
       </c>
@@ -9591,7 +9590,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="115" t="s">
         <v>294</v>
       </c>
@@ -9617,7 +9616,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="115" t="s">
         <v>331</v>
       </c>
@@ -9643,7 +9642,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="115" t="s">
         <v>298</v>
       </c>
@@ -9669,7 +9668,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="115" t="s">
         <v>301</v>
       </c>
@@ -9695,7 +9694,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="115" t="s">
         <v>303</v>
       </c>
@@ -9721,7 +9720,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="115" t="s">
         <v>315</v>
       </c>
@@ -9747,7 +9746,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="115" t="s">
         <v>332</v>
       </c>
@@ -9767,7 +9766,7 @@
       <c r="I115" s="110"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="115"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -9779,7 +9778,7 @@
       <c r="I116" s="110"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="115"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -9790,7 +9789,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="131"/>
+      <c r="A118" s="134"/>
       <c r="B118" s="115"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -9801,7 +9800,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="131"/>
+      <c r="A119" s="134"/>
       <c r="B119" s="115"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -9812,7 +9811,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="131"/>
+      <c r="A120" s="134"/>
       <c r="B120" s="116"/>
       <c r="C120" s="111"/>
       <c r="D120" s="112"/>
@@ -9823,7 +9822,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="132"/>
+      <c r="A121" s="135"/>
       <c r="B121" s="117"/>
       <c r="C121" s="113"/>
       <c r="D121" s="114"/>
@@ -9834,7 +9833,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133" t="s">
+      <c r="A122" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B122" s="115" t="s">
@@ -9861,7 +9860,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="115" t="s">
         <v>341</v>
       </c>
@@ -9887,7 +9886,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="115" t="s">
         <v>320</v>
       </c>
@@ -9913,7 +9912,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="115" t="s">
         <v>342</v>
       </c>
@@ -9939,7 +9938,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="115" t="s">
         <v>322</v>
       </c>
@@ -9965,7 +9964,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="115" t="s">
         <v>323</v>
       </c>
@@ -9991,7 +9990,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="115" t="s">
         <v>343</v>
       </c>
@@ -10017,7 +10016,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115" t="s">
         <v>329</v>
       </c>
@@ -10043,7 +10042,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="B130" s="115" t="s">
         <v>303</v>
       </c>
@@ -10063,7 +10062,7 @@
       <c r="I130" s="110"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="115" t="s">
         <v>329</v>
       </c>
@@ -10083,7 +10082,7 @@
       <c r="I131" s="110"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="115" t="s">
         <v>344</v>
       </c>
@@ -10102,7 +10101,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="115" t="s">
         <v>345</v>
       </c>
@@ -10121,7 +10120,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="133"/>
+      <c r="A134" s="136"/>
       <c r="B134" s="115"/>
       <c r="C134" s="107"/>
       <c r="D134" s="108"/>
@@ -10132,7 +10131,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="133"/>
+      <c r="A135" s="136"/>
       <c r="B135" s="116"/>
       <c r="C135" s="111"/>
       <c r="D135" s="112"/>
@@ -10143,7 +10142,7 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="133"/>
+      <c r="A136" s="136"/>
       <c r="B136" s="117"/>
       <c r="C136" s="113"/>
       <c r="D136" s="114"/>
@@ -10320,7 +10319,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -10350,7 +10349,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>331</v>
       </c>
@@ -10379,7 +10378,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>301</v>
       </c>
@@ -10408,7 +10407,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>347</v>
       </c>
@@ -10437,7 +10436,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>294</v>
       </c>
@@ -10466,7 +10465,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
         <v>298</v>
       </c>
@@ -10495,7 +10494,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107" t="s">
         <v>348</v>
       </c>
@@ -10521,7 +10520,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107" t="s">
         <v>303</v>
       </c>
@@ -10547,7 +10546,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="120" t="s">
         <v>349</v>
       </c>
@@ -10567,7 +10566,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107" t="s">
         <v>350</v>
       </c>
@@ -10587,7 +10586,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107" t="s">
         <v>351</v>
       </c>
@@ -10606,7 +10605,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -10617,7 +10616,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -10628,7 +10627,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -10639,7 +10638,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -10650,7 +10649,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -10677,7 +10676,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="107" t="s">
         <v>331</v>
       </c>
@@ -10703,7 +10702,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -10729,7 +10728,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>353</v>
       </c>
@@ -10755,7 +10754,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
         <v>322</v>
       </c>
@@ -10781,7 +10780,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
         <v>298</v>
       </c>
@@ -10807,7 +10806,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107" t="s">
         <v>354</v>
       </c>
@@ -10833,7 +10832,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107" t="s">
         <v>303</v>
       </c>
@@ -10859,7 +10858,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107" t="s">
         <v>355</v>
       </c>
@@ -10879,7 +10878,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107" t="s">
         <v>314</v>
       </c>
@@ -10899,7 +10898,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107" t="s">
         <v>355</v>
       </c>
@@ -10918,7 +10917,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -10929,7 +10928,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -10940,7 +10939,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -10951,7 +10950,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -10978,7 +10977,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="107" t="s">
         <v>331</v>
       </c>
@@ -11004,7 +11003,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -11030,7 +11029,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>357</v>
       </c>
@@ -11056,7 +11055,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>322</v>
       </c>
@@ -11082,7 +11081,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="107" t="s">
         <v>298</v>
       </c>
@@ -11108,7 +11107,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>358</v>
       </c>
@@ -11134,7 +11133,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107" t="s">
         <v>303</v>
       </c>
@@ -11160,7 +11159,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107" t="s">
         <v>359</v>
       </c>
@@ -11180,7 +11179,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107" t="s">
         <v>314</v>
       </c>
@@ -11200,7 +11199,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107" t="s">
         <v>360</v>
       </c>
@@ -11219,7 +11218,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="107" t="s">
         <v>361</v>
       </c>
@@ -11238,7 +11237,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -11249,7 +11248,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -11260,7 +11259,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -11271,7 +11270,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -11298,7 +11297,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
         <v>331</v>
       </c>
@@ -11324,7 +11323,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>301</v>
       </c>
@@ -11350,7 +11349,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>363</v>
       </c>
@@ -11376,7 +11375,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
         <v>322</v>
       </c>
@@ -11402,7 +11401,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107" t="s">
         <v>298</v>
       </c>
@@ -11428,7 +11427,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107" t="s">
         <v>354</v>
       </c>
@@ -11454,7 +11453,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107" t="s">
         <v>303</v>
       </c>
@@ -11480,7 +11479,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107" t="s">
         <v>364</v>
       </c>
@@ -11500,7 +11499,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107" t="s">
         <v>314</v>
       </c>
@@ -11520,7 +11519,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107" t="s">
         <v>365</v>
       </c>
@@ -11539,7 +11538,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -11550,7 +11549,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -11561,7 +11560,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -11572,7 +11571,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -11599,7 +11598,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
         <v>331</v>
       </c>
@@ -11625,7 +11624,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="107" t="s">
         <v>301</v>
       </c>
@@ -11651,7 +11650,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>366</v>
       </c>
@@ -11677,7 +11676,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>322</v>
       </c>
@@ -11703,7 +11702,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>298</v>
       </c>
@@ -11729,7 +11728,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107" t="s">
         <v>367</v>
       </c>
@@ -11755,7 +11754,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107" t="s">
         <v>368</v>
       </c>
@@ -11781,7 +11780,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107" t="s">
         <v>369</v>
       </c>
@@ -11801,7 +11800,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107" t="s">
         <v>314</v>
       </c>
@@ -11821,7 +11820,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107" t="s">
         <v>370</v>
       </c>
@@ -11840,7 +11839,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -11851,7 +11850,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -11862,7 +11861,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -11873,7 +11872,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -11884,7 +11883,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129" t="s">
+      <c r="A75" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -11911,7 +11910,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
         <v>331</v>
       </c>
@@ -11937,7 +11936,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="107" t="s">
         <v>301</v>
       </c>
@@ -11963,7 +11962,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
         <v>371</v>
       </c>
@@ -11989,7 +11988,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
         <v>372</v>
       </c>
@@ -12015,7 +12014,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
         <v>322</v>
       </c>
@@ -12041,7 +12040,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
         <v>371</v>
       </c>
@@ -12067,7 +12066,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="107" t="s">
         <v>373</v>
       </c>
@@ -12093,7 +12092,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
         <v>368</v>
       </c>
@@ -12113,7 +12112,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="107" t="s">
         <v>373</v>
       </c>
@@ -12133,7 +12132,7 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
+      <c r="A85" s="132"/>
       <c r="B85" s="107" t="s">
         <v>314</v>
       </c>
@@ -12152,7 +12151,7 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
+      <c r="A86" s="132"/>
       <c r="B86" s="107" t="s">
         <v>371</v>
       </c>
@@ -12171,7 +12170,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
+      <c r="A87" s="132"/>
       <c r="B87" s="107" t="s">
         <v>374</v>
       </c>
@@ -12190,7 +12189,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -12201,7 +12200,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="129"/>
+      <c r="A89" s="132"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -12212,7 +12211,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="129" t="s">
+      <c r="A90" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -12239,7 +12238,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="107" t="s">
         <v>375</v>
       </c>
@@ -12265,7 +12264,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="129"/>
+      <c r="A92" s="132"/>
       <c r="B92" s="107" t="s">
         <v>331</v>
       </c>
@@ -12291,7 +12290,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
+      <c r="A93" s="132"/>
       <c r="B93" s="107" t="s">
         <v>375</v>
       </c>
@@ -12317,7 +12316,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
+      <c r="A94" s="132"/>
       <c r="B94" s="107" t="s">
         <v>294</v>
       </c>
@@ -12343,7 +12342,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
+      <c r="A95" s="132"/>
       <c r="B95" s="107" t="s">
         <v>310</v>
       </c>
@@ -12369,7 +12368,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
+      <c r="A96" s="132"/>
       <c r="B96" s="107" t="s">
         <v>376</v>
       </c>
@@ -12395,7 +12394,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
+      <c r="A97" s="132"/>
       <c r="B97" s="107" t="s">
         <v>377</v>
       </c>
@@ -12421,7 +12420,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
+      <c r="A98" s="132"/>
       <c r="B98" s="107" t="s">
         <v>303</v>
       </c>
@@ -12441,7 +12440,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
+      <c r="A99" s="132"/>
       <c r="B99" s="107" t="s">
         <v>375</v>
       </c>
@@ -12461,7 +12460,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
+      <c r="A100" s="132"/>
       <c r="B100" s="107" t="s">
         <v>378</v>
       </c>
@@ -12480,7 +12479,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -12491,7 +12490,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -12502,7 +12501,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="129"/>
+      <c r="A103" s="132"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -12513,7 +12512,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="130"/>
+      <c r="A104" s="133"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -12524,7 +12523,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="131" t="s">
+      <c r="A105" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -12551,7 +12550,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="131"/>
+      <c r="A106" s="134"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -12577,7 +12576,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131"/>
+      <c r="A107" s="134"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -12603,7 +12602,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -12629,7 +12628,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -12655,7 +12654,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -12681,7 +12680,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -12707,7 +12706,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -12733,7 +12732,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -12753,7 +12752,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -12765,7 +12764,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -12776,7 +12775,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -12787,7 +12786,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -12798,7 +12797,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="131"/>
+      <c r="A118" s="134"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -12809,7 +12808,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="132"/>
+      <c r="A119" s="135"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -12820,7 +12819,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="133" t="s">
+      <c r="A120" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -12847,7 +12846,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="133"/>
+      <c r="A121" s="136"/>
       <c r="B121" s="115" t="s">
         <v>380</v>
       </c>
@@ -12873,7 +12872,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133"/>
+      <c r="A122" s="136"/>
       <c r="B122" s="115" t="s">
         <v>301</v>
       </c>
@@ -12899,7 +12898,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="115" t="s">
         <v>381</v>
       </c>
@@ -12925,7 +12924,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="115" t="s">
         <v>382</v>
       </c>
@@ -12951,7 +12950,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="115" t="s">
         <v>302</v>
       </c>
@@ -12977,7 +12976,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="115" t="s">
         <v>310</v>
       </c>
@@ -13003,7 +13002,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="120" t="s">
         <v>383</v>
       </c>
@@ -13029,7 +13028,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="115" t="s">
         <v>303</v>
       </c>
@@ -13049,7 +13048,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115" t="s">
         <v>381</v>
       </c>
@@ -13069,7 +13068,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="B130" s="115" t="s">
         <v>384</v>
       </c>
@@ -13088,7 +13087,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="115" t="s">
         <v>385</v>
       </c>
@@ -13107,7 +13106,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -13118,7 +13117,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -13129,7 +13128,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="133"/>
+      <c r="A134" s="136"/>
       <c r="B134" s="117"/>
       <c r="C134" s="113"/>
       <c r="D134" s="114"/>
@@ -13641,8 +13640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E469F2C2-993F-4F48-8C74-266B916F6309}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13681,7 +13680,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -13711,7 +13710,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>331</v>
       </c>
@@ -13740,7 +13739,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>301</v>
       </c>
@@ -13769,7 +13768,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>351</v>
       </c>
@@ -13798,7 +13797,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>294</v>
       </c>
@@ -13827,7 +13826,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
         <v>298</v>
       </c>
@@ -13856,7 +13855,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107" t="s">
         <v>348</v>
       </c>
@@ -13882,7 +13881,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107" t="s">
         <v>303</v>
       </c>
@@ -13908,7 +13907,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="120" t="s">
         <v>349</v>
       </c>
@@ -13928,7 +13927,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107" t="s">
         <v>350</v>
       </c>
@@ -13948,7 +13947,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107" t="s">
         <v>351</v>
       </c>
@@ -13967,7 +13966,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -13978,7 +13977,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -13989,7 +13988,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -14000,7 +13999,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -14011,7 +14010,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -14038,7 +14037,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="107" t="s">
         <v>331</v>
       </c>
@@ -14064,7 +14063,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -14090,7 +14089,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>352</v>
       </c>
@@ -14116,7 +14115,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
         <v>298</v>
       </c>
@@ -14142,7 +14141,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
         <v>294</v>
       </c>
@@ -14168,7 +14167,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107" t="s">
         <v>386</v>
       </c>
@@ -14194,7 +14193,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107" t="s">
         <v>303</v>
       </c>
@@ -14220,7 +14219,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107" t="s">
         <v>387</v>
       </c>
@@ -14240,7 +14239,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107" t="s">
         <v>314</v>
       </c>
@@ -14260,7 +14259,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107" t="s">
         <v>388</v>
       </c>
@@ -14279,7 +14278,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -14290,7 +14289,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -14301,7 +14300,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -14312,7 +14311,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -14339,7 +14338,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="107" t="s">
         <v>331</v>
       </c>
@@ -14365,7 +14364,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -14391,7 +14390,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>389</v>
       </c>
@@ -14417,7 +14416,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>322</v>
       </c>
@@ -14443,7 +14442,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="107" t="s">
         <v>298</v>
       </c>
@@ -14469,7 +14468,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>358</v>
       </c>
@@ -14495,7 +14494,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107" t="s">
         <v>303</v>
       </c>
@@ -14521,7 +14520,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107" t="s">
         <v>359</v>
       </c>
@@ -14541,7 +14540,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107" t="s">
         <v>314</v>
       </c>
@@ -14561,7 +14560,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107" t="s">
         <v>360</v>
       </c>
@@ -14580,7 +14579,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="107" t="s">
         <v>361</v>
       </c>
@@ -14599,7 +14598,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -14610,7 +14609,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -14621,7 +14620,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -14632,7 +14631,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -14659,7 +14658,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
         <v>331</v>
       </c>
@@ -14685,7 +14684,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>301</v>
       </c>
@@ -14711,7 +14710,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>390</v>
       </c>
@@ -14737,7 +14736,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
         <v>298</v>
       </c>
@@ -14763,7 +14762,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107" t="s">
         <v>294</v>
       </c>
@@ -14789,7 +14788,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107" t="s">
         <v>386</v>
       </c>
@@ -14815,7 +14814,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107" t="s">
         <v>303</v>
       </c>
@@ -14841,7 +14840,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107" t="s">
         <v>391</v>
       </c>
@@ -14861,7 +14860,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107" t="s">
         <v>314</v>
       </c>
@@ -14881,7 +14880,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107" t="s">
         <v>392</v>
       </c>
@@ -14900,7 +14899,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -14911,7 +14910,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -14922,7 +14921,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -14933,7 +14932,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -14960,7 +14959,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
         <v>331</v>
       </c>
@@ -14986,7 +14985,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="107" t="s">
         <v>301</v>
       </c>
@@ -15012,7 +15011,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>366</v>
       </c>
@@ -15038,7 +15037,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>322</v>
       </c>
@@ -15064,7 +15063,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>298</v>
       </c>
@@ -15090,7 +15089,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107" t="s">
         <v>391</v>
       </c>
@@ -15116,7 +15115,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107" t="s">
         <v>368</v>
       </c>
@@ -15142,7 +15141,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107" t="s">
         <v>394</v>
       </c>
@@ -15162,7 +15161,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107" t="s">
         <v>314</v>
       </c>
@@ -15182,7 +15181,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107" t="s">
         <v>395</v>
       </c>
@@ -15201,7 +15200,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -15212,7 +15211,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -15223,7 +15222,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -15234,7 +15233,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -15245,7 +15244,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129" t="s">
+      <c r="A75" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -15272,7 +15271,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
         <v>331</v>
       </c>
@@ -15298,7 +15297,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="107" t="s">
         <v>301</v>
       </c>
@@ -15324,7 +15323,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
         <v>373</v>
       </c>
@@ -15350,7 +15349,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
         <v>372</v>
       </c>
@@ -15376,7 +15375,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
         <v>371</v>
       </c>
@@ -15402,7 +15401,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
         <v>373</v>
       </c>
@@ -15428,7 +15427,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="107" t="s">
         <v>368</v>
       </c>
@@ -15454,7 +15453,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
         <v>373</v>
       </c>
@@ -15474,7 +15473,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="107" t="s">
         <v>314</v>
       </c>
@@ -15494,7 +15493,7 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
+      <c r="A85" s="132"/>
       <c r="B85" s="107" t="s">
         <v>371</v>
       </c>
@@ -15514,7 +15513,7 @@
       <c r="G85" s="110"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
+      <c r="A86" s="132"/>
       <c r="B86" s="107" t="s">
         <v>396</v>
       </c>
@@ -15533,10 +15532,10 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
+      <c r="A87" s="132"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -15547,7 +15546,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="129"/>
+      <c r="A89" s="132"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -15558,7 +15557,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="129" t="s">
+      <c r="A90" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -15585,7 +15584,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="107" t="s">
         <v>375</v>
       </c>
@@ -15611,7 +15610,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="129"/>
+      <c r="A92" s="132"/>
       <c r="B92" s="107" t="s">
         <v>331</v>
       </c>
@@ -15637,7 +15636,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
+      <c r="A93" s="132"/>
       <c r="B93" s="107" t="s">
         <v>375</v>
       </c>
@@ -15663,7 +15662,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
+      <c r="A94" s="132"/>
       <c r="B94" s="107" t="s">
         <v>294</v>
       </c>
@@ -15689,7 +15688,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
+      <c r="A95" s="132"/>
       <c r="B95" s="107" t="s">
         <v>310</v>
       </c>
@@ -15715,7 +15714,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
+      <c r="A96" s="132"/>
       <c r="B96" s="107" t="s">
         <v>376</v>
       </c>
@@ -15741,7 +15740,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
+      <c r="A97" s="132"/>
       <c r="B97" s="107" t="s">
         <v>377</v>
       </c>
@@ -15767,7 +15766,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
+      <c r="A98" s="132"/>
       <c r="B98" s="107" t="s">
         <v>303</v>
       </c>
@@ -15787,7 +15786,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
+      <c r="A99" s="132"/>
       <c r="B99" s="107" t="s">
         <v>375</v>
       </c>
@@ -15807,7 +15806,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
+      <c r="A100" s="132"/>
       <c r="B100" s="107" t="s">
         <v>378</v>
       </c>
@@ -15826,7 +15825,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -15837,7 +15836,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -15848,7 +15847,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="129"/>
+      <c r="A103" s="132"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -15859,7 +15858,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="130"/>
+      <c r="A104" s="133"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -15870,7 +15869,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="131" t="s">
+      <c r="A105" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -15897,7 +15896,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="131"/>
+      <c r="A106" s="134"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -15923,7 +15922,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131"/>
+      <c r="A107" s="134"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -15949,7 +15948,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -15975,7 +15974,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -16001,7 +16000,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -16027,7 +16026,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -16053,7 +16052,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -16079,7 +16078,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -16099,7 +16098,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -16111,7 +16110,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -16122,7 +16121,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -16133,7 +16132,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -16144,7 +16143,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="131"/>
+      <c r="A118" s="134"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -16155,7 +16154,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="132"/>
+      <c r="A119" s="135"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -16166,7 +16165,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="133" t="s">
+      <c r="A120" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -16193,7 +16192,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="133"/>
+      <c r="A121" s="136"/>
       <c r="B121" s="115" t="s">
         <v>380</v>
       </c>
@@ -16219,7 +16218,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133"/>
+      <c r="A122" s="136"/>
       <c r="B122" s="115" t="s">
         <v>301</v>
       </c>
@@ -16245,7 +16244,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="115" t="s">
         <v>381</v>
       </c>
@@ -16271,7 +16270,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="115" t="s">
         <v>382</v>
       </c>
@@ -16297,7 +16296,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="115" t="s">
         <v>310</v>
       </c>
@@ -16323,7 +16322,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="107" t="s">
         <v>294</v>
       </c>
@@ -16349,7 +16348,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="120" t="s">
         <v>383</v>
       </c>
@@ -16375,7 +16374,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="115" t="s">
         <v>303</v>
       </c>
@@ -16395,7 +16394,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115" t="s">
         <v>398</v>
       </c>
@@ -16415,7 +16414,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="B130" s="115" t="s">
         <v>399</v>
       </c>
@@ -16434,7 +16433,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="115" t="s">
         <v>398</v>
       </c>
@@ -16453,7 +16452,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -16464,7 +16463,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -16475,7 +16474,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="133"/>
+      <c r="A134" s="136"/>
       <c r="B134" s="117"/>
       <c r="C134" s="113"/>
       <c r="D134" s="114"/>
@@ -16640,8 +16639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30934AA5-FE34-4D93-9147-E487E171875A}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16680,7 +16679,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -16710,7 +16709,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>298</v>
       </c>
@@ -16739,7 +16738,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>351</v>
       </c>
@@ -16768,7 +16767,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>303</v>
       </c>
@@ -16797,7 +16796,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>401</v>
       </c>
@@ -16826,7 +16825,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107"/>
       <c r="C7" s="107"/>
       <c r="D7" s="108"/>
@@ -16847,7 +16846,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107"/>
       <c r="C8" s="107"/>
       <c r="D8" s="108"/>
@@ -16865,7 +16864,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107"/>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -16883,7 +16882,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="120"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108"/>
@@ -16895,7 +16894,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -16907,7 +16906,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -16918,7 +16917,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -16929,7 +16928,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -16940,7 +16939,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -16951,7 +16950,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -16962,7 +16961,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -16989,7 +16988,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="107" t="s">
         <v>403</v>
       </c>
@@ -17015,7 +17014,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>314</v>
       </c>
@@ -17041,7 +17040,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>404</v>
       </c>
@@ -17067,7 +17066,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
         <v>405</v>
       </c>
@@ -17093,7 +17092,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
         <v>406</v>
       </c>
@@ -17119,7 +17118,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107"/>
       <c r="C23" s="107"/>
       <c r="D23" s="108"/>
@@ -17137,7 +17136,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107"/>
       <c r="C24" s="107"/>
       <c r="D24" s="108"/>
@@ -17155,7 +17154,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107"/>
       <c r="C25" s="107"/>
       <c r="D25" s="108"/>
@@ -17167,7 +17166,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -17179,7 +17178,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -17190,7 +17189,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -17201,7 +17200,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -17212,7 +17211,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -17223,7 +17222,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -17250,7 +17249,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="107" t="s">
         <v>387</v>
       </c>
@@ -17276,7 +17275,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -17302,7 +17301,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>408</v>
       </c>
@@ -17328,7 +17327,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>409</v>
       </c>
@@ -17354,7 +17353,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="107" t="s">
         <v>314</v>
       </c>
@@ -17380,7 +17379,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>410</v>
       </c>
@@ -17406,7 +17405,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107" t="s">
         <v>411</v>
       </c>
@@ -17432,7 +17431,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107" t="s">
         <v>374</v>
       </c>
@@ -17452,7 +17451,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107" t="s">
         <v>412</v>
       </c>
@@ -17472,7 +17471,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107" t="s">
         <v>361</v>
       </c>
@@ -17491,7 +17490,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" t="s">
         <v>413</v>
       </c>
@@ -17510,7 +17509,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -17521,7 +17520,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -17532,7 +17531,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -17543,7 +17542,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -17570,7 +17569,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
         <v>414</v>
       </c>
@@ -17596,7 +17595,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>404</v>
       </c>
@@ -17622,7 +17621,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>314</v>
       </c>
@@ -17648,7 +17647,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
         <v>405</v>
       </c>
@@ -17674,7 +17673,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107"/>
       <c r="C51" s="107"/>
       <c r="D51" s="108"/>
@@ -17692,7 +17691,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107"/>
       <c r="C52" s="107"/>
       <c r="D52" s="108"/>
@@ -17710,7 +17709,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107"/>
       <c r="C53" s="107"/>
       <c r="D53" s="108"/>
@@ -17728,7 +17727,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -17740,7 +17739,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -17752,7 +17751,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -17763,7 +17762,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -17774,7 +17773,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -17785,7 +17784,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -17796,7 +17795,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -17823,7 +17822,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
         <v>416</v>
       </c>
@@ -17849,7 +17848,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="107" t="s">
         <v>417</v>
       </c>
@@ -17875,7 +17874,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>314</v>
       </c>
@@ -17901,7 +17900,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>298</v>
       </c>
@@ -17927,7 +17926,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>418</v>
       </c>
@@ -17953,7 +17952,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107" t="s">
         <v>419</v>
       </c>
@@ -17979,7 +17978,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107" t="s">
         <v>420</v>
       </c>
@@ -18005,7 +18004,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107"/>
       <c r="C68" s="107"/>
       <c r="D68" s="108"/>
@@ -18017,7 +18016,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -18029,7 +18028,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -18040,7 +18039,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -18051,7 +18050,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -18062,7 +18061,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -18073,7 +18072,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -18084,7 +18083,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129" t="s">
+      <c r="A75" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -18111,7 +18110,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
         <v>301</v>
       </c>
@@ -18137,7 +18136,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="107" t="s">
         <v>371</v>
       </c>
@@ -18163,7 +18162,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
         <v>372</v>
       </c>
@@ -18189,7 +18188,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
         <v>371</v>
       </c>
@@ -18215,7 +18214,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
         <v>373</v>
       </c>
@@ -18241,7 +18240,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
         <v>368</v>
       </c>
@@ -18267,7 +18266,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="107" t="s">
         <v>373</v>
       </c>
@@ -18293,7 +18292,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
         <v>314</v>
       </c>
@@ -18313,7 +18312,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="107" t="s">
         <v>371</v>
       </c>
@@ -18333,7 +18332,7 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
+      <c r="A85" s="132"/>
       <c r="B85" s="107" t="s">
         <v>374</v>
       </c>
@@ -18352,7 +18351,7 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
+      <c r="A86" s="132"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -18363,7 +18362,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
+      <c r="A87" s="132"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107"/>
       <c r="D87" s="108"/>
@@ -18374,7 +18373,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -18385,7 +18384,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="129"/>
+      <c r="A89" s="132"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -18396,7 +18395,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="129" t="s">
+      <c r="A90" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -18423,7 +18422,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="107"/>
       <c r="C91" s="107"/>
       <c r="D91" s="108">
@@ -18445,7 +18444,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="129"/>
+      <c r="A92" s="132"/>
       <c r="B92" s="107"/>
       <c r="C92" s="107"/>
       <c r="D92" s="108">
@@ -18467,7 +18466,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
+      <c r="A93" s="132"/>
       <c r="B93" s="107"/>
       <c r="C93" s="107"/>
       <c r="D93" s="108">
@@ -18489,7 +18488,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
+      <c r="A94" s="132"/>
       <c r="B94" s="107"/>
       <c r="C94" s="107"/>
       <c r="D94" s="108">
@@ -18511,7 +18510,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
+      <c r="A95" s="132"/>
       <c r="B95" s="107"/>
       <c r="C95" s="107"/>
       <c r="D95" s="108">
@@ -18533,7 +18532,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
+      <c r="A96" s="132"/>
       <c r="B96" s="107"/>
       <c r="C96" s="107"/>
       <c r="D96" s="108">
@@ -18555,7 +18554,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
+      <c r="A97" s="132"/>
       <c r="B97" s="107"/>
       <c r="C97" s="107"/>
       <c r="D97" s="108">
@@ -18577,7 +18576,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
+      <c r="A98" s="132"/>
       <c r="B98" s="107"/>
       <c r="C98" s="107"/>
       <c r="D98" s="108">
@@ -18593,7 +18592,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
+      <c r="A99" s="132"/>
       <c r="B99" s="107"/>
       <c r="C99" s="107"/>
       <c r="D99" s="108">
@@ -18609,7 +18608,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
+      <c r="A100" s="132"/>
       <c r="B100" s="107"/>
       <c r="C100" s="107"/>
       <c r="D100" s="108">
@@ -18624,7 +18623,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -18635,7 +18634,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -18646,7 +18645,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="129"/>
+      <c r="A103" s="132"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -18657,7 +18656,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="130"/>
+      <c r="A104" s="133"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -18668,7 +18667,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="131" t="s">
+      <c r="A105" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -18695,7 +18694,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="131"/>
+      <c r="A106" s="134"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -18721,7 +18720,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131"/>
+      <c r="A107" s="134"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -18747,7 +18746,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -18773,7 +18772,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -18799,7 +18798,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -18825,7 +18824,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -18851,7 +18850,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -18877,7 +18876,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -18897,7 +18896,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -18909,7 +18908,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -18920,7 +18919,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -18931,7 +18930,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -18942,7 +18941,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="131"/>
+      <c r="A118" s="134"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -18953,7 +18952,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="132"/>
+      <c r="A119" s="135"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -18964,7 +18963,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="133" t="s">
+      <c r="A120" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -18991,7 +18990,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="133"/>
+      <c r="A121" s="136"/>
       <c r="B121" s="115" t="s">
         <v>310</v>
       </c>
@@ -19017,7 +19016,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133"/>
+      <c r="A122" s="136"/>
       <c r="B122" s="115" t="s">
         <v>422</v>
       </c>
@@ -19043,7 +19042,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="115" t="s">
         <v>423</v>
       </c>
@@ -19069,7 +19068,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="115" t="s">
         <v>303</v>
       </c>
@@ -19095,7 +19094,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="115" t="s">
         <v>424</v>
       </c>
@@ -19121,7 +19120,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="115"/>
       <c r="C126" s="107"/>
       <c r="D126" s="108"/>
@@ -19139,7 +19138,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="120"/>
       <c r="C127" s="107"/>
       <c r="D127" s="108"/>
@@ -19157,7 +19156,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="115"/>
       <c r="C128" s="107"/>
       <c r="D128" s="108"/>
@@ -19169,7 +19168,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115"/>
       <c r="C129" s="107"/>
       <c r="D129" s="108"/>
@@ -19181,7 +19180,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="B130" s="115"/>
       <c r="C130" s="107"/>
       <c r="D130" s="108"/>
@@ -19192,7 +19191,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="115"/>
       <c r="C131" s="107"/>
       <c r="D131" s="108"/>
@@ -19203,7 +19202,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -19214,7 +19213,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -19225,7 +19224,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="133"/>
+      <c r="A134" s="136"/>
       <c r="B134" s="117"/>
       <c r="C134" s="113"/>
       <c r="D134" s="114"/>
@@ -19390,8 +19389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F5FAB4-9E65-460D-998C-A6B05E121251}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S74" sqref="S74"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19430,7 +19429,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -19460,7 +19459,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>314</v>
       </c>
@@ -19489,7 +19488,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>298</v>
       </c>
@@ -19518,7 +19517,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>426</v>
       </c>
@@ -19547,7 +19546,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>427</v>
       </c>
@@ -19576,7 +19575,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
         <v>428</v>
       </c>
@@ -19605,7 +19604,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107"/>
       <c r="C8" s="107"/>
       <c r="D8" s="108"/>
@@ -19623,7 +19622,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107"/>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -19641,7 +19640,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="120"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108"/>
@@ -19653,7 +19652,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -19665,7 +19664,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -19676,7 +19675,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -19687,7 +19686,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -19698,7 +19697,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -19709,7 +19708,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -19720,7 +19719,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -19747,7 +19746,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="120" t="s">
         <v>429</v>
       </c>
@@ -19773,7 +19772,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>430</v>
       </c>
@@ -19799,7 +19798,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>431</v>
       </c>
@@ -19825,7 +19824,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="108"/>
@@ -19843,7 +19842,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107"/>
       <c r="C22" s="107"/>
       <c r="D22" s="108"/>
@@ -19861,7 +19860,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107"/>
       <c r="C23" s="107"/>
       <c r="D23" s="108"/>
@@ -19879,7 +19878,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107"/>
       <c r="C24" s="107"/>
       <c r="D24" s="108"/>
@@ -19897,7 +19896,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107"/>
       <c r="C25" s="107"/>
       <c r="D25" s="108"/>
@@ -19909,7 +19908,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -19921,7 +19920,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -19932,7 +19931,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -19943,7 +19942,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -19954,7 +19953,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -19965,7 +19964,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -19992,7 +19991,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="107" t="s">
         <v>301</v>
       </c>
@@ -20018,7 +20017,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" t="s">
         <v>433</v>
       </c>
@@ -20044,7 +20043,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>303</v>
       </c>
@@ -20070,7 +20069,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>358</v>
       </c>
@@ -20096,7 +20095,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="107" t="s">
         <v>374</v>
       </c>
@@ -20122,7 +20121,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>434</v>
       </c>
@@ -20148,7 +20147,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107"/>
       <c r="C38" s="107"/>
       <c r="D38" s="108"/>
@@ -20166,7 +20165,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107"/>
       <c r="C39" s="107"/>
       <c r="D39" s="108"/>
@@ -20178,7 +20177,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107"/>
       <c r="C40" s="107"/>
       <c r="D40" s="108"/>
@@ -20190,7 +20189,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="108"/>
@@ -20201,7 +20200,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -20212,7 +20211,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -20223,7 +20222,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -20234,7 +20233,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -20245,7 +20244,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -20272,7 +20271,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
         <v>436</v>
       </c>
@@ -20298,7 +20297,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>429</v>
       </c>
@@ -20324,7 +20323,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>437</v>
       </c>
@@ -20350,7 +20349,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
         <v>438</v>
       </c>
@@ -20376,7 +20375,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107"/>
       <c r="C51" s="107"/>
       <c r="D51" s="108"/>
@@ -20394,7 +20393,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107"/>
       <c r="C52" s="107"/>
       <c r="D52" s="108"/>
@@ -20412,7 +20411,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107"/>
       <c r="C53" s="107"/>
       <c r="D53" s="108"/>
@@ -20430,7 +20429,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -20442,7 +20441,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -20454,7 +20453,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -20465,7 +20464,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -20476,7 +20475,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -20487,7 +20486,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -20498,7 +20497,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -20525,7 +20524,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
         <v>440</v>
       </c>
@@ -20551,7 +20550,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="107" t="s">
         <v>441</v>
       </c>
@@ -20577,7 +20576,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>442</v>
       </c>
@@ -20603,7 +20602,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>443</v>
       </c>
@@ -20629,7 +20628,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>444</v>
       </c>
@@ -20655,7 +20654,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107"/>
       <c r="C66" s="107"/>
       <c r="D66" s="108"/>
@@ -20673,7 +20672,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107"/>
       <c r="C67" s="107"/>
       <c r="D67" s="108"/>
@@ -20691,7 +20690,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107"/>
       <c r="C68" s="107"/>
       <c r="D68" s="108"/>
@@ -20703,7 +20702,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -20715,7 +20714,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -20726,7 +20725,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -20737,7 +20736,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -20748,7 +20747,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -20759,7 +20758,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -20770,7 +20769,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129" t="s">
+      <c r="A75" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -20797,7 +20796,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
         <v>301</v>
       </c>
@@ -20823,7 +20822,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="107" t="s">
         <v>371</v>
       </c>
@@ -20849,7 +20848,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
         <v>373</v>
       </c>
@@ -20875,7 +20874,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
         <v>368</v>
       </c>
@@ -20901,7 +20900,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
         <v>373</v>
       </c>
@@ -20927,7 +20926,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
         <v>314</v>
       </c>
@@ -20953,7 +20952,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="107" t="s">
         <v>371</v>
       </c>
@@ -20979,7 +20978,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
         <v>374</v>
       </c>
@@ -20999,8 +20998,8 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
-      <c r="B84" s="137"/>
+      <c r="A84" s="132"/>
+      <c r="B84" s="131"/>
       <c r="C84" s="113"/>
       <c r="D84" s="114"/>
       <c r="E84" s="114"/>
@@ -21008,41 +21007,39 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
-      <c r="B85" s="134"/>
+      <c r="A85" s="132"/>
       <c r="C85" s="113"/>
       <c r="D85" s="114"/>
       <c r="E85" s="114"/>
       <c r="F85" s="114"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
-      <c r="B86" s="134"/>
+      <c r="A86" s="132"/>
       <c r="C86" s="113"/>
       <c r="D86" s="114"/>
       <c r="E86" s="114"/>
       <c r="F86" s="114"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
+      <c r="A87" s="132"/>
       <c r="C87" s="113"/>
       <c r="D87" s="114"/>
       <c r="E87" s="114"/>
       <c r="F87" s="114"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="107"/>
-      <c r="C88" s="135"/>
-      <c r="D88" s="136"/>
-      <c r="E88" s="136"/>
-      <c r="F88" s="136">
+      <c r="C88" s="129"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="130"/>
+      <c r="F88" s="130">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="129"/>
+      <c r="A89" s="132"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -21053,7 +21050,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="129" t="s">
+      <c r="A90" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -21080,7 +21077,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="107" t="s">
         <v>301</v>
       </c>
@@ -21106,7 +21103,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="129"/>
+      <c r="A92" s="132"/>
       <c r="B92" s="107" t="s">
         <v>375</v>
       </c>
@@ -21132,7 +21129,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
+      <c r="A93" s="132"/>
       <c r="B93" s="107"/>
       <c r="C93" s="107"/>
       <c r="D93" s="108">
@@ -21154,7 +21151,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
+      <c r="A94" s="132"/>
       <c r="B94" s="107"/>
       <c r="C94" s="107"/>
       <c r="D94" s="108">
@@ -21176,7 +21173,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
+      <c r="A95" s="132"/>
       <c r="B95" s="107"/>
       <c r="C95" s="107"/>
       <c r="D95" s="108">
@@ -21198,7 +21195,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
+      <c r="A96" s="132"/>
       <c r="B96" s="107"/>
       <c r="C96" s="107"/>
       <c r="D96" s="108">
@@ -21220,7 +21217,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
+      <c r="A97" s="132"/>
       <c r="B97" s="107"/>
       <c r="C97" s="107"/>
       <c r="D97" s="108">
@@ -21242,7 +21239,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
+      <c r="A98" s="132"/>
       <c r="B98" s="107"/>
       <c r="C98" s="107"/>
       <c r="D98" s="108">
@@ -21258,7 +21255,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
+      <c r="A99" s="132"/>
       <c r="B99" s="107"/>
       <c r="C99" s="107"/>
       <c r="D99" s="108">
@@ -21274,7 +21271,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
+      <c r="A100" s="132"/>
       <c r="B100" s="107"/>
       <c r="C100" s="107"/>
       <c r="D100" s="108">
@@ -21289,7 +21286,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -21300,7 +21297,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -21311,7 +21308,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="129"/>
+      <c r="A103" s="132"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -21322,7 +21319,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="130"/>
+      <c r="A104" s="133"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -21333,7 +21330,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="131" t="s">
+      <c r="A105" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -21360,7 +21357,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="131"/>
+      <c r="A106" s="134"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -21386,7 +21383,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131"/>
+      <c r="A107" s="134"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -21412,7 +21409,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -21438,7 +21435,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -21464,7 +21461,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -21490,7 +21487,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -21516,7 +21513,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -21542,7 +21539,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -21562,7 +21559,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -21574,7 +21571,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -21585,7 +21582,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -21596,7 +21593,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -21607,7 +21604,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="131"/>
+      <c r="A118" s="134"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -21618,7 +21615,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="132"/>
+      <c r="A119" s="135"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -21629,7 +21626,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="133" t="s">
+      <c r="A120" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -21656,7 +21653,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="133"/>
+      <c r="A121" s="136"/>
       <c r="B121" s="115" t="s">
         <v>310</v>
       </c>
@@ -21682,7 +21679,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133"/>
+      <c r="A122" s="136"/>
       <c r="B122" s="115" t="s">
         <v>446</v>
       </c>
@@ -21708,7 +21705,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="115" t="s">
         <v>423</v>
       </c>
@@ -21734,7 +21731,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="115" t="s">
         <v>447</v>
       </c>
@@ -21760,7 +21757,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="115"/>
       <c r="C125" s="107"/>
       <c r="D125" s="108"/>
@@ -21778,7 +21775,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="115"/>
       <c r="C126" s="107"/>
       <c r="D126" s="108"/>
@@ -21796,7 +21793,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="120"/>
       <c r="C127" s="107"/>
       <c r="D127" s="108"/>
@@ -21814,7 +21811,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="115"/>
       <c r="C128" s="107"/>
       <c r="D128" s="108"/>
@@ -21826,7 +21823,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115"/>
       <c r="C129" s="107"/>
       <c r="D129" s="108"/>
@@ -21838,7 +21835,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="B130" s="115"/>
       <c r="C130" s="107"/>
       <c r="D130" s="108"/>
@@ -21849,7 +21846,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="115"/>
       <c r="C131" s="107"/>
       <c r="D131" s="108"/>
@@ -21860,7 +21857,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -21871,7 +21868,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -21882,7 +21879,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="133"/>
+      <c r="A134" s="136"/>
       <c r="B134" s="117"/>
       <c r="C134" s="113"/>
       <c r="D134" s="114"/>
@@ -22087,7 +22084,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -22117,7 +22114,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>301</v>
       </c>
@@ -22146,7 +22143,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>449</v>
       </c>
@@ -22175,7 +22172,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>450</v>
       </c>
@@ -22204,7 +22201,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>298</v>
       </c>
@@ -22233,7 +22230,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
         <v>451</v>
       </c>
@@ -22262,7 +22259,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107" t="s">
         <v>303</v>
       </c>
@@ -22288,7 +22285,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107" t="s">
         <v>452</v>
       </c>
@@ -22314,7 +22311,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="107" t="s">
         <v>350</v>
       </c>
@@ -22334,7 +22331,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107" t="s">
         <v>453</v>
       </c>
@@ -22354,7 +22351,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -22365,7 +22362,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -22376,7 +22373,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -22387,7 +22384,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -22398,7 +22395,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -22409,7 +22406,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -22436,7 +22433,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="107" t="s">
         <v>301</v>
       </c>
@@ -22462,7 +22459,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>455</v>
       </c>
@@ -22488,7 +22485,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>298</v>
       </c>
@@ -22514,7 +22511,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
         <v>456</v>
       </c>
@@ -22540,7 +22537,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
         <v>303</v>
       </c>
@@ -22566,7 +22563,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107" t="s">
         <v>452</v>
       </c>
@@ -22592,7 +22589,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107" t="s">
         <v>296</v>
       </c>
@@ -22618,7 +22615,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107" t="s">
         <v>457</v>
       </c>
@@ -22638,7 +22635,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -22650,7 +22647,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -22661,7 +22658,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -22672,7 +22669,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -22683,7 +22680,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -22694,7 +22691,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -22721,7 +22718,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="107" t="s">
         <v>407</v>
       </c>
@@ -22747,7 +22744,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -22773,7 +22770,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>459</v>
       </c>
@@ -22799,7 +22796,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>298</v>
       </c>
@@ -22825,7 +22822,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" t="s">
         <v>460</v>
       </c>
@@ -22851,7 +22848,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>303</v>
       </c>
@@ -22877,7 +22874,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107" t="s">
         <v>461</v>
       </c>
@@ -22903,7 +22900,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107" t="s">
         <v>314</v>
       </c>
@@ -22923,7 +22920,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107" t="s">
         <v>462</v>
       </c>
@@ -22943,7 +22940,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="108"/>
@@ -22954,7 +22951,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -22965,7 +22962,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -22976,7 +22973,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -22987,7 +22984,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -22998,7 +22995,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -23025,7 +23022,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
         <v>301</v>
       </c>
@@ -23051,7 +23048,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>464</v>
       </c>
@@ -23077,7 +23074,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>298</v>
       </c>
@@ -23103,7 +23100,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
         <v>465</v>
       </c>
@@ -23129,7 +23126,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107" t="s">
         <v>303</v>
       </c>
@@ -23155,7 +23152,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107" t="s">
         <v>452</v>
       </c>
@@ -23181,7 +23178,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107" t="s">
         <v>296</v>
       </c>
@@ -23207,7 +23204,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -23219,7 +23216,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -23231,7 +23228,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -23242,7 +23239,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -23253,7 +23250,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -23264,7 +23261,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -23275,7 +23272,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -23302,7 +23299,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
         <v>467</v>
       </c>
@@ -23328,7 +23325,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="107" t="s">
         <v>301</v>
       </c>
@@ -23354,7 +23351,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>468</v>
       </c>
@@ -23380,7 +23377,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>298</v>
       </c>
@@ -23406,7 +23403,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>469</v>
       </c>
@@ -23432,7 +23429,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107" t="s">
         <v>303</v>
       </c>
@@ -23458,7 +23455,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107" t="s">
         <v>461</v>
       </c>
@@ -23484,7 +23481,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107" t="s">
         <v>314</v>
       </c>
@@ -23504,7 +23501,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -23516,7 +23513,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -23527,7 +23524,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -23538,7 +23535,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -23549,7 +23546,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -23560,7 +23557,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -23571,7 +23568,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129" t="s">
+      <c r="A75" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -23598,7 +23595,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
         <v>471</v>
       </c>
@@ -23624,7 +23621,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="107" t="s">
         <v>301</v>
       </c>
@@ -23650,7 +23647,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
         <v>472</v>
       </c>
@@ -23676,7 +23673,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
         <v>473</v>
       </c>
@@ -23702,7 +23699,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
         <v>314</v>
       </c>
@@ -23728,7 +23725,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
         <v>474</v>
       </c>
@@ -23754,7 +23751,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" t="s">
         <v>475</v>
       </c>
@@ -23780,7 +23777,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
         <v>476</v>
       </c>
@@ -23800,7 +23797,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="107" t="s">
         <v>452</v>
       </c>
@@ -23820,7 +23817,7 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
+      <c r="A85" s="132"/>
       <c r="B85" s="107"/>
       <c r="C85" s="107"/>
       <c r="D85" s="108"/>
@@ -23828,7 +23825,7 @@
       <c r="F85" s="108"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
+      <c r="A86" s="132"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -23836,7 +23833,7 @@
       <c r="F86" s="108"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
+      <c r="A87" s="132"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107"/>
       <c r="D87" s="108"/>
@@ -23844,7 +23841,7 @@
       <c r="F87" s="108"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -23855,7 +23852,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="129"/>
+      <c r="A89" s="132"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -23866,7 +23863,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="129" t="s">
+      <c r="A90" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -23893,7 +23890,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="107" t="s">
         <v>301</v>
       </c>
@@ -23919,7 +23916,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="129"/>
+      <c r="A92" s="132"/>
       <c r="B92" s="107" t="s">
         <v>375</v>
       </c>
@@ -23945,7 +23942,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
+      <c r="A93" s="132"/>
       <c r="B93" s="107"/>
       <c r="C93" s="107"/>
       <c r="D93" s="108">
@@ -23967,7 +23964,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
+      <c r="A94" s="132"/>
       <c r="B94" s="107"/>
       <c r="C94" s="107"/>
       <c r="D94" s="108">
@@ -23989,7 +23986,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
+      <c r="A95" s="132"/>
       <c r="B95" s="107"/>
       <c r="C95" s="107"/>
       <c r="D95" s="108">
@@ -24011,7 +24008,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
+      <c r="A96" s="132"/>
       <c r="B96" s="107"/>
       <c r="C96" s="107"/>
       <c r="D96" s="108">
@@ -24033,7 +24030,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
+      <c r="A97" s="132"/>
       <c r="B97" s="107"/>
       <c r="C97" s="107"/>
       <c r="D97" s="108">
@@ -24055,7 +24052,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
+      <c r="A98" s="132"/>
       <c r="B98" s="107"/>
       <c r="C98" s="107"/>
       <c r="D98" s="108">
@@ -24071,7 +24068,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
+      <c r="A99" s="132"/>
       <c r="B99" s="107"/>
       <c r="C99" s="107"/>
       <c r="D99" s="108">
@@ -24087,7 +24084,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
+      <c r="A100" s="132"/>
       <c r="B100" s="107"/>
       <c r="C100" s="107"/>
       <c r="D100" s="108">
@@ -24102,7 +24099,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -24113,7 +24110,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -24124,7 +24121,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="129"/>
+      <c r="A103" s="132"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -24135,7 +24132,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="130"/>
+      <c r="A104" s="133"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -24146,7 +24143,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="131" t="s">
+      <c r="A105" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -24173,7 +24170,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="131"/>
+      <c r="A106" s="134"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -24199,7 +24196,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131"/>
+      <c r="A107" s="134"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -24225,7 +24222,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -24251,7 +24248,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -24277,7 +24274,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -24303,7 +24300,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -24329,7 +24326,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -24355,7 +24352,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -24375,7 +24372,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -24387,7 +24384,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -24398,7 +24395,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -24409,7 +24406,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -24420,7 +24417,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="131"/>
+      <c r="A118" s="134"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -24431,7 +24428,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="132"/>
+      <c r="A119" s="135"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -24442,7 +24439,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="133" t="s">
+      <c r="A120" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -24469,7 +24466,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="133"/>
+      <c r="A121" s="136"/>
       <c r="B121" s="115" t="s">
         <v>478</v>
       </c>
@@ -24495,7 +24492,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133"/>
+      <c r="A122" s="136"/>
       <c r="B122" s="107" t="s">
         <v>301</v>
       </c>
@@ -24521,7 +24518,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="107" t="s">
         <v>479</v>
       </c>
@@ -24547,7 +24544,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="107" t="s">
         <v>310</v>
       </c>
@@ -24573,7 +24570,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="107" t="s">
         <v>465</v>
       </c>
@@ -24599,7 +24596,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="107" t="s">
         <v>303</v>
       </c>
@@ -24625,7 +24622,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="107" t="s">
         <v>461</v>
       </c>
@@ -24651,7 +24648,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="107" t="s">
         <v>296</v>
       </c>
@@ -24671,7 +24668,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115" t="s">
         <v>480</v>
       </c>
@@ -24691,7 +24688,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="B130" s="115"/>
       <c r="C130" s="107"/>
       <c r="D130" s="108"/>
@@ -24702,7 +24699,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="115"/>
       <c r="C131" s="107"/>
       <c r="D131" s="108"/>
@@ -24713,7 +24710,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -24724,7 +24721,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -24735,7 +24732,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="133"/>
+      <c r="A134" s="136"/>
       <c r="B134" s="117"/>
       <c r="C134" s="124"/>
       <c r="D134" s="125"/>
@@ -24904,8 +24901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9EFCF2-B647-4263-9741-7AEEC9FEC381}">
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24944,7 +24941,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -24974,7 +24971,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="129"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="107" t="s">
         <v>482</v>
       </c>
@@ -25003,7 +25000,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="129"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="107" t="s">
         <v>301</v>
       </c>
@@ -25032,7 +25029,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="129"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="107" t="s">
         <v>483</v>
       </c>
@@ -25061,7 +25058,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="129"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="107" t="s">
         <v>452</v>
       </c>
@@ -25090,7 +25087,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="129"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="107" t="s">
         <v>473</v>
       </c>
@@ -25119,7 +25116,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="129"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="107" t="s">
         <v>314</v>
       </c>
@@ -25145,7 +25142,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="129"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="107" t="s">
         <v>484</v>
       </c>
@@ -25171,7 +25168,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="129"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="107" t="s">
         <v>303</v>
       </c>
@@ -25191,7 +25188,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="129"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="107" t="s">
         <v>485</v>
       </c>
@@ -25211,7 +25208,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="107" t="s">
         <v>486</v>
       </c>
@@ -25230,7 +25227,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="129"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -25241,7 +25238,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="129"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -25252,7 +25249,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="129"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -25263,7 +25260,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="129"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -25274,7 +25271,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="132" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -25301,7 +25298,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="129"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="107" t="s">
         <v>301</v>
       </c>
@@ -25327,7 +25324,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="129"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="107" t="s">
         <v>488</v>
       </c>
@@ -25353,7 +25350,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="129"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="107" t="s">
         <v>452</v>
       </c>
@@ -25379,7 +25376,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="129"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="107" t="s">
         <v>410</v>
       </c>
@@ -25405,7 +25402,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="129"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="107" t="s">
         <v>489</v>
       </c>
@@ -25431,7 +25428,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="129"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="107" t="s">
         <v>303</v>
       </c>
@@ -25457,7 +25454,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="129"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="107" t="s">
         <v>314</v>
       </c>
@@ -25483,7 +25480,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="129"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="107" t="s">
         <v>490</v>
       </c>
@@ -25503,7 +25500,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="129"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -25514,7 +25511,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="129"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -25525,7 +25522,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="129"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -25536,7 +25533,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="129" t="s">
+      <c r="A29" s="132" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="107" t="s">
@@ -25563,7 +25560,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="129"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="107" t="s">
         <v>407</v>
       </c>
@@ -25589,7 +25586,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="129"/>
+      <c r="A31" s="132"/>
       <c r="B31" s="107" t="s">
         <v>301</v>
       </c>
@@ -25615,7 +25612,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="129"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="107" t="s">
         <v>485</v>
       </c>
@@ -25641,7 +25638,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="129"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="107" t="s">
         <v>452</v>
       </c>
@@ -25667,7 +25664,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="129"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="107" t="s">
         <v>298</v>
       </c>
@@ -25693,7 +25690,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="129"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="107" t="s">
         <v>314</v>
       </c>
@@ -25719,7 +25716,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="129"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="107" t="s">
         <v>492</v>
       </c>
@@ -25745,7 +25742,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="129"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="107" t="s">
         <v>303</v>
       </c>
@@ -25765,7 +25762,7 @@
       <c r="I37" s="110"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="129"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="107" t="s">
         <v>486</v>
       </c>
@@ -25785,7 +25782,7 @@
       <c r="I38" s="110"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="129"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="107" t="s">
         <v>493</v>
       </c>
@@ -25804,7 +25801,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="129"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="107" t="s">
         <v>494</v>
       </c>
@@ -25823,7 +25820,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="108"/>
@@ -25834,7 +25831,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="129"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -25845,7 +25842,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="129"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -25856,7 +25853,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="129" t="s">
+      <c r="A44" s="132" t="s">
         <v>318</v>
       </c>
       <c r="B44" s="107" t="s">
@@ -25883,7 +25880,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="129"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="107" t="s">
         <v>301</v>
       </c>
@@ -25909,7 +25906,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="129"/>
+      <c r="A46" s="132"/>
       <c r="B46" s="107" t="s">
         <v>496</v>
       </c>
@@ -25935,7 +25932,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="129"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
         <v>452</v>
       </c>
@@ -25961,7 +25958,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="129"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
         <v>410</v>
       </c>
@@ -25987,7 +25984,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
         <v>296</v>
       </c>
@@ -26013,7 +26010,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="129"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
         <v>497</v>
       </c>
@@ -26039,7 +26036,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="129"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="107" t="s">
         <v>303</v>
       </c>
@@ -26065,7 +26062,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="129"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="107" t="s">
         <v>498</v>
       </c>
@@ -26085,7 +26082,7 @@
       <c r="I52" s="110"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="129"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="107" t="s">
         <v>499</v>
       </c>
@@ -26105,7 +26102,7 @@
       <c r="I53" s="110"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="129"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -26116,7 +26113,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="129"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -26127,7 +26124,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="129"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -26138,7 +26135,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="129"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -26149,7 +26146,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="129" t="s">
+      <c r="A58" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="107" t="s">
@@ -26176,7 +26173,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="129"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="107" t="s">
         <v>500</v>
       </c>
@@ -26202,7 +26199,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="129"/>
+      <c r="A60" s="132"/>
       <c r="B60" s="107" t="s">
         <v>368</v>
       </c>
@@ -26228,7 +26225,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="129"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="107" t="s">
         <v>452</v>
       </c>
@@ -26254,7 +26251,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="129"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="107" t="s">
         <v>310</v>
       </c>
@@ -26280,7 +26277,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="129"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="107" t="s">
         <v>501</v>
       </c>
@@ -26306,7 +26303,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="129"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="107" t="s">
         <v>314</v>
       </c>
@@ -26332,7 +26329,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="129"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="107" t="s">
         <v>502</v>
       </c>
@@ -26358,7 +26355,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="129"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="107" t="s">
         <v>368</v>
       </c>
@@ -26379,7 +26376,7 @@
       <c r="I66" s="106"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="129"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="107" t="s">
         <v>503</v>
       </c>
@@ -26399,7 +26396,7 @@
       <c r="I67" s="110"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="129"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="107" t="s">
         <v>504</v>
       </c>
@@ -26419,7 +26416,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="129"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -26430,7 +26427,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="129"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -26441,7 +26438,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="129"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -26452,7 +26449,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="129"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -26463,7 +26460,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="129"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -26474,7 +26471,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="129" t="s">
+      <c r="A74" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B74" s="107" t="s">
@@ -26501,7 +26498,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="129"/>
+      <c r="A75" s="132"/>
       <c r="B75" s="107" t="s">
         <v>301</v>
       </c>
@@ -26527,7 +26524,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="129"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
         <v>505</v>
       </c>
@@ -26553,7 +26550,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="129"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="107" t="s">
         <v>506</v>
       </c>
@@ -26579,7 +26576,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="129"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
         <v>371</v>
       </c>
@@ -26605,7 +26602,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="129"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="107" t="s">
         <v>373</v>
       </c>
@@ -26631,7 +26628,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="129"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="107" t="s">
         <v>368</v>
       </c>
@@ -26657,7 +26654,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="129"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="107" t="s">
         <v>373</v>
       </c>
@@ -26683,7 +26680,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="129"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="107" t="s">
         <v>314</v>
       </c>
@@ -26703,7 +26700,7 @@
       <c r="I82" s="110"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="129"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="107" t="s">
         <v>371</v>
       </c>
@@ -26723,7 +26720,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="129"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="107" t="s">
         <v>374</v>
       </c>
@@ -26742,7 +26739,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="129"/>
+      <c r="A85" s="132"/>
       <c r="B85" s="107"/>
       <c r="C85" s="107"/>
       <c r="D85" s="108"/>
@@ -26753,7 +26750,7 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="129"/>
+      <c r="A86" s="132"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -26764,7 +26761,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="129"/>
+      <c r="A87" s="132"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107" t="s">
         <v>290</v>
@@ -26781,7 +26778,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="129"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107" t="s">
         <v>290</v>
@@ -26798,7 +26795,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="129" t="s">
+      <c r="A89" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B89" s="107" t="s">
@@ -26825,7 +26822,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="129"/>
+      <c r="A90" s="132"/>
       <c r="B90" s="107" t="s">
         <v>301</v>
       </c>
@@ -26851,7 +26848,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="129"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="107" t="s">
         <v>375</v>
       </c>
@@ -26877,7 +26874,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="129"/>
+      <c r="A92" s="132"/>
       <c r="B92" s="107" t="s">
         <v>375</v>
       </c>
@@ -26903,11 +26900,13 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="129"/>
+      <c r="A93" s="132"/>
       <c r="B93" s="107" t="s">
         <v>310</v>
       </c>
-      <c r="C93" s="107"/>
+      <c r="C93" s="107" t="s">
+        <v>299</v>
+      </c>
       <c r="D93" s="108">
         <v>0.59027777777777779</v>
       </c>
@@ -26927,7 +26926,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="129"/>
+      <c r="A94" s="132"/>
       <c r="B94" s="107"/>
       <c r="C94" s="107"/>
       <c r="D94" s="108">
@@ -26949,7 +26948,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="129"/>
+      <c r="A95" s="132"/>
       <c r="B95" s="107"/>
       <c r="C95" s="107"/>
       <c r="D95" s="108">
@@ -26967,11 +26966,11 @@
       </c>
       <c r="I95" s="108">
         <f>SUMIFS(F87:F101, C87:C101,H95)</f>
-        <v>3.4722222222222265E-2</v>
+        <v>6.9444444444444475E-2</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="129"/>
+      <c r="A96" s="132"/>
       <c r="B96" s="107"/>
       <c r="C96" s="107"/>
       <c r="D96" s="108">
@@ -26989,11 +26988,11 @@
       </c>
       <c r="I96" s="106">
         <f t="shared" ref="I96" si="16">SUM(I90:I95)</f>
-        <v>0.25</v>
+        <v>0.28472222222222221</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="129"/>
+      <c r="A97" s="132"/>
       <c r="B97" s="107"/>
       <c r="C97" s="107"/>
       <c r="D97" s="108">
@@ -27009,7 +27008,7 @@
       <c r="I97" s="110"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="129"/>
+      <c r="A98" s="132"/>
       <c r="B98" s="107"/>
       <c r="C98" s="107"/>
       <c r="D98" s="108"/>
@@ -27021,7 +27020,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="129"/>
+      <c r="A99" s="132"/>
       <c r="B99" s="107"/>
       <c r="C99" s="107"/>
       <c r="D99" s="108"/>
@@ -27032,7 +27031,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="129"/>
+      <c r="A100" s="132"/>
       <c r="B100" s="107"/>
       <c r="C100" s="107"/>
       <c r="D100" s="108"/>
@@ -27043,7 +27042,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="129"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -27054,7 +27053,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="129"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107" t="s">
         <v>290</v>
@@ -27071,7 +27070,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="130"/>
+      <c r="A103" s="133"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107" t="s">
         <v>295</v>
@@ -27088,7 +27087,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="131" t="s">
+      <c r="A104" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B104" s="107" t="s">
@@ -27115,7 +27114,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="131"/>
+      <c r="A105" s="134"/>
       <c r="B105" s="107" t="s">
         <v>331</v>
       </c>
@@ -27141,7 +27140,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="131"/>
+      <c r="A106" s="134"/>
       <c r="B106" s="107" t="s">
         <v>294</v>
       </c>
@@ -27167,7 +27166,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="131"/>
+      <c r="A107" s="134"/>
       <c r="B107" s="107" t="s">
         <v>331</v>
       </c>
@@ -27193,7 +27192,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="131"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="107" t="s">
         <v>298</v>
       </c>
@@ -27219,7 +27218,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="131"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="107" t="s">
         <v>301</v>
       </c>
@@ -27245,7 +27244,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="131"/>
+      <c r="A110" s="134"/>
       <c r="B110" s="107" t="s">
         <v>303</v>
       </c>
@@ -27271,7 +27270,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="131"/>
+      <c r="A111" s="134"/>
       <c r="B111" s="107" t="s">
         <v>315</v>
       </c>
@@ -27291,7 +27290,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="131"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="107" t="s">
         <v>332</v>
       </c>
@@ -27305,7 +27304,7 @@
       <c r="I112" s="110"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="131"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="107"/>
       <c r="C113" s="107"/>
       <c r="D113" s="108"/>
@@ -27317,7 +27316,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="131"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -27328,7 +27327,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="131"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -27339,7 +27338,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="131"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -27350,7 +27349,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="131"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -27361,7 +27360,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="132"/>
+      <c r="A118" s="135"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -27372,7 +27371,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="133" t="s">
+      <c r="A119" s="136" t="s">
         <v>339</v>
       </c>
       <c r="B119" s="115" t="s">
@@ -27399,7 +27398,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="133"/>
+      <c r="A120" s="136"/>
       <c r="B120" s="115" t="s">
         <v>507</v>
       </c>
@@ -27425,7 +27424,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="133"/>
+      <c r="A121" s="136"/>
       <c r="B121" s="107" t="s">
         <v>301</v>
       </c>
@@ -27451,7 +27450,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="133"/>
+      <c r="A122" s="136"/>
       <c r="B122" s="107" t="s">
         <v>508</v>
       </c>
@@ -27477,7 +27476,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="133"/>
+      <c r="A123" s="136"/>
       <c r="B123" s="107" t="s">
         <v>509</v>
       </c>
@@ -27503,7 +27502,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="133"/>
+      <c r="A124" s="136"/>
       <c r="B124" s="107" t="s">
         <v>310</v>
       </c>
@@ -27529,7 +27528,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="133"/>
+      <c r="A125" s="136"/>
       <c r="B125" s="107" t="s">
         <v>510</v>
       </c>
@@ -27555,7 +27554,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="133"/>
+      <c r="A126" s="136"/>
       <c r="B126" s="107" t="s">
         <v>303</v>
       </c>
@@ -27581,7 +27580,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="133"/>
+      <c r="A127" s="136"/>
       <c r="B127" s="107" t="s">
         <v>511</v>
       </c>
@@ -27601,7 +27600,7 @@
       <c r="I127" s="110"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="107" t="s">
         <v>296</v>
       </c>
@@ -27621,7 +27620,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="133"/>
+      <c r="A129" s="136"/>
       <c r="B129" s="115" t="s">
         <v>512</v>
       </c>
@@ -27640,7 +27639,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="133"/>
+      <c r="A130" s="136"/>
       <c r="C130" s="111"/>
       <c r="D130" s="112"/>
       <c r="E130" s="112"/>
@@ -27650,7 +27649,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="133"/>
+      <c r="A131" s="136"/>
       <c r="B131" s="115"/>
       <c r="C131" s="113"/>
       <c r="D131" s="114"/>
@@ -27661,7 +27660,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="133"/>
+      <c r="A132" s="136"/>
       <c r="B132" s="116"/>
       <c r="C132" s="111"/>
       <c r="D132" s="112"/>
@@ -27672,7 +27671,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="117"/>
       <c r="C133" s="113"/>
       <c r="D133" s="114"/>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2889049B-64E9-43F9-A2BA-30EDC82CDF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABBFA4C1-3108-4822-A27B-4E3331092242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="19" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="1" r:id="rId1"/>
@@ -13640,7 +13640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E469F2C2-993F-4F48-8C74-266B916F6309}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
@@ -16639,7 +16639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30934AA5-FE34-4D93-9147-E487E171875A}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -19389,8 +19389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F5FAB4-9E65-460D-998C-A6B05E121251}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="N141" sqref="N141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21636,14 +21636,14 @@
         <v>297</v>
       </c>
       <c r="D120" s="108">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E120" s="108">
         <v>0.5</v>
       </c>
       <c r="F120" s="108">
         <f t="shared" si="16"/>
-        <v>8.3333333333333315E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H120" s="106" t="s">
         <v>291</v>
@@ -21727,7 +21727,7 @@
       </c>
       <c r="I123" s="108">
         <f>SUMIFS(F120:F134, C120:C134,H123)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -21807,7 +21807,7 @@
       </c>
       <c r="I127" s="106">
         <f t="shared" ref="I127" si="21">SUM(I121:I126)</f>
-        <v>0.39930555555555564</v>
+        <v>0.35763888888888901</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -22044,8 +22044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEFA632-027C-44B7-B2E8-75A517756B1E}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22493,14 +22493,14 @@
         <v>299</v>
       </c>
       <c r="D20" s="108">
-        <v>0.54861111111111105</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E20" s="108">
-        <v>0.5625</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="F20" s="108">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H20" s="109" t="s">
         <v>297</v>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I23" s="108">
         <f>SUMIFS(F17:F30, C17:C30,H23)</f>
-        <v>3.8194444444444475E-2</v>
+        <v>5.2083333333333315E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -22611,7 +22611,7 @@
       </c>
       <c r="I24" s="106">
         <f t="shared" ref="I24" si="1">SUM(I18:I23)</f>
-        <v>0.40972222222222227</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -24901,8 +24901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9EFCF2-B647-4263-9741-7AEEC9FEC381}">
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="K98" sqref="K98"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93FA6E71-2761-44D7-8B0E-A900D78E06D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56161D04-CFAE-4EB8-B5A1-0F4A70E3A2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="24" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="531">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1961,6 +1961,18 @@
     <t>Explored on integration of Web API and Angular.</t>
   </si>
   <si>
+    <t xml:space="preserve">Worked on routing of angular pages </t>
+  </si>
+  <si>
+    <t>Worked on Angular for  modified Html pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on angular for cards view page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explored on pagination in angular and integration of web api and angular </t>
+  </si>
+  <si>
     <t>Timesheet filling</t>
   </si>
   <si>
@@ -1970,7 +1982,25 @@
     <t>web API on Profile service</t>
   </si>
   <si>
+    <t>WebAPI on view cards page</t>
+  </si>
+  <si>
+    <t>exploration on navigation properities</t>
+  </si>
+  <si>
     <t>Updated timesheet</t>
+  </si>
+  <si>
+    <t>Worked on angular and web api integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented </t>
+  </si>
+  <si>
+    <t>Explored on Data Binding</t>
+  </si>
+  <si>
+    <t>Customer Meeting and Discussion</t>
   </si>
 </sst>
 </file>
@@ -28121,8 +28151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448AE304-61C3-4727-BB61-AC5EFF7EF149}">
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29085,7 +29115,7 @@
         <v>318</v>
       </c>
       <c r="B44" s="107" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="C44" s="107" t="s">
         <v>290</v>
@@ -29110,46 +29140,46 @@
     <row r="45" spans="1:9">
       <c r="A45" s="132"/>
       <c r="B45" s="107" t="s">
-        <v>301</v>
+        <v>498</v>
       </c>
       <c r="C45" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D45" s="108">
         <v>0.4375</v>
       </c>
       <c r="E45" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F45" s="108">
         <f t="shared" si="0"/>
-        <v>2.0833333333333315E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H45" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I45" s="108">
         <f>SUMIFS(F44:F57, C44:C57,H45)</f>
-        <v>0.30208333333333343</v>
+        <v>0.26736111111111099</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="132"/>
       <c r="B46" s="107" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="C46" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D46" s="108">
-        <v>0.46527777777777773</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="E46" s="108">
-        <v>0.4861111111111111</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F46" s="108">
         <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
+        <v>5.5555555555555525E-2</v>
       </c>
       <c r="H46" s="109" t="s">
         <v>295</v>
@@ -29162,170 +29192,170 @@
     <row r="47" spans="1:9">
       <c r="A47" s="132"/>
       <c r="B47" s="107" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
       <c r="C47" s="107" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D47" s="108">
-        <v>0.4861111111111111</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E47" s="108">
-        <v>0.53125</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="F47" s="108">
         <f t="shared" si="0"/>
-        <v>4.5138888888888895E-2</v>
+        <v>3.4722222222222321E-2</v>
       </c>
       <c r="H47" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I47" s="108">
         <f>SUMIFS(F44:F57, C44:C57,H47)</f>
-        <v>4.5138888888888895E-2</v>
+        <v>8.3333333333333481E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="132"/>
       <c r="B48" s="107" t="s">
-        <v>410</v>
+        <v>294</v>
       </c>
       <c r="C48" s="107" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D48" s="108">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E48" s="108">
-        <v>0.58333333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F48" s="108">
         <f t="shared" si="0"/>
-        <v>4.1666666666666741E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H48" s="109" t="s">
         <v>300</v>
       </c>
       <c r="I48" s="108">
         <f>SUMIFS(F44:F57, C44:C57,H48)</f>
-        <v>1.388888888888884E-2</v>
+        <v>1.736111111111116E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="132"/>
       <c r="B49" s="107" t="s">
-        <v>296</v>
+        <v>452</v>
       </c>
       <c r="C49" s="107" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D49" s="108">
-        <v>0.59027777777777779</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E49" s="108">
-        <v>0.60416666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F49" s="108">
         <f t="shared" si="0"/>
-        <v>1.388888888888884E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="H49" s="109" t="s">
         <v>302</v>
       </c>
       <c r="I49" s="108">
         <f>SUMIFS(F44:F57, C44:C57,H49)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="132"/>
       <c r="B50" s="107" t="s">
-        <v>497</v>
+        <v>303</v>
       </c>
       <c r="C50" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D50" s="108">
-        <v>0.60416666666666663</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="E50" s="108">
-        <v>0.67708333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="F50" s="108">
         <f t="shared" si="0"/>
-        <v>7.2916666666666741E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H50" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I50" s="108">
         <f>SUMIFS(F44:F57, C44:C57,H50)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>4.861111111111116E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="132"/>
       <c r="B51" s="107" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C51" s="107" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D51" s="108">
-        <v>0.67708333333333337</v>
+        <v>0.73263888888888884</v>
       </c>
       <c r="E51" s="108">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="F51" s="108">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="H51" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I51" s="106">
         <f t="shared" ref="I51" si="8">SUM(I45:I50)</f>
-        <v>0.43402777777777785</v>
+        <v>0.4791666666666668</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="132"/>
       <c r="B52" s="107" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="C52" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D52" s="108">
-        <v>0.6875</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="E52" s="108">
-        <v>0.75</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="F52" s="108">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>9.7222222222222099E-2</v>
       </c>
       <c r="I52" s="110"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="132"/>
       <c r="B53" s="107" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="C53" s="107" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D53" s="108">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E53" s="108">
-        <v>0.94791666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="F53" s="108">
         <f t="shared" si="0"/>
-        <v>7.291666666666663E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="I53" s="110"/>
     </row>
@@ -29703,7 +29733,7 @@
         <v>67</v>
       </c>
       <c r="B74" s="107" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C74" s="107" t="s">
         <v>295</v>
@@ -29728,7 +29758,7 @@
     <row r="75" spans="1:9">
       <c r="A75" s="132"/>
       <c r="B75" s="107" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C75" s="107" t="s">
         <v>290</v>
@@ -29748,13 +29778,13 @@
       </c>
       <c r="I75" s="108">
         <f>SUMIFS(F74:F86, C74:C86,H75)</f>
-        <v>0.13541666666666669</v>
+        <v>0.15625000000000006</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="132"/>
       <c r="B76" s="107" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C76" s="107" t="s">
         <v>290</v>
@@ -29800,50 +29830,52 @@
       </c>
       <c r="I77" s="108">
         <f>SUMIFS(F74:F86, C74:C86,H77)</f>
-        <v>3.4722222222222099E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="132"/>
       <c r="B78" s="107" t="s">
-        <v>377</v>
+        <v>506</v>
       </c>
       <c r="C78" s="107" t="s">
-        <v>299</v>
+        <v>506</v>
       </c>
       <c r="D78" s="108">
-        <v>0.54166666666666663</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="E78" s="108">
-        <v>0.56944444444444442</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F78" s="108">
         <f t="shared" si="14"/>
-        <v>2.777777777777779E-2</v>
+        <v>6.5972222222222265E-2</v>
       </c>
       <c r="H78" s="109" t="s">
         <v>300</v>
       </c>
       <c r="I78" s="108">
         <f>SUMIFS(F74:F86, C74:C86,H78)</f>
-        <v>1.0416666666666741E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="132"/>
-      <c r="B79" s="107"/>
+      <c r="B79" s="107" t="s">
+        <v>410</v>
+      </c>
       <c r="C79" s="107" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D79" s="108">
-        <v>0.58333333333333337</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E79" s="108">
-        <v>0.61458333333333337</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="F79" s="108">
         <f t="shared" si="14"/>
-        <v>3.125E-2</v>
+        <v>2.7777777777777679E-2</v>
       </c>
       <c r="H79" s="109" t="s">
         <v>302</v>
@@ -29855,115 +29887,129 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="132"/>
-      <c r="B80" s="107"/>
+      <c r="B80" s="107" t="s">
+        <v>294</v>
+      </c>
       <c r="C80" s="107" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D80" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E80" s="108">
-        <v>0.67708333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F80" s="108">
         <f t="shared" si="14"/>
-        <v>1.0416666666666741E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H80" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I80" s="108">
         <f>SUMIFS(F74:F86, C74:C86,H80)</f>
-        <v>4.8611111111111216E-2</v>
+        <v>3.8194444444444364E-2</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="132"/>
-      <c r="B81" s="107"/>
+      <c r="B81" s="107" t="s">
+        <v>314</v>
+      </c>
       <c r="C81" s="107" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D81" s="108">
-        <v>0.58333333333333337</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E81" s="108">
-        <v>0.64583333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="F81" s="108">
         <f>E81-D81</f>
-        <v>6.25E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H81" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I81" s="106">
         <f t="shared" ref="I81" si="15">SUM(I75:I80)</f>
-        <v>0.31250000000000011</v>
+        <v>0.35069444444444442</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="132"/>
-      <c r="B82" s="107"/>
+      <c r="B82" s="107" t="s">
+        <v>452</v>
+      </c>
       <c r="C82" s="107" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D82" s="108">
+        <v>0.6875</v>
+      </c>
+      <c r="E82" s="108">
         <v>0.72916666666666663</v>
-      </c>
-      <c r="E82" s="108">
-        <v>0.73958333333333337</v>
       </c>
       <c r="F82" s="108">
         <f t="shared" si="14"/>
-        <v>1.0416666666666741E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="I82" s="110"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="132"/>
-      <c r="B83" s="107"/>
+      <c r="B83" s="107" t="s">
+        <v>524</v>
+      </c>
       <c r="C83" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D83" s="108">
-        <v>0.89583333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E83" s="108">
-        <v>0.95833333333333337</v>
+        <v>0.86458333333333337</v>
       </c>
       <c r="F83" s="108">
         <f>E83-D83</f>
-        <v>6.25E-2</v>
+        <v>0.11458333333333337</v>
       </c>
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="132"/>
-      <c r="B84" s="107"/>
-      <c r="C84" s="107" t="s">
+      <c r="B84" s="107" t="s">
+        <v>525</v>
+      </c>
+      <c r="C84" s="111" t="s">
         <v>297</v>
       </c>
-      <c r="D84" s="108">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="E84" s="108">
-        <v>0.99305555555555547</v>
-      </c>
-      <c r="F84" s="108">
+      <c r="D84" s="112">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E84" s="112">
+        <v>0.9375</v>
+      </c>
+      <c r="F84" s="112">
         <f>E84-D84</f>
-        <v>3.4722222222222099E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="132"/>
+      <c r="C85" s="113"/>
+      <c r="D85" s="114"/>
+      <c r="E85" s="114"/>
+      <c r="F85" s="114"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="132"/>
       <c r="B86" s="107"/>
-      <c r="C86" s="107"/>
-      <c r="D86" s="108"/>
-      <c r="E86" s="108"/>
-      <c r="F86" s="108">
+      <c r="C86" s="129"/>
+      <c r="D86" s="130"/>
+      <c r="E86" s="130"/>
+      <c r="F86" s="130">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -30583,7 +30629,7 @@
         <v>339</v>
       </c>
       <c r="B119" s="115" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C119" s="107" t="s">
         <v>290</v>
@@ -30608,10 +30654,10 @@
     <row r="120" spans="1:9">
       <c r="A120" s="136"/>
       <c r="B120" s="115" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="C120" s="107" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D120" s="108">
         <v>0.3611111111111111</v>
@@ -30628,7 +30674,7 @@
       </c>
       <c r="I120" s="108">
         <f>SUMIFS(F117:F131, C117:C131,H120)</f>
-        <v>0.20486111111111105</v>
+        <v>0.16319444444444442</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -30654,13 +30700,13 @@
       </c>
       <c r="I121" s="108">
         <f>SUMIFS(F117:F131, C117:C131,H121)</f>
-        <v>8.6805555555555636E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="136"/>
       <c r="B122" s="107" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>290</v>
@@ -30669,89 +30715,89 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E122" s="108">
-        <v>0.4861111111111111</v>
+        <v>0.53125</v>
       </c>
       <c r="F122" s="108">
         <f>E122-D122</f>
-        <v>2.777777777777779E-2</v>
+        <v>7.2916666666666685E-2</v>
       </c>
       <c r="H122" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I122" s="108">
         <f>SUMIFS(F117:F131, C117:C131,H122)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>9.027777777777779E-2</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="136"/>
       <c r="B123" s="107" t="s">
-        <v>509</v>
+        <v>310</v>
       </c>
       <c r="C123" s="107" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D123" s="108">
-        <v>0.4861111111111111</v>
+        <v>0.53125</v>
       </c>
       <c r="E123" s="108">
-        <v>0.53125</v>
+        <v>0.5625</v>
       </c>
       <c r="F123" s="108">
         <f>E123-D123</f>
-        <v>4.5138888888888895E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H123" s="109" t="s">
         <v>300</v>
       </c>
       <c r="I123" s="108">
         <f>SUMIFS(F117:F131, C117:C131,H123)</f>
-        <v>3.125E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="136"/>
       <c r="B124" s="107" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="C124" s="107" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D124" s="108">
-        <v>0.53125</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E124" s="108">
-        <v>0.5625</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F124" s="108">
         <f>E124-D124</f>
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H124" s="109" t="s">
         <v>302</v>
       </c>
       <c r="I124" s="108">
         <f>SUMIFS(F117:F131, C117:C131,H124)</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="136"/>
       <c r="B125" s="107" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C125" s="107" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D125" s="108">
-        <v>0.5625</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E125" s="108">
         <v>0.65625</v>
       </c>
       <c r="F125" s="108">
         <f>E125-D125</f>
-        <v>9.375E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H125" s="109" t="s">
         <v>299</v>
@@ -30784,7 +30830,7 @@
       </c>
       <c r="I126" s="106">
         <f t="shared" ref="I126" si="18">SUM(I120:I125)</f>
-        <v>0.46180555555555552</v>
+        <v>0.44444444444444448</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -30810,47 +30856,48 @@
     <row r="128" spans="1:9">
       <c r="A128" s="136"/>
       <c r="B128" s="107" t="s">
-        <v>296</v>
+        <v>529</v>
       </c>
       <c r="C128" s="107" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D128" s="108">
-        <v>0.71875</v>
+        <v>0.75</v>
       </c>
       <c r="E128" s="108">
-        <v>0.75</v>
+        <v>0.84027777777777779</v>
       </c>
       <c r="F128" s="108">
         <f t="shared" si="14"/>
-        <v>3.125E-2</v>
+        <v>9.027777777777779E-2</v>
       </c>
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="136"/>
-      <c r="B129" s="115" t="s">
-        <v>512</v>
-      </c>
-      <c r="C129" s="107" t="s">
-        <v>290</v>
+      <c r="B129" s="107" t="s">
+        <v>530</v>
+      </c>
+      <c r="C129" s="111" t="s">
+        <v>302</v>
       </c>
       <c r="D129" s="108">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="E129" s="108">
         <v>0.86111111111111116</v>
-      </c>
-      <c r="E129" s="108">
-        <v>0.9375</v>
       </c>
       <c r="F129" s="108">
         <f t="shared" si="14"/>
-        <v>7.638888888888884E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="136"/>
+      <c r="B130" s="107"/>
       <c r="C130" s="111"/>
-      <c r="D130" s="112"/>
-      <c r="E130" s="112"/>
+      <c r="D130" s="108"/>
+      <c r="E130" s="108"/>
       <c r="F130" s="112">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -31032,7 +31079,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C86:C139 C2:C84" xr:uid="{E11A071F-B02F-4004-8781-5995222CFFE1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79:C84 C2:C77 C86:C139" xr:uid="{E11A071F-B02F-4004-8781-5995222CFFE1}">
       <formula1>$Q$1:$Q$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56161D04-CFAE-4EB8-B5A1-0F4A70E3A2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9905E4B-236A-4894-9A6D-D9A5AFE36B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="24" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3172" uniqueCount="530">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1992,9 +1992,6 @@
   </si>
   <si>
     <t>Worked on angular and web api integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implemented </t>
   </si>
   <si>
     <t>Explored on Data Binding</t>
@@ -2163,7 +2160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -2556,11 +2553,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2914,6 +2935,11 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -25216,7 +25242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9EFCF2-B647-4263-9741-7AEEC9FEC381}">
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="R15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -28151,8 +28177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448AE304-61C3-4727-BB61-AC5EFF7EF149}">
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29778,7 +29804,7 @@
       </c>
       <c r="I75" s="108">
         <f>SUMIFS(F74:F86, C74:C86,H75)</f>
-        <v>0.15625000000000006</v>
+        <v>0.20833333333333331</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -29934,12 +29960,12 @@
       </c>
       <c r="I81" s="106">
         <f t="shared" ref="I81" si="15">SUM(I75:I80)</f>
-        <v>0.35069444444444442</v>
+        <v>0.40277777777777768</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="132"/>
-      <c r="B82" s="107" t="s">
+      <c r="B82" s="111" t="s">
         <v>452</v>
       </c>
       <c r="C82" s="107" t="s">
@@ -29958,11 +29984,11 @@
       <c r="I82" s="110"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="132"/>
-      <c r="B83" s="107" t="s">
+      <c r="A83" s="137"/>
+      <c r="B83" s="113" t="s">
         <v>524</v>
       </c>
-      <c r="C83" s="107" t="s">
+      <c r="C83" s="115" t="s">
         <v>290</v>
       </c>
       <c r="D83" s="108">
@@ -29978,11 +30004,11 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="132"/>
-      <c r="B84" s="107" t="s">
+      <c r="A84" s="137"/>
+      <c r="B84" s="113" t="s">
         <v>525</v>
       </c>
-      <c r="C84" s="111" t="s">
+      <c r="C84" s="116" t="s">
         <v>297</v>
       </c>
       <c r="D84" s="112">
@@ -29997,36 +30023,45 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="132"/>
-      <c r="C85" s="113"/>
-      <c r="D85" s="114"/>
-      <c r="E85" s="114"/>
-      <c r="F85" s="114"/>
+      <c r="A85" s="137"/>
+      <c r="B85" s="138" t="s">
+        <v>524</v>
+      </c>
+      <c r="C85" s="113" t="s">
+        <v>290</v>
+      </c>
+      <c r="D85" s="114">
+        <v>0.94097222222222221</v>
+      </c>
+      <c r="E85" s="114">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="F85" s="114">
+        <f>E85-D85</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="132"/>
-      <c r="B86" s="107"/>
-      <c r="C86" s="129"/>
-      <c r="D86" s="130"/>
-      <c r="E86" s="130"/>
-      <c r="F86" s="130">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="B86" s="139"/>
+      <c r="C86" s="113"/>
+      <c r="D86" s="114"/>
+      <c r="E86" s="114"/>
+      <c r="F86" s="114"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="132"/>
       <c r="B87" s="107"/>
-      <c r="C87" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="D87" s="108">
+      <c r="C87" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="D87" s="130">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E87" s="108">
+      <c r="E87" s="130">
         <v>0.36458333333333331</v>
       </c>
-      <c r="F87" s="108">
+      <c r="F87" s="130">
         <f t="shared" si="14"/>
         <v>1.041666666666663E-2</v>
       </c>
@@ -30706,7 +30741,7 @@
     <row r="122" spans="1:9">
       <c r="A122" s="136"/>
       <c r="B122" s="107" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>290</v>
@@ -30856,7 +30891,7 @@
     <row r="128" spans="1:9">
       <c r="A128" s="136"/>
       <c r="B128" s="107" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C128" s="107" t="s">
         <v>297</v>
@@ -30876,7 +30911,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="136"/>
       <c r="B129" s="107" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C129" s="111" t="s">
         <v>302</v>
@@ -31079,7 +31114,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79:C84 C2:C77 C86:C139" xr:uid="{E11A071F-B02F-4004-8781-5995222CFFE1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C77 C79:C139" xr:uid="{E11A071F-B02F-4004-8781-5995222CFFE1}">
       <formula1>$Q$1:$Q$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9905E4B-236A-4894-9A6D-D9A5AFE36B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B2714CC-9079-404B-934D-9EE328C1347E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="24" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3172" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="531">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1989,6 +1989,9 @@
   </si>
   <si>
     <t>Updated timesheet</t>
+  </si>
+  <si>
+    <t>Worked on angular</t>
   </si>
   <si>
     <t>Worked on angular and web api integration</t>
@@ -2920,6 +2923,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2938,8 +2943,6 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7764,7 +7767,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="134" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -7791,7 +7794,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="132"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="107" t="s">
         <v>293</v>
       </c>
@@ -7817,7 +7820,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="132"/>
+      <c r="A4" s="134"/>
       <c r="B4" s="107" t="s">
         <v>294</v>
       </c>
@@ -7843,7 +7846,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="132"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="107" t="s">
         <v>296</v>
       </c>
@@ -7869,7 +7872,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="132"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="107" t="s">
         <v>298</v>
       </c>
@@ -7895,7 +7898,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="132"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="107" t="s">
         <v>301</v>
       </c>
@@ -7921,7 +7924,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="132"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="107" t="s">
         <v>303</v>
       </c>
@@ -7947,7 +7950,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="132"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="107" t="s">
         <v>304</v>
       </c>
@@ -7973,7 +7976,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="132"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="107" t="s">
         <v>306</v>
       </c>
@@ -7993,7 +7996,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="132"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -8005,7 +8008,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="132"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -8016,7 +8019,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="132"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -8027,7 +8030,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="132"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -8038,7 +8041,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="132"/>
+      <c r="A15" s="134"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -8049,7 +8052,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="132"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -8060,7 +8063,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="134" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -8087,7 +8090,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="132"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="107" t="s">
         <v>308</v>
       </c>
@@ -8113,7 +8116,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="132"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -8139,7 +8142,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="132"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="107" t="s">
         <v>309</v>
       </c>
@@ -8165,7 +8168,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="132"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="107" t="s">
         <v>294</v>
       </c>
@@ -8191,7 +8194,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="132"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="107" t="s">
         <v>310</v>
       </c>
@@ -8217,7 +8220,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="132"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="107" t="s">
         <v>296</v>
       </c>
@@ -8243,7 +8246,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="132"/>
+      <c r="A24" s="134"/>
       <c r="B24" s="107" t="s">
         <v>311</v>
       </c>
@@ -8269,7 +8272,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="132"/>
+      <c r="A25" s="134"/>
       <c r="B25" s="107" t="s">
         <v>312</v>
       </c>
@@ -8289,7 +8292,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="132"/>
+      <c r="A26" s="134"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -8301,7 +8304,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="132"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -8312,7 +8315,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="132"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -8323,7 +8326,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="132"/>
+      <c r="A29" s="134"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -8334,7 +8337,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="132"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -8345,7 +8348,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="132"/>
+      <c r="A31" s="134"/>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="108"/>
@@ -8356,7 +8359,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="132" t="s">
+      <c r="A32" s="134" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="107" t="s">
@@ -8383,7 +8386,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="132"/>
+      <c r="A33" s="134"/>
       <c r="B33" s="107" t="s">
         <v>313</v>
       </c>
@@ -8409,7 +8412,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="132"/>
+      <c r="A34" s="134"/>
       <c r="B34" s="107" t="s">
         <v>301</v>
       </c>
@@ -8435,7 +8438,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="132"/>
+      <c r="A35" s="134"/>
       <c r="B35" s="107" t="s">
         <v>313</v>
       </c>
@@ -8461,7 +8464,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="132"/>
+      <c r="A36" s="134"/>
       <c r="B36" s="107" t="s">
         <v>294</v>
       </c>
@@ -8487,7 +8490,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="132"/>
+      <c r="A37" s="134"/>
       <c r="B37" s="107" t="s">
         <v>310</v>
       </c>
@@ -8513,7 +8516,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="132"/>
+      <c r="A38" s="134"/>
       <c r="B38" s="107" t="s">
         <v>314</v>
       </c>
@@ -8539,7 +8542,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="132"/>
+      <c r="A39" s="134"/>
       <c r="B39" s="107" t="s">
         <v>315</v>
       </c>
@@ -8565,7 +8568,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="132"/>
+      <c r="A40" s="134"/>
       <c r="B40" s="107" t="s">
         <v>303</v>
       </c>
@@ -8585,7 +8588,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="132"/>
+      <c r="A41" s="134"/>
       <c r="B41" s="107" t="s">
         <v>316</v>
       </c>
@@ -8605,7 +8608,7 @@
       <c r="I41" s="110"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="132"/>
+      <c r="A42" s="134"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -8616,7 +8619,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="132"/>
+      <c r="A43" s="134"/>
       <c r="B43" s="107" t="s">
         <v>317</v>
       </c>
@@ -8629,7 +8632,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="132"/>
+      <c r="A44" s="134"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -8640,7 +8643,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="132"/>
+      <c r="A45" s="134"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -8651,7 +8654,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="132"/>
+      <c r="A46" s="134"/>
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
       <c r="D46" s="108"/>
@@ -8662,7 +8665,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="132" t="s">
+      <c r="A47" s="134" t="s">
         <v>318</v>
       </c>
       <c r="B47" s="107" t="s">
@@ -8689,7 +8692,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="132"/>
+      <c r="A48" s="134"/>
       <c r="B48" s="107" t="s">
         <v>319</v>
       </c>
@@ -8715,7 +8718,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="132"/>
+      <c r="A49" s="134"/>
       <c r="B49" s="107" t="s">
         <v>320</v>
       </c>
@@ -8741,7 +8744,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="132"/>
+      <c r="A50" s="134"/>
       <c r="B50" s="107" t="s">
         <v>321</v>
       </c>
@@ -8767,7 +8770,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="132"/>
+      <c r="A51" s="134"/>
       <c r="B51" s="107" t="s">
         <v>322</v>
       </c>
@@ -8793,7 +8796,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="132"/>
+      <c r="A52" s="134"/>
       <c r="B52" s="107" t="s">
         <v>323</v>
       </c>
@@ -8819,7 +8822,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="132"/>
+      <c r="A53" s="134"/>
       <c r="B53" s="107" t="s">
         <v>296</v>
       </c>
@@ -8845,7 +8848,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="132"/>
+      <c r="A54" s="134"/>
       <c r="B54" s="107" t="s">
         <v>324</v>
       </c>
@@ -8871,7 +8874,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="132"/>
+      <c r="A55" s="134"/>
       <c r="B55" s="107" t="s">
         <v>325</v>
       </c>
@@ -8891,7 +8894,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="132"/>
+      <c r="A56" s="134"/>
       <c r="B56" s="107" t="s">
         <v>326</v>
       </c>
@@ -8911,7 +8914,7 @@
       <c r="I56" s="110"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="132"/>
+      <c r="A57" s="134"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -8922,7 +8925,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="132"/>
+      <c r="A58" s="134"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -8933,7 +8936,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="132"/>
+      <c r="A59" s="134"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -8944,7 +8947,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="132"/>
+      <c r="A60" s="134"/>
       <c r="B60" s="107"/>
       <c r="C60" s="107"/>
       <c r="D60" s="108"/>
@@ -8955,7 +8958,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="132"/>
+      <c r="A61" s="134"/>
       <c r="B61" s="107"/>
       <c r="C61" s="107"/>
       <c r="D61" s="108"/>
@@ -8966,7 +8969,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="132" t="s">
+      <c r="A62" s="134" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="107" t="s">
@@ -8993,7 +8996,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="132"/>
+      <c r="A63" s="134"/>
       <c r="B63" s="107" t="s">
         <v>328</v>
       </c>
@@ -9019,7 +9022,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="132"/>
+      <c r="A64" s="134"/>
       <c r="B64" s="107" t="s">
         <v>301</v>
       </c>
@@ -9045,7 +9048,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="132"/>
+      <c r="A65" s="134"/>
       <c r="B65" s="107" t="s">
         <v>321</v>
       </c>
@@ -9071,7 +9074,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="132"/>
+      <c r="A66" s="134"/>
       <c r="B66" s="107" t="s">
         <v>294</v>
       </c>
@@ -9097,7 +9100,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="132"/>
+      <c r="A67" s="134"/>
       <c r="B67" s="107" t="s">
         <v>310</v>
       </c>
@@ -9123,7 +9126,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="132"/>
+      <c r="A68" s="134"/>
       <c r="B68" s="107" t="s">
         <v>296</v>
       </c>
@@ -9149,7 +9152,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="132"/>
+      <c r="A69" s="134"/>
       <c r="B69" s="107" t="s">
         <v>329</v>
       </c>
@@ -9175,7 +9178,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="132"/>
+      <c r="A70" s="134"/>
       <c r="B70" s="107" t="s">
         <v>330</v>
       </c>
@@ -9195,7 +9198,7 @@
       <c r="I70" s="110"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="132"/>
+      <c r="A71" s="134"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -9207,7 +9210,7 @@
       <c r="I71" s="110"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="132"/>
+      <c r="A72" s="134"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -9218,7 +9221,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="132"/>
+      <c r="A73" s="134"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -9229,7 +9232,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="132"/>
+      <c r="A74" s="134"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -9240,7 +9243,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="132"/>
+      <c r="A75" s="134"/>
       <c r="B75" s="107"/>
       <c r="C75" s="107"/>
       <c r="D75" s="108"/>
@@ -9251,7 +9254,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="132"/>
+      <c r="A76" s="134"/>
       <c r="B76" s="107"/>
       <c r="C76" s="107"/>
       <c r="D76" s="108"/>
@@ -9262,7 +9265,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="132" t="s">
+      <c r="A77" s="134" t="s">
         <v>67</v>
       </c>
       <c r="B77" s="107" t="s">
@@ -9289,7 +9292,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="132"/>
+      <c r="A78" s="134"/>
       <c r="B78" s="107" t="s">
         <v>331</v>
       </c>
@@ -9315,7 +9318,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="132"/>
+      <c r="A79" s="134"/>
       <c r="B79" s="107" t="s">
         <v>294</v>
       </c>
@@ -9341,7 +9344,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="132"/>
+      <c r="A80" s="134"/>
       <c r="B80" s="107" t="s">
         <v>331</v>
       </c>
@@ -9367,7 +9370,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="132"/>
+      <c r="A81" s="134"/>
       <c r="B81" s="107" t="s">
         <v>298</v>
       </c>
@@ -9393,7 +9396,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="132"/>
+      <c r="A82" s="134"/>
       <c r="B82" s="107" t="s">
         <v>301</v>
       </c>
@@ -9419,7 +9422,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="132"/>
+      <c r="A83" s="134"/>
       <c r="B83" s="107" t="s">
         <v>303</v>
       </c>
@@ -9445,7 +9448,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="132"/>
+      <c r="A84" s="134"/>
       <c r="B84" s="107" t="s">
         <v>315</v>
       </c>
@@ -9471,7 +9474,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="132"/>
+      <c r="A85" s="134"/>
       <c r="B85" s="107" t="s">
         <v>332</v>
       </c>
@@ -9491,7 +9494,7 @@
       <c r="I85" s="110"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="132"/>
+      <c r="A86" s="134"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -9503,7 +9506,7 @@
       <c r="I86" s="110"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="132"/>
+      <c r="A87" s="134"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107"/>
       <c r="D87" s="108"/>
@@ -9514,7 +9517,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="132"/>
+      <c r="A88" s="134"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -9525,7 +9528,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="132"/>
+      <c r="A89" s="134"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -9536,7 +9539,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="132"/>
+      <c r="A90" s="134"/>
       <c r="B90" s="107"/>
       <c r="C90" s="107"/>
       <c r="D90" s="108"/>
@@ -9547,7 +9550,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="132"/>
+      <c r="A91" s="134"/>
       <c r="B91" s="107"/>
       <c r="C91" s="107"/>
       <c r="D91" s="108"/>
@@ -9558,7 +9561,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="132" t="s">
+      <c r="A92" s="134" t="s">
         <v>28</v>
       </c>
       <c r="B92" s="107" t="s">
@@ -9585,7 +9588,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="132"/>
+      <c r="A93" s="134"/>
       <c r="B93" s="107" t="s">
         <v>333</v>
       </c>
@@ -9611,7 +9614,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="132"/>
+      <c r="A94" s="134"/>
       <c r="B94" s="107" t="s">
         <v>301</v>
       </c>
@@ -9637,7 +9640,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="132"/>
+      <c r="A95" s="134"/>
       <c r="B95" s="107" t="s">
         <v>334</v>
       </c>
@@ -9663,7 +9666,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="132"/>
+      <c r="A96" s="134"/>
       <c r="B96" s="107" t="s">
         <v>294</v>
       </c>
@@ -9689,7 +9692,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="132"/>
+      <c r="A97" s="134"/>
       <c r="B97" s="107" t="s">
         <v>310</v>
       </c>
@@ -9715,7 +9718,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="132"/>
+      <c r="A98" s="134"/>
       <c r="B98" s="107" t="s">
         <v>335</v>
       </c>
@@ -9741,7 +9744,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="132"/>
+      <c r="A99" s="134"/>
       <c r="B99" s="107" t="s">
         <v>336</v>
       </c>
@@ -9767,7 +9770,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="132"/>
+      <c r="A100" s="134"/>
       <c r="B100" s="107" t="s">
         <v>337</v>
       </c>
@@ -9787,7 +9790,7 @@
       <c r="I100" s="110"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="132"/>
+      <c r="A101" s="134"/>
       <c r="B101" s="107" t="s">
         <v>303</v>
       </c>
@@ -9807,7 +9810,7 @@
       <c r="I101" s="110"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="132"/>
+      <c r="A102" s="134"/>
       <c r="B102" s="107" t="s">
         <v>335</v>
       </c>
@@ -9826,7 +9829,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="132"/>
+      <c r="A103" s="134"/>
       <c r="B103" s="107" t="s">
         <v>338</v>
       </c>
@@ -9845,7 +9848,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="132"/>
+      <c r="A104" s="134"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -9856,7 +9859,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="132"/>
+      <c r="A105" s="134"/>
       <c r="B105" s="107"/>
       <c r="C105" s="107"/>
       <c r="D105" s="108"/>
@@ -9867,7 +9870,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="133"/>
+      <c r="A106" s="135"/>
       <c r="B106" s="107"/>
       <c r="C106" s="107"/>
       <c r="D106" s="108"/>
@@ -9878,7 +9881,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="134" t="s">
+      <c r="A107" s="136" t="s">
         <v>19</v>
       </c>
       <c r="B107" s="115" t="s">
@@ -9905,7 +9908,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="134"/>
+      <c r="A108" s="136"/>
       <c r="B108" s="115" t="s">
         <v>331</v>
       </c>
@@ -9931,7 +9934,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="134"/>
+      <c r="A109" s="136"/>
       <c r="B109" s="115" t="s">
         <v>294</v>
       </c>
@@ -9957,7 +9960,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="134"/>
+      <c r="A110" s="136"/>
       <c r="B110" s="115" t="s">
         <v>331</v>
       </c>
@@ -9983,7 +9986,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="134"/>
+      <c r="A111" s="136"/>
       <c r="B111" s="115" t="s">
         <v>298</v>
       </c>
@@ -10009,7 +10012,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="134"/>
+      <c r="A112" s="136"/>
       <c r="B112" s="115" t="s">
         <v>301</v>
       </c>
@@ -10035,7 +10038,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="134"/>
+      <c r="A113" s="136"/>
       <c r="B113" s="115" t="s">
         <v>303</v>
       </c>
@@ -10061,7 +10064,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="134"/>
+      <c r="A114" s="136"/>
       <c r="B114" s="115" t="s">
         <v>315</v>
       </c>
@@ -10087,7 +10090,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="134"/>
+      <c r="A115" s="136"/>
       <c r="B115" s="115" t="s">
         <v>332</v>
       </c>
@@ -10107,7 +10110,7 @@
       <c r="I115" s="110"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="134"/>
+      <c r="A116" s="136"/>
       <c r="B116" s="115"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -10119,7 +10122,7 @@
       <c r="I116" s="110"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="134"/>
+      <c r="A117" s="136"/>
       <c r="B117" s="115"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -10130,7 +10133,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="134"/>
+      <c r="A118" s="136"/>
       <c r="B118" s="115"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -10141,7 +10144,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="134"/>
+      <c r="A119" s="136"/>
       <c r="B119" s="115"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -10152,7 +10155,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="134"/>
+      <c r="A120" s="136"/>
       <c r="B120" s="116"/>
       <c r="C120" s="111"/>
       <c r="D120" s="112"/>
@@ -10163,7 +10166,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="135"/>
+      <c r="A121" s="137"/>
       <c r="B121" s="117"/>
       <c r="C121" s="113"/>
       <c r="D121" s="114"/>
@@ -10174,7 +10177,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="136" t="s">
+      <c r="A122" s="138" t="s">
         <v>339</v>
       </c>
       <c r="B122" s="115" t="s">
@@ -10201,7 +10204,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="136"/>
+      <c r="A123" s="138"/>
       <c r="B123" s="115" t="s">
         <v>341</v>
       </c>
@@ -10227,7 +10230,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="136"/>
+      <c r="A124" s="138"/>
       <c r="B124" s="115" t="s">
         <v>320</v>
       </c>
@@ -10253,7 +10256,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="136"/>
+      <c r="A125" s="138"/>
       <c r="B125" s="115" t="s">
         <v>342</v>
       </c>
@@ -10279,7 +10282,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="136"/>
+      <c r="A126" s="138"/>
       <c r="B126" s="115" t="s">
         <v>322</v>
       </c>
@@ -10305,7 +10308,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="136"/>
+      <c r="A127" s="138"/>
       <c r="B127" s="115" t="s">
         <v>323</v>
       </c>
@@ -10331,7 +10334,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="136"/>
+      <c r="A128" s="138"/>
       <c r="B128" s="115" t="s">
         <v>343</v>
       </c>
@@ -10357,7 +10360,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="136"/>
+      <c r="A129" s="138"/>
       <c r="B129" s="115" t="s">
         <v>329</v>
       </c>
@@ -10383,7 +10386,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="136"/>
+      <c r="A130" s="138"/>
       <c r="B130" s="115" t="s">
         <v>303</v>
       </c>
@@ -10403,7 +10406,7 @@
       <c r="I130" s="110"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="136"/>
+      <c r="A131" s="138"/>
       <c r="B131" s="115" t="s">
         <v>329</v>
       </c>
@@ -10423,7 +10426,7 @@
       <c r="I131" s="110"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="136"/>
+      <c r="A132" s="138"/>
       <c r="B132" s="115" t="s">
         <v>344</v>
       </c>
@@ -10442,7 +10445,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="136"/>
+      <c r="A133" s="138"/>
       <c r="B133" s="115" t="s">
         <v>345</v>
       </c>
@@ -10461,7 +10464,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="136"/>
+      <c r="A134" s="138"/>
       <c r="B134" s="115"/>
       <c r="C134" s="107"/>
       <c r="D134" s="108"/>
@@ -10472,7 +10475,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="136"/>
+      <c r="A135" s="138"/>
       <c r="B135" s="116"/>
       <c r="C135" s="111"/>
       <c r="D135" s="112"/>
@@ -10483,7 +10486,7 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="136"/>
+      <c r="A136" s="138"/>
       <c r="B136" s="117"/>
       <c r="C136" s="113"/>
       <c r="D136" s="114"/>
@@ -10660,7 +10663,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="134" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -10690,7 +10693,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="132"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="107" t="s">
         <v>331</v>
       </c>
@@ -10719,7 +10722,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="132"/>
+      <c r="A4" s="134"/>
       <c r="B4" s="107" t="s">
         <v>301</v>
       </c>
@@ -10748,7 +10751,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="132"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="107" t="s">
         <v>347</v>
       </c>
@@ -10777,7 +10780,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="132"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="107" t="s">
         <v>294</v>
       </c>
@@ -10806,7 +10809,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="132"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="107" t="s">
         <v>298</v>
       </c>
@@ -10835,7 +10838,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="132"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="107" t="s">
         <v>348</v>
       </c>
@@ -10861,7 +10864,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="132"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="107" t="s">
         <v>303</v>
       </c>
@@ -10887,7 +10890,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="132"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="120" t="s">
         <v>349</v>
       </c>
@@ -10907,7 +10910,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="132"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="107" t="s">
         <v>350</v>
       </c>
@@ -10927,7 +10930,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="132"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="107" t="s">
         <v>351</v>
       </c>
@@ -10946,7 +10949,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="132"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -10957,7 +10960,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="132"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -10968,7 +10971,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="132"/>
+      <c r="A15" s="134"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -10979,7 +10982,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="132"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -10990,7 +10993,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="134" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -11017,7 +11020,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="132"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="107" t="s">
         <v>331</v>
       </c>
@@ -11043,7 +11046,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="132"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -11069,7 +11072,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="132"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="107" t="s">
         <v>353</v>
       </c>
@@ -11095,7 +11098,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="132"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="107" t="s">
         <v>322</v>
       </c>
@@ -11121,7 +11124,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="132"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="107" t="s">
         <v>298</v>
       </c>
@@ -11147,7 +11150,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="132"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="107" t="s">
         <v>354</v>
       </c>
@@ -11173,7 +11176,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="132"/>
+      <c r="A24" s="134"/>
       <c r="B24" s="107" t="s">
         <v>303</v>
       </c>
@@ -11199,7 +11202,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="132"/>
+      <c r="A25" s="134"/>
       <c r="B25" s="107" t="s">
         <v>355</v>
       </c>
@@ -11219,7 +11222,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="132"/>
+      <c r="A26" s="134"/>
       <c r="B26" s="107" t="s">
         <v>314</v>
       </c>
@@ -11239,7 +11242,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="132"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="107" t="s">
         <v>355</v>
       </c>
@@ -11258,7 +11261,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="132"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -11269,7 +11272,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="132"/>
+      <c r="A29" s="134"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -11280,7 +11283,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="132"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -11291,7 +11294,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="134" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -11318,7 +11321,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="132"/>
+      <c r="A32" s="134"/>
       <c r="B32" s="107" t="s">
         <v>331</v>
       </c>
@@ -11344,7 +11347,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="132"/>
+      <c r="A33" s="134"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -11370,7 +11373,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="132"/>
+      <c r="A34" s="134"/>
       <c r="B34" s="107" t="s">
         <v>357</v>
       </c>
@@ -11396,7 +11399,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="132"/>
+      <c r="A35" s="134"/>
       <c r="B35" s="107" t="s">
         <v>322</v>
       </c>
@@ -11422,7 +11425,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="132"/>
+      <c r="A36" s="134"/>
       <c r="B36" s="107" t="s">
         <v>298</v>
       </c>
@@ -11448,7 +11451,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="132"/>
+      <c r="A37" s="134"/>
       <c r="B37" s="107" t="s">
         <v>358</v>
       </c>
@@ -11474,7 +11477,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="132"/>
+      <c r="A38" s="134"/>
       <c r="B38" s="107" t="s">
         <v>303</v>
       </c>
@@ -11500,7 +11503,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="132"/>
+      <c r="A39" s="134"/>
       <c r="B39" s="107" t="s">
         <v>359</v>
       </c>
@@ -11520,7 +11523,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="132"/>
+      <c r="A40" s="134"/>
       <c r="B40" s="107" t="s">
         <v>314</v>
       </c>
@@ -11540,7 +11543,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="132"/>
+      <c r="A41" s="134"/>
       <c r="B41" s="107" t="s">
         <v>360</v>
       </c>
@@ -11559,7 +11562,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="132"/>
+      <c r="A42" s="134"/>
       <c r="B42" s="107" t="s">
         <v>361</v>
       </c>
@@ -11578,7 +11581,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="132"/>
+      <c r="A43" s="134"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -11589,7 +11592,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="132"/>
+      <c r="A44" s="134"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -11600,7 +11603,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="132"/>
+      <c r="A45" s="134"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -11611,7 +11614,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="132" t="s">
+      <c r="A46" s="134" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -11638,7 +11641,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="132"/>
+      <c r="A47" s="134"/>
       <c r="B47" s="107" t="s">
         <v>331</v>
       </c>
@@ -11664,7 +11667,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="132"/>
+      <c r="A48" s="134"/>
       <c r="B48" s="107" t="s">
         <v>301</v>
       </c>
@@ -11690,7 +11693,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="132"/>
+      <c r="A49" s="134"/>
       <c r="B49" s="107" t="s">
         <v>363</v>
       </c>
@@ -11716,7 +11719,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="132"/>
+      <c r="A50" s="134"/>
       <c r="B50" s="107" t="s">
         <v>322</v>
       </c>
@@ -11742,7 +11745,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="132"/>
+      <c r="A51" s="134"/>
       <c r="B51" s="107" t="s">
         <v>298</v>
       </c>
@@ -11768,7 +11771,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="132"/>
+      <c r="A52" s="134"/>
       <c r="B52" s="107" t="s">
         <v>354</v>
       </c>
@@ -11794,7 +11797,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="132"/>
+      <c r="A53" s="134"/>
       <c r="B53" s="107" t="s">
         <v>303</v>
       </c>
@@ -11820,7 +11823,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="132"/>
+      <c r="A54" s="134"/>
       <c r="B54" s="107" t="s">
         <v>364</v>
       </c>
@@ -11840,7 +11843,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="132"/>
+      <c r="A55" s="134"/>
       <c r="B55" s="107" t="s">
         <v>314</v>
       </c>
@@ -11860,7 +11863,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="132"/>
+      <c r="A56" s="134"/>
       <c r="B56" s="107" t="s">
         <v>365</v>
       </c>
@@ -11879,7 +11882,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="132"/>
+      <c r="A57" s="134"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -11890,7 +11893,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="132"/>
+      <c r="A58" s="134"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -11901,7 +11904,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="132"/>
+      <c r="A59" s="134"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -11912,7 +11915,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="132" t="s">
+      <c r="A60" s="134" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -11939,7 +11942,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="132"/>
+      <c r="A61" s="134"/>
       <c r="B61" s="107" t="s">
         <v>331</v>
       </c>
@@ -11965,7 +11968,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="132"/>
+      <c r="A62" s="134"/>
       <c r="B62" s="107" t="s">
         <v>301</v>
       </c>
@@ -11991,7 +11994,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="132"/>
+      <c r="A63" s="134"/>
       <c r="B63" s="107" t="s">
         <v>366</v>
       </c>
@@ -12017,7 +12020,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="132"/>
+      <c r="A64" s="134"/>
       <c r="B64" s="107" t="s">
         <v>322</v>
       </c>
@@ -12043,7 +12046,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="132"/>
+      <c r="A65" s="134"/>
       <c r="B65" s="107" t="s">
         <v>298</v>
       </c>
@@ -12069,7 +12072,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="132"/>
+      <c r="A66" s="134"/>
       <c r="B66" s="107" t="s">
         <v>367</v>
       </c>
@@ -12095,7 +12098,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="132"/>
+      <c r="A67" s="134"/>
       <c r="B67" s="107" t="s">
         <v>368</v>
       </c>
@@ -12121,7 +12124,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="132"/>
+      <c r="A68" s="134"/>
       <c r="B68" s="107" t="s">
         <v>369</v>
       </c>
@@ -12141,7 +12144,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="132"/>
+      <c r="A69" s="134"/>
       <c r="B69" s="107" t="s">
         <v>314</v>
       </c>
@@ -12161,7 +12164,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="132"/>
+      <c r="A70" s="134"/>
       <c r="B70" s="107" t="s">
         <v>370</v>
       </c>
@@ -12180,7 +12183,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="132"/>
+      <c r="A71" s="134"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -12191,7 +12194,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="132"/>
+      <c r="A72" s="134"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -12202,7 +12205,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="132"/>
+      <c r="A73" s="134"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -12213,7 +12216,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="132"/>
+      <c r="A74" s="134"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -12224,7 +12227,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="132" t="s">
+      <c r="A75" s="134" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -12251,7 +12254,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="132"/>
+      <c r="A76" s="134"/>
       <c r="B76" s="107" t="s">
         <v>331</v>
       </c>
@@ -12277,7 +12280,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="132"/>
+      <c r="A77" s="134"/>
       <c r="B77" s="107" t="s">
         <v>301</v>
       </c>
@@ -12303,7 +12306,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="132"/>
+      <c r="A78" s="134"/>
       <c r="B78" s="107" t="s">
         <v>371</v>
       </c>
@@ -12329,7 +12332,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="132"/>
+      <c r="A79" s="134"/>
       <c r="B79" s="107" t="s">
         <v>372</v>
       </c>
@@ -12355,7 +12358,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="132"/>
+      <c r="A80" s="134"/>
       <c r="B80" s="107" t="s">
         <v>322</v>
       </c>
@@ -12381,7 +12384,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="132"/>
+      <c r="A81" s="134"/>
       <c r="B81" s="107" t="s">
         <v>371</v>
       </c>
@@ -12407,7 +12410,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="132"/>
+      <c r="A82" s="134"/>
       <c r="B82" s="107" t="s">
         <v>373</v>
       </c>
@@ -12433,7 +12436,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="132"/>
+      <c r="A83" s="134"/>
       <c r="B83" s="107" t="s">
         <v>368</v>
       </c>
@@ -12453,7 +12456,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="132"/>
+      <c r="A84" s="134"/>
       <c r="B84" s="107" t="s">
         <v>373</v>
       </c>
@@ -12473,7 +12476,7 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="132"/>
+      <c r="A85" s="134"/>
       <c r="B85" s="107" t="s">
         <v>314</v>
       </c>
@@ -12492,7 +12495,7 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="132"/>
+      <c r="A86" s="134"/>
       <c r="B86" s="107" t="s">
         <v>371</v>
       </c>
@@ -12511,7 +12514,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="132"/>
+      <c r="A87" s="134"/>
       <c r="B87" s="107" t="s">
         <v>374</v>
       </c>
@@ -12530,7 +12533,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="132"/>
+      <c r="A88" s="134"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -12541,7 +12544,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="132"/>
+      <c r="A89" s="134"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -12552,7 +12555,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="132" t="s">
+      <c r="A90" s="134" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -12579,7 +12582,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="132"/>
+      <c r="A91" s="134"/>
       <c r="B91" s="107" t="s">
         <v>375</v>
       </c>
@@ -12605,7 +12608,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="132"/>
+      <c r="A92" s="134"/>
       <c r="B92" s="107" t="s">
         <v>331</v>
       </c>
@@ -12631,7 +12634,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="132"/>
+      <c r="A93" s="134"/>
       <c r="B93" s="107" t="s">
         <v>375</v>
       </c>
@@ -12657,7 +12660,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="132"/>
+      <c r="A94" s="134"/>
       <c r="B94" s="107" t="s">
         <v>294</v>
       </c>
@@ -12683,7 +12686,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="132"/>
+      <c r="A95" s="134"/>
       <c r="B95" s="107" t="s">
         <v>310</v>
       </c>
@@ -12709,7 +12712,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="132"/>
+      <c r="A96" s="134"/>
       <c r="B96" s="107" t="s">
         <v>376</v>
       </c>
@@ -12735,7 +12738,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="132"/>
+      <c r="A97" s="134"/>
       <c r="B97" s="107" t="s">
         <v>377</v>
       </c>
@@ -12761,7 +12764,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="132"/>
+      <c r="A98" s="134"/>
       <c r="B98" s="107" t="s">
         <v>303</v>
       </c>
@@ -12781,7 +12784,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="132"/>
+      <c r="A99" s="134"/>
       <c r="B99" s="107" t="s">
         <v>375</v>
       </c>
@@ -12801,7 +12804,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="132"/>
+      <c r="A100" s="134"/>
       <c r="B100" s="107" t="s">
         <v>378</v>
       </c>
@@ -12820,7 +12823,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="132"/>
+      <c r="A101" s="134"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -12831,7 +12834,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="132"/>
+      <c r="A102" s="134"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -12842,7 +12845,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="132"/>
+      <c r="A103" s="134"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -12853,7 +12856,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="133"/>
+      <c r="A104" s="135"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -12864,7 +12867,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="134" t="s">
+      <c r="A105" s="136" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -12891,7 +12894,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="134"/>
+      <c r="A106" s="136"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -12917,7 +12920,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="134"/>
+      <c r="A107" s="136"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -12943,7 +12946,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="134"/>
+      <c r="A108" s="136"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -12969,7 +12972,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="134"/>
+      <c r="A109" s="136"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -12995,7 +12998,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="134"/>
+      <c r="A110" s="136"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -13021,7 +13024,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="134"/>
+      <c r="A111" s="136"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -13047,7 +13050,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="134"/>
+      <c r="A112" s="136"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -13073,7 +13076,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="134"/>
+      <c r="A113" s="136"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -13093,7 +13096,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="134"/>
+      <c r="A114" s="136"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -13105,7 +13108,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="134"/>
+      <c r="A115" s="136"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -13116,7 +13119,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="134"/>
+      <c r="A116" s="136"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -13127,7 +13130,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="134"/>
+      <c r="A117" s="136"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -13138,7 +13141,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="134"/>
+      <c r="A118" s="136"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -13149,7 +13152,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="135"/>
+      <c r="A119" s="137"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -13160,7 +13163,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="136" t="s">
+      <c r="A120" s="138" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -13187,7 +13190,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="136"/>
+      <c r="A121" s="138"/>
       <c r="B121" s="115" t="s">
         <v>380</v>
       </c>
@@ -13213,7 +13216,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="136"/>
+      <c r="A122" s="138"/>
       <c r="B122" s="115" t="s">
         <v>301</v>
       </c>
@@ -13239,7 +13242,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="136"/>
+      <c r="A123" s="138"/>
       <c r="B123" s="115" t="s">
         <v>381</v>
       </c>
@@ -13265,7 +13268,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="136"/>
+      <c r="A124" s="138"/>
       <c r="B124" s="115" t="s">
         <v>382</v>
       </c>
@@ -13291,7 +13294,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="136"/>
+      <c r="A125" s="138"/>
       <c r="B125" s="115" t="s">
         <v>302</v>
       </c>
@@ -13317,7 +13320,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="136"/>
+      <c r="A126" s="138"/>
       <c r="B126" s="115" t="s">
         <v>310</v>
       </c>
@@ -13343,7 +13346,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="136"/>
+      <c r="A127" s="138"/>
       <c r="B127" s="120" t="s">
         <v>383</v>
       </c>
@@ -13369,7 +13372,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="136"/>
+      <c r="A128" s="138"/>
       <c r="B128" s="115" t="s">
         <v>303</v>
       </c>
@@ -13389,7 +13392,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="136"/>
+      <c r="A129" s="138"/>
       <c r="B129" s="115" t="s">
         <v>381</v>
       </c>
@@ -13409,7 +13412,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="136"/>
+      <c r="A130" s="138"/>
       <c r="B130" s="115" t="s">
         <v>384</v>
       </c>
@@ -13428,7 +13431,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="136"/>
+      <c r="A131" s="138"/>
       <c r="B131" s="115" t="s">
         <v>385</v>
       </c>
@@ -13447,7 +13450,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="136"/>
+      <c r="A132" s="138"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -13458,7 +13461,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="136"/>
+      <c r="A133" s="138"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -13469,7 +13472,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="136"/>
+      <c r="A134" s="138"/>
       <c r="B134" s="117"/>
       <c r="C134" s="113"/>
       <c r="D134" s="114"/>
@@ -14021,7 +14024,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="134" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -14051,7 +14054,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="132"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="107" t="s">
         <v>331</v>
       </c>
@@ -14080,7 +14083,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="132"/>
+      <c r="A4" s="134"/>
       <c r="B4" s="107" t="s">
         <v>301</v>
       </c>
@@ -14109,7 +14112,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="132"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="107" t="s">
         <v>351</v>
       </c>
@@ -14138,7 +14141,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="132"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="107" t="s">
         <v>294</v>
       </c>
@@ -14167,7 +14170,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="132"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="107" t="s">
         <v>298</v>
       </c>
@@ -14196,7 +14199,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="132"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="107" t="s">
         <v>348</v>
       </c>
@@ -14222,7 +14225,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="132"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="107" t="s">
         <v>303</v>
       </c>
@@ -14248,7 +14251,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="132"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="120" t="s">
         <v>349</v>
       </c>
@@ -14268,7 +14271,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="132"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="107" t="s">
         <v>350</v>
       </c>
@@ -14288,7 +14291,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="132"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="107" t="s">
         <v>351</v>
       </c>
@@ -14307,7 +14310,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="132"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -14318,7 +14321,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="132"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -14329,7 +14332,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="132"/>
+      <c r="A15" s="134"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -14340,7 +14343,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="132"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -14351,7 +14354,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="134" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -14378,7 +14381,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="132"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="107" t="s">
         <v>331</v>
       </c>
@@ -14404,7 +14407,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="132"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="107" t="s">
         <v>301</v>
       </c>
@@ -14430,7 +14433,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="132"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="107" t="s">
         <v>352</v>
       </c>
@@ -14456,7 +14459,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="132"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="107" t="s">
         <v>298</v>
       </c>
@@ -14482,7 +14485,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="132"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="107" t="s">
         <v>294</v>
       </c>
@@ -14508,7 +14511,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="132"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="107" t="s">
         <v>386</v>
       </c>
@@ -14534,7 +14537,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="132"/>
+      <c r="A24" s="134"/>
       <c r="B24" s="107" t="s">
         <v>303</v>
       </c>
@@ -14560,7 +14563,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="132"/>
+      <c r="A25" s="134"/>
       <c r="B25" s="107" t="s">
         <v>387</v>
       </c>
@@ -14580,7 +14583,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="132"/>
+      <c r="A26" s="134"/>
       <c r="B26" s="107" t="s">
         <v>314</v>
       </c>
@@ -14600,7 +14603,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="132"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="107" t="s">
         <v>388</v>
       </c>
@@ -14619,7 +14622,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="132"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -14630,7 +14633,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="132"/>
+      <c r="A29" s="134"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -14641,7 +14644,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="132"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -14652,7 +14655,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="134" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -14679,7 +14682,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="132"/>
+      <c r="A32" s="134"/>
       <c r="B32" s="107" t="s">
         <v>331</v>
       </c>
@@ -14705,7 +14708,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="132"/>
+      <c r="A33" s="134"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -14731,7 +14734,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="132"/>
+      <c r="A34" s="134"/>
       <c r="B34" s="107" t="s">
         <v>389</v>
       </c>
@@ -14757,7 +14760,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="132"/>
+      <c r="A35" s="134"/>
       <c r="B35" s="107" t="s">
         <v>322</v>
       </c>
@@ -14783,7 +14786,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="132"/>
+      <c r="A36" s="134"/>
       <c r="B36" s="107" t="s">
         <v>298</v>
       </c>
@@ -14809,7 +14812,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="132"/>
+      <c r="A37" s="134"/>
       <c r="B37" s="107" t="s">
         <v>358</v>
       </c>
@@ -14835,7 +14838,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="132"/>
+      <c r="A38" s="134"/>
       <c r="B38" s="107" t="s">
         <v>303</v>
       </c>
@@ -14861,7 +14864,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="132"/>
+      <c r="A39" s="134"/>
       <c r="B39" s="107" t="s">
         <v>359</v>
       </c>
@@ -14881,7 +14884,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="132"/>
+      <c r="A40" s="134"/>
       <c r="B40" s="107" t="s">
         <v>314</v>
       </c>
@@ -14901,7 +14904,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="132"/>
+      <c r="A41" s="134"/>
       <c r="B41" s="107" t="s">
         <v>360</v>
       </c>
@@ -14920,7 +14923,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="132"/>
+      <c r="A42" s="134"/>
       <c r="B42" s="107" t="s">
         <v>361</v>
       </c>
@@ -14939,7 +14942,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="132"/>
+      <c r="A43" s="134"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -14950,7 +14953,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="132"/>
+      <c r="A44" s="134"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -14961,7 +14964,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="132"/>
+      <c r="A45" s="134"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -14972,7 +14975,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="132" t="s">
+      <c r="A46" s="134" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -14999,7 +15002,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="132"/>
+      <c r="A47" s="134"/>
       <c r="B47" s="107" t="s">
         <v>331</v>
       </c>
@@ -15025,7 +15028,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="132"/>
+      <c r="A48" s="134"/>
       <c r="B48" s="107" t="s">
         <v>301</v>
       </c>
@@ -15051,7 +15054,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="132"/>
+      <c r="A49" s="134"/>
       <c r="B49" s="107" t="s">
         <v>390</v>
       </c>
@@ -15077,7 +15080,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="132"/>
+      <c r="A50" s="134"/>
       <c r="B50" s="107" t="s">
         <v>298</v>
       </c>
@@ -15103,7 +15106,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="132"/>
+      <c r="A51" s="134"/>
       <c r="B51" s="107" t="s">
         <v>294</v>
       </c>
@@ -15129,7 +15132,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="132"/>
+      <c r="A52" s="134"/>
       <c r="B52" s="107" t="s">
         <v>386</v>
       </c>
@@ -15155,7 +15158,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="132"/>
+      <c r="A53" s="134"/>
       <c r="B53" s="107" t="s">
         <v>303</v>
       </c>
@@ -15181,7 +15184,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="132"/>
+      <c r="A54" s="134"/>
       <c r="B54" s="107" t="s">
         <v>391</v>
       </c>
@@ -15201,7 +15204,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="132"/>
+      <c r="A55" s="134"/>
       <c r="B55" s="107" t="s">
         <v>314</v>
       </c>
@@ -15221,7 +15224,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="132"/>
+      <c r="A56" s="134"/>
       <c r="B56" s="107" t="s">
         <v>392</v>
       </c>
@@ -15240,7 +15243,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="132"/>
+      <c r="A57" s="134"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -15251,7 +15254,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="132"/>
+      <c r="A58" s="134"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -15262,7 +15265,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="132"/>
+      <c r="A59" s="134"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -15273,7 +15276,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="132" t="s">
+      <c r="A60" s="134" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -15300,7 +15303,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="132"/>
+      <c r="A61" s="134"/>
       <c r="B61" s="107" t="s">
         <v>331</v>
       </c>
@@ -15326,7 +15329,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="132"/>
+      <c r="A62" s="134"/>
       <c r="B62" s="107" t="s">
         <v>301</v>
       </c>
@@ -15352,7 +15355,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="132"/>
+      <c r="A63" s="134"/>
       <c r="B63" s="107" t="s">
         <v>366</v>
       </c>
@@ -15378,7 +15381,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="132"/>
+      <c r="A64" s="134"/>
       <c r="B64" s="107" t="s">
         <v>322</v>
       </c>
@@ -15404,7 +15407,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="132"/>
+      <c r="A65" s="134"/>
       <c r="B65" s="107" t="s">
         <v>298</v>
       </c>
@@ -15430,7 +15433,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="132"/>
+      <c r="A66" s="134"/>
       <c r="B66" s="107" t="s">
         <v>391</v>
       </c>
@@ -15456,7 +15459,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="132"/>
+      <c r="A67" s="134"/>
       <c r="B67" s="107" t="s">
         <v>368</v>
       </c>
@@ -15482,7 +15485,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="132"/>
+      <c r="A68" s="134"/>
       <c r="B68" s="107" t="s">
         <v>394</v>
       </c>
@@ -15502,7 +15505,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="132"/>
+      <c r="A69" s="134"/>
       <c r="B69" s="107" t="s">
         <v>314</v>
       </c>
@@ -15522,7 +15525,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="132"/>
+      <c r="A70" s="134"/>
       <c r="B70" s="107" t="s">
         <v>395</v>
       </c>
@@ -15541,7 +15544,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="132"/>
+      <c r="A71" s="134"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -15552,7 +15555,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="132"/>
+      <c r="A72" s="134"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -15563,7 +15566,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="132"/>
+      <c r="A73" s="134"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -15574,7 +15577,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="132"/>
+      <c r="A74" s="134"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -15585,7 +15588,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="132" t="s">
+      <c r="A75" s="134" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -15612,7 +15615,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="132"/>
+      <c r="A76" s="134"/>
       <c r="B76" s="107" t="s">
         <v>331</v>
       </c>
@@ -15638,7 +15641,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="132"/>
+      <c r="A77" s="134"/>
       <c r="B77" s="107" t="s">
         <v>301</v>
       </c>
@@ -15664,7 +15667,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="132"/>
+      <c r="A78" s="134"/>
       <c r="B78" s="107" t="s">
         <v>373</v>
       </c>
@@ -15690,7 +15693,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="132"/>
+      <c r="A79" s="134"/>
       <c r="B79" s="107" t="s">
         <v>372</v>
       </c>
@@ -15716,7 +15719,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="132"/>
+      <c r="A80" s="134"/>
       <c r="B80" s="107" t="s">
         <v>371</v>
       </c>
@@ -15742,7 +15745,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="132"/>
+      <c r="A81" s="134"/>
       <c r="B81" s="107" t="s">
         <v>373</v>
       </c>
@@ -15768,7 +15771,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="132"/>
+      <c r="A82" s="134"/>
       <c r="B82" s="107" t="s">
         <v>368</v>
       </c>
@@ -15794,7 +15797,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="132"/>
+      <c r="A83" s="134"/>
       <c r="B83" s="107" t="s">
         <v>373</v>
       </c>
@@ -15814,7 +15817,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="132"/>
+      <c r="A84" s="134"/>
       <c r="B84" s="107" t="s">
         <v>314</v>
       </c>
@@ -15834,7 +15837,7 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="132"/>
+      <c r="A85" s="134"/>
       <c r="B85" s="107" t="s">
         <v>371</v>
       </c>
@@ -15854,7 +15857,7 @@
       <c r="G85" s="110"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="132"/>
+      <c r="A86" s="134"/>
       <c r="B86" s="107" t="s">
         <v>396</v>
       </c>
@@ -15873,10 +15876,10 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="132"/>
+      <c r="A87" s="134"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="132"/>
+      <c r="A88" s="134"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -15887,7 +15890,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="132"/>
+      <c r="A89" s="134"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -15898,7 +15901,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="132" t="s">
+      <c r="A90" s="134" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -15925,7 +15928,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="132"/>
+      <c r="A91" s="134"/>
       <c r="B91" s="107" t="s">
         <v>375</v>
       </c>
@@ -15951,7 +15954,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="132"/>
+      <c r="A92" s="134"/>
       <c r="B92" s="107" t="s">
         <v>331</v>
       </c>
@@ -15977,7 +15980,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="132"/>
+      <c r="A93" s="134"/>
       <c r="B93" s="107" t="s">
         <v>375</v>
       </c>
@@ -16003,7 +16006,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="132"/>
+      <c r="A94" s="134"/>
       <c r="B94" s="107" t="s">
         <v>294</v>
       </c>
@@ -16029,7 +16032,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="132"/>
+      <c r="A95" s="134"/>
       <c r="B95" s="107" t="s">
         <v>310</v>
       </c>
@@ -16055,7 +16058,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="132"/>
+      <c r="A96" s="134"/>
       <c r="B96" s="107" t="s">
         <v>376</v>
       </c>
@@ -16081,7 +16084,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="132"/>
+      <c r="A97" s="134"/>
       <c r="B97" s="107" t="s">
         <v>377</v>
       </c>
@@ -16107,7 +16110,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="132"/>
+      <c r="A98" s="134"/>
       <c r="B98" s="107" t="s">
         <v>303</v>
       </c>
@@ -16127,7 +16130,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="132"/>
+      <c r="A99" s="134"/>
       <c r="B99" s="107" t="s">
         <v>375</v>
       </c>
@@ -16147,7 +16150,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="132"/>
+      <c r="A100" s="134"/>
       <c r="B100" s="107" t="s">
         <v>378</v>
       </c>
@@ -16166,7 +16169,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="132"/>
+      <c r="A101" s="134"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -16177,7 +16180,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="132"/>
+      <c r="A102" s="134"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -16188,7 +16191,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="132"/>
+      <c r="A103" s="134"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -16199,7 +16202,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="133"/>
+      <c r="A104" s="135"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -16210,7 +16213,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="134" t="s">
+      <c r="A105" s="136" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -16237,7 +16240,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="134"/>
+      <c r="A106" s="136"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -16263,7 +16266,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="134"/>
+      <c r="A107" s="136"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -16289,7 +16292,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="134"/>
+      <c r="A108" s="136"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -16315,7 +16318,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="134"/>
+      <c r="A109" s="136"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -16341,7 +16344,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="134"/>
+      <c r="A110" s="136"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -16367,7 +16370,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="134"/>
+      <c r="A111" s="136"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -16393,7 +16396,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="134"/>
+      <c r="A112" s="136"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -16419,7 +16422,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="134"/>
+      <c r="A113" s="136"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -16439,7 +16442,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="134"/>
+      <c r="A114" s="136"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -16451,7 +16454,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="134"/>
+      <c r="A115" s="136"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -16462,7 +16465,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="134"/>
+      <c r="A116" s="136"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -16473,7 +16476,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="134"/>
+      <c r="A117" s="136"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -16484,7 +16487,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="134"/>
+      <c r="A118" s="136"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -16495,7 +16498,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="135"/>
+      <c r="A119" s="137"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -16506,7 +16509,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="136" t="s">
+      <c r="A120" s="138" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -16533,7 +16536,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="136"/>
+      <c r="A121" s="138"/>
       <c r="B121" s="115" t="s">
         <v>380</v>
       </c>
@@ -16559,7 +16562,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="136"/>
+      <c r="A122" s="138"/>
       <c r="B122" s="115" t="s">
         <v>301</v>
       </c>
@@ -16585,7 +16588,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="136"/>
+      <c r="A123" s="138"/>
       <c r="B123" s="115" t="s">
         <v>381</v>
       </c>
@@ -16611,7 +16614,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="136"/>
+      <c r="A124" s="138"/>
       <c r="B124" s="115" t="s">
         <v>382</v>
       </c>
@@ -16637,7 +16640,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="136"/>
+      <c r="A125" s="138"/>
       <c r="B125" s="115" t="s">
         <v>310</v>
       </c>
@@ -16663,7 +16666,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="136"/>
+      <c r="A126" s="138"/>
       <c r="B126" s="107" t="s">
         <v>294</v>
       </c>
@@ -16689,7 +16692,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="136"/>
+      <c r="A127" s="138"/>
       <c r="B127" s="120" t="s">
         <v>383</v>
       </c>
@@ -16715,7 +16718,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="136"/>
+      <c r="A128" s="138"/>
       <c r="B128" s="115" t="s">
         <v>303</v>
       </c>
@@ -16735,7 +16738,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="136"/>
+      <c r="A129" s="138"/>
       <c r="B129" s="115" t="s">
         <v>398</v>
       </c>
@@ -16755,7 +16758,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="136"/>
+      <c r="A130" s="138"/>
       <c r="B130" s="115" t="s">
         <v>399</v>
       </c>
@@ -16774,7 +16777,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="136"/>
+      <c r="A131" s="138"/>
       <c r="B131" s="115" t="s">
         <v>398</v>
       </c>
@@ -16793,7 +16796,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="136"/>
+      <c r="A132" s="138"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -16804,7 +16807,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="136"/>
+      <c r="A133" s="138"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -16815,7 +16818,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="136"/>
+      <c r="A134" s="138"/>
       <c r="B134" s="117"/>
       <c r="C134" s="113"/>
       <c r="D134" s="114"/>
@@ -17020,7 +17023,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="134" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -17050,7 +17053,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="132"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="107" t="s">
         <v>298</v>
       </c>
@@ -17079,7 +17082,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="132"/>
+      <c r="A4" s="134"/>
       <c r="B4" s="107" t="s">
         <v>351</v>
       </c>
@@ -17108,7 +17111,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="132"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="107" t="s">
         <v>303</v>
       </c>
@@ -17137,7 +17140,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="132"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="107" t="s">
         <v>401</v>
       </c>
@@ -17166,7 +17169,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="132"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="107"/>
       <c r="C7" s="107"/>
       <c r="D7" s="108"/>
@@ -17187,7 +17190,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="132"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="107"/>
       <c r="C8" s="107"/>
       <c r="D8" s="108"/>
@@ -17205,7 +17208,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="132"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="107"/>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -17223,7 +17226,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="132"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="120"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108"/>
@@ -17235,7 +17238,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="132"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -17247,7 +17250,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="132"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -17258,7 +17261,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="132"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -17269,7 +17272,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="132"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -17280,7 +17283,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="132"/>
+      <c r="A15" s="134"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -17291,7 +17294,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="132"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -17302,7 +17305,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="134" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -17329,7 +17332,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="132"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="107" t="s">
         <v>403</v>
       </c>
@@ -17355,7 +17358,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="132"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="107" t="s">
         <v>314</v>
       </c>
@@ -17381,7 +17384,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="132"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="107" t="s">
         <v>404</v>
       </c>
@@ -17407,7 +17410,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="132"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="107" t="s">
         <v>405</v>
       </c>
@@ -17433,7 +17436,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="132"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="107" t="s">
         <v>406</v>
       </c>
@@ -17459,7 +17462,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="132"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="107"/>
       <c r="C23" s="107"/>
       <c r="D23" s="108"/>
@@ -17477,7 +17480,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="132"/>
+      <c r="A24" s="134"/>
       <c r="B24" s="107"/>
       <c r="C24" s="107"/>
       <c r="D24" s="108"/>
@@ -17495,7 +17498,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="132"/>
+      <c r="A25" s="134"/>
       <c r="B25" s="107"/>
       <c r="C25" s="107"/>
       <c r="D25" s="108"/>
@@ -17507,7 +17510,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="132"/>
+      <c r="A26" s="134"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -17519,7 +17522,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="132"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -17530,7 +17533,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="132"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -17541,7 +17544,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="132"/>
+      <c r="A29" s="134"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -17552,7 +17555,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="132"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -17563,7 +17566,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="134" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -17590,7 +17593,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="132"/>
+      <c r="A32" s="134"/>
       <c r="B32" s="107" t="s">
         <v>387</v>
       </c>
@@ -17616,7 +17619,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="132"/>
+      <c r="A33" s="134"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -17642,7 +17645,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="132"/>
+      <c r="A34" s="134"/>
       <c r="B34" s="107" t="s">
         <v>408</v>
       </c>
@@ -17668,7 +17671,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="132"/>
+      <c r="A35" s="134"/>
       <c r="B35" s="107" t="s">
         <v>409</v>
       </c>
@@ -17694,7 +17697,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="132"/>
+      <c r="A36" s="134"/>
       <c r="B36" s="107" t="s">
         <v>314</v>
       </c>
@@ -17720,7 +17723,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="132"/>
+      <c r="A37" s="134"/>
       <c r="B37" s="107" t="s">
         <v>410</v>
       </c>
@@ -17746,7 +17749,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="132"/>
+      <c r="A38" s="134"/>
       <c r="B38" s="107" t="s">
         <v>411</v>
       </c>
@@ -17772,7 +17775,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="132"/>
+      <c r="A39" s="134"/>
       <c r="B39" s="107" t="s">
         <v>374</v>
       </c>
@@ -17792,7 +17795,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="132"/>
+      <c r="A40" s="134"/>
       <c r="B40" s="107" t="s">
         <v>412</v>
       </c>
@@ -17812,7 +17815,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="132"/>
+      <c r="A41" s="134"/>
       <c r="B41" s="107" t="s">
         <v>361</v>
       </c>
@@ -17831,7 +17834,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="132"/>
+      <c r="A42" s="134"/>
       <c r="B42" t="s">
         <v>413</v>
       </c>
@@ -17850,7 +17853,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="132"/>
+      <c r="A43" s="134"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -17861,7 +17864,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="132"/>
+      <c r="A44" s="134"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -17872,7 +17875,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="132"/>
+      <c r="A45" s="134"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -17883,7 +17886,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="132" t="s">
+      <c r="A46" s="134" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -17910,7 +17913,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="132"/>
+      <c r="A47" s="134"/>
       <c r="B47" s="107" t="s">
         <v>414</v>
       </c>
@@ -17936,7 +17939,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="132"/>
+      <c r="A48" s="134"/>
       <c r="B48" s="107" t="s">
         <v>404</v>
       </c>
@@ -17962,7 +17965,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="132"/>
+      <c r="A49" s="134"/>
       <c r="B49" s="107" t="s">
         <v>314</v>
       </c>
@@ -17988,7 +17991,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="132"/>
+      <c r="A50" s="134"/>
       <c r="B50" s="107" t="s">
         <v>405</v>
       </c>
@@ -18014,7 +18017,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="132"/>
+      <c r="A51" s="134"/>
       <c r="B51" s="107"/>
       <c r="C51" s="107"/>
       <c r="D51" s="108"/>
@@ -18032,7 +18035,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="132"/>
+      <c r="A52" s="134"/>
       <c r="B52" s="107"/>
       <c r="C52" s="107"/>
       <c r="D52" s="108"/>
@@ -18050,7 +18053,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="132"/>
+      <c r="A53" s="134"/>
       <c r="B53" s="107"/>
       <c r="C53" s="107"/>
       <c r="D53" s="108"/>
@@ -18068,7 +18071,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="132"/>
+      <c r="A54" s="134"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -18080,7 +18083,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="132"/>
+      <c r="A55" s="134"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -18092,7 +18095,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="132"/>
+      <c r="A56" s="134"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -18103,7 +18106,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="132"/>
+      <c r="A57" s="134"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -18114,7 +18117,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="132"/>
+      <c r="A58" s="134"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -18125,7 +18128,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="132"/>
+      <c r="A59" s="134"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -18136,7 +18139,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="132" t="s">
+      <c r="A60" s="134" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -18163,7 +18166,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="132"/>
+      <c r="A61" s="134"/>
       <c r="B61" s="107" t="s">
         <v>416</v>
       </c>
@@ -18189,7 +18192,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="132"/>
+      <c r="A62" s="134"/>
       <c r="B62" s="107" t="s">
         <v>417</v>
       </c>
@@ -18215,7 +18218,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="132"/>
+      <c r="A63" s="134"/>
       <c r="B63" s="107" t="s">
         <v>314</v>
       </c>
@@ -18241,7 +18244,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="132"/>
+      <c r="A64" s="134"/>
       <c r="B64" s="107" t="s">
         <v>298</v>
       </c>
@@ -18267,7 +18270,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="132"/>
+      <c r="A65" s="134"/>
       <c r="B65" s="107" t="s">
         <v>418</v>
       </c>
@@ -18293,7 +18296,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="132"/>
+      <c r="A66" s="134"/>
       <c r="B66" s="107" t="s">
         <v>419</v>
       </c>
@@ -18319,7 +18322,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="132"/>
+      <c r="A67" s="134"/>
       <c r="B67" s="107" t="s">
         <v>420</v>
       </c>
@@ -18345,7 +18348,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="132"/>
+      <c r="A68" s="134"/>
       <c r="B68" s="107"/>
       <c r="C68" s="107"/>
       <c r="D68" s="108"/>
@@ -18357,7 +18360,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="132"/>
+      <c r="A69" s="134"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -18369,7 +18372,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="132"/>
+      <c r="A70" s="134"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -18380,7 +18383,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="132"/>
+      <c r="A71" s="134"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -18391,7 +18394,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="132"/>
+      <c r="A72" s="134"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -18402,7 +18405,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="132"/>
+      <c r="A73" s="134"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -18413,7 +18416,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="132"/>
+      <c r="A74" s="134"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -18424,7 +18427,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="132" t="s">
+      <c r="A75" s="134" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -18451,7 +18454,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="132"/>
+      <c r="A76" s="134"/>
       <c r="B76" s="107" t="s">
         <v>301</v>
       </c>
@@ -18477,7 +18480,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="132"/>
+      <c r="A77" s="134"/>
       <c r="B77" s="107" t="s">
         <v>371</v>
       </c>
@@ -18503,7 +18506,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="132"/>
+      <c r="A78" s="134"/>
       <c r="B78" s="107" t="s">
         <v>372</v>
       </c>
@@ -18529,7 +18532,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="132"/>
+      <c r="A79" s="134"/>
       <c r="B79" s="107" t="s">
         <v>371</v>
       </c>
@@ -18555,7 +18558,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="132"/>
+      <c r="A80" s="134"/>
       <c r="B80" s="107" t="s">
         <v>373</v>
       </c>
@@ -18581,7 +18584,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="132"/>
+      <c r="A81" s="134"/>
       <c r="B81" s="107" t="s">
         <v>368</v>
       </c>
@@ -18607,7 +18610,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="132"/>
+      <c r="A82" s="134"/>
       <c r="B82" s="107" t="s">
         <v>373</v>
       </c>
@@ -18633,7 +18636,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="132"/>
+      <c r="A83" s="134"/>
       <c r="B83" s="107" t="s">
         <v>314</v>
       </c>
@@ -18653,7 +18656,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="132"/>
+      <c r="A84" s="134"/>
       <c r="B84" s="107" t="s">
         <v>371</v>
       </c>
@@ -18673,7 +18676,7 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="132"/>
+      <c r="A85" s="134"/>
       <c r="B85" s="107" t="s">
         <v>374</v>
       </c>
@@ -18692,7 +18695,7 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="132"/>
+      <c r="A86" s="134"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -18703,7 +18706,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="132"/>
+      <c r="A87" s="134"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107"/>
       <c r="D87" s="108"/>
@@ -18714,7 +18717,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="132"/>
+      <c r="A88" s="134"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -18725,7 +18728,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="132"/>
+      <c r="A89" s="134"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -18736,7 +18739,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="132" t="s">
+      <c r="A90" s="134" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -18763,7 +18766,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="132"/>
+      <c r="A91" s="134"/>
       <c r="B91" s="107"/>
       <c r="C91" s="107"/>
       <c r="D91" s="108">
@@ -18785,7 +18788,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="132"/>
+      <c r="A92" s="134"/>
       <c r="B92" s="107"/>
       <c r="C92" s="107"/>
       <c r="D92" s="108">
@@ -18807,7 +18810,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="132"/>
+      <c r="A93" s="134"/>
       <c r="B93" s="107"/>
       <c r="C93" s="107"/>
       <c r="D93" s="108">
@@ -18829,7 +18832,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="132"/>
+      <c r="A94" s="134"/>
       <c r="B94" s="107"/>
       <c r="C94" s="107"/>
       <c r="D94" s="108">
@@ -18851,7 +18854,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="132"/>
+      <c r="A95" s="134"/>
       <c r="B95" s="107"/>
       <c r="C95" s="107"/>
       <c r="D95" s="108">
@@ -18873,7 +18876,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="132"/>
+      <c r="A96" s="134"/>
       <c r="B96" s="107"/>
       <c r="C96" s="107"/>
       <c r="D96" s="108">
@@ -18895,7 +18898,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="132"/>
+      <c r="A97" s="134"/>
       <c r="B97" s="107"/>
       <c r="C97" s="107"/>
       <c r="D97" s="108">
@@ -18917,7 +18920,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="132"/>
+      <c r="A98" s="134"/>
       <c r="B98" s="107"/>
       <c r="C98" s="107"/>
       <c r="D98" s="108">
@@ -18933,7 +18936,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="132"/>
+      <c r="A99" s="134"/>
       <c r="B99" s="107"/>
       <c r="C99" s="107"/>
       <c r="D99" s="108">
@@ -18949,7 +18952,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="132"/>
+      <c r="A100" s="134"/>
       <c r="B100" s="107"/>
       <c r="C100" s="107"/>
       <c r="D100" s="108">
@@ -18964,7 +18967,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="132"/>
+      <c r="A101" s="134"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -18975,7 +18978,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="132"/>
+      <c r="A102" s="134"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -18986,7 +18989,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="132"/>
+      <c r="A103" s="134"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -18997,7 +19000,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="133"/>
+      <c r="A104" s="135"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -19008,7 +19011,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="134" t="s">
+      <c r="A105" s="136" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -19035,7 +19038,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="134"/>
+      <c r="A106" s="136"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -19061,7 +19064,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="134"/>
+      <c r="A107" s="136"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -19087,7 +19090,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="134"/>
+      <c r="A108" s="136"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -19113,7 +19116,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="134"/>
+      <c r="A109" s="136"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -19139,7 +19142,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="134"/>
+      <c r="A110" s="136"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -19165,7 +19168,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="134"/>
+      <c r="A111" s="136"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -19191,7 +19194,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="134"/>
+      <c r="A112" s="136"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -19217,7 +19220,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="134"/>
+      <c r="A113" s="136"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -19237,7 +19240,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="134"/>
+      <c r="A114" s="136"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -19249,7 +19252,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="134"/>
+      <c r="A115" s="136"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -19260,7 +19263,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="134"/>
+      <c r="A116" s="136"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -19271,7 +19274,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="134"/>
+      <c r="A117" s="136"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -19282,7 +19285,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="134"/>
+      <c r="A118" s="136"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -19293,7 +19296,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="135"/>
+      <c r="A119" s="137"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -19304,7 +19307,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="136" t="s">
+      <c r="A120" s="138" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -19331,7 +19334,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="136"/>
+      <c r="A121" s="138"/>
       <c r="B121" s="115" t="s">
         <v>310</v>
       </c>
@@ -19357,7 +19360,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="136"/>
+      <c r="A122" s="138"/>
       <c r="B122" s="115" t="s">
         <v>422</v>
       </c>
@@ -19383,7 +19386,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="136"/>
+      <c r="A123" s="138"/>
       <c r="B123" s="115" t="s">
         <v>423</v>
       </c>
@@ -19409,7 +19412,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="136"/>
+      <c r="A124" s="138"/>
       <c r="B124" s="115" t="s">
         <v>303</v>
       </c>
@@ -19435,7 +19438,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="136"/>
+      <c r="A125" s="138"/>
       <c r="B125" s="115" t="s">
         <v>424</v>
       </c>
@@ -19461,7 +19464,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="136"/>
+      <c r="A126" s="138"/>
       <c r="B126" s="115"/>
       <c r="C126" s="107"/>
       <c r="D126" s="108"/>
@@ -19479,7 +19482,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="136"/>
+      <c r="A127" s="138"/>
       <c r="B127" s="120"/>
       <c r="C127" s="107"/>
       <c r="D127" s="108"/>
@@ -19497,7 +19500,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="136"/>
+      <c r="A128" s="138"/>
       <c r="B128" s="115"/>
       <c r="C128" s="107"/>
       <c r="D128" s="108"/>
@@ -19509,7 +19512,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="136"/>
+      <c r="A129" s="138"/>
       <c r="B129" s="115"/>
       <c r="C129" s="107"/>
       <c r="D129" s="108"/>
@@ -19521,7 +19524,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="136"/>
+      <c r="A130" s="138"/>
       <c r="B130" s="115"/>
       <c r="C130" s="107"/>
       <c r="D130" s="108"/>
@@ -19532,7 +19535,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="136"/>
+      <c r="A131" s="138"/>
       <c r="B131" s="115"/>
       <c r="C131" s="107"/>
       <c r="D131" s="108"/>
@@ -19543,7 +19546,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="136"/>
+      <c r="A132" s="138"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -19554,7 +19557,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="136"/>
+      <c r="A133" s="138"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -19565,7 +19568,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="136"/>
+      <c r="A134" s="138"/>
       <c r="B134" s="117"/>
       <c r="C134" s="113"/>
       <c r="D134" s="114"/>
@@ -19770,7 +19773,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="134" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -19800,7 +19803,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="132"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="107" t="s">
         <v>314</v>
       </c>
@@ -19829,7 +19832,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="132"/>
+      <c r="A4" s="134"/>
       <c r="B4" s="107" t="s">
         <v>298</v>
       </c>
@@ -19858,7 +19861,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="132"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="107" t="s">
         <v>426</v>
       </c>
@@ -19887,7 +19890,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="132"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="107" t="s">
         <v>427</v>
       </c>
@@ -19916,7 +19919,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="132"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="107" t="s">
         <v>428</v>
       </c>
@@ -19945,7 +19948,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="132"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="107"/>
       <c r="C8" s="107"/>
       <c r="D8" s="108"/>
@@ -19963,7 +19966,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="132"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="107"/>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -19981,7 +19984,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="132"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="120"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108"/>
@@ -19993,7 +19996,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="132"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
@@ -20005,7 +20008,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="132"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -20016,7 +20019,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="132"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -20027,7 +20030,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="132"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -20038,7 +20041,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="132"/>
+      <c r="A15" s="134"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -20049,7 +20052,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="132"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -20060,7 +20063,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="134" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -20087,7 +20090,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="132"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="120" t="s">
         <v>429</v>
       </c>
@@ -20113,7 +20116,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="132"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="107" t="s">
         <v>430</v>
       </c>
@@ -20139,7 +20142,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="132"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="107" t="s">
         <v>431</v>
       </c>
@@ -20165,7 +20168,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="132"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="108"/>
@@ -20183,7 +20186,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="132"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="107"/>
       <c r="C22" s="107"/>
       <c r="D22" s="108"/>
@@ -20201,7 +20204,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="132"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="107"/>
       <c r="C23" s="107"/>
       <c r="D23" s="108"/>
@@ -20219,7 +20222,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="132"/>
+      <c r="A24" s="134"/>
       <c r="B24" s="107"/>
       <c r="C24" s="107"/>
       <c r="D24" s="108"/>
@@ -20237,7 +20240,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="132"/>
+      <c r="A25" s="134"/>
       <c r="B25" s="107"/>
       <c r="C25" s="107"/>
       <c r="D25" s="108"/>
@@ -20249,7 +20252,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="132"/>
+      <c r="A26" s="134"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -20261,7 +20264,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="132"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -20272,7 +20275,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="132"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -20283,7 +20286,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="132"/>
+      <c r="A29" s="134"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -20294,7 +20297,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="132"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -20305,7 +20308,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="134" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -20332,7 +20335,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="132"/>
+      <c r="A32" s="134"/>
       <c r="B32" s="107" t="s">
         <v>301</v>
       </c>
@@ -20358,7 +20361,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="132"/>
+      <c r="A33" s="134"/>
       <c r="B33" t="s">
         <v>433</v>
       </c>
@@ -20384,7 +20387,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="132"/>
+      <c r="A34" s="134"/>
       <c r="B34" s="107" t="s">
         <v>303</v>
       </c>
@@ -20410,7 +20413,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="132"/>
+      <c r="A35" s="134"/>
       <c r="B35" s="107" t="s">
         <v>358</v>
       </c>
@@ -20436,7 +20439,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="132"/>
+      <c r="A36" s="134"/>
       <c r="B36" s="107" t="s">
         <v>374</v>
       </c>
@@ -20462,7 +20465,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="132"/>
+      <c r="A37" s="134"/>
       <c r="B37" s="107" t="s">
         <v>434</v>
       </c>
@@ -20488,7 +20491,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="132"/>
+      <c r="A38" s="134"/>
       <c r="B38" s="107"/>
       <c r="C38" s="107"/>
       <c r="D38" s="108"/>
@@ -20506,7 +20509,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="132"/>
+      <c r="A39" s="134"/>
       <c r="B39" s="107"/>
       <c r="C39" s="107"/>
       <c r="D39" s="108"/>
@@ -20518,7 +20521,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="132"/>
+      <c r="A40" s="134"/>
       <c r="B40" s="107"/>
       <c r="C40" s="107"/>
       <c r="D40" s="108"/>
@@ -20530,7 +20533,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="132"/>
+      <c r="A41" s="134"/>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="108"/>
@@ -20541,7 +20544,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="132"/>
+      <c r="A42" s="134"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -20552,7 +20555,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="132"/>
+      <c r="A43" s="134"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -20563,7 +20566,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="132"/>
+      <c r="A44" s="134"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -20574,7 +20577,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="132"/>
+      <c r="A45" s="134"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -20585,7 +20588,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="132" t="s">
+      <c r="A46" s="134" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -20612,7 +20615,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="132"/>
+      <c r="A47" s="134"/>
       <c r="B47" s="107" t="s">
         <v>436</v>
       </c>
@@ -20638,7 +20641,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="132"/>
+      <c r="A48" s="134"/>
       <c r="B48" s="107" t="s">
         <v>429</v>
       </c>
@@ -20664,7 +20667,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="132"/>
+      <c r="A49" s="134"/>
       <c r="B49" s="107" t="s">
         <v>437</v>
       </c>
@@ -20690,7 +20693,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="132"/>
+      <c r="A50" s="134"/>
       <c r="B50" s="107" t="s">
         <v>438</v>
       </c>
@@ -20716,7 +20719,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="132"/>
+      <c r="A51" s="134"/>
       <c r="B51" s="107"/>
       <c r="C51" s="107"/>
       <c r="D51" s="108"/>
@@ -20734,7 +20737,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="132"/>
+      <c r="A52" s="134"/>
       <c r="B52" s="107"/>
       <c r="C52" s="107"/>
       <c r="D52" s="108"/>
@@ -20752,7 +20755,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="132"/>
+      <c r="A53" s="134"/>
       <c r="B53" s="107"/>
       <c r="C53" s="107"/>
       <c r="D53" s="108"/>
@@ -20770,7 +20773,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="132"/>
+      <c r="A54" s="134"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -20782,7 +20785,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="132"/>
+      <c r="A55" s="134"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -20794,7 +20797,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="132"/>
+      <c r="A56" s="134"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -20805,7 +20808,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="132"/>
+      <c r="A57" s="134"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -20816,7 +20819,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="132"/>
+      <c r="A58" s="134"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -20827,7 +20830,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="132"/>
+      <c r="A59" s="134"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -20838,7 +20841,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="132" t="s">
+      <c r="A60" s="134" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -20865,7 +20868,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="132"/>
+      <c r="A61" s="134"/>
       <c r="B61" s="107" t="s">
         <v>440</v>
       </c>
@@ -20891,7 +20894,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="132"/>
+      <c r="A62" s="134"/>
       <c r="B62" s="107" t="s">
         <v>441</v>
       </c>
@@ -20917,7 +20920,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="132"/>
+      <c r="A63" s="134"/>
       <c r="B63" s="107" t="s">
         <v>442</v>
       </c>
@@ -20943,7 +20946,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="132"/>
+      <c r="A64" s="134"/>
       <c r="B64" s="107" t="s">
         <v>443</v>
       </c>
@@ -20969,7 +20972,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="132"/>
+      <c r="A65" s="134"/>
       <c r="B65" s="107" t="s">
         <v>444</v>
       </c>
@@ -20995,7 +20998,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="132"/>
+      <c r="A66" s="134"/>
       <c r="B66" s="107"/>
       <c r="C66" s="107"/>
       <c r="D66" s="108"/>
@@ -21013,7 +21016,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="132"/>
+      <c r="A67" s="134"/>
       <c r="B67" s="107"/>
       <c r="C67" s="107"/>
       <c r="D67" s="108"/>
@@ -21031,7 +21034,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="132"/>
+      <c r="A68" s="134"/>
       <c r="B68" s="107"/>
       <c r="C68" s="107"/>
       <c r="D68" s="108"/>
@@ -21043,7 +21046,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="132"/>
+      <c r="A69" s="134"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -21055,7 +21058,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="132"/>
+      <c r="A70" s="134"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -21066,7 +21069,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="132"/>
+      <c r="A71" s="134"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -21077,7 +21080,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="132"/>
+      <c r="A72" s="134"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -21088,7 +21091,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="132"/>
+      <c r="A73" s="134"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -21099,7 +21102,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="132"/>
+      <c r="A74" s="134"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -21110,7 +21113,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="132" t="s">
+      <c r="A75" s="134" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -21137,7 +21140,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="132"/>
+      <c r="A76" s="134"/>
       <c r="B76" s="107" t="s">
         <v>301</v>
       </c>
@@ -21163,7 +21166,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="132"/>
+      <c r="A77" s="134"/>
       <c r="B77" s="107" t="s">
         <v>371</v>
       </c>
@@ -21189,7 +21192,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="132"/>
+      <c r="A78" s="134"/>
       <c r="B78" s="107" t="s">
         <v>373</v>
       </c>
@@ -21215,7 +21218,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="132"/>
+      <c r="A79" s="134"/>
       <c r="B79" s="107" t="s">
         <v>368</v>
       </c>
@@ -21241,7 +21244,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="132"/>
+      <c r="A80" s="134"/>
       <c r="B80" s="107" t="s">
         <v>373</v>
       </c>
@@ -21267,7 +21270,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="132"/>
+      <c r="A81" s="134"/>
       <c r="B81" s="107" t="s">
         <v>314</v>
       </c>
@@ -21293,7 +21296,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="132"/>
+      <c r="A82" s="134"/>
       <c r="B82" s="107" t="s">
         <v>371</v>
       </c>
@@ -21319,7 +21322,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="132"/>
+      <c r="A83" s="134"/>
       <c r="B83" s="107" t="s">
         <v>374</v>
       </c>
@@ -21339,7 +21342,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="132"/>
+      <c r="A84" s="134"/>
       <c r="B84" s="131"/>
       <c r="C84" s="113"/>
       <c r="D84" s="114"/>
@@ -21348,28 +21351,28 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="132"/>
+      <c r="A85" s="134"/>
       <c r="C85" s="113"/>
       <c r="D85" s="114"/>
       <c r="E85" s="114"/>
       <c r="F85" s="114"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="132"/>
+      <c r="A86" s="134"/>
       <c r="C86" s="113"/>
       <c r="D86" s="114"/>
       <c r="E86" s="114"/>
       <c r="F86" s="114"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="132"/>
+      <c r="A87" s="134"/>
       <c r="C87" s="113"/>
       <c r="D87" s="114"/>
       <c r="E87" s="114"/>
       <c r="F87" s="114"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="132"/>
+      <c r="A88" s="134"/>
       <c r="B88" s="107"/>
       <c r="C88" s="129"/>
       <c r="D88" s="130"/>
@@ -21380,7 +21383,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="132"/>
+      <c r="A89" s="134"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -21391,7 +21394,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="132" t="s">
+      <c r="A90" s="134" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -21418,7 +21421,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="132"/>
+      <c r="A91" s="134"/>
       <c r="B91" s="107" t="s">
         <v>301</v>
       </c>
@@ -21444,7 +21447,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="132"/>
+      <c r="A92" s="134"/>
       <c r="B92" s="107" t="s">
         <v>375</v>
       </c>
@@ -21470,7 +21473,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="132"/>
+      <c r="A93" s="134"/>
       <c r="B93" s="107"/>
       <c r="C93" s="107"/>
       <c r="D93" s="108">
@@ -21492,7 +21495,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="132"/>
+      <c r="A94" s="134"/>
       <c r="B94" s="107"/>
       <c r="C94" s="107"/>
       <c r="D94" s="108">
@@ -21514,7 +21517,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="132"/>
+      <c r="A95" s="134"/>
       <c r="B95" s="107"/>
       <c r="C95" s="107"/>
       <c r="D95" s="108">
@@ -21536,7 +21539,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="132"/>
+      <c r="A96" s="134"/>
       <c r="B96" s="107"/>
       <c r="C96" s="107"/>
       <c r="D96" s="108">
@@ -21558,7 +21561,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="132"/>
+      <c r="A97" s="134"/>
       <c r="B97" s="107"/>
       <c r="C97" s="107"/>
       <c r="D97" s="108">
@@ -21580,7 +21583,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="132"/>
+      <c r="A98" s="134"/>
       <c r="B98" s="107"/>
       <c r="C98" s="107"/>
       <c r="D98" s="108">
@@ -21596,7 +21599,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="132"/>
+      <c r="A99" s="134"/>
       <c r="B99" s="107"/>
       <c r="C99" s="107"/>
       <c r="D99" s="108">
@@ -21612,7 +21615,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="132"/>
+      <c r="A100" s="134"/>
       <c r="B100" s="107"/>
       <c r="C100" s="107"/>
       <c r="D100" s="108">
@@ -21627,7 +21630,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="132"/>
+      <c r="A101" s="134"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -21638,7 +21641,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="132"/>
+      <c r="A102" s="134"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -21649,7 +21652,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="132"/>
+      <c r="A103" s="134"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -21660,7 +21663,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="133"/>
+      <c r="A104" s="135"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -21671,7 +21674,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="134" t="s">
+      <c r="A105" s="136" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -21698,7 +21701,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="134"/>
+      <c r="A106" s="136"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -21724,7 +21727,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="134"/>
+      <c r="A107" s="136"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -21750,7 +21753,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="134"/>
+      <c r="A108" s="136"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -21776,7 +21779,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="134"/>
+      <c r="A109" s="136"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -21802,7 +21805,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="134"/>
+      <c r="A110" s="136"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -21828,7 +21831,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="134"/>
+      <c r="A111" s="136"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -21854,7 +21857,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="134"/>
+      <c r="A112" s="136"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -21880,7 +21883,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="134"/>
+      <c r="A113" s="136"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -21900,7 +21903,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="134"/>
+      <c r="A114" s="136"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -21912,7 +21915,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="134"/>
+      <c r="A115" s="136"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -21923,7 +21926,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="134"/>
+      <c r="A116" s="136"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -21934,7 +21937,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="134"/>
+      <c r="A117" s="136"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -21945,7 +21948,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="134"/>
+      <c r="A118" s="136"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -21956,7 +21959,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="135"/>
+      <c r="A119" s="137"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -21967,7 +21970,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="136" t="s">
+      <c r="A120" s="138" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -21994,7 +21997,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="136"/>
+      <c r="A121" s="138"/>
       <c r="B121" s="115" t="s">
         <v>310</v>
       </c>
@@ -22020,7 +22023,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="136"/>
+      <c r="A122" s="138"/>
       <c r="B122" s="115" t="s">
         <v>446</v>
       </c>
@@ -22046,7 +22049,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="136"/>
+      <c r="A123" s="138"/>
       <c r="B123" s="115" t="s">
         <v>423</v>
       </c>
@@ -22072,7 +22075,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="136"/>
+      <c r="A124" s="138"/>
       <c r="B124" s="115" t="s">
         <v>447</v>
       </c>
@@ -22098,7 +22101,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="136"/>
+      <c r="A125" s="138"/>
       <c r="B125" s="115"/>
       <c r="C125" s="107"/>
       <c r="D125" s="108"/>
@@ -22116,7 +22119,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="136"/>
+      <c r="A126" s="138"/>
       <c r="B126" s="115"/>
       <c r="C126" s="107"/>
       <c r="D126" s="108"/>
@@ -22134,7 +22137,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="136"/>
+      <c r="A127" s="138"/>
       <c r="B127" s="120"/>
       <c r="C127" s="107"/>
       <c r="D127" s="108"/>
@@ -22152,7 +22155,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="136"/>
+      <c r="A128" s="138"/>
       <c r="B128" s="115"/>
       <c r="C128" s="107"/>
       <c r="D128" s="108"/>
@@ -22164,7 +22167,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="136"/>
+      <c r="A129" s="138"/>
       <c r="B129" s="115"/>
       <c r="C129" s="107"/>
       <c r="D129" s="108"/>
@@ -22176,7 +22179,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="136"/>
+      <c r="A130" s="138"/>
       <c r="B130" s="115"/>
       <c r="C130" s="107"/>
       <c r="D130" s="108"/>
@@ -22187,7 +22190,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="136"/>
+      <c r="A131" s="138"/>
       <c r="B131" s="115"/>
       <c r="C131" s="107"/>
       <c r="D131" s="108"/>
@@ -22198,7 +22201,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="136"/>
+      <c r="A132" s="138"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -22209,7 +22212,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="136"/>
+      <c r="A133" s="138"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -22220,7 +22223,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="136"/>
+      <c r="A134" s="138"/>
       <c r="B134" s="117"/>
       <c r="C134" s="113"/>
       <c r="D134" s="114"/>
@@ -22385,7 +22388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEFA632-027C-44B7-B2E8-75A517756B1E}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
@@ -22425,7 +22428,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="134" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -22455,7 +22458,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="132"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="107" t="s">
         <v>301</v>
       </c>
@@ -22484,7 +22487,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="132"/>
+      <c r="A4" s="134"/>
       <c r="B4" s="107" t="s">
         <v>449</v>
       </c>
@@ -22513,7 +22516,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="132"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="107" t="s">
         <v>450</v>
       </c>
@@ -22542,7 +22545,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="132"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="107" t="s">
         <v>298</v>
       </c>
@@ -22571,7 +22574,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="132"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="107" t="s">
         <v>451</v>
       </c>
@@ -22600,7 +22603,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="132"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="107" t="s">
         <v>303</v>
       </c>
@@ -22626,7 +22629,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="132"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="107" t="s">
         <v>452</v>
       </c>
@@ -22652,7 +22655,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="132"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="107" t="s">
         <v>350</v>
       </c>
@@ -22672,7 +22675,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="132"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="107" t="s">
         <v>453</v>
       </c>
@@ -22692,7 +22695,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="132"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
@@ -22703,7 +22706,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="132"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -22714,7 +22717,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="132"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -22725,7 +22728,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="132"/>
+      <c r="A15" s="134"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -22736,7 +22739,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="132"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -22747,7 +22750,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="134" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -22774,7 +22777,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="132"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="107" t="s">
         <v>301</v>
       </c>
@@ -22800,7 +22803,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="132"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="107" t="s">
         <v>455</v>
       </c>
@@ -22826,7 +22829,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="132"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="107" t="s">
         <v>298</v>
       </c>
@@ -22852,7 +22855,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="132"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="107" t="s">
         <v>456</v>
       </c>
@@ -22878,7 +22881,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="132"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="107" t="s">
         <v>303</v>
       </c>
@@ -22904,7 +22907,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="132"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="107" t="s">
         <v>452</v>
       </c>
@@ -22930,7 +22933,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="132"/>
+      <c r="A24" s="134"/>
       <c r="B24" s="107" t="s">
         <v>296</v>
       </c>
@@ -22956,7 +22959,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="132"/>
+      <c r="A25" s="134"/>
       <c r="B25" s="107" t="s">
         <v>457</v>
       </c>
@@ -22976,7 +22979,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="132"/>
+      <c r="A26" s="134"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -22988,7 +22991,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="132"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -22999,7 +23002,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="132"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -23010,7 +23013,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="132"/>
+      <c r="A29" s="134"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -23021,7 +23024,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="132"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="108"/>
@@ -23032,7 +23035,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="134" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="107" t="s">
@@ -23059,7 +23062,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="132"/>
+      <c r="A32" s="134"/>
       <c r="B32" s="107" t="s">
         <v>407</v>
       </c>
@@ -23085,7 +23088,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="132"/>
+      <c r="A33" s="134"/>
       <c r="B33" s="107" t="s">
         <v>301</v>
       </c>
@@ -23111,7 +23114,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="132"/>
+      <c r="A34" s="134"/>
       <c r="B34" s="107" t="s">
         <v>459</v>
       </c>
@@ -23137,7 +23140,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="132"/>
+      <c r="A35" s="134"/>
       <c r="B35" s="107" t="s">
         <v>298</v>
       </c>
@@ -23163,7 +23166,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="132"/>
+      <c r="A36" s="134"/>
       <c r="B36" t="s">
         <v>460</v>
       </c>
@@ -23189,7 +23192,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="132"/>
+      <c r="A37" s="134"/>
       <c r="B37" s="107" t="s">
         <v>303</v>
       </c>
@@ -23215,7 +23218,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="132"/>
+      <c r="A38" s="134"/>
       <c r="B38" s="107" t="s">
         <v>461</v>
       </c>
@@ -23241,7 +23244,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="132"/>
+      <c r="A39" s="134"/>
       <c r="B39" s="107" t="s">
         <v>314</v>
       </c>
@@ -23261,7 +23264,7 @@
       <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="132"/>
+      <c r="A40" s="134"/>
       <c r="B40" s="107" t="s">
         <v>462</v>
       </c>
@@ -23281,7 +23284,7 @@
       <c r="I40" s="110"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="132"/>
+      <c r="A41" s="134"/>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="108"/>
@@ -23292,7 +23295,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="132"/>
+      <c r="A42" s="134"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -23303,7 +23306,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="132"/>
+      <c r="A43" s="134"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -23314,7 +23317,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="132"/>
+      <c r="A44" s="134"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="108"/>
@@ -23325,7 +23328,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="132"/>
+      <c r="A45" s="134"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
       <c r="D45" s="108"/>
@@ -23336,7 +23339,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="132" t="s">
+      <c r="A46" s="134" t="s">
         <v>318</v>
       </c>
       <c r="B46" s="107" t="s">
@@ -23363,7 +23366,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="132"/>
+      <c r="A47" s="134"/>
       <c r="B47" s="107" t="s">
         <v>301</v>
       </c>
@@ -23389,7 +23392,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="132"/>
+      <c r="A48" s="134"/>
       <c r="B48" s="107" t="s">
         <v>464</v>
       </c>
@@ -23415,7 +23418,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="132"/>
+      <c r="A49" s="134"/>
       <c r="B49" s="107" t="s">
         <v>298</v>
       </c>
@@ -23441,7 +23444,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="132"/>
+      <c r="A50" s="134"/>
       <c r="B50" s="107" t="s">
         <v>465</v>
       </c>
@@ -23467,7 +23470,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="132"/>
+      <c r="A51" s="134"/>
       <c r="B51" s="107" t="s">
         <v>303</v>
       </c>
@@ -23493,7 +23496,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="132"/>
+      <c r="A52" s="134"/>
       <c r="B52" s="107" t="s">
         <v>452</v>
       </c>
@@ -23519,7 +23522,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="132"/>
+      <c r="A53" s="134"/>
       <c r="B53" s="107" t="s">
         <v>296</v>
       </c>
@@ -23545,7 +23548,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="132"/>
+      <c r="A54" s="134"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -23557,7 +23560,7 @@
       <c r="I54" s="110"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="132"/>
+      <c r="A55" s="134"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -23569,7 +23572,7 @@
       <c r="I55" s="110"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="132"/>
+      <c r="A56" s="134"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -23580,7 +23583,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="132"/>
+      <c r="A57" s="134"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -23591,7 +23594,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="132"/>
+      <c r="A58" s="134"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="108"/>
@@ -23602,7 +23605,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="132"/>
+      <c r="A59" s="134"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
@@ -23613,7 +23616,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="132" t="s">
+      <c r="A60" s="134" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="107" t="s">
@@ -23640,7 +23643,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="132"/>
+      <c r="A61" s="134"/>
       <c r="B61" s="107" t="s">
         <v>467</v>
       </c>
@@ -23666,7 +23669,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="132"/>
+      <c r="A62" s="134"/>
       <c r="B62" s="107" t="s">
         <v>301</v>
       </c>
@@ -23692,7 +23695,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="132"/>
+      <c r="A63" s="134"/>
       <c r="B63" s="107" t="s">
         <v>468</v>
       </c>
@@ -23718,7 +23721,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="132"/>
+      <c r="A64" s="134"/>
       <c r="B64" s="107" t="s">
         <v>298</v>
       </c>
@@ -23744,7 +23747,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="132"/>
+      <c r="A65" s="134"/>
       <c r="B65" s="107" t="s">
         <v>469</v>
       </c>
@@ -23770,7 +23773,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="132"/>
+      <c r="A66" s="134"/>
       <c r="B66" s="107" t="s">
         <v>303</v>
       </c>
@@ -23796,7 +23799,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="132"/>
+      <c r="A67" s="134"/>
       <c r="B67" s="107" t="s">
         <v>461</v>
       </c>
@@ -23822,7 +23825,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="132"/>
+      <c r="A68" s="134"/>
       <c r="B68" s="107" t="s">
         <v>314</v>
       </c>
@@ -23842,7 +23845,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="132"/>
+      <c r="A69" s="134"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -23854,7 +23857,7 @@
       <c r="I69" s="110"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="132"/>
+      <c r="A70" s="134"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -23865,7 +23868,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="132"/>
+      <c r="A71" s="134"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -23876,7 +23879,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="132"/>
+      <c r="A72" s="134"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -23887,7 +23890,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="132"/>
+      <c r="A73" s="134"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -23898,7 +23901,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="132"/>
+      <c r="A74" s="134"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107"/>
       <c r="D74" s="108"/>
@@ -23909,7 +23912,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="132" t="s">
+      <c r="A75" s="134" t="s">
         <v>67</v>
       </c>
       <c r="B75" s="107" t="s">
@@ -23936,7 +23939,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="132"/>
+      <c r="A76" s="134"/>
       <c r="B76" s="107" t="s">
         <v>471</v>
       </c>
@@ -23962,7 +23965,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="132"/>
+      <c r="A77" s="134"/>
       <c r="B77" s="107" t="s">
         <v>301</v>
       </c>
@@ -23988,7 +23991,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="132"/>
+      <c r="A78" s="134"/>
       <c r="B78" s="107" t="s">
         <v>472</v>
       </c>
@@ -24014,7 +24017,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="132"/>
+      <c r="A79" s="134"/>
       <c r="B79" s="107" t="s">
         <v>473</v>
       </c>
@@ -24040,7 +24043,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="132"/>
+      <c r="A80" s="134"/>
       <c r="B80" s="107" t="s">
         <v>314</v>
       </c>
@@ -24066,7 +24069,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="132"/>
+      <c r="A81" s="134"/>
       <c r="B81" s="107" t="s">
         <v>474</v>
       </c>
@@ -24092,7 +24095,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="132"/>
+      <c r="A82" s="134"/>
       <c r="B82" t="s">
         <v>475</v>
       </c>
@@ -24118,7 +24121,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="132"/>
+      <c r="A83" s="134"/>
       <c r="B83" s="107" t="s">
         <v>476</v>
       </c>
@@ -24138,7 +24141,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="132"/>
+      <c r="A84" s="134"/>
       <c r="B84" s="107" t="s">
         <v>452</v>
       </c>
@@ -24158,7 +24161,7 @@
       <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="132"/>
+      <c r="A85" s="134"/>
       <c r="B85" s="107"/>
       <c r="C85" s="107"/>
       <c r="D85" s="108"/>
@@ -24166,7 +24169,7 @@
       <c r="F85" s="108"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="132"/>
+      <c r="A86" s="134"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -24174,7 +24177,7 @@
       <c r="F86" s="108"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="132"/>
+      <c r="A87" s="134"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107"/>
       <c r="D87" s="108"/>
@@ -24182,7 +24185,7 @@
       <c r="F87" s="108"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="132"/>
+      <c r="A88" s="134"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107"/>
       <c r="D88" s="108"/>
@@ -24193,7 +24196,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="132"/>
+      <c r="A89" s="134"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107"/>
       <c r="D89" s="108"/>
@@ -24204,7 +24207,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="132" t="s">
+      <c r="A90" s="134" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="107" t="s">
@@ -24231,7 +24234,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="132"/>
+      <c r="A91" s="134"/>
       <c r="B91" s="107" t="s">
         <v>301</v>
       </c>
@@ -24257,7 +24260,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="132"/>
+      <c r="A92" s="134"/>
       <c r="B92" s="107" t="s">
         <v>375</v>
       </c>
@@ -24283,7 +24286,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="132"/>
+      <c r="A93" s="134"/>
       <c r="B93" s="107"/>
       <c r="C93" s="107"/>
       <c r="D93" s="108">
@@ -24305,7 +24308,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="132"/>
+      <c r="A94" s="134"/>
       <c r="B94" s="107"/>
       <c r="C94" s="107"/>
       <c r="D94" s="108">
@@ -24327,7 +24330,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="132"/>
+      <c r="A95" s="134"/>
       <c r="B95" s="107"/>
       <c r="C95" s="107"/>
       <c r="D95" s="108">
@@ -24349,7 +24352,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="132"/>
+      <c r="A96" s="134"/>
       <c r="B96" s="107"/>
       <c r="C96" s="107"/>
       <c r="D96" s="108">
@@ -24371,7 +24374,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="132"/>
+      <c r="A97" s="134"/>
       <c r="B97" s="107"/>
       <c r="C97" s="107"/>
       <c r="D97" s="108">
@@ -24393,7 +24396,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="132"/>
+      <c r="A98" s="134"/>
       <c r="B98" s="107"/>
       <c r="C98" s="107"/>
       <c r="D98" s="108">
@@ -24409,7 +24412,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="132"/>
+      <c r="A99" s="134"/>
       <c r="B99" s="107"/>
       <c r="C99" s="107"/>
       <c r="D99" s="108">
@@ -24425,7 +24428,7 @@
       <c r="I99" s="110"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="132"/>
+      <c r="A100" s="134"/>
       <c r="B100" s="107"/>
       <c r="C100" s="107"/>
       <c r="D100" s="108">
@@ -24440,7 +24443,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="132"/>
+      <c r="A101" s="134"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -24451,7 +24454,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="132"/>
+      <c r="A102" s="134"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="108"/>
@@ -24462,7 +24465,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="132"/>
+      <c r="A103" s="134"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="108"/>
@@ -24473,7 +24476,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="133"/>
+      <c r="A104" s="135"/>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="108"/>
@@ -24484,7 +24487,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="134" t="s">
+      <c r="A105" s="136" t="s">
         <v>19</v>
       </c>
       <c r="B105" s="107" t="s">
@@ -24511,7 +24514,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="134"/>
+      <c r="A106" s="136"/>
       <c r="B106" s="107" t="s">
         <v>331</v>
       </c>
@@ -24537,7 +24540,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="134"/>
+      <c r="A107" s="136"/>
       <c r="B107" s="107" t="s">
         <v>294</v>
       </c>
@@ -24563,7 +24566,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="134"/>
+      <c r="A108" s="136"/>
       <c r="B108" s="107" t="s">
         <v>331</v>
       </c>
@@ -24589,7 +24592,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="134"/>
+      <c r="A109" s="136"/>
       <c r="B109" s="107" t="s">
         <v>298</v>
       </c>
@@ -24615,7 +24618,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="134"/>
+      <c r="A110" s="136"/>
       <c r="B110" s="107" t="s">
         <v>301</v>
       </c>
@@ -24641,7 +24644,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="134"/>
+      <c r="A111" s="136"/>
       <c r="B111" s="107" t="s">
         <v>303</v>
       </c>
@@ -24667,7 +24670,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="134"/>
+      <c r="A112" s="136"/>
       <c r="B112" s="107" t="s">
         <v>315</v>
       </c>
@@ -24693,7 +24696,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="134"/>
+      <c r="A113" s="136"/>
       <c r="B113" s="107" t="s">
         <v>332</v>
       </c>
@@ -24713,7 +24716,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="134"/>
+      <c r="A114" s="136"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -24725,7 +24728,7 @@
       <c r="I114" s="110"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="134"/>
+      <c r="A115" s="136"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -24736,7 +24739,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="134"/>
+      <c r="A116" s="136"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -24747,7 +24750,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="134"/>
+      <c r="A117" s="136"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -24758,7 +24761,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="134"/>
+      <c r="A118" s="136"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -24769,7 +24772,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="135"/>
+      <c r="A119" s="137"/>
       <c r="B119" s="107"/>
       <c r="C119" s="107"/>
       <c r="D119" s="108"/>
@@ -24780,7 +24783,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="136" t="s">
+      <c r="A120" s="138" t="s">
         <v>339</v>
       </c>
       <c r="B120" s="115" t="s">
@@ -24807,7 +24810,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="136"/>
+      <c r="A121" s="138"/>
       <c r="B121" s="115" t="s">
         <v>478</v>
       </c>
@@ -24833,7 +24836,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="136"/>
+      <c r="A122" s="138"/>
       <c r="B122" s="107" t="s">
         <v>301</v>
       </c>
@@ -24859,7 +24862,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="136"/>
+      <c r="A123" s="138"/>
       <c r="B123" s="107" t="s">
         <v>479</v>
       </c>
@@ -24885,7 +24888,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="136"/>
+      <c r="A124" s="138"/>
       <c r="B124" s="107" t="s">
         <v>310</v>
       </c>
@@ -24911,7 +24914,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="136"/>
+      <c r="A125" s="138"/>
       <c r="B125" s="107" t="s">
         <v>465</v>
       </c>
@@ -24937,7 +24940,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="136"/>
+      <c r="A126" s="138"/>
       <c r="B126" s="107" t="s">
         <v>303</v>
       </c>
@@ -24963,7 +24966,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="136"/>
+      <c r="A127" s="138"/>
       <c r="B127" s="107" t="s">
         <v>461</v>
       </c>
@@ -24989,7 +24992,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="136"/>
+      <c r="A128" s="138"/>
       <c r="B128" s="107" t="s">
         <v>296</v>
       </c>
@@ -25009,7 +25012,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="136"/>
+      <c r="A129" s="138"/>
       <c r="B129" s="115" t="s">
         <v>480</v>
       </c>
@@ -25029,7 +25032,7 @@
       <c r="I129" s="110"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="136"/>
+      <c r="A130" s="138"/>
       <c r="B130" s="115"/>
       <c r="C130" s="107"/>
       <c r="D130" s="108"/>
@@ -25040,7 +25043,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="136"/>
+      <c r="A131" s="138"/>
       <c r="B131" s="115"/>
       <c r="C131" s="107"/>
       <c r="D131" s="108"/>
@@ -25051,7 +25054,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="136"/>
+      <c r="A132" s="138"/>
       <c r="B132" s="115"/>
       <c r="C132" s="107"/>
       <c r="D132" s="108"/>
@@ -25062,7 +25065,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="136"/>
+      <c r="A133" s="138"/>
       <c r="B133" s="116"/>
       <c r="C133" s="111"/>
       <c r="D133" s="112"/>
@@ -25073,7 +25076,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="136"/>
+      <c r="A134" s="138"/>
       <c r="B134" s="117"/>
       <c r="C134" s="124"/>
       <c r="D134" s="125"/>
@@ -25242,8 +25245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9EFCF2-B647-4263-9741-7AEEC9FEC381}">
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="R15" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25282,7 +25285,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="134" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -25312,7 +25315,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="132"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="107" t="s">
         <v>482</v>
       </c>
@@ -25341,7 +25344,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="132"/>
+      <c r="A4" s="134"/>
       <c r="B4" s="107" t="s">
         <v>301</v>
       </c>
@@ -25370,7 +25373,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="132"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="107" t="s">
         <v>483</v>
       </c>
@@ -25399,7 +25402,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="132"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="107" t="s">
         <v>452</v>
       </c>
@@ -25428,7 +25431,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="132"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="107" t="s">
         <v>473</v>
       </c>
@@ -25457,7 +25460,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="132"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="107" t="s">
         <v>314</v>
       </c>
@@ -25483,7 +25486,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="132"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="107" t="s">
         <v>484</v>
       </c>
@@ -25509,7 +25512,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="132"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="107" t="s">
         <v>303</v>
       </c>
@@ -25529,7 +25532,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="132"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="107" t="s">
         <v>485</v>
       </c>
@@ -25549,7 +25552,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="132"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="107" t="s">
         <v>486</v>
       </c>
@@ -25568,7 +25571,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="132"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -25579,7 +25582,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="132"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -25590,7 +25593,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="132"/>
+      <c r="A15" s="134"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -25601,7 +25604,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="132"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -25612,7 +25615,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="134" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -25639,7 +25642,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="132"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="107" t="s">
         <v>301</v>
       </c>
@@ -25665,7 +25668,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="132"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="107" t="s">
         <v>488</v>
       </c>
@@ -25691,7 +25694,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="132"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="107" t="s">
         <v>452</v>
       </c>
@@ -25717,7 +25720,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="132"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="107" t="s">
         <v>410</v>
       </c>
@@ -25743,7 +25746,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="132"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="107" t="s">
         <v>489</v>
       </c>
@@ -25769,7 +25772,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="132"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="107" t="s">
         <v>303</v>
       </c>
@@ -25795,7 +25798,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="132"/>
+      <c r="A24" s="134"/>
       <c r="B24" s="107" t="s">
         <v>314</v>
       </c>
@@ -25821,7 +25824,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="132"/>
+      <c r="A25" s="134"/>
       <c r="B25" s="107" t="s">
         <v>490</v>
       </c>
@@ -25841,7 +25844,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="132"/>
+      <c r="A26" s="134"/>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
@@ -25852,7 +25855,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="132"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -25863,7 +25866,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="132"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -25874,7 +25877,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="134" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="107" t="s">
@@ -25901,7 +25904,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="132"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="107" t="s">
         <v>407</v>
       </c>
@@ -25927,7 +25930,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="132"/>
+      <c r="A31" s="134"/>
       <c r="B31" s="107" t="s">
         <v>301</v>
       </c>
@@ -25953,7 +25956,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="132"/>
+      <c r="A32" s="134"/>
       <c r="B32" s="107" t="s">
         <v>485</v>
       </c>
@@ -25979,7 +25982,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="132"/>
+      <c r="A33" s="134"/>
       <c r="B33" s="107" t="s">
         <v>452</v>
       </c>
@@ -26005,7 +26008,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="132"/>
+      <c r="A34" s="134"/>
       <c r="B34" s="107" t="s">
         <v>298</v>
       </c>
@@ -26031,7 +26034,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="132"/>
+      <c r="A35" s="134"/>
       <c r="B35" s="107" t="s">
         <v>314</v>
       </c>
@@ -26057,7 +26060,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="132"/>
+      <c r="A36" s="134"/>
       <c r="B36" s="107" t="s">
         <v>492</v>
       </c>
@@ -26083,7 +26086,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="132"/>
+      <c r="A37" s="134"/>
       <c r="B37" s="107" t="s">
         <v>303</v>
       </c>
@@ -26103,7 +26106,7 @@
       <c r="I37" s="110"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="132"/>
+      <c r="A38" s="134"/>
       <c r="B38" s="107" t="s">
         <v>486</v>
       </c>
@@ -26123,7 +26126,7 @@
       <c r="I38" s="110"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="132"/>
+      <c r="A39" s="134"/>
       <c r="B39" s="107" t="s">
         <v>493</v>
       </c>
@@ -26142,7 +26145,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="132"/>
+      <c r="A40" s="134"/>
       <c r="B40" s="107" t="s">
         <v>494</v>
       </c>
@@ -26161,7 +26164,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="132"/>
+      <c r="A41" s="134"/>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="108"/>
@@ -26172,7 +26175,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="132"/>
+      <c r="A42" s="134"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -26183,7 +26186,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="132"/>
+      <c r="A43" s="134"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -26194,7 +26197,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="132" t="s">
+      <c r="A44" s="134" t="s">
         <v>318</v>
       </c>
       <c r="B44" s="107" t="s">
@@ -26221,7 +26224,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="132"/>
+      <c r="A45" s="134"/>
       <c r="B45" s="107" t="s">
         <v>301</v>
       </c>
@@ -26247,7 +26250,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="132"/>
+      <c r="A46" s="134"/>
       <c r="B46" s="107" t="s">
         <v>496</v>
       </c>
@@ -26273,7 +26276,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="132"/>
+      <c r="A47" s="134"/>
       <c r="B47" s="107" t="s">
         <v>452</v>
       </c>
@@ -26299,7 +26302,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="132"/>
+      <c r="A48" s="134"/>
       <c r="B48" s="107" t="s">
         <v>410</v>
       </c>
@@ -26325,7 +26328,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="132"/>
+      <c r="A49" s="134"/>
       <c r="B49" s="107" t="s">
         <v>296</v>
       </c>
@@ -26351,7 +26354,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="132"/>
+      <c r="A50" s="134"/>
       <c r="B50" s="107" t="s">
         <v>497</v>
       </c>
@@ -26377,7 +26380,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="132"/>
+      <c r="A51" s="134"/>
       <c r="B51" s="107" t="s">
         <v>303</v>
       </c>
@@ -26403,7 +26406,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="132"/>
+      <c r="A52" s="134"/>
       <c r="B52" s="107" t="s">
         <v>498</v>
       </c>
@@ -26423,7 +26426,7 @@
       <c r="I52" s="110"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="132"/>
+      <c r="A53" s="134"/>
       <c r="B53" s="107" t="s">
         <v>499</v>
       </c>
@@ -26443,7 +26446,7 @@
       <c r="I53" s="110"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="132"/>
+      <c r="A54" s="134"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -26454,7 +26457,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="132"/>
+      <c r="A55" s="134"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -26465,7 +26468,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="132"/>
+      <c r="A56" s="134"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -26476,7 +26479,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="132"/>
+      <c r="A57" s="134"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -26487,7 +26490,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="132" t="s">
+      <c r="A58" s="134" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="107" t="s">
@@ -26514,7 +26517,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="132"/>
+      <c r="A59" s="134"/>
       <c r="B59" s="107" t="s">
         <v>500</v>
       </c>
@@ -26540,7 +26543,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="132"/>
+      <c r="A60" s="134"/>
       <c r="B60" s="107" t="s">
         <v>368</v>
       </c>
@@ -26566,7 +26569,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="132"/>
+      <c r="A61" s="134"/>
       <c r="B61" s="107" t="s">
         <v>452</v>
       </c>
@@ -26592,7 +26595,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="132"/>
+      <c r="A62" s="134"/>
       <c r="B62" s="107" t="s">
         <v>310</v>
       </c>
@@ -26618,7 +26621,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="132"/>
+      <c r="A63" s="134"/>
       <c r="B63" s="107" t="s">
         <v>501</v>
       </c>
@@ -26644,7 +26647,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="132"/>
+      <c r="A64" s="134"/>
       <c r="B64" s="107" t="s">
         <v>314</v>
       </c>
@@ -26670,7 +26673,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="132"/>
+      <c r="A65" s="134"/>
       <c r="B65" s="107" t="s">
         <v>502</v>
       </c>
@@ -26696,7 +26699,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="132"/>
+      <c r="A66" s="134"/>
       <c r="B66" s="107" t="s">
         <v>368</v>
       </c>
@@ -26717,7 +26720,7 @@
       <c r="I66" s="106"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="132"/>
+      <c r="A67" s="134"/>
       <c r="B67" s="107" t="s">
         <v>503</v>
       </c>
@@ -26737,7 +26740,7 @@
       <c r="I67" s="110"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="132"/>
+      <c r="A68" s="134"/>
       <c r="B68" s="107" t="s">
         <v>504</v>
       </c>
@@ -26757,7 +26760,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="132"/>
+      <c r="A69" s="134"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -26768,7 +26771,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="132"/>
+      <c r="A70" s="134"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -26779,7 +26782,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="132"/>
+      <c r="A71" s="134"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -26790,7 +26793,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="132"/>
+      <c r="A72" s="134"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -26801,7 +26804,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="132"/>
+      <c r="A73" s="134"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -26812,7 +26815,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="132" t="s">
+      <c r="A74" s="134" t="s">
         <v>67</v>
       </c>
       <c r="B74" s="107" t="s">
@@ -26839,7 +26842,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="132"/>
+      <c r="A75" s="134"/>
       <c r="B75" s="107" t="s">
         <v>301</v>
       </c>
@@ -26865,7 +26868,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="132"/>
+      <c r="A76" s="134"/>
       <c r="B76" s="107" t="s">
         <v>505</v>
       </c>
@@ -26891,7 +26894,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="132"/>
+      <c r="A77" s="134"/>
       <c r="B77" s="107" t="s">
         <v>506</v>
       </c>
@@ -26917,7 +26920,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="132"/>
+      <c r="A78" s="134"/>
       <c r="B78" s="107" t="s">
         <v>371</v>
       </c>
@@ -26943,7 +26946,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="132"/>
+      <c r="A79" s="134"/>
       <c r="B79" s="107" t="s">
         <v>373</v>
       </c>
@@ -26969,7 +26972,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="132"/>
+      <c r="A80" s="134"/>
       <c r="B80" s="107" t="s">
         <v>368</v>
       </c>
@@ -26995,7 +26998,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="132"/>
+      <c r="A81" s="134"/>
       <c r="B81" s="107" t="s">
         <v>373</v>
       </c>
@@ -27021,7 +27024,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="132"/>
+      <c r="A82" s="134"/>
       <c r="B82" s="107" t="s">
         <v>314</v>
       </c>
@@ -27041,7 +27044,7 @@
       <c r="I82" s="110"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="132"/>
+      <c r="A83" s="134"/>
       <c r="B83" s="107" t="s">
         <v>371</v>
       </c>
@@ -27061,7 +27064,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="132"/>
+      <c r="A84" s="134"/>
       <c r="B84" s="107" t="s">
         <v>374</v>
       </c>
@@ -27080,7 +27083,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="132"/>
+      <c r="A85" s="134"/>
       <c r="B85" s="107"/>
       <c r="C85" s="107"/>
       <c r="D85" s="108"/>
@@ -27091,7 +27094,7 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="132"/>
+      <c r="A86" s="134"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107"/>
       <c r="D86" s="108"/>
@@ -27102,7 +27105,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="132"/>
+      <c r="A87" s="134"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107" t="s">
         <v>290</v>
@@ -27119,7 +27122,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="132"/>
+      <c r="A88" s="134"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107" t="s">
         <v>290</v>
@@ -27136,7 +27139,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="132" t="s">
+      <c r="A89" s="134" t="s">
         <v>28</v>
       </c>
       <c r="B89" s="107" t="s">
@@ -27163,7 +27166,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="132"/>
+      <c r="A90" s="134"/>
       <c r="B90" s="107" t="s">
         <v>301</v>
       </c>
@@ -27189,7 +27192,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="132"/>
+      <c r="A91" s="134"/>
       <c r="B91" s="107" t="s">
         <v>375</v>
       </c>
@@ -27215,7 +27218,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="132"/>
+      <c r="A92" s="134"/>
       <c r="B92" s="107" t="s">
         <v>375</v>
       </c>
@@ -27241,7 +27244,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="132"/>
+      <c r="A93" s="134"/>
       <c r="B93" s="107" t="s">
         <v>310</v>
       </c>
@@ -27267,7 +27270,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="132"/>
+      <c r="A94" s="134"/>
       <c r="B94" s="107"/>
       <c r="C94" s="107"/>
       <c r="D94" s="108">
@@ -27289,7 +27292,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="132"/>
+      <c r="A95" s="134"/>
       <c r="B95" s="107"/>
       <c r="C95" s="107"/>
       <c r="D95" s="108">
@@ -27311,7 +27314,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="132"/>
+      <c r="A96" s="134"/>
       <c r="B96" s="107"/>
       <c r="C96" s="107"/>
       <c r="D96" s="108">
@@ -27333,7 +27336,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="132"/>
+      <c r="A97" s="134"/>
       <c r="B97" s="107"/>
       <c r="C97" s="107"/>
       <c r="D97" s="108">
@@ -27349,7 +27352,7 @@
       <c r="I97" s="110"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="132"/>
+      <c r="A98" s="134"/>
       <c r="B98" s="107"/>
       <c r="C98" s="107"/>
       <c r="D98" s="108"/>
@@ -27361,7 +27364,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="132"/>
+      <c r="A99" s="134"/>
       <c r="B99" s="107"/>
       <c r="C99" s="107"/>
       <c r="D99" s="108"/>
@@ -27372,7 +27375,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="132"/>
+      <c r="A100" s="134"/>
       <c r="B100" s="107"/>
       <c r="C100" s="107"/>
       <c r="D100" s="108"/>
@@ -27383,7 +27386,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="132"/>
+      <c r="A101" s="134"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -27394,7 +27397,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="132"/>
+      <c r="A102" s="134"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107" t="s">
         <v>290</v>
@@ -27411,7 +27414,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="133"/>
+      <c r="A103" s="135"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107" t="s">
         <v>295</v>
@@ -27428,7 +27431,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="134" t="s">
+      <c r="A104" s="136" t="s">
         <v>19</v>
       </c>
       <c r="B104" s="107" t="s">
@@ -27455,7 +27458,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="134"/>
+      <c r="A105" s="136"/>
       <c r="B105" s="107" t="s">
         <v>331</v>
       </c>
@@ -27481,7 +27484,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="134"/>
+      <c r="A106" s="136"/>
       <c r="B106" s="107" t="s">
         <v>294</v>
       </c>
@@ -27507,7 +27510,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="134"/>
+      <c r="A107" s="136"/>
       <c r="B107" s="107" t="s">
         <v>331</v>
       </c>
@@ -27533,7 +27536,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="134"/>
+      <c r="A108" s="136"/>
       <c r="B108" s="107" t="s">
         <v>298</v>
       </c>
@@ -27559,7 +27562,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="134"/>
+      <c r="A109" s="136"/>
       <c r="B109" s="107" t="s">
         <v>301</v>
       </c>
@@ -27585,7 +27588,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="134"/>
+      <c r="A110" s="136"/>
       <c r="B110" s="107" t="s">
         <v>303</v>
       </c>
@@ -27611,7 +27614,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="134"/>
+      <c r="A111" s="136"/>
       <c r="B111" s="107" t="s">
         <v>315</v>
       </c>
@@ -27631,7 +27634,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="134"/>
+      <c r="A112" s="136"/>
       <c r="B112" s="107" t="s">
         <v>332</v>
       </c>
@@ -27645,7 +27648,7 @@
       <c r="I112" s="110"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="134"/>
+      <c r="A113" s="136"/>
       <c r="B113" s="107"/>
       <c r="C113" s="107"/>
       <c r="D113" s="108"/>
@@ -27657,7 +27660,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="134"/>
+      <c r="A114" s="136"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -27668,7 +27671,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="134"/>
+      <c r="A115" s="136"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -27679,7 +27682,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="134"/>
+      <c r="A116" s="136"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -27690,7 +27693,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="134"/>
+      <c r="A117" s="136"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -27701,7 +27704,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="135"/>
+      <c r="A118" s="137"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -27712,7 +27715,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="136" t="s">
+      <c r="A119" s="138" t="s">
         <v>339</v>
       </c>
       <c r="B119" s="115" t="s">
@@ -27739,7 +27742,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="136"/>
+      <c r="A120" s="138"/>
       <c r="B120" s="115" t="s">
         <v>507</v>
       </c>
@@ -27765,7 +27768,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="136"/>
+      <c r="A121" s="138"/>
       <c r="B121" s="107" t="s">
         <v>301</v>
       </c>
@@ -27791,7 +27794,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="136"/>
+      <c r="A122" s="138"/>
       <c r="B122" s="107" t="s">
         <v>508</v>
       </c>
@@ -27817,7 +27820,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="136"/>
+      <c r="A123" s="138"/>
       <c r="B123" s="107" t="s">
         <v>509</v>
       </c>
@@ -27843,7 +27846,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="136"/>
+      <c r="A124" s="138"/>
       <c r="B124" s="107" t="s">
         <v>310</v>
       </c>
@@ -27869,7 +27872,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="136"/>
+      <c r="A125" s="138"/>
       <c r="B125" s="107" t="s">
         <v>510</v>
       </c>
@@ -27895,7 +27898,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="136"/>
+      <c r="A126" s="138"/>
       <c r="B126" s="107" t="s">
         <v>303</v>
       </c>
@@ -27921,7 +27924,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="136"/>
+      <c r="A127" s="138"/>
       <c r="B127" s="107" t="s">
         <v>511</v>
       </c>
@@ -27941,7 +27944,7 @@
       <c r="I127" s="110"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="136"/>
+      <c r="A128" s="138"/>
       <c r="B128" s="107" t="s">
         <v>296</v>
       </c>
@@ -27961,7 +27964,7 @@
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="136"/>
+      <c r="A129" s="138"/>
       <c r="B129" s="115" t="s">
         <v>512</v>
       </c>
@@ -27980,7 +27983,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="136"/>
+      <c r="A130" s="138"/>
       <c r="C130" s="111"/>
       <c r="D130" s="112"/>
       <c r="E130" s="112"/>
@@ -27990,7 +27993,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="136"/>
+      <c r="A131" s="138"/>
       <c r="B131" s="115"/>
       <c r="C131" s="113"/>
       <c r="D131" s="114"/>
@@ -28001,7 +28004,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="136"/>
+      <c r="A132" s="138"/>
       <c r="B132" s="116"/>
       <c r="C132" s="111"/>
       <c r="D132" s="112"/>
@@ -28012,7 +28015,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="136"/>
+      <c r="A133" s="138"/>
       <c r="B133" s="117"/>
       <c r="C133" s="113"/>
       <c r="D133" s="114"/>
@@ -28177,8 +28180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448AE304-61C3-4727-BB61-AC5EFF7EF149}">
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28217,7 +28220,7 @@
       <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="134" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -28247,7 +28250,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="132"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="107" t="s">
         <v>482</v>
       </c>
@@ -28276,7 +28279,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="132"/>
+      <c r="A4" s="134"/>
       <c r="B4" s="107" t="s">
         <v>301</v>
       </c>
@@ -28305,7 +28308,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="132"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="107" t="s">
         <v>483</v>
       </c>
@@ -28334,7 +28337,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="132"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="107" t="s">
         <v>452</v>
       </c>
@@ -28363,7 +28366,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="132"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="107" t="s">
         <v>473</v>
       </c>
@@ -28392,7 +28395,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="132"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="107" t="s">
         <v>314</v>
       </c>
@@ -28418,7 +28421,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="132"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="107" t="s">
         <v>484</v>
       </c>
@@ -28444,7 +28447,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="132"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="107" t="s">
         <v>303</v>
       </c>
@@ -28464,7 +28467,7 @@
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="132"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="107" t="s">
         <v>485</v>
       </c>
@@ -28484,7 +28487,7 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="132"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="107" t="s">
         <v>486</v>
       </c>
@@ -28503,7 +28506,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="132"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -28514,7 +28517,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="132"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
@@ -28525,7 +28528,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="132"/>
+      <c r="A15" s="134"/>
       <c r="B15" s="107"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -28536,7 +28539,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="132"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -28547,7 +28550,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="134" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -28574,7 +28577,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="132"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="107" t="s">
         <v>301</v>
       </c>
@@ -28600,7 +28603,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="132"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="107" t="s">
         <v>514</v>
       </c>
@@ -28626,7 +28629,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="132"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="107" t="s">
         <v>410</v>
       </c>
@@ -28652,7 +28655,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="132"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="107" t="s">
         <v>294</v>
       </c>
@@ -28678,7 +28681,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="132"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="107" t="s">
         <v>452</v>
       </c>
@@ -28704,7 +28707,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="132"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="107" t="s">
         <v>303</v>
       </c>
@@ -28730,7 +28733,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="132"/>
+      <c r="A24" s="134"/>
       <c r="B24" s="107" t="s">
         <v>314</v>
       </c>
@@ -28756,7 +28759,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="132"/>
+      <c r="A25" s="134"/>
       <c r="B25" s="107" t="s">
         <v>515</v>
       </c>
@@ -28776,7 +28779,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="132"/>
+      <c r="A26" s="134"/>
       <c r="B26" s="107" t="s">
         <v>516</v>
       </c>
@@ -28795,7 +28798,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="132"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
@@ -28806,7 +28809,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="132"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
@@ -28817,7 +28820,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="134" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="107" t="s">
@@ -28844,7 +28847,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="132"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="107" t="s">
         <v>407</v>
       </c>
@@ -28870,7 +28873,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="132"/>
+      <c r="A31" s="134"/>
       <c r="B31" s="107" t="s">
         <v>301</v>
       </c>
@@ -28896,7 +28899,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="132"/>
+      <c r="A32" s="134"/>
       <c r="B32" s="107" t="s">
         <v>485</v>
       </c>
@@ -28922,7 +28925,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="132"/>
+      <c r="A33" s="134"/>
       <c r="B33" s="107" t="s">
         <v>452</v>
       </c>
@@ -28948,7 +28951,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="132"/>
+      <c r="A34" s="134"/>
       <c r="B34" s="107" t="s">
         <v>298</v>
       </c>
@@ -28974,7 +28977,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="132"/>
+      <c r="A35" s="134"/>
       <c r="B35" s="107" t="s">
         <v>314</v>
       </c>
@@ -29000,7 +29003,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="132"/>
+      <c r="A36" s="134"/>
       <c r="B36" s="107" t="s">
         <v>492</v>
       </c>
@@ -29026,7 +29029,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="132"/>
+      <c r="A37" s="134"/>
       <c r="B37" s="107" t="s">
         <v>303</v>
       </c>
@@ -29046,7 +29049,7 @@
       <c r="I37" s="110"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="132"/>
+      <c r="A38" s="134"/>
       <c r="B38" s="107" t="s">
         <v>486</v>
       </c>
@@ -29066,7 +29069,7 @@
       <c r="I38" s="110"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="132"/>
+      <c r="A39" s="134"/>
       <c r="B39" s="107" t="s">
         <v>493</v>
       </c>
@@ -29085,7 +29088,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="132"/>
+      <c r="A40" s="134"/>
       <c r="B40" s="107" t="s">
         <v>494</v>
       </c>
@@ -29104,7 +29107,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="132"/>
+      <c r="A41" s="134"/>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="108"/>
@@ -29115,7 +29118,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="132"/>
+      <c r="A42" s="134"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
       <c r="D42" s="108"/>
@@ -29126,7 +29129,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="132"/>
+      <c r="A43" s="134"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
       <c r="D43" s="108"/>
@@ -29137,7 +29140,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="132" t="s">
+      <c r="A44" s="134" t="s">
         <v>318</v>
       </c>
       <c r="B44" s="107" t="s">
@@ -29164,7 +29167,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="132"/>
+      <c r="A45" s="134"/>
       <c r="B45" s="107" t="s">
         <v>498</v>
       </c>
@@ -29190,7 +29193,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="132"/>
+      <c r="A46" s="134"/>
       <c r="B46" s="107" t="s">
         <v>518</v>
       </c>
@@ -29216,7 +29219,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="132"/>
+      <c r="A47" s="134"/>
       <c r="B47" s="107" t="s">
         <v>410</v>
       </c>
@@ -29242,7 +29245,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="132"/>
+      <c r="A48" s="134"/>
       <c r="B48" s="107" t="s">
         <v>294</v>
       </c>
@@ -29268,7 +29271,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="132"/>
+      <c r="A49" s="134"/>
       <c r="B49" s="107" t="s">
         <v>452</v>
       </c>
@@ -29294,7 +29297,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="132"/>
+      <c r="A50" s="134"/>
       <c r="B50" s="107" t="s">
         <v>303</v>
       </c>
@@ -29320,7 +29323,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="132"/>
+      <c r="A51" s="134"/>
       <c r="B51" s="107" t="s">
         <v>314</v>
       </c>
@@ -29346,7 +29349,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="132"/>
+      <c r="A52" s="134"/>
       <c r="B52" s="107" t="s">
         <v>519</v>
       </c>
@@ -29366,7 +29369,7 @@
       <c r="I52" s="110"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="132"/>
+      <c r="A53" s="134"/>
       <c r="B53" s="107" t="s">
         <v>520</v>
       </c>
@@ -29386,7 +29389,7 @@
       <c r="I53" s="110"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="132"/>
+      <c r="A54" s="134"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107"/>
       <c r="D54" s="108"/>
@@ -29397,7 +29400,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="132"/>
+      <c r="A55" s="134"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107"/>
       <c r="D55" s="108"/>
@@ -29408,7 +29411,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="132"/>
+      <c r="A56" s="134"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107"/>
       <c r="D56" s="108"/>
@@ -29419,7 +29422,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="132"/>
+      <c r="A57" s="134"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
       <c r="D57" s="108"/>
@@ -29430,7 +29433,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="132" t="s">
+      <c r="A58" s="134" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="107" t="s">
@@ -29457,7 +29460,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="132"/>
+      <c r="A59" s="134"/>
       <c r="B59" s="107" t="s">
         <v>500</v>
       </c>
@@ -29483,7 +29486,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="132"/>
+      <c r="A60" s="134"/>
       <c r="B60" s="107" t="s">
         <v>368</v>
       </c>
@@ -29505,11 +29508,11 @@
       </c>
       <c r="I60" s="108">
         <f t="shared" ref="I60" si="10">SUMIFS(F58:F73, C58:C73,H60)</f>
-        <v>0.15624999999999994</v>
+        <v>5.5555555555555525E-2</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="132"/>
+      <c r="A61" s="134"/>
       <c r="B61" s="107" t="s">
         <v>452</v>
       </c>
@@ -29531,11 +29534,11 @@
       </c>
       <c r="I61" s="108">
         <f t="shared" ref="I61" si="11">SUMIFS(F58:F73, C58:C73,H61)</f>
-        <v>6.25E-2</v>
+        <v>0.10416666666666674</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="132"/>
+      <c r="A62" s="134"/>
       <c r="B62" s="107" t="s">
         <v>310</v>
       </c>
@@ -29543,10 +29546,10 @@
         <v>299</v>
       </c>
       <c r="D62" s="108">
-        <v>0.53472222222222221</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E62" s="108">
-        <v>0.5625</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="F62" s="108">
         <f t="shared" si="0"/>
@@ -29557,52 +29560,52 @@
       </c>
       <c r="I62" s="108">
         <f t="shared" ref="I62" si="12">SUMIFS(F58:F73, C58:C73,H62)</f>
-        <v>1.388888888888884E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="132"/>
+      <c r="A63" s="134"/>
       <c r="B63" s="107" t="s">
-        <v>501</v>
+        <v>294</v>
       </c>
       <c r="C63" s="107" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D63" s="108">
-        <v>0.5625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E63" s="108">
-        <v>0.62152777777777779</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F63" s="108">
         <f t="shared" si="0"/>
-        <v>5.902777777777779E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H63" s="109" t="s">
         <v>302</v>
       </c>
       <c r="I63" s="108">
         <f t="shared" ref="I63" si="13">SUMIFS(F58:F73, C58:C73,H63)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="132"/>
+      <c r="A64" s="134"/>
       <c r="B64" s="107" t="s">
-        <v>314</v>
+        <v>452</v>
       </c>
       <c r="C64" s="107" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D64" s="108">
-        <v>0.59027777777777779</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E64" s="108">
-        <v>0.60416666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F64" s="108">
         <f>E64-D64</f>
-        <v>1.388888888888884E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="H64" s="109" t="s">
         <v>299</v>
@@ -29613,12 +29616,12 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="132"/>
+      <c r="A65" s="134"/>
       <c r="B65" s="107" t="s">
-        <v>502</v>
+        <v>314</v>
       </c>
       <c r="C65" s="107" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D65" s="108">
         <v>0.625</v>
@@ -29635,11 +29638,11 @@
       </c>
       <c r="I65" s="106">
         <f>SUM(I58:I64)</f>
-        <v>0.43055555555555547</v>
+        <v>0.46180555555555558</v>
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="132"/>
+      <c r="A66" s="134"/>
       <c r="B66" s="107" t="s">
         <v>368</v>
       </c>
@@ -29660,7 +29663,7 @@
       <c r="I66" s="106"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="132"/>
+      <c r="A67" s="134"/>
       <c r="B67" s="107" t="s">
         <v>503</v>
       </c>
@@ -29680,7 +29683,7 @@
       <c r="I67" s="110"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="132"/>
+      <c r="A68" s="134"/>
       <c r="B68" s="107" t="s">
         <v>504</v>
       </c>
@@ -29700,7 +29703,7 @@
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="132"/>
+      <c r="A69" s="134"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107"/>
       <c r="D69" s="108"/>
@@ -29711,7 +29714,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="132"/>
+      <c r="A70" s="134"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107"/>
       <c r="D70" s="108"/>
@@ -29722,7 +29725,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="132"/>
+      <c r="A71" s="134"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107"/>
       <c r="D71" s="108"/>
@@ -29733,7 +29736,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="132"/>
+      <c r="A72" s="134"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107"/>
       <c r="D72" s="108"/>
@@ -29744,7 +29747,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="132"/>
+      <c r="A73" s="134"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107"/>
       <c r="D73" s="108"/>
@@ -29755,7 +29758,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="132" t="s">
+      <c r="A74" s="134" t="s">
         <v>67</v>
       </c>
       <c r="B74" s="107" t="s">
@@ -29782,7 +29785,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="132"/>
+      <c r="A75" s="134"/>
       <c r="B75" s="107" t="s">
         <v>522</v>
       </c>
@@ -29808,7 +29811,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="132"/>
+      <c r="A76" s="134"/>
       <c r="B76" s="107" t="s">
         <v>523</v>
       </c>
@@ -29834,7 +29837,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="132"/>
+      <c r="A77" s="134"/>
       <c r="B77" s="107" t="s">
         <v>368</v>
       </c>
@@ -29860,7 +29863,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="132"/>
+      <c r="A78" s="134"/>
       <c r="B78" s="107" t="s">
         <v>506</v>
       </c>
@@ -29886,7 +29889,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="132"/>
+      <c r="A79" s="134"/>
       <c r="B79" s="107" t="s">
         <v>410</v>
       </c>
@@ -29912,7 +29915,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="132"/>
+      <c r="A80" s="134"/>
       <c r="B80" s="107" t="s">
         <v>294</v>
       </c>
@@ -29938,7 +29941,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="132"/>
+      <c r="A81" s="134"/>
       <c r="B81" s="107" t="s">
         <v>314</v>
       </c>
@@ -29964,7 +29967,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="132"/>
+      <c r="A82" s="134"/>
       <c r="B82" s="111" t="s">
         <v>452</v>
       </c>
@@ -29984,7 +29987,7 @@
       <c r="I82" s="110"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="137"/>
+      <c r="A83" s="139"/>
       <c r="B83" s="113" t="s">
         <v>524</v>
       </c>
@@ -30004,7 +30007,7 @@
       <c r="I83" s="110"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="137"/>
+      <c r="A84" s="139"/>
       <c r="B84" s="113" t="s">
         <v>525</v>
       </c>
@@ -30023,8 +30026,8 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="137"/>
-      <c r="B85" s="138" t="s">
+      <c r="A85" s="139"/>
+      <c r="B85" s="132" t="s">
         <v>524</v>
       </c>
       <c r="C85" s="113" t="s">
@@ -30042,15 +30045,15 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="132"/>
-      <c r="B86" s="139"/>
+      <c r="A86" s="134"/>
+      <c r="B86" s="133"/>
       <c r="C86" s="113"/>
       <c r="D86" s="114"/>
       <c r="E86" s="114"/>
       <c r="F86" s="114"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="132"/>
+      <c r="A87" s="134"/>
       <c r="B87" s="107"/>
       <c r="C87" s="129" t="s">
         <v>290</v>
@@ -30067,7 +30070,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="132"/>
+      <c r="A88" s="134"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107" t="s">
         <v>290</v>
@@ -30084,7 +30087,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="132" t="s">
+      <c r="A89" s="134" t="s">
         <v>28</v>
       </c>
       <c r="B89" s="107" t="s">
@@ -30111,7 +30114,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="132"/>
+      <c r="A90" s="134"/>
       <c r="B90" s="107" t="s">
         <v>301</v>
       </c>
@@ -30137,7 +30140,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="132"/>
+      <c r="A91" s="134"/>
       <c r="B91" s="107" t="s">
         <v>375</v>
       </c>
@@ -30163,7 +30166,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="132"/>
+      <c r="A92" s="134"/>
       <c r="B92" s="107" t="s">
         <v>375</v>
       </c>
@@ -30189,7 +30192,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="132"/>
+      <c r="A93" s="134"/>
       <c r="B93" s="107" t="s">
         <v>310</v>
       </c>
@@ -30215,7 +30218,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="132"/>
+      <c r="A94" s="134"/>
       <c r="B94" s="107"/>
       <c r="C94" s="107"/>
       <c r="D94" s="108">
@@ -30237,7 +30240,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="132"/>
+      <c r="A95" s="134"/>
       <c r="B95" s="107"/>
       <c r="C95" s="107"/>
       <c r="D95" s="108">
@@ -30259,7 +30262,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="132"/>
+      <c r="A96" s="134"/>
       <c r="B96" s="107"/>
       <c r="C96" s="107"/>
       <c r="D96" s="108">
@@ -30281,7 +30284,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="132"/>
+      <c r="A97" s="134"/>
       <c r="B97" s="107"/>
       <c r="C97" s="107"/>
       <c r="D97" s="108">
@@ -30297,7 +30300,7 @@
       <c r="I97" s="110"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="132"/>
+      <c r="A98" s="134"/>
       <c r="B98" s="107"/>
       <c r="C98" s="107"/>
       <c r="D98" s="108"/>
@@ -30309,7 +30312,7 @@
       <c r="I98" s="110"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="132"/>
+      <c r="A99" s="134"/>
       <c r="B99" s="107"/>
       <c r="C99" s="107"/>
       <c r="D99" s="108"/>
@@ -30320,7 +30323,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="132"/>
+      <c r="A100" s="134"/>
       <c r="B100" s="107"/>
       <c r="C100" s="107"/>
       <c r="D100" s="108"/>
@@ -30331,7 +30334,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="132"/>
+      <c r="A101" s="134"/>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="108"/>
@@ -30342,7 +30345,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="132"/>
+      <c r="A102" s="134"/>
       <c r="B102" s="107"/>
       <c r="C102" s="107" t="s">
         <v>290</v>
@@ -30359,7 +30362,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="133"/>
+      <c r="A103" s="135"/>
       <c r="B103" s="107"/>
       <c r="C103" s="107" t="s">
         <v>295</v>
@@ -30376,7 +30379,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="134" t="s">
+      <c r="A104" s="136" t="s">
         <v>19</v>
       </c>
       <c r="B104" s="107" t="s">
@@ -30403,7 +30406,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="134"/>
+      <c r="A105" s="136"/>
       <c r="B105" s="107" t="s">
         <v>331</v>
       </c>
@@ -30429,7 +30432,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="134"/>
+      <c r="A106" s="136"/>
       <c r="B106" s="107" t="s">
         <v>294</v>
       </c>
@@ -30455,7 +30458,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="134"/>
+      <c r="A107" s="136"/>
       <c r="B107" s="107" t="s">
         <v>331</v>
       </c>
@@ -30481,7 +30484,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="134"/>
+      <c r="A108" s="136"/>
       <c r="B108" s="107" t="s">
         <v>298</v>
       </c>
@@ -30507,7 +30510,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="134"/>
+      <c r="A109" s="136"/>
       <c r="B109" s="107" t="s">
         <v>301</v>
       </c>
@@ -30533,7 +30536,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="134"/>
+      <c r="A110" s="136"/>
       <c r="B110" s="107" t="s">
         <v>303</v>
       </c>
@@ -30559,7 +30562,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="134"/>
+      <c r="A111" s="136"/>
       <c r="B111" s="107" t="s">
         <v>315</v>
       </c>
@@ -30579,7 +30582,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="134"/>
+      <c r="A112" s="136"/>
       <c r="B112" s="107" t="s">
         <v>332</v>
       </c>
@@ -30593,7 +30596,7 @@
       <c r="I112" s="110"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="134"/>
+      <c r="A113" s="136"/>
       <c r="B113" s="107"/>
       <c r="C113" s="107"/>
       <c r="D113" s="108"/>
@@ -30605,7 +30608,7 @@
       <c r="I113" s="110"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="134"/>
+      <c r="A114" s="136"/>
       <c r="B114" s="107"/>
       <c r="C114" s="107"/>
       <c r="D114" s="108"/>
@@ -30616,7 +30619,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="134"/>
+      <c r="A115" s="136"/>
       <c r="B115" s="107"/>
       <c r="C115" s="107"/>
       <c r="D115" s="108"/>
@@ -30627,7 +30630,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="134"/>
+      <c r="A116" s="136"/>
       <c r="B116" s="107"/>
       <c r="C116" s="107"/>
       <c r="D116" s="108"/>
@@ -30638,7 +30641,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="134"/>
+      <c r="A117" s="136"/>
       <c r="B117" s="107"/>
       <c r="C117" s="107"/>
       <c r="D117" s="108"/>
@@ -30649,7 +30652,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="135"/>
+      <c r="A118" s="137"/>
       <c r="B118" s="107"/>
       <c r="C118" s="107"/>
       <c r="D118" s="108"/>
@@ -30660,7 +30663,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="136" t="s">
+      <c r="A119" s="138" t="s">
         <v>339</v>
       </c>
       <c r="B119" s="115" t="s">
@@ -30687,7 +30690,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="136"/>
+      <c r="A120" s="138"/>
       <c r="B120" s="115" t="s">
         <v>527</v>
       </c>
@@ -30709,11 +30712,11 @@
       </c>
       <c r="I120" s="108">
         <f>SUMIFS(F117:F131, C117:C131,H120)</f>
-        <v>0.16319444444444442</v>
+        <v>0.20486111111111105</v>
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="136"/>
+      <c r="A121" s="138"/>
       <c r="B121" s="107" t="s">
         <v>301</v>
       </c>
@@ -30739,9 +30742,9 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="136"/>
+      <c r="A122" s="138"/>
       <c r="B122" s="107" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>290</v>
@@ -30765,7 +30768,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="136"/>
+      <c r="A123" s="138"/>
       <c r="B123" s="107" t="s">
         <v>310</v>
       </c>
@@ -30791,7 +30794,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="136"/>
+      <c r="A124" s="138"/>
       <c r="B124" s="107" t="s">
         <v>294</v>
       </c>
@@ -30817,7 +30820,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="136"/>
+      <c r="A125" s="138"/>
       <c r="B125" s="107" t="s">
         <v>296</v>
       </c>
@@ -30843,7 +30846,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="136"/>
+      <c r="A126" s="138"/>
       <c r="B126" s="107" t="s">
         <v>303</v>
       </c>
@@ -30865,11 +30868,11 @@
       </c>
       <c r="I126" s="106">
         <f t="shared" ref="I126" si="18">SUM(I120:I125)</f>
-        <v>0.44444444444444448</v>
+        <v>0.4861111111111111</v>
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="136"/>
+      <c r="A127" s="138"/>
       <c r="B127" s="107" t="s">
         <v>509</v>
       </c>
@@ -30889,57 +30892,65 @@
       <c r="I127" s="110"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="136"/>
+      <c r="A128" s="138"/>
       <c r="B128" s="107" t="s">
         <v>528</v>
       </c>
       <c r="C128" s="107" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D128" s="108">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E128" s="108">
         <v>0.75</v>
-      </c>
-      <c r="E128" s="108">
-        <v>0.84027777777777779</v>
       </c>
       <c r="F128" s="108">
         <f t="shared" si="14"/>
-        <v>9.027777777777779E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="I128" s="110"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="136"/>
+      <c r="A129" s="138"/>
       <c r="B129" s="107" t="s">
         <v>529</v>
       </c>
-      <c r="C129" s="111" t="s">
-        <v>302</v>
+      <c r="C129" s="107" t="s">
+        <v>297</v>
       </c>
       <c r="D129" s="108">
+        <v>0.75</v>
+      </c>
+      <c r="E129" s="108">
         <v>0.84027777777777779</v>
-      </c>
-      <c r="E129" s="108">
-        <v>0.86111111111111116</v>
       </c>
       <c r="F129" s="108">
         <f t="shared" si="14"/>
-        <v>2.083333333333337E-2</v>
+        <v>9.027777777777779E-2</v>
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="136"/>
-      <c r="B130" s="107"/>
-      <c r="C130" s="111"/>
-      <c r="D130" s="108"/>
-      <c r="E130" s="108"/>
+      <c r="A130" s="138"/>
+      <c r="B130" s="107" t="s">
+        <v>530</v>
+      </c>
+      <c r="C130" s="111" t="s">
+        <v>302</v>
+      </c>
+      <c r="D130" s="108">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="E130" s="108">
+        <v>0.86111111111111116</v>
+      </c>
       <c r="F130" s="112">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="136"/>
+      <c r="A131" s="138"/>
       <c r="B131" s="115"/>
       <c r="C131" s="113"/>
       <c r="D131" s="114"/>
@@ -30950,7 +30961,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="136"/>
+      <c r="A132" s="138"/>
       <c r="B132" s="116"/>
       <c r="C132" s="111"/>
       <c r="D132" s="112"/>
@@ -30961,7 +30972,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="136"/>
+      <c r="A133" s="138"/>
       <c r="B133" s="117"/>
       <c r="C133" s="113"/>
       <c r="D133" s="114"/>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B2714CC-9079-404B-934D-9EE328C1347E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94952CE5-C299-4CE0-9CF5-850454A640F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="24" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="535">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1973,6 +1973,18 @@
     <t xml:space="preserve">Explored on pagination in angular and integration of web api and angular </t>
   </si>
   <si>
+    <t>Worked on angular Profile Histroy Page</t>
+  </si>
+  <si>
+    <t>Worked on angular HR home page</t>
+  </si>
+  <si>
+    <t>Explored on Data Binding</t>
+  </si>
+  <si>
+    <t>Worked on angular Admin home page</t>
+  </si>
+  <si>
     <t>Timesheet filling</t>
   </si>
   <si>
@@ -1997,7 +2009,7 @@
     <t>Worked on angular and web api integration</t>
   </si>
   <si>
-    <t>Explored on Data Binding</t>
+    <t>College project review</t>
   </si>
   <si>
     <t>Customer Meeting and Discussion</t>
@@ -22388,7 +22400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEFA632-027C-44B7-B2E8-75A517756B1E}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A99" workbookViewId="0">
       <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
@@ -25245,8 +25257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9EFCF2-B647-4263-9741-7AEEC9FEC381}">
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28180,8 +28192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448AE304-61C3-4727-BB61-AC5EFF7EF149}">
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29437,20 +29449,20 @@
         <v>62</v>
       </c>
       <c r="B58" s="107" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="C58" s="107" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D58" s="108">
-        <v>0.375</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E58" s="108">
         <v>0.4375</v>
       </c>
       <c r="F58" s="108">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="H58" s="106" t="s">
         <v>291</v>
@@ -29462,7 +29474,7 @@
     <row r="59" spans="1:9">
       <c r="A59" s="134"/>
       <c r="B59" s="107" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="C59" s="107" t="s">
         <v>290</v>
@@ -29471,18 +29483,18 @@
         <v>0.4375</v>
       </c>
       <c r="E59" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="F59" s="108">
         <f t="shared" si="0"/>
-        <v>2.0833333333333315E-2</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="H59" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I59" s="108">
         <f t="shared" ref="I59" si="9">SUMIFS(F58:F73, C58:C73,H59)</f>
-        <v>0.12847222222222215</v>
+        <v>0.23263888888888895</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -29494,30 +29506,30 @@
         <v>299</v>
       </c>
       <c r="D60" s="108">
-        <v>0.45833333333333331</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="E60" s="108">
         <v>0.47916666666666669</v>
       </c>
       <c r="F60" s="108">
         <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H60" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I60" s="108">
         <f t="shared" ref="I60" si="10">SUMIFS(F58:F73, C58:C73,H60)</f>
-        <v>5.5555555555555525E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="134"/>
       <c r="B61" s="107" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="C61" s="107" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D61" s="108">
         <v>0.47916666666666669</v>
@@ -29534,7 +29546,7 @@
       </c>
       <c r="I61" s="108">
         <f t="shared" ref="I61" si="11">SUMIFS(F58:F73, C58:C73,H61)</f>
-        <v>0.10416666666666674</v>
+        <v>0.1736111111111111</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -29560,7 +29572,7 @@
       </c>
       <c r="I62" s="108">
         <f t="shared" ref="I62" si="12">SUMIFS(F58:F73, C58:C73,H62)</f>
-        <v>4.166666666666663E-2</v>
+        <v>1.736111111111116E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -29612,52 +29624,52 @@
       </c>
       <c r="I64" s="108">
         <f>SUMIFS(F57:F72, C57:C72,H64)</f>
-        <v>6.9444444444444531E-2</v>
+        <v>5.5555555555555469E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="134"/>
       <c r="B65" s="107" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="C65" s="107" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D65" s="108">
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E65" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="F65" s="108">
         <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H65" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I65" s="106">
         <f>SUM(I58:I64)</f>
-        <v>0.46180555555555558</v>
+        <v>0.54166666666666674</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="134"/>
       <c r="B66" s="107" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="C66" s="107" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D66" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.73263888888888884</v>
       </c>
       <c r="E66" s="108">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="F66" s="108">
         <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="H66" s="105"/>
       <c r="I66" s="106"/>
@@ -29665,16 +29677,16 @@
     <row r="67" spans="1:9">
       <c r="A67" s="134"/>
       <c r="B67" s="107" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="C67" s="107" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D67" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="E67" s="108">
-        <v>0.74305555555555547</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="F67" s="108">
         <f t="shared" ref="F67:F130" si="14">E67-D67</f>
@@ -29685,7 +29697,7 @@
     <row r="68" spans="1:9">
       <c r="A68" s="134"/>
       <c r="B68" s="107" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="C68" s="107" t="s">
         <v>290</v>
@@ -29694,23 +29706,31 @@
         <v>0.71875</v>
       </c>
       <c r="E68" s="108">
-        <v>0.75</v>
+        <v>0.74305555555555547</v>
       </c>
       <c r="F68" s="108">
         <f t="shared" si="14"/>
-        <v>3.125E-2</v>
+        <v>2.4305555555555469E-2</v>
       </c>
       <c r="I68" s="110"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="134"/>
-      <c r="B69" s="107"/>
-      <c r="C69" s="107"/>
-      <c r="D69" s="108"/>
-      <c r="E69" s="108"/>
+      <c r="B69" s="107" t="s">
+        <v>524</v>
+      </c>
+      <c r="C69" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D69" s="108">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="E69" s="108">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F69" s="108">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>9.0277777777777901E-2</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -29762,7 +29782,7 @@
         <v>67</v>
       </c>
       <c r="B74" s="107" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C74" s="107" t="s">
         <v>295</v>
@@ -29787,7 +29807,7 @@
     <row r="75" spans="1:9">
       <c r="A75" s="134"/>
       <c r="B75" s="107" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C75" s="107" t="s">
         <v>290</v>
@@ -29813,7 +29833,7 @@
     <row r="76" spans="1:9">
       <c r="A76" s="134"/>
       <c r="B76" s="107" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C76" s="107" t="s">
         <v>290</v>
@@ -29989,7 +30009,7 @@
     <row r="83" spans="1:9">
       <c r="A83" s="139"/>
       <c r="B83" s="113" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C83" s="115" t="s">
         <v>290</v>
@@ -30009,7 +30029,7 @@
     <row r="84" spans="1:9">
       <c r="A84" s="139"/>
       <c r="B84" s="113" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C84" s="116" t="s">
         <v>297</v>
@@ -30028,7 +30048,7 @@
     <row r="85" spans="1:9">
       <c r="A85" s="139"/>
       <c r="B85" s="132" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C85" s="113" t="s">
         <v>290</v>
@@ -30667,7 +30687,7 @@
         <v>339</v>
       </c>
       <c r="B119" s="115" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C119" s="107" t="s">
         <v>290</v>
@@ -30692,7 +30712,7 @@
     <row r="120" spans="1:9">
       <c r="A120" s="138"/>
       <c r="B120" s="115" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C120" s="107" t="s">
         <v>290</v>
@@ -30744,7 +30764,7 @@
     <row r="122" spans="1:9">
       <c r="A122" s="138"/>
       <c r="B122" s="107" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>290</v>
@@ -30822,7 +30842,7 @@
     <row r="125" spans="1:9">
       <c r="A125" s="138"/>
       <c r="B125" s="107" t="s">
-        <v>296</v>
+        <v>533</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>300</v>
@@ -30894,7 +30914,7 @@
     <row r="128" spans="1:9">
       <c r="A128" s="138"/>
       <c r="B128" s="107" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C128" s="107" t="s">
         <v>290</v>
@@ -30914,7 +30934,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="138"/>
       <c r="B129" s="107" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C129" s="107" t="s">
         <v>297</v>
@@ -30933,7 +30953,7 @@
     <row r="130" spans="1:9">
       <c r="A130" s="138"/>
       <c r="B130" s="107" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C130" s="111" t="s">
         <v>302</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94952CE5-C299-4CE0-9CF5-850454A640F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{998AD795-259D-4C62-91E9-5C1EDD48410D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="24" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="541">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1959,6 +1959,24 @@
   </si>
   <si>
     <t>Explored on integration of Web API and Angular.</t>
+  </si>
+  <si>
+    <t>Worked on Web api (College and Domain Service)</t>
+  </si>
+  <si>
+    <t>Worked on Web api (Master Data Services)</t>
+  </si>
+  <si>
+    <t>Discussed about Re-work of web api(User and Master Services)</t>
+  </si>
+  <si>
+    <t>Re-worked on the Modifications of Web Api(User and Master Data Services)</t>
+  </si>
+  <si>
+    <t>Discussion and Review with Customer</t>
+  </si>
+  <si>
+    <t>Refining Master service on Web api</t>
   </si>
   <si>
     <t xml:space="preserve">Worked on routing of angular pages </t>
@@ -28192,8 +28210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448AE304-61C3-4727-BB61-AC5EFF7EF149}">
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28836,20 +28854,20 @@
         <v>54</v>
       </c>
       <c r="B29" s="107" t="s">
-        <v>491</v>
+        <v>517</v>
       </c>
       <c r="C29" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D29" s="108">
-        <v>0.36805555555555558</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E29" s="108">
         <v>0.40277777777777773</v>
       </c>
       <c r="F29" s="108">
         <f t="shared" si="0"/>
-        <v>3.4722222222222154E-2</v>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="H29" s="106" t="s">
         <v>291</v>
@@ -28881,7 +28899,7 @@
       </c>
       <c r="I30" s="108">
         <f t="shared" ref="I30" si="1">SUMIFS(F29:F43, C29:C43,H30)</f>
-        <v>0.28124999999999994</v>
+        <v>0.3333333333333332</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -28907,13 +28925,13 @@
       </c>
       <c r="I31" s="108">
         <f t="shared" ref="I31" si="2">SUMIFS(F29:F43, C29:C43,H31)</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="134"/>
       <c r="B32" s="107" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="C32" s="107" t="s">
         <v>290</v>
@@ -28922,200 +28940,192 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="E32" s="108">
-        <v>0.4861111111111111</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="F32" s="108">
         <f t="shared" si="0"/>
-        <v>3.472222222222221E-2</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="H32" s="109" t="s">
         <v>297</v>
       </c>
       <c r="I32" s="108">
         <f t="shared" ref="I32" si="3">SUMIFS(F29:F43, C29:C43,H32)</f>
-        <v>9.0277777777777846E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="134"/>
       <c r="B33" s="107" t="s">
-        <v>452</v>
+        <v>298</v>
       </c>
       <c r="C33" s="107" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D33" s="108">
-        <v>0.4861111111111111</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E33" s="108">
-        <v>0.53125</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="F33" s="108">
         <f t="shared" si="0"/>
-        <v>4.5138888888888895E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H33" s="109" t="s">
         <v>300</v>
       </c>
       <c r="I33" s="108">
         <f t="shared" ref="I33" si="4">SUMIFS(F29:F43, C29:C43,H33)</f>
-        <v>1.388888888888884E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="134"/>
       <c r="B34" s="107" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C34" s="107" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D34" s="108">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E34" s="108">
-        <v>0.57986111111111105</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F34" s="108">
         <f t="shared" si="0"/>
-        <v>3.819444444444442E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H34" s="109" t="s">
         <v>302</v>
       </c>
       <c r="I34" s="108">
         <f t="shared" ref="I34" si="5">SUMIFS(F29:F43, C29:C43,H34)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="134"/>
       <c r="B35" s="107" t="s">
-        <v>314</v>
+        <v>519</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D35" s="108">
-        <v>0.59027777777777779</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E35" s="108">
-        <v>0.60416666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F35" s="108">
         <f t="shared" si="0"/>
-        <v>1.388888888888884E-2</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H35" s="109" t="s">
         <v>299</v>
       </c>
       <c r="I35" s="108">
         <f t="shared" ref="I35" si="6">SUMIFS(F29:F43, C29:C43,H35)</f>
-        <v>6.2499999999999944E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="134"/>
       <c r="B36" s="107" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
       <c r="C36" s="107" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D36" s="108">
-        <v>0.61111111111111105</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E36" s="108">
-        <v>0.65625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F36" s="108">
         <f t="shared" si="0"/>
-        <v>4.5138888888888951E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="H36" s="105" t="s">
         <v>305</v>
       </c>
       <c r="I36" s="106">
         <f t="shared" ref="I36" si="7">SUM(I30:I35)</f>
-        <v>0.44791666666666657</v>
+        <v>0.47916666666666663</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="134"/>
       <c r="B37" s="107" t="s">
-        <v>303</v>
+        <v>520</v>
       </c>
       <c r="C37" s="107" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D37" s="108">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E37" s="108">
-        <v>0.68055555555555547</v>
+        <v>0.84722222222222221</v>
       </c>
       <c r="F37" s="108">
         <f t="shared" si="0"/>
-        <v>1.388888888888884E-2</v>
+        <v>0.13888888888888884</v>
       </c>
       <c r="I37" s="110"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="134"/>
       <c r="B38" s="107" t="s">
-        <v>486</v>
+        <v>521</v>
       </c>
       <c r="C38" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D38" s="108">
-        <v>0.6875</v>
+        <v>0.84722222222222221</v>
       </c>
       <c r="E38" s="108">
-        <v>0.75</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="F38" s="108">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="I38" s="110"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="134"/>
       <c r="B39" s="107" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="C39" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D39" s="108">
-        <v>0.77083333333333337</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="E39" s="108">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="F39" s="108">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="134"/>
-      <c r="B40" s="107" t="s">
-        <v>494</v>
-      </c>
-      <c r="C40" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="D40" s="108">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E40" s="108">
-        <v>0.90625</v>
-      </c>
+      <c r="B40" s="107"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
       <c r="F40" s="108">
         <f t="shared" si="0"/>
-        <v>7.291666666666663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -29156,7 +29166,7 @@
         <v>318</v>
       </c>
       <c r="B44" s="107" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C44" s="107" t="s">
         <v>290</v>
@@ -29207,7 +29217,7 @@
     <row r="46" spans="1:9">
       <c r="A46" s="134"/>
       <c r="B46" s="107" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C46" s="107" t="s">
         <v>290</v>
@@ -29363,7 +29373,7 @@
     <row r="52" spans="1:9">
       <c r="A52" s="134"/>
       <c r="B52" s="107" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C52" s="107" t="s">
         <v>290</v>
@@ -29383,7 +29393,7 @@
     <row r="53" spans="1:9">
       <c r="A53" s="134"/>
       <c r="B53" s="107" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C53" s="107" t="s">
         <v>297</v>
@@ -29449,7 +29459,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="107" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C58" s="107" t="s">
         <v>290</v>
@@ -29474,7 +29484,7 @@
     <row r="59" spans="1:9">
       <c r="A59" s="134"/>
       <c r="B59" s="107" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C59" s="107" t="s">
         <v>290</v>
@@ -29677,7 +29687,7 @@
     <row r="67" spans="1:9">
       <c r="A67" s="134"/>
       <c r="B67" s="107" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C67" s="107" t="s">
         <v>297</v>
@@ -29697,7 +29707,7 @@
     <row r="68" spans="1:9">
       <c r="A68" s="134"/>
       <c r="B68" s="107" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C68" s="107" t="s">
         <v>290</v>
@@ -29717,7 +29727,7 @@
     <row r="69" spans="1:9">
       <c r="A69" s="134"/>
       <c r="B69" s="107" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C69" s="107" t="s">
         <v>290</v>
@@ -29782,7 +29792,7 @@
         <v>67</v>
       </c>
       <c r="B74" s="107" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C74" s="107" t="s">
         <v>295</v>
@@ -29807,7 +29817,7 @@
     <row r="75" spans="1:9">
       <c r="A75" s="134"/>
       <c r="B75" s="107" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C75" s="107" t="s">
         <v>290</v>
@@ -29833,7 +29843,7 @@
     <row r="76" spans="1:9">
       <c r="A76" s="134"/>
       <c r="B76" s="107" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C76" s="107" t="s">
         <v>290</v>
@@ -30009,7 +30019,7 @@
     <row r="83" spans="1:9">
       <c r="A83" s="139"/>
       <c r="B83" s="113" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C83" s="115" t="s">
         <v>290</v>
@@ -30029,7 +30039,7 @@
     <row r="84" spans="1:9">
       <c r="A84" s="139"/>
       <c r="B84" s="113" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C84" s="116" t="s">
         <v>297</v>
@@ -30048,7 +30058,7 @@
     <row r="85" spans="1:9">
       <c r="A85" s="139"/>
       <c r="B85" s="132" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C85" s="113" t="s">
         <v>290</v>
@@ -30687,7 +30697,7 @@
         <v>339</v>
       </c>
       <c r="B119" s="115" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C119" s="107" t="s">
         <v>290</v>
@@ -30712,7 +30722,7 @@
     <row r="120" spans="1:9">
       <c r="A120" s="138"/>
       <c r="B120" s="115" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C120" s="107" t="s">
         <v>290</v>
@@ -30764,7 +30774,7 @@
     <row r="122" spans="1:9">
       <c r="A122" s="138"/>
       <c r="B122" s="107" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>290</v>
@@ -30842,7 +30852,7 @@
     <row r="125" spans="1:9">
       <c r="A125" s="138"/>
       <c r="B125" s="107" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C125" s="107" t="s">
         <v>300</v>
@@ -30914,7 +30924,7 @@
     <row r="128" spans="1:9">
       <c r="A128" s="138"/>
       <c r="B128" s="107" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C128" s="107" t="s">
         <v>290</v>
@@ -30934,7 +30944,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="138"/>
       <c r="B129" s="107" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C129" s="107" t="s">
         <v>297</v>
@@ -30953,7 +30963,7 @@
     <row r="130" spans="1:9">
       <c r="A130" s="138"/>
       <c r="B130" s="107" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C130" s="111" t="s">
         <v>302</v>

--- a/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
+++ b/Process/Timesheet/PTW-TimeSheet 2 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{998AD795-259D-4C62-91E9-5C1EDD48410D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C6B9ED3-9CDB-45B5-8CB5-CDA229C225C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="24" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="544">
   <si>
     <t>Resource Name</t>
   </si>
@@ -2016,6 +2016,15 @@
   </si>
   <si>
     <t>exploration on navigation properities</t>
+  </si>
+  <si>
+    <t>Worked on web api user service</t>
+  </si>
+  <si>
+    <t>Added logging</t>
+  </si>
+  <si>
+    <t>Web API for user service</t>
   </si>
   <si>
     <t>Updated timesheet</t>
@@ -28210,8 +28219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448AE304-61C3-4727-BB61-AC5EFF7EF149}">
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30121,20 +30130,20 @@
         <v>28</v>
       </c>
       <c r="B89" s="107" t="s">
-        <v>375</v>
+        <v>536</v>
       </c>
       <c r="C89" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D89" s="108">
-        <v>0.375</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E89" s="108">
         <v>0.45833333333333331</v>
       </c>
       <c r="F89" s="108">
         <f t="shared" si="14"/>
-        <v>8.3333333333333315E-2</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="H89" s="106" t="s">
         <v>291</v>
@@ -30155,59 +30164,59 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E90" s="108">
-        <v>0.49305555555555558</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="F90" s="108">
         <f t="shared" si="14"/>
-        <v>3.4722222222222265E-2</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="H90" s="109" t="s">
         <v>290</v>
       </c>
       <c r="I90" s="108">
         <f>SUMIFS(F87:F101, C87:C101,H90)</f>
-        <v>0.21527777777777773</v>
+        <v>0.32291666666666657</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="134"/>
       <c r="B91" s="107" t="s">
-        <v>375</v>
+        <v>537</v>
       </c>
       <c r="C91" s="107" t="s">
         <v>290</v>
       </c>
       <c r="D91" s="108">
-        <v>0.5</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="E91" s="108">
-        <v>0.5625</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F91" s="108">
         <f t="shared" si="14"/>
-        <v>6.25E-2</v>
+        <v>6.9444444444444364E-2</v>
       </c>
       <c r="H91" s="109" t="s">
         <v>295</v>
       </c>
       <c r="I91" s="108">
         <f>SUMIFS(F87:F101, C87:C101,H91)</f>
-    